--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B461F0E8-4868-4943-818A-C3D0E4D1773F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A7BF301-666A-484D-8070-CFE5EAA331E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29880" yWindow="1080" windowWidth="15330" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="812">
   <si>
     <t>CONTA</t>
   </si>
@@ -325,18 +325,18 @@
     <t>HELIO</t>
   </si>
   <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
     <t>004254210</t>
   </si>
   <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
     <t>004415557</t>
   </si>
   <si>
@@ -436,21 +436,21 @@
     <t>002697806</t>
   </si>
   <si>
+    <t>005121919</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
     <t>004381180</t>
   </si>
   <si>
-    <t>005121919</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
     <t>004482439</t>
   </si>
   <si>
@@ -478,18 +478,18 @@
     <t>SIMONE</t>
   </si>
   <si>
+    <t>004855073</t>
+  </si>
+  <si>
+    <t>ELSI</t>
+  </si>
+  <si>
     <t>004321016</t>
   </si>
   <si>
     <t>JOAQUIM</t>
   </si>
   <si>
-    <t>004855073</t>
-  </si>
-  <si>
-    <t>ELSI</t>
-  </si>
-  <si>
     <t>002738211</t>
   </si>
   <si>
@@ -526,39 +526,39 @@
     <t>KELLY</t>
   </si>
   <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
     <t>002687737</t>
   </si>
   <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>004431546</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
   </si>
   <si>
     <t>004890544</t>
   </si>
   <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>004431546</t>
-  </si>
-  <si>
-    <t>GABRIELA</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
+    <t>004639776</t>
   </si>
   <si>
     <t>005190138</t>
   </si>
   <si>
-    <t>004639776</t>
-  </si>
-  <si>
     <t>004499920</t>
   </si>
   <si>
@@ -595,30 +595,30 @@
     <t>HENRIQUE</t>
   </si>
   <si>
+    <t>004586209</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>005143579</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>004241147</t>
+  </si>
+  <si>
     <t>004572740</t>
   </si>
   <si>
-    <t>004586209</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>005143579</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>004241147</t>
-  </si>
-  <si>
     <t>004459461</t>
   </si>
   <si>
@@ -637,24 +637,24 @@
     <t>ANDREA</t>
   </si>
   <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>004212933</t>
+  </si>
+  <si>
     <t>004382374</t>
   </si>
   <si>
     <t>THEOMAR</t>
   </si>
   <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
     <t>004457389</t>
   </si>
   <si>
-    <t>004212933</t>
-  </si>
-  <si>
     <t>005092207</t>
   </si>
   <si>
@@ -664,84 +664,84 @@
     <t>LUIZ</t>
   </si>
   <si>
+    <t>004460491</t>
+  </si>
+  <si>
     <t>004752534</t>
   </si>
   <si>
-    <t>004460491</t>
+    <t>004207955</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>004946542</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
   </si>
   <si>
     <t>004335144</t>
   </si>
   <si>
-    <t>004207955</t>
-  </si>
-  <si>
-    <t>SILVANIA</t>
-  </si>
-  <si>
-    <t>004946542</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
     <t>004453132</t>
   </si>
   <si>
+    <t>004646727</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>004207374</t>
+  </si>
+  <si>
+    <t>ANGELICA</t>
+  </si>
+  <si>
     <t>004497875</t>
   </si>
   <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>004646727</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>004207374</t>
-  </si>
-  <si>
-    <t>ANGELICA</t>
-  </si>
-  <si>
     <t>004376853</t>
   </si>
   <si>
     <t>ALBERTO</t>
   </si>
   <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004355790</t>
+  </si>
+  <si>
+    <t>MINEIA</t>
+  </si>
+  <si>
     <t>004556853</t>
   </si>
   <si>
     <t>MARCEL</t>
   </si>
   <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004355790</t>
-  </si>
-  <si>
-    <t>MINEIA</t>
-  </si>
-  <si>
     <t>004458624</t>
   </si>
   <si>
@@ -808,36 +808,36 @@
     <t>PHYLIA</t>
   </si>
   <si>
+    <t>005101676</t>
+  </si>
+  <si>
+    <t>ELENI</t>
+  </si>
+  <si>
     <t>004381328</t>
   </si>
   <si>
     <t>JOAO</t>
   </si>
   <si>
-    <t>005101676</t>
-  </si>
-  <si>
-    <t>ELENI</t>
-  </si>
-  <si>
     <t>004331477</t>
   </si>
   <si>
     <t>SUZY</t>
   </si>
   <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
     <t>004381095</t>
   </si>
   <si>
     <t>THIAGO</t>
   </si>
   <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
     <t>005105172</t>
   </si>
   <si>
@@ -847,6 +847,12 @@
     <t>001731007</t>
   </si>
   <si>
+    <t>004588677</t>
+  </si>
+  <si>
+    <t>RACHEL</t>
+  </si>
+  <si>
     <t>004200433</t>
   </si>
   <si>
@@ -856,12 +862,6 @@
     <t>004751770</t>
   </si>
   <si>
-    <t>004588677</t>
-  </si>
-  <si>
-    <t>RACHEL</t>
-  </si>
-  <si>
     <t>005009947</t>
   </si>
   <si>
@@ -877,22 +877,25 @@
     <t>004956636</t>
   </si>
   <si>
+    <t>004811224</t>
+  </si>
+  <si>
     <t>004315417</t>
   </si>
   <si>
     <t>SISSI</t>
   </si>
   <si>
-    <t>004811224</t>
+    <t>004404248</t>
+  </si>
+  <si>
+    <t>005000645</t>
   </si>
   <si>
     <t>004958539</t>
   </si>
   <si>
-    <t>004404248</t>
-  </si>
-  <si>
-    <t>005000645</t>
+    <t>004530494</t>
   </si>
   <si>
     <t>004508526</t>
@@ -901,9 +904,6 @@
     <t>CASSIO</t>
   </si>
   <si>
-    <t>004530494</t>
-  </si>
-  <si>
     <t>004748761</t>
   </si>
   <si>
@@ -934,15 +934,15 @@
     <t>ALESSANDRO</t>
   </si>
   <si>
+    <t>005035754</t>
+  </si>
+  <si>
     <t>004971448</t>
   </si>
   <si>
     <t>CLOVIS</t>
   </si>
   <si>
-    <t>005035754</t>
-  </si>
-  <si>
     <t>004587525</t>
   </si>
   <si>
@@ -973,6 +973,12 @@
     <t>GUSTAVO</t>
   </si>
   <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
     <t>005009992</t>
   </si>
   <si>
@@ -985,18 +991,12 @@
     <t>JULIAN</t>
   </si>
   <si>
+    <t>004565108</t>
+  </si>
+  <si>
     <t>004435987</t>
   </si>
   <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
     <t>002694089</t>
   </si>
   <si>
@@ -1051,372 +1051,372 @@
     <t>004268684</t>
   </si>
   <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>004276856</t>
+  </si>
+  <si>
+    <t>DAURA</t>
+  </si>
+  <si>
+    <t>004693349</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>004482090</t>
+  </si>
+  <si>
+    <t>CEZAR</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>003921139</t>
+  </si>
+  <si>
+    <t>GEISA</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>003435941</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004866753</t>
+  </si>
+  <si>
+    <t>GENESI</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>004853111</t>
+  </si>
+  <si>
+    <t>MARCONDES</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>004756981</t>
+  </si>
+  <si>
+    <t>004567880</t>
+  </si>
+  <si>
+    <t>LUANA</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>004945161</t>
+  </si>
+  <si>
+    <t>004550605</t>
+  </si>
+  <si>
+    <t>REJANE</t>
+  </si>
+  <si>
+    <t>004870976</t>
+  </si>
+  <si>
+    <t>004999410</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004479287</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>004491730</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>004259649</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>001000882</t>
+  </si>
+  <si>
+    <t>AYRTON</t>
+  </si>
+  <si>
+    <t>004805273</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>004556150</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004550750</t>
+  </si>
+  <si>
+    <t>THEO</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>004575621</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>005147664</t>
+  </si>
+  <si>
+    <t>SAVIO</t>
+  </si>
+  <si>
+    <t>002823185</t>
+  </si>
+  <si>
+    <t>004461526</t>
+  </si>
+  <si>
+    <t>ASSISTIGAS</t>
+  </si>
+  <si>
+    <t>004520100</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>004806286</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004463586</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004552944</t>
+  </si>
+  <si>
+    <t>YURI</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>005105970</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>005141215</t>
+  </si>
+  <si>
+    <t>KARINA</t>
+  </si>
+  <si>
+    <t>005073033</t>
+  </si>
+  <si>
+    <t>NILBORN</t>
+  </si>
+  <si>
+    <t>004924222</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
     <t>004431591</t>
   </si>
   <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>004276856</t>
-  </si>
-  <si>
-    <t>DAURA</t>
-  </si>
-  <si>
-    <t>004870976</t>
-  </si>
-  <si>
-    <t>004693349</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>004482090</t>
-  </si>
-  <si>
-    <t>CEZAR</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>003921139</t>
-  </si>
-  <si>
-    <t>GEISA</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>003435941</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004866753</t>
-  </si>
-  <si>
-    <t>GENESI</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>004853111</t>
-  </si>
-  <si>
-    <t>MARCONDES</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004756981</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>004567880</t>
-  </si>
-  <si>
-    <t>LUANA</t>
-  </si>
-  <si>
-    <t>004945161</t>
-  </si>
-  <si>
-    <t>004999410</t>
-  </si>
-  <si>
-    <t>004550605</t>
-  </si>
-  <si>
-    <t>REJANE</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004479287</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>004491730</t>
-  </si>
-  <si>
-    <t>DENISE</t>
-  </si>
-  <si>
-    <t>004259649</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>001000882</t>
-  </si>
-  <si>
-    <t>AYRTON</t>
-  </si>
-  <si>
-    <t>004805273</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004550750</t>
-  </si>
-  <si>
-    <t>THEO</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>004556150</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004575621</t>
-  </si>
-  <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
-    <t>005147664</t>
-  </si>
-  <si>
-    <t>SAVIO</t>
-  </si>
-  <si>
-    <t>002823185</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>004520100</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004461526</t>
-  </si>
-  <si>
-    <t>ASSISTIGAS</t>
-  </si>
-  <si>
-    <t>004806286</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>004463586</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>004552944</t>
-  </si>
-  <si>
-    <t>YURI</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>005105970</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>005141215</t>
-  </si>
-  <si>
-    <t>KARINA</t>
-  </si>
-  <si>
-    <t>004924222</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>005073033</t>
-  </si>
-  <si>
-    <t>NILBORN</t>
+    <t>004211807</t>
+  </si>
+  <si>
+    <t>EDINARDO</t>
+  </si>
+  <si>
+    <t>004466221</t>
   </si>
   <si>
     <t>004384131</t>
   </si>
   <si>
-    <t>004211807</t>
-  </si>
-  <si>
-    <t>EDINARDO</t>
-  </si>
-  <si>
-    <t>004466221</t>
-  </si>
-  <si>
     <t>004575632</t>
   </si>
   <si>
@@ -1429,21 +1429,21 @@
     <t>VINICIUS</t>
   </si>
   <si>
+    <t>004207658</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
+  </si>
+  <si>
+    <t>005142624</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
     <t>004462930</t>
   </si>
   <si>
-    <t>004207658</t>
-  </si>
-  <si>
-    <t>ROBERTO</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>005142624</t>
-  </si>
-  <si>
     <t>004216657</t>
   </si>
   <si>
@@ -1456,12 +1456,12 @@
     <t>STELLA</t>
   </si>
   <si>
+    <t>005040864</t>
+  </si>
+  <si>
     <t>004212409</t>
   </si>
   <si>
-    <t>005040864</t>
-  </si>
-  <si>
     <t>004512434</t>
   </si>
   <si>
@@ -1507,6 +1507,12 @@
     <t>005046790</t>
   </si>
   <si>
+    <t>004550415</t>
+  </si>
+  <si>
+    <t>DIOGO</t>
+  </si>
+  <si>
     <t>004425965</t>
   </si>
   <si>
@@ -1528,21 +1534,15 @@
     <t>WALQUIRIA</t>
   </si>
   <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
     <t>004273239</t>
   </si>
   <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>004550415</t>
-  </si>
-  <si>
-    <t>DIOGO</t>
-  </si>
-  <si>
     <t>004289402</t>
   </si>
   <si>
@@ -1552,15 +1552,15 @@
     <t>MARA</t>
   </si>
   <si>
+    <t>004425261</t>
+  </si>
+  <si>
+    <t>THAYSA</t>
+  </si>
+  <si>
     <t>004570632</t>
   </si>
   <si>
-    <t>004425261</t>
-  </si>
-  <si>
-    <t>THAYSA</t>
-  </si>
-  <si>
     <t>004465263</t>
   </si>
   <si>
@@ -1624,45 +1624,45 @@
     <t>WILLIAM</t>
   </si>
   <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>002786022</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
     <t>004754920</t>
   </si>
   <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>002786022</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
     <t>004920447</t>
   </si>
   <si>
     <t>MARILIA</t>
   </si>
   <si>
+    <t>004936634</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>005076418</t>
+  </si>
+  <si>
     <t>004332544</t>
   </si>
   <si>
     <t>CELIA</t>
   </si>
   <si>
-    <t>005076418</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
     <t>001879977</t>
   </si>
   <si>
     <t>THAISSA</t>
   </si>
   <si>
-    <t>004936634</t>
-  </si>
-  <si>
     <t>004334158</t>
   </si>
   <si>
@@ -1708,27 +1708,30 @@
     <t>ISABEL</t>
   </si>
   <si>
+    <t>004480970</t>
+  </si>
+  <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>004486497</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>005024046</t>
+  </si>
+  <si>
+    <t>004479965</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
     <t>004405234</t>
   </si>
   <si>
-    <t>004480970</t>
-  </si>
-  <si>
-    <t>005024046</t>
-  </si>
-  <si>
-    <t>004486497</t>
-  </si>
-  <si>
-    <t>ELENA</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>004479965</t>
-  </si>
-  <si>
     <t>004975924</t>
   </si>
   <si>
@@ -1750,27 +1753,27 @@
     <t>AURELIO</t>
   </si>
   <si>
+    <t>004238164</t>
+  </si>
+  <si>
+    <t>004974089</t>
+  </si>
+  <si>
+    <t>004498637</t>
+  </si>
+  <si>
+    <t>004224011</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
     <t>002828327</t>
   </si>
   <si>
     <t>RENAN</t>
   </si>
   <si>
-    <t>004238164</t>
-  </si>
-  <si>
-    <t>004974089</t>
-  </si>
-  <si>
-    <t>004498637</t>
-  </si>
-  <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
     <t>004547722</t>
   </si>
   <si>
@@ -1822,9 +1825,6 @@
     <t>NATAL</t>
   </si>
   <si>
-    <t>005055226</t>
-  </si>
-  <si>
     <t>004514241</t>
   </si>
   <si>
@@ -1843,15 +1843,15 @@
     <t>005000656</t>
   </si>
   <si>
+    <t>004643153</t>
+  </si>
+  <si>
+    <t>004313254</t>
+  </si>
+  <si>
     <t>004413523</t>
   </si>
   <si>
-    <t>004643153</t>
-  </si>
-  <si>
-    <t>004313254</t>
-  </si>
-  <si>
     <t>004451725</t>
   </si>
   <si>
@@ -1891,216 +1891,219 @@
     <t>MURYLO</t>
   </si>
   <si>
+    <t>004691225</t>
+  </si>
+  <si>
+    <t>ANNA</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>004508516</t>
+  </si>
+  <si>
     <t>004539779</t>
   </si>
   <si>
-    <t>004691225</t>
-  </si>
-  <si>
-    <t>ANNA</t>
+    <t>004500804</t>
+  </si>
+  <si>
+    <t>004517080</t>
   </si>
   <si>
     <t>001719494</t>
   </si>
   <si>
-    <t>004508504</t>
-  </si>
-  <si>
-    <t>004508516</t>
-  </si>
-  <si>
-    <t>004500804</t>
-  </si>
-  <si>
-    <t>004517080</t>
-  </si>
-  <si>
     <t>005170415</t>
   </si>
   <si>
     <t>004999434</t>
   </si>
   <si>
+    <t>004377415</t>
+  </si>
+  <si>
+    <t>ANGELA</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>004255049</t>
+  </si>
+  <si>
+    <t>MATHEUS</t>
+  </si>
+  <si>
+    <t>004265173</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>004767746</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>004242237</t>
+  </si>
+  <si>
+    <t>MARIAH</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>004854496</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004972070</t>
+  </si>
+  <si>
+    <t>000772433</t>
+  </si>
+  <si>
+    <t>001761119</t>
+  </si>
+  <si>
+    <t>BLUEMETRIX</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>004381194</t>
+  </si>
+  <si>
+    <t>ALINNE</t>
+  </si>
+  <si>
+    <t>004267044</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>004243043</t>
+  </si>
+  <si>
+    <t>SUELI</t>
+  </si>
+  <si>
+    <t>004388077</t>
+  </si>
+  <si>
+    <t>WLADMIR</t>
+  </si>
+  <si>
+    <t>004452507</t>
+  </si>
+  <si>
+    <t>005046919</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>004973881</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>004643880</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>004455356</t>
+  </si>
+  <si>
+    <t>001294033</t>
+  </si>
+  <si>
+    <t>VIVIANE</t>
+  </si>
+  <si>
+    <t>004877741</t>
+  </si>
+  <si>
     <t>003115072</t>
   </si>
   <si>
     <t>VICTOR</t>
   </si>
   <si>
+    <t>005022526</t>
+  </si>
+  <si>
+    <t>004290978</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
     <t>004432455</t>
   </si>
   <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>004377415</t>
-  </si>
-  <si>
-    <t>ANGELA</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>004255049</t>
-  </si>
-  <si>
-    <t>MATHEUS</t>
-  </si>
-  <si>
-    <t>004767746</t>
-  </si>
-  <si>
-    <t>004265173</t>
-  </si>
-  <si>
-    <t>JULIA</t>
-  </si>
-  <si>
-    <t>000772433</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>004242237</t>
-  </si>
-  <si>
-    <t>MARIAH</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>004854496</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004972070</t>
-  </si>
-  <si>
-    <t>001761119</t>
-  </si>
-  <si>
-    <t>BLUEMETRIX</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>004381194</t>
-  </si>
-  <si>
-    <t>ALINNE</t>
-  </si>
-  <si>
-    <t>004267044</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>004243043</t>
-  </si>
-  <si>
-    <t>SUELI</t>
-  </si>
-  <si>
-    <t>004388077</t>
-  </si>
-  <si>
-    <t>WLADMIR</t>
-  </si>
-  <si>
-    <t>004452507</t>
-  </si>
-  <si>
-    <t>005046919</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>004973881</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>004643880</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>001294033</t>
-  </si>
-  <si>
-    <t>VIVIANE</t>
-  </si>
-  <si>
-    <t>004877741</t>
-  </si>
-  <si>
-    <t>004290978</t>
-  </si>
-  <si>
-    <t>005022526</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
     <t>004277637</t>
   </si>
   <si>
+    <t>004497825</t>
+  </si>
+  <si>
     <t>004751154</t>
   </si>
   <si>
-    <t>004497825</t>
-  </si>
-  <si>
     <t>004398174</t>
   </si>
   <si>
     <t>DANIELE</t>
   </si>
   <si>
+    <t>005044389</t>
+  </si>
+  <si>
     <t>004551472</t>
   </si>
   <si>
@@ -2110,30 +2113,27 @@
     <t>004752494</t>
   </si>
   <si>
-    <t>005044389</t>
-  </si>
-  <si>
     <t>004749928</t>
   </si>
   <si>
     <t>004259659</t>
   </si>
   <si>
+    <t>004479734</t>
+  </si>
+  <si>
+    <t>004508159</t>
+  </si>
+  <si>
     <t>005140667</t>
   </si>
   <si>
-    <t>004508159</t>
-  </si>
-  <si>
-    <t>004479734</t>
+    <t>004374943</t>
   </si>
   <si>
     <t>004752519</t>
   </si>
   <si>
-    <t>004374943</t>
-  </si>
-  <si>
     <t>004215217</t>
   </si>
   <si>
@@ -2182,12 +2182,12 @@
     <t>EDUARDA</t>
   </si>
   <si>
+    <t>004805269</t>
+  </si>
+  <si>
     <t>005135281</t>
   </si>
   <si>
-    <t>004805269</t>
-  </si>
-  <si>
     <t>004340984</t>
   </si>
   <si>
@@ -2287,15 +2287,15 @@
     <t>004895776</t>
   </si>
   <si>
+    <t>004477812</t>
+  </si>
+  <si>
     <t>004998717</t>
   </si>
   <si>
     <t>GIOVANE</t>
   </si>
   <si>
-    <t>004477812</t>
-  </si>
-  <si>
     <t>004451996</t>
   </si>
   <si>
@@ -2305,6 +2305,9 @@
     <t>005122672</t>
   </si>
   <si>
+    <t>005198093</t>
+  </si>
+  <si>
     <t>004192775</t>
   </si>
   <si>
@@ -2381,6 +2384,12 @@
   </si>
   <si>
     <t>004850070</t>
+  </si>
+  <si>
+    <t>005203501</t>
+  </si>
+  <si>
+    <t>005203562</t>
   </si>
   <si>
     <t>004212132</t>
@@ -2811,10 +2820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C514"/>
+  <dimension ref="A1:C517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2838,7 +2847,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>16337596.420000006</v>
+        <v>16330615.93</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2849,7 +2858,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>8201473.0799999982</v>
+        <v>8203970.330000001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2860,7 +2869,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7260464.2600000007</v>
+        <v>7246197.4700000016</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2871,7 +2880,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6185997.7899999991</v>
+        <v>6192577.0599999977</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2882,7 +2891,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>5734477.5800000001</v>
+        <v>5721402.7599999998</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2893,7 +2902,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>4625579.8099999987</v>
+        <v>4627138.1699999981</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2904,7 +2913,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>4307581.9699999988</v>
+        <v>4272569.3100000005</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2915,7 +2924,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>4226116.21</v>
+        <v>4235610.9399999995</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2926,7 +2935,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>4204710.5600000005</v>
+        <v>4206128.17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2937,7 +2946,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>3879275.6900000009</v>
+        <v>3955322.91</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2948,7 +2957,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>3732649.2100000004</v>
+        <v>3734232.8400000008</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2959,7 +2968,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>3728406.2799999993</v>
+        <v>3730296.89</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2970,7 +2979,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>3575665.8899999997</v>
+        <v>3577322.25</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2981,7 +2990,7 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>3409141.9699999997</v>
+        <v>3401558.3599999994</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2992,7 +3001,7 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>3291817.8800000008</v>
+        <v>3293267.18</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3003,7 +3012,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>3178098.43</v>
+        <v>3179475.99</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3014,7 +3023,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>3086765.22</v>
+        <v>3088139.7199999997</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3025,7 +3034,7 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3019519.0500000003</v>
+        <v>3022613.5099999993</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3036,7 +3045,7 @@
         <v>39</v>
       </c>
       <c r="C20">
-        <v>2941095.98</v>
+        <v>2940552.97</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3047,7 +3056,7 @@
         <v>41</v>
       </c>
       <c r="C21">
-        <v>2801790.2100000009</v>
+        <v>2803246.28</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3058,7 +3067,7 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>2788434.9</v>
+        <v>2789083.3199999994</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3069,7 +3078,7 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>2731638.78</v>
+        <v>2732838.4400000004</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3080,7 +3089,7 @@
         <v>47</v>
       </c>
       <c r="C24">
-        <v>2660086.36</v>
+        <v>2661061.9000000004</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3091,7 +3100,7 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>2519479.6199999996</v>
+        <v>2518660.59</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3102,7 +3111,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <v>2402207.9399999995</v>
+        <v>2390815.5299999998</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3113,7 +3122,7 @@
         <v>53</v>
       </c>
       <c r="C27">
-        <v>2285636.61</v>
+        <v>2286707.2899999996</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3124,7 +3133,7 @@
         <v>55</v>
       </c>
       <c r="C28">
-        <v>2203211.0600000005</v>
+        <v>2204088.8099999996</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3135,7 +3144,7 @@
         <v>57</v>
       </c>
       <c r="C29">
-        <v>2201345.9399999995</v>
+        <v>2202327.7499999995</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3146,7 +3155,7 @@
         <v>59</v>
       </c>
       <c r="C30">
-        <v>2105093.4699999997</v>
+        <v>2103974.2800000003</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3157,7 +3166,7 @@
         <v>61</v>
       </c>
       <c r="C31">
-        <v>2049056.55</v>
+        <v>2051345.9000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3168,7 +3177,7 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>2039394.89</v>
+        <v>2039928.33</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3179,7 +3188,7 @@
         <v>64</v>
       </c>
       <c r="C33">
-        <v>1980528.0199999998</v>
+        <v>1971348.6</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3190,7 +3199,7 @@
         <v>66</v>
       </c>
       <c r="C34">
-        <v>1948190.21</v>
+        <v>1948390.0099999998</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3201,7 +3210,7 @@
         <v>68</v>
       </c>
       <c r="C35">
-        <v>1863877.0000000002</v>
+        <v>1860894.8699999996</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3212,7 +3221,7 @@
         <v>20</v>
       </c>
       <c r="C36">
-        <v>1851065.7200000002</v>
+        <v>1846939.3400000003</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3223,7 +3232,7 @@
         <v>71</v>
       </c>
       <c r="C37">
-        <v>1818733.9300000002</v>
+        <v>1819550.19</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3234,7 +3243,7 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>1815835.5399999998</v>
+        <v>1816299.6099999996</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3245,7 +3254,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>1802266.6099999999</v>
+        <v>1803112.17</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3256,7 +3265,7 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>1763283.33</v>
+        <v>1764106.19</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3267,7 +3276,7 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <v>1603696.0099999998</v>
+        <v>1605815.04</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3278,7 +3287,7 @@
         <v>81</v>
       </c>
       <c r="C42">
-        <v>1580913.22</v>
+        <v>1581630.85</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3289,7 +3298,7 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>1516485.46</v>
+        <v>1516573.7800000005</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3300,7 +3309,7 @@
         <v>77</v>
       </c>
       <c r="C44">
-        <v>1475768.5000000002</v>
+        <v>1476409.3099999998</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3311,7 +3320,7 @@
         <v>86</v>
       </c>
       <c r="C45">
-        <v>1441034.1700000004</v>
+        <v>1438525.38</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3322,7 +3331,7 @@
         <v>88</v>
       </c>
       <c r="C46">
-        <v>1398076.7599999998</v>
+        <v>1399340.51</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3333,7 +3342,7 @@
         <v>90</v>
       </c>
       <c r="C47">
-        <v>1382013.4800000004</v>
+        <v>1382620.47</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3344,7 +3353,7 @@
         <v>92</v>
       </c>
       <c r="C48">
-        <v>1363552.0999999999</v>
+        <v>1364569.03</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3355,7 +3364,7 @@
         <v>94</v>
       </c>
       <c r="C49">
-        <v>1362976.9000000001</v>
+        <v>1363572.8600000003</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3366,7 +3375,7 @@
         <v>96</v>
       </c>
       <c r="C50">
-        <v>1361572.9300000002</v>
+        <v>1350717.0300000003</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3377,7 +3386,7 @@
         <v>98</v>
       </c>
       <c r="C51">
-        <v>1331567.2200000002</v>
+        <v>1332235.2899999998</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3388,7 +3397,7 @@
         <v>100</v>
       </c>
       <c r="C52">
-        <v>1323315.7199999997</v>
+        <v>1316654.4699999995</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3396,21 +3405,21 @@
         <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C53">
-        <v>1275206.0500000003</v>
+        <v>1275193.4599999997</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C54">
-        <v>1275090.05</v>
+        <v>1274963.94</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3418,10 +3427,10 @@
         <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C55">
-        <v>1274612.94</v>
+        <v>1273179.04</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3432,7 +3441,7 @@
         <v>106</v>
       </c>
       <c r="C56">
-        <v>1266028.9500000002</v>
+        <v>1266900.6299999999</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3443,7 +3452,7 @@
         <v>20</v>
       </c>
       <c r="C57">
-        <v>1249502.97</v>
+        <v>1250902.83</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3454,7 +3463,7 @@
         <v>109</v>
       </c>
       <c r="C58">
-        <v>1227605.31</v>
+        <v>1231635.5</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3465,7 +3474,7 @@
         <v>111</v>
       </c>
       <c r="C59">
-        <v>1216919.55</v>
+        <v>1215998.8800000001</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3476,7 +3485,7 @@
         <v>47</v>
       </c>
       <c r="C60">
-        <v>1214388.6199999999</v>
+        <v>1214943.0899999999</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3487,7 +3496,7 @@
         <v>114</v>
       </c>
       <c r="C61">
-        <v>1203045.7699999998</v>
+        <v>1180689.6500000001</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3498,7 +3507,7 @@
         <v>116</v>
       </c>
       <c r="C62">
-        <v>1178738.5</v>
+        <v>1179555.72</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3509,7 +3518,7 @@
         <v>118</v>
       </c>
       <c r="C63">
-        <v>1155966.06</v>
+        <v>1156524.1500000001</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3520,7 +3529,7 @@
         <v>120</v>
       </c>
       <c r="C64">
-        <v>1128901.0999999999</v>
+        <v>1129487.7599999998</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3531,7 +3540,7 @@
         <v>122</v>
       </c>
       <c r="C65">
-        <v>1098423.51</v>
+        <v>1097039.73</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3542,7 +3551,7 @@
         <v>59</v>
       </c>
       <c r="C66">
-        <v>1085246.54</v>
+        <v>1076970.77</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3553,7 +3562,7 @@
         <v>125</v>
       </c>
       <c r="C67">
-        <v>1073660.76</v>
+        <v>1071430.93</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3564,7 +3573,7 @@
         <v>127</v>
       </c>
       <c r="C68">
-        <v>1047840.7599999999</v>
+        <v>1048301.6400000001</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3575,7 +3584,7 @@
         <v>129</v>
       </c>
       <c r="C69">
-        <v>1044960.86</v>
+        <v>1045433.65</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3586,7 +3595,7 @@
         <v>131</v>
       </c>
       <c r="C70">
-        <v>1033190.17</v>
+        <v>1033634.97</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3597,7 +3606,7 @@
         <v>133</v>
       </c>
       <c r="C71">
-        <v>1033009.19</v>
+        <v>1033526.4400000002</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3608,7 +3617,7 @@
         <v>135</v>
       </c>
       <c r="C72">
-        <v>1030600.4399999998</v>
+        <v>1029909.17</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3619,7 +3628,7 @@
         <v>39</v>
       </c>
       <c r="C73">
-        <v>1027044.06</v>
+        <v>1027474.46</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3630,7 +3639,7 @@
         <v>79</v>
       </c>
       <c r="C74">
-        <v>1026595.0299999997</v>
+        <v>1027046.6199999999</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3638,32 +3647,32 @@
         <v>138</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="C75">
-        <v>1017850.4300000002</v>
+        <v>1000497.5700000001</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C76">
-        <v>1002302.1799999999</v>
+        <v>994749.85999999987</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>994311.30999999994</v>
+        <v>990234.03999999969</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3674,7 +3683,7 @@
         <v>37</v>
       </c>
       <c r="C78">
-        <v>985997.84000000008</v>
+        <v>979434.41999999993</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3685,7 +3694,7 @@
         <v>145</v>
       </c>
       <c r="C79">
-        <v>970199.11</v>
+        <v>970655.53</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3696,7 +3705,7 @@
         <v>147</v>
       </c>
       <c r="C80">
-        <v>966448.17</v>
+        <v>965651.6100000001</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3707,7 +3716,7 @@
         <v>149</v>
       </c>
       <c r="C81">
-        <v>961989.08000000031</v>
+        <v>962412.59999999986</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3718,7 +3727,7 @@
         <v>151</v>
       </c>
       <c r="C82">
-        <v>925583.44999999984</v>
+        <v>925718.91999999993</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3729,7 +3738,7 @@
         <v>153</v>
       </c>
       <c r="C83">
-        <v>896851.73999999987</v>
+        <v>896660.76</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3740,7 +3749,7 @@
         <v>155</v>
       </c>
       <c r="C84">
-        <v>896183.60000000009</v>
+        <v>893262.75999999989</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3751,7 +3760,7 @@
         <v>157</v>
       </c>
       <c r="C85">
-        <v>878432.41999999993</v>
+        <v>878807.4800000001</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3762,7 +3771,7 @@
         <v>159</v>
       </c>
       <c r="C86">
-        <v>869822.27999999991</v>
+        <v>870199.96</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3773,7 +3782,7 @@
         <v>161</v>
       </c>
       <c r="C87">
-        <v>868912.73999999964</v>
+        <v>868770.54</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3784,7 +3793,7 @@
         <v>163</v>
       </c>
       <c r="C88">
-        <v>857874.78</v>
+        <v>858278.28000000014</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3795,7 +3804,7 @@
         <v>165</v>
       </c>
       <c r="C89">
-        <v>844836.17999999993</v>
+        <v>845234.50999999989</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3806,7 +3815,7 @@
         <v>167</v>
       </c>
       <c r="C90">
-        <v>831717.53000000014</v>
+        <v>827957.75000000012</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3814,21 +3823,21 @@
         <v>168</v>
       </c>
       <c r="B91" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="C91">
-        <v>819225.55999999994</v>
+        <v>819931.61999999988</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B92" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="C92">
-        <v>818467.92</v>
+        <v>817472.85999999987</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3836,10 +3845,10 @@
         <v>171</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C93">
-        <v>812269.11</v>
+        <v>808872.26000000013</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3847,32 +3856,32 @@
         <v>172</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="C94">
-        <v>811007.30999999994</v>
+        <v>802980.33000000019</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B95" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C95">
-        <v>802607.18000000017</v>
+        <v>802501.20000000019</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="C96">
-        <v>796396.38</v>
+        <v>797567.0399999998</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3880,10 +3889,10 @@
         <v>177</v>
       </c>
       <c r="B97" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C97">
-        <v>789882.2799999998</v>
+        <v>788425.79</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3891,10 +3900,10 @@
         <v>178</v>
       </c>
       <c r="B98" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C98">
-        <v>788143.10000000009</v>
+        <v>785203.71000000008</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3905,7 +3914,7 @@
         <v>180</v>
       </c>
       <c r="C99">
-        <v>773785.91</v>
+        <v>770013.28</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3916,7 +3925,7 @@
         <v>182</v>
       </c>
       <c r="C100">
-        <v>761254.47999999986</v>
+        <v>761612.84999999986</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3927,7 +3936,7 @@
         <v>184</v>
       </c>
       <c r="C101">
-        <v>757147.21</v>
+        <v>757428.05000000016</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3938,7 +3947,7 @@
         <v>186</v>
       </c>
       <c r="C102">
-        <v>755388.07000000007</v>
+        <v>752347.88</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3949,7 +3958,7 @@
         <v>116</v>
       </c>
       <c r="C103">
-        <v>750177.57999999984</v>
+        <v>746734.90000000014</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3960,7 +3969,7 @@
         <v>47</v>
       </c>
       <c r="C104">
-        <v>725035.21</v>
+        <v>721720.2</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3971,7 +3980,7 @@
         <v>190</v>
       </c>
       <c r="C105">
-        <v>720363.75000000012</v>
+        <v>720701.56000000029</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3979,43 +3988,43 @@
         <v>191</v>
       </c>
       <c r="B106" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="C106">
-        <v>707544.00000000012</v>
+        <v>707709.17</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B107" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C107">
-        <v>706357.1</v>
+        <v>705408.43999999983</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B108" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C108">
-        <v>705647.85000000009</v>
+        <v>703298.45</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B109" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="C109">
-        <v>702987.44</v>
+        <v>703264.30999999982</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4023,10 +4032,10 @@
         <v>198</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C110">
-        <v>702937.7</v>
+        <v>701513.55</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4037,7 +4046,7 @@
         <v>200</v>
       </c>
       <c r="C111">
-        <v>700557.59</v>
+        <v>700788.22999999986</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4048,7 +4057,7 @@
         <v>202</v>
       </c>
       <c r="C112">
-        <v>687436.11</v>
+        <v>687733.39999999991</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4059,7 +4068,7 @@
         <v>204</v>
       </c>
       <c r="C113">
-        <v>680558.81</v>
+        <v>681257.57</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4070,7 +4079,7 @@
         <v>206</v>
       </c>
       <c r="C114">
-        <v>671038.66999999981</v>
+        <v>667480.27999999991</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4078,21 +4087,21 @@
         <v>207</v>
       </c>
       <c r="B115" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="C115">
-        <v>667225.21000000008</v>
+        <v>666188.52</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
+        <v>208</v>
+      </c>
+      <c r="B116" t="s">
         <v>209</v>
       </c>
-      <c r="B116" t="s">
-        <v>49</v>
-      </c>
       <c r="C116">
-        <v>667039</v>
+        <v>665157.49</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4100,10 +4109,10 @@
         <v>210</v>
       </c>
       <c r="B117" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C117">
-        <v>666992.26</v>
+        <v>661457.21</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4114,7 +4123,7 @@
         <v>51</v>
       </c>
       <c r="C118">
-        <v>665441.61</v>
+        <v>653524.14</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4125,7 +4134,7 @@
         <v>213</v>
       </c>
       <c r="C119">
-        <v>648422.6</v>
+        <v>647972.10000000009</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4133,10 +4142,10 @@
         <v>214</v>
       </c>
       <c r="B120" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C120">
-        <v>647955.11999999988</v>
+        <v>647738.27</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4144,10 +4153,10 @@
         <v>215</v>
       </c>
       <c r="B121" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C121">
-        <v>645483.97000000009</v>
+        <v>645160.71999999986</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4155,32 +4164,32 @@
         <v>216</v>
       </c>
       <c r="B122" t="s">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="C122">
-        <v>632379.23</v>
+        <v>630283.28999999992</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B123" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C123">
-        <v>629995.32999999996</v>
+        <v>622143.16</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B124" t="s">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="C124">
-        <v>621859.07000000007</v>
+        <v>621050.55999999994</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4191,7 +4200,7 @@
         <v>51</v>
       </c>
       <c r="C125">
-        <v>621752.86</v>
+        <v>618714.1399999999</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4199,32 +4208,32 @@
         <v>222</v>
       </c>
       <c r="B126" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="C126">
-        <v>618688.25</v>
+        <v>615457.80000000005</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B127" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C127">
-        <v>616668.21000000008</v>
+        <v>614502.28</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>226</v>
+        <v>51</v>
       </c>
       <c r="C128">
-        <v>614870.67000000004</v>
+        <v>612868.25</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4232,21 +4241,21 @@
         <v>227</v>
       </c>
       <c r="B129" t="s">
-        <v>51</v>
+        <v>228</v>
       </c>
       <c r="C129">
-        <v>612709.12000000011</v>
+        <v>610799.59</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B130" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="C130">
-        <v>610545.61</v>
+        <v>608643.28</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4257,7 +4266,7 @@
         <v>231</v>
       </c>
       <c r="C131">
-        <v>605485.70000000007</v>
+        <v>602538.16</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4268,7 +4277,7 @@
         <v>233</v>
       </c>
       <c r="C132">
-        <v>580736.85</v>
+        <v>576922.87999999989</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4279,7 +4288,7 @@
         <v>235</v>
       </c>
       <c r="C133">
-        <v>578001.90999999992</v>
+        <v>576621.93999999994</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4290,7 +4299,7 @@
         <v>237</v>
       </c>
       <c r="C134">
-        <v>576708.56999999983</v>
+        <v>575534.6399999999</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4301,7 +4310,7 @@
         <v>239</v>
       </c>
       <c r="C135">
-        <v>575269.6</v>
+        <v>574920.13000000012</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4312,7 +4321,7 @@
         <v>37</v>
       </c>
       <c r="C136">
-        <v>570052.53</v>
+        <v>570313.37000000011</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4323,7 +4332,7 @@
         <v>242</v>
       </c>
       <c r="C137">
-        <v>558112.31999999995</v>
+        <v>559281.11</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4334,7 +4343,7 @@
         <v>244</v>
       </c>
       <c r="C138">
-        <v>556837.08000000007</v>
+        <v>557068.88</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4345,7 +4354,7 @@
         <v>246</v>
       </c>
       <c r="C139">
-        <v>547927.73</v>
+        <v>548158.69000000006</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4356,7 +4365,7 @@
         <v>248</v>
       </c>
       <c r="C140">
-        <v>540821.57999999996</v>
+        <v>541075.34999999986</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4367,7 +4376,7 @@
         <v>250</v>
       </c>
       <c r="C141">
-        <v>537769.86</v>
+        <v>537753.31999999995</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4378,7 +4387,7 @@
         <v>252</v>
       </c>
       <c r="C142">
-        <v>536336.84</v>
+        <v>536588.53999999992</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4389,7 +4398,7 @@
         <v>254</v>
       </c>
       <c r="C143">
-        <v>534859.29999999993</v>
+        <v>535114.46</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4400,7 +4409,7 @@
         <v>213</v>
       </c>
       <c r="C144">
-        <v>530579.21000000008</v>
+        <v>530820.96000000008</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4411,7 +4420,7 @@
         <v>257</v>
       </c>
       <c r="C145">
-        <v>518663.89000000013</v>
+        <v>518155.20999999996</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4422,7 +4431,7 @@
         <v>259</v>
       </c>
       <c r="C146">
-        <v>513777.69000000006</v>
+        <v>512759.10999999993</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4433,7 +4442,7 @@
         <v>261</v>
       </c>
       <c r="C147">
-        <v>513088.14000000013</v>
+        <v>510206.59000000008</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4444,7 +4453,7 @@
         <v>263</v>
       </c>
       <c r="C148">
-        <v>509506.05</v>
+        <v>509279.12000000005</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4455,7 +4464,7 @@
         <v>265</v>
       </c>
       <c r="C149">
-        <v>509023.1</v>
+        <v>507056.73</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4466,7 +4475,7 @@
         <v>267</v>
       </c>
       <c r="C150">
-        <v>501915.56000000006</v>
+        <v>502139.29999999993</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4477,7 +4486,7 @@
         <v>269</v>
       </c>
       <c r="C151">
-        <v>498432.69000000012</v>
+        <v>490804.77</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4488,7 +4497,7 @@
         <v>271</v>
       </c>
       <c r="C152">
-        <v>491047.06</v>
+        <v>489545.08000000007</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4499,7 +4508,7 @@
         <v>273</v>
       </c>
       <c r="C153">
-        <v>485484.05</v>
+        <v>485685.51999999996</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4510,7 +4519,7 @@
         <v>39</v>
       </c>
       <c r="C154">
-        <v>479739.21</v>
+        <v>479963.75</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4521,7 +4530,7 @@
         <v>276</v>
       </c>
       <c r="C155">
-        <v>472480.35000000003</v>
+        <v>465739.66000000003</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4529,21 +4538,21 @@
         <v>277</v>
       </c>
       <c r="B156" t="s">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="C156">
-        <v>468352.76</v>
+        <v>463886.98999999993</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B157" t="s">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="C157">
-        <v>465653.4800000001</v>
+        <v>459838.10999999993</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4554,7 +4563,7 @@
         <v>281</v>
       </c>
       <c r="C158">
-        <v>456651.31000000006</v>
+        <v>456865.70999999996</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4565,7 +4574,7 @@
         <v>283</v>
       </c>
       <c r="C159">
-        <v>455296.85000000003</v>
+        <v>455465.30999999994</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4576,7 +4585,7 @@
         <v>125</v>
       </c>
       <c r="C160">
-        <v>445573.28</v>
+        <v>445773.32999999996</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4584,21 +4593,21 @@
         <v>285</v>
       </c>
       <c r="B161" t="s">
-        <v>286</v>
+        <v>20</v>
       </c>
       <c r="C161">
-        <v>442617.35</v>
+        <v>441264.24</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
+        <v>286</v>
+      </c>
+      <c r="B162" t="s">
         <v>287</v>
       </c>
-      <c r="B162" t="s">
-        <v>20</v>
-      </c>
       <c r="C162">
-        <v>441107.27</v>
+        <v>438793.66999999993</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4606,10 +4615,10 @@
         <v>288</v>
       </c>
       <c r="B163" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="C163">
-        <v>433185.5</v>
+        <v>428280.62</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4617,10 +4626,10 @@
         <v>289</v>
       </c>
       <c r="B164" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C164">
-        <v>428087.02</v>
+        <v>426635.05000000005</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4628,10 +4637,10 @@
         <v>290</v>
       </c>
       <c r="B165" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="C165">
-        <v>426447.16000000003</v>
+        <v>425083.29</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4639,21 +4648,21 @@
         <v>291</v>
       </c>
       <c r="B166" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="C166">
-        <v>424275.33999999997</v>
+        <v>423269.33999999997</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
+        <v>292</v>
+      </c>
+      <c r="B167" t="s">
         <v>293</v>
       </c>
-      <c r="B167" t="s">
-        <v>235</v>
-      </c>
       <c r="C167">
-        <v>423097.11</v>
+        <v>422171.95999999996</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4661,10 +4670,10 @@
         <v>294</v>
       </c>
       <c r="B168" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C168">
-        <v>421003.75</v>
+        <v>420514.47000000003</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4675,7 +4684,7 @@
         <v>296</v>
       </c>
       <c r="C169">
-        <v>420230.67</v>
+        <v>420421.49</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4683,10 +4692,10 @@
         <v>297</v>
       </c>
       <c r="B170" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C170">
-        <v>419874.57999999996</v>
+        <v>418131.52</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4697,7 +4706,7 @@
         <v>299</v>
       </c>
       <c r="C171">
-        <v>417597.63999999996</v>
+        <v>417775.56999999995</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4708,7 +4717,7 @@
         <v>301</v>
       </c>
       <c r="C172">
-        <v>414684.66000000003</v>
+        <v>413912.73000000004</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4719,7 +4728,7 @@
         <v>303</v>
       </c>
       <c r="C173">
-        <v>413031.33</v>
+        <v>413216.0799999999</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4727,21 +4736,21 @@
         <v>304</v>
       </c>
       <c r="B174" t="s">
-        <v>305</v>
+        <v>47</v>
       </c>
       <c r="C174">
-        <v>406170.18</v>
+        <v>405618.69999999995</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
+        <v>305</v>
+      </c>
+      <c r="B175" t="s">
         <v>306</v>
       </c>
-      <c r="B175" t="s">
-        <v>47</v>
-      </c>
       <c r="C175">
-        <v>405442.23</v>
+        <v>404819.37</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4752,7 +4761,7 @@
         <v>308</v>
       </c>
       <c r="C176">
-        <v>402610.68000000005</v>
+        <v>403645.53</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4763,7 +4772,7 @@
         <v>310</v>
       </c>
       <c r="C177">
-        <v>400113.60000000003</v>
+        <v>400297.2300000001</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4774,7 +4783,7 @@
         <v>312</v>
       </c>
       <c r="C178">
-        <v>390158.91000000009</v>
+        <v>388503.58000000007</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4785,7 +4794,7 @@
         <v>314</v>
       </c>
       <c r="C179">
-        <v>387037.44</v>
+        <v>387694.93</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4796,7 +4805,7 @@
         <v>316</v>
       </c>
       <c r="C180">
-        <v>384585.16</v>
+        <v>384298.73</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4807,7 +4816,7 @@
         <v>318</v>
       </c>
       <c r="C181">
-        <v>381670.27999999997</v>
+        <v>377490.07</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4818,7 +4827,7 @@
         <v>320</v>
       </c>
       <c r="C182">
-        <v>381642.58</v>
+        <v>375766.63</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4826,21 +4835,21 @@
         <v>321</v>
       </c>
       <c r="B183" t="s">
-        <v>86</v>
+        <v>322</v>
       </c>
       <c r="C183">
-        <v>380697.78</v>
+        <v>375147.64</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B184" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C184">
-        <v>379362.18</v>
+        <v>374746.50000000006</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4848,10 +4857,10 @@
         <v>324</v>
       </c>
       <c r="B185" t="s">
-        <v>316</v>
+        <v>86</v>
       </c>
       <c r="C185">
-        <v>376622.66</v>
+        <v>373910.16</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4862,7 +4871,7 @@
         <v>326</v>
       </c>
       <c r="C186">
-        <v>372006.99</v>
+        <v>372065.83999999997</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4873,7 +4882,7 @@
         <v>328</v>
       </c>
       <c r="C187">
-        <v>371232.52999999997</v>
+        <v>369426.22000000003</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4884,7 +4893,7 @@
         <v>330</v>
       </c>
       <c r="C188">
-        <v>368450.75999999995</v>
+        <v>368616.05000000005</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4895,7 +4904,7 @@
         <v>257</v>
       </c>
       <c r="C189">
-        <v>366883.14</v>
+        <v>368129.32999999996</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4906,7 +4915,7 @@
         <v>333</v>
       </c>
       <c r="C190">
-        <v>365988.57</v>
+        <v>366160.13999999996</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4917,7 +4926,7 @@
         <v>335</v>
       </c>
       <c r="C191">
-        <v>363969.82999999996</v>
+        <v>364124.12</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4928,7 +4937,7 @@
         <v>73</v>
       </c>
       <c r="C192">
-        <v>363194.78</v>
+        <v>362374.85000000003</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4939,7 +4948,7 @@
         <v>338</v>
       </c>
       <c r="C193">
-        <v>360774.70999999996</v>
+        <v>360938.25</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4950,7 +4959,7 @@
         <v>37</v>
       </c>
       <c r="C194">
-        <v>360677.21</v>
+        <v>360843.31000000006</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4961,7 +4970,7 @@
         <v>341</v>
       </c>
       <c r="C195">
-        <v>360402.44999999995</v>
+        <v>360487.42</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4972,7 +4981,7 @@
         <v>330</v>
       </c>
       <c r="C196">
-        <v>359754.14999999991</v>
+        <v>359910.66999999993</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4980,230 +4989,230 @@
         <v>343</v>
       </c>
       <c r="B197" t="s">
-        <v>68</v>
+        <v>344</v>
       </c>
       <c r="C197">
-        <v>358076.86000000004</v>
+        <v>356810.39999999997</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B198" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C198">
-        <v>355566.33</v>
+        <v>353066.13999999996</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B199" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C199">
-        <v>353155.00999999995</v>
+        <v>350188.54999999993</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B200" t="s">
-        <v>4</v>
+        <v>350</v>
       </c>
       <c r="C200">
-        <v>351032.77999999991</v>
+        <v>342443.86</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B201" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C201">
-        <v>350029.57</v>
+        <v>342116.63999999996</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B202" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="C202">
-        <v>344093.83999999997</v>
+        <v>341784.72</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B203" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C203">
-        <v>342324.14</v>
+        <v>341101.64999999997</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B204" t="s">
-        <v>242</v>
+        <v>357</v>
       </c>
       <c r="C204">
-        <v>341644.11</v>
+        <v>339981.66000000003</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B205" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C205">
-        <v>340731.30000000005</v>
+        <v>335273.01999999996</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B206" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C206">
-        <v>340001.19999999995</v>
+        <v>335177.09999999998</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B207" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C207">
-        <v>335119.82</v>
+        <v>332463.69000000006</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B208" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C208">
-        <v>335042.57</v>
+        <v>330385.68</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B209" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C209">
-        <v>332318.94</v>
+        <v>330152.61</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B210" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C210">
-        <v>331773.94000000006</v>
+        <v>324698.19</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B211" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C211">
-        <v>330241.32999999996</v>
+        <v>324647.01</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B212" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C212">
-        <v>329626.94999999995</v>
+        <v>324209.84999999998</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B213" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C213">
-        <v>324513.75</v>
+        <v>322269.38</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B214" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C214">
-        <v>324365.85999999993</v>
+        <v>318537.20999999996</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B215" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C215">
-        <v>324065.44999999995</v>
+        <v>318034.67000000004</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B216" t="s">
-        <v>378</v>
+        <v>47</v>
       </c>
       <c r="C216">
-        <v>323836.71999999997</v>
+        <v>317998.51000000007</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B217" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="C217">
-        <v>317891.27</v>
+        <v>313849.57000000007</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5211,76 +5220,76 @@
         <v>381</v>
       </c>
       <c r="B218" t="s">
-        <v>47</v>
+        <v>382</v>
       </c>
       <c r="C218">
-        <v>317852.33999999997</v>
+        <v>309026.12</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B219" t="s">
-        <v>354</v>
+        <v>86</v>
       </c>
       <c r="C219">
-        <v>313714.85000000003</v>
+        <v>308705.88</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B220" t="s">
-        <v>86</v>
+        <v>369</v>
       </c>
       <c r="C220">
-        <v>309013.46999999997</v>
+        <v>307411.5</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B221" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C221">
-        <v>308887.59999999998</v>
+        <v>301266.11999999994</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B222" t="s">
-        <v>371</v>
+        <v>4</v>
       </c>
       <c r="C222">
-        <v>305818.95</v>
+        <v>301055.78999999998</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B223" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C223">
-        <v>302457.77999999997</v>
+        <v>297577.8</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B224" t="s">
-        <v>389</v>
+        <v>66</v>
       </c>
       <c r="C224">
-        <v>301183.38999999996</v>
+        <v>296893.66000000003</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5288,10 +5297,10 @@
         <v>390</v>
       </c>
       <c r="B225" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="C225">
-        <v>297142.33999999997</v>
+        <v>293112.34000000003</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5302,7 +5311,7 @@
         <v>312</v>
       </c>
       <c r="C226">
-        <v>294673.67999999988</v>
+        <v>292982.64999999997</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5310,21 +5319,21 @@
         <v>392</v>
       </c>
       <c r="B227" t="s">
-        <v>165</v>
+        <v>393</v>
       </c>
       <c r="C227">
-        <v>293156.46999999997</v>
+        <v>289898.12</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B228" t="s">
-        <v>394</v>
+        <v>71</v>
       </c>
       <c r="C228">
-        <v>289858.02</v>
+        <v>284929.43</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5332,10 +5341,10 @@
         <v>395</v>
       </c>
       <c r="B229" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C229">
-        <v>286302.39</v>
+        <v>283987.58000000007</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5343,21 +5352,21 @@
         <v>396</v>
       </c>
       <c r="B230" t="s">
-        <v>51</v>
+        <v>397</v>
       </c>
       <c r="C230">
-        <v>286167.59999999998</v>
+        <v>283591.82</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B231" t="s">
-        <v>398</v>
+        <v>278</v>
       </c>
       <c r="C231">
-        <v>283209.08</v>
+        <v>282530.84000000003</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5365,43 +5374,43 @@
         <v>399</v>
       </c>
       <c r="B232" t="s">
-        <v>276</v>
+        <v>400</v>
       </c>
       <c r="C232">
-        <v>282500.45</v>
+        <v>275289.82000000007</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B233" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C233">
-        <v>276641.18</v>
+        <v>271647.88000000006</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B234" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C234">
-        <v>271528.44999999995</v>
+        <v>270616.56</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B235" t="s">
-        <v>405</v>
+        <v>219</v>
       </c>
       <c r="C235">
-        <v>270574.93999999994</v>
+        <v>267251.57</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5409,98 +5418,98 @@
         <v>406</v>
       </c>
       <c r="B236" t="s">
-        <v>220</v>
+        <v>407</v>
       </c>
       <c r="C236">
-        <v>267345.62</v>
+        <v>267224.3</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B237" t="s">
         <v>301</v>
       </c>
       <c r="C237">
-        <v>266828.02</v>
+        <v>266218.02999999997</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B238" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C238">
-        <v>266109.7</v>
+        <v>265077.55</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B239" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C239">
-        <v>265080.01999999996</v>
+        <v>263808.18000000005</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B240" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C240">
-        <v>263624.02</v>
+        <v>262257.45000000007</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B241" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C241">
-        <v>262015.56999999995</v>
+        <v>261434.58000000007</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B242" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C242">
-        <v>260731.95999999996</v>
+        <v>260705.85</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B243" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C243">
-        <v>257104.72000000003</v>
+        <v>255945.32</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B244" t="s">
-        <v>421</v>
+        <v>116</v>
       </c>
       <c r="C244">
-        <v>256963.54000000004</v>
+        <v>253104.44</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5511,7 +5520,7 @@
         <v>423</v>
       </c>
       <c r="C245">
-        <v>251242.09</v>
+        <v>251355.3</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5522,7 +5531,7 @@
         <v>151</v>
       </c>
       <c r="C246">
-        <v>250719.65999999997</v>
+        <v>249826.49</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5530,87 +5539,87 @@
         <v>425</v>
       </c>
       <c r="B247" t="s">
-        <v>116</v>
+        <v>426</v>
       </c>
       <c r="C247">
-        <v>248303.09000000003</v>
+        <v>246150.28999999998</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B248" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C248">
-        <v>247187.86</v>
+        <v>245970.28999999998</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B249" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C249">
-        <v>246908.19999999998</v>
+        <v>245715.33</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B250" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C250">
-        <v>246753.67999999996</v>
+        <v>241991.97</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B251" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C251">
-        <v>241882.15</v>
+        <v>241466.69999999995</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B252" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C252">
-        <v>241878.71</v>
+        <v>240647.71</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B253" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C253">
-        <v>241358.56</v>
+        <v>240644.76</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B254" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="C254">
-        <v>241115.30000000002</v>
+        <v>238052.14999999994</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5621,7 +5630,7 @@
         <v>441</v>
       </c>
       <c r="C255">
-        <v>239280.87</v>
+        <v>237673.37</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5629,21 +5638,21 @@
         <v>442</v>
       </c>
       <c r="B256" t="s">
-        <v>443</v>
+        <v>196</v>
       </c>
       <c r="C256">
-        <v>238850.93</v>
+        <v>237392.26</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
+        <v>443</v>
+      </c>
+      <c r="B257" t="s">
         <v>444</v>
       </c>
-      <c r="B257" t="s">
-        <v>417</v>
-      </c>
       <c r="C257">
-        <v>238661.16</v>
+        <v>236826.69</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5651,32 +5660,32 @@
         <v>445</v>
       </c>
       <c r="B258" t="s">
-        <v>197</v>
+        <v>446</v>
       </c>
       <c r="C258">
-        <v>238477.3</v>
+        <v>235716.05</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B259" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C259">
-        <v>235619.9</v>
+        <v>233223.80999999997</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B260" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="C260">
-        <v>233739.76</v>
+        <v>230523.69999999998</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5684,65 +5693,65 @@
         <v>450</v>
       </c>
       <c r="B261" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="C261">
-        <v>231180.44999999998</v>
+        <v>229552.25</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B262" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C262">
-        <v>229838.75</v>
+        <v>229086.58000000002</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B263" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C263">
-        <v>228985.60000000001</v>
+        <v>227916.21</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B264" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C264">
-        <v>227814.03999999998</v>
+        <v>218865.53000000003</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B265" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C265">
-        <v>219880.69999999995</v>
+        <v>217487.95999999996</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B266" t="s">
-        <v>460</v>
+        <v>68</v>
       </c>
       <c r="C266">
-        <v>218765.11</v>
+        <v>216312.22999999998</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5750,21 +5759,21 @@
         <v>461</v>
       </c>
       <c r="B267" t="s">
-        <v>90</v>
+        <v>462</v>
       </c>
       <c r="C267">
-        <v>215435.36000000002</v>
+        <v>215266.74</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B268" t="s">
-        <v>463</v>
+        <v>283</v>
       </c>
       <c r="C268">
-        <v>215168.45</v>
+        <v>214062.55000000002</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5772,10 +5781,10 @@
         <v>464</v>
       </c>
       <c r="B269" t="s">
-        <v>283</v>
+        <v>90</v>
       </c>
       <c r="C269">
-        <v>214013.87999999998</v>
+        <v>211549.15999999997</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5786,7 +5795,7 @@
         <v>466</v>
       </c>
       <c r="C270">
-        <v>211472.76</v>
+        <v>211047.66000000003</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5797,7 +5806,7 @@
         <v>468</v>
       </c>
       <c r="C271">
-        <v>209881.79</v>
+        <v>210617.77</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5805,21 +5814,21 @@
         <v>469</v>
       </c>
       <c r="B272" t="s">
-        <v>283</v>
+        <v>470</v>
       </c>
       <c r="C272">
-        <v>209192.94</v>
+        <v>209161.92</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B273" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="C273">
-        <v>209070.21</v>
+        <v>208396.84</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5830,7 +5839,7 @@
         <v>73</v>
       </c>
       <c r="C274">
-        <v>208671.15</v>
+        <v>207666.97999999995</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5838,10 +5847,10 @@
         <v>473</v>
       </c>
       <c r="B275" t="s">
-        <v>439</v>
+        <v>283</v>
       </c>
       <c r="C275">
-        <v>208304.68</v>
+        <v>205457.56999999998</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5849,10 +5858,10 @@
         <v>474</v>
       </c>
       <c r="B276" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C276">
-        <v>206026.95999999996</v>
+        <v>205216.45</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5863,7 +5872,7 @@
         <v>244</v>
       </c>
       <c r="C277">
-        <v>204401.02</v>
+        <v>205095.33000000002</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5874,7 +5883,7 @@
         <v>477</v>
       </c>
       <c r="C278">
-        <v>202683.26000000004</v>
+        <v>202770.55000000002</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5882,10 +5891,10 @@
         <v>478</v>
       </c>
       <c r="B279" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C279">
-        <v>202579.82</v>
+        <v>202132.62</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5893,10 +5902,10 @@
         <v>479</v>
       </c>
       <c r="B280" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C280">
-        <v>202244.34000000003</v>
+        <v>200954.63999999996</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5907,7 +5916,7 @@
         <v>301</v>
       </c>
       <c r="C281">
-        <v>200252.73999999996</v>
+        <v>200446.10000000003</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5918,7 +5927,7 @@
         <v>482</v>
       </c>
       <c r="C282">
-        <v>199839.78999999998</v>
+        <v>199395.96000000002</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5929,7 +5938,7 @@
         <v>86</v>
       </c>
       <c r="C283">
-        <v>199154.85000000003</v>
+        <v>196837.44</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5940,7 +5949,7 @@
         <v>51</v>
       </c>
       <c r="C284">
-        <v>196887.25000000003</v>
+        <v>196007.36</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5948,10 +5957,10 @@
         <v>485</v>
       </c>
       <c r="B285" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C285">
-        <v>194134.87999999998</v>
+        <v>194216.04</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5962,7 +5971,7 @@
         <v>487</v>
       </c>
       <c r="C286">
-        <v>192578.52</v>
+        <v>192378.11000000002</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5973,7 +5982,7 @@
         <v>489</v>
       </c>
       <c r="C287">
-        <v>190479.87</v>
+        <v>190560.12000000002</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5984,7 +5993,7 @@
         <v>491</v>
       </c>
       <c r="C288">
-        <v>189530.16</v>
+        <v>189464.14</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5995,7 +6004,7 @@
         <v>39</v>
       </c>
       <c r="C289">
-        <v>188105.79000000004</v>
+        <v>187335.26</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6006,7 +6015,7 @@
         <v>37</v>
       </c>
       <c r="C290">
-        <v>185240.8</v>
+        <v>184212.64</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -6017,7 +6026,7 @@
         <v>125</v>
       </c>
       <c r="C291">
-        <v>184125.01</v>
+        <v>183920.02000000002</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -6028,7 +6037,7 @@
         <v>496</v>
       </c>
       <c r="C292">
-        <v>179658.22999999998</v>
+        <v>183461.80999999994</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -6039,7 +6048,7 @@
         <v>498</v>
       </c>
       <c r="C293">
-        <v>178506.24000000002</v>
+        <v>179753.38</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6047,21 +6056,21 @@
         <v>499</v>
       </c>
       <c r="B294" t="s">
-        <v>73</v>
+        <v>500</v>
       </c>
       <c r="C294">
-        <v>174010.97999999998</v>
+        <v>177569.46</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B295" t="s">
-        <v>501</v>
+        <v>73</v>
       </c>
       <c r="C295">
-        <v>172015.41</v>
+        <v>174091.64</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -6069,32 +6078,32 @@
         <v>502</v>
       </c>
       <c r="B296" t="s">
-        <v>394</v>
+        <v>503</v>
       </c>
       <c r="C296">
-        <v>170898.7</v>
+        <v>172089.72</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B297" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C297">
-        <v>170858.56</v>
+        <v>170043.67</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B298" t="s">
-        <v>506</v>
+        <v>393</v>
       </c>
       <c r="C298">
-        <v>170353.87</v>
+        <v>169310.69000000003</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -6105,7 +6114,7 @@
         <v>116</v>
       </c>
       <c r="C299">
-        <v>165301.96</v>
+        <v>165372.69</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6116,7 +6125,7 @@
         <v>509</v>
       </c>
       <c r="C300">
-        <v>164233.95000000001</v>
+        <v>163959.80000000002</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -6124,21 +6133,21 @@
         <v>510</v>
       </c>
       <c r="B301" t="s">
-        <v>114</v>
+        <v>511</v>
       </c>
       <c r="C301">
-        <v>161506.32</v>
+        <v>161391.88999999998</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B302" t="s">
-        <v>512</v>
+        <v>114</v>
       </c>
       <c r="C302">
-        <v>161318.84999999998</v>
+        <v>160732.66</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6149,7 +6158,7 @@
         <v>514</v>
       </c>
       <c r="C303">
-        <v>160078.25</v>
+        <v>160145.26</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6160,7 +6169,7 @@
         <v>516</v>
       </c>
       <c r="C304">
-        <v>159786.14000000001</v>
+        <v>159855.63000000003</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6171,7 +6180,7 @@
         <v>73</v>
       </c>
       <c r="C305">
-        <v>157785.74</v>
+        <v>157854.94</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6182,7 +6191,7 @@
         <v>519</v>
       </c>
       <c r="C306">
-        <v>157729.81</v>
+        <v>157799.59</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6193,7 +6202,7 @@
         <v>330</v>
       </c>
       <c r="C307">
-        <v>157607.51999999999</v>
+        <v>157634.85999999999</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6204,7 +6213,7 @@
         <v>71</v>
       </c>
       <c r="C308">
-        <v>157326.80999999997</v>
+        <v>157398.68999999997</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6215,7 +6224,7 @@
         <v>98</v>
       </c>
       <c r="C309">
-        <v>157061.94</v>
+        <v>157136.38999999998</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6226,7 +6235,7 @@
         <v>71</v>
       </c>
       <c r="C310">
-        <v>156398.78</v>
+        <v>156451.61000000002</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6237,7 +6246,7 @@
         <v>71</v>
       </c>
       <c r="C311">
-        <v>156062.35999999999</v>
+        <v>156127.93</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6248,7 +6257,7 @@
         <v>31</v>
       </c>
       <c r="C312">
-        <v>154027.12</v>
+        <v>154097.04999999999</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6259,7 +6268,7 @@
         <v>527</v>
       </c>
       <c r="C313">
-        <v>152140.84</v>
+        <v>152181.11000000002</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6270,7 +6279,7 @@
         <v>39</v>
       </c>
       <c r="C314">
-        <v>150424.63999999998</v>
+        <v>150493.20000000001</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6281,7 +6290,7 @@
         <v>250</v>
       </c>
       <c r="C315">
-        <v>149793.00999999998</v>
+        <v>148992.53999999998</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -6292,7 +6301,7 @@
         <v>531</v>
       </c>
       <c r="C316">
-        <v>146943.02000000002</v>
+        <v>146797.72</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6303,7 +6312,7 @@
         <v>533</v>
       </c>
       <c r="C317">
-        <v>146476.55000000002</v>
+        <v>146523.77000000002</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6311,10 +6320,10 @@
         <v>534</v>
       </c>
       <c r="B318" t="s">
-        <v>299</v>
+        <v>436</v>
       </c>
       <c r="C318">
-        <v>145077.26999999999</v>
+        <v>144652.85999999999</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6322,10 +6331,10 @@
         <v>535</v>
       </c>
       <c r="B319" t="s">
-        <v>435</v>
+        <v>61</v>
       </c>
       <c r="C319">
-        <v>145002.98000000001</v>
+        <v>144290.76</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6333,10 +6342,10 @@
         <v>536</v>
       </c>
       <c r="B320" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="C320">
-        <v>144238.31999999998</v>
+        <v>143876.46</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6344,10 +6353,10 @@
         <v>537</v>
       </c>
       <c r="B321" t="s">
-        <v>220</v>
+        <v>299</v>
       </c>
       <c r="C321">
-        <v>143813.37999999998</v>
+        <v>143037.74</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6358,7 +6367,7 @@
         <v>539</v>
       </c>
       <c r="C322">
-        <v>140140.78</v>
+        <v>140199.13999999998</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6369,7 +6378,7 @@
         <v>541</v>
       </c>
       <c r="C323">
-        <v>139978.06</v>
+        <v>139805.56</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6377,32 +6386,32 @@
         <v>542</v>
       </c>
       <c r="B324" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C324">
-        <v>139621.32999999999</v>
+        <v>139622.9</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
+        <v>543</v>
+      </c>
+      <c r="B325" t="s">
         <v>544</v>
       </c>
-      <c r="B325" t="s">
-        <v>545</v>
-      </c>
       <c r="C325">
-        <v>138981.28999999998</v>
+        <v>139256.53</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
+        <v>545</v>
+      </c>
+      <c r="B326" t="s">
         <v>546</v>
       </c>
-      <c r="B326" t="s">
-        <v>543</v>
-      </c>
       <c r="C326">
-        <v>137931.63</v>
+        <v>139041.49</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6413,7 +6422,7 @@
         <v>548</v>
       </c>
       <c r="C327">
-        <v>137786.63</v>
+        <v>137850.07999999999</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6424,7 +6433,7 @@
         <v>550</v>
       </c>
       <c r="C328">
-        <v>137703.98000000001</v>
+        <v>137685.84</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6435,7 +6444,7 @@
         <v>552</v>
       </c>
       <c r="C329">
-        <v>137062.68</v>
+        <v>136752.65999999997</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6446,7 +6455,7 @@
         <v>554</v>
       </c>
       <c r="C330">
-        <v>135822.17000000001</v>
+        <v>135838.60999999999</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6457,7 +6466,7 @@
         <v>556</v>
       </c>
       <c r="C331">
-        <v>130988.06</v>
+        <v>130739.98999999999</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6468,7 +6477,7 @@
         <v>186</v>
       </c>
       <c r="C332">
-        <v>129851.76000000001</v>
+        <v>129638.81</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6479,7 +6488,7 @@
         <v>559</v>
       </c>
       <c r="C333">
-        <v>129334.59999999999</v>
+        <v>129392.25000000001</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6490,7 +6499,7 @@
         <v>561</v>
       </c>
       <c r="C334">
-        <v>128725.79000000001</v>
+        <v>128706.15000000001</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6498,10 +6507,10 @@
         <v>562</v>
       </c>
       <c r="B335" t="s">
-        <v>531</v>
+        <v>231</v>
       </c>
       <c r="C335">
-        <v>128132.32</v>
+        <v>127932.63</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6509,10 +6518,10 @@
         <v>563</v>
       </c>
       <c r="B336" t="s">
-        <v>231</v>
+        <v>451</v>
       </c>
       <c r="C336">
-        <v>127873.87000000002</v>
+        <v>127412.88</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6520,21 +6529,21 @@
         <v>564</v>
       </c>
       <c r="B337" t="s">
-        <v>427</v>
+        <v>565</v>
       </c>
       <c r="C337">
-        <v>126953.36000000002</v>
+        <v>126957.49999999999</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B338" t="s">
-        <v>566</v>
+        <v>428</v>
       </c>
       <c r="C338">
-        <v>126909.98999999999</v>
+        <v>126654.91</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6542,10 +6551,10 @@
         <v>567</v>
       </c>
       <c r="B339" t="s">
-        <v>543</v>
+        <v>310</v>
       </c>
       <c r="C339">
-        <v>126881.48000000001</v>
+        <v>126452.20000000001</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6553,10 +6562,10 @@
         <v>568</v>
       </c>
       <c r="B340" t="s">
-        <v>310</v>
+        <v>541</v>
       </c>
       <c r="C340">
-        <v>126395.10000000002</v>
+        <v>126389.85</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6564,32 +6573,32 @@
         <v>569</v>
       </c>
       <c r="B341" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="C341">
-        <v>124516.90000000001</v>
+        <v>125845.22</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
+        <v>570</v>
+      </c>
+      <c r="B342" t="s">
         <v>571</v>
       </c>
-      <c r="B342" t="s">
-        <v>572</v>
-      </c>
       <c r="C342">
-        <v>121505.71</v>
+        <v>124959.83999999998</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
+        <v>572</v>
+      </c>
+      <c r="B343" t="s">
         <v>573</v>
       </c>
-      <c r="B343" t="s">
-        <v>435</v>
-      </c>
       <c r="C343">
-        <v>121041.19000000002</v>
+        <v>121565.50000000003</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6597,76 +6606,76 @@
         <v>574</v>
       </c>
       <c r="B344" t="s">
-        <v>575</v>
+        <v>436</v>
       </c>
       <c r="C344">
-        <v>119654.63</v>
+        <v>121095.82000000002</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
+        <v>575</v>
+      </c>
+      <c r="B345" t="s">
         <v>576</v>
       </c>
-      <c r="B345" t="s">
-        <v>577</v>
-      </c>
       <c r="C345">
-        <v>118666.99999999997</v>
+        <v>119060.03</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B346" t="s">
         <v>24</v>
       </c>
       <c r="C346">
-        <v>118447.93000000001</v>
+        <v>118502.68000000001</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B347" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C347">
-        <v>117944.06</v>
+        <v>117729.57000000002</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B348" t="s">
         <v>257</v>
       </c>
       <c r="C348">
-        <v>116903.54</v>
+        <v>116945.63</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
+        <v>580</v>
+      </c>
+      <c r="B349" t="s">
         <v>581</v>
       </c>
-      <c r="B349" t="s">
-        <v>582</v>
-      </c>
       <c r="C349">
-        <v>116727.60999999997</v>
+        <v>116782.27</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
+        <v>582</v>
+      </c>
+      <c r="B350" t="s">
         <v>583</v>
       </c>
-      <c r="B350" t="s">
-        <v>435</v>
-      </c>
       <c r="C350">
-        <v>114896.92</v>
+        <v>116617.13999999998</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6674,21 +6683,21 @@
         <v>584</v>
       </c>
       <c r="B351" t="s">
-        <v>585</v>
+        <v>436</v>
       </c>
       <c r="C351">
-        <v>114527.7</v>
+        <v>114947.19</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
+        <v>585</v>
+      </c>
+      <c r="B352" t="s">
         <v>586</v>
       </c>
-      <c r="B352" t="s">
-        <v>59</v>
-      </c>
       <c r="C352">
-        <v>113922.98999999999</v>
+        <v>114575.22</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6696,43 +6705,43 @@
         <v>587</v>
       </c>
       <c r="B353" t="s">
-        <v>588</v>
+        <v>59</v>
       </c>
       <c r="C353">
-        <v>112721.72</v>
+        <v>113977.29</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
+        <v>588</v>
+      </c>
+      <c r="B354" t="s">
         <v>589</v>
       </c>
-      <c r="B354" t="s">
-        <v>590</v>
-      </c>
       <c r="C354">
-        <v>112662.81</v>
+        <v>112770.01</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
+        <v>590</v>
+      </c>
+      <c r="B355" t="s">
         <v>591</v>
       </c>
-      <c r="B355" t="s">
-        <v>592</v>
-      </c>
       <c r="C355">
-        <v>112569.81999999999</v>
+        <v>112713.2</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
+        <v>592</v>
+      </c>
+      <c r="B356" t="s">
         <v>593</v>
       </c>
-      <c r="B356" t="s">
-        <v>61</v>
-      </c>
       <c r="C356">
-        <v>112544.20999999999</v>
+        <v>112618.93</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6740,10 +6749,10 @@
         <v>594</v>
       </c>
       <c r="B357" t="s">
-        <v>365</v>
+        <v>61</v>
       </c>
       <c r="C357">
-        <v>110766.92</v>
+        <v>112594.01</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6751,10 +6760,10 @@
         <v>595</v>
       </c>
       <c r="B358" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="C358">
-        <v>110575.09000000001</v>
+        <v>110235.82</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6762,32 +6771,32 @@
         <v>596</v>
       </c>
       <c r="B359" t="s">
-        <v>597</v>
+        <v>316</v>
       </c>
       <c r="C359">
-        <v>108799.57999999997</v>
+        <v>110045.62000000001</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
+        <v>597</v>
+      </c>
+      <c r="B360" t="s">
         <v>598</v>
       </c>
-      <c r="B360" t="s">
-        <v>599</v>
-      </c>
       <c r="C360">
-        <v>108451.93999999999</v>
+        <v>108850.18000000001</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
+        <v>599</v>
+      </c>
+      <c r="B361" t="s">
         <v>600</v>
       </c>
-      <c r="B361" t="s">
-        <v>452</v>
-      </c>
       <c r="C361">
-        <v>107379.20999999999</v>
+        <v>108173.90000000001</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6798,7 +6807,7 @@
         <v>90</v>
       </c>
       <c r="C362">
-        <v>107119.43000000001</v>
+        <v>106602.74000000002</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6809,7 +6818,7 @@
         <v>603</v>
       </c>
       <c r="C363">
-        <v>105683.04000000001</v>
+        <v>105730.13999999998</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6817,10 +6826,10 @@
         <v>604</v>
       </c>
       <c r="B364" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C364">
-        <v>104875.82</v>
+        <v>104903.7</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6828,10 +6837,10 @@
         <v>605</v>
       </c>
       <c r="B365" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C365">
-        <v>103529.60000000001</v>
+        <v>103577.77</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6842,7 +6851,7 @@
         <v>109</v>
       </c>
       <c r="C366">
-        <v>103486.81999999999</v>
+        <v>103532.68</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6850,10 +6859,10 @@
         <v>607</v>
       </c>
       <c r="B367" t="s">
-        <v>458</v>
+        <v>254</v>
       </c>
       <c r="C367">
-        <v>102491.98000000001</v>
+        <v>102420.47</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6861,10 +6870,10 @@
         <v>608</v>
       </c>
       <c r="B368" t="s">
-        <v>254</v>
+        <v>316</v>
       </c>
       <c r="C368">
-        <v>102447.01000000001</v>
+        <v>102008.69999999998</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6872,10 +6881,10 @@
         <v>609</v>
       </c>
       <c r="B369" t="s">
-        <v>316</v>
+        <v>459</v>
       </c>
       <c r="C369">
-        <v>102083.04</v>
+        <v>101998.87999999999</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6886,7 +6895,7 @@
         <v>611</v>
       </c>
       <c r="C370">
-        <v>100867.39</v>
+        <v>100909.6</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6897,7 +6906,7 @@
         <v>75</v>
       </c>
       <c r="C371">
-        <v>100444.03</v>
+        <v>100494.95999999999</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6908,7 +6917,7 @@
         <v>71</v>
       </c>
       <c r="C372">
-        <v>100146.98</v>
+        <v>100196.40000000001</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6919,7 +6928,7 @@
         <v>615</v>
       </c>
       <c r="C373">
-        <v>100050.02</v>
+        <v>100073.45</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6930,7 +6939,7 @@
         <v>617</v>
       </c>
       <c r="C374">
-        <v>97329.169999999984</v>
+        <v>97358.38</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6938,10 +6947,10 @@
         <v>618</v>
       </c>
       <c r="B375" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C375">
-        <v>96764.28</v>
+        <v>96422.98000000001</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6952,7 +6961,7 @@
         <v>620</v>
       </c>
       <c r="C376">
-        <v>93722.61</v>
+        <v>93767.819999999992</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6963,7 +6972,7 @@
         <v>622</v>
       </c>
       <c r="C377">
-        <v>90907.140000000014</v>
+        <v>90948.329999999987</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6971,21 +6980,21 @@
         <v>623</v>
       </c>
       <c r="B378" t="s">
-        <v>250</v>
+        <v>624</v>
       </c>
       <c r="C378">
-        <v>90632.75</v>
+        <v>89798.38</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B379" t="s">
-        <v>625</v>
+        <v>341</v>
       </c>
       <c r="C379">
-        <v>89767.209999999992</v>
+        <v>89042.439999999988</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6993,10 +7002,10 @@
         <v>626</v>
       </c>
       <c r="B380" t="s">
-        <v>299</v>
+        <v>59</v>
       </c>
       <c r="C380">
-        <v>89244.06</v>
+        <v>89018.820000000022</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -7004,10 +7013,10 @@
         <v>627</v>
       </c>
       <c r="B381" t="s">
-        <v>341</v>
+        <v>250</v>
       </c>
       <c r="C381">
-        <v>89215.460000000021</v>
+        <v>89011.049999999988</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -7015,10 +7024,10 @@
         <v>628</v>
       </c>
       <c r="B382" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C382">
-        <v>89191.77</v>
+        <v>88940.32</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -7026,10 +7035,10 @@
         <v>629</v>
       </c>
       <c r="B383" t="s">
-        <v>49</v>
+        <v>489</v>
       </c>
       <c r="C383">
-        <v>89113.14</v>
+        <v>88227.750000000015</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -7037,10 +7046,10 @@
         <v>630</v>
       </c>
       <c r="B384" t="s">
-        <v>489</v>
+        <v>299</v>
       </c>
       <c r="C384">
-        <v>88189.889999999985</v>
+        <v>87645.32</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -7048,10 +7057,10 @@
         <v>631</v>
       </c>
       <c r="B385" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C385">
-        <v>87147.27</v>
+        <v>86953.159999999989</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7062,7 +7071,7 @@
         <v>59</v>
       </c>
       <c r="C386">
-        <v>86747.140000000014</v>
+        <v>86577.87</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7073,7 +7082,7 @@
         <v>634</v>
       </c>
       <c r="C387">
-        <v>86183.03</v>
+        <v>83898.860000000015</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7081,21 +7090,21 @@
         <v>635</v>
       </c>
       <c r="B388" t="s">
-        <v>487</v>
+        <v>636</v>
       </c>
       <c r="C388">
-        <v>85590.26</v>
+        <v>83870.81</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B389" t="s">
-        <v>637</v>
+        <v>204</v>
       </c>
       <c r="C389">
-        <v>85337.429999999978</v>
+        <v>82207.029999999984</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7103,21 +7112,21 @@
         <v>638</v>
       </c>
       <c r="B390" t="s">
-        <v>639</v>
+        <v>571</v>
       </c>
       <c r="C390">
-        <v>84040.430000000008</v>
+        <v>81982.279999999984</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
+        <v>639</v>
+      </c>
+      <c r="B391" t="s">
         <v>640</v>
       </c>
-      <c r="B391" t="s">
-        <v>204</v>
-      </c>
       <c r="C391">
-        <v>82177.140000000014</v>
+        <v>79762.41</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7125,21 +7134,21 @@
         <v>641</v>
       </c>
       <c r="B392" t="s">
-        <v>570</v>
+        <v>642</v>
       </c>
       <c r="C392">
-        <v>81943.930000000008</v>
+        <v>77957.239999999991</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B393" t="s">
-        <v>643</v>
+        <v>434</v>
       </c>
       <c r="C393">
-        <v>79726.260000000009</v>
+        <v>76797.400000000009</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -7147,10 +7156,10 @@
         <v>644</v>
       </c>
       <c r="B394" t="s">
-        <v>437</v>
+        <v>505</v>
       </c>
       <c r="C394">
-        <v>78138.569999999992</v>
+        <v>76035.360000000001</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7161,7 +7170,7 @@
         <v>646</v>
       </c>
       <c r="C395">
-        <v>77922.3</v>
+        <v>75816.399999999994</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7169,10 +7178,10 @@
         <v>647</v>
       </c>
       <c r="B396" t="s">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="C396">
-        <v>76712.27</v>
+        <v>75121.73</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7180,21 +7189,21 @@
         <v>648</v>
       </c>
       <c r="B397" t="s">
-        <v>504</v>
+        <v>649</v>
       </c>
       <c r="C397">
-        <v>76404.990000000005</v>
+        <v>73247.45</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B398" t="s">
-        <v>650</v>
+        <v>47</v>
       </c>
       <c r="C398">
-        <v>75807.27</v>
+        <v>73059.06</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7202,21 +7211,21 @@
         <v>651</v>
       </c>
       <c r="B399" t="s">
-        <v>71</v>
+        <v>652</v>
       </c>
       <c r="C399">
-        <v>75110.039999999994</v>
+        <v>72423.13</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B400" t="s">
-        <v>653</v>
+        <v>20</v>
       </c>
       <c r="C400">
-        <v>73215.540000000008</v>
+        <v>72373.67</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7224,10 +7233,10 @@
         <v>654</v>
       </c>
       <c r="B401" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="C401">
-        <v>73036.83</v>
+        <v>71732.38</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7238,7 +7247,7 @@
         <v>656</v>
       </c>
       <c r="C402">
-        <v>73000.12000000001</v>
+        <v>71412.040000000008</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7246,21 +7255,21 @@
         <v>657</v>
       </c>
       <c r="B403" t="s">
-        <v>20</v>
+        <v>658</v>
       </c>
       <c r="C403">
-        <v>72342.44</v>
+        <v>69970.66</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B404" t="s">
-        <v>659</v>
+        <v>271</v>
       </c>
       <c r="C404">
-        <v>71381.42</v>
+        <v>67785.67</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7271,7 +7280,7 @@
         <v>661</v>
       </c>
       <c r="C405">
-        <v>70245.53</v>
+        <v>67602.55</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7279,10 +7288,10 @@
         <v>662</v>
       </c>
       <c r="B406" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="C406">
-        <v>67907.650000000009</v>
+        <v>66718.159999999989</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7290,21 +7299,21 @@
         <v>663</v>
       </c>
       <c r="B407" t="s">
-        <v>664</v>
+        <v>438</v>
       </c>
       <c r="C407">
-        <v>67569.81</v>
+        <v>65218.939999999995</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
+        <v>664</v>
+      </c>
+      <c r="B408" t="s">
         <v>665</v>
       </c>
-      <c r="B408" t="s">
-        <v>330</v>
-      </c>
       <c r="C408">
-        <v>66713.87000000001</v>
+        <v>64973.599999999991</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7312,76 +7321,76 @@
         <v>666</v>
       </c>
       <c r="B409" t="s">
-        <v>49</v>
+        <v>667</v>
       </c>
       <c r="C409">
-        <v>66155.62</v>
+        <v>64450.8</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B410" t="s">
-        <v>439</v>
+        <v>24</v>
       </c>
       <c r="C410">
-        <v>65454.73</v>
+        <v>64143.93</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B411" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C411">
-        <v>64943.69</v>
+        <v>63796.41</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B412" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C412">
-        <v>64423.66</v>
+        <v>62349.120000000003</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B413" t="s">
-        <v>24</v>
+        <v>674</v>
       </c>
       <c r="C413">
-        <v>64160.05</v>
+        <v>62130.49</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B414" t="s">
-        <v>674</v>
+        <v>196</v>
       </c>
       <c r="C414">
-        <v>63768.720000000016</v>
+        <v>62087.210000000006</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B415" t="s">
-        <v>676</v>
+        <v>49</v>
       </c>
       <c r="C415">
-        <v>62712.959999999999</v>
+        <v>60475.97</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7389,21 +7398,21 @@
         <v>677</v>
       </c>
       <c r="B416" t="s">
-        <v>678</v>
+        <v>194</v>
       </c>
       <c r="C416">
-        <v>62101.149999999987</v>
+        <v>60168.299999999996</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
+        <v>678</v>
+      </c>
+      <c r="B417" t="s">
         <v>679</v>
       </c>
-      <c r="B417" t="s">
-        <v>197</v>
-      </c>
       <c r="C417">
-        <v>62059.689999999995</v>
+        <v>59565.000000000007</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7411,10 +7420,10 @@
         <v>680</v>
       </c>
       <c r="B418" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="C418">
-        <v>61340.179999999993</v>
+        <v>59011.310000000005</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7425,7 +7434,7 @@
         <v>682</v>
       </c>
       <c r="C419">
-        <v>59542.78</v>
+        <v>58171.170000000013</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7433,10 +7442,10 @@
         <v>683</v>
       </c>
       <c r="B420" t="s">
-        <v>213</v>
+        <v>428</v>
       </c>
       <c r="C420">
-        <v>59263.45</v>
+        <v>57317.21</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7447,7 +7456,7 @@
         <v>116</v>
       </c>
       <c r="C421">
-        <v>57995.53</v>
+        <v>56961.16</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7455,10 +7464,10 @@
         <v>685</v>
       </c>
       <c r="B422" t="s">
-        <v>427</v>
+        <v>59</v>
       </c>
       <c r="C422">
-        <v>57300.32</v>
+        <v>56801.30000000001</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7466,10 +7475,10 @@
         <v>686</v>
       </c>
       <c r="B423" t="s">
-        <v>59</v>
+        <v>670</v>
       </c>
       <c r="C423">
-        <v>57046.879999999997</v>
+        <v>55642.47</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7477,10 +7486,10 @@
         <v>687</v>
       </c>
       <c r="B424" t="s">
-        <v>674</v>
+        <v>487</v>
       </c>
       <c r="C424">
-        <v>55617.19</v>
+        <v>55526.18</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7491,7 +7500,7 @@
         <v>12</v>
       </c>
       <c r="C425">
-        <v>54917.729999999996</v>
+        <v>54941.21</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7499,10 +7508,10 @@
         <v>689</v>
       </c>
       <c r="B426" t="s">
-        <v>350</v>
+        <v>141</v>
       </c>
       <c r="C426">
-        <v>54410.479999999996</v>
+        <v>53442.65</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7510,10 +7519,10 @@
         <v>690</v>
       </c>
       <c r="B427" t="s">
-        <v>142</v>
+        <v>348</v>
       </c>
       <c r="C427">
-        <v>53418.92</v>
+        <v>53442.069999999992</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7524,7 +7533,7 @@
         <v>692</v>
       </c>
       <c r="C428">
-        <v>52646.399999999994</v>
+        <v>52670.719999999994</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7532,10 +7541,10 @@
         <v>693</v>
       </c>
       <c r="B429" t="s">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="C429">
-        <v>52551.520000000004</v>
+        <v>51954.02</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7543,10 +7552,10 @@
         <v>694</v>
       </c>
       <c r="B430" t="s">
-        <v>51</v>
+        <v>310</v>
       </c>
       <c r="C430">
-        <v>52008.71</v>
+        <v>51613.630000000005</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7554,10 +7563,10 @@
         <v>695</v>
       </c>
       <c r="B431" t="s">
-        <v>570</v>
+        <v>51</v>
       </c>
       <c r="C431">
-        <v>51925.729999999996</v>
+        <v>51081.03</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7565,10 +7574,10 @@
         <v>696</v>
       </c>
       <c r="B432" t="s">
-        <v>79</v>
+        <v>571</v>
       </c>
       <c r="C432">
-        <v>51774.239999999998</v>
+        <v>50998.02</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7579,7 +7588,7 @@
         <v>552</v>
       </c>
       <c r="C433">
-        <v>51592.38</v>
+        <v>50672.219999999994</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7587,10 +7596,10 @@
         <v>698</v>
       </c>
       <c r="B434" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C434">
-        <v>50087.689999999995</v>
+        <v>49522.01</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7598,10 +7607,10 @@
         <v>699</v>
       </c>
       <c r="B435" t="s">
-        <v>354</v>
+        <v>438</v>
       </c>
       <c r="C435">
-        <v>48915.61</v>
+        <v>48377.32</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7612,7 +7621,7 @@
         <v>242</v>
       </c>
       <c r="C436">
-        <v>48622.679999999993</v>
+        <v>48254.14</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7620,10 +7629,10 @@
         <v>701</v>
       </c>
       <c r="B437" t="s">
-        <v>439</v>
+        <v>352</v>
       </c>
       <c r="C437">
-        <v>48353.18</v>
+        <v>48072.920000000006</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7631,10 +7640,10 @@
         <v>702</v>
       </c>
       <c r="B438" t="s">
-        <v>421</v>
+        <v>541</v>
       </c>
       <c r="C438">
-        <v>48252.159999999989</v>
+        <v>48009.08</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7642,10 +7651,10 @@
         <v>703</v>
       </c>
       <c r="B439" t="s">
-        <v>543</v>
+        <v>420</v>
       </c>
       <c r="C439">
-        <v>48220.859999999993</v>
+        <v>47307.54</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7656,7 +7665,7 @@
         <v>705</v>
       </c>
       <c r="C440">
-        <v>45608.630000000005</v>
+        <v>45627.69</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7667,7 +7676,7 @@
         <v>213</v>
       </c>
       <c r="C441">
-        <v>44815.909999999996</v>
+        <v>44819.31</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7678,7 +7687,7 @@
         <v>79</v>
       </c>
       <c r="C442">
-        <v>42659.79</v>
+        <v>42453.859999999993</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7689,7 +7698,7 @@
         <v>709</v>
       </c>
       <c r="C443">
-        <v>42051.130000000005</v>
+        <v>42066.54</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7700,7 +7709,7 @@
         <v>711</v>
       </c>
       <c r="C444">
-        <v>41598.050000000003</v>
+        <v>41409.440000000002</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7711,7 +7720,7 @@
         <v>129</v>
       </c>
       <c r="C445">
-        <v>41080.33</v>
+        <v>41099.359999999993</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7722,7 +7731,7 @@
         <v>714</v>
       </c>
       <c r="C446">
-        <v>41063.71</v>
+        <v>41004.240000000005</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7733,7 +7742,7 @@
         <v>61</v>
       </c>
       <c r="C447">
-        <v>40452.499999999993</v>
+        <v>40471.01</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7744,7 +7753,7 @@
         <v>717</v>
       </c>
       <c r="C448">
-        <v>39287.620000000003</v>
+        <v>39305.24</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7755,7 +7764,7 @@
         <v>719</v>
       </c>
       <c r="C449">
-        <v>36364.370000000003</v>
+        <v>36380.71</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7763,10 +7772,10 @@
         <v>720</v>
       </c>
       <c r="B450" t="s">
-        <v>49</v>
+        <v>404</v>
       </c>
       <c r="C450">
-        <v>35906.06</v>
+        <v>35861.449999999997</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7774,10 +7783,10 @@
         <v>721</v>
       </c>
       <c r="B451" t="s">
-        <v>405</v>
+        <v>49</v>
       </c>
       <c r="C451">
-        <v>35751.619999999995</v>
+        <v>35321.799999999996</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7785,10 +7794,10 @@
         <v>722</v>
       </c>
       <c r="B452" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C452">
-        <v>34714.300000000003</v>
+        <v>34729.69</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7799,7 +7808,7 @@
         <v>724</v>
       </c>
       <c r="C453">
-        <v>34478.01999999999</v>
+        <v>34493.909999999996</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7810,7 +7819,7 @@
         <v>726</v>
       </c>
       <c r="C454">
-        <v>34122.090000000004</v>
+        <v>34137.979999999996</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7821,7 +7830,7 @@
         <v>728</v>
       </c>
       <c r="C455">
-        <v>33375.579999999994</v>
+        <v>33390.74</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7829,10 +7838,10 @@
         <v>729</v>
       </c>
       <c r="B456" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C456">
-        <v>33243.47</v>
+        <v>33258.6</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7843,7 +7852,7 @@
         <v>37</v>
       </c>
       <c r="C457">
-        <v>31744.329999999994</v>
+        <v>31759.23</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7851,10 +7860,10 @@
         <v>731</v>
       </c>
       <c r="B458" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C458">
-        <v>30687.21</v>
+        <v>30702.889999999996</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7865,7 +7874,7 @@
         <v>487</v>
       </c>
       <c r="C459">
-        <v>29120.550000000003</v>
+        <v>28547.040000000005</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7876,7 +7885,7 @@
         <v>734</v>
       </c>
       <c r="C460">
-        <v>28587.15</v>
+        <v>28477.06</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7884,10 +7893,10 @@
         <v>735</v>
       </c>
       <c r="B461" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C461">
-        <v>27922.44</v>
+        <v>27935.460000000003</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7895,10 +7904,10 @@
         <v>736</v>
       </c>
       <c r="B462" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C462">
-        <v>26063.379999999997</v>
+        <v>26074.61</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7909,7 +7918,7 @@
         <v>738</v>
       </c>
       <c r="C463">
-        <v>25361.22</v>
+        <v>25372.030000000006</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7920,7 +7929,7 @@
         <v>740</v>
       </c>
       <c r="C464">
-        <v>23261.94</v>
+        <v>23270.370000000006</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7928,10 +7937,10 @@
         <v>741</v>
       </c>
       <c r="B465" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C465">
-        <v>20983.68</v>
+        <v>20992.48</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7942,7 +7951,7 @@
         <v>71</v>
       </c>
       <c r="C466">
-        <v>20229.009999999998</v>
+        <v>20237.68</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -7953,7 +7962,7 @@
         <v>39</v>
       </c>
       <c r="C467">
-        <v>17223.8</v>
+        <v>17231.41</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7964,7 +7973,7 @@
         <v>341</v>
       </c>
       <c r="C468">
-        <v>16778.43</v>
+        <v>16538.97</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7975,7 +7984,7 @@
         <v>213</v>
       </c>
       <c r="C469">
-        <v>16191.55</v>
+        <v>16198.81</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7983,10 +7992,10 @@
         <v>746</v>
       </c>
       <c r="B470" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C470">
-        <v>14464.1</v>
+        <v>14485.75</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7997,7 +8006,7 @@
         <v>748</v>
       </c>
       <c r="C471">
-        <v>14087.37</v>
+        <v>14093.63</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -8008,7 +8017,7 @@
         <v>750</v>
       </c>
       <c r="C472">
-        <v>13926.53</v>
+        <v>13932.7</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8019,7 +8028,7 @@
         <v>752</v>
       </c>
       <c r="C473">
-        <v>13440.25</v>
+        <v>13446.429999999998</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8030,7 +8039,7 @@
         <v>6</v>
       </c>
       <c r="C474">
-        <v>13307.12</v>
+        <v>13064.8</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8041,7 +8050,7 @@
         <v>341</v>
       </c>
       <c r="C475">
-        <v>12918.27</v>
+        <v>12924.050000000001</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -8049,21 +8058,21 @@
         <v>755</v>
       </c>
       <c r="B476" t="s">
-        <v>756</v>
+        <v>310</v>
       </c>
       <c r="C476">
-        <v>11286.28</v>
+        <v>11756.17</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" t="s">
+        <v>756</v>
+      </c>
+      <c r="B477" t="s">
         <v>757</v>
       </c>
-      <c r="B477" t="s">
-        <v>310</v>
-      </c>
       <c r="C477">
-        <v>10751.4</v>
+        <v>11291.269999999999</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8074,7 +8083,7 @@
         <v>759</v>
       </c>
       <c r="C478">
-        <v>10496.55</v>
+        <v>10501.13</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8082,10 +8091,10 @@
         <v>760</v>
       </c>
       <c r="B479" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C479">
-        <v>10112.02</v>
+        <v>10116.26</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -8093,10 +8102,10 @@
         <v>761</v>
       </c>
       <c r="B480" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C480">
-        <v>9967.81</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -8104,21 +8113,21 @@
         <v>762</v>
       </c>
       <c r="B481" t="s">
-        <v>763</v>
+        <v>8</v>
       </c>
       <c r="C481">
-        <v>9232.06</v>
+        <v>9972.2099999999991</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
+        <v>763</v>
+      </c>
+      <c r="B482" t="s">
         <v>764</v>
       </c>
-      <c r="B482" t="s">
-        <v>197</v>
-      </c>
       <c r="C482">
-        <v>8858.02</v>
+        <v>9236.0600000000013</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -8126,10 +8135,10 @@
         <v>765</v>
       </c>
       <c r="B483" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C483">
-        <v>7937.64</v>
+        <v>8862.76</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -8137,21 +8146,21 @@
         <v>766</v>
       </c>
       <c r="B484" t="s">
-        <v>767</v>
+        <v>204</v>
       </c>
       <c r="C484">
-        <v>6785.93</v>
+        <v>7930.48</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" t="s">
+        <v>767</v>
+      </c>
+      <c r="B485" t="s">
         <v>768</v>
       </c>
-      <c r="B485" t="s">
-        <v>195</v>
-      </c>
       <c r="C485">
-        <v>5494.3799999999992</v>
+        <v>6788.83</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -8159,10 +8168,10 @@
         <v>769</v>
       </c>
       <c r="B486" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="C486">
-        <v>4677.3600000000006</v>
+        <v>5391.5199999999995</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -8170,21 +8179,21 @@
         <v>770</v>
       </c>
       <c r="B487" t="s">
-        <v>771</v>
+        <v>71</v>
       </c>
       <c r="C487">
-        <v>4639.26</v>
+        <v>4679.4000000000005</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
+        <v>771</v>
+      </c>
+      <c r="B488" t="s">
         <v>772</v>
       </c>
-      <c r="B488" t="s">
-        <v>269</v>
-      </c>
       <c r="C488">
-        <v>2762.68</v>
+        <v>4641.09</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -8192,32 +8201,32 @@
         <v>773</v>
       </c>
       <c r="B489" t="s">
-        <v>774</v>
+        <v>271</v>
       </c>
       <c r="C489">
-        <v>2300</v>
+        <v>2763.82</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="s">
+        <v>774</v>
+      </c>
+      <c r="B490" t="s">
         <v>775</v>
       </c>
-      <c r="B490" t="s">
-        <v>776</v>
-      </c>
       <c r="C490">
-        <v>1515.7800000000002</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" t="s">
+        <v>776</v>
+      </c>
+      <c r="B491" t="s">
         <v>777</v>
       </c>
-      <c r="B491" t="s">
-        <v>31</v>
-      </c>
       <c r="C491">
-        <v>1430.4099999999999</v>
+        <v>1516.45</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -8225,10 +8234,10 @@
         <v>778</v>
       </c>
       <c r="B492" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C492">
-        <v>1375.73</v>
+        <v>1431.01</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -8236,21 +8245,21 @@
         <v>779</v>
       </c>
       <c r="B493" t="s">
-        <v>780</v>
+        <v>51</v>
       </c>
       <c r="C493">
-        <v>1101.6199999999999</v>
+        <v>1365.3</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
+        <v>780</v>
+      </c>
+      <c r="B494" t="s">
         <v>781</v>
       </c>
-      <c r="B494" t="s">
-        <v>394</v>
-      </c>
       <c r="C494">
-        <v>1087.01</v>
+        <v>1102.1099999999999</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -8258,10 +8267,10 @@
         <v>782</v>
       </c>
       <c r="B495" t="s">
-        <v>577</v>
+        <v>393</v>
       </c>
       <c r="C495">
-        <v>745.16</v>
+        <v>1087.5</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -8269,10 +8278,10 @@
         <v>783</v>
       </c>
       <c r="B496" t="s">
-        <v>20</v>
+        <v>583</v>
       </c>
       <c r="C496">
-        <v>504.19000000000005</v>
+        <v>745.44</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -8280,21 +8289,21 @@
         <v>784</v>
       </c>
       <c r="B497" t="s">
-        <v>785</v>
+        <v>20</v>
       </c>
       <c r="C497">
-        <v>435.68</v>
+        <v>504.34000000000003</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
+        <v>785</v>
+      </c>
+      <c r="B498" t="s">
         <v>786</v>
       </c>
-      <c r="B498" t="s">
-        <v>98</v>
-      </c>
       <c r="C498">
-        <v>278.86</v>
+        <v>435.68</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -8302,10 +8311,10 @@
         <v>787</v>
       </c>
       <c r="B499" t="s">
-        <v>263</v>
+        <v>98</v>
       </c>
       <c r="C499">
-        <v>86.38</v>
+        <v>278.98</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -8313,10 +8322,10 @@
         <v>788</v>
       </c>
       <c r="B500" t="s">
-        <v>439</v>
+        <v>192</v>
       </c>
       <c r="C500">
-        <v>50.26</v>
+        <v>150</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -8324,10 +8333,10 @@
         <v>789</v>
       </c>
       <c r="B501" t="s">
-        <v>559</v>
+        <v>192</v>
       </c>
       <c r="C501">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -8335,10 +8344,10 @@
         <v>790</v>
       </c>
       <c r="B502" t="s">
-        <v>427</v>
+        <v>265</v>
       </c>
       <c r="C502">
-        <v>33.049999999999997</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -8346,114 +8355,147 @@
         <v>791</v>
       </c>
       <c r="B503" t="s">
-        <v>792</v>
+        <v>438</v>
       </c>
       <c r="C503">
-        <v>29.770000000000003</v>
+        <v>50.26</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B504" t="s">
-        <v>794</v>
+        <v>559</v>
       </c>
       <c r="C504">
-        <v>21.27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B505" t="s">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="C505">
-        <v>19.079999999999998</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B506" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C506">
-        <v>17.86</v>
+        <v>29.770000000000003</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B507" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C507">
-        <v>14.67</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B508" t="s">
-        <v>801</v>
+        <v>20</v>
       </c>
       <c r="C508">
-        <v>9.7200000000000006</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B509" t="s">
-        <v>263</v>
+        <v>800</v>
       </c>
       <c r="C509">
-        <v>5.55</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B510" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C510">
-        <v>0.05</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B511" t="s">
-        <v>39</v>
+        <v>804</v>
       </c>
       <c r="C511">
-        <v>0.01</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" t="s">
+        <v>805</v>
+      </c>
+      <c r="B512" t="s">
+        <v>265</v>
+      </c>
+      <c r="C512">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" t="s">
         <v>806</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B513" t="s">
         <v>807</v>
       </c>
-      <c r="C512">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="514" spans="1:1">
+      <c r="C513">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
       <c r="A514" t="s">
         <v>808</v>
+      </c>
+      <c r="B514" t="s">
+        <v>39</v>
+      </c>
+      <c r="C514">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" t="s">
+        <v>809</v>
+      </c>
+      <c r="B515" t="s">
+        <v>810</v>
+      </c>
+      <c r="C515">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" t="s">
+        <v>811</v>
       </c>
     </row>
   </sheetData>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A7BF301-666A-484D-8070-CFE5EAA331E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07E0D8AC-62DC-4540-8A88-F6C87D8C2CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="1080" windowWidth="15330" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="814">
   <si>
     <t>CONTA</t>
   </si>
@@ -67,6 +67,12 @@
     <t>DILSON</t>
   </si>
   <si>
+    <t>004884046</t>
+  </si>
+  <si>
+    <t>WILSON</t>
+  </si>
+  <si>
     <t>004352384</t>
   </si>
   <si>
@@ -361,18 +367,18 @@
     <t>004480134</t>
   </si>
   <si>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
     <t>004912314</t>
   </si>
   <si>
     <t>FABRICIO</t>
   </si>
   <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
     <t>001882235</t>
   </si>
   <si>
@@ -400,6 +406,12 @@
     <t>BEATRIZ</t>
   </si>
   <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
     <t>004855960</t>
   </si>
   <si>
@@ -424,12 +436,6 @@
     <t>HEMAT</t>
   </si>
   <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
     <t>005087681</t>
   </si>
   <si>
@@ -586,15 +592,15 @@
     <t>004363260</t>
   </si>
   <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
     <t>004453157</t>
   </si>
   <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
     <t>004586209</t>
   </si>
   <si>
@@ -616,15 +622,15 @@
     <t>004241147</t>
   </si>
   <si>
+    <t>004459461</t>
+  </si>
+  <si>
+    <t>INTERLAGOS</t>
+  </si>
+  <si>
     <t>004572740</t>
   </si>
   <si>
-    <t>004459461</t>
-  </si>
-  <si>
-    <t>INTERLAGOS</t>
-  </si>
-  <si>
     <t>004204500</t>
   </si>
   <si>
@@ -682,12 +688,12 @@
     <t>ALESSANDRA</t>
   </si>
   <si>
+    <t>004453132</t>
+  </si>
+  <si>
     <t>004335144</t>
   </si>
   <si>
-    <t>004453132</t>
-  </si>
-  <si>
     <t>004646727</t>
   </si>
   <si>
@@ -757,6 +763,12 @@
     <t>EULER</t>
   </si>
   <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
     <t>004380749</t>
   </si>
   <si>
@@ -769,12 +781,6 @@
     <t>HELVECIO</t>
   </si>
   <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
     <t>005135105</t>
   </si>
   <si>
@@ -802,18 +808,18 @@
     <t>CINTIA</t>
   </si>
   <si>
+    <t>005101676</t>
+  </si>
+  <si>
+    <t>ELENI</t>
+  </si>
+  <si>
     <t>004690692</t>
   </si>
   <si>
     <t>PHYLIA</t>
   </si>
   <si>
-    <t>005101676</t>
-  </si>
-  <si>
-    <t>ELENI</t>
-  </si>
-  <si>
     <t>004381328</t>
   </si>
   <si>
@@ -892,36 +898,36 @@
     <t>005000645</t>
   </si>
   <si>
+    <t>004530494</t>
+  </si>
+  <si>
     <t>004958539</t>
   </si>
   <si>
-    <t>004530494</t>
-  </si>
-  <si>
     <t>004508526</t>
   </si>
   <si>
     <t>CASSIO</t>
   </si>
   <si>
+    <t>004589311</t>
+  </si>
+  <si>
+    <t>CLARICE</t>
+  </si>
+  <si>
     <t>004748761</t>
   </si>
   <si>
-    <t>004589311</t>
-  </si>
-  <si>
-    <t>CLARICE</t>
+    <t>004472431</t>
+  </si>
+  <si>
+    <t>LUIS</t>
   </si>
   <si>
     <t>004950193</t>
   </si>
   <si>
-    <t>004472431</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
     <t>004972351</t>
   </si>
   <si>
@@ -979,6 +985,9 @@
     <t>HELOISA</t>
   </si>
   <si>
+    <t>004565108</t>
+  </si>
+  <si>
     <t>005009992</t>
   </si>
   <si>
@@ -991,18 +1000,15 @@
     <t>JULIAN</t>
   </si>
   <si>
-    <t>004565108</t>
+    <t>002694089</t>
+  </si>
+  <si>
+    <t>VITOR</t>
   </si>
   <si>
     <t>004435987</t>
   </si>
   <si>
-    <t>002694089</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
     <t>004376145</t>
   </si>
   <si>
@@ -1069,18 +1075,18 @@
     <t>CATARINE</t>
   </si>
   <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
     <t>004482090</t>
   </si>
   <si>
     <t>CEZAR</t>
   </si>
   <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
     <t>005135532</t>
   </si>
   <si>
@@ -1126,42 +1132,42 @@
     <t>JANNE</t>
   </si>
   <si>
+    <t>004866753</t>
+  </si>
+  <si>
+    <t>GENESI</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
     <t>004945203</t>
   </si>
   <si>
     <t>SONIA</t>
   </si>
   <si>
-    <t>004866753</t>
-  </si>
-  <si>
-    <t>GENESI</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
     <t>004342617</t>
   </si>
   <si>
     <t>JURACI</t>
   </si>
   <si>
+    <t>004853111</t>
+  </si>
+  <si>
+    <t>MARCONDES</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
     <t>004813134</t>
   </si>
   <si>
-    <t>004853111</t>
-  </si>
-  <si>
-    <t>MARCONDES</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
     <t>004756981</t>
   </si>
   <si>
@@ -1207,15 +1213,15 @@
     <t>004479287</t>
   </si>
   <si>
+    <t>004491730</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
     <t>005061124</t>
   </si>
   <si>
-    <t>004491730</t>
-  </si>
-  <si>
-    <t>DENISE</t>
-  </si>
-  <si>
     <t>004259649</t>
   </si>
   <si>
@@ -1414,21 +1420,21 @@
     <t>004466221</t>
   </si>
   <si>
+    <t>004575632</t>
+  </si>
+  <si>
+    <t>ADELE</t>
+  </si>
+  <si>
+    <t>004967702</t>
+  </si>
+  <si>
+    <t>VINICIUS</t>
+  </si>
+  <si>
     <t>004384131</t>
   </si>
   <si>
-    <t>004575632</t>
-  </si>
-  <si>
-    <t>ADELE</t>
-  </si>
-  <si>
-    <t>004967702</t>
-  </si>
-  <si>
-    <t>VINICIUS</t>
-  </si>
-  <si>
     <t>004207658</t>
   </si>
   <si>
@@ -1441,93 +1447,93 @@
     <t>004386464</t>
   </si>
   <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004398253</t>
+  </si>
+  <si>
     <t>004462930</t>
   </si>
   <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004398253</t>
-  </si>
-  <si>
     <t>005007114</t>
   </si>
   <si>
     <t>STELLA</t>
   </si>
   <si>
+    <t>004212409</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>004436055</t>
+  </si>
+  <si>
+    <t>004259650</t>
+  </si>
+  <si>
+    <t>000827730</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004202332</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>004971783</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>004550415</t>
+  </si>
+  <si>
+    <t>DIOGO</t>
+  </si>
+  <si>
+    <t>004425965</t>
+  </si>
+  <si>
+    <t>CAROLLINA</t>
+  </si>
+  <si>
+    <t>004403674</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
     <t>005040864</t>
   </si>
   <si>
-    <t>004212409</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004436055</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>004259650</t>
-  </si>
-  <si>
-    <t>000827730</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004202332</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>004971783</t>
-  </si>
-  <si>
-    <t>ERIKA</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>004550415</t>
-  </si>
-  <si>
-    <t>DIOGO</t>
-  </si>
-  <si>
-    <t>004425965</t>
-  </si>
-  <si>
-    <t>CAROLLINA</t>
-  </si>
-  <si>
-    <t>004403674</t>
-  </si>
-  <si>
-    <t>LILIAN</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
     <t>005103059</t>
   </si>
   <si>
@@ -1651,18 +1657,18 @@
     <t>005076418</t>
   </si>
   <si>
+    <t>001879977</t>
+  </si>
+  <si>
+    <t>THAISSA</t>
+  </si>
+  <si>
     <t>004332544</t>
   </si>
   <si>
     <t>CELIA</t>
   </si>
   <si>
-    <t>001879977</t>
-  </si>
-  <si>
-    <t>THAISSA</t>
-  </si>
-  <si>
     <t>004334158</t>
   </si>
   <si>
@@ -1759,15 +1765,15 @@
     <t>004974089</t>
   </si>
   <si>
+    <t>004224011</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
     <t>004498637</t>
   </si>
   <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
     <t>002828327</t>
   </si>
   <si>
@@ -1903,12 +1909,12 @@
     <t>004508516</t>
   </si>
   <si>
+    <t>004500804</t>
+  </si>
+  <si>
     <t>004539779</t>
   </si>
   <si>
-    <t>004500804</t>
-  </si>
-  <si>
     <t>004517080</t>
   </si>
   <si>
@@ -1966,6 +1972,12 @@
     <t>005009922</t>
   </si>
   <si>
+    <t>001761119</t>
+  </si>
+  <si>
+    <t>BLUEMETRIX</t>
+  </si>
+  <si>
     <t>004994036</t>
   </si>
   <si>
@@ -1975,24 +1987,18 @@
     <t>004854496</t>
   </si>
   <si>
+    <t>004972070</t>
+  </si>
+  <si>
     <t>004431689</t>
   </si>
   <si>
     <t>LUCA</t>
   </si>
   <si>
-    <t>004972070</t>
-  </si>
-  <si>
     <t>000772433</t>
   </si>
   <si>
-    <t>001761119</t>
-  </si>
-  <si>
-    <t>BLUEMETRIX</t>
-  </si>
-  <si>
     <t>004452946</t>
   </si>
   <si>
@@ -2014,43 +2020,46 @@
     <t>004374891</t>
   </si>
   <si>
+    <t>004388077</t>
+  </si>
+  <si>
+    <t>WLADMIR</t>
+  </si>
+  <si>
+    <t>004452507</t>
+  </si>
+  <si>
+    <t>005046919</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>004973881</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>004643880</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
     <t>004243043</t>
   </si>
   <si>
     <t>SUELI</t>
   </si>
   <si>
-    <t>004388077</t>
-  </si>
-  <si>
-    <t>WLADMIR</t>
-  </si>
-  <si>
-    <t>004452507</t>
-  </si>
-  <si>
-    <t>005046919</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>004973881</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>004643880</t>
-  </si>
-  <si>
-    <t>004454365</t>
+    <t>004298042</t>
   </si>
   <si>
     <t>004455356</t>
@@ -2065,262 +2074,259 @@
     <t>004877741</t>
   </si>
   <si>
+    <t>005022526</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>004290978</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>004497825</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004752494</t>
+  </si>
+  <si>
+    <t>004749928</t>
+  </si>
+  <si>
+    <t>004259659</t>
+  </si>
+  <si>
+    <t>004479734</t>
+  </si>
+  <si>
+    <t>004508159</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>005140667</t>
+  </si>
+  <si>
+    <t>004752519</t>
+  </si>
+  <si>
+    <t>004215217</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>004426743</t>
+  </si>
+  <si>
+    <t>GABRIELLE</t>
+  </si>
+  <si>
+    <t>004369172</t>
+  </si>
+  <si>
+    <t>LUIZA</t>
+  </si>
+  <si>
+    <t>005018038</t>
+  </si>
+  <si>
+    <t>005133039</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>003497496</t>
+  </si>
+  <si>
+    <t>ELISANDRA</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>005135281</t>
+  </si>
+  <si>
+    <t>004340984</t>
+  </si>
+  <si>
+    <t>004228456</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>004308815</t>
+  </si>
+  <si>
+    <t>ZELI</t>
+  </si>
+  <si>
+    <t>004388490</t>
+  </si>
+  <si>
+    <t>CAMILLA</t>
+  </si>
+  <si>
+    <t>003836362</t>
+  </si>
+  <si>
+    <t>004809902</t>
+  </si>
+  <si>
+    <t>004470679</t>
+  </si>
+  <si>
+    <t>004693308</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>004207278</t>
+  </si>
+  <si>
+    <t>004638738</t>
+  </si>
+  <si>
+    <t>004504449</t>
+  </si>
+  <si>
+    <t>KELMA</t>
+  </si>
+  <si>
+    <t>005198093</t>
+  </si>
+  <si>
+    <t>004274441</t>
+  </si>
+  <si>
+    <t>VICTORIA</t>
+  </si>
+  <si>
+    <t>005047946</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>000431814</t>
+  </si>
+  <si>
+    <t>004563252</t>
+  </si>
+  <si>
+    <t>004517506</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>004752615</t>
+  </si>
+  <si>
+    <t>LUZIMAR</t>
+  </si>
+  <si>
+    <t>004581652</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>004473942</t>
+  </si>
+  <si>
+    <t>DAIANNE</t>
+  </si>
+  <si>
+    <t>004958578</t>
+  </si>
+  <si>
+    <t>004895776</t>
+  </si>
+  <si>
+    <t>004477812</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>005122672</t>
+  </si>
+  <si>
+    <t>004192775</t>
+  </si>
+  <si>
+    <t>004380948</t>
+  </si>
+  <si>
+    <t>LUISA</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>005186167</t>
+  </si>
+  <si>
     <t>003115072</t>
   </si>
   <si>
     <t>VICTOR</t>
-  </si>
-  <si>
-    <t>005022526</t>
-  </si>
-  <si>
-    <t>004290978</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>004497825</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004752494</t>
-  </si>
-  <si>
-    <t>004749928</t>
-  </si>
-  <si>
-    <t>004259659</t>
-  </si>
-  <si>
-    <t>004479734</t>
-  </si>
-  <si>
-    <t>004508159</t>
-  </si>
-  <si>
-    <t>005140667</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>004752519</t>
-  </si>
-  <si>
-    <t>004215217</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>004426743</t>
-  </si>
-  <si>
-    <t>GABRIELLE</t>
-  </si>
-  <si>
-    <t>004369172</t>
-  </si>
-  <si>
-    <t>LUIZA</t>
-  </si>
-  <si>
-    <t>005018038</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>005133039</t>
-  </si>
-  <si>
-    <t>003497496</t>
-  </si>
-  <si>
-    <t>ELISANDRA</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>005135281</t>
-  </si>
-  <si>
-    <t>004340984</t>
-  </si>
-  <si>
-    <t>004228456</t>
-  </si>
-  <si>
-    <t>FLASH</t>
-  </si>
-  <si>
-    <t>004308815</t>
-  </si>
-  <si>
-    <t>ZELI</t>
-  </si>
-  <si>
-    <t>004388490</t>
-  </si>
-  <si>
-    <t>CAMILLA</t>
-  </si>
-  <si>
-    <t>003836362</t>
-  </si>
-  <si>
-    <t>004809902</t>
-  </si>
-  <si>
-    <t>004470679</t>
-  </si>
-  <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>004693308</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>004207278</t>
-  </si>
-  <si>
-    <t>004638738</t>
-  </si>
-  <si>
-    <t>004504449</t>
-  </si>
-  <si>
-    <t>KELMA</t>
-  </si>
-  <si>
-    <t>004274441</t>
-  </si>
-  <si>
-    <t>VICTORIA</t>
-  </si>
-  <si>
-    <t>005047946</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>000431814</t>
-  </si>
-  <si>
-    <t>004563252</t>
-  </si>
-  <si>
-    <t>004517506</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>004752615</t>
-  </si>
-  <si>
-    <t>LUZIMAR</t>
-  </si>
-  <si>
-    <t>004581652</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>004473942</t>
-  </si>
-  <si>
-    <t>DAIANNE</t>
-  </si>
-  <si>
-    <t>004958578</t>
-  </si>
-  <si>
-    <t>004895776</t>
-  </si>
-  <si>
-    <t>004477812</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>005122672</t>
-  </si>
-  <si>
-    <t>005198093</t>
-  </si>
-  <si>
-    <t>004192775</t>
-  </si>
-  <si>
-    <t>004380948</t>
-  </si>
-  <si>
-    <t>LUISA</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>005186167</t>
   </si>
   <si>
     <t>004536602</t>
@@ -2820,10 +2826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C517"/>
+  <dimension ref="A1:C518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2847,7 +2853,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>16330615.93</v>
+        <v>16332403.869999997</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2858,7 +2864,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>8203970.330000001</v>
+        <v>8204170.6500000004</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2869,7 +2875,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7246197.4700000016</v>
+        <v>7248886.1200000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2880,7 +2886,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6192577.0599999977</v>
+        <v>6192622.5800000001</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2891,7 +2897,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>5721402.7599999998</v>
+        <v>5721770.8700000001</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2902,7 +2908,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>4627138.1699999981</v>
+        <v>4627695.1000000015</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2913,7 +2919,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>4272569.3100000005</v>
+        <v>4323096.54</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2924,7 +2930,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>4235610.9399999995</v>
+        <v>4261989.62</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2935,7 +2941,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>4206128.17</v>
+        <v>4237567.75</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2946,7 +2952,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>3955322.91</v>
+        <v>4207905.8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2957,7 +2963,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>3734232.8400000008</v>
+        <v>3956991.5300000007</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2968,7 +2974,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>3730296.89</v>
+        <v>3734014.4300000006</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2979,7 +2985,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>3577322.25</v>
+        <v>3731967.7299999995</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2987,21 +2993,21 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>3401558.3599999994</v>
+        <v>3574549.7699999996</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>3293267.18</v>
+        <v>3400015.3600000003</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3012,7 +3018,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>3179475.99</v>
+        <v>3294672.14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3023,7 +3029,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>3088139.7199999997</v>
+        <v>3180841.44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3034,7 +3040,7 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3022613.5099999993</v>
+        <v>3089514.87</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3045,7 +3051,7 @@
         <v>39</v>
       </c>
       <c r="C20">
-        <v>2940552.97</v>
+        <v>3024039.57</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3056,7 +3062,7 @@
         <v>41</v>
       </c>
       <c r="C21">
-        <v>2803246.28</v>
+        <v>2943240.9</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3067,7 +3073,7 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>2789083.3199999994</v>
+        <v>2804520.2199999997</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3078,7 +3084,7 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>2732838.4400000004</v>
+        <v>2788852.6900000004</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3089,7 +3095,7 @@
         <v>47</v>
       </c>
       <c r="C24">
-        <v>2661061.9000000004</v>
+        <v>2734045.11</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3100,7 +3106,7 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>2518660.59</v>
+        <v>2662152.7000000007</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3111,7 +3117,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <v>2390815.5299999998</v>
+        <v>2518956.87</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3122,7 +3128,7 @@
         <v>53</v>
       </c>
       <c r="C27">
-        <v>2286707.2899999996</v>
+        <v>2387010.3099999996</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3133,7 +3139,7 @@
         <v>55</v>
       </c>
       <c r="C28">
-        <v>2204088.8099999996</v>
+        <v>2287751.2199999997</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3144,7 +3150,7 @@
         <v>57</v>
       </c>
       <c r="C29">
-        <v>2202327.7499999995</v>
+        <v>2205156.0099999993</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3155,7 +3161,7 @@
         <v>59</v>
       </c>
       <c r="C30">
-        <v>2103974.2800000003</v>
+        <v>2203315.21</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3166,7 +3172,7 @@
         <v>61</v>
       </c>
       <c r="C31">
-        <v>2051345.9000000001</v>
+        <v>2103222.98</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3174,21 +3180,21 @@
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C32">
-        <v>2039928.33</v>
+        <v>2050774.83</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C33">
-        <v>1971348.6</v>
+        <v>2040045.5299999998</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3199,7 +3205,7 @@
         <v>66</v>
       </c>
       <c r="C34">
-        <v>1948390.0099999998</v>
+        <v>1967294.0699999998</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3210,7 +3216,7 @@
         <v>68</v>
       </c>
       <c r="C35">
-        <v>1860894.8699999996</v>
+        <v>1948740.47</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3218,21 +3224,21 @@
         <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C36">
-        <v>1846939.3400000003</v>
+        <v>1860519.9000000001</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="C37">
-        <v>1819550.19</v>
+        <v>1846117.57</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3243,7 +3249,7 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>1816299.6099999996</v>
+        <v>1820365.9899999998</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3254,7 +3260,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>1803112.17</v>
+        <v>1816143.79</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3265,7 +3271,7 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>1764106.19</v>
+        <v>1803961.6399999997</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3276,7 +3282,7 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <v>1605815.04</v>
+        <v>1764929.58</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3287,7 +3293,7 @@
         <v>81</v>
       </c>
       <c r="C42">
-        <v>1581630.85</v>
+        <v>1606462.1099999999</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3298,7 +3304,7 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>1516573.7800000005</v>
+        <v>1582343.9600000002</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3306,21 +3312,21 @@
         <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C44">
-        <v>1476409.3099999998</v>
+        <v>1516250.3199999998</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C45">
-        <v>1438525.38</v>
+        <v>1477050.25</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3331,7 +3337,7 @@
         <v>88</v>
       </c>
       <c r="C46">
-        <v>1399340.51</v>
+        <v>1437493.55</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3342,7 +3348,7 @@
         <v>90</v>
       </c>
       <c r="C47">
-        <v>1382620.47</v>
+        <v>1399919.67</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3353,7 +3359,7 @@
         <v>92</v>
       </c>
       <c r="C48">
-        <v>1364569.03</v>
+        <v>1383224.62</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3364,7 +3370,7 @@
         <v>94</v>
       </c>
       <c r="C49">
-        <v>1363572.8600000003</v>
+        <v>1364917.7699999998</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3375,7 +3381,7 @@
         <v>96</v>
       </c>
       <c r="C50">
-        <v>1350717.0300000003</v>
+        <v>1364168.8499999999</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3386,7 +3392,7 @@
         <v>98</v>
       </c>
       <c r="C51">
-        <v>1332235.2899999998</v>
+        <v>1347340.6099999999</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3397,7 +3403,7 @@
         <v>100</v>
       </c>
       <c r="C52">
-        <v>1316654.4699999995</v>
+        <v>1332898.74</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3408,7 +3414,7 @@
         <v>102</v>
       </c>
       <c r="C53">
-        <v>1275193.4599999997</v>
+        <v>1314329.83</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3416,32 +3422,32 @@
         <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="C54">
-        <v>1274963.94</v>
+        <v>1275523.99</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="C55">
-        <v>1273179.04</v>
+        <v>1275118.97</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C56">
-        <v>1266900.6299999999</v>
+        <v>1269948.5499999998</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3449,21 +3455,21 @@
         <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="C57">
-        <v>1250902.83</v>
+        <v>1267094.3600000001</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="C58">
-        <v>1231635.5</v>
+        <v>1252626.4099999999</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3474,7 +3480,7 @@
         <v>111</v>
       </c>
       <c r="C59">
-        <v>1215998.8800000001</v>
+        <v>1232205.5199999998</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3482,21 +3488,21 @@
         <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="C60">
-        <v>1214943.0899999999</v>
+        <v>1217719.8299999996</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="C61">
-        <v>1180689.6500000001</v>
+        <v>1215495.98</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3507,7 +3513,7 @@
         <v>116</v>
       </c>
       <c r="C62">
-        <v>1179555.72</v>
+        <v>1180426.2500000002</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3518,7 +3524,7 @@
         <v>118</v>
       </c>
       <c r="C63">
-        <v>1156524.1500000001</v>
+        <v>1173146.1400000001</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3529,7 +3535,7 @@
         <v>120</v>
       </c>
       <c r="C64">
-        <v>1129487.7599999998</v>
+        <v>1157082.05</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3540,7 +3546,7 @@
         <v>122</v>
       </c>
       <c r="C65">
-        <v>1097039.73</v>
+        <v>1130065.4999999998</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3548,21 +3554,21 @@
         <v>123</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C66">
-        <v>1076970.77</v>
+        <v>1096938.9499999997</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="C67">
-        <v>1071430.93</v>
+        <v>1073777.2399999998</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3573,7 +3579,7 @@
         <v>127</v>
       </c>
       <c r="C68">
-        <v>1048301.6400000001</v>
+        <v>1072075.5900000003</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3584,7 +3590,7 @@
         <v>129</v>
       </c>
       <c r="C69">
-        <v>1045433.65</v>
+        <v>1051216.2800000003</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3595,7 +3601,7 @@
         <v>131</v>
       </c>
       <c r="C70">
-        <v>1033634.97</v>
+        <v>1048760.77</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3606,7 +3612,7 @@
         <v>133</v>
       </c>
       <c r="C71">
-        <v>1033526.4400000002</v>
+        <v>1045905.13</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3617,7 +3623,7 @@
         <v>135</v>
       </c>
       <c r="C72">
-        <v>1029909.17</v>
+        <v>1034081.4199999999</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3625,32 +3631,32 @@
         <v>136</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="C73">
-        <v>1027474.46</v>
+        <v>1034026.8</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C74">
-        <v>1027046.6199999999</v>
+        <v>1027907.24</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B75" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="C75">
-        <v>1000497.5700000001</v>
+        <v>1027480.5800000001</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3661,7 +3667,7 @@
         <v>141</v>
       </c>
       <c r="C76">
-        <v>994749.85999999987</v>
+        <v>1000168.55</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3669,32 +3675,32 @@
         <v>142</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="C77">
-        <v>990234.03999999969</v>
+        <v>995188.32999999984</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C78">
-        <v>979434.41999999993</v>
+        <v>990702.34000000008</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="C79">
-        <v>970655.53</v>
+        <v>977482.3</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3705,7 +3711,7 @@
         <v>147</v>
       </c>
       <c r="C80">
-        <v>965651.6100000001</v>
+        <v>971112.10000000021</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3716,7 +3722,7 @@
         <v>149</v>
       </c>
       <c r="C81">
-        <v>962412.59999999986</v>
+        <v>965183.21</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3727,7 +3733,7 @@
         <v>151</v>
       </c>
       <c r="C82">
-        <v>925718.91999999993</v>
+        <v>962836.1599999998</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3738,7 +3744,7 @@
         <v>153</v>
       </c>
       <c r="C83">
-        <v>896660.76</v>
+        <v>925988.95</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3749,7 +3755,7 @@
         <v>155</v>
       </c>
       <c r="C84">
-        <v>893262.75999999989</v>
+        <v>897029.44</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3760,7 +3766,7 @@
         <v>157</v>
       </c>
       <c r="C85">
-        <v>878807.4800000001</v>
+        <v>890983.20000000007</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3771,7 +3777,7 @@
         <v>159</v>
       </c>
       <c r="C86">
-        <v>870199.96</v>
+        <v>879182.28000000014</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3782,7 +3788,7 @@
         <v>161</v>
       </c>
       <c r="C87">
-        <v>868770.54</v>
+        <v>870579.67999999993</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3793,7 +3799,7 @@
         <v>163</v>
       </c>
       <c r="C88">
-        <v>858278.28000000014</v>
+        <v>869050.77000000014</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3804,7 +3810,7 @@
         <v>165</v>
       </c>
       <c r="C89">
-        <v>845234.50999999989</v>
+        <v>858679.64999999991</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3815,7 +3821,7 @@
         <v>167</v>
       </c>
       <c r="C90">
-        <v>827957.75000000012</v>
+        <v>845633.08</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3826,7 +3832,7 @@
         <v>169</v>
       </c>
       <c r="C91">
-        <v>819931.61999999988</v>
+        <v>826649.71000000008</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3834,32 +3840,32 @@
         <v>170</v>
       </c>
       <c r="B92" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="C92">
-        <v>817472.85999999987</v>
+        <v>820148.50000000012</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C93">
-        <v>808872.26000000013</v>
+        <v>817469.29999999993</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B94" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="C94">
-        <v>802980.33000000019</v>
+        <v>809016.59</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3870,7 +3876,7 @@
         <v>175</v>
       </c>
       <c r="C95">
-        <v>802501.20000000019</v>
+        <v>803352.92999999982</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3878,43 +3884,43 @@
         <v>176</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="C96">
-        <v>797567.0399999998</v>
+        <v>802852.23999999976</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B97" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C97">
-        <v>788425.79</v>
+        <v>792973.34000000008</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B98" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C98">
-        <v>785203.71000000008</v>
+        <v>787830.76</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="C99">
-        <v>770013.28</v>
+        <v>785554.86</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3925,7 +3931,7 @@
         <v>182</v>
       </c>
       <c r="C100">
-        <v>761612.84999999986</v>
+        <v>768935.55</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3936,7 +3942,7 @@
         <v>184</v>
       </c>
       <c r="C101">
-        <v>757428.05000000016</v>
+        <v>761970.98</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3947,7 +3953,7 @@
         <v>186</v>
       </c>
       <c r="C102">
-        <v>752347.88</v>
+        <v>757636.2</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3955,43 +3961,43 @@
         <v>187</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="C103">
-        <v>746734.90000000014</v>
+        <v>751520.52</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B104" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C104">
-        <v>721720.2</v>
+        <v>745756.15</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C105">
-        <v>720701.56000000029</v>
+        <v>721038.38</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="C106">
-        <v>707709.17</v>
+        <v>720787.85000000009</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4002,7 +4008,7 @@
         <v>194</v>
       </c>
       <c r="C107">
-        <v>705408.43999999983</v>
+        <v>706933.03</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4013,7 +4019,7 @@
         <v>196</v>
       </c>
       <c r="C108">
-        <v>703298.45</v>
+        <v>705456.80000000016</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4021,43 +4027,43 @@
         <v>197</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="C109">
-        <v>703264.30999999982</v>
+        <v>703608.76</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B110" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C110">
-        <v>701513.55</v>
+        <v>703580.07</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B111" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C111">
-        <v>700788.22999999986</v>
+        <v>701060.73999999987</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B112" t="s">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="C112">
-        <v>687733.39999999991</v>
+        <v>699590.84000000008</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4068,7 +4074,7 @@
         <v>204</v>
       </c>
       <c r="C113">
-        <v>681257.57</v>
+        <v>688028.35000000009</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4079,7 +4085,7 @@
         <v>206</v>
       </c>
       <c r="C114">
-        <v>667480.27999999991</v>
+        <v>679114.3</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4087,21 +4093,21 @@
         <v>207</v>
       </c>
       <c r="B115" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="C115">
-        <v>666188.52</v>
+        <v>667164.11</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B116" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="C116">
-        <v>665157.49</v>
+        <v>666098.55999999994</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4109,32 +4115,32 @@
         <v>210</v>
       </c>
       <c r="B117" t="s">
-        <v>49</v>
+        <v>211</v>
       </c>
       <c r="C117">
-        <v>661457.21</v>
+        <v>663358.97</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B118" t="s">
         <v>51</v>
       </c>
       <c r="C118">
-        <v>653524.14</v>
+        <v>659707.66999999993</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B119" t="s">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="C119">
-        <v>647972.10000000009</v>
+        <v>649496.80000000005</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4142,32 +4148,32 @@
         <v>214</v>
       </c>
       <c r="B120" t="s">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="C120">
-        <v>647738.27</v>
+        <v>647810.17000000004</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B121" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C121">
-        <v>645160.71999999986</v>
+        <v>646964.91</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B122" t="s">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="C122">
-        <v>630283.28999999992</v>
+        <v>644470.56999999995</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4178,7 +4184,7 @@
         <v>219</v>
       </c>
       <c r="C123">
-        <v>622143.16</v>
+        <v>630571.31999999995</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4186,32 +4192,32 @@
         <v>220</v>
       </c>
       <c r="B124" t="s">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="C124">
-        <v>621050.55999999994</v>
+        <v>622427.09</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B125" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C125">
-        <v>618714.1399999999</v>
+        <v>617766.54999999981</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B126" t="s">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="C126">
-        <v>615457.80000000005</v>
+        <v>617434.29</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4222,7 +4228,7 @@
         <v>225</v>
       </c>
       <c r="C127">
-        <v>614502.28</v>
+        <v>615476.80999999994</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4230,21 +4236,21 @@
         <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>51</v>
+        <v>227</v>
       </c>
       <c r="C128">
-        <v>612868.25</v>
+        <v>613959.72999999986</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B129" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="C129">
-        <v>610799.59</v>
+        <v>612794.53000000014</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4252,21 +4258,21 @@
         <v>229</v>
       </c>
       <c r="B130" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="C130">
-        <v>608643.28</v>
+        <v>611053.59</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B131" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C131">
-        <v>602538.16</v>
+        <v>605335.56000000006</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4277,7 +4283,7 @@
         <v>233</v>
       </c>
       <c r="C132">
-        <v>576922.87999999989</v>
+        <v>601733.36</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4288,7 +4294,7 @@
         <v>235</v>
       </c>
       <c r="C133">
-        <v>576621.93999999994</v>
+        <v>576995.04999999993</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4299,7 +4305,7 @@
         <v>237</v>
       </c>
       <c r="C134">
-        <v>575534.6399999999</v>
+        <v>576041.87000000011</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4310,7 +4316,7 @@
         <v>239</v>
       </c>
       <c r="C135">
-        <v>574920.13000000012</v>
+        <v>575799.66999999993</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4318,21 +4324,21 @@
         <v>240</v>
       </c>
       <c r="B136" t="s">
-        <v>37</v>
+        <v>241</v>
       </c>
       <c r="C136">
-        <v>570313.37000000011</v>
+        <v>574946.50999999989</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B137" t="s">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="C137">
-        <v>559281.11</v>
+        <v>570575.09</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4343,7 +4349,7 @@
         <v>244</v>
       </c>
       <c r="C138">
-        <v>557068.88</v>
+        <v>558072.01</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4354,7 +4360,7 @@
         <v>246</v>
       </c>
       <c r="C139">
-        <v>548158.69000000006</v>
+        <v>557282.70000000007</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4365,7 +4371,7 @@
         <v>248</v>
       </c>
       <c r="C140">
-        <v>541075.34999999986</v>
+        <v>552959.76000000013</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4376,7 +4382,7 @@
         <v>250</v>
       </c>
       <c r="C141">
-        <v>537753.31999999995</v>
+        <v>548394.81999999995</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4387,7 +4393,7 @@
         <v>252</v>
       </c>
       <c r="C142">
-        <v>536588.53999999992</v>
+        <v>541330.53</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4398,7 +4404,7 @@
         <v>254</v>
       </c>
       <c r="C143">
-        <v>535114.46</v>
+        <v>536840.25999999989</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4406,21 +4412,21 @@
         <v>255</v>
       </c>
       <c r="B144" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="C144">
-        <v>530820.96000000008</v>
+        <v>535356.43999999994</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B145" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="C145">
-        <v>518155.20999999996</v>
+        <v>531062.68000000017</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4431,7 +4437,7 @@
         <v>259</v>
       </c>
       <c r="C146">
-        <v>512759.10999999993</v>
+        <v>518047.25000000006</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4442,7 +4448,7 @@
         <v>261</v>
       </c>
       <c r="C147">
-        <v>510206.59000000008</v>
+        <v>512561.41999999987</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4453,7 +4459,7 @@
         <v>263</v>
       </c>
       <c r="C148">
-        <v>509279.12000000005</v>
+        <v>509534.93000000005</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4464,7 +4470,7 @@
         <v>265</v>
       </c>
       <c r="C149">
-        <v>507056.73</v>
+        <v>509361.14999999997</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4475,7 +4481,7 @@
         <v>267</v>
       </c>
       <c r="C150">
-        <v>502139.29999999993</v>
+        <v>506383.3000000001</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4486,7 +4492,7 @@
         <v>269</v>
       </c>
       <c r="C151">
-        <v>490804.77</v>
+        <v>502361.62</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4497,7 +4503,7 @@
         <v>271</v>
       </c>
       <c r="C152">
-        <v>489545.08000000007</v>
+        <v>490478.34</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4508,7 +4514,7 @@
         <v>273</v>
       </c>
       <c r="C153">
-        <v>485685.51999999996</v>
+        <v>486688.27</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4516,21 +4522,21 @@
         <v>274</v>
       </c>
       <c r="B154" t="s">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="C154">
-        <v>479963.75</v>
+        <v>485886.94000000006</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B155" t="s">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="C155">
-        <v>465739.66000000003</v>
+        <v>480187.74000000005</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4541,7 +4547,7 @@
         <v>278</v>
       </c>
       <c r="C156">
-        <v>463886.98999999993</v>
+        <v>465650.40999999992</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4549,21 +4555,21 @@
         <v>279</v>
       </c>
       <c r="B157" t="s">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="C157">
-        <v>459838.10999999993</v>
+        <v>461198.5</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B158" t="s">
-        <v>281</v>
+        <v>14</v>
       </c>
       <c r="C158">
-        <v>456865.70999999996</v>
+        <v>457175.57</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4574,7 +4580,7 @@
         <v>283</v>
       </c>
       <c r="C159">
-        <v>455465.30999999994</v>
+        <v>457079.37</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4582,32 +4588,32 @@
         <v>284</v>
       </c>
       <c r="B160" t="s">
-        <v>125</v>
+        <v>285</v>
       </c>
       <c r="C160">
-        <v>445773.32999999996</v>
+        <v>455570.76</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B161" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="C161">
-        <v>441264.24</v>
+        <v>445973.39999999997</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B162" t="s">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="C162">
-        <v>438793.66999999993</v>
+        <v>438683.07</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4615,54 +4621,54 @@
         <v>288</v>
       </c>
       <c r="B163" t="s">
-        <v>61</v>
+        <v>289</v>
       </c>
       <c r="C163">
-        <v>428280.62</v>
+        <v>437582.79</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C164">
-        <v>426635.05000000005</v>
+        <v>428474.49000000011</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B165" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="C165">
-        <v>425083.29</v>
+        <v>426823.00000000006</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B166" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C166">
-        <v>423269.33999999997</v>
+        <v>423441.66000000003</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B167" t="s">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="C167">
-        <v>422171.95999999996</v>
+        <v>422472.97000000003</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4670,54 +4676,54 @@
         <v>294</v>
       </c>
       <c r="B168" t="s">
-        <v>194</v>
+        <v>295</v>
       </c>
       <c r="C168">
-        <v>420514.47000000003</v>
+        <v>421411.41</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B169" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C169">
-        <v>420421.49</v>
+        <v>420611.13</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B170" t="s">
         <v>196</v>
       </c>
       <c r="C170">
-        <v>418131.52</v>
+        <v>420589.5</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B171" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C171">
-        <v>417775.56999999995</v>
+        <v>417956.23000000004</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B172" t="s">
-        <v>301</v>
+        <v>198</v>
       </c>
       <c r="C172">
-        <v>413912.73000000004</v>
+        <v>417700.97</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4728,7 +4734,7 @@
         <v>303</v>
       </c>
       <c r="C173">
-        <v>413216.0799999999</v>
+        <v>413773.30999999988</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4736,21 +4742,21 @@
         <v>304</v>
       </c>
       <c r="B174" t="s">
-        <v>47</v>
+        <v>305</v>
       </c>
       <c r="C174">
-        <v>405618.69999999995</v>
+        <v>413397.74</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B175" t="s">
-        <v>306</v>
+        <v>49</v>
       </c>
       <c r="C175">
-        <v>404819.37</v>
+        <v>405795.44999999995</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4761,7 +4767,7 @@
         <v>308</v>
       </c>
       <c r="C176">
-        <v>403645.53</v>
+        <v>404553.87000000005</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4772,7 +4778,7 @@
         <v>310</v>
       </c>
       <c r="C177">
-        <v>400297.2300000001</v>
+        <v>403834.75</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4783,7 +4789,7 @@
         <v>312</v>
       </c>
       <c r="C178">
-        <v>388503.58000000007</v>
+        <v>400480.88</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4794,7 +4800,7 @@
         <v>314</v>
       </c>
       <c r="C179">
-        <v>387694.93</v>
+        <v>387987.69</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4805,7 +4811,7 @@
         <v>316</v>
       </c>
       <c r="C180">
-        <v>384298.73</v>
+        <v>387609.64</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4816,7 +4822,7 @@
         <v>318</v>
       </c>
       <c r="C181">
-        <v>377490.07</v>
+        <v>384147.95999999996</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4827,7 +4833,7 @@
         <v>320</v>
       </c>
       <c r="C182">
-        <v>375766.63</v>
+        <v>376907.47</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4835,21 +4841,21 @@
         <v>321</v>
       </c>
       <c r="B183" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C183">
-        <v>375147.64</v>
+        <v>374047.31</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
+        <v>322</v>
+      </c>
+      <c r="B184" t="s">
         <v>323</v>
       </c>
-      <c r="B184" t="s">
-        <v>316</v>
-      </c>
       <c r="C184">
-        <v>374746.50000000006</v>
+        <v>374031.85</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4857,32 +4863,32 @@
         <v>324</v>
       </c>
       <c r="B185" t="s">
-        <v>86</v>
+        <v>325</v>
       </c>
       <c r="C185">
-        <v>373910.16</v>
+        <v>373038.36000000004</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B186" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C186">
-        <v>372065.83999999997</v>
+        <v>371968.83</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B187" t="s">
-        <v>328</v>
+        <v>88</v>
       </c>
       <c r="C187">
-        <v>369426.22000000003</v>
+        <v>371726.33999999997</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4893,7 +4899,7 @@
         <v>330</v>
       </c>
       <c r="C188">
-        <v>368616.05000000005</v>
+        <v>368927.66999999993</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4901,21 +4907,21 @@
         <v>331</v>
       </c>
       <c r="B189" t="s">
-        <v>257</v>
+        <v>332</v>
       </c>
       <c r="C189">
-        <v>368129.32999999996</v>
+        <v>368781.7</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B190" t="s">
-        <v>333</v>
+        <v>259</v>
       </c>
       <c r="C190">
-        <v>366160.13999999996</v>
+        <v>367689.19</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4926,7 +4932,7 @@
         <v>335</v>
       </c>
       <c r="C191">
-        <v>364124.12</v>
+        <v>366331.64</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4934,21 +4940,21 @@
         <v>336</v>
       </c>
       <c r="B192" t="s">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="C192">
-        <v>362374.85000000003</v>
+        <v>364278.44</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B193" t="s">
-        <v>338</v>
+        <v>75</v>
       </c>
       <c r="C193">
-        <v>360938.25</v>
+        <v>362184.82999999996</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4956,21 +4962,21 @@
         <v>339</v>
       </c>
       <c r="B194" t="s">
-        <v>37</v>
+        <v>340</v>
       </c>
       <c r="C194">
-        <v>360843.31000000006</v>
+        <v>361101.89</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B195" t="s">
-        <v>341</v>
+        <v>39</v>
       </c>
       <c r="C195">
-        <v>360487.42</v>
+        <v>361009.44000000006</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4978,21 +4984,21 @@
         <v>342</v>
       </c>
       <c r="B196" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C196">
-        <v>359910.66999999993</v>
+        <v>360423.05000000005</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B197" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C197">
-        <v>356810.39999999997</v>
+        <v>360067.24</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -5003,7 +5009,7 @@
         <v>346</v>
       </c>
       <c r="C198">
-        <v>353066.13999999996</v>
+        <v>356366.95</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -5014,7 +5020,7 @@
         <v>348</v>
       </c>
       <c r="C199">
-        <v>350188.54999999993</v>
+        <v>353096.98</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -5025,7 +5031,7 @@
         <v>350</v>
       </c>
       <c r="C200">
-        <v>342443.86</v>
+        <v>350346.72999999992</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -5036,7 +5042,7 @@
         <v>352</v>
       </c>
       <c r="C201">
-        <v>342116.63999999996</v>
+        <v>342082.74</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -5044,21 +5050,21 @@
         <v>353</v>
       </c>
       <c r="B202" t="s">
-        <v>242</v>
+        <v>354</v>
       </c>
       <c r="C202">
-        <v>341784.72</v>
+        <v>341990.62</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B203" t="s">
-        <v>355</v>
+        <v>244</v>
       </c>
       <c r="C203">
-        <v>341101.64999999997</v>
+        <v>341925.4</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -5069,7 +5075,7 @@
         <v>357</v>
       </c>
       <c r="C204">
-        <v>339981.66000000003</v>
+        <v>340995.54999999993</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -5080,7 +5086,7 @@
         <v>359</v>
       </c>
       <c r="C205">
-        <v>335273.01999999996</v>
+        <v>339825.44999999995</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5091,7 +5097,7 @@
         <v>361</v>
       </c>
       <c r="C206">
-        <v>335177.09999999998</v>
+        <v>335425.5</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5102,7 +5108,7 @@
         <v>363</v>
       </c>
       <c r="C207">
-        <v>332463.69000000006</v>
+        <v>335311.71000000002</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -5113,7 +5119,7 @@
         <v>365</v>
       </c>
       <c r="C208">
-        <v>330385.68</v>
+        <v>332608.43000000005</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5124,7 +5130,7 @@
         <v>367</v>
       </c>
       <c r="C209">
-        <v>330152.61</v>
+        <v>330530.18</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5135,7 +5141,7 @@
         <v>369</v>
       </c>
       <c r="C210">
-        <v>324698.19</v>
+        <v>329651.02999999991</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5146,7 +5152,7 @@
         <v>371</v>
       </c>
       <c r="C211">
-        <v>324647.01</v>
+        <v>324780.33</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5157,7 +5163,7 @@
         <v>373</v>
       </c>
       <c r="C212">
-        <v>324209.84999999998</v>
+        <v>324353.31000000011</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5168,7 +5174,7 @@
         <v>375</v>
       </c>
       <c r="C213">
-        <v>322269.38</v>
+        <v>323314.06</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5176,54 +5182,54 @@
         <v>376</v>
       </c>
       <c r="B214" t="s">
-        <v>102</v>
+        <v>377</v>
       </c>
       <c r="C214">
-        <v>318537.20999999996</v>
+        <v>321843.03999999998</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B215" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C215">
-        <v>318034.67000000004</v>
+        <v>318177.58</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B216" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C216">
-        <v>317998.51000000007</v>
+        <v>318144.78000000003</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B217" t="s">
-        <v>352</v>
+        <v>104</v>
       </c>
       <c r="C217">
-        <v>313849.57000000007</v>
+        <v>316676.56000000006</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B218" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="C218">
-        <v>309026.12</v>
+        <v>313983.86</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5231,32 +5237,32 @@
         <v>383</v>
       </c>
       <c r="B219" t="s">
-        <v>86</v>
+        <v>384</v>
       </c>
       <c r="C219">
-        <v>308705.88</v>
+        <v>309164.51</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B220" t="s">
-        <v>369</v>
+        <v>88</v>
       </c>
       <c r="C220">
-        <v>307411.5</v>
+        <v>308695</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B221" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C221">
-        <v>301266.11999999994</v>
+        <v>307562.34000000003</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5264,65 +5270,65 @@
         <v>387</v>
       </c>
       <c r="B222" t="s">
-        <v>4</v>
+        <v>388</v>
       </c>
       <c r="C222">
-        <v>301055.78999999998</v>
+        <v>301262.38</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B223" t="s">
-        <v>369</v>
+        <v>4</v>
       </c>
       <c r="C223">
-        <v>297577.8</v>
+        <v>301187.72000000003</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B224" t="s">
-        <v>66</v>
+        <v>375</v>
       </c>
       <c r="C224">
-        <v>296893.66000000003</v>
+        <v>296953.5</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B225" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="C225">
-        <v>293112.34000000003</v>
+        <v>296914.54999999993</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B226" t="s">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="C226">
-        <v>292982.64999999997</v>
+        <v>293151.8</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B227" t="s">
-        <v>393</v>
+        <v>314</v>
       </c>
       <c r="C227">
-        <v>289898.12</v>
+        <v>292491.62</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5330,54 +5336,54 @@
         <v>394</v>
       </c>
       <c r="B228" t="s">
-        <v>71</v>
+        <v>395</v>
       </c>
       <c r="C228">
-        <v>284929.43</v>
+        <v>289983.58</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B229" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C229">
-        <v>283987.58000000007</v>
+        <v>284551</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B230" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C230">
-        <v>283591.82</v>
+        <v>283614.34000000003</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B231" t="s">
-        <v>278</v>
+        <v>53</v>
       </c>
       <c r="C231">
-        <v>282530.84000000003</v>
+        <v>283368.77</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B232" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="C232">
-        <v>275289.82000000007</v>
+        <v>282018.09000000003</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5388,7 +5394,7 @@
         <v>402</v>
       </c>
       <c r="C233">
-        <v>271647.88000000006</v>
+        <v>274866.69999999995</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5399,7 +5405,7 @@
         <v>404</v>
       </c>
       <c r="C234">
-        <v>270616.56</v>
+        <v>271766.55000000005</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5407,21 +5413,21 @@
         <v>405</v>
       </c>
       <c r="B235" t="s">
-        <v>219</v>
+        <v>406</v>
       </c>
       <c r="C235">
-        <v>267251.57</v>
+        <v>270560.96999999997</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B236" t="s">
-        <v>407</v>
+        <v>221</v>
       </c>
       <c r="C236">
-        <v>267224.3</v>
+        <v>267132.34000000003</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5429,21 +5435,21 @@
         <v>408</v>
       </c>
       <c r="B237" t="s">
-        <v>301</v>
+        <v>409</v>
       </c>
       <c r="C237">
-        <v>266218.02999999997</v>
+        <v>267091.32999999996</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B238" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="C238">
-        <v>265077.55</v>
+        <v>266018.36</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5454,7 +5460,7 @@
         <v>412</v>
       </c>
       <c r="C239">
-        <v>263808.18000000005</v>
+        <v>264797.45</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5465,7 +5471,7 @@
         <v>414</v>
       </c>
       <c r="C240">
-        <v>262257.45000000007</v>
+        <v>263461.98999999993</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5476,7 +5482,7 @@
         <v>416</v>
       </c>
       <c r="C241">
-        <v>261434.58000000007</v>
+        <v>261868.92</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5487,7 +5493,7 @@
         <v>418</v>
       </c>
       <c r="C242">
-        <v>260705.85</v>
+        <v>261309.52000000002</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5498,7 +5504,7 @@
         <v>420</v>
       </c>
       <c r="C243">
-        <v>255945.32</v>
+        <v>260749.44000000003</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5506,21 +5512,21 @@
         <v>421</v>
       </c>
       <c r="B244" t="s">
-        <v>116</v>
+        <v>422</v>
       </c>
       <c r="C244">
-        <v>253104.44</v>
+        <v>255678.77000000002</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B245" t="s">
-        <v>423</v>
+        <v>116</v>
       </c>
       <c r="C245">
-        <v>251355.3</v>
+        <v>253164.33000000002</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5528,21 +5534,21 @@
         <v>424</v>
       </c>
       <c r="B246" t="s">
-        <v>151</v>
+        <v>425</v>
       </c>
       <c r="C246">
-        <v>249826.49</v>
+        <v>251468.51</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B247" t="s">
-        <v>426</v>
+        <v>153</v>
       </c>
       <c r="C247">
-        <v>246150.28999999998</v>
+        <v>249600.31999999998</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5553,7 +5559,7 @@
         <v>428</v>
       </c>
       <c r="C248">
-        <v>245970.28999999998</v>
+        <v>246423.26999999996</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5564,7 +5570,7 @@
         <v>430</v>
       </c>
       <c r="C249">
-        <v>245715.33</v>
+        <v>245555.67999999993</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5575,7 +5581,7 @@
         <v>432</v>
       </c>
       <c r="C250">
-        <v>241991.97</v>
+        <v>245391.83</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5586,7 +5592,7 @@
         <v>434</v>
       </c>
       <c r="C251">
-        <v>241466.69999999995</v>
+        <v>242101.09</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5597,7 +5603,7 @@
         <v>436</v>
       </c>
       <c r="C252">
-        <v>240647.71</v>
+        <v>241574.84000000003</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5608,7 +5614,7 @@
         <v>438</v>
       </c>
       <c r="C253">
-        <v>240644.76</v>
+        <v>240637.34000000003</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5616,21 +5622,21 @@
         <v>439</v>
       </c>
       <c r="B254" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="C254">
-        <v>238052.14999999994</v>
+        <v>240550.51</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B255" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="C255">
-        <v>237673.37</v>
+        <v>237926.06</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5638,21 +5644,21 @@
         <v>442</v>
       </c>
       <c r="B256" t="s">
-        <v>196</v>
+        <v>443</v>
       </c>
       <c r="C256">
-        <v>237392.26</v>
+        <v>237334.03000000003</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B257" t="s">
-        <v>444</v>
+        <v>198</v>
       </c>
       <c r="C257">
-        <v>236826.69</v>
+        <v>237055.13999999998</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5663,7 +5669,7 @@
         <v>446</v>
       </c>
       <c r="C258">
-        <v>235716.05</v>
+        <v>236027.37999999998</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5674,7 +5680,7 @@
         <v>448</v>
       </c>
       <c r="C259">
-        <v>233223.80999999997</v>
+        <v>235796.12999999998</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5682,21 +5688,21 @@
         <v>449</v>
       </c>
       <c r="B260" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="C260">
-        <v>230523.69999999998</v>
+        <v>233123.32</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B261" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="C261">
-        <v>229552.25</v>
+        <v>230338.95</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5707,7 +5713,7 @@
         <v>453</v>
       </c>
       <c r="C262">
-        <v>229086.58000000002</v>
+        <v>229398.86000000002</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5718,7 +5724,7 @@
         <v>455</v>
       </c>
       <c r="C263">
-        <v>227916.21</v>
+        <v>229187.34</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5729,7 +5735,7 @@
         <v>457</v>
       </c>
       <c r="C264">
-        <v>218865.53000000003</v>
+        <v>228018.25</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5740,7 +5746,7 @@
         <v>459</v>
       </c>
       <c r="C265">
-        <v>217487.95999999996</v>
+        <v>218965.96</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5748,21 +5754,21 @@
         <v>460</v>
       </c>
       <c r="B266" t="s">
-        <v>68</v>
+        <v>461</v>
       </c>
       <c r="C266">
-        <v>216312.22999999998</v>
+        <v>217495.56</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B267" t="s">
-        <v>462</v>
+        <v>70</v>
       </c>
       <c r="C267">
-        <v>215266.74</v>
+        <v>216348.63999999998</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5770,54 +5776,54 @@
         <v>463</v>
       </c>
       <c r="B268" t="s">
-        <v>283</v>
+        <v>464</v>
       </c>
       <c r="C268">
-        <v>214062.55000000002</v>
+        <v>215363.71999999994</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B269" t="s">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="C269">
-        <v>211549.15999999997</v>
+        <v>212912.88</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B270" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C270">
-        <v>211047.66000000003</v>
+        <v>210964.36</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B271" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C271">
-        <v>210617.77</v>
+        <v>210358.36000000002</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B272" t="s">
-        <v>470</v>
+        <v>92</v>
       </c>
       <c r="C272">
-        <v>209161.92</v>
+        <v>210329.19</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5825,65 +5831,65 @@
         <v>471</v>
       </c>
       <c r="B273" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="C273">
-        <v>208396.84</v>
+        <v>209253.62000000002</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B274" t="s">
-        <v>73</v>
+        <v>440</v>
       </c>
       <c r="C274">
-        <v>207666.97999999995</v>
+        <v>208488.79</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B275" t="s">
-        <v>283</v>
+        <v>75</v>
       </c>
       <c r="C275">
-        <v>205457.56999999998</v>
+        <v>207390.20999999996</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B276" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C276">
-        <v>205216.45</v>
+        <v>204997.21999999994</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B277" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C277">
-        <v>205095.33000000002</v>
+        <v>204854.39</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B278" t="s">
-        <v>477</v>
+        <v>285</v>
       </c>
       <c r="C278">
-        <v>202770.55000000002</v>
+        <v>204255.7</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5891,197 +5897,197 @@
         <v>478</v>
       </c>
       <c r="B279" t="s">
-        <v>90</v>
+        <v>479</v>
       </c>
       <c r="C279">
-        <v>202132.62</v>
+        <v>202857.78999999995</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B280" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C280">
-        <v>200954.63999999996</v>
+        <v>200447.66000000003</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B281" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C281">
-        <v>200446.10000000003</v>
+        <v>199724.55000000002</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B282" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C282">
-        <v>199395.96000000002</v>
+        <v>199308.59999999998</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B283" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C283">
-        <v>196837.44</v>
+        <v>195755.21999999997</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B284" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C284">
-        <v>196007.36</v>
+        <v>194449.51</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B285" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C285">
-        <v>194216.04</v>
+        <v>194297.31999999998</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B286" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C286">
-        <v>192378.11000000002</v>
+        <v>192460.41999999998</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B287" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C287">
-        <v>190560.12000000002</v>
+        <v>190640.34000000003</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B288" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C288">
-        <v>189464.14</v>
+        <v>189495.32</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B289" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C289">
-        <v>187335.26</v>
+        <v>187122.30999999994</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B290" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C290">
-        <v>184212.64</v>
+        <v>183897.49000000002</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B291" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C291">
-        <v>183920.02000000002</v>
+        <v>183876.68</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B292" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C292">
-        <v>183461.80999999994</v>
+        <v>183257.84000000003</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B293" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C293">
-        <v>179753.38</v>
+        <v>179829.06</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B294" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C294">
-        <v>177569.46</v>
+        <v>177303.19000000003</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B295" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C295">
-        <v>174091.64</v>
+        <v>174172.61</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B296" t="s">
-        <v>503</v>
+        <v>92</v>
       </c>
       <c r="C296">
-        <v>172089.72</v>
+        <v>172194.02000000002</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -6092,7 +6098,7 @@
         <v>505</v>
       </c>
       <c r="C297">
-        <v>170043.67</v>
+        <v>172164.05000000002</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -6100,32 +6106,32 @@
         <v>506</v>
       </c>
       <c r="B298" t="s">
-        <v>393</v>
+        <v>507</v>
       </c>
       <c r="C298">
-        <v>169310.69000000003</v>
+        <v>169822.47000000003</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B299" t="s">
-        <v>116</v>
+        <v>395</v>
       </c>
       <c r="C299">
-        <v>165372.69</v>
+        <v>168749.95</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B300" t="s">
-        <v>509</v>
+        <v>116</v>
       </c>
       <c r="C300">
-        <v>163959.80000000002</v>
+        <v>165443.42000000001</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -6136,7 +6142,7 @@
         <v>511</v>
       </c>
       <c r="C301">
-        <v>161391.88999999998</v>
+        <v>163903.47999999998</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -6144,21 +6150,21 @@
         <v>512</v>
       </c>
       <c r="B302" t="s">
-        <v>114</v>
+        <v>513</v>
       </c>
       <c r="C302">
-        <v>160732.66</v>
+        <v>161464.83000000002</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B303" t="s">
-        <v>514</v>
+        <v>118</v>
       </c>
       <c r="C303">
-        <v>160145.26</v>
+        <v>160519.90000000002</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6169,7 +6175,7 @@
         <v>516</v>
       </c>
       <c r="C304">
-        <v>159855.63000000003</v>
+        <v>160212.68</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6177,21 +6183,21 @@
         <v>517</v>
       </c>
       <c r="B305" t="s">
-        <v>73</v>
+        <v>518</v>
       </c>
       <c r="C305">
-        <v>157854.94</v>
+        <v>159924.90000000002</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B306" t="s">
-        <v>519</v>
+        <v>75</v>
       </c>
       <c r="C306">
-        <v>157799.59</v>
+        <v>157924.09999999998</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6199,76 +6205,76 @@
         <v>520</v>
       </c>
       <c r="B307" t="s">
-        <v>330</v>
+        <v>521</v>
       </c>
       <c r="C307">
-        <v>157634.85999999999</v>
+        <v>157869.22</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B308" t="s">
-        <v>71</v>
+        <v>332</v>
       </c>
       <c r="C308">
-        <v>157398.68999999997</v>
+        <v>157576.44</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B309" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C309">
-        <v>157136.38999999998</v>
+        <v>157470.07999999999</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B310" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C310">
-        <v>156451.61000000002</v>
+        <v>157210.62000000002</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B311" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C311">
-        <v>156127.93</v>
+        <v>156472.26999999999</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B312" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C312">
-        <v>154097.04999999999</v>
+        <v>156193.49000000002</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B313" t="s">
-        <v>527</v>
+        <v>33</v>
       </c>
       <c r="C313">
-        <v>152181.11000000002</v>
+        <v>154166.54</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6276,32 +6282,32 @@
         <v>528</v>
       </c>
       <c r="B314" t="s">
-        <v>39</v>
+        <v>529</v>
       </c>
       <c r="C314">
-        <v>150493.20000000001</v>
+        <v>152167.48000000001</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B315" t="s">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="C315">
-        <v>148992.53999999998</v>
+        <v>150561.68</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B316" t="s">
-        <v>531</v>
+        <v>248</v>
       </c>
       <c r="C316">
-        <v>146797.72</v>
+        <v>148750.35</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6312,7 +6318,7 @@
         <v>533</v>
       </c>
       <c r="C317">
-        <v>146523.77000000002</v>
+        <v>146815.43</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6320,54 +6326,54 @@
         <v>534</v>
       </c>
       <c r="B318" t="s">
-        <v>436</v>
+        <v>535</v>
       </c>
       <c r="C318">
-        <v>144652.85999999999</v>
+        <v>146581.62</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B319" t="s">
-        <v>61</v>
+        <v>438</v>
       </c>
       <c r="C319">
-        <v>144290.76</v>
+        <v>144582.24000000002</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B320" t="s">
-        <v>219</v>
+        <v>63</v>
       </c>
       <c r="C320">
-        <v>143876.46</v>
+        <v>144318.1</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B321" t="s">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c r="C321">
-        <v>143037.74</v>
+        <v>143938.75000000003</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B322" t="s">
-        <v>539</v>
+        <v>300</v>
       </c>
       <c r="C322">
-        <v>140199.13999999998</v>
+        <v>142391.66000000003</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6378,7 +6384,7 @@
         <v>541</v>
       </c>
       <c r="C323">
-        <v>139805.56</v>
+        <v>140257.53</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6386,21 +6392,21 @@
         <v>542</v>
       </c>
       <c r="B324" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C324">
-        <v>139622.9</v>
+        <v>139880.31999999998</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
+        <v>544</v>
+      </c>
+      <c r="B325" t="s">
         <v>543</v>
       </c>
-      <c r="B325" t="s">
-        <v>544</v>
-      </c>
       <c r="C325">
-        <v>139256.53</v>
+        <v>139532.54</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -6411,7 +6417,7 @@
         <v>546</v>
       </c>
       <c r="C326">
-        <v>139041.49</v>
+        <v>139101.68</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6422,7 +6428,7 @@
         <v>548</v>
       </c>
       <c r="C327">
-        <v>137850.07999999999</v>
+        <v>139061.54</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6433,7 +6439,7 @@
         <v>550</v>
       </c>
       <c r="C328">
-        <v>137685.84</v>
+        <v>137909.85</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6444,7 +6450,7 @@
         <v>552</v>
       </c>
       <c r="C329">
-        <v>136752.65999999997</v>
+        <v>137705.68</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6455,7 +6461,7 @@
         <v>554</v>
       </c>
       <c r="C330">
-        <v>135838.60999999999</v>
+        <v>136662.87</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6466,7 +6472,7 @@
         <v>556</v>
       </c>
       <c r="C331">
-        <v>130739.98999999999</v>
+        <v>135855.05000000002</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6474,21 +6480,21 @@
         <v>557</v>
       </c>
       <c r="B332" t="s">
-        <v>186</v>
+        <v>558</v>
       </c>
       <c r="C332">
-        <v>129638.81</v>
+        <v>130648.27000000002</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B333" t="s">
-        <v>559</v>
+        <v>188</v>
       </c>
       <c r="C333">
-        <v>129392.25000000001</v>
+        <v>129606.60999999999</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6499,7 +6505,7 @@
         <v>561</v>
       </c>
       <c r="C334">
-        <v>128706.15000000001</v>
+        <v>129449.90999999999</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6507,32 +6513,32 @@
         <v>562</v>
       </c>
       <c r="B335" t="s">
-        <v>231</v>
+        <v>563</v>
       </c>
       <c r="C335">
-        <v>127932.63</v>
+        <v>128726.95000000001</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B336" t="s">
-        <v>451</v>
+        <v>233</v>
       </c>
       <c r="C336">
-        <v>127412.88</v>
+        <v>127991.14000000001</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B337" t="s">
-        <v>565</v>
+        <v>453</v>
       </c>
       <c r="C337">
-        <v>126957.49999999999</v>
+        <v>127439.67</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6540,54 +6546,54 @@
         <v>566</v>
       </c>
       <c r="B338" t="s">
-        <v>428</v>
+        <v>567</v>
       </c>
       <c r="C338">
-        <v>126654.91</v>
+        <v>126991.2</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B339" t="s">
-        <v>310</v>
+        <v>430</v>
       </c>
       <c r="C339">
-        <v>126452.20000000001</v>
+        <v>126597.58</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B340" t="s">
-        <v>541</v>
+        <v>312</v>
       </c>
       <c r="C340">
-        <v>126389.85</v>
+        <v>126509.29</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B341" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="C341">
-        <v>125845.22</v>
+        <v>126261.04</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B342" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="C342">
-        <v>124959.83999999998</v>
+        <v>125108.66</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6598,7 +6604,7 @@
         <v>573</v>
       </c>
       <c r="C343">
-        <v>121565.50000000003</v>
+        <v>124805.65000000001</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6606,21 +6612,21 @@
         <v>574</v>
       </c>
       <c r="B344" t="s">
-        <v>436</v>
+        <v>575</v>
       </c>
       <c r="C344">
-        <v>121095.82000000002</v>
+        <v>121625.19</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B345" t="s">
-        <v>576</v>
+        <v>438</v>
       </c>
       <c r="C345">
-        <v>119060.03</v>
+        <v>121150.51</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6628,54 +6634,54 @@
         <v>577</v>
       </c>
       <c r="B346" t="s">
-        <v>24</v>
+        <v>578</v>
       </c>
       <c r="C346">
-        <v>118502.68000000001</v>
+        <v>118896.83</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B347" t="s">
-        <v>544</v>
+        <v>26</v>
       </c>
       <c r="C347">
-        <v>117729.57000000002</v>
+        <v>118557.43</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B348" t="s">
-        <v>257</v>
+        <v>548</v>
       </c>
       <c r="C348">
-        <v>116945.63</v>
+        <v>117691.13</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B349" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C349">
-        <v>116782.27</v>
+        <v>117536.94999999998</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B350" t="s">
-        <v>583</v>
+        <v>259</v>
       </c>
       <c r="C350">
-        <v>116617.13999999998</v>
+        <v>116988.91</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6683,21 +6689,21 @@
         <v>584</v>
       </c>
       <c r="B351" t="s">
-        <v>436</v>
+        <v>585</v>
       </c>
       <c r="C351">
-        <v>114947.19</v>
+        <v>115952.95000000001</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B352" t="s">
-        <v>586</v>
+        <v>438</v>
       </c>
       <c r="C352">
-        <v>114575.22</v>
+        <v>114997.08000000003</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6705,21 +6711,21 @@
         <v>587</v>
       </c>
       <c r="B353" t="s">
-        <v>59</v>
+        <v>588</v>
       </c>
       <c r="C353">
-        <v>113977.29</v>
+        <v>114645.57999999999</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B354" t="s">
-        <v>589</v>
+        <v>61</v>
       </c>
       <c r="C354">
-        <v>112770.01</v>
+        <v>114031.62</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6730,7 +6736,7 @@
         <v>591</v>
       </c>
       <c r="C355">
-        <v>112713.2</v>
+        <v>112821.29000000001</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6741,7 +6747,7 @@
         <v>593</v>
       </c>
       <c r="C356">
-        <v>112618.93</v>
+        <v>112765.78</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6749,43 +6755,43 @@
         <v>594</v>
       </c>
       <c r="B357" t="s">
-        <v>61</v>
+        <v>595</v>
       </c>
       <c r="C357">
-        <v>112594.01</v>
+        <v>112668.02</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B358" t="s">
-        <v>363</v>
+        <v>63</v>
       </c>
       <c r="C358">
-        <v>110235.82</v>
+        <v>112645.96</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B359" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="C359">
-        <v>110045.62000000001</v>
+        <v>110090.05999999998</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B360" t="s">
-        <v>598</v>
+        <v>318</v>
       </c>
       <c r="C360">
-        <v>108850.18000000001</v>
+        <v>109900.39</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6796,7 +6802,7 @@
         <v>600</v>
       </c>
       <c r="C361">
-        <v>108173.90000000001</v>
+        <v>108933.42999999992</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6804,21 +6810,21 @@
         <v>601</v>
       </c>
       <c r="B362" t="s">
-        <v>90</v>
+        <v>602</v>
       </c>
       <c r="C362">
-        <v>106602.74000000002</v>
+        <v>108104.71</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B363" t="s">
-        <v>603</v>
+        <v>92</v>
       </c>
       <c r="C363">
-        <v>105730.13999999998</v>
+        <v>106457.25</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6826,76 +6832,76 @@
         <v>604</v>
       </c>
       <c r="B364" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="C364">
-        <v>104903.7</v>
+        <v>105777.08</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B365" t="s">
-        <v>420</v>
+        <v>543</v>
       </c>
       <c r="C365">
-        <v>103577.77</v>
+        <v>104931.56</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B366" t="s">
-        <v>109</v>
+        <v>422</v>
       </c>
       <c r="C366">
-        <v>103532.68</v>
+        <v>103625.92</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B367" t="s">
-        <v>254</v>
+        <v>111</v>
       </c>
       <c r="C367">
-        <v>102420.47</v>
+        <v>103578.54</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B368" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="C368">
-        <v>102008.69999999998</v>
+        <v>102432.12</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B369" t="s">
-        <v>459</v>
+        <v>318</v>
       </c>
       <c r="C369">
-        <v>101998.87999999999</v>
+        <v>102013.39</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B370" t="s">
-        <v>611</v>
+        <v>461</v>
       </c>
       <c r="C370">
-        <v>100909.6</v>
+        <v>101864.68999999999</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6903,32 +6909,32 @@
         <v>612</v>
       </c>
       <c r="B371" t="s">
-        <v>75</v>
+        <v>613</v>
       </c>
       <c r="C371">
-        <v>100494.95999999999</v>
+        <v>100952.07</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B372" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C372">
-        <v>100196.40000000001</v>
+        <v>100537.96</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B373" t="s">
-        <v>615</v>
+        <v>73</v>
       </c>
       <c r="C373">
-        <v>100073.45</v>
+        <v>100245.81</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6939,7 +6945,7 @@
         <v>617</v>
       </c>
       <c r="C374">
-        <v>97358.38</v>
+        <v>100117.9</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6947,21 +6953,21 @@
         <v>618</v>
       </c>
       <c r="B375" t="s">
-        <v>265</v>
+        <v>619</v>
       </c>
       <c r="C375">
-        <v>96422.98000000001</v>
+        <v>97368.909999999974</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B376" t="s">
-        <v>620</v>
+        <v>267</v>
       </c>
       <c r="C376">
-        <v>93767.819999999992</v>
+        <v>96723.16</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6972,7 +6978,7 @@
         <v>622</v>
       </c>
       <c r="C377">
-        <v>90948.329999999987</v>
+        <v>93813.03</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6983,7 +6989,7 @@
         <v>624</v>
       </c>
       <c r="C378">
-        <v>89798.38</v>
+        <v>90989.64</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6991,98 +6997,98 @@
         <v>625</v>
       </c>
       <c r="B379" t="s">
-        <v>341</v>
+        <v>626</v>
       </c>
       <c r="C379">
-        <v>89042.439999999988</v>
+        <v>89816.58</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B380" t="s">
-        <v>59</v>
+        <v>343</v>
       </c>
       <c r="C380">
-        <v>89018.820000000022</v>
+        <v>89009.12999999999</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B381" t="s">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="C381">
-        <v>89011.049999999988</v>
+        <v>88985.62</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B382" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C382">
-        <v>88940.32</v>
+        <v>88907.89</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B383" t="s">
-        <v>489</v>
+        <v>248</v>
       </c>
       <c r="C383">
-        <v>88227.750000000015</v>
+        <v>88490.010000000009</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B384" t="s">
-        <v>299</v>
+        <v>490</v>
       </c>
       <c r="C384">
-        <v>87645.32</v>
+        <v>88265.590000000011</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B385" t="s">
-        <v>102</v>
+        <v>300</v>
       </c>
       <c r="C385">
-        <v>86953.159999999989</v>
+        <v>87134.7</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B386" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C386">
-        <v>86577.87</v>
+        <v>86790.239999999991</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B387" t="s">
-        <v>634</v>
+        <v>61</v>
       </c>
       <c r="C387">
-        <v>83898.860000000015</v>
+        <v>86560.55</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7093,7 +7099,7 @@
         <v>636</v>
       </c>
       <c r="C388">
-        <v>83870.81</v>
+        <v>83841.41</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7101,32 +7107,32 @@
         <v>637</v>
       </c>
       <c r="B389" t="s">
-        <v>204</v>
+        <v>638</v>
       </c>
       <c r="C389">
-        <v>82207.029999999984</v>
+        <v>83392.58</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B390" t="s">
-        <v>571</v>
+        <v>206</v>
       </c>
       <c r="C390">
-        <v>81982.279999999984</v>
+        <v>82226.720000000016</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B391" t="s">
-        <v>640</v>
+        <v>573</v>
       </c>
       <c r="C391">
-        <v>79762.41</v>
+        <v>82020.650000000009</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7137,7 +7143,7 @@
         <v>642</v>
       </c>
       <c r="C392">
-        <v>77957.239999999991</v>
+        <v>79798.580000000016</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -7145,32 +7151,32 @@
         <v>643</v>
       </c>
       <c r="B393" t="s">
-        <v>434</v>
+        <v>644</v>
       </c>
       <c r="C393">
-        <v>76797.400000000009</v>
+        <v>77992.19</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B394" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="C394">
-        <v>76035.360000000001</v>
+        <v>76356.179999999993</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B395" t="s">
-        <v>646</v>
+        <v>507</v>
       </c>
       <c r="C395">
-        <v>75816.399999999994</v>
+        <v>75933.469999999987</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7178,21 +7184,21 @@
         <v>647</v>
       </c>
       <c r="B396" t="s">
-        <v>71</v>
+        <v>648</v>
       </c>
       <c r="C396">
-        <v>75121.73</v>
+        <v>75809.590000000011</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B397" t="s">
-        <v>649</v>
+        <v>73</v>
       </c>
       <c r="C397">
-        <v>73247.45</v>
+        <v>75105.510000000009</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7200,65 +7206,65 @@
         <v>650</v>
       </c>
       <c r="B398" t="s">
-        <v>47</v>
+        <v>651</v>
       </c>
       <c r="C398">
-        <v>73059.06</v>
+        <v>74987.61</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B399" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C399">
-        <v>72423.13</v>
+        <v>73279.38</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B400" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C400">
-        <v>72373.67</v>
+        <v>73080.259999999995</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B401" t="s">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="C401">
-        <v>71732.38</v>
+        <v>72404.900000000009</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B402" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C402">
-        <v>71412.040000000008</v>
+        <v>72248.320000000007</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B403" t="s">
-        <v>658</v>
+        <v>196</v>
       </c>
       <c r="C403">
-        <v>69970.66</v>
+        <v>71762.37</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7266,21 +7272,21 @@
         <v>659</v>
       </c>
       <c r="B404" t="s">
-        <v>271</v>
+        <v>660</v>
       </c>
       <c r="C404">
-        <v>67785.67</v>
+        <v>69891.5</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B405" t="s">
-        <v>661</v>
+        <v>273</v>
       </c>
       <c r="C405">
-        <v>67602.55</v>
+        <v>67764.740000000005</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7288,32 +7294,32 @@
         <v>662</v>
       </c>
       <c r="B406" t="s">
-        <v>330</v>
+        <v>663</v>
       </c>
       <c r="C406">
-        <v>66718.159999999989</v>
+        <v>67635.290000000008</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B407" t="s">
-        <v>438</v>
+        <v>332</v>
       </c>
       <c r="C407">
-        <v>65218.939999999995</v>
+        <v>66713.27</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B408" t="s">
-        <v>665</v>
+        <v>440</v>
       </c>
       <c r="C408">
-        <v>64973.599999999991</v>
+        <v>65161.02</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7324,7 +7330,7 @@
         <v>667</v>
       </c>
       <c r="C409">
-        <v>64450.8</v>
+        <v>64478.35</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7332,10 +7338,10 @@
         <v>668</v>
       </c>
       <c r="B410" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C410">
-        <v>64143.93</v>
+        <v>64056.31</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7346,7 +7352,7 @@
         <v>670</v>
       </c>
       <c r="C411">
-        <v>63796.41</v>
+        <v>63824.04</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7357,7 +7363,7 @@
         <v>672</v>
       </c>
       <c r="C412">
-        <v>62349.120000000003</v>
+        <v>62374.429999999993</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7368,7 +7374,7 @@
         <v>674</v>
       </c>
       <c r="C413">
-        <v>62130.49</v>
+        <v>62159.74</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7376,10 +7382,10 @@
         <v>675</v>
       </c>
       <c r="B414" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C414">
-        <v>62087.210000000006</v>
+        <v>62114.71</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7387,10 +7393,10 @@
         <v>676</v>
       </c>
       <c r="B415" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C415">
-        <v>60475.97</v>
+        <v>60418.53</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7398,21 +7404,21 @@
         <v>677</v>
       </c>
       <c r="B416" t="s">
-        <v>194</v>
+        <v>678</v>
       </c>
       <c r="C416">
-        <v>60168.299999999996</v>
+        <v>59914</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B417" t="s">
-        <v>679</v>
+        <v>215</v>
       </c>
       <c r="C417">
-        <v>59565.000000000007</v>
+        <v>59818.97</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7420,10 +7426,10 @@
         <v>680</v>
       </c>
       <c r="B418" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C418">
-        <v>59011.310000000005</v>
+        <v>59791.110000000008</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7434,7 +7440,7 @@
         <v>682</v>
       </c>
       <c r="C419">
-        <v>58171.170000000013</v>
+        <v>59589.380000000005</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7442,10 +7448,10 @@
         <v>683</v>
       </c>
       <c r="B420" t="s">
-        <v>428</v>
+        <v>215</v>
       </c>
       <c r="C420">
-        <v>57317.21</v>
+        <v>58942.759999999987</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7453,10 +7459,10 @@
         <v>684</v>
       </c>
       <c r="B421" t="s">
-        <v>116</v>
+        <v>430</v>
       </c>
       <c r="C421">
-        <v>56961.16</v>
+        <v>57339.4</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7464,10 +7470,10 @@
         <v>685</v>
       </c>
       <c r="B422" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C422">
-        <v>56801.30000000001</v>
+        <v>56735.98</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7475,10 +7481,10 @@
         <v>686</v>
       </c>
       <c r="B423" t="s">
-        <v>670</v>
+        <v>116</v>
       </c>
       <c r="C423">
-        <v>55642.47</v>
+        <v>56630.19</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7486,10 +7492,10 @@
         <v>687</v>
       </c>
       <c r="B424" t="s">
-        <v>487</v>
+        <v>670</v>
       </c>
       <c r="C424">
-        <v>55526.18</v>
+        <v>55667.399999999987</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7497,10 +7503,10 @@
         <v>688</v>
       </c>
       <c r="B425" t="s">
-        <v>12</v>
+        <v>488</v>
       </c>
       <c r="C425">
-        <v>54941.21</v>
+        <v>55549.48</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7508,10 +7514,10 @@
         <v>689</v>
       </c>
       <c r="B426" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="C426">
-        <v>53442.65</v>
+        <v>54964.7</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7519,10 +7525,10 @@
         <v>690</v>
       </c>
       <c r="B427" t="s">
-        <v>348</v>
+        <v>143</v>
       </c>
       <c r="C427">
-        <v>53442.069999999992</v>
+        <v>53466.359999999993</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7530,21 +7536,21 @@
         <v>691</v>
       </c>
       <c r="B428" t="s">
-        <v>692</v>
+        <v>350</v>
       </c>
       <c r="C428">
-        <v>52670.719999999994</v>
+        <v>53133.89</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
+        <v>692</v>
+      </c>
+      <c r="B429" t="s">
         <v>693</v>
       </c>
-      <c r="B429" t="s">
-        <v>79</v>
-      </c>
       <c r="C429">
-        <v>51954.02</v>
+        <v>52695.079999999994</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7552,10 +7558,10 @@
         <v>694</v>
       </c>
       <c r="B430" t="s">
-        <v>310</v>
+        <v>81</v>
       </c>
       <c r="C430">
-        <v>51613.630000000005</v>
+        <v>51891.740000000005</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7563,10 +7569,10 @@
         <v>695</v>
       </c>
       <c r="B431" t="s">
-        <v>51</v>
+        <v>312</v>
       </c>
       <c r="C431">
-        <v>51081.03</v>
+        <v>51314.8</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7574,10 +7580,10 @@
         <v>696</v>
       </c>
       <c r="B432" t="s">
-        <v>571</v>
+        <v>53</v>
       </c>
       <c r="C432">
-        <v>50998.02</v>
+        <v>51083.320000000007</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7585,10 +7591,10 @@
         <v>697</v>
       </c>
       <c r="B433" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="C433">
-        <v>50672.219999999994</v>
+        <v>50700.55</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7596,10 +7602,10 @@
         <v>698</v>
       </c>
       <c r="B434" t="s">
-        <v>278</v>
+        <v>554</v>
       </c>
       <c r="C434">
-        <v>49522.01</v>
+        <v>50378.78</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7607,10 +7613,10 @@
         <v>699</v>
       </c>
       <c r="B435" t="s">
-        <v>438</v>
+        <v>280</v>
       </c>
       <c r="C435">
-        <v>48377.32</v>
+        <v>48934.619999999995</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7618,10 +7624,10 @@
         <v>700</v>
       </c>
       <c r="B436" t="s">
-        <v>242</v>
+        <v>440</v>
       </c>
       <c r="C436">
-        <v>48254.14</v>
+        <v>48401.429999999993</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7629,10 +7635,10 @@
         <v>701</v>
       </c>
       <c r="B437" t="s">
-        <v>352</v>
+        <v>244</v>
       </c>
       <c r="C437">
-        <v>48072.920000000006</v>
+        <v>48150.820000000007</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7640,10 +7646,10 @@
         <v>702</v>
       </c>
       <c r="B438" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C438">
-        <v>48009.08</v>
+        <v>47950.569999999992</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7651,10 +7657,10 @@
         <v>703</v>
       </c>
       <c r="B439" t="s">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="C439">
-        <v>47307.54</v>
+        <v>47797.06</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7662,21 +7668,21 @@
         <v>704</v>
       </c>
       <c r="B440" t="s">
-        <v>705</v>
+        <v>422</v>
       </c>
       <c r="C440">
-        <v>45627.69</v>
+        <v>47004.350000000006</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
+        <v>705</v>
+      </c>
+      <c r="B441" t="s">
         <v>706</v>
       </c>
-      <c r="B441" t="s">
-        <v>213</v>
-      </c>
       <c r="C441">
-        <v>44819.31</v>
+        <v>45646.87</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7684,10 +7690,10 @@
         <v>707</v>
       </c>
       <c r="B442" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C442">
-        <v>42453.859999999993</v>
+        <v>42396.689999999995</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7698,7 +7704,7 @@
         <v>709</v>
       </c>
       <c r="C443">
-        <v>42066.54</v>
+        <v>42081.5</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7709,7 +7715,7 @@
         <v>711</v>
       </c>
       <c r="C444">
-        <v>41409.440000000002</v>
+        <v>41360.710000000006</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7717,10 +7723,10 @@
         <v>712</v>
       </c>
       <c r="B445" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C445">
-        <v>41099.359999999993</v>
+        <v>41118.369999999995</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7728,21 +7734,21 @@
         <v>713</v>
       </c>
       <c r="B446" t="s">
-        <v>714</v>
+        <v>63</v>
       </c>
       <c r="C446">
-        <v>41004.240000000005</v>
+        <v>40489.53</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
+        <v>714</v>
+      </c>
+      <c r="B447" t="s">
         <v>715</v>
       </c>
-      <c r="B447" t="s">
-        <v>61</v>
-      </c>
       <c r="C447">
-        <v>40471.01</v>
+        <v>39754.430000000008</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7753,7 +7759,7 @@
         <v>717</v>
       </c>
       <c r="C448">
-        <v>39305.24</v>
+        <v>39322.869999999995</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7764,7 +7770,7 @@
         <v>719</v>
       </c>
       <c r="C449">
-        <v>36380.71</v>
+        <v>36396.999999999993</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7772,10 +7778,10 @@
         <v>720</v>
       </c>
       <c r="B450" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C450">
-        <v>35861.449999999997</v>
+        <v>35822.75</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7783,10 +7789,10 @@
         <v>721</v>
       </c>
       <c r="B451" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C451">
-        <v>35321.799999999996</v>
+        <v>35135.47</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7794,10 +7800,10 @@
         <v>722</v>
       </c>
       <c r="B452" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C452">
-        <v>34729.69</v>
+        <v>34745.1</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7808,7 +7814,7 @@
         <v>724</v>
       </c>
       <c r="C453">
-        <v>34493.909999999996</v>
+        <v>34511.760000000002</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7819,7 +7825,7 @@
         <v>726</v>
       </c>
       <c r="C454">
-        <v>34137.979999999996</v>
+        <v>34165.96</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7830,7 +7836,7 @@
         <v>728</v>
       </c>
       <c r="C455">
-        <v>33390.74</v>
+        <v>33405.79</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7841,7 +7847,7 @@
         <v>672</v>
       </c>
       <c r="C456">
-        <v>33258.6</v>
+        <v>33273.689999999995</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7849,10 +7855,10 @@
         <v>730</v>
       </c>
       <c r="B457" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C457">
-        <v>31759.23</v>
+        <v>31774.06</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7860,10 +7866,10 @@
         <v>731</v>
       </c>
       <c r="B458" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C458">
-        <v>30702.889999999996</v>
+        <v>30718.579999999998</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7871,21 +7877,21 @@
         <v>732</v>
       </c>
       <c r="B459" t="s">
-        <v>487</v>
+        <v>733</v>
       </c>
       <c r="C459">
-        <v>28547.040000000005</v>
+        <v>28449.130000000005</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B460" t="s">
-        <v>734</v>
+        <v>488</v>
       </c>
       <c r="C460">
-        <v>28477.06</v>
+        <v>28395.279999999999</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7893,10 +7899,10 @@
         <v>735</v>
       </c>
       <c r="B461" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C461">
-        <v>27935.460000000003</v>
+        <v>27948.470000000005</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7904,10 +7910,10 @@
         <v>736</v>
       </c>
       <c r="B462" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C462">
-        <v>26074.61</v>
+        <v>26085.85</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7918,7 +7924,7 @@
         <v>738</v>
       </c>
       <c r="C463">
-        <v>25372.030000000006</v>
+        <v>25383.200000000001</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7926,21 +7932,21 @@
         <v>739</v>
       </c>
       <c r="B464" t="s">
-        <v>740</v>
+        <v>73</v>
       </c>
       <c r="C464">
-        <v>23270.370000000006</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" t="s">
+        <v>740</v>
+      </c>
+      <c r="B465" t="s">
         <v>741</v>
       </c>
-      <c r="B465" t="s">
-        <v>196</v>
-      </c>
       <c r="C465">
-        <v>20992.48</v>
+        <v>23261.260000000002</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7948,10 +7954,10 @@
         <v>742</v>
       </c>
       <c r="B466" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="C466">
-        <v>20237.68</v>
+        <v>21001.32</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -7959,10 +7965,10 @@
         <v>743</v>
       </c>
       <c r="B467" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C467">
-        <v>17231.41</v>
+        <v>20246.329999999998</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7970,10 +7976,10 @@
         <v>744</v>
       </c>
       <c r="B468" t="s">
-        <v>341</v>
+        <v>41</v>
       </c>
       <c r="C468">
-        <v>16538.97</v>
+        <v>17239.14</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7981,10 +7987,10 @@
         <v>745</v>
       </c>
       <c r="B469" t="s">
-        <v>213</v>
+        <v>343</v>
       </c>
       <c r="C469">
-        <v>16198.81</v>
+        <v>16420.02</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7992,10 +7998,10 @@
         <v>746</v>
       </c>
       <c r="B470" t="s">
-        <v>407</v>
+        <v>215</v>
       </c>
       <c r="C470">
-        <v>14485.75</v>
+        <v>16206.06</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -8003,43 +8009,43 @@
         <v>747</v>
       </c>
       <c r="B471" t="s">
-        <v>748</v>
+        <v>409</v>
       </c>
       <c r="C471">
-        <v>14093.63</v>
+        <v>14495.289999999999</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" t="s">
+        <v>748</v>
+      </c>
+      <c r="B472" t="s">
         <v>749</v>
       </c>
-      <c r="B472" t="s">
-        <v>750</v>
-      </c>
       <c r="C472">
-        <v>13932.7</v>
+        <v>14099.9</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" t="s">
+        <v>750</v>
+      </c>
+      <c r="B473" t="s">
         <v>751</v>
       </c>
-      <c r="B473" t="s">
-        <v>752</v>
-      </c>
       <c r="C473">
-        <v>13446.429999999998</v>
+        <v>13938.87</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" t="s">
+        <v>752</v>
+      </c>
+      <c r="B474" t="s">
         <v>753</v>
       </c>
-      <c r="B474" t="s">
-        <v>6</v>
-      </c>
       <c r="C474">
-        <v>13064.8</v>
+        <v>13452.24</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8047,10 +8053,10 @@
         <v>754</v>
       </c>
       <c r="B475" t="s">
-        <v>341</v>
+        <v>6</v>
       </c>
       <c r="C475">
-        <v>12924.050000000001</v>
+        <v>12964.960000000001</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -8058,10 +8064,10 @@
         <v>755</v>
       </c>
       <c r="B476" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="C476">
-        <v>11756.17</v>
+        <v>12929.85</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8069,32 +8075,32 @@
         <v>756</v>
       </c>
       <c r="B477" t="s">
-        <v>757</v>
+        <v>312</v>
       </c>
       <c r="C477">
-        <v>11291.269999999999</v>
+        <v>11761.36</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" t="s">
+        <v>757</v>
+      </c>
+      <c r="B478" t="s">
         <v>758</v>
       </c>
-      <c r="B478" t="s">
-        <v>759</v>
-      </c>
       <c r="C478">
-        <v>10501.13</v>
+        <v>11296.21</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" t="s">
+        <v>759</v>
+      </c>
+      <c r="B479" t="s">
         <v>760</v>
       </c>
-      <c r="B479" t="s">
-        <v>418</v>
-      </c>
       <c r="C479">
-        <v>10116.26</v>
+        <v>10505.72</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -8102,10 +8108,10 @@
         <v>761</v>
       </c>
       <c r="B480" t="s">
-        <v>71</v>
+        <v>420</v>
       </c>
       <c r="C480">
-        <v>10000</v>
+        <v>10120.51</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -8116,7 +8122,7 @@
         <v>8</v>
       </c>
       <c r="C481">
-        <v>9972.2099999999991</v>
+        <v>9976.6200000000008</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -8127,7 +8133,7 @@
         <v>764</v>
       </c>
       <c r="C482">
-        <v>9236.0600000000013</v>
+        <v>9240.07</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -8135,10 +8141,10 @@
         <v>765</v>
       </c>
       <c r="B483" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C483">
-        <v>8862.76</v>
+        <v>8867.5099999999984</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -8146,10 +8152,10 @@
         <v>766</v>
       </c>
       <c r="B484" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C484">
-        <v>7930.48</v>
+        <v>7952.6399999999994</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -8160,7 +8166,7 @@
         <v>768</v>
       </c>
       <c r="C485">
-        <v>6788.83</v>
+        <v>7148.91</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -8168,32 +8174,32 @@
         <v>769</v>
       </c>
       <c r="B486" t="s">
-        <v>194</v>
+        <v>770</v>
       </c>
       <c r="C486">
-        <v>5391.5199999999995</v>
+        <v>6791.76</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B487" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="C487">
-        <v>4679.4000000000005</v>
+        <v>5358.5499999999993</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B488" t="s">
-        <v>772</v>
+        <v>73</v>
       </c>
       <c r="C488">
-        <v>4641.09</v>
+        <v>4681.4400000000005</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -8201,21 +8207,21 @@
         <v>773</v>
       </c>
       <c r="B489" t="s">
-        <v>271</v>
+        <v>774</v>
       </c>
       <c r="C489">
-        <v>2763.82</v>
+        <v>4642.92</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B490" t="s">
-        <v>775</v>
+        <v>273</v>
       </c>
       <c r="C490">
-        <v>2300</v>
+        <v>2764.97</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -8226,7 +8232,7 @@
         <v>777</v>
       </c>
       <c r="C491">
-        <v>1516.45</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -8234,32 +8240,32 @@
         <v>778</v>
       </c>
       <c r="B492" t="s">
-        <v>31</v>
+        <v>779</v>
       </c>
       <c r="C492">
-        <v>1431.01</v>
+        <v>1517.11</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B493" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C493">
-        <v>1365.3</v>
+        <v>1431.6</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B494" t="s">
-        <v>781</v>
+        <v>53</v>
       </c>
       <c r="C494">
-        <v>1102.1099999999999</v>
+        <v>1355.2800000000002</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -8267,43 +8273,43 @@
         <v>782</v>
       </c>
       <c r="B495" t="s">
-        <v>393</v>
+        <v>783</v>
       </c>
       <c r="C495">
-        <v>1087.5</v>
+        <v>1102.5999999999999</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B496" t="s">
-        <v>583</v>
+        <v>395</v>
       </c>
       <c r="C496">
-        <v>745.44</v>
+        <v>1087.99</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B497" t="s">
-        <v>20</v>
+        <v>585</v>
       </c>
       <c r="C497">
-        <v>504.34000000000003</v>
+        <v>745.71</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B498" t="s">
-        <v>786</v>
+        <v>22</v>
       </c>
       <c r="C498">
-        <v>435.68</v>
+        <v>506.16999999999996</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -8311,29 +8317,29 @@
         <v>787</v>
       </c>
       <c r="B499" t="s">
-        <v>98</v>
+        <v>788</v>
       </c>
       <c r="C499">
-        <v>278.98</v>
+        <v>435.68</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B500" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="C500">
-        <v>150</v>
+        <v>279.10000000000002</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B501" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C501">
         <v>150</v>
@@ -8341,57 +8347,57 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B502" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="C502">
-        <v>86.38</v>
+        <v>150</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B503" t="s">
-        <v>438</v>
+        <v>267</v>
       </c>
       <c r="C503">
-        <v>50.26</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B504" t="s">
-        <v>559</v>
+        <v>440</v>
       </c>
       <c r="C504">
-        <v>50</v>
+        <v>50.26</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B505" t="s">
-        <v>428</v>
+        <v>561</v>
       </c>
       <c r="C505">
-        <v>33.049999999999997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B506" t="s">
-        <v>795</v>
+        <v>430</v>
       </c>
       <c r="C506">
-        <v>29.770000000000003</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -8402,7 +8408,7 @@
         <v>797</v>
       </c>
       <c r="C507">
-        <v>21.27</v>
+        <v>29.77</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8410,21 +8416,21 @@
         <v>798</v>
       </c>
       <c r="B508" t="s">
-        <v>20</v>
+        <v>799</v>
       </c>
       <c r="C508">
-        <v>19.079999999999998</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B509" t="s">
-        <v>800</v>
+        <v>22</v>
       </c>
       <c r="C509">
-        <v>17.86</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8435,7 +8441,7 @@
         <v>802</v>
       </c>
       <c r="C510">
-        <v>14.67</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -8446,7 +8452,7 @@
         <v>804</v>
       </c>
       <c r="C511">
-        <v>9.7200000000000006</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8454,21 +8460,21 @@
         <v>805</v>
       </c>
       <c r="B512" t="s">
-        <v>265</v>
+        <v>806</v>
       </c>
       <c r="C512">
-        <v>5.55</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B513" t="s">
-        <v>807</v>
+        <v>267</v>
       </c>
       <c r="C513">
-        <v>0.05</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -8476,26 +8482,37 @@
         <v>808</v>
       </c>
       <c r="B514" t="s">
-        <v>39</v>
+        <v>809</v>
       </c>
       <c r="C514">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B515" t="s">
-        <v>810</v>
+        <v>41</v>
       </c>
       <c r="C515">
         <v>0.01</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
-      <c r="A517" t="s">
+    <row r="516" spans="1:3">
+      <c r="A516" t="s">
         <v>811</v>
+      </c>
+      <c r="B516" t="s">
+        <v>812</v>
+      </c>
+      <c r="C516">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" t="s">
+        <v>813</v>
       </c>
     </row>
   </sheetData>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07E0D8AC-62DC-4540-8A88-F6C87D8C2CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{436BA48F-8B26-45F6-A46B-15373BA1240B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,18 +424,18 @@
     <t>ELAINE</t>
   </si>
   <si>
+    <t>004119016</t>
+  </si>
+  <si>
+    <t>HEMAT</t>
+  </si>
+  <si>
     <t>005009026</t>
   </si>
   <si>
     <t>EDMUR</t>
   </si>
   <si>
-    <t>004119016</t>
-  </si>
-  <si>
-    <t>HEMAT</t>
-  </si>
-  <si>
     <t>005087681</t>
   </si>
   <si>
@@ -556,12 +556,12 @@
     <t>WANDER</t>
   </si>
   <si>
+    <t>004639776</t>
+  </si>
+  <si>
     <t>004890544</t>
   </si>
   <si>
-    <t>004639776</t>
-  </si>
-  <si>
     <t>005190138</t>
   </si>
   <si>
@@ -592,6 +592,9 @@
     <t>004363260</t>
   </si>
   <si>
+    <t>005198093</t>
+  </si>
+  <si>
     <t>004479463</t>
   </si>
   <si>
@@ -661,18 +664,18 @@
     <t>004457389</t>
   </si>
   <si>
+    <t>004460491</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
     <t>005092207</t>
   </si>
   <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004460491</t>
-  </si>
-  <si>
     <t>004752534</t>
   </si>
   <si>
@@ -691,24 +694,24 @@
     <t>004453132</t>
   </si>
   <si>
+    <t>004646727</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
     <t>004335144</t>
   </si>
   <si>
-    <t>004646727</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
     <t>004207374</t>
   </si>
   <si>
@@ -730,18 +733,18 @@
     <t>IVONE</t>
   </si>
   <si>
+    <t>004355790</t>
+  </si>
+  <si>
+    <t>MINEIA</t>
+  </si>
+  <si>
     <t>005002457</t>
   </si>
   <si>
     <t>ROSANGELA</t>
   </si>
   <si>
-    <t>004355790</t>
-  </si>
-  <si>
-    <t>MINEIA</t>
-  </si>
-  <si>
     <t>004556853</t>
   </si>
   <si>
@@ -763,18 +766,18 @@
     <t>EULER</t>
   </si>
   <si>
+    <t>004380749</t>
+  </si>
+  <si>
+    <t>ELEUSE</t>
+  </si>
+  <si>
     <t>004237325</t>
   </si>
   <si>
     <t>RICARDO</t>
   </si>
   <si>
-    <t>004380749</t>
-  </si>
-  <si>
-    <t>ELEUSE</t>
-  </si>
-  <si>
     <t>004459875</t>
   </si>
   <si>
@@ -838,18 +841,18 @@
     <t>NABOR</t>
   </si>
   <si>
+    <t>005105172</t>
+  </si>
+  <si>
+    <t>VALDIVINO</t>
+  </si>
+  <si>
     <t>004381095</t>
   </si>
   <si>
     <t>THIAGO</t>
   </si>
   <si>
-    <t>005105172</t>
-  </si>
-  <si>
-    <t>VALDIVINO</t>
-  </si>
-  <si>
     <t>001731007</t>
   </si>
   <si>
@@ -865,33 +868,33 @@
     <t>BENTO</t>
   </si>
   <si>
+    <t>005009947</t>
+  </si>
+  <si>
+    <t>VERANICE</t>
+  </si>
+  <si>
+    <t>004419765</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
     <t>004751770</t>
   </si>
   <si>
-    <t>005009947</t>
-  </si>
-  <si>
-    <t>VERANICE</t>
-  </si>
-  <si>
-    <t>004419765</t>
-  </si>
-  <si>
-    <t>WALTER</t>
-  </si>
-  <si>
     <t>004956636</t>
   </si>
   <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
     <t>004811224</t>
   </si>
   <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
     <t>004404248</t>
   </si>
   <si>
@@ -901,24 +904,24 @@
     <t>004530494</t>
   </si>
   <si>
+    <t>004589311</t>
+  </si>
+  <si>
+    <t>CLARICE</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
     <t>004958539</t>
   </si>
   <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004589311</t>
-  </si>
-  <si>
-    <t>CLARICE</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
     <t>004472431</t>
   </si>
   <si>
@@ -928,18 +931,18 @@
     <t>004950193</t>
   </si>
   <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
     <t>004972351</t>
   </si>
   <si>
     <t>CAIO</t>
   </si>
   <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
     <t>005035754</t>
   </si>
   <si>
@@ -961,18 +964,18 @@
     <t>DIEGO</t>
   </si>
   <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
     <t>004484207</t>
   </si>
   <si>
     <t>FLAVIA</t>
   </si>
   <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
     <t>004565146</t>
   </si>
   <si>
@@ -988,6 +991,12 @@
     <t>004565108</t>
   </si>
   <si>
+    <t>002694089</t>
+  </si>
+  <si>
+    <t>VITOR</t>
+  </si>
+  <si>
     <t>005009992</t>
   </si>
   <si>
@@ -1000,10 +1009,10 @@
     <t>JULIAN</t>
   </si>
   <si>
-    <t>002694089</t>
-  </si>
-  <si>
-    <t>VITOR</t>
+    <t>004805133</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
   </si>
   <si>
     <t>004435987</t>
@@ -1015,12 +1024,6 @@
     <t>LUCYENE</t>
   </si>
   <si>
-    <t>004805133</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
     <t>004346716</t>
   </si>
   <si>
@@ -1075,6 +1078,9 @@
     <t>CATARINE</t>
   </si>
   <si>
+    <t>005135532</t>
+  </si>
+  <si>
     <t>004451652</t>
   </si>
   <si>
@@ -1087,9 +1093,6 @@
     <t>CEZAR</t>
   </si>
   <si>
-    <t>005135532</t>
-  </si>
-  <si>
     <t>003921139</t>
   </si>
   <si>
@@ -1162,24 +1165,24 @@
     <t>MARCONDES</t>
   </si>
   <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>004756981</t>
+  </si>
+  <si>
+    <t>004567880</t>
+  </si>
+  <si>
+    <t>LUANA</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
     <t>004432935</t>
   </si>
   <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>004756981</t>
-  </si>
-  <si>
-    <t>004567880</t>
-  </si>
-  <si>
-    <t>LUANA</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
     <t>004945161</t>
   </si>
   <si>
@@ -1192,15 +1195,15 @@
     <t>004870976</t>
   </si>
   <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
     <t>004999410</t>
   </si>
   <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
     <t>004515548</t>
   </si>
   <si>
@@ -1231,6 +1234,12 @@
     <t>LUCIANO</t>
   </si>
   <si>
+    <t>004556150</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
     <t>001000882</t>
   </si>
   <si>
@@ -1246,12 +1255,6 @@
     <t>004872395</t>
   </si>
   <si>
-    <t>004556150</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
     <t>004584517</t>
   </si>
   <si>
@@ -1357,18 +1360,18 @@
     <t>004472386</t>
   </si>
   <si>
+    <t>004552944</t>
+  </si>
+  <si>
+    <t>YURI</t>
+  </si>
+  <si>
     <t>004482163</t>
   </si>
   <si>
     <t>CIRIA</t>
   </si>
   <si>
-    <t>004552944</t>
-  </si>
-  <si>
-    <t>YURI</t>
-  </si>
-  <si>
     <t>004332783</t>
   </si>
   <si>
@@ -1378,18 +1381,18 @@
     <t>005105970</t>
   </si>
   <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
     <t>002277249</t>
   </si>
   <si>
     <t>DANILO</t>
   </si>
   <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
     <t>005141215</t>
   </si>
   <si>
@@ -1432,36 +1435,36 @@
     <t>VINICIUS</t>
   </si>
   <si>
+    <t>004207658</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
+  </si>
+  <si>
     <t>004384131</t>
   </si>
   <si>
-    <t>004207658</t>
-  </si>
-  <si>
-    <t>ROBERTO</t>
-  </si>
-  <si>
     <t>005142624</t>
   </si>
   <si>
     <t>004386464</t>
   </si>
   <si>
+    <t>004398253</t>
+  </si>
+  <si>
     <t>004216657</t>
   </si>
   <si>
-    <t>004398253</t>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
   </si>
   <si>
     <t>004462930</t>
   </si>
   <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
     <t>004212409</t>
   </si>
   <si>
@@ -1477,18 +1480,18 @@
     <t>004584982</t>
   </si>
   <si>
+    <t>004259650</t>
+  </si>
+  <si>
+    <t>000827730</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
     <t>004436055</t>
   </si>
   <si>
-    <t>004259650</t>
-  </si>
-  <si>
-    <t>000827730</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
     <t>004202332</t>
   </si>
   <si>
@@ -1504,12 +1507,12 @@
     <t>004948033</t>
   </si>
   <si>
+    <t>005046790</t>
+  </si>
+  <si>
     <t>004381359</t>
   </si>
   <si>
-    <t>005046790</t>
-  </si>
-  <si>
     <t>004550415</t>
   </si>
   <si>
@@ -1531,15 +1534,15 @@
     <t>004360431</t>
   </si>
   <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
     <t>005040864</t>
   </si>
   <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
     <t>004472538</t>
   </si>
   <si>
@@ -1564,15 +1567,15 @@
     <t>THAYSA</t>
   </si>
   <si>
+    <t>004465263</t>
+  </si>
+  <si>
+    <t>CLAUDIO</t>
+  </si>
+  <si>
     <t>004570632</t>
   </si>
   <si>
-    <t>004465263</t>
-  </si>
-  <si>
-    <t>CLAUDIO</t>
-  </si>
-  <si>
     <t>004475395</t>
   </si>
   <si>
@@ -1726,24 +1729,24 @@
     <t>ELENA</t>
   </si>
   <si>
+    <t>004479965</t>
+  </si>
+  <si>
     <t>005024046</t>
   </si>
   <si>
-    <t>004479965</t>
-  </si>
-  <si>
     <t>004278212</t>
   </si>
   <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
     <t>004405234</t>
   </si>
   <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
     <t>004487140</t>
   </si>
   <si>
@@ -1858,147 +1861,147 @@
     <t>004413523</t>
   </si>
   <si>
+    <t>005173958</t>
+  </si>
+  <si>
+    <t>004444164</t>
+  </si>
+  <si>
+    <t>005079458</t>
+  </si>
+  <si>
+    <t>JONAS</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>004278033</t>
+  </si>
+  <si>
+    <t>DAISY</t>
+  </si>
+  <si>
+    <t>004397124</t>
+  </si>
+  <si>
+    <t>MURYLO</t>
+  </si>
+  <si>
+    <t>004691225</t>
+  </si>
+  <si>
+    <t>ANNA</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>004508516</t>
+  </si>
+  <si>
+    <t>004500804</t>
+  </si>
+  <si>
+    <t>004517080</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>001719494</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>004377415</t>
+  </si>
+  <si>
+    <t>ANGELA</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>004255049</t>
+  </si>
+  <si>
+    <t>MATHEUS</t>
+  </si>
+  <si>
+    <t>004265173</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>004242237</t>
+  </si>
+  <si>
+    <t>MARIAH</t>
+  </si>
+  <si>
+    <t>004767746</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>001761119</t>
+  </si>
+  <si>
+    <t>BLUEMETRIX</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>004854496</t>
+  </si>
+  <si>
+    <t>004972070</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>000772433</t>
+  </si>
+  <si>
     <t>004451725</t>
   </si>
   <si>
     <t>PABLO</t>
   </si>
   <si>
-    <t>005173958</t>
-  </si>
-  <si>
-    <t>004444164</t>
-  </si>
-  <si>
-    <t>005079458</t>
-  </si>
-  <si>
-    <t>JONAS</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>004278033</t>
-  </si>
-  <si>
-    <t>DAISY</t>
-  </si>
-  <si>
-    <t>004397124</t>
-  </si>
-  <si>
-    <t>MURYLO</t>
-  </si>
-  <si>
-    <t>004691225</t>
-  </si>
-  <si>
-    <t>ANNA</t>
-  </si>
-  <si>
-    <t>004508504</t>
-  </si>
-  <si>
-    <t>004508516</t>
-  </si>
-  <si>
-    <t>004500804</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>004517080</t>
-  </si>
-  <si>
-    <t>001719494</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>004377415</t>
-  </si>
-  <si>
-    <t>ANGELA</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>004255049</t>
-  </si>
-  <si>
-    <t>MATHEUS</t>
-  </si>
-  <si>
-    <t>004265173</t>
-  </si>
-  <si>
-    <t>JULIA</t>
-  </si>
-  <si>
-    <t>004767746</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>004242237</t>
-  </si>
-  <si>
-    <t>MARIAH</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>001761119</t>
-  </si>
-  <si>
-    <t>BLUEMETRIX</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>004854496</t>
-  </si>
-  <si>
-    <t>004972070</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>000772433</t>
-  </si>
-  <si>
     <t>004452946</t>
   </si>
   <si>
@@ -2062,15 +2065,15 @@
     <t>004298042</t>
   </si>
   <si>
+    <t>001294033</t>
+  </si>
+  <si>
+    <t>VIVIANE</t>
+  </si>
+  <si>
     <t>004455356</t>
   </si>
   <si>
-    <t>001294033</t>
-  </si>
-  <si>
-    <t>VIVIANE</t>
-  </si>
-  <si>
     <t>004877741</t>
   </si>
   <si>
@@ -2119,12 +2122,12 @@
     <t>004749928</t>
   </si>
   <si>
+    <t>004479734</t>
+  </si>
+  <si>
     <t>004259659</t>
   </si>
   <si>
-    <t>004479734</t>
-  </si>
-  <si>
     <t>004508159</t>
   </si>
   <si>
@@ -2188,277 +2191,274 @@
     <t>005135281</t>
   </si>
   <si>
+    <t>004228456</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>004308815</t>
+  </si>
+  <si>
+    <t>ZELI</t>
+  </si>
+  <si>
+    <t>003836362</t>
+  </si>
+  <si>
+    <t>004809902</t>
+  </si>
+  <si>
+    <t>004470679</t>
+  </si>
+  <si>
+    <t>004693308</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>004207278</t>
+  </si>
+  <si>
+    <t>004638738</t>
+  </si>
+  <si>
+    <t>004504449</t>
+  </si>
+  <si>
+    <t>KELMA</t>
+  </si>
+  <si>
+    <t>004274441</t>
+  </si>
+  <si>
+    <t>VICTORIA</t>
+  </si>
+  <si>
+    <t>005047946</t>
+  </si>
+  <si>
     <t>004340984</t>
   </si>
   <si>
-    <t>004228456</t>
-  </si>
-  <si>
-    <t>FLASH</t>
-  </si>
-  <si>
-    <t>004308815</t>
-  </si>
-  <si>
-    <t>ZELI</t>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>000431814</t>
+  </si>
+  <si>
+    <t>004563252</t>
+  </si>
+  <si>
+    <t>004517506</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>004752615</t>
+  </si>
+  <si>
+    <t>LUZIMAR</t>
+  </si>
+  <si>
+    <t>004581652</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>004473942</t>
+  </si>
+  <si>
+    <t>DAIANNE</t>
+  </si>
+  <si>
+    <t>004895776</t>
+  </si>
+  <si>
+    <t>004958578</t>
+  </si>
+  <si>
+    <t>004477812</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>005122672</t>
+  </si>
+  <si>
+    <t>004192775</t>
+  </si>
+  <si>
+    <t>004380948</t>
+  </si>
+  <si>
+    <t>LUISA</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>005186167</t>
+  </si>
+  <si>
+    <t>003115072</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>004536602</t>
+  </si>
+  <si>
+    <t>TATIANY</t>
+  </si>
+  <si>
+    <t>004264780</t>
+  </si>
+  <si>
+    <t>000989247</t>
+  </si>
+  <si>
+    <t>005110867</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>005075382</t>
+  </si>
+  <si>
+    <t>NAYARA</t>
+  </si>
+  <si>
+    <t>004335251</t>
+  </si>
+  <si>
+    <t>005171652</t>
+  </si>
+  <si>
+    <t>004371857</t>
+  </si>
+  <si>
+    <t>NAZARETH</t>
+  </si>
+  <si>
+    <t>004321092</t>
+  </si>
+  <si>
+    <t>004318604</t>
+  </si>
+  <si>
+    <t>004214460</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>004850070</t>
+  </si>
+  <si>
+    <t>005203501</t>
+  </si>
+  <si>
+    <t>005203562</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>004392159</t>
+  </si>
+  <si>
+    <t>004208447</t>
+  </si>
+  <si>
+    <t>005028018</t>
+  </si>
+  <si>
+    <t>004404724</t>
+  </si>
+  <si>
+    <t>LEANDRO</t>
+  </si>
+  <si>
+    <t>004281300</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>004214604</t>
+  </si>
+  <si>
+    <t>001368670</t>
+  </si>
+  <si>
+    <t>004204255</t>
+  </si>
+  <si>
+    <t>AMADO</t>
+  </si>
+  <si>
+    <t>004422594</t>
+  </si>
+  <si>
+    <t>WANDIR</t>
+  </si>
+  <si>
+    <t>004216298</t>
+  </si>
+  <si>
+    <t>FLORDELIZ</t>
+  </si>
+  <si>
+    <t>004448501</t>
+  </si>
+  <si>
+    <t>004466350</t>
+  </si>
+  <si>
+    <t>RAQUEL</t>
+  </si>
+  <si>
+    <t>002878817</t>
+  </si>
+  <si>
+    <t>004400000</t>
+  </si>
+  <si>
+    <t>VILMA</t>
   </si>
   <si>
     <t>004388490</t>
   </si>
   <si>
     <t>CAMILLA</t>
-  </si>
-  <si>
-    <t>003836362</t>
-  </si>
-  <si>
-    <t>004809902</t>
-  </si>
-  <si>
-    <t>004470679</t>
-  </si>
-  <si>
-    <t>004693308</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>004207278</t>
-  </si>
-  <si>
-    <t>004638738</t>
-  </si>
-  <si>
-    <t>004504449</t>
-  </si>
-  <si>
-    <t>KELMA</t>
-  </si>
-  <si>
-    <t>005198093</t>
-  </si>
-  <si>
-    <t>004274441</t>
-  </si>
-  <si>
-    <t>VICTORIA</t>
-  </si>
-  <si>
-    <t>005047946</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>000431814</t>
-  </si>
-  <si>
-    <t>004563252</t>
-  </si>
-  <si>
-    <t>004517506</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>004752615</t>
-  </si>
-  <si>
-    <t>LUZIMAR</t>
-  </si>
-  <si>
-    <t>004581652</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>004473942</t>
-  </si>
-  <si>
-    <t>DAIANNE</t>
-  </si>
-  <si>
-    <t>004958578</t>
-  </si>
-  <si>
-    <t>004895776</t>
-  </si>
-  <si>
-    <t>004477812</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>005122672</t>
-  </si>
-  <si>
-    <t>004192775</t>
-  </si>
-  <si>
-    <t>004380948</t>
-  </si>
-  <si>
-    <t>LUISA</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>005186167</t>
-  </si>
-  <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>004536602</t>
-  </si>
-  <si>
-    <t>TATIANY</t>
-  </si>
-  <si>
-    <t>004264780</t>
-  </si>
-  <si>
-    <t>000989247</t>
-  </si>
-  <si>
-    <t>005110867</t>
-  </si>
-  <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>001368670</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>005075382</t>
-  </si>
-  <si>
-    <t>NAYARA</t>
-  </si>
-  <si>
-    <t>004335251</t>
-  </si>
-  <si>
-    <t>005171652</t>
-  </si>
-  <si>
-    <t>004371857</t>
-  </si>
-  <si>
-    <t>NAZARETH</t>
-  </si>
-  <si>
-    <t>004321092</t>
-  </si>
-  <si>
-    <t>004318604</t>
-  </si>
-  <si>
-    <t>004214460</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>004850070</t>
-  </si>
-  <si>
-    <t>005203501</t>
-  </si>
-  <si>
-    <t>005203562</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>004392159</t>
-  </si>
-  <si>
-    <t>004208447</t>
-  </si>
-  <si>
-    <t>005028018</t>
-  </si>
-  <si>
-    <t>004404724</t>
-  </si>
-  <si>
-    <t>LEANDRO</t>
-  </si>
-  <si>
-    <t>004281300</t>
-  </si>
-  <si>
-    <t>FRANKLIN</t>
-  </si>
-  <si>
-    <t>004214604</t>
-  </si>
-  <si>
-    <t>004204255</t>
-  </si>
-  <si>
-    <t>AMADO</t>
-  </si>
-  <si>
-    <t>004422594</t>
-  </si>
-  <si>
-    <t>WANDIR</t>
-  </si>
-  <si>
-    <t>004216298</t>
-  </si>
-  <si>
-    <t>FLORDELIZ</t>
-  </si>
-  <si>
-    <t>004448501</t>
-  </si>
-  <si>
-    <t>004466350</t>
-  </si>
-  <si>
-    <t>RAQUEL</t>
-  </si>
-  <si>
-    <t>002878817</t>
-  </si>
-  <si>
-    <t>004400000</t>
-  </si>
-  <si>
-    <t>VILMA</t>
   </si>
   <si>
     <t>Filtros aplicados: 
@@ -2829,7 +2829,7 @@
   <dimension ref="A1:C518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2853,7 +2853,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>16332403.869999997</v>
+        <v>16333811.680000005</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2864,7 +2864,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>8204170.6500000004</v>
+        <v>8208434.5399999991</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2875,7 +2875,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7248886.1200000001</v>
+        <v>7237812.54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2886,7 +2886,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6192622.5800000001</v>
+        <v>6185379.2700000005</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2897,7 +2897,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>5721770.8700000001</v>
+        <v>5710539.0000000019</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2908,7 +2908,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>4627695.1000000015</v>
+        <v>4630085.9899999993</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2919,7 +2919,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>4323096.54</v>
+        <v>4316290.3500000006</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2930,7 +2930,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>4261989.62</v>
+        <v>4248372.8600000003</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2941,7 +2941,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>4237567.75</v>
+        <v>4229845.72</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2952,7 +2952,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>4207905.8</v>
+        <v>4209775.18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>3956991.5300000007</v>
+        <v>3958632.9199999995</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2974,7 +2974,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>3734014.4300000006</v>
+        <v>3734272.95</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2985,7 +2985,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>3731967.7299999995</v>
+        <v>3733163.8899999997</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2996,7 +2996,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>3574549.7699999996</v>
+        <v>3572534.32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3007,7 +3007,7 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>3400015.3600000003</v>
+        <v>3397611.4200000009</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3018,7 +3018,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>3294672.14</v>
+        <v>3296098.89</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3029,7 +3029,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>3180841.44</v>
+        <v>3182402.4499999993</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3040,7 +3040,7 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3089514.87</v>
+        <v>3090889.54</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3051,7 +3051,7 @@
         <v>39</v>
       </c>
       <c r="C20">
-        <v>3024039.57</v>
+        <v>3025467.35</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3062,7 +3062,7 @@
         <v>41</v>
       </c>
       <c r="C21">
-        <v>2943240.9</v>
+        <v>2942359.9400000004</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3073,7 +3073,7 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>2804520.2199999997</v>
+        <v>2805483.9600000004</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3084,7 +3084,7 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>2788852.6900000004</v>
+        <v>2790139.39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3095,7 +3095,7 @@
         <v>47</v>
       </c>
       <c r="C24">
-        <v>2734045.11</v>
+        <v>2735232.94</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3106,7 +3106,7 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>2662152.7000000007</v>
+        <v>2663336.58</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3117,7 +3117,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <v>2518956.87</v>
+        <v>2519685.0400000005</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3128,7 +3128,7 @@
         <v>53</v>
       </c>
       <c r="C27">
-        <v>2387010.3099999996</v>
+        <v>2383007.7599999998</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3139,7 +3139,7 @@
         <v>55</v>
       </c>
       <c r="C28">
-        <v>2287751.2199999997</v>
+        <v>2288799.9700000002</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3150,7 +3150,7 @@
         <v>57</v>
       </c>
       <c r="C29">
-        <v>2205156.0099999993</v>
+        <v>2206195.0900000003</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3161,7 +3161,7 @@
         <v>59</v>
       </c>
       <c r="C30">
-        <v>2203315.21</v>
+        <v>2204307.5300000003</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3172,7 +3172,7 @@
         <v>61</v>
       </c>
       <c r="C31">
-        <v>2103222.98</v>
+        <v>2102171.92</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3183,7 +3183,7 @@
         <v>63</v>
       </c>
       <c r="C32">
-        <v>2050774.83</v>
+        <v>2049412.1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3194,7 +3194,7 @@
         <v>39</v>
       </c>
       <c r="C33">
-        <v>2040045.5299999998</v>
+        <v>2040583.89</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3205,7 +3205,7 @@
         <v>66</v>
       </c>
       <c r="C34">
-        <v>1967294.0699999998</v>
+        <v>1963868.4499999997</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3216,7 +3216,7 @@
         <v>68</v>
       </c>
       <c r="C35">
-        <v>1948740.47</v>
+        <v>1947587.4199999997</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3227,7 +3227,7 @@
         <v>70</v>
       </c>
       <c r="C36">
-        <v>1860519.9000000001</v>
+        <v>1859707.56</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3238,7 +3238,7 @@
         <v>22</v>
       </c>
       <c r="C37">
-        <v>1846117.57</v>
+        <v>1844826.7900000003</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3249,7 +3249,7 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>1820365.9899999998</v>
+        <v>1821182.85</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3260,7 +3260,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>1816143.79</v>
+        <v>1817250.5100000002</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3271,7 +3271,7 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>1803961.6399999997</v>
+        <v>1804775.4200000002</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3282,7 +3282,7 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <v>1764929.58</v>
+        <v>1765753.4000000001</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3293,7 +3293,7 @@
         <v>81</v>
       </c>
       <c r="C42">
-        <v>1606462.1099999999</v>
+        <v>1605068.7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3304,7 +3304,7 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>1582343.9600000002</v>
+        <v>1583045.5799999998</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3315,7 +3315,7 @@
         <v>85</v>
       </c>
       <c r="C44">
-        <v>1516250.3199999998</v>
+        <v>1516256.17</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3326,7 +3326,7 @@
         <v>79</v>
       </c>
       <c r="C45">
-        <v>1477050.25</v>
+        <v>1477691.6</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3337,7 +3337,7 @@
         <v>88</v>
       </c>
       <c r="C46">
-        <v>1437493.55</v>
+        <v>1436744.08</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3348,7 +3348,7 @@
         <v>90</v>
       </c>
       <c r="C47">
-        <v>1399919.67</v>
+        <v>1400325.2000000002</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3359,7 +3359,7 @@
         <v>92</v>
       </c>
       <c r="C48">
-        <v>1383224.62</v>
+        <v>1383829.15</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3370,7 +3370,7 @@
         <v>94</v>
       </c>
       <c r="C49">
-        <v>1364917.7699999998</v>
+        <v>1365429.1700000002</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3381,7 +3381,7 @@
         <v>96</v>
       </c>
       <c r="C50">
-        <v>1364168.8499999999</v>
+        <v>1364765.2400000002</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3392,7 +3392,7 @@
         <v>98</v>
       </c>
       <c r="C51">
-        <v>1347340.6099999999</v>
+        <v>1343052.4100000001</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3403,7 +3403,7 @@
         <v>100</v>
       </c>
       <c r="C52">
-        <v>1332898.74</v>
+        <v>1333564.4500000002</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3414,7 +3414,7 @@
         <v>102</v>
       </c>
       <c r="C53">
-        <v>1314329.83</v>
+        <v>1311979.7199999997</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3425,7 +3425,7 @@
         <v>104</v>
       </c>
       <c r="C54">
-        <v>1275523.99</v>
+        <v>1276103.1999999995</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3436,7 +3436,7 @@
         <v>22</v>
       </c>
       <c r="C55">
-        <v>1275118.97</v>
+        <v>1276005.83</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3447,7 +3447,7 @@
         <v>88</v>
       </c>
       <c r="C56">
-        <v>1269948.5499999998</v>
+        <v>1273415.57</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3458,7 +3458,7 @@
         <v>108</v>
       </c>
       <c r="C57">
-        <v>1267094.3600000001</v>
+        <v>1267644.48</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3469,7 +3469,7 @@
         <v>22</v>
       </c>
       <c r="C58">
-        <v>1252626.4099999999</v>
+        <v>1251935.55</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3480,7 +3480,7 @@
         <v>111</v>
       </c>
       <c r="C59">
-        <v>1232205.5199999998</v>
+        <v>1232776.2999999998</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3491,7 +3491,7 @@
         <v>113</v>
       </c>
       <c r="C60">
-        <v>1217719.8299999996</v>
+        <v>1216838.75</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3502,7 +3502,7 @@
         <v>49</v>
       </c>
       <c r="C61">
-        <v>1215495.98</v>
+        <v>1216050.54</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3513,7 +3513,7 @@
         <v>116</v>
       </c>
       <c r="C62">
-        <v>1180426.2500000002</v>
+        <v>1180757.1400000001</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3524,7 +3524,7 @@
         <v>118</v>
       </c>
       <c r="C63">
-        <v>1173146.1400000001</v>
+        <v>1163576.73</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3535,7 +3535,7 @@
         <v>120</v>
       </c>
       <c r="C64">
-        <v>1157082.05</v>
+        <v>1157639.1000000003</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3546,7 +3546,7 @@
         <v>122</v>
       </c>
       <c r="C65">
-        <v>1130065.4999999998</v>
+        <v>1130643.51</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3557,7 +3557,7 @@
         <v>124</v>
       </c>
       <c r="C66">
-        <v>1096938.9499999997</v>
+        <v>1095860.68</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3568,7 +3568,7 @@
         <v>61</v>
       </c>
       <c r="C67">
-        <v>1073777.2399999998</v>
+        <v>1069953.6800000002</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3579,7 +3579,7 @@
         <v>127</v>
       </c>
       <c r="C68">
-        <v>1072075.5900000003</v>
+        <v>1069573.7</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3590,7 +3590,7 @@
         <v>129</v>
       </c>
       <c r="C69">
-        <v>1051216.2800000003</v>
+        <v>1058749.78</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3601,7 +3601,7 @@
         <v>131</v>
       </c>
       <c r="C70">
-        <v>1048760.77</v>
+        <v>1049222.76</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3612,7 +3612,7 @@
         <v>133</v>
       </c>
       <c r="C71">
-        <v>1045905.13</v>
+        <v>1046378.75</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3623,7 +3623,7 @@
         <v>135</v>
       </c>
       <c r="C72">
-        <v>1034081.4199999999</v>
+        <v>1034551.01</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3634,7 +3634,7 @@
         <v>137</v>
       </c>
       <c r="C73">
-        <v>1034026.8</v>
+        <v>1034528.0700000001</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3645,7 +3645,7 @@
         <v>41</v>
       </c>
       <c r="C74">
-        <v>1027907.24</v>
+        <v>1028342.2899999999</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3656,7 +3656,7 @@
         <v>81</v>
       </c>
       <c r="C75">
-        <v>1027480.5800000001</v>
+        <v>1027934.65</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3667,7 +3667,7 @@
         <v>141</v>
       </c>
       <c r="C76">
-        <v>1000168.55</v>
+        <v>999646.35999999987</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3678,7 +3678,7 @@
         <v>143</v>
       </c>
       <c r="C77">
-        <v>995188.32999999984</v>
+        <v>993786.11</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3689,7 +3689,7 @@
         <v>4</v>
       </c>
       <c r="C78">
-        <v>990702.34000000008</v>
+        <v>991170.87999999989</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3700,7 +3700,7 @@
         <v>39</v>
       </c>
       <c r="C79">
-        <v>977482.3</v>
+        <v>974842.65</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3711,7 +3711,7 @@
         <v>147</v>
       </c>
       <c r="C80">
-        <v>971112.10000000021</v>
+        <v>971568.84999999986</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3722,7 +3722,7 @@
         <v>149</v>
       </c>
       <c r="C81">
-        <v>965183.21</v>
+        <v>963456.95</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3733,7 +3733,7 @@
         <v>151</v>
       </c>
       <c r="C82">
-        <v>962836.1599999998</v>
+        <v>963259.99000000011</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3744,7 +3744,7 @@
         <v>153</v>
       </c>
       <c r="C83">
-        <v>925988.95</v>
+        <v>926406.68</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3755,7 +3755,7 @@
         <v>155</v>
       </c>
       <c r="C84">
-        <v>897029.44</v>
+        <v>897205.77</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3766,7 +3766,7 @@
         <v>157</v>
       </c>
       <c r="C85">
-        <v>890983.20000000007</v>
+        <v>888144.03999999992</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3777,7 +3777,7 @@
         <v>159</v>
       </c>
       <c r="C86">
-        <v>879182.28000000014</v>
+        <v>879557.54999999993</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3788,7 +3788,7 @@
         <v>161</v>
       </c>
       <c r="C87">
-        <v>870579.67999999993</v>
+        <v>870961.16</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3799,7 +3799,7 @@
         <v>163</v>
       </c>
       <c r="C88">
-        <v>869050.77000000014</v>
+        <v>869244.65000000014</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3810,7 +3810,7 @@
         <v>165</v>
       </c>
       <c r="C89">
-        <v>858679.64999999991</v>
+        <v>859084.50000000012</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3821,7 +3821,7 @@
         <v>167</v>
       </c>
       <c r="C90">
-        <v>845633.08</v>
+        <v>846031.7699999999</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3832,7 +3832,7 @@
         <v>169</v>
       </c>
       <c r="C91">
-        <v>826649.71000000008</v>
+        <v>825176.70000000019</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3843,7 +3843,7 @@
         <v>171</v>
       </c>
       <c r="C92">
-        <v>820148.50000000012</v>
+        <v>820903.88</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3854,7 +3854,7 @@
         <v>49</v>
       </c>
       <c r="C93">
-        <v>817469.29999999993</v>
+        <v>817407.2100000002</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3865,7 +3865,7 @@
         <v>26</v>
       </c>
       <c r="C94">
-        <v>809016.59</v>
+        <v>809067.71000000008</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3876,7 +3876,7 @@
         <v>175</v>
       </c>
       <c r="C95">
-        <v>803352.92999999982</v>
+        <v>803725.97000000009</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3887,7 +3887,7 @@
         <v>177</v>
       </c>
       <c r="C96">
-        <v>802852.23999999976</v>
+        <v>803203.42</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3895,10 +3895,10 @@
         <v>178</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C97">
-        <v>792973.34000000008</v>
+        <v>787104.07000000007</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3906,10 +3906,10 @@
         <v>179</v>
       </c>
       <c r="B98" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C98">
-        <v>787830.76</v>
+        <v>786937.78000000014</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3920,7 +3920,7 @@
         <v>73</v>
       </c>
       <c r="C99">
-        <v>785554.86</v>
+        <v>785906.2799999998</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3931,7 +3931,7 @@
         <v>182</v>
       </c>
       <c r="C100">
-        <v>768935.55</v>
+        <v>767515.67999999993</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3942,7 +3942,7 @@
         <v>184</v>
       </c>
       <c r="C101">
-        <v>761970.98</v>
+        <v>762329.8</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3953,7 +3953,7 @@
         <v>186</v>
       </c>
       <c r="C102">
-        <v>757636.2</v>
+        <v>758008.39999999991</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>188</v>
       </c>
       <c r="C103">
-        <v>751520.52</v>
+        <v>750418.97</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3975,7 +3975,7 @@
         <v>116</v>
       </c>
       <c r="C104">
-        <v>745756.15</v>
+        <v>744333.54999999993</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3983,21 +3983,21 @@
         <v>190</v>
       </c>
       <c r="B105" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="C105">
-        <v>721038.38</v>
+        <v>741428.48</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
+        <v>191</v>
+      </c>
+      <c r="B106" t="s">
         <v>192</v>
       </c>
-      <c r="B106" t="s">
-        <v>49</v>
-      </c>
       <c r="C106">
-        <v>720787.85000000009</v>
+        <v>721374.58000000007</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4005,43 +4005,43 @@
         <v>193</v>
       </c>
       <c r="B107" t="s">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="C107">
-        <v>706933.03</v>
+        <v>719578.96000000008</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
+        <v>194</v>
+      </c>
+      <c r="B108" t="s">
         <v>195</v>
       </c>
-      <c r="B108" t="s">
-        <v>196</v>
-      </c>
       <c r="C108">
-        <v>705456.80000000016</v>
+        <v>706391.03</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" t="s">
         <v>197</v>
       </c>
-      <c r="B109" t="s">
-        <v>198</v>
-      </c>
       <c r="C109">
-        <v>703608.76</v>
+        <v>705767.3</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>198</v>
+      </c>
+      <c r="B110" t="s">
         <v>199</v>
       </c>
-      <c r="B110" t="s">
-        <v>10</v>
-      </c>
       <c r="C110">
-        <v>703580.07</v>
+        <v>703919.77</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4049,21 +4049,21 @@
         <v>200</v>
       </c>
       <c r="B111" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="C111">
-        <v>701060.73999999987</v>
+        <v>703902.00999999989</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>201</v>
+      </c>
+      <c r="B112" t="s">
         <v>202</v>
       </c>
-      <c r="B112" t="s">
-        <v>63</v>
-      </c>
       <c r="C112">
-        <v>699590.84000000008</v>
+        <v>701381.42</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4071,43 +4071,43 @@
         <v>203</v>
       </c>
       <c r="B113" t="s">
-        <v>204</v>
+        <v>63</v>
       </c>
       <c r="C113">
-        <v>688028.35000000009</v>
+        <v>697376.38</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
+        <v>204</v>
+      </c>
+      <c r="B114" t="s">
         <v>205</v>
       </c>
-      <c r="B114" t="s">
-        <v>206</v>
-      </c>
       <c r="C114">
-        <v>679114.3</v>
+        <v>688325.25</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
+        <v>206</v>
+      </c>
+      <c r="B115" t="s">
         <v>207</v>
       </c>
-      <c r="B115" t="s">
-        <v>208</v>
-      </c>
       <c r="C115">
-        <v>667164.11</v>
+        <v>678630.38</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
+        <v>208</v>
+      </c>
+      <c r="B116" t="s">
         <v>209</v>
       </c>
-      <c r="B116" t="s">
-        <v>49</v>
-      </c>
       <c r="C116">
-        <v>666098.55999999994</v>
+        <v>666938.87999999989</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4115,21 +4115,21 @@
         <v>210</v>
       </c>
       <c r="B117" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="C117">
-        <v>663358.97</v>
+        <v>665987.22000000009</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
+        <v>211</v>
+      </c>
+      <c r="B118" t="s">
         <v>212</v>
       </c>
-      <c r="B118" t="s">
-        <v>51</v>
-      </c>
       <c r="C118">
-        <v>659707.66999999993</v>
+        <v>661213.94000000006</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4137,10 +4137,10 @@
         <v>213</v>
       </c>
       <c r="B119" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C119">
-        <v>649496.80000000005</v>
+        <v>657594.75</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4148,21 +4148,21 @@
         <v>214</v>
       </c>
       <c r="B120" t="s">
-        <v>215</v>
+        <v>39</v>
       </c>
       <c r="C120">
-        <v>647810.17000000004</v>
+        <v>646717.96</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
+        <v>215</v>
+      </c>
+      <c r="B121" t="s">
         <v>216</v>
       </c>
-      <c r="B121" t="s">
-        <v>39</v>
-      </c>
       <c r="C121">
-        <v>646964.91</v>
+        <v>646657.58000000007</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4170,10 +4170,10 @@
         <v>217</v>
       </c>
       <c r="B122" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C122">
-        <v>644470.56999999995</v>
+        <v>644580.33000000007</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4181,32 +4181,32 @@
         <v>218</v>
       </c>
       <c r="B123" t="s">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="C123">
-        <v>630571.31999999995</v>
+        <v>643879.06999999995</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
+        <v>219</v>
+      </c>
+      <c r="B124" t="s">
         <v>220</v>
       </c>
-      <c r="B124" t="s">
-        <v>221</v>
-      </c>
       <c r="C124">
-        <v>622427.09</v>
+        <v>630859.62999999989</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
+        <v>221</v>
+      </c>
+      <c r="B125" t="s">
         <v>222</v>
       </c>
-      <c r="B125" t="s">
-        <v>53</v>
-      </c>
       <c r="C125">
-        <v>617766.54999999981</v>
+        <v>622711.88000000012</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4214,10 +4214,10 @@
         <v>223</v>
       </c>
       <c r="B126" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C126">
-        <v>617434.29</v>
+        <v>616668.45000000019</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4228,7 +4228,7 @@
         <v>225</v>
       </c>
       <c r="C127">
-        <v>615476.80999999994</v>
+        <v>614928.41999999993</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4239,7 +4239,7 @@
         <v>227</v>
       </c>
       <c r="C128">
-        <v>613959.72999999986</v>
+        <v>613189.36</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4250,7 +4250,7 @@
         <v>53</v>
       </c>
       <c r="C129">
-        <v>612794.53000000014</v>
+        <v>613126.02</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4258,21 +4258,21 @@
         <v>229</v>
       </c>
       <c r="B130" t="s">
-        <v>230</v>
+        <v>33</v>
       </c>
       <c r="C130">
-        <v>611053.59</v>
+        <v>612716.39</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
+        <v>230</v>
+      </c>
+      <c r="B131" t="s">
         <v>231</v>
       </c>
-      <c r="B131" t="s">
-        <v>191</v>
-      </c>
       <c r="C131">
-        <v>605335.56000000006</v>
+        <v>611307.74999999988</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4280,65 +4280,65 @@
         <v>232</v>
       </c>
       <c r="B132" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="C132">
-        <v>601733.36</v>
+        <v>601098.74</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
+        <v>233</v>
+      </c>
+      <c r="B133" t="s">
         <v>234</v>
       </c>
-      <c r="B133" t="s">
-        <v>235</v>
-      </c>
       <c r="C133">
-        <v>576995.04999999993</v>
+        <v>600678.93000000005</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
+        <v>235</v>
+      </c>
+      <c r="B134" t="s">
         <v>236</v>
       </c>
-      <c r="B134" t="s">
-        <v>237</v>
-      </c>
       <c r="C134">
-        <v>576041.87000000011</v>
+        <v>577288.5</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
+        <v>237</v>
+      </c>
+      <c r="B135" t="s">
         <v>238</v>
       </c>
-      <c r="B135" t="s">
-        <v>239</v>
-      </c>
       <c r="C135">
-        <v>575799.66999999993</v>
+        <v>576064.89000000013</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
+        <v>239</v>
+      </c>
+      <c r="B136" t="s">
         <v>240</v>
       </c>
-      <c r="B136" t="s">
-        <v>241</v>
-      </c>
       <c r="C136">
-        <v>574946.50999999989</v>
+        <v>575695.55999999994</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
+        <v>241</v>
+      </c>
+      <c r="B137" t="s">
         <v>242</v>
       </c>
-      <c r="B137" t="s">
-        <v>39</v>
-      </c>
       <c r="C137">
-        <v>570575.09</v>
+        <v>572235.19999999995</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4346,87 +4346,87 @@
         <v>243</v>
       </c>
       <c r="B138" t="s">
-        <v>244</v>
+        <v>39</v>
       </c>
       <c r="C138">
-        <v>558072.01</v>
+        <v>570184.39</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
+        <v>244</v>
+      </c>
+      <c r="B139" t="s">
         <v>245</v>
       </c>
-      <c r="B139" t="s">
-        <v>246</v>
-      </c>
       <c r="C139">
-        <v>557282.70000000007</v>
+        <v>557736.59000000008</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
+        <v>246</v>
+      </c>
+      <c r="B140" t="s">
         <v>247</v>
       </c>
-      <c r="B140" t="s">
-        <v>248</v>
-      </c>
       <c r="C140">
-        <v>552959.76000000013</v>
+        <v>557471.84999999986</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
+        <v>248</v>
+      </c>
+      <c r="B141" t="s">
         <v>249</v>
       </c>
-      <c r="B141" t="s">
-        <v>250</v>
-      </c>
       <c r="C141">
-        <v>548394.81999999995</v>
+        <v>548696.72000000009</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
+        <v>250</v>
+      </c>
+      <c r="B142" t="s">
         <v>251</v>
       </c>
-      <c r="B142" t="s">
-        <v>252</v>
-      </c>
       <c r="C142">
-        <v>541330.53</v>
+        <v>548659.96</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
+        <v>252</v>
+      </c>
+      <c r="B143" t="s">
         <v>253</v>
       </c>
-      <c r="B143" t="s">
-        <v>254</v>
-      </c>
       <c r="C143">
-        <v>536840.25999999989</v>
+        <v>541584.72</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
+        <v>254</v>
+      </c>
+      <c r="B144" t="s">
         <v>255</v>
       </c>
-      <c r="B144" t="s">
-        <v>256</v>
-      </c>
       <c r="C144">
-        <v>535356.43999999994</v>
+        <v>537092.14</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
+        <v>256</v>
+      </c>
+      <c r="B145" t="s">
         <v>257</v>
       </c>
-      <c r="B145" t="s">
-        <v>215</v>
-      </c>
       <c r="C145">
-        <v>531062.68000000017</v>
+        <v>535611.56999999995</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4434,109 +4434,109 @@
         <v>258</v>
       </c>
       <c r="B146" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="C146">
-        <v>518047.25000000006</v>
+        <v>531304.66999999993</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
+        <v>259</v>
+      </c>
+      <c r="B147" t="s">
         <v>260</v>
       </c>
-      <c r="B147" t="s">
-        <v>261</v>
-      </c>
       <c r="C147">
-        <v>512561.41999999987</v>
+        <v>518337.4200000001</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
+        <v>261</v>
+      </c>
+      <c r="B148" t="s">
         <v>262</v>
       </c>
-      <c r="B148" t="s">
-        <v>263</v>
-      </c>
       <c r="C148">
-        <v>509534.93000000005</v>
+        <v>512284.41999999993</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
+        <v>263</v>
+      </c>
+      <c r="B149" t="s">
         <v>264</v>
       </c>
-      <c r="B149" t="s">
-        <v>265</v>
-      </c>
       <c r="C149">
-        <v>509361.14999999997</v>
+        <v>509791.32</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
+        <v>265</v>
+      </c>
+      <c r="B150" t="s">
         <v>266</v>
       </c>
-      <c r="B150" t="s">
-        <v>267</v>
-      </c>
       <c r="C150">
-        <v>506383.3000000001</v>
+        <v>508370.45</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
+        <v>267</v>
+      </c>
+      <c r="B151" t="s">
         <v>268</v>
       </c>
-      <c r="B151" t="s">
-        <v>269</v>
-      </c>
       <c r="C151">
-        <v>502361.62</v>
+        <v>505457.40000000008</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
+        <v>269</v>
+      </c>
+      <c r="B152" t="s">
         <v>270</v>
       </c>
-      <c r="B152" t="s">
-        <v>271</v>
-      </c>
       <c r="C152">
-        <v>490478.34</v>
+        <v>502588.05</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
+        <v>271</v>
+      </c>
+      <c r="B153" t="s">
         <v>272</v>
       </c>
-      <c r="B153" t="s">
-        <v>273</v>
-      </c>
       <c r="C153">
-        <v>486688.27</v>
+        <v>490354.27999999997</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
+        <v>273</v>
+      </c>
+      <c r="B154" t="s">
         <v>274</v>
       </c>
-      <c r="B154" t="s">
-        <v>275</v>
-      </c>
       <c r="C154">
-        <v>485886.94000000006</v>
+        <v>486088.51000000007</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
+        <v>275</v>
+      </c>
+      <c r="B155" t="s">
         <v>276</v>
       </c>
-      <c r="B155" t="s">
-        <v>41</v>
-      </c>
       <c r="C155">
-        <v>480187.74000000005</v>
+        <v>482976.88999999996</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4544,32 +4544,32 @@
         <v>277</v>
       </c>
       <c r="B156" t="s">
-        <v>278</v>
+        <v>41</v>
       </c>
       <c r="C156">
-        <v>465650.40999999992</v>
+        <v>480412.79</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
+        <v>278</v>
+      </c>
+      <c r="B157" t="s">
         <v>279</v>
       </c>
-      <c r="B157" t="s">
-        <v>280</v>
-      </c>
       <c r="C157">
-        <v>461198.5</v>
+        <v>465970.34</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
+        <v>280</v>
+      </c>
+      <c r="B158" t="s">
         <v>281</v>
       </c>
-      <c r="B158" t="s">
-        <v>14</v>
-      </c>
       <c r="C158">
-        <v>457175.57</v>
+        <v>457645.31</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4580,7 +4580,7 @@
         <v>283</v>
       </c>
       <c r="C159">
-        <v>457079.37</v>
+        <v>457294.23</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4591,7 +4591,7 @@
         <v>285</v>
       </c>
       <c r="C160">
-        <v>455570.76</v>
+        <v>455795.86000000004</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4599,10 +4599,10 @@
         <v>286</v>
       </c>
       <c r="B161" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="C161">
-        <v>445973.39999999997</v>
+        <v>453677.52000000008</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4610,10 +4610,10 @@
         <v>287</v>
       </c>
       <c r="B162" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="C162">
-        <v>438683.07</v>
+        <v>446173.57000000007</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4624,7 +4624,7 @@
         <v>289</v>
       </c>
       <c r="C163">
-        <v>437582.79</v>
+        <v>436182.30999999994</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4632,10 +4632,10 @@
         <v>290</v>
       </c>
       <c r="B164" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C164">
-        <v>428474.49000000011</v>
+        <v>435439.82999999996</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4643,10 +4643,10 @@
         <v>291</v>
       </c>
       <c r="B165" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C165">
-        <v>426823.00000000006</v>
+        <v>428683.74</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4654,10 +4654,10 @@
         <v>292</v>
       </c>
       <c r="B166" t="s">
-        <v>237</v>
+        <v>10</v>
       </c>
       <c r="C166">
-        <v>423441.66000000003</v>
+        <v>427010.98</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4665,10 +4665,10 @@
         <v>293</v>
       </c>
       <c r="B167" t="s">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="C167">
-        <v>422472.97000000003</v>
+        <v>423614.03</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4679,7 +4679,7 @@
         <v>295</v>
       </c>
       <c r="C168">
-        <v>421411.41</v>
+        <v>420797.64</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4690,7 +4690,7 @@
         <v>297</v>
       </c>
       <c r="C169">
-        <v>420611.13</v>
+        <v>420679.13</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4698,10 +4698,10 @@
         <v>298</v>
       </c>
       <c r="B170" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C170">
-        <v>420589.5</v>
+        <v>420502.28</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4709,21 +4709,21 @@
         <v>299</v>
       </c>
       <c r="B171" t="s">
-        <v>300</v>
+        <v>127</v>
       </c>
       <c r="C171">
-        <v>417956.23000000004</v>
+        <v>419092.75</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
+        <v>300</v>
+      </c>
+      <c r="B172" t="s">
         <v>301</v>
       </c>
-      <c r="B172" t="s">
-        <v>198</v>
-      </c>
       <c r="C172">
-        <v>417700.97</v>
+        <v>418179.03</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4731,32 +4731,32 @@
         <v>302</v>
       </c>
       <c r="B173" t="s">
-        <v>303</v>
+        <v>199</v>
       </c>
       <c r="C173">
-        <v>413773.30999999988</v>
+        <v>417143.12</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
+        <v>303</v>
+      </c>
+      <c r="B174" t="s">
         <v>304</v>
       </c>
-      <c r="B174" t="s">
-        <v>305</v>
-      </c>
       <c r="C174">
-        <v>413397.74</v>
+        <v>413582.82000000012</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
+        <v>305</v>
+      </c>
+      <c r="B175" t="s">
         <v>306</v>
       </c>
-      <c r="B175" t="s">
-        <v>49</v>
-      </c>
       <c r="C175">
-        <v>405795.44999999995</v>
+        <v>413548.52999999985</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4764,87 +4764,87 @@
         <v>307</v>
       </c>
       <c r="B176" t="s">
-        <v>308</v>
+        <v>49</v>
       </c>
       <c r="C176">
-        <v>404553.87000000005</v>
+        <v>405972.4</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
+        <v>308</v>
+      </c>
+      <c r="B177" t="s">
         <v>309</v>
       </c>
-      <c r="B177" t="s">
-        <v>310</v>
-      </c>
       <c r="C177">
-        <v>403834.75</v>
+        <v>404239.41000000003</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
+        <v>310</v>
+      </c>
+      <c r="B178" t="s">
         <v>311</v>
       </c>
-      <c r="B178" t="s">
-        <v>312</v>
-      </c>
       <c r="C178">
-        <v>400480.88</v>
+        <v>404022.80999999994</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
+        <v>312</v>
+      </c>
+      <c r="B179" t="s">
         <v>313</v>
       </c>
-      <c r="B179" t="s">
-        <v>314</v>
-      </c>
       <c r="C179">
-        <v>387987.69</v>
+        <v>400664.63</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
+        <v>314</v>
+      </c>
+      <c r="B180" t="s">
         <v>315</v>
       </c>
-      <c r="B180" t="s">
-        <v>316</v>
-      </c>
       <c r="C180">
-        <v>387609.64</v>
+        <v>387661.46</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
+        <v>316</v>
+      </c>
+      <c r="B181" t="s">
         <v>317</v>
       </c>
-      <c r="B181" t="s">
-        <v>318</v>
-      </c>
       <c r="C181">
-        <v>384147.95999999996</v>
+        <v>387283.23000000004</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
+        <v>318</v>
+      </c>
+      <c r="B182" t="s">
         <v>319</v>
       </c>
-      <c r="B182" t="s">
-        <v>320</v>
-      </c>
       <c r="C182">
-        <v>376907.47</v>
+        <v>383902.55000000005</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
+        <v>320</v>
+      </c>
+      <c r="B183" t="s">
         <v>321</v>
       </c>
-      <c r="B183" t="s">
-        <v>318</v>
-      </c>
       <c r="C183">
-        <v>374047.31</v>
+        <v>376220.12000000011</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4852,43 +4852,43 @@
         <v>322</v>
       </c>
       <c r="B184" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C184">
-        <v>374031.85</v>
+        <v>373395.61000000004</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
+        <v>323</v>
+      </c>
+      <c r="B185" t="s">
         <v>324</v>
       </c>
-      <c r="B185" t="s">
-        <v>325</v>
-      </c>
       <c r="C185">
-        <v>373038.36000000004</v>
+        <v>372214.31</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
+        <v>325</v>
+      </c>
+      <c r="B186" t="s">
         <v>326</v>
       </c>
-      <c r="B186" t="s">
-        <v>327</v>
-      </c>
       <c r="C186">
-        <v>371968.83</v>
+        <v>371264.42000000004</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
+        <v>327</v>
+      </c>
+      <c r="B187" t="s">
         <v>328</v>
       </c>
-      <c r="B187" t="s">
-        <v>88</v>
-      </c>
       <c r="C187">
-        <v>371726.33999999997</v>
+        <v>370358.28999999992</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4899,7 +4899,7 @@
         <v>330</v>
       </c>
       <c r="C188">
-        <v>368927.66999999993</v>
+        <v>368947.57</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4907,21 +4907,21 @@
         <v>331</v>
       </c>
       <c r="B189" t="s">
-        <v>332</v>
+        <v>88</v>
       </c>
       <c r="C189">
-        <v>368781.7</v>
+        <v>368891.50999999995</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
+        <v>332</v>
+      </c>
+      <c r="B190" t="s">
         <v>333</v>
       </c>
-      <c r="B190" t="s">
-        <v>259</v>
-      </c>
       <c r="C190">
-        <v>367689.19</v>
+        <v>368233.56000000006</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4929,32 +4929,32 @@
         <v>334</v>
       </c>
       <c r="B191" t="s">
-        <v>335</v>
+        <v>260</v>
       </c>
       <c r="C191">
-        <v>366331.64</v>
+        <v>367556.16</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
+        <v>335</v>
+      </c>
+      <c r="B192" t="s">
         <v>336</v>
       </c>
-      <c r="B192" t="s">
-        <v>337</v>
-      </c>
       <c r="C192">
-        <v>364278.44</v>
+        <v>366008.09</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
+        <v>337</v>
+      </c>
+      <c r="B193" t="s">
         <v>338</v>
       </c>
-      <c r="B193" t="s">
-        <v>75</v>
-      </c>
       <c r="C193">
-        <v>362184.82999999996</v>
+        <v>364432.77</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4962,21 +4962,21 @@
         <v>339</v>
       </c>
       <c r="B194" t="s">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="C194">
-        <v>361101.89</v>
+        <v>361918.54999999993</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
+        <v>340</v>
+      </c>
+      <c r="B195" t="s">
         <v>341</v>
       </c>
-      <c r="B195" t="s">
-        <v>39</v>
-      </c>
       <c r="C195">
-        <v>361009.44000000006</v>
+        <v>361261.66</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4984,21 +4984,21 @@
         <v>342</v>
       </c>
       <c r="B196" t="s">
-        <v>343</v>
+        <v>39</v>
       </c>
       <c r="C196">
-        <v>360423.05000000005</v>
+        <v>361175.66000000003</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
+        <v>343</v>
+      </c>
+      <c r="B197" t="s">
         <v>344</v>
       </c>
-      <c r="B197" t="s">
-        <v>332</v>
-      </c>
       <c r="C197">
-        <v>360067.24</v>
+        <v>360621.50999999995</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -5006,208 +5006,208 @@
         <v>345</v>
       </c>
       <c r="B198" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C198">
-        <v>356366.95</v>
+        <v>360223.87999999995</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
+        <v>346</v>
+      </c>
+      <c r="B199" t="s">
         <v>347</v>
       </c>
-      <c r="B199" t="s">
-        <v>348</v>
-      </c>
       <c r="C199">
-        <v>353096.98</v>
+        <v>356230.25</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
+        <v>348</v>
+      </c>
+      <c r="B200" t="s">
         <v>349</v>
       </c>
-      <c r="B200" t="s">
-        <v>350</v>
-      </c>
       <c r="C200">
-        <v>350346.72999999992</v>
+        <v>353256.97000000003</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
+        <v>350</v>
+      </c>
+      <c r="B201" t="s">
         <v>351</v>
       </c>
-      <c r="B201" t="s">
-        <v>352</v>
-      </c>
       <c r="C201">
-        <v>342082.74</v>
+        <v>350505.46</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B202" t="s">
-        <v>354</v>
+        <v>245</v>
       </c>
       <c r="C202">
-        <v>341990.62</v>
+        <v>342066.24</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B203" t="s">
-        <v>244</v>
+        <v>354</v>
       </c>
       <c r="C203">
-        <v>341925.4</v>
+        <v>342055.9</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
+        <v>355</v>
+      </c>
+      <c r="B204" t="s">
         <v>356</v>
       </c>
-      <c r="B204" t="s">
-        <v>357</v>
-      </c>
       <c r="C204">
-        <v>340995.54999999993</v>
+        <v>341364.23</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
+        <v>357</v>
+      </c>
+      <c r="B205" t="s">
         <v>358</v>
       </c>
-      <c r="B205" t="s">
-        <v>359</v>
-      </c>
       <c r="C205">
-        <v>339825.44999999995</v>
+        <v>340869.04999999993</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
+        <v>359</v>
+      </c>
+      <c r="B206" t="s">
         <v>360</v>
       </c>
-      <c r="B206" t="s">
-        <v>361</v>
-      </c>
       <c r="C206">
-        <v>335425.5</v>
+        <v>339586.07</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
+        <v>361</v>
+      </c>
+      <c r="B207" t="s">
         <v>362</v>
       </c>
-      <c r="B207" t="s">
-        <v>363</v>
-      </c>
       <c r="C207">
-        <v>335311.71000000002</v>
+        <v>335576.59000000008</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
+        <v>363</v>
+      </c>
+      <c r="B208" t="s">
         <v>364</v>
       </c>
-      <c r="B208" t="s">
-        <v>365</v>
-      </c>
       <c r="C208">
-        <v>332608.43000000005</v>
+        <v>335446.36000000004</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
+        <v>365</v>
+      </c>
+      <c r="B209" t="s">
         <v>366</v>
       </c>
-      <c r="B209" t="s">
-        <v>367</v>
-      </c>
       <c r="C209">
-        <v>330530.18</v>
+        <v>332753.27</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
+        <v>367</v>
+      </c>
+      <c r="B210" t="s">
         <v>368</v>
       </c>
-      <c r="B210" t="s">
-        <v>369</v>
-      </c>
       <c r="C210">
-        <v>329651.02999999991</v>
+        <v>330674.91000000003</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
+        <v>369</v>
+      </c>
+      <c r="B211" t="s">
         <v>370</v>
       </c>
-      <c r="B211" t="s">
-        <v>371</v>
-      </c>
       <c r="C211">
-        <v>324780.33</v>
+        <v>329066.96999999997</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
+        <v>371</v>
+      </c>
+      <c r="B212" t="s">
         <v>372</v>
       </c>
-      <c r="B212" t="s">
-        <v>373</v>
-      </c>
       <c r="C212">
-        <v>324353.31000000011</v>
+        <v>324913.69999999995</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
+        <v>373</v>
+      </c>
+      <c r="B213" t="s">
         <v>374</v>
       </c>
-      <c r="B213" t="s">
-        <v>375</v>
-      </c>
       <c r="C213">
-        <v>323314.06</v>
+        <v>324496.89999999997</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
+        <v>375</v>
+      </c>
+      <c r="B214" t="s">
         <v>376</v>
       </c>
-      <c r="B214" t="s">
-        <v>377</v>
-      </c>
       <c r="C214">
-        <v>321843.03999999998</v>
+        <v>322276.09999999998</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
+        <v>377</v>
+      </c>
+      <c r="B215" t="s">
         <v>378</v>
       </c>
-      <c r="B215" t="s">
-        <v>379</v>
-      </c>
       <c r="C215">
-        <v>318177.58</v>
+        <v>321244.55</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
+        <v>379</v>
+      </c>
+      <c r="B216" t="s">
         <v>380</v>
       </c>
-      <c r="B216" t="s">
-        <v>49</v>
-      </c>
       <c r="C216">
-        <v>318144.78000000003</v>
+        <v>318321.25</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5218,7 +5218,7 @@
         <v>104</v>
       </c>
       <c r="C217">
-        <v>316676.56000000006</v>
+        <v>314255.12</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5226,10 +5226,10 @@
         <v>382</v>
       </c>
       <c r="B218" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C218">
-        <v>313983.86</v>
+        <v>314118.89</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5240,7 +5240,7 @@
         <v>384</v>
       </c>
       <c r="C219">
-        <v>309164.51</v>
+        <v>309301.64999999997</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5251,7 +5251,7 @@
         <v>88</v>
       </c>
       <c r="C220">
-        <v>308695</v>
+        <v>308650.49</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5259,10 +5259,10 @@
         <v>386</v>
       </c>
       <c r="B221" t="s">
-        <v>375</v>
+        <v>49</v>
       </c>
       <c r="C221">
-        <v>307562.34000000003</v>
+        <v>308085.75000000006</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5270,21 +5270,21 @@
         <v>387</v>
       </c>
       <c r="B222" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C222">
-        <v>301262.38</v>
+        <v>307713.27</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
+        <v>388</v>
+      </c>
+      <c r="B223" t="s">
         <v>389</v>
       </c>
-      <c r="B223" t="s">
-        <v>4</v>
-      </c>
       <c r="C223">
-        <v>301187.72000000003</v>
+        <v>301425.54000000004</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5292,10 +5292,10 @@
         <v>390</v>
       </c>
       <c r="B224" t="s">
-        <v>375</v>
+        <v>4</v>
       </c>
       <c r="C224">
-        <v>296953.5</v>
+        <v>301319.73000000004</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5306,7 +5306,7 @@
         <v>68</v>
       </c>
       <c r="C225">
-        <v>296914.54999999993</v>
+        <v>296905.59000000003</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5317,7 +5317,7 @@
         <v>167</v>
       </c>
       <c r="C226">
-        <v>293151.8</v>
+        <v>293287.5</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5325,10 +5325,10 @@
         <v>393</v>
       </c>
       <c r="B227" t="s">
-        <v>314</v>
+        <v>376</v>
       </c>
       <c r="C227">
-        <v>292491.62</v>
+        <v>292575.78999999998</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5336,21 +5336,21 @@
         <v>394</v>
       </c>
       <c r="B228" t="s">
-        <v>395</v>
+        <v>317</v>
       </c>
       <c r="C228">
-        <v>289983.58</v>
+        <v>291753.14</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
+        <v>395</v>
+      </c>
+      <c r="B229" t="s">
         <v>396</v>
       </c>
-      <c r="B229" t="s">
-        <v>73</v>
-      </c>
       <c r="C229">
-        <v>284551</v>
+        <v>290114.89999999997</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5358,21 +5358,21 @@
         <v>397</v>
       </c>
       <c r="B230" t="s">
-        <v>398</v>
+        <v>73</v>
       </c>
       <c r="C230">
-        <v>283614.34000000003</v>
+        <v>284029.51</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
+        <v>398</v>
+      </c>
+      <c r="B231" t="s">
         <v>399</v>
       </c>
-      <c r="B231" t="s">
-        <v>53</v>
-      </c>
       <c r="C231">
-        <v>283368.77</v>
+        <v>283760.27999999997</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5380,10 +5380,10 @@
         <v>400</v>
       </c>
       <c r="B232" t="s">
-        <v>280</v>
+        <v>53</v>
       </c>
       <c r="C232">
-        <v>282018.09000000003</v>
+        <v>282547.02999999997</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5391,43 +5391,43 @@
         <v>401</v>
       </c>
       <c r="B233" t="s">
-        <v>402</v>
+        <v>281</v>
       </c>
       <c r="C233">
-        <v>274866.69999999995</v>
+        <v>281506.32</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
+        <v>402</v>
+      </c>
+      <c r="B234" t="s">
         <v>403</v>
       </c>
-      <c r="B234" t="s">
-        <v>404</v>
-      </c>
       <c r="C234">
-        <v>271766.55000000005</v>
+        <v>274377.74999999994</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
+        <v>404</v>
+      </c>
+      <c r="B235" t="s">
         <v>405</v>
       </c>
-      <c r="B235" t="s">
-        <v>406</v>
-      </c>
       <c r="C235">
-        <v>270560.96999999997</v>
+        <v>272217.19</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
+        <v>406</v>
+      </c>
+      <c r="B236" t="s">
         <v>407</v>
       </c>
-      <c r="B236" t="s">
-        <v>221</v>
-      </c>
       <c r="C236">
-        <v>267132.34000000003</v>
+        <v>271885.33</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5438,7 +5438,7 @@
         <v>409</v>
       </c>
       <c r="C237">
-        <v>267091.32999999996</v>
+        <v>270718.18999999994</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5446,10 +5446,10 @@
         <v>410</v>
       </c>
       <c r="B238" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="C238">
-        <v>266018.36</v>
+        <v>266379.35000000003</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5457,76 +5457,76 @@
         <v>411</v>
       </c>
       <c r="B239" t="s">
-        <v>412</v>
+        <v>306</v>
       </c>
       <c r="C239">
-        <v>264797.45</v>
+        <v>265853.89</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
+        <v>412</v>
+      </c>
+      <c r="B240" t="s">
         <v>413</v>
       </c>
-      <c r="B240" t="s">
-        <v>414</v>
-      </c>
       <c r="C240">
-        <v>263461.98999999993</v>
+        <v>264419.92000000004</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
+        <v>414</v>
+      </c>
+      <c r="B241" t="s">
         <v>415</v>
       </c>
-      <c r="B241" t="s">
-        <v>416</v>
-      </c>
       <c r="C241">
-        <v>261868.92</v>
+        <v>262986.31</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
+        <v>416</v>
+      </c>
+      <c r="B242" t="s">
         <v>417</v>
       </c>
-      <c r="B242" t="s">
-        <v>418</v>
-      </c>
       <c r="C242">
-        <v>261309.52000000002</v>
+        <v>261380.29000000004</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
+        <v>418</v>
+      </c>
+      <c r="B243" t="s">
         <v>419</v>
       </c>
-      <c r="B243" t="s">
-        <v>420</v>
-      </c>
       <c r="C243">
-        <v>260749.44000000003</v>
+        <v>261124.39999999994</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
+        <v>420</v>
+      </c>
+      <c r="B244" t="s">
         <v>421</v>
       </c>
-      <c r="B244" t="s">
-        <v>422</v>
-      </c>
       <c r="C244">
-        <v>255678.77000000002</v>
+        <v>260870.07999999996</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
+        <v>422</v>
+      </c>
+      <c r="B245" t="s">
         <v>423</v>
       </c>
-      <c r="B245" t="s">
-        <v>116</v>
-      </c>
       <c r="C245">
-        <v>253164.33000000002</v>
+        <v>255305.62999999998</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5534,21 +5534,21 @@
         <v>424</v>
       </c>
       <c r="B246" t="s">
-        <v>425</v>
+        <v>116</v>
       </c>
       <c r="C246">
-        <v>251468.51</v>
+        <v>253077.86000000004</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
+        <v>425</v>
+      </c>
+      <c r="B247" t="s">
         <v>426</v>
       </c>
-      <c r="B247" t="s">
-        <v>153</v>
-      </c>
       <c r="C247">
-        <v>249600.31999999998</v>
+        <v>251581.79</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5556,87 +5556,87 @@
         <v>427</v>
       </c>
       <c r="B248" t="s">
-        <v>428</v>
+        <v>153</v>
       </c>
       <c r="C248">
-        <v>246423.26999999996</v>
+        <v>249275.08</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
+        <v>428</v>
+      </c>
+      <c r="B249" t="s">
         <v>429</v>
       </c>
-      <c r="B249" t="s">
-        <v>430</v>
-      </c>
       <c r="C249">
-        <v>245555.67999999993</v>
+        <v>246261.23000000004</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
+        <v>430</v>
+      </c>
+      <c r="B250" t="s">
         <v>431</v>
       </c>
-      <c r="B250" t="s">
-        <v>432</v>
-      </c>
       <c r="C250">
-        <v>245391.83</v>
+        <v>245122.07999999996</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
+        <v>432</v>
+      </c>
+      <c r="B251" t="s">
         <v>433</v>
       </c>
-      <c r="B251" t="s">
-        <v>434</v>
-      </c>
       <c r="C251">
-        <v>242101.09</v>
+        <v>244932.69999999998</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
+        <v>434</v>
+      </c>
+      <c r="B252" t="s">
         <v>435</v>
       </c>
-      <c r="B252" t="s">
-        <v>436</v>
-      </c>
       <c r="C252">
-        <v>241574.84000000003</v>
+        <v>242208.45</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
+        <v>436</v>
+      </c>
+      <c r="B253" t="s">
         <v>437</v>
       </c>
-      <c r="B253" t="s">
-        <v>438</v>
-      </c>
       <c r="C253">
-        <v>240637.34000000003</v>
+        <v>241683.05999999997</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
+        <v>438</v>
+      </c>
+      <c r="B254" t="s">
         <v>439</v>
       </c>
-      <c r="B254" t="s">
-        <v>440</v>
-      </c>
       <c r="C254">
-        <v>240550.51</v>
+        <v>240721.99</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
+        <v>440</v>
+      </c>
+      <c r="B255" t="s">
         <v>441</v>
       </c>
-      <c r="B255" t="s">
-        <v>420</v>
-      </c>
       <c r="C255">
-        <v>237926.06</v>
+        <v>240412.79999999999</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5644,21 +5644,21 @@
         <v>442</v>
       </c>
       <c r="B256" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="C256">
-        <v>237334.03000000003</v>
+        <v>237737.31999999995</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
+        <v>443</v>
+      </c>
+      <c r="B257" t="s">
         <v>444</v>
       </c>
-      <c r="B257" t="s">
-        <v>198</v>
-      </c>
       <c r="C257">
-        <v>237055.13999999998</v>
+        <v>236885.93000000005</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5666,43 +5666,43 @@
         <v>445</v>
       </c>
       <c r="B258" t="s">
-        <v>446</v>
+        <v>199</v>
       </c>
       <c r="C258">
-        <v>236027.37999999998</v>
+        <v>236668.21999999997</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
+        <v>446</v>
+      </c>
+      <c r="B259" t="s">
         <v>447</v>
       </c>
-      <c r="B259" t="s">
-        <v>448</v>
-      </c>
       <c r="C259">
-        <v>235796.12999999998</v>
+        <v>235927.86000000002</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
+        <v>448</v>
+      </c>
+      <c r="B260" t="s">
         <v>449</v>
       </c>
-      <c r="B260" t="s">
-        <v>450</v>
-      </c>
       <c r="C260">
-        <v>233123.32</v>
+        <v>235351.22</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
+        <v>450</v>
+      </c>
+      <c r="B261" t="s">
         <v>451</v>
       </c>
-      <c r="B261" t="s">
-        <v>434</v>
-      </c>
       <c r="C261">
-        <v>230338.95</v>
+        <v>232959.81000000003</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5710,65 +5710,65 @@
         <v>452</v>
       </c>
       <c r="B262" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="C262">
-        <v>229398.86000000002</v>
+        <v>230132.41999999995</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
+        <v>453</v>
+      </c>
+      <c r="B263" t="s">
         <v>454</v>
       </c>
-      <c r="B263" t="s">
-        <v>455</v>
-      </c>
       <c r="C263">
-        <v>229187.34</v>
+        <v>229288.19</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
+        <v>455</v>
+      </c>
+      <c r="B264" t="s">
         <v>456</v>
       </c>
-      <c r="B264" t="s">
-        <v>457</v>
-      </c>
       <c r="C264">
-        <v>228018.25</v>
+        <v>229263.91000000003</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
+        <v>457</v>
+      </c>
+      <c r="B265" t="s">
         <v>458</v>
       </c>
-      <c r="B265" t="s">
-        <v>459</v>
-      </c>
       <c r="C265">
-        <v>218965.96</v>
+        <v>228120.56000000003</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
+        <v>459</v>
+      </c>
+      <c r="B266" t="s">
         <v>460</v>
       </c>
-      <c r="B266" t="s">
-        <v>461</v>
-      </c>
       <c r="C266">
-        <v>217495.56</v>
+        <v>219066.46000000002</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
+        <v>461</v>
+      </c>
+      <c r="B267" t="s">
         <v>462</v>
       </c>
-      <c r="B267" t="s">
-        <v>70</v>
-      </c>
       <c r="C267">
-        <v>216348.63999999998</v>
+        <v>217605.41</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5776,21 +5776,21 @@
         <v>463</v>
       </c>
       <c r="B268" t="s">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="C268">
-        <v>215363.71999999994</v>
+        <v>216441.67999999996</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
+        <v>464</v>
+      </c>
+      <c r="B269" t="s">
         <v>465</v>
       </c>
-      <c r="B269" t="s">
-        <v>285</v>
-      </c>
       <c r="C269">
-        <v>212912.88</v>
+        <v>215461.35</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5798,32 +5798,32 @@
         <v>466</v>
       </c>
       <c r="B270" t="s">
-        <v>467</v>
+        <v>285</v>
       </c>
       <c r="C270">
-        <v>210964.36</v>
+        <v>212935.91</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
+        <v>467</v>
+      </c>
+      <c r="B271" t="s">
         <v>468</v>
       </c>
-      <c r="B271" t="s">
-        <v>469</v>
-      </c>
       <c r="C271">
-        <v>210358.36000000002</v>
+        <v>210836.54</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
+        <v>469</v>
+      </c>
+      <c r="B272" t="s">
         <v>470</v>
       </c>
-      <c r="B272" t="s">
-        <v>92</v>
-      </c>
       <c r="C272">
-        <v>210329.19</v>
+        <v>210273.08000000002</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5834,7 +5834,7 @@
         <v>472</v>
       </c>
       <c r="C273">
-        <v>209253.62000000002</v>
+        <v>209345.40000000002</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5842,10 +5842,10 @@
         <v>473</v>
       </c>
       <c r="B274" t="s">
-        <v>440</v>
+        <v>92</v>
       </c>
       <c r="C274">
-        <v>208488.79</v>
+        <v>208719.55</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5853,10 +5853,10 @@
         <v>474</v>
       </c>
       <c r="B275" t="s">
-        <v>75</v>
+        <v>441</v>
       </c>
       <c r="C275">
-        <v>207390.20999999996</v>
+        <v>208580.95</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5864,10 +5864,10 @@
         <v>475</v>
       </c>
       <c r="B276" t="s">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="C276">
-        <v>204997.21999999994</v>
+        <v>207005.66000000003</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5875,10 +5875,10 @@
         <v>476</v>
       </c>
       <c r="B277" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C277">
-        <v>204854.39</v>
+        <v>204742.7</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5886,10 +5886,10 @@
         <v>477</v>
       </c>
       <c r="B278" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C278">
-        <v>204255.7</v>
+        <v>204698.96999999997</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5900,7 +5900,7 @@
         <v>479</v>
       </c>
       <c r="C279">
-        <v>202857.78999999995</v>
+        <v>202945.18999999997</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5908,10 +5908,10 @@
         <v>480</v>
       </c>
       <c r="B280" t="s">
-        <v>51</v>
+        <v>285</v>
       </c>
       <c r="C280">
-        <v>200447.66000000003</v>
+        <v>202692.03000000003</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5919,10 +5919,10 @@
         <v>481</v>
       </c>
       <c r="B281" t="s">
-        <v>303</v>
+        <v>51</v>
       </c>
       <c r="C281">
-        <v>199724.55000000002</v>
+        <v>199804.53000000003</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5930,21 +5930,21 @@
         <v>482</v>
       </c>
       <c r="B282" t="s">
-        <v>483</v>
+        <v>306</v>
       </c>
       <c r="C282">
-        <v>199308.59999999998</v>
+        <v>199575.52000000002</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
+        <v>483</v>
+      </c>
+      <c r="B283" t="s">
         <v>484</v>
       </c>
-      <c r="B283" t="s">
-        <v>53</v>
-      </c>
       <c r="C283">
-        <v>195755.21999999997</v>
+        <v>199166.97</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5952,10 +5952,10 @@
         <v>485</v>
       </c>
       <c r="B284" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C284">
-        <v>194449.51</v>
+        <v>195432.65000000002</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5963,10 +5963,10 @@
         <v>486</v>
       </c>
       <c r="B285" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C285">
-        <v>194297.31999999998</v>
+        <v>194378.56000000003</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5977,7 +5977,7 @@
         <v>488</v>
       </c>
       <c r="C286">
-        <v>192460.41999999998</v>
+        <v>192542.1</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5985,32 +5985,32 @@
         <v>489</v>
       </c>
       <c r="B287" t="s">
-        <v>490</v>
+        <v>88</v>
       </c>
       <c r="C287">
-        <v>190640.34000000003</v>
+        <v>191824.90999999997</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
+        <v>490</v>
+      </c>
+      <c r="B288" t="s">
         <v>491</v>
       </c>
-      <c r="B288" t="s">
-        <v>492</v>
-      </c>
       <c r="C288">
-        <v>189495.32</v>
+        <v>190720.67999999996</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
+        <v>492</v>
+      </c>
+      <c r="B289" t="s">
         <v>493</v>
       </c>
-      <c r="B289" t="s">
-        <v>41</v>
-      </c>
       <c r="C289">
-        <v>187122.30999999994</v>
+        <v>189525.82</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6018,10 +6018,10 @@
         <v>494</v>
       </c>
       <c r="B290" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C290">
-        <v>183897.49000000002</v>
+        <v>186843.2</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -6032,7 +6032,7 @@
         <v>127</v>
       </c>
       <c r="C291">
-        <v>183876.68</v>
+        <v>183747.29000000004</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -6040,43 +6040,43 @@
         <v>496</v>
       </c>
       <c r="B292" t="s">
-        <v>497</v>
+        <v>39</v>
       </c>
       <c r="C292">
-        <v>183257.84000000003</v>
+        <v>183573.31</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
+        <v>497</v>
+      </c>
+      <c r="B293" t="s">
         <v>498</v>
       </c>
-      <c r="B293" t="s">
-        <v>499</v>
-      </c>
       <c r="C293">
-        <v>179829.06</v>
+        <v>182973.92</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
+        <v>499</v>
+      </c>
+      <c r="B294" t="s">
         <v>500</v>
       </c>
-      <c r="B294" t="s">
-        <v>501</v>
-      </c>
       <c r="C294">
-        <v>177303.19000000003</v>
+        <v>179953.41</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
+        <v>501</v>
+      </c>
+      <c r="B295" t="s">
         <v>502</v>
       </c>
-      <c r="B295" t="s">
-        <v>75</v>
-      </c>
       <c r="C295">
-        <v>174172.61</v>
+        <v>176971.75000000009</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -6084,10 +6084,10 @@
         <v>503</v>
       </c>
       <c r="B296" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C296">
-        <v>172194.02000000002</v>
+        <v>174256.59</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -6098,7 +6098,7 @@
         <v>505</v>
       </c>
       <c r="C297">
-        <v>172164.05000000002</v>
+        <v>172238.4</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -6106,21 +6106,21 @@
         <v>506</v>
       </c>
       <c r="B298" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="C298">
-        <v>169822.47000000003</v>
+        <v>172154.21</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
+        <v>507</v>
+      </c>
+      <c r="B299" t="s">
         <v>508</v>
       </c>
-      <c r="B299" t="s">
-        <v>395</v>
-      </c>
       <c r="C299">
-        <v>168749.95</v>
+        <v>169514.15</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6128,10 +6128,10 @@
         <v>509</v>
       </c>
       <c r="B300" t="s">
-        <v>116</v>
+        <v>396</v>
       </c>
       <c r="C300">
-        <v>165443.42000000001</v>
+        <v>168663.74</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -6139,32 +6139,32 @@
         <v>510</v>
       </c>
       <c r="B301" t="s">
-        <v>511</v>
+        <v>116</v>
       </c>
       <c r="C301">
-        <v>163903.47999999998</v>
+        <v>165514.18000000002</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
+        <v>511</v>
+      </c>
+      <c r="B302" t="s">
         <v>512</v>
       </c>
-      <c r="B302" t="s">
-        <v>513</v>
-      </c>
       <c r="C302">
-        <v>161464.83000000002</v>
+        <v>163882.44</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
+        <v>513</v>
+      </c>
+      <c r="B303" t="s">
         <v>514</v>
       </c>
-      <c r="B303" t="s">
-        <v>118</v>
-      </c>
       <c r="C303">
-        <v>160519.90000000002</v>
+        <v>161536.85999999999</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6175,7 +6175,7 @@
         <v>516</v>
       </c>
       <c r="C304">
-        <v>160212.68</v>
+        <v>160280.43000000002</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6183,21 +6183,21 @@
         <v>517</v>
       </c>
       <c r="B305" t="s">
-        <v>518</v>
+        <v>118</v>
       </c>
       <c r="C305">
-        <v>159924.90000000002</v>
+        <v>160226.17000000001</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
+        <v>518</v>
+      </c>
+      <c r="B306" t="s">
         <v>519</v>
       </c>
-      <c r="B306" t="s">
-        <v>75</v>
-      </c>
       <c r="C306">
-        <v>157924.09999999998</v>
+        <v>159994.37</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6205,21 +6205,21 @@
         <v>520</v>
       </c>
       <c r="B307" t="s">
-        <v>521</v>
+        <v>75</v>
       </c>
       <c r="C307">
-        <v>157869.22</v>
+        <v>157993.29999999999</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
+        <v>521</v>
+      </c>
+      <c r="B308" t="s">
         <v>522</v>
       </c>
-      <c r="B308" t="s">
-        <v>332</v>
-      </c>
       <c r="C308">
-        <v>157576.44</v>
+        <v>157939</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6227,10 +6227,10 @@
         <v>523</v>
       </c>
       <c r="B309" t="s">
-        <v>73</v>
+        <v>330</v>
       </c>
       <c r="C309">
-        <v>157470.07999999999</v>
+        <v>157667.5</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6238,10 +6238,10 @@
         <v>524</v>
       </c>
       <c r="B310" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C310">
-        <v>157210.62000000002</v>
+        <v>157541.55000000002</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6249,10 +6249,10 @@
         <v>525</v>
       </c>
       <c r="B311" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C311">
-        <v>156472.26999999999</v>
+        <v>157285.24</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6263,7 +6263,7 @@
         <v>73</v>
       </c>
       <c r="C312">
-        <v>156193.49000000002</v>
+        <v>156558.56000000003</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6271,10 +6271,10 @@
         <v>527</v>
       </c>
       <c r="B313" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C313">
-        <v>154166.54</v>
+        <v>156259.63999999998</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6282,21 +6282,21 @@
         <v>528</v>
       </c>
       <c r="B314" t="s">
-        <v>529</v>
+        <v>33</v>
       </c>
       <c r="C314">
-        <v>152167.48000000001</v>
+        <v>154234.9</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
+        <v>529</v>
+      </c>
+      <c r="B315" t="s">
         <v>530</v>
       </c>
-      <c r="B315" t="s">
-        <v>41</v>
-      </c>
       <c r="C315">
-        <v>150561.68</v>
+        <v>152253.38999999998</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -6304,10 +6304,10 @@
         <v>531</v>
       </c>
       <c r="B316" t="s">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="C316">
-        <v>148750.35</v>
+        <v>150630.30000000002</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6315,32 +6315,32 @@
         <v>532</v>
       </c>
       <c r="B317" t="s">
-        <v>533</v>
+        <v>251</v>
       </c>
       <c r="C317">
-        <v>146815.43</v>
+        <v>148476.21000000002</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
+        <v>533</v>
+      </c>
+      <c r="B318" t="s">
         <v>534</v>
       </c>
-      <c r="B318" t="s">
-        <v>535</v>
-      </c>
       <c r="C318">
-        <v>146581.62</v>
+        <v>146880.01000000004</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
+        <v>535</v>
+      </c>
+      <c r="B319" t="s">
         <v>536</v>
       </c>
-      <c r="B319" t="s">
-        <v>438</v>
-      </c>
       <c r="C319">
-        <v>144582.24000000002</v>
+        <v>146651.16999999998</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6348,10 +6348,10 @@
         <v>537</v>
       </c>
       <c r="B320" t="s">
-        <v>63</v>
+        <v>439</v>
       </c>
       <c r="C320">
-        <v>144318.1</v>
+        <v>144481.46</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6359,10 +6359,10 @@
         <v>538</v>
       </c>
       <c r="B321" t="s">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="C321">
-        <v>143938.75000000003</v>
+        <v>144388.6</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6370,10 +6370,10 @@
         <v>539</v>
       </c>
       <c r="B322" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="C322">
-        <v>142391.66000000003</v>
+        <v>144001.28</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6381,32 +6381,32 @@
         <v>540</v>
       </c>
       <c r="B323" t="s">
-        <v>541</v>
+        <v>301</v>
       </c>
       <c r="C323">
-        <v>140257.53</v>
+        <v>141547.89000000001</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
+        <v>541</v>
+      </c>
+      <c r="B324" t="s">
         <v>542</v>
       </c>
-      <c r="B324" t="s">
-        <v>543</v>
-      </c>
       <c r="C324">
-        <v>139880.31999999998</v>
+        <v>140315.95000000001</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
+        <v>543</v>
+      </c>
+      <c r="B325" t="s">
         <v>544</v>
       </c>
-      <c r="B325" t="s">
-        <v>543</v>
-      </c>
       <c r="C325">
-        <v>139532.54</v>
+        <v>139955.11000000002</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -6414,87 +6414,87 @@
         <v>545</v>
       </c>
       <c r="B326" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C326">
-        <v>139101.68</v>
+        <v>139645.04999999999</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
+        <v>546</v>
+      </c>
+      <c r="B327" t="s">
         <v>547</v>
       </c>
-      <c r="B327" t="s">
-        <v>548</v>
-      </c>
       <c r="C327">
-        <v>139061.54</v>
+        <v>139161.91</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
+        <v>548</v>
+      </c>
+      <c r="B328" t="s">
         <v>549</v>
       </c>
-      <c r="B328" t="s">
-        <v>550</v>
-      </c>
       <c r="C328">
-        <v>137909.85</v>
+        <v>138775.13999999998</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
+        <v>550</v>
+      </c>
+      <c r="B329" t="s">
         <v>551</v>
       </c>
-      <c r="B329" t="s">
-        <v>552</v>
-      </c>
       <c r="C329">
-        <v>137705.68</v>
+        <v>137971.47</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
+        <v>552</v>
+      </c>
+      <c r="B330" t="s">
         <v>553</v>
       </c>
-      <c r="B330" t="s">
-        <v>554</v>
-      </c>
       <c r="C330">
-        <v>136662.87</v>
+        <v>137766.48000000001</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
+        <v>554</v>
+      </c>
+      <c r="B331" t="s">
         <v>555</v>
       </c>
-      <c r="B331" t="s">
-        <v>556</v>
-      </c>
       <c r="C331">
-        <v>135855.05000000002</v>
+        <v>136584.10999999999</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
+        <v>556</v>
+      </c>
+      <c r="B332" t="s">
         <v>557</v>
       </c>
-      <c r="B332" t="s">
-        <v>558</v>
-      </c>
       <c r="C332">
-        <v>130648.27000000002</v>
+        <v>135903.94999999998</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
+        <v>558</v>
+      </c>
+      <c r="B333" t="s">
         <v>559</v>
       </c>
-      <c r="B333" t="s">
-        <v>188</v>
-      </c>
       <c r="C333">
-        <v>129606.60999999999</v>
+        <v>130602.02999999998</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6502,32 +6502,32 @@
         <v>560</v>
       </c>
       <c r="B334" t="s">
-        <v>561</v>
+        <v>188</v>
       </c>
       <c r="C334">
-        <v>129449.90999999999</v>
+        <v>129552.50000000001</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
+        <v>561</v>
+      </c>
+      <c r="B335" t="s">
         <v>562</v>
       </c>
-      <c r="B335" t="s">
-        <v>563</v>
-      </c>
       <c r="C335">
-        <v>128726.95000000001</v>
+        <v>129507.64</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
+        <v>563</v>
+      </c>
+      <c r="B336" t="s">
         <v>564</v>
       </c>
-      <c r="B336" t="s">
-        <v>233</v>
-      </c>
       <c r="C336">
-        <v>127991.14000000001</v>
+        <v>128787.36000000002</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6535,10 +6535,10 @@
         <v>565</v>
       </c>
       <c r="B337" t="s">
-        <v>453</v>
+        <v>234</v>
       </c>
       <c r="C337">
-        <v>127439.67</v>
+        <v>128050.03</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6546,21 +6546,21 @@
         <v>566</v>
       </c>
       <c r="B338" t="s">
-        <v>567</v>
+        <v>456</v>
       </c>
       <c r="C338">
-        <v>126991.2</v>
+        <v>127482.38</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
+        <v>567</v>
+      </c>
+      <c r="B339" t="s">
         <v>568</v>
       </c>
-      <c r="B339" t="s">
-        <v>430</v>
-      </c>
       <c r="C339">
-        <v>126597.58</v>
+        <v>127048.65000000001</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6568,10 +6568,10 @@
         <v>569</v>
       </c>
       <c r="B340" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C340">
-        <v>126509.29</v>
+        <v>126566.43000000001</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6579,10 +6579,10 @@
         <v>570</v>
       </c>
       <c r="B341" t="s">
-        <v>543</v>
+        <v>431</v>
       </c>
       <c r="C341">
-        <v>126261.04</v>
+        <v>126503.15999999999</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6590,10 +6590,10 @@
         <v>571</v>
       </c>
       <c r="B342" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="C342">
-        <v>125108.66</v>
+        <v>126077.56000000001</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6604,7 +6604,7 @@
         <v>573</v>
       </c>
       <c r="C343">
-        <v>124805.65000000001</v>
+        <v>124759.38999999998</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6612,21 +6612,21 @@
         <v>574</v>
       </c>
       <c r="B344" t="s">
-        <v>575</v>
+        <v>534</v>
       </c>
       <c r="C344">
-        <v>121625.19</v>
+        <v>124153.26999999999</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
+        <v>575</v>
+      </c>
+      <c r="B345" t="s">
         <v>576</v>
       </c>
-      <c r="B345" t="s">
-        <v>438</v>
-      </c>
       <c r="C345">
-        <v>121150.51</v>
+        <v>121685.04000000001</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6634,21 +6634,21 @@
         <v>577</v>
       </c>
       <c r="B346" t="s">
-        <v>578</v>
+        <v>439</v>
       </c>
       <c r="C346">
-        <v>118896.83</v>
+        <v>121205.22999999998</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
+        <v>578</v>
+      </c>
+      <c r="B347" t="s">
         <v>579</v>
       </c>
-      <c r="B347" t="s">
-        <v>26</v>
-      </c>
       <c r="C347">
-        <v>118557.43</v>
+        <v>118669.24</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6656,10 +6656,10 @@
         <v>580</v>
       </c>
       <c r="B348" t="s">
-        <v>548</v>
+        <v>26</v>
       </c>
       <c r="C348">
-        <v>117691.13</v>
+        <v>118612.23000000001</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6667,21 +6667,21 @@
         <v>581</v>
       </c>
       <c r="B349" t="s">
-        <v>582</v>
+        <v>549</v>
       </c>
       <c r="C349">
-        <v>117536.94999999998</v>
+        <v>117630.28000000001</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
+        <v>582</v>
+      </c>
+      <c r="B350" t="s">
         <v>583</v>
       </c>
-      <c r="B350" t="s">
-        <v>259</v>
-      </c>
       <c r="C350">
-        <v>116988.91</v>
+        <v>117592.19</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6689,21 +6689,21 @@
         <v>584</v>
       </c>
       <c r="B351" t="s">
-        <v>585</v>
+        <v>260</v>
       </c>
       <c r="C351">
-        <v>115952.95000000001</v>
+        <v>117053.45</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
+        <v>585</v>
+      </c>
+      <c r="B352" t="s">
         <v>586</v>
       </c>
-      <c r="B352" t="s">
-        <v>438</v>
-      </c>
       <c r="C352">
-        <v>114997.08000000003</v>
+        <v>115097.29</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6711,21 +6711,21 @@
         <v>587</v>
       </c>
       <c r="B353" t="s">
-        <v>588</v>
+        <v>439</v>
       </c>
       <c r="C353">
-        <v>114645.57999999999</v>
+        <v>115047.17</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
+        <v>588</v>
+      </c>
+      <c r="B354" t="s">
         <v>589</v>
       </c>
-      <c r="B354" t="s">
-        <v>61</v>
-      </c>
       <c r="C354">
-        <v>114031.62</v>
+        <v>114690.47999999998</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6733,43 +6733,43 @@
         <v>590</v>
       </c>
       <c r="B355" t="s">
-        <v>591</v>
+        <v>61</v>
       </c>
       <c r="C355">
-        <v>112821.29000000001</v>
+        <v>114085.96</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
+        <v>591</v>
+      </c>
+      <c r="B356" t="s">
         <v>592</v>
       </c>
-      <c r="B356" t="s">
-        <v>593</v>
-      </c>
       <c r="C356">
-        <v>112765.78</v>
+        <v>112870.40999999999</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
+        <v>593</v>
+      </c>
+      <c r="B357" t="s">
         <v>594</v>
       </c>
-      <c r="B357" t="s">
-        <v>595</v>
-      </c>
       <c r="C357">
-        <v>112668.02</v>
+        <v>112816.81999999999</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
+        <v>595</v>
+      </c>
+      <c r="B358" t="s">
         <v>596</v>
       </c>
-      <c r="B358" t="s">
-        <v>63</v>
-      </c>
       <c r="C358">
-        <v>112645.96</v>
+        <v>112717.19</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6777,10 +6777,10 @@
         <v>597</v>
       </c>
       <c r="B359" t="s">
-        <v>365</v>
+        <v>63</v>
       </c>
       <c r="C359">
-        <v>110090.05999999998</v>
+        <v>112696.37000000001</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6788,10 +6788,10 @@
         <v>598</v>
       </c>
       <c r="B360" t="s">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="C360">
-        <v>109900.39</v>
+        <v>109890.53000000001</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6799,32 +6799,32 @@
         <v>599</v>
       </c>
       <c r="B361" t="s">
-        <v>600</v>
+        <v>319</v>
       </c>
       <c r="C361">
-        <v>108933.42999999992</v>
+        <v>109698.79999999999</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
+        <v>600</v>
+      </c>
+      <c r="B362" t="s">
         <v>601</v>
       </c>
-      <c r="B362" t="s">
-        <v>602</v>
-      </c>
       <c r="C362">
-        <v>108104.71</v>
+        <v>108990.27000000003</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
+        <v>602</v>
+      </c>
+      <c r="B363" t="s">
         <v>603</v>
       </c>
-      <c r="B363" t="s">
-        <v>92</v>
-      </c>
       <c r="C363">
-        <v>106457.25</v>
+        <v>108035.22</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6832,21 +6832,21 @@
         <v>604</v>
       </c>
       <c r="B364" t="s">
-        <v>605</v>
+        <v>92</v>
       </c>
       <c r="C364">
-        <v>105777.08</v>
+        <v>106265.75</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
+        <v>605</v>
+      </c>
+      <c r="B365" t="s">
         <v>606</v>
       </c>
-      <c r="B365" t="s">
-        <v>543</v>
-      </c>
       <c r="C365">
-        <v>104931.56</v>
+        <v>105824.28</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6854,10 +6854,10 @@
         <v>607</v>
       </c>
       <c r="B366" t="s">
-        <v>422</v>
+        <v>544</v>
       </c>
       <c r="C366">
-        <v>103625.92</v>
+        <v>104959.47</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6865,10 +6865,10 @@
         <v>608</v>
       </c>
       <c r="B367" t="s">
-        <v>111</v>
+        <v>423</v>
       </c>
       <c r="C367">
-        <v>103578.54</v>
+        <v>103674.11999999998</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6876,10 +6876,10 @@
         <v>609</v>
       </c>
       <c r="B368" t="s">
-        <v>256</v>
+        <v>111</v>
       </c>
       <c r="C368">
-        <v>102432.12</v>
+        <v>103624.42</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6887,10 +6887,10 @@
         <v>610</v>
       </c>
       <c r="B369" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="C369">
-        <v>102013.39</v>
+        <v>102486.12999999999</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6898,10 +6898,10 @@
         <v>611</v>
       </c>
       <c r="B370" t="s">
-        <v>461</v>
+        <v>319</v>
       </c>
       <c r="C370">
-        <v>101864.68999999999</v>
+        <v>102028.42999999998</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6909,263 +6909,263 @@
         <v>612</v>
       </c>
       <c r="B371" t="s">
-        <v>613</v>
+        <v>462</v>
       </c>
       <c r="C371">
-        <v>100952.07</v>
+        <v>101677.21</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B372" t="s">
         <v>77</v>
       </c>
       <c r="C372">
-        <v>100537.96</v>
+        <v>100600.37</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B373" t="s">
         <v>73</v>
       </c>
       <c r="C373">
-        <v>100245.81</v>
+        <v>100294.22</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
+        <v>615</v>
+      </c>
+      <c r="B374" t="s">
         <v>616</v>
       </c>
-      <c r="B374" t="s">
-        <v>617</v>
-      </c>
       <c r="C374">
-        <v>100117.9</v>
+        <v>100162.48999999999</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
+        <v>617</v>
+      </c>
+      <c r="B375" t="s">
         <v>618</v>
       </c>
-      <c r="B375" t="s">
-        <v>619</v>
-      </c>
       <c r="C375">
-        <v>97368.909999999974</v>
+        <v>97398.360000000015</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B376" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C376">
-        <v>96723.16</v>
+        <v>96398.689999999988</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
+        <v>620</v>
+      </c>
+      <c r="B377" t="s">
         <v>621</v>
       </c>
-      <c r="B377" t="s">
-        <v>622</v>
-      </c>
       <c r="C377">
-        <v>93813.03</v>
+        <v>93858.25</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
+        <v>622</v>
+      </c>
+      <c r="B378" t="s">
         <v>623</v>
       </c>
-      <c r="B378" t="s">
-        <v>624</v>
-      </c>
       <c r="C378">
-        <v>90989.64</v>
+        <v>91030.64</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
+        <v>624</v>
+      </c>
+      <c r="B379" t="s">
         <v>625</v>
       </c>
-      <c r="B379" t="s">
-        <v>626</v>
-      </c>
       <c r="C379">
-        <v>89816.58</v>
+        <v>89847.86</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B380" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C380">
-        <v>89009.12999999999</v>
+        <v>88957.03</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B381" t="s">
         <v>61</v>
       </c>
       <c r="C381">
-        <v>88985.62</v>
+        <v>88933.64</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B382" t="s">
         <v>51</v>
       </c>
       <c r="C382">
-        <v>88907.89</v>
+        <v>88856.31</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B383" t="s">
-        <v>248</v>
+        <v>491</v>
       </c>
       <c r="C383">
-        <v>88490.010000000009</v>
+        <v>88303.890000000014</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B384" t="s">
-        <v>490</v>
+        <v>251</v>
       </c>
       <c r="C384">
-        <v>88265.590000000011</v>
+        <v>87839.61</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B385" t="s">
-        <v>300</v>
+        <v>104</v>
       </c>
       <c r="C385">
-        <v>87134.7</v>
+        <v>86752.42</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B386" t="s">
-        <v>104</v>
+        <v>301</v>
       </c>
       <c r="C386">
-        <v>86790.239999999991</v>
+        <v>86457.3</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B387" t="s">
         <v>61</v>
       </c>
       <c r="C387">
-        <v>86560.55</v>
+        <v>86432.24</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
+        <v>634</v>
+      </c>
+      <c r="B388" t="s">
         <v>635</v>
       </c>
-      <c r="B388" t="s">
-        <v>636</v>
-      </c>
       <c r="C388">
-        <v>83841.41</v>
+        <v>83879.709999999992</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
+        <v>636</v>
+      </c>
+      <c r="B389" t="s">
         <v>637</v>
       </c>
-      <c r="B389" t="s">
-        <v>638</v>
-      </c>
       <c r="C389">
-        <v>83392.58</v>
+        <v>82768.600000000006</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B390" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C390">
-        <v>82226.720000000016</v>
+        <v>82257.999999999971</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B391" t="s">
         <v>573</v>
       </c>
       <c r="C391">
-        <v>82020.650000000009</v>
+        <v>82059.03</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
+        <v>640</v>
+      </c>
+      <c r="B392" t="s">
         <v>641</v>
       </c>
-      <c r="B392" t="s">
-        <v>642</v>
-      </c>
       <c r="C392">
-        <v>79798.580000000016</v>
+        <v>79834.77</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
+        <v>642</v>
+      </c>
+      <c r="B393" t="s">
         <v>643</v>
       </c>
-      <c r="B393" t="s">
-        <v>644</v>
-      </c>
       <c r="C393">
-        <v>77992.19</v>
+        <v>78027.17</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
+        <v>644</v>
+      </c>
+      <c r="B394" t="s">
         <v>645</v>
       </c>
-      <c r="B394" t="s">
-        <v>436</v>
-      </c>
       <c r="C394">
-        <v>76356.179999999993</v>
+        <v>75848.440000000017</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7173,10 +7173,10 @@
         <v>646</v>
       </c>
       <c r="B395" t="s">
-        <v>507</v>
+        <v>437</v>
       </c>
       <c r="C395">
-        <v>75933.469999999987</v>
+        <v>75806.78</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7184,109 +7184,109 @@
         <v>647</v>
       </c>
       <c r="B396" t="s">
-        <v>648</v>
+        <v>508</v>
       </c>
       <c r="C396">
-        <v>75809.590000000011</v>
+        <v>75793.09</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B397" t="s">
         <v>73</v>
       </c>
       <c r="C397">
-        <v>75105.510000000009</v>
+        <v>75152.2</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
+        <v>649</v>
+      </c>
+      <c r="B398" t="s">
         <v>650</v>
       </c>
-      <c r="B398" t="s">
-        <v>651</v>
-      </c>
       <c r="C398">
-        <v>74987.61</v>
+        <v>75020.7</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
+        <v>651</v>
+      </c>
+      <c r="B399" t="s">
         <v>652</v>
       </c>
-      <c r="B399" t="s">
-        <v>653</v>
-      </c>
       <c r="C399">
-        <v>73279.38</v>
+        <v>73311.329999999987</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B400" t="s">
         <v>49</v>
       </c>
       <c r="C400">
-        <v>73080.259999999995</v>
+        <v>73101.460000000006</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B401" t="s">
         <v>22</v>
       </c>
       <c r="C401">
-        <v>72404.900000000009</v>
+        <v>72436.160000000003</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
+        <v>655</v>
+      </c>
+      <c r="B402" t="s">
         <v>656</v>
       </c>
-      <c r="B402" t="s">
-        <v>657</v>
-      </c>
       <c r="C402">
-        <v>72248.320000000007</v>
+        <v>72024.55</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B403" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C403">
-        <v>71762.37</v>
+        <v>71778.570000000007</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
+        <v>658</v>
+      </c>
+      <c r="B404" t="s">
         <v>659</v>
       </c>
-      <c r="B404" t="s">
-        <v>660</v>
-      </c>
       <c r="C404">
-        <v>69891.5</v>
+        <v>70794.759999999995</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
+        <v>660</v>
+      </c>
+      <c r="B405" t="s">
         <v>661</v>
       </c>
-      <c r="B405" t="s">
-        <v>273</v>
-      </c>
       <c r="C405">
-        <v>67764.740000000005</v>
+        <v>69780.5</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7294,21 +7294,21 @@
         <v>662</v>
       </c>
       <c r="B406" t="s">
-        <v>663</v>
+        <v>276</v>
       </c>
       <c r="C406">
-        <v>67635.290000000008</v>
+        <v>67732.260000000009</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
+        <v>663</v>
+      </c>
+      <c r="B407" t="s">
         <v>664</v>
       </c>
-      <c r="B407" t="s">
-        <v>332</v>
-      </c>
       <c r="C407">
-        <v>66713.27</v>
+        <v>67668.039999999994</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7316,10 +7316,10 @@
         <v>665</v>
       </c>
       <c r="B408" t="s">
-        <v>440</v>
+        <v>330</v>
       </c>
       <c r="C408">
-        <v>65161.02</v>
+        <v>66729.739999999991</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7327,21 +7327,21 @@
         <v>666</v>
       </c>
       <c r="B409" t="s">
-        <v>667</v>
+        <v>441</v>
       </c>
       <c r="C409">
-        <v>64478.35</v>
+        <v>65079.590000000004</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
+        <v>667</v>
+      </c>
+      <c r="B410" t="s">
         <v>668</v>
       </c>
-      <c r="B410" t="s">
-        <v>26</v>
-      </c>
       <c r="C410">
-        <v>64056.31</v>
+        <v>64505.58</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7349,43 +7349,43 @@
         <v>669</v>
       </c>
       <c r="B411" t="s">
-        <v>670</v>
+        <v>26</v>
       </c>
       <c r="C411">
-        <v>63824.04</v>
+        <v>64118.5</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
+        <v>670</v>
+      </c>
+      <c r="B412" t="s">
         <v>671</v>
       </c>
-      <c r="B412" t="s">
-        <v>672</v>
-      </c>
       <c r="C412">
-        <v>62374.429999999993</v>
+        <v>63851.700000000004</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
+        <v>672</v>
+      </c>
+      <c r="B413" t="s">
         <v>673</v>
       </c>
-      <c r="B413" t="s">
-        <v>674</v>
-      </c>
       <c r="C413">
-        <v>62159.74</v>
+        <v>62422.499999999993</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
+        <v>674</v>
+      </c>
+      <c r="B414" t="s">
         <v>675</v>
       </c>
-      <c r="B414" t="s">
-        <v>198</v>
-      </c>
       <c r="C414">
-        <v>62114.71</v>
+        <v>62189.16</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7393,10 +7393,10 @@
         <v>676</v>
       </c>
       <c r="B415" t="s">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="C415">
-        <v>60418.53</v>
+        <v>62142.270000000004</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7404,21 +7404,21 @@
         <v>677</v>
       </c>
       <c r="B416" t="s">
-        <v>678</v>
+        <v>51</v>
       </c>
       <c r="C416">
-        <v>59914</v>
+        <v>60330.240000000005</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
+        <v>678</v>
+      </c>
+      <c r="B417" t="s">
         <v>679</v>
       </c>
-      <c r="B417" t="s">
-        <v>215</v>
-      </c>
       <c r="C417">
-        <v>59818.97</v>
+        <v>59941.38</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7426,10 +7426,10 @@
         <v>680</v>
       </c>
       <c r="B418" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="C418">
-        <v>59791.110000000008</v>
+        <v>59759.34</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7440,7 +7440,7 @@
         <v>682</v>
       </c>
       <c r="C419">
-        <v>59589.380000000005</v>
+        <v>59618.700000000004</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7448,10 +7448,10 @@
         <v>683</v>
       </c>
       <c r="B420" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C420">
-        <v>58942.759999999987</v>
+        <v>59304.790000000008</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7459,10 +7459,10 @@
         <v>684</v>
       </c>
       <c r="B421" t="s">
-        <v>430</v>
+        <v>216</v>
       </c>
       <c r="C421">
-        <v>57339.4</v>
+        <v>58850.45</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7470,10 +7470,10 @@
         <v>685</v>
       </c>
       <c r="B422" t="s">
-        <v>61</v>
+        <v>431</v>
       </c>
       <c r="C422">
-        <v>56735.98</v>
+        <v>57361.630000000005</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7481,10 +7481,10 @@
         <v>686</v>
       </c>
       <c r="B423" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="C423">
-        <v>56630.19</v>
+        <v>56645.280000000006</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7492,10 +7492,10 @@
         <v>687</v>
       </c>
       <c r="B424" t="s">
-        <v>670</v>
+        <v>116</v>
       </c>
       <c r="C424">
-        <v>55667.399999999987</v>
+        <v>56192.1</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7503,10 +7503,10 @@
         <v>688</v>
       </c>
       <c r="B425" t="s">
-        <v>488</v>
+        <v>671</v>
       </c>
       <c r="C425">
-        <v>55549.48</v>
+        <v>55692.439999999988</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7514,10 +7514,10 @@
         <v>689</v>
       </c>
       <c r="B426" t="s">
-        <v>12</v>
+        <v>488</v>
       </c>
       <c r="C426">
-        <v>54964.7</v>
+        <v>55572.9</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7525,10 +7525,10 @@
         <v>690</v>
       </c>
       <c r="B427" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="C427">
-        <v>53466.359999999993</v>
+        <v>54845.439999999995</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7536,10 +7536,10 @@
         <v>691</v>
       </c>
       <c r="B428" t="s">
-        <v>350</v>
+        <v>143</v>
       </c>
       <c r="C428">
-        <v>53133.89</v>
+        <v>53490.080000000002</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7547,21 +7547,21 @@
         <v>692</v>
       </c>
       <c r="B429" t="s">
-        <v>693</v>
+        <v>351</v>
       </c>
       <c r="C429">
-        <v>52695.079999999994</v>
+        <v>52731.590000000004</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
+        <v>693</v>
+      </c>
+      <c r="B430" t="s">
         <v>694</v>
       </c>
-      <c r="B430" t="s">
-        <v>81</v>
-      </c>
       <c r="C430">
-        <v>51891.740000000005</v>
+        <v>52719.380000000005</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7569,10 +7569,10 @@
         <v>695</v>
       </c>
       <c r="B431" t="s">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="C431">
-        <v>51314.8</v>
+        <v>51873.18</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7580,10 +7580,10 @@
         <v>696</v>
       </c>
       <c r="B432" t="s">
-        <v>53</v>
+        <v>313</v>
       </c>
       <c r="C432">
-        <v>51083.320000000007</v>
+        <v>50918.319999999992</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7591,10 +7591,10 @@
         <v>697</v>
       </c>
       <c r="B433" t="s">
-        <v>573</v>
+        <v>53</v>
       </c>
       <c r="C433">
-        <v>50700.55</v>
+        <v>50397.670000000006</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7602,10 +7602,10 @@
         <v>698</v>
       </c>
       <c r="B434" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="C434">
-        <v>50378.78</v>
+        <v>50314.559999999998</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7613,10 +7613,10 @@
         <v>699</v>
       </c>
       <c r="B435" t="s">
-        <v>280</v>
+        <v>555</v>
       </c>
       <c r="C435">
-        <v>48934.619999999995</v>
+        <v>49995.53</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7624,10 +7624,10 @@
         <v>700</v>
       </c>
       <c r="B436" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C436">
-        <v>48401.429999999993</v>
+        <v>48425.54</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7635,10 +7635,10 @@
         <v>701</v>
       </c>
       <c r="B437" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="C437">
-        <v>48150.820000000007</v>
+        <v>48299.67</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7646,10 +7646,10 @@
         <v>702</v>
       </c>
       <c r="B438" t="s">
-        <v>543</v>
+        <v>245</v>
       </c>
       <c r="C438">
-        <v>47950.569999999992</v>
+        <v>48012.94</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7657,10 +7657,10 @@
         <v>703</v>
       </c>
       <c r="B439" t="s">
-        <v>352</v>
+        <v>544</v>
       </c>
       <c r="C439">
-        <v>47797.06</v>
+        <v>47872.31</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7668,10 +7668,10 @@
         <v>704</v>
       </c>
       <c r="B440" t="s">
-        <v>422</v>
+        <v>354</v>
       </c>
       <c r="C440">
-        <v>47004.350000000006</v>
+        <v>47455.78</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7679,21 +7679,21 @@
         <v>705</v>
       </c>
       <c r="B441" t="s">
-        <v>706</v>
+        <v>423</v>
       </c>
       <c r="C441">
-        <v>45646.87</v>
+        <v>46610.499999999993</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
+        <v>706</v>
+      </c>
+      <c r="B442" t="s">
         <v>707</v>
       </c>
-      <c r="B442" t="s">
-        <v>81</v>
-      </c>
       <c r="C442">
-        <v>42396.689999999995</v>
+        <v>45666.15</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7701,32 +7701,32 @@
         <v>708</v>
       </c>
       <c r="B443" t="s">
-        <v>709</v>
+        <v>81</v>
       </c>
       <c r="C443">
-        <v>42081.5</v>
+        <v>42317.689999999995</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
+        <v>709</v>
+      </c>
+      <c r="B444" t="s">
         <v>710</v>
       </c>
-      <c r="B444" t="s">
-        <v>711</v>
-      </c>
       <c r="C444">
-        <v>41360.710000000006</v>
+        <v>42099.789999999994</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
+        <v>711</v>
+      </c>
+      <c r="B445" t="s">
         <v>712</v>
       </c>
-      <c r="B445" t="s">
-        <v>133</v>
-      </c>
       <c r="C445">
-        <v>41118.369999999995</v>
+        <v>41294.110000000008</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7734,10 +7734,10 @@
         <v>713</v>
       </c>
       <c r="B446" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C446">
-        <v>40489.53</v>
+        <v>41137.410000000003</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7745,43 +7745,43 @@
         <v>714</v>
       </c>
       <c r="B447" t="s">
-        <v>715</v>
+        <v>63</v>
       </c>
       <c r="C447">
-        <v>39754.430000000008</v>
+        <v>40508.060000000005</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
+        <v>715</v>
+      </c>
+      <c r="B448" t="s">
         <v>716</v>
       </c>
-      <c r="B448" t="s">
-        <v>717</v>
-      </c>
       <c r="C448">
-        <v>39322.869999999995</v>
+        <v>39770.580000000009</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
+        <v>717</v>
+      </c>
+      <c r="B449" t="s">
         <v>718</v>
       </c>
-      <c r="B449" t="s">
-        <v>719</v>
-      </c>
       <c r="C449">
-        <v>36396.999999999993</v>
+        <v>39340.520000000004</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" t="s">
+        <v>719</v>
+      </c>
+      <c r="B450" t="s">
         <v>720</v>
       </c>
-      <c r="B450" t="s">
-        <v>406</v>
-      </c>
       <c r="C450">
-        <v>35822.75</v>
+        <v>36413.339999999997</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7789,10 +7789,10 @@
         <v>721</v>
       </c>
       <c r="B451" t="s">
-        <v>51</v>
+        <v>409</v>
       </c>
       <c r="C451">
-        <v>35135.47</v>
+        <v>35790.92</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7800,10 +7800,10 @@
         <v>722</v>
       </c>
       <c r="B452" t="s">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="C452">
-        <v>34745.1</v>
+        <v>34944.150000000009</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7814,7 +7814,7 @@
         <v>724</v>
       </c>
       <c r="C453">
-        <v>34511.760000000002</v>
+        <v>34527.649999999994</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7825,7 +7825,7 @@
         <v>726</v>
       </c>
       <c r="C454">
-        <v>34165.96</v>
+        <v>34180.100000000006</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7833,43 +7833,43 @@
         <v>727</v>
       </c>
       <c r="B455" t="s">
-        <v>728</v>
+        <v>673</v>
       </c>
       <c r="C455">
-        <v>33405.79</v>
+        <v>33288.68</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B456" t="s">
-        <v>672</v>
+        <v>39</v>
       </c>
       <c r="C456">
-        <v>33273.689999999995</v>
+        <v>31788.97</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B457" t="s">
-        <v>39</v>
+        <v>508</v>
       </c>
       <c r="C457">
-        <v>31774.06</v>
+        <v>30734.28</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" t="s">
+        <v>730</v>
+      </c>
+      <c r="B458" t="s">
         <v>731</v>
       </c>
-      <c r="B458" t="s">
-        <v>507</v>
-      </c>
       <c r="C458">
-        <v>30718.579999999998</v>
+        <v>28412.01</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7877,43 +7877,43 @@
         <v>732</v>
       </c>
       <c r="B459" t="s">
-        <v>733</v>
+        <v>488</v>
       </c>
       <c r="C459">
-        <v>28449.130000000005</v>
+        <v>28042.620000000003</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B460" t="s">
-        <v>488</v>
+        <v>415</v>
       </c>
       <c r="C460">
-        <v>28395.279999999999</v>
+        <v>27961.49</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B461" t="s">
-        <v>414</v>
+        <v>199</v>
       </c>
       <c r="C461">
-        <v>27948.470000000005</v>
+        <v>26097.15</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
+        <v>735</v>
+      </c>
+      <c r="B462" t="s">
         <v>736</v>
       </c>
-      <c r="B462" t="s">
-        <v>198</v>
-      </c>
       <c r="C462">
-        <v>26085.85</v>
+        <v>25394.82</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7924,7 +7924,7 @@
         <v>738</v>
       </c>
       <c r="C463">
-        <v>25383.200000000001</v>
+        <v>23256.29</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7932,10 +7932,10 @@
         <v>739</v>
       </c>
       <c r="B464" t="s">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="C464">
-        <v>25000</v>
+        <v>21010.210000000003</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7943,76 +7943,76 @@
         <v>740</v>
       </c>
       <c r="B465" t="s">
-        <v>741</v>
+        <v>225</v>
       </c>
       <c r="C465">
-        <v>23261.260000000002</v>
+        <v>20683.62</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B466" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="C466">
-        <v>21001.32</v>
+        <v>20255.010000000002</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B467" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C467">
-        <v>20246.329999999998</v>
+        <v>17246.88</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B468" t="s">
-        <v>41</v>
+        <v>344</v>
       </c>
       <c r="C468">
-        <v>17239.14</v>
+        <v>16300.800000000003</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B469" t="s">
-        <v>343</v>
+        <v>216</v>
       </c>
       <c r="C469">
-        <v>16420.02</v>
+        <v>16213.31</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B470" t="s">
-        <v>215</v>
+        <v>405</v>
       </c>
       <c r="C470">
-        <v>16206.06</v>
+        <v>14503.55</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" t="s">
+        <v>746</v>
+      </c>
+      <c r="B471" t="s">
         <v>747</v>
       </c>
-      <c r="B471" t="s">
-        <v>409</v>
-      </c>
       <c r="C471">
-        <v>14495.289999999999</v>
+        <v>14106.19</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -8023,7 +8023,7 @@
         <v>749</v>
       </c>
       <c r="C472">
-        <v>14099.9</v>
+        <v>13945.039999999999</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8034,7 +8034,7 @@
         <v>751</v>
       </c>
       <c r="C473">
-        <v>13938.87</v>
+        <v>13458.22</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8042,43 +8042,43 @@
         <v>752</v>
       </c>
       <c r="B474" t="s">
-        <v>753</v>
+        <v>344</v>
       </c>
       <c r="C474">
-        <v>13452.24</v>
+        <v>12935.640000000001</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B475" t="s">
         <v>6</v>
       </c>
       <c r="C475">
-        <v>12964.960000000001</v>
+        <v>12864.08</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B476" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="C476">
-        <v>12929.85</v>
+        <v>11766.539999999999</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" t="s">
+        <v>755</v>
+      </c>
+      <c r="B477" t="s">
         <v>756</v>
       </c>
-      <c r="B477" t="s">
-        <v>312</v>
-      </c>
       <c r="C477">
-        <v>11761.36</v>
+        <v>11301.17</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8089,7 +8089,7 @@
         <v>758</v>
       </c>
       <c r="C478">
-        <v>11296.21</v>
+        <v>10510.31</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8097,32 +8097,32 @@
         <v>759</v>
       </c>
       <c r="B479" t="s">
-        <v>760</v>
+        <v>421</v>
       </c>
       <c r="C479">
-        <v>10505.72</v>
+        <v>10124.790000000001</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B480" t="s">
-        <v>420</v>
+        <v>8</v>
       </c>
       <c r="C480">
-        <v>10120.51</v>
+        <v>9981.0300000000007</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
+        <v>761</v>
+      </c>
+      <c r="B481" t="s">
         <v>762</v>
       </c>
-      <c r="B481" t="s">
-        <v>8</v>
-      </c>
       <c r="C481">
-        <v>9976.6200000000008</v>
+        <v>9244.09</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -8130,32 +8130,32 @@
         <v>763</v>
       </c>
       <c r="B482" t="s">
-        <v>764</v>
+        <v>199</v>
       </c>
       <c r="C482">
-        <v>9240.07</v>
+        <v>8872.25</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B483" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C483">
-        <v>8867.5099999999984</v>
+        <v>7967.5599999999995</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
+        <v>765</v>
+      </c>
+      <c r="B484" t="s">
         <v>766</v>
       </c>
-      <c r="B484" t="s">
-        <v>206</v>
-      </c>
       <c r="C484">
-        <v>7952.6399999999994</v>
+        <v>7151.48</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -8166,7 +8166,7 @@
         <v>768</v>
       </c>
       <c r="C485">
-        <v>7148.91</v>
+        <v>6794.6799999999994</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -8174,32 +8174,32 @@
         <v>769</v>
       </c>
       <c r="B486" t="s">
-        <v>770</v>
+        <v>197</v>
       </c>
       <c r="C486">
-        <v>6791.76</v>
+        <v>5313.82</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B487" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="C487">
-        <v>5358.5499999999993</v>
+        <v>4683.4400000000005</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
+        <v>771</v>
+      </c>
+      <c r="B488" t="s">
         <v>772</v>
       </c>
-      <c r="B488" t="s">
-        <v>73</v>
-      </c>
       <c r="C488">
-        <v>4681.4400000000005</v>
+        <v>4644.76</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -8210,7 +8210,7 @@
         <v>774</v>
       </c>
       <c r="C489">
-        <v>4642.92</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -8218,21 +8218,21 @@
         <v>775</v>
       </c>
       <c r="B490" t="s">
-        <v>273</v>
+        <v>776</v>
       </c>
       <c r="C490">
-        <v>2764.97</v>
+        <v>1517.79</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B491" t="s">
-        <v>777</v>
+        <v>33</v>
       </c>
       <c r="C491">
-        <v>2300</v>
+        <v>1432.2</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -8240,21 +8240,21 @@
         <v>778</v>
       </c>
       <c r="B492" t="s">
-        <v>779</v>
+        <v>53</v>
       </c>
       <c r="C492">
-        <v>1517.11</v>
+        <v>1354.92</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
+        <v>779</v>
+      </c>
+      <c r="B493" t="s">
         <v>780</v>
       </c>
-      <c r="B493" t="s">
-        <v>33</v>
-      </c>
       <c r="C493">
-        <v>1431.6</v>
+        <v>1103.0999999999999</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -8262,10 +8262,10 @@
         <v>781</v>
       </c>
       <c r="B494" t="s">
-        <v>53</v>
+        <v>396</v>
       </c>
       <c r="C494">
-        <v>1355.2800000000002</v>
+        <v>1088.48</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -8273,32 +8273,32 @@
         <v>782</v>
       </c>
       <c r="B495" t="s">
-        <v>783</v>
+        <v>586</v>
       </c>
       <c r="C495">
-        <v>1102.5999999999999</v>
+        <v>745.99</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B496" t="s">
-        <v>395</v>
+        <v>22</v>
       </c>
       <c r="C496">
-        <v>1087.99</v>
+        <v>501.70000000000005</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
+        <v>784</v>
+      </c>
+      <c r="B497" t="s">
         <v>785</v>
       </c>
-      <c r="B497" t="s">
-        <v>585</v>
-      </c>
       <c r="C497">
-        <v>745.71</v>
+        <v>435.68</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -8306,10 +8306,10 @@
         <v>786</v>
       </c>
       <c r="B498" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="C498">
-        <v>506.16999999999996</v>
+        <v>279.23</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -8317,76 +8317,76 @@
         <v>787</v>
       </c>
       <c r="B499" t="s">
-        <v>788</v>
+        <v>195</v>
       </c>
       <c r="C499">
-        <v>435.68</v>
+        <v>150</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B500" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="C500">
-        <v>279.10000000000002</v>
+        <v>150</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B501" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="C501">
-        <v>150</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B502" t="s">
-        <v>194</v>
+        <v>441</v>
       </c>
       <c r="C502">
-        <v>150</v>
+        <v>50.26</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B503" t="s">
-        <v>267</v>
+        <v>562</v>
       </c>
       <c r="C503">
-        <v>86.38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B504" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C504">
-        <v>50.26</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="s">
+        <v>793</v>
+      </c>
+      <c r="B505" t="s">
         <v>794</v>
       </c>
-      <c r="B505" t="s">
-        <v>561</v>
-      </c>
       <c r="C505">
-        <v>50</v>
+        <v>29.770000000000003</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -8394,21 +8394,21 @@
         <v>795</v>
       </c>
       <c r="B506" t="s">
-        <v>430</v>
+        <v>796</v>
       </c>
       <c r="C506">
-        <v>33.049999999999997</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B507" t="s">
-        <v>797</v>
+        <v>22</v>
       </c>
       <c r="C507">
-        <v>29.77</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8416,21 +8416,21 @@
         <v>798</v>
       </c>
       <c r="B508" t="s">
-        <v>799</v>
+        <v>276</v>
       </c>
       <c r="C508">
-        <v>21.27</v>
+        <v>18.32</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" t="s">
+        <v>799</v>
+      </c>
+      <c r="B509" t="s">
         <v>800</v>
       </c>
-      <c r="B509" t="s">
-        <v>22</v>
-      </c>
       <c r="C509">
-        <v>19.079999999999998</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8441,7 +8441,7 @@
         <v>802</v>
       </c>
       <c r="C510">
-        <v>17.86</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -8452,7 +8452,7 @@
         <v>804</v>
       </c>
       <c r="C511">
-        <v>14.67</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8460,21 +8460,21 @@
         <v>805</v>
       </c>
       <c r="B512" t="s">
-        <v>806</v>
+        <v>268</v>
       </c>
       <c r="C512">
-        <v>9.7200000000000006</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" t="s">
+        <v>806</v>
+      </c>
+      <c r="B513" t="s">
         <v>807</v>
       </c>
-      <c r="B513" t="s">
-        <v>267</v>
-      </c>
       <c r="C513">
-        <v>5.55</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -8482,18 +8482,18 @@
         <v>808</v>
       </c>
       <c r="B514" t="s">
-        <v>809</v>
+        <v>41</v>
       </c>
       <c r="C514">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" t="s">
+        <v>809</v>
+      </c>
+      <c r="B515" t="s">
         <v>810</v>
-      </c>
-      <c r="B515" t="s">
-        <v>41</v>
       </c>
       <c r="C515">
         <v>0.01</v>
@@ -8507,7 +8507,7 @@
         <v>812</v>
       </c>
       <c r="C516">
-        <v>0.01</v>
+        <v>-15.180000000000291</v>
       </c>
     </row>
     <row r="518" spans="1:3">

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{436BA48F-8B26-45F6-A46B-15373BA1240B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56DCB9A7-53D0-4174-BD61-810E19ACCE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -331,6 +331,9 @@
     <t>HELIO</t>
   </si>
   <si>
+    <t>004254210</t>
+  </si>
+  <si>
     <t>004387250</t>
   </si>
   <si>
@@ -340,9 +343,6 @@
     <t>004395314</t>
   </si>
   <si>
-    <t>004254210</t>
-  </si>
-  <si>
     <t>004415557</t>
   </si>
   <si>
@@ -397,15 +397,15 @@
     <t>VANESSA</t>
   </si>
   <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
     <t>004461070</t>
   </si>
   <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
     <t>004940560</t>
   </si>
   <si>
@@ -448,48 +448,48 @@
     <t>JORGE</t>
   </si>
   <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>004482439</t>
+  </si>
+  <si>
+    <t>004915243</t>
+  </si>
+  <si>
+    <t>POLO</t>
+  </si>
+  <si>
+    <t>004526450</t>
+  </si>
+  <si>
+    <t>MSD</t>
+  </si>
+  <si>
+    <t>004996634</t>
+  </si>
+  <si>
+    <t>HIROKO</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004855073</t>
+  </si>
+  <si>
+    <t>ELSI</t>
+  </si>
+  <si>
     <t>004224284</t>
   </si>
   <si>
     <t>PRISCILLA</t>
   </si>
   <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>004482439</t>
-  </si>
-  <si>
-    <t>004915243</t>
-  </si>
-  <si>
-    <t>POLO</t>
-  </si>
-  <si>
-    <t>004996634</t>
-  </si>
-  <si>
-    <t>HIROKO</t>
-  </si>
-  <si>
-    <t>004526450</t>
-  </si>
-  <si>
-    <t>MSD</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004855073</t>
-  </si>
-  <si>
-    <t>ELSI</t>
-  </si>
-  <si>
     <t>004321016</t>
   </si>
   <si>
@@ -520,6 +520,9 @@
     <t>REINALDO</t>
   </si>
   <si>
+    <t>005198093</t>
+  </si>
+  <si>
     <t>004853901</t>
   </si>
   <si>
@@ -556,12 +559,12 @@
     <t>WANDER</t>
   </si>
   <si>
+    <t>004890544</t>
+  </si>
+  <si>
     <t>004639776</t>
   </si>
   <si>
-    <t>004890544</t>
-  </si>
-  <si>
     <t>005190138</t>
   </si>
   <si>
@@ -592,9 +595,6 @@
     <t>004363260</t>
   </si>
   <si>
-    <t>005198093</t>
-  </si>
-  <si>
     <t>004479463</t>
   </si>
   <si>
@@ -700,6 +700,9 @@
     <t>RENATA</t>
   </si>
   <si>
+    <t>004335144</t>
+  </si>
+  <si>
     <t>004364200</t>
   </si>
   <si>
@@ -709,9 +712,6 @@
     <t>004515341</t>
   </si>
   <si>
-    <t>004335144</t>
-  </si>
-  <si>
     <t>004207374</t>
   </si>
   <si>
@@ -727,31 +727,37 @@
     <t>ALBERTO</t>
   </si>
   <si>
+    <t>004355790</t>
+  </si>
+  <si>
+    <t>MINEIA</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004458624</t>
+  </si>
+  <si>
     <t>004452476</t>
   </si>
   <si>
     <t>IVONE</t>
   </si>
   <si>
-    <t>004355790</t>
-  </si>
-  <si>
-    <t>MINEIA</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004458624</t>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
   </si>
   <si>
     <t>000626491</t>
@@ -760,10 +766,10 @@
     <t>FELIPE</t>
   </si>
   <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
   </si>
   <si>
     <t>004380749</t>
@@ -772,12 +778,6 @@
     <t>ELEUSE</t>
   </si>
   <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
     <t>004459875</t>
   </si>
   <si>
@@ -886,15 +886,15 @@
     <t>004956636</t>
   </si>
   <si>
+    <t>004811224</t>
+  </si>
+  <si>
     <t>004315417</t>
   </si>
   <si>
     <t>SISSI</t>
   </si>
   <si>
-    <t>004811224</t>
-  </si>
-  <si>
     <t>004404248</t>
   </si>
   <si>
@@ -991,22 +991,25 @@
     <t>004565108</t>
   </si>
   <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
     <t>002694089</t>
   </si>
   <si>
     <t>VITOR</t>
   </si>
   <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
+    <t>004435987</t>
   </si>
   <si>
     <t>004805133</t>
@@ -1015,9 +1018,6 @@
     <t>PATRICIA</t>
   </si>
   <si>
-    <t>004435987</t>
-  </si>
-  <si>
     <t>004376145</t>
   </si>
   <si>
@@ -1060,6 +1060,12 @@
     <t>004268684</t>
   </si>
   <si>
+    <t>004827315</t>
+  </si>
+  <si>
+    <t>GILTON</t>
+  </si>
+  <si>
     <t>004206790</t>
   </si>
   <si>
@@ -1078,15 +1084,15 @@
     <t>CATARINE</t>
   </si>
   <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
     <t>005135532</t>
   </si>
   <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
     <t>004482090</t>
   </si>
   <si>
@@ -1186,27 +1192,27 @@
     <t>004945161</t>
   </si>
   <si>
+    <t>004870976</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>004999410</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
     <t>004550605</t>
   </si>
   <si>
     <t>REJANE</t>
   </si>
   <si>
-    <t>004870976</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>004999410</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
     <t>004493324</t>
   </si>
   <si>
@@ -1312,18 +1318,18 @@
     <t>ASSISTIGAS</t>
   </si>
   <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
     <t>004520100</t>
   </si>
   <si>
     <t>ALEXANDRE</t>
   </si>
   <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
     <t>004806286</t>
   </si>
   <si>
@@ -1381,18 +1387,18 @@
     <t>005105970</t>
   </si>
   <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
     <t>004908680</t>
   </si>
   <si>
     <t>ELENE</t>
   </si>
   <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
     <t>005141215</t>
   </si>
   <si>
@@ -1456,15 +1462,15 @@
     <t>004216657</t>
   </si>
   <si>
+    <t>004462930</t>
+  </si>
+  <si>
     <t>005007114</t>
   </si>
   <si>
     <t>STELLA</t>
   </si>
   <si>
-    <t>004462930</t>
-  </si>
-  <si>
     <t>004212409</t>
   </si>
   <si>
@@ -1483,15 +1489,15 @@
     <t>004259650</t>
   </si>
   <si>
+    <t>004436055</t>
+  </si>
+  <si>
     <t>000827730</t>
   </si>
   <si>
     <t>LUCIANA</t>
   </si>
   <si>
-    <t>004436055</t>
-  </si>
-  <si>
     <t>004202332</t>
   </si>
   <si>
@@ -1567,195 +1573,195 @@
     <t>THAYSA</t>
   </si>
   <si>
+    <t>004570632</t>
+  </si>
+  <si>
     <t>004465263</t>
   </si>
   <si>
     <t>CLAUDIO</t>
   </si>
   <si>
-    <t>004570632</t>
-  </si>
-  <si>
     <t>004475395</t>
   </si>
   <si>
     <t>DAVID</t>
   </si>
   <si>
+    <t>005142661</t>
+  </si>
+  <si>
+    <t>SABRINA</t>
+  </si>
+  <si>
+    <t>004421636</t>
+  </si>
+  <si>
+    <t>004467884</t>
+  </si>
+  <si>
+    <t>004886366</t>
+  </si>
+  <si>
+    <t>005165116</t>
+  </si>
+  <si>
+    <t>004267119</t>
+  </si>
+  <si>
+    <t>004335031</t>
+  </si>
+  <si>
+    <t>004511696</t>
+  </si>
+  <si>
+    <t>KRYSCIA</t>
+  </si>
+  <si>
+    <t>004224815</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004981655</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>002786022</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>004920447</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>004936634</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>005076418</t>
+  </si>
+  <si>
+    <t>001879977</t>
+  </si>
+  <si>
+    <t>THAISSA</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004334158</t>
+  </si>
+  <si>
+    <t>LEONE</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>001922009</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
+  </si>
+  <si>
+    <t>004471893</t>
+  </si>
+  <si>
+    <t>PAULA</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>004382902</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004467016</t>
+  </si>
+  <si>
+    <t>ISABEL</t>
+  </si>
+  <si>
+    <t>004480970</t>
+  </si>
+  <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>004486497</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>004479965</t>
+  </si>
+  <si>
+    <t>005024046</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
     <t>004587511</t>
   </si>
   <si>
-    <t>005142661</t>
-  </si>
-  <si>
-    <t>SABRINA</t>
-  </si>
-  <si>
-    <t>004421636</t>
-  </si>
-  <si>
-    <t>004467884</t>
-  </si>
-  <si>
-    <t>004886366</t>
-  </si>
-  <si>
-    <t>005165116</t>
-  </si>
-  <si>
-    <t>004267119</t>
-  </si>
-  <si>
-    <t>004335031</t>
-  </si>
-  <si>
-    <t>004511696</t>
-  </si>
-  <si>
-    <t>KRYSCIA</t>
-  </si>
-  <si>
-    <t>004224815</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004981655</t>
-  </si>
-  <si>
-    <t>WILLIAM</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>002786022</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>004920447</t>
-  </si>
-  <si>
-    <t>MARILIA</t>
-  </si>
-  <si>
-    <t>004936634</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>005076418</t>
-  </si>
-  <si>
-    <t>001879977</t>
-  </si>
-  <si>
-    <t>THAISSA</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004334158</t>
-  </si>
-  <si>
-    <t>LEONE</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>001922009</t>
-  </si>
-  <si>
-    <t>SOFIA</t>
-  </si>
-  <si>
-    <t>004471893</t>
-  </si>
-  <si>
-    <t>PAULA</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>004382902</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004467016</t>
-  </si>
-  <si>
-    <t>ISABEL</t>
-  </si>
-  <si>
-    <t>004480970</t>
-  </si>
-  <si>
-    <t>005055226</t>
-  </si>
-  <si>
-    <t>004486497</t>
-  </si>
-  <si>
-    <t>ELENA</t>
-  </si>
-  <si>
-    <t>004479965</t>
-  </si>
-  <si>
-    <t>005024046</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
     <t>004357848</t>
   </si>
   <si>
@@ -1777,24 +1783,24 @@
     <t>004498637</t>
   </si>
   <si>
+    <t>004547722</t>
+  </si>
+  <si>
+    <t>004458604</t>
+  </si>
+  <si>
+    <t>FABIOLA</t>
+  </si>
+  <si>
+    <t>005169333</t>
+  </si>
+  <si>
     <t>002828327</t>
   </si>
   <si>
     <t>RENAN</t>
   </si>
   <si>
-    <t>004547722</t>
-  </si>
-  <si>
-    <t>004458604</t>
-  </si>
-  <si>
-    <t>FABIOLA</t>
-  </si>
-  <si>
-    <t>005169333</t>
-  </si>
-  <si>
     <t>004420763</t>
   </si>
   <si>
@@ -1822,12 +1828,6 @@
     <t>004452790</t>
   </si>
   <si>
-    <t>004827315</t>
-  </si>
-  <si>
-    <t>GILTON</t>
-  </si>
-  <si>
     <t>001759765</t>
   </si>
   <si>
@@ -1954,27 +1954,27 @@
     <t>JULIA</t>
   </si>
   <si>
+    <t>004767746</t>
+  </si>
+  <si>
     <t>004242237</t>
   </si>
   <si>
     <t>MARIAH</t>
   </si>
   <si>
-    <t>004767746</t>
-  </si>
-  <si>
     <t>004462543</t>
   </si>
   <si>
+    <t>001761119</t>
+  </si>
+  <si>
+    <t>BLUEMETRIX</t>
+  </si>
+  <si>
     <t>005009922</t>
   </si>
   <si>
-    <t>001761119</t>
-  </si>
-  <si>
-    <t>BLUEMETRIX</t>
-  </si>
-  <si>
     <t>004994036</t>
   </si>
   <si>
@@ -2092,93 +2092,93 @@
     <t>004432455</t>
   </si>
   <si>
+    <t>004497825</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004752494</t>
+  </si>
+  <si>
+    <t>004749928</t>
+  </si>
+  <si>
+    <t>004259659</t>
+  </si>
+  <si>
+    <t>004508159</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>005140667</t>
+  </si>
+  <si>
+    <t>004752519</t>
+  </si>
+  <si>
+    <t>004215217</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
     <t>004277637</t>
   </si>
   <si>
-    <t>004497825</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004752494</t>
-  </si>
-  <si>
-    <t>004749928</t>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>004426743</t>
+  </si>
+  <si>
+    <t>GABRIELLE</t>
+  </si>
+  <si>
+    <t>004369172</t>
+  </si>
+  <si>
+    <t>LUIZA</t>
+  </si>
+  <si>
+    <t>005018038</t>
+  </si>
+  <si>
+    <t>005133039</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>003497496</t>
+  </si>
+  <si>
+    <t>ELISANDRA</t>
   </si>
   <si>
     <t>004479734</t>
   </si>
   <si>
-    <t>004259659</t>
-  </si>
-  <si>
-    <t>004508159</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>005140667</t>
-  </si>
-  <si>
-    <t>004752519</t>
-  </si>
-  <si>
-    <t>004215217</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>004426743</t>
-  </si>
-  <si>
-    <t>GABRIELLE</t>
-  </si>
-  <si>
-    <t>004369172</t>
-  </si>
-  <si>
-    <t>LUIZA</t>
-  </si>
-  <si>
-    <t>005018038</t>
-  </si>
-  <si>
-    <t>005133039</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>003497496</t>
-  </si>
-  <si>
-    <t>ELISANDRA</t>
-  </si>
-  <si>
     <t>004229526</t>
   </si>
   <si>
@@ -2332,6 +2332,12 @@
     <t>004264780</t>
   </si>
   <si>
+    <t>005070742</t>
+  </si>
+  <si>
+    <t>JUSCELINO</t>
+  </si>
+  <si>
     <t>000989247</t>
   </si>
   <si>
@@ -2453,12 +2459,6 @@
   </si>
   <si>
     <t>VILMA</t>
-  </si>
-  <si>
-    <t>004388490</t>
-  </si>
-  <si>
-    <t>CAMILLA</t>
   </si>
   <si>
     <t>Filtros aplicados: 
@@ -2828,9 +2828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C518"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2853,7 +2851,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>16333811.680000005</v>
+        <v>16342445.470000001</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2864,7 +2862,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>8208434.5399999991</v>
+        <v>8210921.3699999982</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2875,7 +2873,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7237812.54</v>
+        <v>7252654.209999999</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2886,7 +2884,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6185379.2700000005</v>
+        <v>6185260.3799999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2897,7 +2895,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>5710539.0000000019</v>
+        <v>5722521.9000000004</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2908,7 +2906,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>4630085.9899999993</v>
+        <v>4600950.4700000016</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2919,7 +2917,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>4316290.3500000006</v>
+        <v>4316383.5599999996</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2930,7 +2928,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>4248372.8600000003</v>
+        <v>4251151.2300000004</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2941,7 +2939,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>4229845.72</v>
+        <v>4225093.72</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2952,7 +2950,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>4209775.18</v>
+        <v>4212765.25</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2963,7 +2961,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>3958632.9199999995</v>
+        <v>3962201.6399999997</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2974,7 +2972,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>3734272.95</v>
+        <v>3738211.6699999995</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2985,7 +2983,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>3733163.8899999997</v>
+        <v>3734756.78</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2996,7 +2994,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>3572534.32</v>
+        <v>3574809.2399999993</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3007,7 +3005,7 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>3397611.4200000009</v>
+        <v>3399661.9699999997</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3018,7 +3016,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>3296098.89</v>
+        <v>3296920.82</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3029,7 +3027,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>3182402.4499999993</v>
+        <v>3183835.7300000004</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3040,7 +3038,7 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3090889.54</v>
+        <v>3092265.9099999997</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3051,7 +3049,7 @@
         <v>39</v>
       </c>
       <c r="C20">
-        <v>3025467.35</v>
+        <v>3026898.6399999997</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3062,7 +3060,7 @@
         <v>41</v>
       </c>
       <c r="C21">
-        <v>2942359.9400000004</v>
+        <v>2945698.6499999994</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3073,7 +3071,7 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>2805483.9600000004</v>
+        <v>2806709.59</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3084,7 +3082,7 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>2790139.39</v>
+        <v>2790803.5900000003</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3095,7 +3093,7 @@
         <v>47</v>
       </c>
       <c r="C24">
-        <v>2735232.94</v>
+        <v>2736400.37</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3106,7 +3104,7 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>2663336.58</v>
+        <v>2664937.0499999998</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3117,7 +3115,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <v>2519685.0400000005</v>
+        <v>2520947.34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3128,7 +3126,7 @@
         <v>53</v>
       </c>
       <c r="C27">
-        <v>2383007.7599999998</v>
+        <v>2385000.8200000003</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3139,7 +3137,7 @@
         <v>55</v>
       </c>
       <c r="C28">
-        <v>2288799.9700000002</v>
+        <v>2289868.62</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3150,7 +3148,7 @@
         <v>57</v>
       </c>
       <c r="C29">
-        <v>2206195.0900000003</v>
+        <v>2207110.6700000004</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3161,7 +3159,7 @@
         <v>59</v>
       </c>
       <c r="C30">
-        <v>2204307.5300000003</v>
+        <v>2205307.46</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3172,7 +3170,7 @@
         <v>61</v>
       </c>
       <c r="C31">
-        <v>2102171.92</v>
+        <v>2103855.44</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3183,7 +3181,7 @@
         <v>63</v>
       </c>
       <c r="C32">
-        <v>2049412.1</v>
+        <v>2048789.6099999999</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3194,7 +3192,7 @@
         <v>39</v>
       </c>
       <c r="C33">
-        <v>2040583.89</v>
+        <v>2041284.64</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3205,7 +3203,7 @@
         <v>66</v>
       </c>
       <c r="C34">
-        <v>1963868.4499999997</v>
+        <v>1965489.2799999998</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3216,7 +3214,7 @@
         <v>68</v>
       </c>
       <c r="C35">
-        <v>1947587.4199999997</v>
+        <v>1948254.2600000002</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3227,7 +3225,7 @@
         <v>70</v>
       </c>
       <c r="C36">
-        <v>1859707.56</v>
+        <v>1860942.5300000003</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3238,7 +3236,7 @@
         <v>22</v>
       </c>
       <c r="C37">
-        <v>1844826.7900000003</v>
+        <v>1846116.5300000003</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3249,7 +3247,7 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>1821182.85</v>
+        <v>1821997.79</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3260,7 +3258,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>1817250.5100000002</v>
+        <v>1817742.1499999994</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3271,7 +3269,7 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>1804775.4200000002</v>
+        <v>1805589.1000000006</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3282,7 +3280,7 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <v>1765753.4000000001</v>
+        <v>1766577.47</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3293,7 +3291,7 @@
         <v>81</v>
       </c>
       <c r="C42">
-        <v>1605068.7</v>
+        <v>1604601.0899999999</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3304,7 +3302,7 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>1583045.5799999998</v>
+        <v>1584467.41</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3315,7 +3313,7 @@
         <v>85</v>
       </c>
       <c r="C44">
-        <v>1516256.17</v>
+        <v>1518144.09</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3326,7 +3324,7 @@
         <v>79</v>
       </c>
       <c r="C45">
-        <v>1477691.6</v>
+        <v>1478333.0499999998</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3337,7 +3335,7 @@
         <v>88</v>
       </c>
       <c r="C46">
-        <v>1436744.08</v>
+        <v>1437521</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3348,7 +3346,7 @@
         <v>90</v>
       </c>
       <c r="C47">
-        <v>1400325.2000000002</v>
+        <v>1402055.37</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3359,7 +3357,7 @@
         <v>92</v>
       </c>
       <c r="C48">
-        <v>1383829.15</v>
+        <v>1384433.75</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3370,7 +3368,7 @@
         <v>94</v>
       </c>
       <c r="C49">
-        <v>1365429.1700000002</v>
+        <v>1366253.0199999996</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3381,7 +3379,7 @@
         <v>96</v>
       </c>
       <c r="C50">
-        <v>1364765.2400000002</v>
+        <v>1361903.97</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3392,7 +3390,7 @@
         <v>98</v>
       </c>
       <c r="C51">
-        <v>1343052.4100000001</v>
+        <v>1344711.03</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3403,7 +3401,7 @@
         <v>100</v>
       </c>
       <c r="C52">
-        <v>1333564.4500000002</v>
+        <v>1334229.9600000002</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3414,7 +3412,7 @@
         <v>102</v>
       </c>
       <c r="C53">
-        <v>1311979.7199999997</v>
+        <v>1313071.7600000002</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3422,21 +3420,21 @@
         <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C54">
-        <v>1276103.1999999995</v>
+        <v>1279765.6600000001</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
         <v>105</v>
       </c>
-      <c r="B55" t="s">
-        <v>22</v>
-      </c>
       <c r="C55">
-        <v>1276005.83</v>
+        <v>1276554.0400000003</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3444,10 +3442,10 @@
         <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="C56">
-        <v>1273415.57</v>
+        <v>1276465.7499999998</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3458,7 +3456,7 @@
         <v>108</v>
       </c>
       <c r="C57">
-        <v>1267644.48</v>
+        <v>1268522.1299999999</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3469,7 +3467,7 @@
         <v>22</v>
       </c>
       <c r="C58">
-        <v>1251935.55</v>
+        <v>1252216.54</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3480,7 +3478,7 @@
         <v>111</v>
       </c>
       <c r="C59">
-        <v>1232776.2999999998</v>
+        <v>1232912.45</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3491,7 +3489,7 @@
         <v>113</v>
       </c>
       <c r="C60">
-        <v>1216838.75</v>
+        <v>1217567.6899999997</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3502,7 +3500,7 @@
         <v>49</v>
       </c>
       <c r="C61">
-        <v>1216050.54</v>
+        <v>1216605.3400000001</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3513,7 +3511,7 @@
         <v>116</v>
       </c>
       <c r="C62">
-        <v>1180757.1400000001</v>
+        <v>1180334.0699999998</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3524,7 +3522,7 @@
         <v>118</v>
       </c>
       <c r="C63">
-        <v>1163576.73</v>
+        <v>1164936.4600000002</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3535,7 +3533,7 @@
         <v>120</v>
       </c>
       <c r="C64">
-        <v>1157639.1000000003</v>
+        <v>1158196.5399999998</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3546,7 +3544,7 @@
         <v>122</v>
       </c>
       <c r="C65">
-        <v>1130643.51</v>
+        <v>1131193.2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3557,7 +3555,7 @@
         <v>124</v>
       </c>
       <c r="C66">
-        <v>1095860.68</v>
+        <v>1096169.3</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3565,21 +3563,21 @@
         <v>125</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C67">
-        <v>1069953.6800000002</v>
+        <v>1071403.07</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="C68">
-        <v>1069573.7</v>
+        <v>1071309.6300000001</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3590,7 +3588,7 @@
         <v>129</v>
       </c>
       <c r="C69">
-        <v>1058749.78</v>
+        <v>1059116.74</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3601,7 +3599,7 @@
         <v>131</v>
       </c>
       <c r="C70">
-        <v>1049222.76</v>
+        <v>1049682.5599999998</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3612,7 +3610,7 @@
         <v>133</v>
       </c>
       <c r="C71">
-        <v>1046378.75</v>
+        <v>1046851.07</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3623,7 +3621,7 @@
         <v>135</v>
       </c>
       <c r="C72">
-        <v>1034551.01</v>
+        <v>1035056.7899999999</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3634,7 +3632,7 @@
         <v>137</v>
       </c>
       <c r="C73">
-        <v>1034528.0700000001</v>
+        <v>1034974.2899999999</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3645,7 +3643,7 @@
         <v>41</v>
       </c>
       <c r="C74">
-        <v>1028342.2899999999</v>
+        <v>1028774.55</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3656,7 +3654,7 @@
         <v>81</v>
       </c>
       <c r="C75">
-        <v>1027934.65</v>
+        <v>1027721.84</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3667,7 +3665,7 @@
         <v>141</v>
       </c>
       <c r="C76">
-        <v>999646.35999999987</v>
+        <v>1000293.0000000002</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3675,32 +3673,32 @@
         <v>142</v>
       </c>
       <c r="B77" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>993786.11</v>
+        <v>991637.24999999977</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C78">
-        <v>991170.87999999989</v>
+        <v>975916.0900000002</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>144</v>
+      </c>
+      <c r="B79" t="s">
         <v>145</v>
       </c>
-      <c r="B79" t="s">
-        <v>39</v>
-      </c>
       <c r="C79">
-        <v>974842.65</v>
+        <v>972025.74</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3711,7 +3709,7 @@
         <v>147</v>
       </c>
       <c r="C80">
-        <v>971568.84999999986</v>
+        <v>963683.9</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3722,7 +3720,7 @@
         <v>149</v>
       </c>
       <c r="C81">
-        <v>963456.95</v>
+        <v>963399.77</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3733,7 +3731,7 @@
         <v>151</v>
       </c>
       <c r="C82">
-        <v>963259.99000000011</v>
+        <v>926755.62000000011</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3744,7 +3742,7 @@
         <v>153</v>
       </c>
       <c r="C83">
-        <v>926406.68</v>
+        <v>897573.05999999994</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3755,7 +3753,7 @@
         <v>155</v>
       </c>
       <c r="C84">
-        <v>897205.77</v>
+        <v>894013.37000000011</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3766,7 +3764,7 @@
         <v>157</v>
       </c>
       <c r="C85">
-        <v>888144.03999999992</v>
+        <v>888654.08000000007</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3777,7 +3775,7 @@
         <v>159</v>
       </c>
       <c r="C86">
-        <v>879557.54999999993</v>
+        <v>879930.28999999992</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3788,7 +3786,7 @@
         <v>161</v>
       </c>
       <c r="C87">
-        <v>870961.16</v>
+        <v>871342.76</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3799,7 +3797,7 @@
         <v>163</v>
       </c>
       <c r="C88">
-        <v>869244.65000000014</v>
+        <v>869361.74999999988</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3810,7 +3808,7 @@
         <v>165</v>
       </c>
       <c r="C89">
-        <v>859084.50000000012</v>
+        <v>859490.82999999984</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3818,43 +3816,43 @@
         <v>166</v>
       </c>
       <c r="B90" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="C90">
-        <v>846031.7699999999</v>
+        <v>852053.3</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" t="s">
         <v>168</v>
       </c>
-      <c r="B91" t="s">
-        <v>169</v>
-      </c>
       <c r="C91">
-        <v>825176.70000000019</v>
+        <v>847430.28999999992</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" t="s">
         <v>170</v>
       </c>
-      <c r="B92" t="s">
-        <v>171</v>
-      </c>
       <c r="C92">
-        <v>820903.88</v>
+        <v>825904.82</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" t="s">
         <v>172</v>
       </c>
-      <c r="B93" t="s">
-        <v>49</v>
-      </c>
       <c r="C93">
-        <v>817407.2100000002</v>
+        <v>820949.76000000013</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3862,10 +3860,10 @@
         <v>173</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C94">
-        <v>809067.71000000008</v>
+        <v>817150.74</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3873,32 +3871,32 @@
         <v>174</v>
       </c>
       <c r="B95" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="C95">
-        <v>803725.97000000009</v>
+        <v>809070.15000000014</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>175</v>
+      </c>
+      <c r="B96" t="s">
         <v>176</v>
       </c>
-      <c r="B96" t="s">
-        <v>177</v>
-      </c>
       <c r="C96">
-        <v>803203.42</v>
+        <v>804099.22</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>177</v>
+      </c>
+      <c r="B97" t="s">
         <v>178</v>
       </c>
-      <c r="B97" t="s">
-        <v>49</v>
-      </c>
       <c r="C97">
-        <v>787104.07000000007</v>
+        <v>803554.05</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3909,7 +3907,7 @@
         <v>6</v>
       </c>
       <c r="C98">
-        <v>786937.78000000014</v>
+        <v>788641.51000000013</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3917,10 +3915,10 @@
         <v>180</v>
       </c>
       <c r="B99" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C99">
-        <v>785906.2799999998</v>
+        <v>788264.20000000007</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3928,54 +3926,54 @@
         <v>181</v>
       </c>
       <c r="B100" t="s">
-        <v>182</v>
+        <v>73</v>
       </c>
       <c r="C100">
-        <v>767515.67999999993</v>
+        <v>786257.86999999988</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>182</v>
+      </c>
+      <c r="B101" t="s">
         <v>183</v>
       </c>
-      <c r="B101" t="s">
-        <v>184</v>
-      </c>
       <c r="C101">
-        <v>762329.8</v>
+        <v>767956.2100000002</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
+        <v>184</v>
+      </c>
+      <c r="B102" t="s">
         <v>185</v>
       </c>
-      <c r="B102" t="s">
-        <v>186</v>
-      </c>
       <c r="C102">
-        <v>758008.39999999991</v>
+        <v>762685.69999999984</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" t="s">
         <v>187</v>
       </c>
-      <c r="B103" t="s">
-        <v>188</v>
-      </c>
       <c r="C103">
-        <v>750418.97</v>
+        <v>758305.28999999992</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>188</v>
+      </c>
+      <c r="B104" t="s">
         <v>189</v>
       </c>
-      <c r="B104" t="s">
-        <v>116</v>
-      </c>
       <c r="C104">
-        <v>744333.54999999993</v>
+        <v>750992.53</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3983,10 +3981,10 @@
         <v>190</v>
       </c>
       <c r="B105" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="C105">
-        <v>741428.48</v>
+        <v>745013.19000000018</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3997,7 +3995,7 @@
         <v>192</v>
       </c>
       <c r="C106">
-        <v>721374.58000000007</v>
+        <v>721709.72000000009</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4008,7 +4006,7 @@
         <v>49</v>
       </c>
       <c r="C107">
-        <v>719578.96000000008</v>
+        <v>720008.07000000018</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4019,7 +4017,7 @@
         <v>195</v>
       </c>
       <c r="C108">
-        <v>706391.03</v>
+        <v>706615.2</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4030,7 +4028,7 @@
         <v>197</v>
       </c>
       <c r="C109">
-        <v>705767.3</v>
+        <v>705987.61999999988</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4041,7 +4039,7 @@
         <v>199</v>
       </c>
       <c r="C110">
-        <v>703919.77</v>
+        <v>704230.78</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4052,7 +4050,7 @@
         <v>10</v>
       </c>
       <c r="C111">
-        <v>703902.00999999989</v>
+        <v>704225.55999999994</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4063,7 +4061,7 @@
         <v>202</v>
       </c>
       <c r="C112">
-        <v>701381.42</v>
+        <v>701680.94000000018</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4074,7 +4072,7 @@
         <v>63</v>
       </c>
       <c r="C113">
-        <v>697376.38</v>
+        <v>697932.07</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4085,7 +4083,7 @@
         <v>205</v>
       </c>
       <c r="C114">
-        <v>688325.25</v>
+        <v>688622.12999999977</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4096,7 +4094,7 @@
         <v>207</v>
       </c>
       <c r="C115">
-        <v>678630.38</v>
+        <v>676992.16</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4107,7 +4105,7 @@
         <v>209</v>
       </c>
       <c r="C116">
-        <v>666938.87999999989</v>
+        <v>667667.4800000001</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4118,7 +4116,7 @@
         <v>49</v>
       </c>
       <c r="C117">
-        <v>665987.22000000009</v>
+        <v>666561.27</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4129,7 +4127,7 @@
         <v>212</v>
       </c>
       <c r="C118">
-        <v>661213.94000000006</v>
+        <v>661644.54</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4140,7 +4138,7 @@
         <v>51</v>
       </c>
       <c r="C119">
-        <v>657594.75</v>
+        <v>657972.58999999985</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4151,7 +4149,7 @@
         <v>39</v>
       </c>
       <c r="C120">
-        <v>646717.96</v>
+        <v>648050.84</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4162,7 +4160,7 @@
         <v>216</v>
       </c>
       <c r="C121">
-        <v>646657.58000000007</v>
+        <v>646688.10000000009</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4173,7 +4171,7 @@
         <v>53</v>
       </c>
       <c r="C122">
-        <v>644580.33000000007</v>
+        <v>645203.78000000026</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4184,7 +4182,7 @@
         <v>75</v>
       </c>
       <c r="C123">
-        <v>643879.06999999995</v>
+        <v>644492.09</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4195,7 +4193,7 @@
         <v>220</v>
       </c>
       <c r="C124">
-        <v>630859.62999999989</v>
+        <v>631148.03</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4206,7 +4204,7 @@
         <v>222</v>
       </c>
       <c r="C125">
-        <v>622711.88000000012</v>
+        <v>622996.05999999994</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4217,7 +4215,7 @@
         <v>53</v>
       </c>
       <c r="C126">
-        <v>616668.45000000019</v>
+        <v>616994.34</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4228,7 +4226,7 @@
         <v>225</v>
       </c>
       <c r="C127">
-        <v>614928.41999999993</v>
+        <v>614758.66999999993</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4236,21 +4234,21 @@
         <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c r="C128">
-        <v>613189.36</v>
+        <v>614083.25000000012</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
+        <v>227</v>
+      </c>
+      <c r="B129" t="s">
         <v>228</v>
       </c>
-      <c r="B129" t="s">
-        <v>53</v>
-      </c>
       <c r="C129">
-        <v>613126.02</v>
+        <v>613710.72000000009</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4258,10 +4256,10 @@
         <v>229</v>
       </c>
       <c r="B130" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C130">
-        <v>612716.39</v>
+        <v>613284.78</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4272,7 +4270,7 @@
         <v>231</v>
       </c>
       <c r="C131">
-        <v>611307.74999999988</v>
+        <v>609792.89000000013</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4283,7 +4281,7 @@
         <v>192</v>
       </c>
       <c r="C132">
-        <v>601098.74</v>
+        <v>602219.18000000005</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4294,7 +4292,7 @@
         <v>234</v>
       </c>
       <c r="C133">
-        <v>600678.93000000005</v>
+        <v>600988.06999999983</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4305,7 +4303,7 @@
         <v>236</v>
       </c>
       <c r="C134">
-        <v>577288.5</v>
+        <v>576330.2699999999</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4316,7 +4314,7 @@
         <v>238</v>
       </c>
       <c r="C135">
-        <v>576064.89000000013</v>
+        <v>575886.99</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4327,7 +4325,7 @@
         <v>240</v>
       </c>
       <c r="C136">
-        <v>575695.55999999994</v>
+        <v>573111.02999999991</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4335,21 +4333,21 @@
         <v>241</v>
       </c>
       <c r="B137" t="s">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="C137">
-        <v>572235.19999999995</v>
+        <v>570446.35999999987</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
+        <v>242</v>
+      </c>
+      <c r="B138" t="s">
         <v>243</v>
       </c>
-      <c r="B138" t="s">
-        <v>39</v>
-      </c>
       <c r="C138">
-        <v>570184.39</v>
+        <v>567295.74000000011</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4360,7 +4358,7 @@
         <v>245</v>
       </c>
       <c r="C139">
-        <v>557736.59000000008</v>
+        <v>557810.03999999992</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4371,7 +4369,7 @@
         <v>247</v>
       </c>
       <c r="C140">
-        <v>557471.84999999986</v>
+        <v>556583.89</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4382,7 +4380,7 @@
         <v>249</v>
       </c>
       <c r="C141">
-        <v>548696.72000000009</v>
+        <v>549169.12000000011</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4393,7 +4391,7 @@
         <v>251</v>
       </c>
       <c r="C142">
-        <v>548659.96</v>
+        <v>548948.54999999993</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4404,7 +4402,7 @@
         <v>253</v>
       </c>
       <c r="C143">
-        <v>541584.72</v>
+        <v>541825.95000000007</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4415,7 +4413,7 @@
         <v>255</v>
       </c>
       <c r="C144">
-        <v>537092.14</v>
+        <v>537344.19999999995</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4426,7 +4424,7 @@
         <v>257</v>
       </c>
       <c r="C145">
-        <v>535611.56999999995</v>
+        <v>536086.12</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4437,7 +4435,7 @@
         <v>216</v>
       </c>
       <c r="C146">
-        <v>531304.66999999993</v>
+        <v>531546.6100000001</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4448,7 +4446,7 @@
         <v>260</v>
       </c>
       <c r="C147">
-        <v>518337.4200000001</v>
+        <v>518507.80999999994</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4459,7 +4457,7 @@
         <v>262</v>
       </c>
       <c r="C148">
-        <v>512284.41999999993</v>
+        <v>512609.06999999989</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4470,7 +4468,7 @@
         <v>264</v>
       </c>
       <c r="C149">
-        <v>509791.32</v>
+        <v>510047.46000000008</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4481,7 +4479,7 @@
         <v>266</v>
       </c>
       <c r="C150">
-        <v>508370.45</v>
+        <v>508911.5</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4492,7 +4490,7 @@
         <v>268</v>
       </c>
       <c r="C151">
-        <v>505457.40000000008</v>
+        <v>505769.87999999995</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4503,7 +4501,7 @@
         <v>270</v>
       </c>
       <c r="C152">
-        <v>502588.05</v>
+        <v>502815.57000000007</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4514,7 +4512,7 @@
         <v>272</v>
       </c>
       <c r="C153">
-        <v>490354.27999999997</v>
+        <v>488596.29000000004</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4525,7 +4523,7 @@
         <v>274</v>
       </c>
       <c r="C154">
-        <v>486088.51000000007</v>
+        <v>486290.19</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4536,7 +4534,7 @@
         <v>276</v>
       </c>
       <c r="C155">
-        <v>482976.88999999996</v>
+        <v>483456.21</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4547,7 +4545,7 @@
         <v>41</v>
       </c>
       <c r="C156">
-        <v>480412.79</v>
+        <v>480637.12</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4558,7 +4556,7 @@
         <v>279</v>
       </c>
       <c r="C157">
-        <v>465970.34</v>
+        <v>466087.32</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4569,7 +4567,7 @@
         <v>281</v>
       </c>
       <c r="C158">
-        <v>457645.31</v>
+        <v>458062.98</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4580,7 +4578,7 @@
         <v>283</v>
       </c>
       <c r="C159">
-        <v>457294.23</v>
+        <v>457508.25000000006</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4591,7 +4589,7 @@
         <v>285</v>
       </c>
       <c r="C160">
-        <v>455795.86000000004</v>
+        <v>455966.17999999993</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4602,7 +4600,7 @@
         <v>14</v>
       </c>
       <c r="C161">
-        <v>453677.52000000008</v>
+        <v>454092.65999999992</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4610,10 +4608,10 @@
         <v>287</v>
       </c>
       <c r="B162" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C162">
-        <v>446173.57000000007</v>
+        <v>446375.22</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4621,21 +4619,21 @@
         <v>288</v>
       </c>
       <c r="B163" t="s">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="C163">
-        <v>436182.30999999994</v>
+        <v>438246.25</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
+        <v>289</v>
+      </c>
+      <c r="B164" t="s">
         <v>290</v>
       </c>
-      <c r="B164" t="s">
-        <v>22</v>
-      </c>
       <c r="C164">
-        <v>435439.82999999996</v>
+        <v>436374.00999999989</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4646,7 +4644,7 @@
         <v>63</v>
       </c>
       <c r="C165">
-        <v>428683.74</v>
+        <v>428427.91000000003</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4657,7 +4655,7 @@
         <v>10</v>
       </c>
       <c r="C166">
-        <v>427010.98</v>
+        <v>427199.2</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4665,10 +4663,10 @@
         <v>293</v>
       </c>
       <c r="B167" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C167">
-        <v>423614.03</v>
+        <v>423502.49</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4679,7 +4677,7 @@
         <v>295</v>
       </c>
       <c r="C168">
-        <v>420797.64</v>
+        <v>421177.4</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4690,7 +4688,7 @@
         <v>297</v>
       </c>
       <c r="C169">
-        <v>420679.13</v>
+        <v>420865.17</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4701,7 +4699,7 @@
         <v>197</v>
       </c>
       <c r="C170">
-        <v>420502.28</v>
+        <v>420817.00000000006</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4709,10 +4707,10 @@
         <v>299</v>
       </c>
       <c r="B171" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C171">
-        <v>419092.75</v>
+        <v>419520.2300000001</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4723,7 +4721,7 @@
         <v>301</v>
       </c>
       <c r="C172">
-        <v>418179.03</v>
+        <v>418370.97000000003</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4734,7 +4732,7 @@
         <v>199</v>
       </c>
       <c r="C173">
-        <v>417143.12</v>
+        <v>417464.64999999997</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4745,7 +4743,7 @@
         <v>304</v>
       </c>
       <c r="C174">
-        <v>413582.82000000012</v>
+        <v>413767.75</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4756,7 +4754,7 @@
         <v>306</v>
       </c>
       <c r="C175">
-        <v>413548.52999999985</v>
+        <v>413767.16000000003</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4767,7 +4765,7 @@
         <v>49</v>
       </c>
       <c r="C176">
-        <v>405972.4</v>
+        <v>406149.20999999996</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4778,7 +4776,7 @@
         <v>309</v>
       </c>
       <c r="C177">
-        <v>404239.41000000003</v>
+        <v>404479.52</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4789,7 +4787,7 @@
         <v>311</v>
       </c>
       <c r="C178">
-        <v>404022.80999999994</v>
+        <v>404286.66000000003</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4800,7 +4798,7 @@
         <v>313</v>
       </c>
       <c r="C179">
-        <v>400664.63</v>
+        <v>400848.46</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4811,7 +4809,7 @@
         <v>315</v>
       </c>
       <c r="C180">
-        <v>387661.46</v>
+        <v>388069.73</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4822,7 +4820,7 @@
         <v>317</v>
       </c>
       <c r="C181">
-        <v>387283.23000000004</v>
+        <v>387656.15999999992</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4833,7 +4831,7 @@
         <v>319</v>
       </c>
       <c r="C182">
-        <v>383902.55000000005</v>
+        <v>384155.35000000009</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4844,7 +4842,7 @@
         <v>321</v>
       </c>
       <c r="C183">
-        <v>376220.12000000011</v>
+        <v>376419.24000000005</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4855,7 +4853,7 @@
         <v>319</v>
       </c>
       <c r="C184">
-        <v>373395.61000000004</v>
+        <v>373685.69</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4866,7 +4864,7 @@
         <v>324</v>
       </c>
       <c r="C185">
-        <v>372214.31</v>
+        <v>371746.57</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4877,7 +4875,7 @@
         <v>326</v>
       </c>
       <c r="C186">
-        <v>371264.42000000004</v>
+        <v>370587.33</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4888,7 +4886,7 @@
         <v>328</v>
       </c>
       <c r="C187">
-        <v>370358.28999999992</v>
+        <v>370256.81</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4896,21 +4894,21 @@
         <v>329</v>
       </c>
       <c r="B188" t="s">
-        <v>330</v>
+        <v>88</v>
       </c>
       <c r="C188">
-        <v>368947.57</v>
+        <v>369256.99000000005</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
+        <v>330</v>
+      </c>
+      <c r="B189" t="s">
         <v>331</v>
       </c>
-      <c r="B189" t="s">
-        <v>88</v>
-      </c>
       <c r="C189">
-        <v>368891.50999999995</v>
+        <v>369113.25999999995</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4921,7 +4919,7 @@
         <v>333</v>
       </c>
       <c r="C190">
-        <v>368233.56000000006</v>
+        <v>368578.47</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4932,7 +4930,7 @@
         <v>260</v>
       </c>
       <c r="C191">
-        <v>367556.16</v>
+        <v>368254.07000000007</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4943,7 +4941,7 @@
         <v>336</v>
       </c>
       <c r="C192">
-        <v>366008.09</v>
+        <v>366169.2099999999</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4954,7 +4952,7 @@
         <v>338</v>
       </c>
       <c r="C193">
-        <v>364432.77</v>
+        <v>364587.12999999995</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4965,7 +4963,7 @@
         <v>75</v>
       </c>
       <c r="C194">
-        <v>361918.54999999993</v>
+        <v>362083.74000000005</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4976,7 +4974,7 @@
         <v>341</v>
       </c>
       <c r="C195">
-        <v>361261.66</v>
+        <v>361421.52999999997</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4987,7 +4985,7 @@
         <v>39</v>
       </c>
       <c r="C196">
-        <v>361175.66000000003</v>
+        <v>361341.88999999996</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4998,7 +4996,7 @@
         <v>344</v>
       </c>
       <c r="C197">
-        <v>360621.50999999995</v>
+        <v>360708.67000000004</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -5006,10 +5004,10 @@
         <v>345</v>
       </c>
       <c r="B198" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C198">
-        <v>360223.87999999995</v>
+        <v>360380.56999999995</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -5020,7 +5018,7 @@
         <v>347</v>
       </c>
       <c r="C199">
-        <v>356230.25</v>
+        <v>359034.8</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -5031,7 +5029,7 @@
         <v>349</v>
       </c>
       <c r="C200">
-        <v>353256.97000000003</v>
+        <v>355258.93</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -5042,7 +5040,7 @@
         <v>351</v>
       </c>
       <c r="C201">
-        <v>350505.46</v>
+        <v>353355.67</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -5050,32 +5048,32 @@
         <v>352</v>
       </c>
       <c r="B202" t="s">
-        <v>245</v>
+        <v>353</v>
       </c>
       <c r="C202">
-        <v>342066.24</v>
+        <v>350664.21</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B203" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C203">
-        <v>342055.9</v>
+        <v>342265.12000000005</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B204" t="s">
-        <v>356</v>
+        <v>247</v>
       </c>
       <c r="C204">
-        <v>341364.23</v>
+        <v>342207.05</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -5086,7 +5084,7 @@
         <v>358</v>
       </c>
       <c r="C205">
-        <v>340869.04999999993</v>
+        <v>341694.38999999996</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5097,7 +5095,7 @@
         <v>360</v>
       </c>
       <c r="C206">
-        <v>339586.07</v>
+        <v>341033.78</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5108,7 +5106,7 @@
         <v>362</v>
       </c>
       <c r="C207">
-        <v>335576.59000000008</v>
+        <v>339761.08</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -5119,7 +5117,7 @@
         <v>364</v>
       </c>
       <c r="C208">
-        <v>335446.36000000004</v>
+        <v>335727.67</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5130,7 +5128,7 @@
         <v>366</v>
       </c>
       <c r="C209">
-        <v>332753.27</v>
+        <v>335581.01999999996</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5141,7 +5139,7 @@
         <v>368</v>
       </c>
       <c r="C210">
-        <v>330674.91000000003</v>
+        <v>332898.19</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5152,7 +5150,7 @@
         <v>370</v>
       </c>
       <c r="C211">
-        <v>329066.96999999997</v>
+        <v>330819.33999999997</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5163,7 +5161,7 @@
         <v>372</v>
       </c>
       <c r="C212">
-        <v>324913.69999999995</v>
+        <v>329360.92</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5174,7 +5172,7 @@
         <v>374</v>
       </c>
       <c r="C213">
-        <v>324496.89999999997</v>
+        <v>325047.14999999991</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5185,7 +5183,7 @@
         <v>376</v>
       </c>
       <c r="C214">
-        <v>322276.09999999998</v>
+        <v>324640.51</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5196,7 +5194,7 @@
         <v>378</v>
       </c>
       <c r="C215">
-        <v>321244.55</v>
+        <v>322311.23000000004</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5207,7 +5205,7 @@
         <v>380</v>
       </c>
       <c r="C216">
-        <v>318321.25</v>
+        <v>321439.21999999997</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5215,32 +5213,32 @@
         <v>381</v>
       </c>
       <c r="B217" t="s">
-        <v>104</v>
+        <v>382</v>
       </c>
       <c r="C217">
-        <v>314255.12</v>
+        <v>318464.41000000003</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B218" t="s">
-        <v>354</v>
+        <v>105</v>
       </c>
       <c r="C218">
-        <v>314118.89</v>
+        <v>314957.47000000009</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B219" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="C219">
-        <v>309301.64999999997</v>
+        <v>314253.38999999996</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5248,43 +5246,43 @@
         <v>385</v>
       </c>
       <c r="B220" t="s">
-        <v>88</v>
+        <v>386</v>
       </c>
       <c r="C220">
-        <v>308650.49</v>
+        <v>309031.2</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B221" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C221">
-        <v>308085.75000000006</v>
+        <v>308932.79000000004</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B222" t="s">
-        <v>376</v>
+        <v>49</v>
       </c>
       <c r="C222">
-        <v>307713.27</v>
+        <v>308227.52</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B223" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="C223">
-        <v>301425.54000000004</v>
+        <v>307864.25</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5295,7 +5293,7 @@
         <v>4</v>
       </c>
       <c r="C224">
-        <v>301319.73000000004</v>
+        <v>301451.80999999994</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5306,7 +5304,7 @@
         <v>68</v>
       </c>
       <c r="C225">
-        <v>296905.59000000003</v>
+        <v>297102.94999999995</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5314,10 +5312,10 @@
         <v>392</v>
       </c>
       <c r="B226" t="s">
-        <v>167</v>
+        <v>378</v>
       </c>
       <c r="C226">
-        <v>293287.5</v>
+        <v>293889.58</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5325,10 +5323,10 @@
         <v>393</v>
       </c>
       <c r="B227" t="s">
-        <v>376</v>
+        <v>168</v>
       </c>
       <c r="C227">
-        <v>292575.78999999998</v>
+        <v>293380.43</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5339,7 +5337,7 @@
         <v>317</v>
       </c>
       <c r="C228">
-        <v>291753.14</v>
+        <v>292059.86999999994</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5350,7 +5348,7 @@
         <v>396</v>
       </c>
       <c r="C229">
-        <v>290114.89999999997</v>
+        <v>291239.36</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5358,21 +5356,21 @@
         <v>397</v>
       </c>
       <c r="B230" t="s">
-        <v>73</v>
+        <v>398</v>
       </c>
       <c r="C230">
-        <v>284029.51</v>
+        <v>290223.06</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B231" t="s">
-        <v>399</v>
+        <v>73</v>
       </c>
       <c r="C231">
-        <v>283760.27999999997</v>
+        <v>284201.83000000007</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5380,32 +5378,32 @@
         <v>400</v>
       </c>
       <c r="B232" t="s">
-        <v>53</v>
+        <v>401</v>
       </c>
       <c r="C232">
-        <v>282547.02999999997</v>
+        <v>283853.42999999993</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B233" t="s">
-        <v>281</v>
+        <v>53</v>
       </c>
       <c r="C233">
-        <v>281506.32</v>
+        <v>282700.46999999997</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B234" t="s">
-        <v>403</v>
+        <v>281</v>
       </c>
       <c r="C234">
-        <v>274377.74999999994</v>
+        <v>281664.41000000003</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5416,7 +5414,7 @@
         <v>405</v>
       </c>
       <c r="C235">
-        <v>272217.19</v>
+        <v>274622.84000000003</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5427,7 +5425,7 @@
         <v>407</v>
       </c>
       <c r="C236">
-        <v>271885.33</v>
+        <v>272345.38000000006</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5438,7 +5436,7 @@
         <v>409</v>
       </c>
       <c r="C237">
-        <v>270718.18999999994</v>
+        <v>272004.15999999997</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5446,32 +5444,32 @@
         <v>410</v>
       </c>
       <c r="B238" t="s">
-        <v>222</v>
+        <v>411</v>
       </c>
       <c r="C238">
-        <v>266379.35000000003</v>
+        <v>270787.68</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B239" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="C239">
-        <v>265853.89</v>
+        <v>266678.26</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B240" t="s">
-        <v>413</v>
+        <v>306</v>
       </c>
       <c r="C240">
-        <v>264419.92000000004</v>
+        <v>265919.70999999996</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5482,7 +5480,7 @@
         <v>415</v>
       </c>
       <c r="C241">
-        <v>262986.31</v>
+        <v>264641.8</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5493,7 +5491,7 @@
         <v>417</v>
       </c>
       <c r="C242">
-        <v>261380.29000000004</v>
+        <v>263152.98</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5504,7 +5502,7 @@
         <v>419</v>
       </c>
       <c r="C243">
-        <v>261124.39999999994</v>
+        <v>261526.87</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5515,7 +5513,7 @@
         <v>421</v>
       </c>
       <c r="C244">
-        <v>260870.07999999996</v>
+        <v>261247.39999999997</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5526,7 +5524,7 @@
         <v>423</v>
       </c>
       <c r="C245">
-        <v>255305.62999999998</v>
+        <v>260955.07999999996</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5534,21 +5532,21 @@
         <v>424</v>
       </c>
       <c r="B246" t="s">
-        <v>116</v>
+        <v>425</v>
       </c>
       <c r="C246">
-        <v>253077.86000000004</v>
+        <v>255525.12999999998</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B247" t="s">
-        <v>426</v>
+        <v>116</v>
       </c>
       <c r="C247">
-        <v>251581.79</v>
+        <v>253201.17999999996</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5556,21 +5554,21 @@
         <v>427</v>
       </c>
       <c r="B248" t="s">
-        <v>153</v>
+        <v>428</v>
       </c>
       <c r="C248">
-        <v>249275.08</v>
+        <v>251695.15</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B249" t="s">
-        <v>429</v>
+        <v>151</v>
       </c>
       <c r="C249">
-        <v>246261.23000000004</v>
+        <v>249396.21999999997</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5581,7 +5579,7 @@
         <v>431</v>
       </c>
       <c r="C250">
-        <v>245122.07999999996</v>
+        <v>246393.82</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5592,7 +5590,7 @@
         <v>433</v>
       </c>
       <c r="C251">
-        <v>244932.69999999998</v>
+        <v>244630.38999999998</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5603,7 +5601,7 @@
         <v>435</v>
       </c>
       <c r="C252">
-        <v>242208.45</v>
+        <v>244594.86</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5614,7 +5612,7 @@
         <v>437</v>
       </c>
       <c r="C253">
-        <v>241683.05999999997</v>
+        <v>242426.41</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5625,7 +5623,7 @@
         <v>439</v>
       </c>
       <c r="C254">
-        <v>240721.99</v>
+        <v>241791.32999999996</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5636,7 +5634,7 @@
         <v>441</v>
       </c>
       <c r="C255">
-        <v>240412.79999999999</v>
+        <v>240816.28</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5644,21 +5642,21 @@
         <v>442</v>
       </c>
       <c r="B256" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="C256">
-        <v>237737.31999999995</v>
+        <v>240523.4</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B257" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="C257">
-        <v>236885.93000000005</v>
+        <v>237850.67999999996</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5666,21 +5664,21 @@
         <v>445</v>
       </c>
       <c r="B258" t="s">
-        <v>199</v>
+        <v>446</v>
       </c>
       <c r="C258">
-        <v>236668.21999999997</v>
+        <v>237016.78</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B259" t="s">
-        <v>447</v>
+        <v>199</v>
       </c>
       <c r="C259">
-        <v>235927.86000000002</v>
+        <v>236791.76999999996</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5691,7 +5689,7 @@
         <v>449</v>
       </c>
       <c r="C260">
-        <v>235351.22</v>
+        <v>236030.67</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5702,7 +5700,7 @@
         <v>451</v>
       </c>
       <c r="C261">
-        <v>232959.81000000003</v>
+        <v>235602.40999999997</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5710,21 +5708,21 @@
         <v>452</v>
       </c>
       <c r="B262" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="C262">
-        <v>230132.41999999995</v>
+        <v>233127.76000000004</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B263" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="C263">
-        <v>229288.19</v>
+        <v>230278.74</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5735,7 +5733,7 @@
         <v>456</v>
       </c>
       <c r="C264">
-        <v>229263.91000000003</v>
+        <v>229466.18</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5746,7 +5744,7 @@
         <v>458</v>
       </c>
       <c r="C265">
-        <v>228120.56000000003</v>
+        <v>229386.51000000004</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5757,7 +5755,7 @@
         <v>460</v>
       </c>
       <c r="C266">
-        <v>219066.46000000002</v>
+        <v>228222.71</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5768,7 +5766,7 @@
         <v>462</v>
       </c>
       <c r="C267">
-        <v>217605.41</v>
+        <v>219166.99999999997</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5776,21 +5774,21 @@
         <v>463</v>
       </c>
       <c r="B268" t="s">
-        <v>70</v>
+        <v>464</v>
       </c>
       <c r="C268">
-        <v>216441.67999999996</v>
+        <v>217683.34</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B269" t="s">
-        <v>465</v>
+        <v>70</v>
       </c>
       <c r="C269">
-        <v>215461.35</v>
+        <v>216505.19999999998</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5798,21 +5796,21 @@
         <v>466</v>
       </c>
       <c r="B270" t="s">
-        <v>285</v>
+        <v>467</v>
       </c>
       <c r="C270">
-        <v>212935.91</v>
+        <v>215559.09</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B271" t="s">
-        <v>468</v>
+        <v>285</v>
       </c>
       <c r="C271">
-        <v>210836.54</v>
+        <v>214257</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5823,7 +5821,7 @@
         <v>470</v>
       </c>
       <c r="C272">
-        <v>210273.08000000002</v>
+        <v>210971.7</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5834,7 +5832,7 @@
         <v>472</v>
       </c>
       <c r="C273">
-        <v>209345.40000000002</v>
+        <v>210675.40999999997</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5842,65 +5840,65 @@
         <v>473</v>
       </c>
       <c r="B274" t="s">
-        <v>92</v>
+        <v>474</v>
       </c>
       <c r="C274">
-        <v>208719.55</v>
+        <v>209437.21000000002</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B275" t="s">
-        <v>441</v>
+        <v>92</v>
       </c>
       <c r="C275">
-        <v>208580.95</v>
+        <v>209174.02</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B276" t="s">
-        <v>75</v>
+        <v>443</v>
       </c>
       <c r="C276">
-        <v>207005.66000000003</v>
+        <v>208673.1</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B277" t="s">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="C277">
-        <v>204742.7</v>
+        <v>207130.51</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B278" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="C278">
-        <v>204698.96999999997</v>
+        <v>205164.34999999998</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B279" t="s">
-        <v>479</v>
+        <v>268</v>
       </c>
       <c r="C279">
-        <v>202945.18999999997</v>
+        <v>204864.06</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5911,7 +5909,7 @@
         <v>285</v>
       </c>
       <c r="C280">
-        <v>202692.03000000003</v>
+        <v>203149.06999999998</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5919,32 +5917,32 @@
         <v>481</v>
       </c>
       <c r="B281" t="s">
-        <v>51</v>
+        <v>482</v>
       </c>
       <c r="C281">
-        <v>199804.53000000003</v>
+        <v>203032.51</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B282" t="s">
-        <v>306</v>
+        <v>51</v>
       </c>
       <c r="C282">
-        <v>199575.52000000002</v>
+        <v>200023.90000000002</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B283" t="s">
-        <v>484</v>
+        <v>306</v>
       </c>
       <c r="C283">
-        <v>199166.97</v>
+        <v>199688.90000000008</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5952,32 +5950,32 @@
         <v>485</v>
       </c>
       <c r="B284" t="s">
-        <v>53</v>
+        <v>486</v>
       </c>
       <c r="C284">
-        <v>195432.65000000002</v>
+        <v>199309.57000000004</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B285" t="s">
-        <v>281</v>
+        <v>53</v>
       </c>
       <c r="C285">
-        <v>194378.56000000003</v>
+        <v>195608.5</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B286" t="s">
-        <v>488</v>
+        <v>281</v>
       </c>
       <c r="C286">
-        <v>192542.1</v>
+        <v>194459.90000000005</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5988,7 +5986,7 @@
         <v>88</v>
       </c>
       <c r="C287">
-        <v>191824.90999999997</v>
+        <v>194141.25</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5999,7 +5997,7 @@
         <v>491</v>
       </c>
       <c r="C288">
-        <v>190720.67999999996</v>
+        <v>192667.03</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -6010,7 +6008,7 @@
         <v>493</v>
       </c>
       <c r="C289">
-        <v>189525.82</v>
+        <v>190666.27</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6018,43 +6016,43 @@
         <v>494</v>
       </c>
       <c r="B290" t="s">
-        <v>41</v>
+        <v>495</v>
       </c>
       <c r="C290">
-        <v>186843.2</v>
+        <v>189685.94</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B291" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="C291">
-        <v>183747.29000000004</v>
+        <v>186857.76</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B292" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="C292">
-        <v>183573.31</v>
+        <v>183864.15999999992</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B293" t="s">
-        <v>498</v>
+        <v>39</v>
       </c>
       <c r="C293">
-        <v>182973.92</v>
+        <v>183661.86</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6065,7 +6063,7 @@
         <v>500</v>
       </c>
       <c r="C294">
-        <v>179953.41</v>
+        <v>183084.19000000003</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -6076,7 +6074,7 @@
         <v>502</v>
       </c>
       <c r="C295">
-        <v>176971.75000000009</v>
+        <v>180139.4</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -6084,21 +6082,21 @@
         <v>503</v>
       </c>
       <c r="B296" t="s">
-        <v>75</v>
+        <v>504</v>
       </c>
       <c r="C296">
-        <v>174256.59</v>
+        <v>177127.88000000003</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B297" t="s">
-        <v>505</v>
+        <v>75</v>
       </c>
       <c r="C297">
-        <v>172238.4</v>
+        <v>174336.48</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -6106,21 +6104,21 @@
         <v>506</v>
       </c>
       <c r="B298" t="s">
-        <v>92</v>
+        <v>507</v>
       </c>
       <c r="C298">
-        <v>172154.21</v>
+        <v>172312.81</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B299" t="s">
-        <v>508</v>
+        <v>92</v>
       </c>
       <c r="C299">
-        <v>169514.15</v>
+        <v>172213.79</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6128,32 +6126,32 @@
         <v>509</v>
       </c>
       <c r="B300" t="s">
-        <v>396</v>
+        <v>510</v>
       </c>
       <c r="C300">
-        <v>168663.74</v>
+        <v>169621.24000000002</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B301" t="s">
-        <v>116</v>
+        <v>398</v>
       </c>
       <c r="C301">
-        <v>165514.18000000002</v>
+        <v>169008.26999999996</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B302" t="s">
-        <v>512</v>
+        <v>116</v>
       </c>
       <c r="C302">
-        <v>163882.44</v>
+        <v>165584.95999999999</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6164,7 +6162,7 @@
         <v>514</v>
       </c>
       <c r="C303">
-        <v>161536.85999999999</v>
+        <v>164049.93</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6175,7 +6173,7 @@
         <v>516</v>
       </c>
       <c r="C304">
-        <v>160280.43000000002</v>
+        <v>161658.76</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6186,7 +6184,7 @@
         <v>118</v>
       </c>
       <c r="C305">
-        <v>160226.17000000001</v>
+        <v>160379.54999999999</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6197,7 +6195,7 @@
         <v>519</v>
       </c>
       <c r="C306">
-        <v>159994.37</v>
+        <v>160347.73000000001</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6205,450 +6203,450 @@
         <v>520</v>
       </c>
       <c r="B307" t="s">
-        <v>75</v>
+        <v>521</v>
       </c>
       <c r="C307">
-        <v>157993.29999999999</v>
+        <v>160063.60999999999</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B308" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C308">
-        <v>157939</v>
+        <v>158008.78</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B309" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C309">
-        <v>157667.5</v>
+        <v>157695.52999999997</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B310" t="s">
         <v>73</v>
       </c>
       <c r="C310">
-        <v>157541.55000000002</v>
+        <v>157612.98999999996</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B311" t="s">
         <v>100</v>
       </c>
       <c r="C311">
-        <v>157285.24</v>
+        <v>157359.61000000002</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B312" t="s">
         <v>73</v>
       </c>
       <c r="C312">
-        <v>156558.56000000003</v>
+        <v>156614.32999999999</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B313" t="s">
         <v>73</v>
       </c>
       <c r="C313">
-        <v>156259.63999999998</v>
+        <v>156239.19</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B314" t="s">
         <v>33</v>
       </c>
       <c r="C314">
-        <v>154234.9</v>
+        <v>154373.93000000002</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B315" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C315">
-        <v>152253.38999999998</v>
+        <v>152293.87999999998</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B316" t="s">
         <v>41</v>
       </c>
       <c r="C316">
-        <v>150630.30000000002</v>
+        <v>150698.72999999998</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B317" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C317">
-        <v>148476.21000000002</v>
+        <v>148598.58999999997</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B318" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C318">
-        <v>146880.01000000004</v>
+        <v>146963.16</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B319" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C319">
-        <v>146651.16999999998</v>
+        <v>146725.58000000002</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B320" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C320">
-        <v>144481.46</v>
+        <v>144561.63</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B321" t="s">
         <v>63</v>
       </c>
       <c r="C321">
-        <v>144388.6</v>
+        <v>144441.40000000002</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B322" t="s">
         <v>222</v>
       </c>
       <c r="C322">
-        <v>144001.28</v>
+        <v>144063.69</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B323" t="s">
         <v>301</v>
       </c>
       <c r="C323">
-        <v>141547.89000000001</v>
+        <v>141813.61999999997</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B324" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C324">
-        <v>140315.95000000001</v>
+        <v>140374.38999999998</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B325" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C325">
-        <v>139955.11000000002</v>
+        <v>140022.76999999999</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
+        <v>546</v>
+      </c>
+      <c r="B326" t="s">
         <v>545</v>
       </c>
-      <c r="B326" t="s">
-        <v>544</v>
-      </c>
       <c r="C326">
-        <v>139645.04999999999</v>
+        <v>139659.44</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B327" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C327">
-        <v>139161.91</v>
+        <v>139222.14000000001</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B328" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C328">
-        <v>138775.13999999998</v>
+        <v>138920.97</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B329" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C329">
-        <v>137971.47</v>
+        <v>138033.15000000002</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B330" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C330">
-        <v>137766.48000000001</v>
+        <v>137807.32999999999</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B331" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C331">
-        <v>136584.10999999999</v>
+        <v>136670.58000000002</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B332" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C332">
-        <v>135903.94999999998</v>
+        <v>135945.49</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B333" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C333">
-        <v>130602.02999999998</v>
+        <v>130836.61000000002</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B334" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C334">
-        <v>129552.50000000001</v>
+        <v>129631.83999999998</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B335" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C335">
-        <v>129507.64</v>
+        <v>129565.31999999999</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B336" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C336">
-        <v>128787.36000000002</v>
+        <v>128826.84999999999</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B337" t="s">
         <v>234</v>
       </c>
       <c r="C337">
-        <v>128050.03</v>
+        <v>128108.69000000002</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B338" t="s">
         <v>456</v>
       </c>
       <c r="C338">
-        <v>127482.38</v>
+        <v>127530.87</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B339" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C339">
-        <v>127048.65000000001</v>
+        <v>127096.57</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B340" t="s">
         <v>313</v>
       </c>
       <c r="C340">
-        <v>126566.43000000001</v>
+        <v>126623.60000000002</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B341" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C341">
-        <v>126503.15999999999</v>
+        <v>126595.87000000001</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B342" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C342">
-        <v>126077.56000000001</v>
+        <v>126150.28</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B343" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C343">
-        <v>124759.38999999998</v>
+        <v>125019.94000000002</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B344" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C344">
-        <v>124153.26999999999</v>
+        <v>124276.25</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B345" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C345">
-        <v>121685.04000000001</v>
+        <v>121744.08</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B346" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C346">
-        <v>121205.22999999998</v>
+        <v>121259.96</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B347" t="s">
-        <v>579</v>
+        <v>75</v>
       </c>
       <c r="C347">
-        <v>118669.24</v>
+        <v>119788.6</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6656,32 +6654,32 @@
         <v>580</v>
       </c>
       <c r="B348" t="s">
-        <v>26</v>
+        <v>581</v>
       </c>
       <c r="C348">
-        <v>118612.23000000001</v>
+        <v>118785.01</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B349" t="s">
-        <v>549</v>
+        <v>26</v>
       </c>
       <c r="C349">
-        <v>117630.28000000001</v>
+        <v>118667.04000000002</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B350" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="C350">
-        <v>117592.19</v>
+        <v>117688.04999999999</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6689,21 +6687,21 @@
         <v>584</v>
       </c>
       <c r="B351" t="s">
-        <v>260</v>
+        <v>585</v>
       </c>
       <c r="C351">
-        <v>117053.45</v>
+        <v>117647.45999999999</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B352" t="s">
-        <v>586</v>
+        <v>260</v>
       </c>
       <c r="C352">
-        <v>115097.29</v>
+        <v>117102</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6711,10 +6709,10 @@
         <v>587</v>
       </c>
       <c r="B353" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C353">
-        <v>115047.17</v>
+        <v>115097.31</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6725,7 +6723,7 @@
         <v>589</v>
       </c>
       <c r="C354">
-        <v>114690.47999999998</v>
+        <v>114694.70999999998</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6736,7 +6734,7 @@
         <v>61</v>
       </c>
       <c r="C355">
-        <v>114085.96</v>
+        <v>114009.16</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6747,7 +6745,7 @@
         <v>592</v>
       </c>
       <c r="C356">
-        <v>112870.40999999999</v>
+        <v>113155.44</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6758,7 +6756,7 @@
         <v>594</v>
       </c>
       <c r="C357">
-        <v>112816.81999999999</v>
+        <v>112917.88</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6769,7 +6767,7 @@
         <v>596</v>
       </c>
       <c r="C358">
-        <v>112717.19</v>
+        <v>112865.92</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6777,43 +6775,43 @@
         <v>597</v>
       </c>
       <c r="B359" t="s">
-        <v>63</v>
+        <v>598</v>
       </c>
       <c r="C359">
-        <v>112696.37000000001</v>
+        <v>112766.35</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B360" t="s">
-        <v>366</v>
+        <v>63</v>
       </c>
       <c r="C360">
-        <v>109890.53000000001</v>
+        <v>112743.92000000001</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B361" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="C361">
-        <v>109698.79999999999</v>
+        <v>109954.12000000001</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B362" t="s">
-        <v>601</v>
+        <v>319</v>
       </c>
       <c r="C362">
-        <v>108990.27000000003</v>
+        <v>109803.45000000003</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6824,7 +6822,7 @@
         <v>603</v>
       </c>
       <c r="C363">
-        <v>108035.22</v>
+        <v>108076.12999999999</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6835,7 +6833,7 @@
         <v>92</v>
       </c>
       <c r="C364">
-        <v>106265.75</v>
+        <v>106365.65000000001</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6846,7 +6844,7 @@
         <v>606</v>
       </c>
       <c r="C365">
-        <v>105824.28</v>
+        <v>105871.26000000001</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6854,10 +6852,10 @@
         <v>607</v>
       </c>
       <c r="B366" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C366">
-        <v>104959.47</v>
+        <v>104905.42</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6865,10 +6863,10 @@
         <v>608</v>
       </c>
       <c r="B367" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C367">
-        <v>103674.11999999998</v>
+        <v>103722.31000000001</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6879,7 +6877,7 @@
         <v>111</v>
       </c>
       <c r="C368">
-        <v>103624.42</v>
+        <v>103670.37</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6890,7 +6888,7 @@
         <v>257</v>
       </c>
       <c r="C369">
-        <v>102486.12999999999</v>
+        <v>102522.08</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6901,7 +6899,7 @@
         <v>319</v>
       </c>
       <c r="C370">
-        <v>102028.42999999998</v>
+        <v>102179.26999999999</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6909,10 +6907,10 @@
         <v>612</v>
       </c>
       <c r="B371" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C371">
-        <v>101677.21</v>
+        <v>101737.60999999999</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6923,7 +6921,7 @@
         <v>77</v>
       </c>
       <c r="C372">
-        <v>100600.37</v>
+        <v>100699.6</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6934,7 +6932,7 @@
         <v>73</v>
       </c>
       <c r="C373">
-        <v>100294.22</v>
+        <v>100342.65</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6945,7 +6943,7 @@
         <v>616</v>
       </c>
       <c r="C374">
-        <v>100162.48999999999</v>
+        <v>100206.95000000001</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6956,7 +6954,7 @@
         <v>618</v>
       </c>
       <c r="C375">
-        <v>97398.360000000015</v>
+        <v>97435.040000000023</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6967,7 +6965,7 @@
         <v>268</v>
       </c>
       <c r="C376">
-        <v>96398.689999999988</v>
+        <v>96585.2</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6978,7 +6976,7 @@
         <v>621</v>
       </c>
       <c r="C377">
-        <v>93858.25</v>
+        <v>93903.49</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6989,7 +6987,7 @@
         <v>623</v>
       </c>
       <c r="C378">
-        <v>91030.64</v>
+        <v>91071.039999999994</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -7000,7 +6998,7 @@
         <v>625</v>
       </c>
       <c r="C379">
-        <v>89847.86</v>
+        <v>89884.39</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -7011,7 +7009,7 @@
         <v>344</v>
       </c>
       <c r="C380">
-        <v>88957.03</v>
+        <v>89016.650000000009</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -7022,7 +7020,7 @@
         <v>61</v>
       </c>
       <c r="C381">
-        <v>88933.64</v>
+        <v>88993.38</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -7033,7 +7031,7 @@
         <v>51</v>
       </c>
       <c r="C382">
-        <v>88856.31</v>
+        <v>88902.31</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -7041,10 +7039,10 @@
         <v>629</v>
       </c>
       <c r="B383" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C383">
-        <v>88303.890000000014</v>
+        <v>88342.310000000012</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -7052,10 +7050,10 @@
         <v>630</v>
       </c>
       <c r="B384" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C384">
-        <v>87839.61</v>
+        <v>87986.920000000013</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -7063,10 +7061,10 @@
         <v>631</v>
       </c>
       <c r="B385" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C385">
-        <v>86752.42</v>
+        <v>86925.099999999991</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7077,7 +7075,7 @@
         <v>301</v>
       </c>
       <c r="C386">
-        <v>86457.3</v>
+        <v>86533.58</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7088,7 +7086,7 @@
         <v>61</v>
       </c>
       <c r="C387">
-        <v>86432.24</v>
+        <v>86467.400000000023</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7099,7 +7097,7 @@
         <v>635</v>
       </c>
       <c r="C388">
-        <v>83879.709999999992</v>
+        <v>83874.780000000013</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7110,7 +7108,7 @@
         <v>637</v>
       </c>
       <c r="C389">
-        <v>82768.600000000006</v>
+        <v>82922.67</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7121,7 +7119,7 @@
         <v>207</v>
       </c>
       <c r="C390">
-        <v>82257.999999999971</v>
+        <v>82327.02</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -7129,10 +7127,10 @@
         <v>639</v>
       </c>
       <c r="B391" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C391">
-        <v>82059.03</v>
+        <v>82097.45</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7143,7 +7141,7 @@
         <v>641</v>
       </c>
       <c r="C392">
-        <v>79834.77</v>
+        <v>79870.97</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -7154,7 +7152,7 @@
         <v>643</v>
       </c>
       <c r="C393">
-        <v>78027.17</v>
+        <v>78062.139999999985</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -7162,21 +7160,21 @@
         <v>644</v>
       </c>
       <c r="B394" t="s">
-        <v>645</v>
+        <v>439</v>
       </c>
       <c r="C394">
-        <v>75848.440000000017</v>
+        <v>75954.769999999975</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
+        <v>645</v>
+      </c>
+      <c r="B395" t="s">
         <v>646</v>
       </c>
-      <c r="B395" t="s">
-        <v>437</v>
-      </c>
       <c r="C395">
-        <v>75806.78</v>
+        <v>75873.460000000006</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7184,10 +7182,10 @@
         <v>647</v>
       </c>
       <c r="B396" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C396">
-        <v>75793.09</v>
+        <v>75837.079999999987</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7195,21 +7193,21 @@
         <v>648</v>
       </c>
       <c r="B397" t="s">
-        <v>73</v>
+        <v>649</v>
       </c>
       <c r="C397">
-        <v>75152.2</v>
+        <v>75336.679999999993</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B398" t="s">
-        <v>650</v>
+        <v>73</v>
       </c>
       <c r="C398">
-        <v>75020.7</v>
+        <v>75171.090000000011</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7220,7 +7218,7 @@
         <v>652</v>
       </c>
       <c r="C399">
-        <v>73311.329999999987</v>
+        <v>73343.289999999994</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -7231,7 +7229,7 @@
         <v>49</v>
       </c>
       <c r="C400">
-        <v>73101.460000000006</v>
+        <v>73122.66</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7242,7 +7240,7 @@
         <v>22</v>
       </c>
       <c r="C401">
-        <v>72436.160000000003</v>
+        <v>72467.439999999988</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7253,7 +7251,7 @@
         <v>656</v>
       </c>
       <c r="C402">
-        <v>72024.55</v>
+        <v>72114.490000000005</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7264,7 +7262,7 @@
         <v>197</v>
       </c>
       <c r="C403">
-        <v>71778.570000000007</v>
+        <v>71807.75</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7275,7 +7273,7 @@
         <v>659</v>
       </c>
       <c r="C404">
-        <v>70794.759999999995</v>
+        <v>70824.479999999996</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7286,7 +7284,7 @@
         <v>661</v>
       </c>
       <c r="C405">
-        <v>69780.5</v>
+        <v>69841.41</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7297,7 +7295,7 @@
         <v>276</v>
       </c>
       <c r="C406">
-        <v>67732.260000000009</v>
+        <v>67773.459999999992</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7308,7 +7306,7 @@
         <v>664</v>
       </c>
       <c r="C407">
-        <v>67668.039999999994</v>
+        <v>67700.800000000003</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7316,10 +7314,10 @@
         <v>665</v>
       </c>
       <c r="B408" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C408">
-        <v>66729.739999999991</v>
+        <v>66738.59</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7327,10 +7325,10 @@
         <v>666</v>
       </c>
       <c r="B409" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C409">
-        <v>65079.590000000004</v>
+        <v>65128.360000000008</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7341,7 +7339,7 @@
         <v>668</v>
       </c>
       <c r="C410">
-        <v>64505.58</v>
+        <v>64532.679999999993</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7352,7 +7350,7 @@
         <v>26</v>
       </c>
       <c r="C411">
-        <v>64118.5</v>
+        <v>64110.149999999994</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7363,7 +7361,7 @@
         <v>671</v>
       </c>
       <c r="C412">
-        <v>63851.700000000004</v>
+        <v>63879.37</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7374,7 +7372,7 @@
         <v>673</v>
       </c>
       <c r="C413">
-        <v>62422.499999999993</v>
+        <v>62438.659999999996</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7385,7 +7383,7 @@
         <v>675</v>
       </c>
       <c r="C414">
-        <v>62189.16</v>
+        <v>62218.44</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7396,7 +7394,7 @@
         <v>199</v>
       </c>
       <c r="C415">
-        <v>62142.270000000004</v>
+        <v>62169.8</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7407,7 +7405,7 @@
         <v>51</v>
       </c>
       <c r="C416">
-        <v>60330.240000000005</v>
+        <v>60296.59</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7418,7 +7416,7 @@
         <v>679</v>
       </c>
       <c r="C417">
-        <v>59941.38</v>
+        <v>59968.799999999996</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7429,7 +7427,7 @@
         <v>216</v>
       </c>
       <c r="C418">
-        <v>59759.34</v>
+        <v>59806.73</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7440,7 +7438,7 @@
         <v>682</v>
       </c>
       <c r="C419">
-        <v>59618.700000000004</v>
+        <v>59645.67</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7451,7 +7449,7 @@
         <v>197</v>
       </c>
       <c r="C420">
-        <v>59304.790000000008</v>
+        <v>59429.260000000009</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7462,7 +7460,7 @@
         <v>216</v>
       </c>
       <c r="C421">
-        <v>58850.45</v>
+        <v>58872.2</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7470,10 +7468,10 @@
         <v>685</v>
       </c>
       <c r="B422" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C422">
-        <v>57361.630000000005</v>
+        <v>57383.89</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7484,7 +7482,7 @@
         <v>61</v>
       </c>
       <c r="C423">
-        <v>56645.280000000006</v>
+        <v>56678.720000000001</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7495,7 +7493,7 @@
         <v>116</v>
       </c>
       <c r="C424">
-        <v>56192.1</v>
+        <v>56314.450000000012</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7506,7 +7504,7 @@
         <v>671</v>
       </c>
       <c r="C425">
-        <v>55692.439999999988</v>
+        <v>55717.399999999994</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7514,10 +7512,10 @@
         <v>689</v>
       </c>
       <c r="B426" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C426">
-        <v>55572.9</v>
+        <v>55596.19</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7525,10 +7523,10 @@
         <v>690</v>
       </c>
       <c r="B427" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="C427">
-        <v>54845.439999999995</v>
+        <v>53513.8</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7536,10 +7534,10 @@
         <v>691</v>
       </c>
       <c r="B428" t="s">
-        <v>143</v>
+        <v>353</v>
       </c>
       <c r="C428">
-        <v>53490.080000000002</v>
+        <v>52782.820000000007</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7547,21 +7545,21 @@
         <v>692</v>
       </c>
       <c r="B429" t="s">
-        <v>351</v>
+        <v>693</v>
       </c>
       <c r="C429">
-        <v>52731.590000000004</v>
+        <v>52743.760000000009</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B430" t="s">
-        <v>694</v>
+        <v>81</v>
       </c>
       <c r="C430">
-        <v>52719.380000000005</v>
+        <v>51978.86</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7569,10 +7567,10 @@
         <v>695</v>
       </c>
       <c r="B431" t="s">
-        <v>81</v>
+        <v>313</v>
       </c>
       <c r="C431">
-        <v>51873.18</v>
+        <v>51032.43</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7580,10 +7578,10 @@
         <v>696</v>
       </c>
       <c r="B432" t="s">
-        <v>313</v>
+        <v>53</v>
       </c>
       <c r="C432">
-        <v>50918.319999999992</v>
+        <v>50510.390000000007</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7591,10 +7589,10 @@
         <v>697</v>
       </c>
       <c r="B433" t="s">
-        <v>53</v>
+        <v>574</v>
       </c>
       <c r="C433">
-        <v>50397.670000000006</v>
+        <v>50427.25</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7602,10 +7600,10 @@
         <v>698</v>
       </c>
       <c r="B434" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="C434">
-        <v>50314.559999999998</v>
+        <v>50107.989999999991</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7613,10 +7611,10 @@
         <v>699</v>
       </c>
       <c r="B435" t="s">
-        <v>555</v>
+        <v>281</v>
       </c>
       <c r="C435">
-        <v>49995.53</v>
+        <v>48909.319999999992</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7624,10 +7622,10 @@
         <v>700</v>
       </c>
       <c r="B436" t="s">
-        <v>441</v>
+        <v>247</v>
       </c>
       <c r="C436">
-        <v>48425.54</v>
+        <v>48064.49</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7635,10 +7633,10 @@
         <v>701</v>
       </c>
       <c r="B437" t="s">
-        <v>281</v>
+        <v>545</v>
       </c>
       <c r="C437">
-        <v>48299.67</v>
+        <v>47912.959999999999</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7646,10 +7644,10 @@
         <v>702</v>
       </c>
       <c r="B438" t="s">
-        <v>245</v>
+        <v>355</v>
       </c>
       <c r="C438">
-        <v>48012.94</v>
+        <v>47545.06</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7657,10 +7655,10 @@
         <v>703</v>
       </c>
       <c r="B439" t="s">
-        <v>544</v>
+        <v>425</v>
       </c>
       <c r="C439">
-        <v>47872.31</v>
+        <v>46659.28</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7668,32 +7666,32 @@
         <v>704</v>
       </c>
       <c r="B440" t="s">
-        <v>354</v>
+        <v>705</v>
       </c>
       <c r="C440">
-        <v>47455.78</v>
+        <v>45685.3</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B441" t="s">
-        <v>423</v>
+        <v>12</v>
       </c>
       <c r="C441">
-        <v>46610.499999999993</v>
+        <v>44830.33</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B442" t="s">
-        <v>707</v>
+        <v>81</v>
       </c>
       <c r="C442">
-        <v>45666.15</v>
+        <v>42341.869999999995</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7701,32 +7699,32 @@
         <v>708</v>
       </c>
       <c r="B443" t="s">
-        <v>81</v>
+        <v>709</v>
       </c>
       <c r="C443">
-        <v>42317.689999999995</v>
+        <v>42118.11</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B444" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C444">
-        <v>42099.789999999994</v>
+        <v>41325.870000000003</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B445" t="s">
-        <v>712</v>
+        <v>133</v>
       </c>
       <c r="C445">
-        <v>41294.110000000008</v>
+        <v>41156.18</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7734,10 +7732,10 @@
         <v>713</v>
       </c>
       <c r="B446" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="C446">
-        <v>41137.410000000003</v>
+        <v>40526.600000000006</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7745,32 +7743,32 @@
         <v>714</v>
       </c>
       <c r="B447" t="s">
-        <v>63</v>
+        <v>715</v>
       </c>
       <c r="C447">
-        <v>40508.060000000005</v>
+        <v>39786.730000000003</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B448" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C448">
-        <v>39770.580000000009</v>
+        <v>39358.17</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B449" t="s">
-        <v>718</v>
+        <v>443</v>
       </c>
       <c r="C449">
-        <v>39340.520000000004</v>
+        <v>36504.870000000003</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7781,7 +7779,7 @@
         <v>720</v>
       </c>
       <c r="C450">
-        <v>36413.339999999997</v>
+        <v>36429.700000000004</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7789,10 +7787,10 @@
         <v>721</v>
       </c>
       <c r="B451" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C451">
-        <v>35790.92</v>
+        <v>35836.159999999996</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7803,7 +7801,7 @@
         <v>51</v>
       </c>
       <c r="C452">
-        <v>34944.150000000009</v>
+        <v>34995.480000000003</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7814,7 +7812,7 @@
         <v>724</v>
       </c>
       <c r="C453">
-        <v>34527.649999999994</v>
+        <v>34543.75</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7825,7 +7823,7 @@
         <v>726</v>
       </c>
       <c r="C454">
-        <v>34180.100000000006</v>
+        <v>34193.83</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7836,7 +7834,7 @@
         <v>673</v>
       </c>
       <c r="C455">
-        <v>33288.68</v>
+        <v>33303.64</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7847,7 +7845,7 @@
         <v>39</v>
       </c>
       <c r="C456">
-        <v>31788.97</v>
+        <v>31803.84</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7855,10 +7853,10 @@
         <v>729</v>
       </c>
       <c r="B457" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C457">
-        <v>30734.28</v>
+        <v>30749.969999999998</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7869,7 +7867,7 @@
         <v>731</v>
       </c>
       <c r="C458">
-        <v>28412.01</v>
+        <v>28434.360000000004</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7877,10 +7875,10 @@
         <v>732</v>
       </c>
       <c r="B459" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C459">
-        <v>28042.620000000003</v>
+        <v>28061.079999999994</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7888,10 +7886,10 @@
         <v>733</v>
       </c>
       <c r="B460" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C460">
-        <v>27961.49</v>
+        <v>27974.530000000002</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7902,7 +7900,7 @@
         <v>199</v>
       </c>
       <c r="C461">
-        <v>26097.15</v>
+        <v>26108.400000000001</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7913,7 +7911,7 @@
         <v>736</v>
       </c>
       <c r="C462">
-        <v>25394.82</v>
+        <v>25406.01</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7924,7 +7922,7 @@
         <v>738</v>
       </c>
       <c r="C463">
-        <v>23256.29</v>
+        <v>23270.350000000002</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7935,7 +7933,7 @@
         <v>199</v>
       </c>
       <c r="C464">
-        <v>21010.210000000003</v>
+        <v>21019.040000000001</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7946,7 +7944,7 @@
         <v>225</v>
       </c>
       <c r="C465">
-        <v>20683.62</v>
+        <v>20692.800000000003</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7957,7 +7955,7 @@
         <v>73</v>
       </c>
       <c r="C466">
-        <v>20255.010000000002</v>
+        <v>20263.250000000007</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -7968,7 +7966,7 @@
         <v>41</v>
       </c>
       <c r="C467">
-        <v>17246.88</v>
+        <v>17254.57</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7979,7 +7977,7 @@
         <v>344</v>
       </c>
       <c r="C468">
-        <v>16300.800000000003</v>
+        <v>16463.760000000002</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7990,7 +7988,7 @@
         <v>216</v>
       </c>
       <c r="C469">
-        <v>16213.31</v>
+        <v>16220.58</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7998,10 +7996,10 @@
         <v>745</v>
       </c>
       <c r="B470" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C470">
-        <v>14503.55</v>
+        <v>14513.890000000001</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -8012,7 +8010,7 @@
         <v>747</v>
       </c>
       <c r="C471">
-        <v>14106.19</v>
+        <v>14112.48</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -8023,7 +8021,7 @@
         <v>749</v>
       </c>
       <c r="C472">
-        <v>13945.039999999999</v>
+        <v>13951.23</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8034,7 +8032,7 @@
         <v>751</v>
       </c>
       <c r="C473">
-        <v>13458.22</v>
+        <v>13464.220000000001</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8045,7 +8043,7 @@
         <v>344</v>
       </c>
       <c r="C474">
-        <v>12935.640000000001</v>
+        <v>12941.44</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8056,7 +8054,7 @@
         <v>6</v>
       </c>
       <c r="C475">
-        <v>12864.08</v>
+        <v>12893.2</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -8067,7 +8065,7 @@
         <v>313</v>
       </c>
       <c r="C476">
-        <v>11766.539999999999</v>
+        <v>11774.51</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8078,7 +8076,7 @@
         <v>756</v>
       </c>
       <c r="C477">
-        <v>11301.17</v>
+        <v>11306.15</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8089,7 +8087,7 @@
         <v>758</v>
       </c>
       <c r="C478">
-        <v>10510.31</v>
+        <v>10514.899999999998</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8097,10 +8095,10 @@
         <v>759</v>
       </c>
       <c r="B479" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C479">
-        <v>10124.790000000001</v>
+        <v>10129.040000000001</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -8111,7 +8109,7 @@
         <v>8</v>
       </c>
       <c r="C480">
-        <v>9981.0300000000007</v>
+        <v>9985.43</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -8122,7 +8120,7 @@
         <v>762</v>
       </c>
       <c r="C481">
-        <v>9244.09</v>
+        <v>9248.1</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -8133,7 +8131,7 @@
         <v>199</v>
       </c>
       <c r="C482">
-        <v>8872.25</v>
+        <v>8877</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -8144,7 +8142,7 @@
         <v>207</v>
       </c>
       <c r="C483">
-        <v>7967.5599999999995</v>
+        <v>7990.54</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -8155,7 +8153,7 @@
         <v>766</v>
       </c>
       <c r="C484">
-        <v>7151.48</v>
+        <v>7154.05</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -8166,7 +8164,7 @@
         <v>768</v>
       </c>
       <c r="C485">
-        <v>6794.6799999999994</v>
+        <v>6797.5999999999995</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -8177,7 +8175,7 @@
         <v>197</v>
       </c>
       <c r="C486">
-        <v>5313.82</v>
+        <v>5308.1</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -8185,21 +8183,21 @@
         <v>770</v>
       </c>
       <c r="B487" t="s">
-        <v>73</v>
+        <v>771</v>
       </c>
       <c r="C487">
-        <v>4683.4400000000005</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B488" t="s">
-        <v>772</v>
+        <v>73</v>
       </c>
       <c r="C488">
-        <v>4644.76</v>
+        <v>4687.51</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -8210,7 +8208,7 @@
         <v>774</v>
       </c>
       <c r="C489">
-        <v>2300</v>
+        <v>4646.6000000000004</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -8221,7 +8219,7 @@
         <v>776</v>
       </c>
       <c r="C490">
-        <v>1517.79</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -8229,32 +8227,32 @@
         <v>777</v>
       </c>
       <c r="B491" t="s">
-        <v>33</v>
+        <v>778</v>
       </c>
       <c r="C491">
-        <v>1432.2</v>
+        <v>1518.44</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B492" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C492">
-        <v>1354.92</v>
+        <v>1432.8</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B493" t="s">
-        <v>780</v>
+        <v>53</v>
       </c>
       <c r="C493">
-        <v>1103.0999999999999</v>
+        <v>1349.5700000000002</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -8262,43 +8260,43 @@
         <v>781</v>
       </c>
       <c r="B494" t="s">
-        <v>396</v>
+        <v>782</v>
       </c>
       <c r="C494">
-        <v>1088.48</v>
+        <v>1103.5899999999999</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B495" t="s">
-        <v>586</v>
+        <v>398</v>
       </c>
       <c r="C495">
-        <v>745.99</v>
+        <v>1088.96</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B496" t="s">
-        <v>22</v>
+        <v>592</v>
       </c>
       <c r="C496">
-        <v>501.70000000000005</v>
+        <v>746.27</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B497" t="s">
-        <v>785</v>
+        <v>22</v>
       </c>
       <c r="C497">
-        <v>435.68</v>
+        <v>501.85</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -8306,26 +8304,26 @@
         <v>786</v>
       </c>
       <c r="B498" t="s">
-        <v>100</v>
+        <v>787</v>
       </c>
       <c r="C498">
-        <v>279.23</v>
+        <v>435.68</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B499" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="C499">
-        <v>150</v>
+        <v>279.35000000000002</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B500" t="s">
         <v>195</v>
@@ -8336,57 +8334,57 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B501" t="s">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="C501">
-        <v>86.38</v>
+        <v>150</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B502" t="s">
-        <v>441</v>
+        <v>268</v>
       </c>
       <c r="C502">
-        <v>50.26</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B503" t="s">
-        <v>562</v>
+        <v>443</v>
       </c>
       <c r="C503">
-        <v>50</v>
+        <v>50.26</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B504" t="s">
-        <v>431</v>
+        <v>563</v>
       </c>
       <c r="C504">
-        <v>33.049999999999997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B505" t="s">
-        <v>794</v>
+        <v>435</v>
       </c>
       <c r="C505">
-        <v>29.770000000000003</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -8397,7 +8395,7 @@
         <v>796</v>
       </c>
       <c r="C506">
-        <v>21.27</v>
+        <v>29.770000000000003</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -8405,32 +8403,32 @@
         <v>797</v>
       </c>
       <c r="B507" t="s">
-        <v>22</v>
+        <v>798</v>
       </c>
       <c r="C507">
-        <v>19.079999999999998</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B508" t="s">
-        <v>276</v>
+        <v>22</v>
       </c>
       <c r="C508">
-        <v>18.32</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B509" t="s">
-        <v>800</v>
+        <v>276</v>
       </c>
       <c r="C509">
-        <v>17.86</v>
+        <v>18.32</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8441,7 +8439,7 @@
         <v>802</v>
       </c>
       <c r="C510">
-        <v>14.67</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -8452,7 +8450,7 @@
         <v>804</v>
       </c>
       <c r="C511">
-        <v>9.7200000000000006</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8460,21 +8458,21 @@
         <v>805</v>
       </c>
       <c r="B512" t="s">
-        <v>268</v>
+        <v>806</v>
       </c>
       <c r="C512">
-        <v>5.55</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B513" t="s">
-        <v>807</v>
+        <v>268</v>
       </c>
       <c r="C513">
-        <v>0.05</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -8482,18 +8480,18 @@
         <v>808</v>
       </c>
       <c r="B514" t="s">
-        <v>41</v>
+        <v>809</v>
       </c>
       <c r="C514">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B515" t="s">
-        <v>810</v>
+        <v>41</v>
       </c>
       <c r="C515">
         <v>0.01</v>
@@ -8507,7 +8505,7 @@
         <v>812</v>
       </c>
       <c r="C516">
-        <v>-15.180000000000291</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="518" spans="1:3">

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56DCB9A7-53D0-4174-BD61-810E19ACCE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52B32233-11A2-4D14-9342-998594C116C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="816">
   <si>
     <t>CONTA</t>
   </si>
@@ -340,15 +340,15 @@
     <t>MONICA</t>
   </si>
   <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
     <t>004395314</t>
   </si>
   <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
     <t>004552021</t>
   </si>
   <si>
@@ -373,18 +373,18 @@
     <t>LARISSA</t>
   </si>
   <si>
+    <t>001882235</t>
+  </si>
+  <si>
+    <t>LAGO</t>
+  </si>
+  <si>
     <t>004912314</t>
   </si>
   <si>
     <t>FABRICIO</t>
   </si>
   <si>
-    <t>001882235</t>
-  </si>
-  <si>
-    <t>LAGO</t>
-  </si>
-  <si>
     <t>003987275</t>
   </si>
   <si>
@@ -451,15 +451,15 @@
     <t>004381180</t>
   </si>
   <si>
+    <t>004915243</t>
+  </si>
+  <si>
+    <t>POLO</t>
+  </si>
+  <si>
     <t>004482439</t>
   </si>
   <si>
-    <t>004915243</t>
-  </si>
-  <si>
-    <t>POLO</t>
-  </si>
-  <si>
     <t>004526450</t>
   </si>
   <si>
@@ -502,18 +502,18 @@
     <t>MARGARETH</t>
   </si>
   <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
     <t>004328934</t>
   </si>
   <si>
     <t>VALERIA</t>
   </si>
   <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
     <t>004208733</t>
   </si>
   <si>
@@ -559,15 +559,15 @@
     <t>WANDER</t>
   </si>
   <si>
+    <t>004639776</t>
+  </si>
+  <si>
+    <t>005190138</t>
+  </si>
+  <si>
     <t>004890544</t>
   </si>
   <si>
-    <t>004639776</t>
-  </si>
-  <si>
-    <t>005190138</t>
-  </si>
-  <si>
     <t>004499920</t>
   </si>
   <si>
@@ -604,16 +604,19 @@
     <t>004453157</t>
   </si>
   <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
     <t>004586209</t>
   </si>
   <si>
     <t>ROBERIO</t>
   </si>
   <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
+    <t>004241147</t>
   </si>
   <si>
     <t>005143579</t>
@@ -622,9 +625,6 @@
     <t>GABRIEL</t>
   </si>
   <si>
-    <t>004241147</t>
-  </si>
-  <si>
     <t>004459461</t>
   </si>
   <si>
@@ -673,12 +673,12 @@
     <t>LUIZ</t>
   </si>
   <si>
+    <t>004752534</t>
+  </si>
+  <si>
     <t>005092207</t>
   </si>
   <si>
-    <t>004752534</t>
-  </si>
-  <si>
     <t>004207955</t>
   </si>
   <si>
@@ -691,25 +691,1384 @@
     <t>ALESSANDRA</t>
   </si>
   <si>
+    <t>004646727</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
     <t>004453132</t>
   </si>
   <si>
-    <t>004646727</t>
-  </si>
-  <si>
-    <t>RENATA</t>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
   </si>
   <si>
     <t>004335144</t>
   </si>
   <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>004515341</t>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>004497875</t>
+  </si>
+  <si>
+    <t>004355790</t>
+  </si>
+  <si>
+    <t>MINEIA</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004458624</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>000626491</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004380749</t>
+  </si>
+  <si>
+    <t>ELEUSE</t>
+  </si>
+  <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>005135105</t>
+  </si>
+  <si>
+    <t>BRENNER</t>
+  </si>
+  <si>
+    <t>004806244</t>
+  </si>
+  <si>
+    <t>CARLA</t>
+  </si>
+  <si>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>004911541</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>005101676</t>
+  </si>
+  <si>
+    <t>ELENI</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>005105172</t>
+  </si>
+  <si>
+    <t>VALDIVINO</t>
+  </si>
+  <si>
+    <t>001731007</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004588677</t>
+  </si>
+  <si>
+    <t>RACHEL</t>
+  </si>
+  <si>
+    <t>005009947</t>
+  </si>
+  <si>
+    <t>VERANICE</t>
+  </si>
+  <si>
+    <t>004419765</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004751770</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004404248</t>
+  </si>
+  <si>
+    <t>005000645</t>
+  </si>
+  <si>
+    <t>004530494</t>
+  </si>
+  <si>
+    <t>004589311</t>
+  </si>
+  <si>
+    <t>CLARICE</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004472431</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>004950193</t>
+  </si>
+  <si>
+    <t>004811224</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>005035754</t>
+  </si>
+  <si>
+    <t>004587525</t>
+  </si>
+  <si>
+    <t>JADER</t>
+  </si>
+  <si>
+    <t>004971448</t>
+  </si>
+  <si>
+    <t>CLOVIS</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>002694089</t>
+  </si>
+  <si>
+    <t>VITOR</t>
+  </si>
+  <si>
+    <t>004805133</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004805333</t>
+  </si>
+  <si>
+    <t>ROSANA</t>
+  </si>
+  <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>004223226</t>
+  </si>
+  <si>
+    <t>YESHUA</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004482262</t>
+  </si>
+  <si>
+    <t>RITA</t>
+  </si>
+  <si>
+    <t>004460487</t>
+  </si>
+  <si>
+    <t>004563237</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>004827315</t>
+  </si>
+  <si>
+    <t>GILTON</t>
+  </si>
+  <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>004276856</t>
+  </si>
+  <si>
+    <t>DAURA</t>
+  </si>
+  <si>
+    <t>004693349</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>003921139</t>
+  </si>
+  <si>
+    <t>GEISA</t>
+  </si>
+  <si>
+    <t>004482090</t>
+  </si>
+  <si>
+    <t>CEZAR</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>003435941</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>004866753</t>
+  </si>
+  <si>
+    <t>GENESI</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004853111</t>
+  </si>
+  <si>
+    <t>MARCONDES</t>
+  </si>
+  <si>
+    <t>004756981</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>004567880</t>
+  </si>
+  <si>
+    <t>LUANA</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>004945161</t>
+  </si>
+  <si>
+    <t>004870976</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>004550605</t>
+  </si>
+  <si>
+    <t>REJANE</t>
+  </si>
+  <si>
+    <t>004999410</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004491730</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>004479287</t>
+  </si>
+  <si>
+    <t>004259649</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004556150</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>001000882</t>
+  </si>
+  <si>
+    <t>AYRTON</t>
+  </si>
+  <si>
+    <t>004805273</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004550750</t>
+  </si>
+  <si>
+    <t>THEO</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>004575621</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>005147664</t>
+  </si>
+  <si>
+    <t>SAVIO</t>
+  </si>
+  <si>
+    <t>002823185</t>
+  </si>
+  <si>
+    <t>004461526</t>
+  </si>
+  <si>
+    <t>ASSISTIGAS</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>004520100</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>004806286</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004463586</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>004552944</t>
+  </si>
+  <si>
+    <t>YURI</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>005105970</t>
+  </si>
+  <si>
+    <t>005141215</t>
+  </si>
+  <si>
+    <t>KARINA</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>005073033</t>
+  </si>
+  <si>
+    <t>NILBORN</t>
+  </si>
+  <si>
+    <t>004924222</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
+    <t>004431591</t>
+  </si>
+  <si>
+    <t>004211807</t>
+  </si>
+  <si>
+    <t>EDINARDO</t>
+  </si>
+  <si>
+    <t>004466221</t>
+  </si>
+  <si>
+    <t>004575632</t>
+  </si>
+  <si>
+    <t>ADELE</t>
+  </si>
+  <si>
+    <t>004967702</t>
+  </si>
+  <si>
+    <t>VINICIUS</t>
+  </si>
+  <si>
+    <t>004207658</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
+  </si>
+  <si>
+    <t>005142624</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>004398253</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>004462930</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004212409</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>000827730</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004259650</t>
+  </si>
+  <si>
+    <t>004436055</t>
+  </si>
+  <si>
+    <t>004202332</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>004971783</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>004550415</t>
+  </si>
+  <si>
+    <t>DIOGO</t>
+  </si>
+  <si>
+    <t>004425965</t>
+  </si>
+  <si>
+    <t>CAROLLINA</t>
+  </si>
+  <si>
+    <t>004403674</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
+    <t>005040864</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>004289402</t>
+  </si>
+  <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>004425261</t>
+  </si>
+  <si>
+    <t>THAYSA</t>
+  </si>
+  <si>
+    <t>004465263</t>
+  </si>
+  <si>
+    <t>CLAUDIO</t>
+  </si>
+  <si>
+    <t>004475395</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>005142661</t>
+  </si>
+  <si>
+    <t>SABRINA</t>
+  </si>
+  <si>
+    <t>004421636</t>
+  </si>
+  <si>
+    <t>004467884</t>
+  </si>
+  <si>
+    <t>004886366</t>
+  </si>
+  <si>
+    <t>005165116</t>
+  </si>
+  <si>
+    <t>004267119</t>
+  </si>
+  <si>
+    <t>004335031</t>
+  </si>
+  <si>
+    <t>004511696</t>
+  </si>
+  <si>
+    <t>KRYSCIA</t>
+  </si>
+  <si>
+    <t>004224815</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004981655</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>002786022</t>
+  </si>
+  <si>
+    <t>004936634</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>004920447</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>005076418</t>
+  </si>
+  <si>
+    <t>001879977</t>
+  </si>
+  <si>
+    <t>THAISSA</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004334158</t>
+  </si>
+  <si>
+    <t>LEONE</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>001922009</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
+  </si>
+  <si>
+    <t>004471893</t>
+  </si>
+  <si>
+    <t>PAULA</t>
+  </si>
+  <si>
+    <t>004382902</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>004467016</t>
+  </si>
+  <si>
+    <t>ISABEL</t>
+  </si>
+  <si>
+    <t>004480970</t>
+  </si>
+  <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>004486497</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>004479965</t>
+  </si>
+  <si>
+    <t>005024046</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
+    <t>005169333</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>004587511</t>
+  </si>
+  <si>
+    <t>004238164</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>004224011</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>004974089</t>
+  </si>
+  <si>
+    <t>004498637</t>
+  </si>
+  <si>
+    <t>004547722</t>
+  </si>
+  <si>
+    <t>004458604</t>
+  </si>
+  <si>
+    <t>FABIOLA</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004230529</t>
+  </si>
+  <si>
+    <t>LAIS</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>004848279</t>
+  </si>
+  <si>
+    <t>005000656</t>
+  </si>
+  <si>
+    <t>000834301</t>
+  </si>
+  <si>
+    <t>004643153</t>
+  </si>
+  <si>
+    <t>004313254</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>005173958</t>
+  </si>
+  <si>
+    <t>004444164</t>
+  </si>
+  <si>
+    <t>005079458</t>
+  </si>
+  <si>
+    <t>JONAS</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>004278033</t>
+  </si>
+  <si>
+    <t>DAISY</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>004508516</t>
+  </si>
+  <si>
+    <t>004500804</t>
+  </si>
+  <si>
+    <t>004397124</t>
+  </si>
+  <si>
+    <t>MURYLO</t>
+  </si>
+  <si>
+    <t>004691225</t>
+  </si>
+  <si>
+    <t>ANNA</t>
+  </si>
+  <si>
+    <t>004517080</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>001719494</t>
+  </si>
+  <si>
+    <t>004377415</t>
+  </si>
+  <si>
+    <t>ANGELA</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004255049</t>
+  </si>
+  <si>
+    <t>MATHEUS</t>
+  </si>
+  <si>
+    <t>004265173</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>004242237</t>
+  </si>
+  <si>
+    <t>MARIAH</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>001761119</t>
+  </si>
+  <si>
+    <t>BLUEMETRIX</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>004767746</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>004854496</t>
+  </si>
+  <si>
+    <t>004972070</t>
+  </si>
+  <si>
+    <t>000772433</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004451725</t>
+  </si>
+  <si>
+    <t>PABLO</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004381194</t>
+  </si>
+  <si>
+    <t>ALINNE</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>004267044</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>004388077</t>
+  </si>
+  <si>
+    <t>WLADMIR</t>
+  </si>
+  <si>
+    <t>004452507</t>
+  </si>
+  <si>
+    <t>005046919</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>004973881</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>004643880</t>
+  </si>
+  <si>
+    <t>004243043</t>
+  </si>
+  <si>
+    <t>SUELI</t>
+  </si>
+  <si>
+    <t>001294033</t>
+  </si>
+  <si>
+    <t>VIVIANE</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>004877741</t>
+  </si>
+  <si>
+    <t>004455356</t>
+  </si>
+  <si>
+    <t>005022526</t>
   </si>
   <si>
     <t>004207374</t>
@@ -718,1392 +2077,33 @@
     <t>ANGELICA</t>
   </si>
   <si>
-    <t>004497875</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>004355790</t>
-  </si>
-  <si>
-    <t>MINEIA</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004458624</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>000626491</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004380749</t>
-  </si>
-  <si>
-    <t>ELEUSE</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>005135105</t>
-  </si>
-  <si>
-    <t>BRENNER</t>
-  </si>
-  <si>
-    <t>004806244</t>
-  </si>
-  <si>
-    <t>CARLA</t>
-  </si>
-  <si>
-    <t>004458563</t>
-  </si>
-  <si>
-    <t>004911541</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>005101676</t>
-  </si>
-  <si>
-    <t>ELENI</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>005105172</t>
-  </si>
-  <si>
-    <t>VALDIVINO</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>001731007</t>
-  </si>
-  <si>
-    <t>004588677</t>
-  </si>
-  <si>
-    <t>RACHEL</t>
-  </si>
-  <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>005009947</t>
-  </si>
-  <si>
-    <t>VERANICE</t>
-  </si>
-  <si>
-    <t>004419765</t>
-  </si>
-  <si>
-    <t>WALTER</t>
-  </si>
-  <si>
-    <t>004751770</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004811224</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004404248</t>
-  </si>
-  <si>
-    <t>005000645</t>
-  </si>
-  <si>
-    <t>004530494</t>
-  </si>
-  <si>
-    <t>004589311</t>
-  </si>
-  <si>
-    <t>CLARICE</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004472431</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>004950193</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>005035754</t>
-  </si>
-  <si>
-    <t>004971448</t>
-  </si>
-  <si>
-    <t>CLOVIS</t>
-  </si>
-  <si>
-    <t>004587525</t>
-  </si>
-  <si>
-    <t>JADER</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>002694089</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>004805133</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>004805333</t>
-  </si>
-  <si>
-    <t>ROSANA</t>
-  </si>
-  <si>
-    <t>004223226</t>
-  </si>
-  <si>
-    <t>YESHUA</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004482262</t>
-  </si>
-  <si>
-    <t>RITA</t>
-  </si>
-  <si>
-    <t>004460487</t>
-  </si>
-  <si>
-    <t>004563237</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>004827315</t>
-  </si>
-  <si>
-    <t>GILTON</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>004276856</t>
-  </si>
-  <si>
-    <t>DAURA</t>
-  </si>
-  <si>
-    <t>004693349</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>004482090</t>
-  </si>
-  <si>
-    <t>CEZAR</t>
-  </si>
-  <si>
-    <t>003921139</t>
-  </si>
-  <si>
-    <t>GEISA</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>003435941</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>004866753</t>
-  </si>
-  <si>
-    <t>GENESI</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>004853111</t>
-  </si>
-  <si>
-    <t>MARCONDES</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>004756981</t>
-  </si>
-  <si>
-    <t>004567880</t>
-  </si>
-  <si>
-    <t>LUANA</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004945161</t>
-  </si>
-  <si>
-    <t>004870976</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>004999410</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>004550605</t>
-  </si>
-  <si>
-    <t>REJANE</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004479287</t>
-  </si>
-  <si>
-    <t>004491730</t>
-  </si>
-  <si>
-    <t>DENISE</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>004259649</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004556150</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>001000882</t>
-  </si>
-  <si>
-    <t>AYRTON</t>
-  </si>
-  <si>
-    <t>004805273</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004550750</t>
-  </si>
-  <si>
-    <t>THEO</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>004575621</t>
-  </si>
-  <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>005147664</t>
-  </si>
-  <si>
-    <t>SAVIO</t>
-  </si>
-  <si>
-    <t>002823185</t>
-  </si>
-  <si>
-    <t>004461526</t>
-  </si>
-  <si>
-    <t>ASSISTIGAS</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004520100</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>004806286</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004463586</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>004552944</t>
-  </si>
-  <si>
-    <t>YURI</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>005105970</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>005141215</t>
-  </si>
-  <si>
-    <t>KARINA</t>
-  </si>
-  <si>
-    <t>005073033</t>
-  </si>
-  <si>
-    <t>NILBORN</t>
-  </si>
-  <si>
-    <t>004924222</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>004431591</t>
-  </si>
-  <si>
-    <t>004211807</t>
-  </si>
-  <si>
-    <t>EDINARDO</t>
-  </si>
-  <si>
-    <t>004466221</t>
-  </si>
-  <si>
-    <t>004575632</t>
-  </si>
-  <si>
-    <t>ADELE</t>
-  </si>
-  <si>
-    <t>004967702</t>
-  </si>
-  <si>
-    <t>VINICIUS</t>
-  </si>
-  <si>
-    <t>004207658</t>
-  </si>
-  <si>
-    <t>ROBERTO</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>005142624</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>004398253</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004462930</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>004212409</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>004259650</t>
-  </si>
-  <si>
-    <t>004436055</t>
-  </si>
-  <si>
-    <t>000827730</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004202332</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>004971783</t>
-  </si>
-  <si>
-    <t>ERIKA</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004550415</t>
-  </si>
-  <si>
-    <t>DIOGO</t>
-  </si>
-  <si>
-    <t>004425965</t>
-  </si>
-  <si>
-    <t>CAROLLINA</t>
-  </si>
-  <si>
-    <t>004403674</t>
-  </si>
-  <si>
-    <t>LILIAN</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
-    <t>005040864</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>004289402</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>004425261</t>
-  </si>
-  <si>
-    <t>THAYSA</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>004465263</t>
-  </si>
-  <si>
-    <t>CLAUDIO</t>
-  </si>
-  <si>
-    <t>004475395</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>005142661</t>
-  </si>
-  <si>
-    <t>SABRINA</t>
-  </si>
-  <si>
-    <t>004421636</t>
-  </si>
-  <si>
-    <t>004467884</t>
-  </si>
-  <si>
-    <t>004886366</t>
-  </si>
-  <si>
-    <t>005165116</t>
-  </si>
-  <si>
-    <t>004267119</t>
-  </si>
-  <si>
-    <t>004335031</t>
-  </si>
-  <si>
-    <t>004511696</t>
-  </si>
-  <si>
-    <t>KRYSCIA</t>
-  </si>
-  <si>
-    <t>004224815</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004981655</t>
-  </si>
-  <si>
-    <t>WILLIAM</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>002786022</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>004920447</t>
-  </si>
-  <si>
-    <t>MARILIA</t>
-  </si>
-  <si>
-    <t>004936634</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>005076418</t>
-  </si>
-  <si>
-    <t>001879977</t>
-  </si>
-  <si>
-    <t>THAISSA</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004334158</t>
-  </si>
-  <si>
-    <t>LEONE</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>001922009</t>
-  </si>
-  <si>
-    <t>SOFIA</t>
-  </si>
-  <si>
-    <t>004471893</t>
-  </si>
-  <si>
-    <t>PAULA</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>004382902</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004467016</t>
-  </si>
-  <si>
-    <t>ISABEL</t>
-  </si>
-  <si>
-    <t>004480970</t>
-  </si>
-  <si>
-    <t>005055226</t>
-  </si>
-  <si>
-    <t>004486497</t>
-  </si>
-  <si>
-    <t>ELENA</t>
-  </si>
-  <si>
-    <t>004479965</t>
-  </si>
-  <si>
-    <t>005024046</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>004587511</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>004238164</t>
-  </si>
-  <si>
-    <t>004974089</t>
-  </si>
-  <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>004498637</t>
-  </si>
-  <si>
-    <t>004547722</t>
-  </si>
-  <si>
-    <t>004458604</t>
-  </si>
-  <si>
-    <t>FABIOLA</t>
-  </si>
-  <si>
-    <t>005169333</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004230529</t>
-  </si>
-  <si>
-    <t>LAIS</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>004848279</t>
-  </si>
-  <si>
-    <t>000834301</t>
-  </si>
-  <si>
-    <t>005000656</t>
-  </si>
-  <si>
-    <t>004643153</t>
-  </si>
-  <si>
-    <t>004313254</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>005173958</t>
-  </si>
-  <si>
-    <t>004444164</t>
-  </si>
-  <si>
-    <t>005079458</t>
-  </si>
-  <si>
-    <t>JONAS</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>004278033</t>
-  </si>
-  <si>
-    <t>DAISY</t>
-  </si>
-  <si>
-    <t>004397124</t>
-  </si>
-  <si>
-    <t>MURYLO</t>
-  </si>
-  <si>
-    <t>004691225</t>
-  </si>
-  <si>
-    <t>ANNA</t>
-  </si>
-  <si>
-    <t>004508504</t>
-  </si>
-  <si>
-    <t>004508516</t>
-  </si>
-  <si>
-    <t>004500804</t>
-  </si>
-  <si>
-    <t>004517080</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>001719494</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>004377415</t>
-  </si>
-  <si>
-    <t>ANGELA</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>004255049</t>
-  </si>
-  <si>
-    <t>MATHEUS</t>
-  </si>
-  <si>
-    <t>004265173</t>
-  </si>
-  <si>
-    <t>JULIA</t>
-  </si>
-  <si>
-    <t>004767746</t>
-  </si>
-  <si>
-    <t>004242237</t>
-  </si>
-  <si>
-    <t>MARIAH</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>001761119</t>
-  </si>
-  <si>
-    <t>BLUEMETRIX</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>004854496</t>
-  </si>
-  <si>
-    <t>004972070</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>000772433</t>
-  </si>
-  <si>
-    <t>004451725</t>
-  </si>
-  <si>
-    <t>PABLO</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>004381194</t>
-  </si>
-  <si>
-    <t>ALINNE</t>
-  </si>
-  <si>
-    <t>004267044</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>004388077</t>
-  </si>
-  <si>
-    <t>WLADMIR</t>
-  </si>
-  <si>
-    <t>004452507</t>
-  </si>
-  <si>
-    <t>005046919</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>004973881</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>004643880</t>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>004290978</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>004497825</t>
   </si>
   <si>
     <t>004454365</t>
   </si>
   <si>
-    <t>004243043</t>
-  </si>
-  <si>
-    <t>SUELI</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>001294033</t>
-  </si>
-  <si>
-    <t>VIVIANE</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>004877741</t>
-  </si>
-  <si>
-    <t>005022526</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>004290978</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>004497825</t>
-  </si>
-  <si>
     <t>004751154</t>
   </si>
   <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
     <t>005044389</t>
   </si>
   <si>
@@ -2113,27 +2113,27 @@
     <t>004754056</t>
   </si>
   <si>
+    <t>004259659</t>
+  </si>
+  <si>
     <t>004752494</t>
   </si>
   <si>
     <t>004749928</t>
   </si>
   <si>
-    <t>004259659</t>
-  </si>
-  <si>
     <t>004508159</t>
   </si>
   <si>
     <t>004374943</t>
   </si>
   <si>
+    <t>004752519</t>
+  </si>
+  <si>
     <t>005140667</t>
   </si>
   <si>
-    <t>004752519</t>
-  </si>
-  <si>
     <t>004215217</t>
   </si>
   <si>
@@ -2158,36 +2158,36 @@
     <t>LUIZA</t>
   </si>
   <si>
+    <t>005133039</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>003497496</t>
+  </si>
+  <si>
+    <t>ELISANDRA</t>
+  </si>
+  <si>
+    <t>004479734</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
     <t>005018038</t>
   </si>
   <si>
-    <t>005133039</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>003497496</t>
-  </si>
-  <si>
-    <t>ELISANDRA</t>
-  </si>
-  <si>
-    <t>004479734</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
     <t>005135281</t>
   </si>
   <si>
@@ -2212,27 +2212,33 @@
     <t>004470679</t>
   </si>
   <si>
+    <t>004756968</t>
+  </si>
+  <si>
+    <t>DANIELY</t>
+  </si>
+  <si>
+    <t>004504449</t>
+  </si>
+  <si>
+    <t>KELMA</t>
+  </si>
+  <si>
     <t>004693308</t>
   </si>
   <si>
     <t>LAURA</t>
   </si>
   <si>
+    <t>004207278</t>
+  </si>
+  <si>
     <t>004804036</t>
   </si>
   <si>
-    <t>004207278</t>
-  </si>
-  <si>
     <t>004638738</t>
   </si>
   <si>
-    <t>004504449</t>
-  </si>
-  <si>
-    <t>KELMA</t>
-  </si>
-  <si>
     <t>004274441</t>
   </si>
   <si>
@@ -2251,10 +2257,10 @@
     <t>000431814</t>
   </si>
   <si>
+    <t>004517506</t>
+  </si>
+  <si>
     <t>004563252</t>
-  </si>
-  <si>
-    <t>004517506</t>
   </si>
   <si>
     <t>003249855</t>
@@ -2826,9 +2832,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C518"/>
+  <dimension ref="A1:C519"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2851,7 +2859,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>16342445.470000001</v>
+        <v>16340010.58</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2862,7 +2870,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>8210921.3699999982</v>
+        <v>8214144.6999999993</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2873,7 +2881,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7252654.209999999</v>
+        <v>7261705.6899999995</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2884,7 +2892,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6185260.3799999999</v>
+        <v>6181725.1900000004</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2895,7 +2903,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>5722521.9000000004</v>
+        <v>5731081.1400000006</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2906,7 +2914,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>4600950.4700000016</v>
+        <v>4602824.2600000007</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2917,7 +2925,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>4316383.5599999996</v>
+        <v>4316022.6900000004</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2928,7 +2936,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>4251151.2300000004</v>
+        <v>4229900.99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2939,7 +2947,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>4225093.72</v>
+        <v>4225096.6999999993</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2950,7 +2958,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>4212765.25</v>
+        <v>4215797.33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2961,7 +2969,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>3962201.6399999997</v>
+        <v>3962204.5399999991</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2972,7 +2980,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>3738211.6699999995</v>
+        <v>3740187.8200000003</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2983,7 +2991,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>3734756.78</v>
+        <v>3734301.28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2994,7 +3002,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>3574809.2399999993</v>
+        <v>3575229.75</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3005,7 +3013,7 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>3399661.9699999997</v>
+        <v>3395157.4000000008</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3016,7 +3024,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>3296920.82</v>
+        <v>3298343.3199999994</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3027,7 +3035,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>3183835.7300000004</v>
+        <v>3185339.61</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3038,7 +3046,7 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3092265.9099999997</v>
+        <v>3093643.41</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3049,7 +3057,7 @@
         <v>39</v>
       </c>
       <c r="C20">
-        <v>3026898.6399999997</v>
+        <v>3028404.6999999997</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3060,7 +3068,7 @@
         <v>41</v>
       </c>
       <c r="C21">
-        <v>2945698.6499999994</v>
+        <v>2946163.25</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3071,7 +3079,7 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>2806709.59</v>
+        <v>2807797.9300000006</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3082,7 +3090,7 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>2790803.5900000003</v>
+        <v>2791725.9099999997</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3093,7 +3101,7 @@
         <v>47</v>
       </c>
       <c r="C24">
-        <v>2736400.37</v>
+        <v>2733781.78</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3104,7 +3112,7 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>2664937.0499999998</v>
+        <v>2665592.46</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3115,7 +3123,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <v>2520947.34</v>
+        <v>2542606.3299999991</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3126,7 +3134,7 @@
         <v>53</v>
       </c>
       <c r="C27">
-        <v>2385000.8200000003</v>
+        <v>2377259.4299999997</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3137,7 +3145,7 @@
         <v>55</v>
       </c>
       <c r="C28">
-        <v>2289868.62</v>
+        <v>2291219.0299999998</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3148,7 +3156,7 @@
         <v>57</v>
       </c>
       <c r="C29">
-        <v>2207110.6700000004</v>
+        <v>2207907.7799999998</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3159,7 +3167,7 @@
         <v>59</v>
       </c>
       <c r="C30">
-        <v>2205307.46</v>
+        <v>2206297.02</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3170,7 +3178,7 @@
         <v>61</v>
       </c>
       <c r="C31">
-        <v>2103855.44</v>
+        <v>2101327.4699999997</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3181,7 +3189,7 @@
         <v>63</v>
       </c>
       <c r="C32">
-        <v>2048789.6099999999</v>
+        <v>2049021.48</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3192,7 +3200,7 @@
         <v>39</v>
       </c>
       <c r="C33">
-        <v>2041284.64</v>
+        <v>2041944.6500000001</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3203,7 +3211,7 @@
         <v>66</v>
       </c>
       <c r="C34">
-        <v>1965489.2799999998</v>
+        <v>1959199.0399999998</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3214,7 +3222,7 @@
         <v>68</v>
       </c>
       <c r="C35">
-        <v>1948254.2600000002</v>
+        <v>1947866.83</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3225,7 +3233,7 @@
         <v>70</v>
       </c>
       <c r="C36">
-        <v>1860942.5300000003</v>
+        <v>1859336.5899999999</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3236,7 +3244,7 @@
         <v>22</v>
       </c>
       <c r="C37">
-        <v>1846116.5300000003</v>
+        <v>1843640.6</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3247,7 +3255,7 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>1821997.79</v>
+        <v>1822813.64</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3258,7 +3266,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>1817742.1499999994</v>
+        <v>1818410.2399999993</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3269,7 +3277,7 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>1805589.1000000006</v>
+        <v>1804237.1399999994</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3280,7 +3288,7 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <v>1766577.47</v>
+        <v>1766908.6500000001</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3291,7 +3299,7 @@
         <v>81</v>
       </c>
       <c r="C42">
-        <v>1604601.0899999999</v>
+        <v>1604702.7999999998</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3302,7 +3310,7 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>1584467.41</v>
+        <v>1584473.76</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3313,7 +3321,7 @@
         <v>85</v>
       </c>
       <c r="C44">
-        <v>1518144.09</v>
+        <v>1519856.3699999994</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3324,7 +3332,7 @@
         <v>79</v>
       </c>
       <c r="C45">
-        <v>1478333.0499999998</v>
+        <v>1478988.3599999999</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3335,7 +3343,7 @@
         <v>88</v>
       </c>
       <c r="C46">
-        <v>1437521</v>
+        <v>1435905.5700000003</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3346,7 +3354,7 @@
         <v>90</v>
       </c>
       <c r="C47">
-        <v>1402055.37</v>
+        <v>1402923.09</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3357,7 +3365,7 @@
         <v>92</v>
       </c>
       <c r="C48">
-        <v>1384433.75</v>
+        <v>1385038.7899999996</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3368,7 +3376,7 @@
         <v>94</v>
       </c>
       <c r="C49">
-        <v>1366253.0199999996</v>
+        <v>1366627.3399999996</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3379,7 +3387,7 @@
         <v>96</v>
       </c>
       <c r="C50">
-        <v>1361903.97</v>
+        <v>1362471.9200000002</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3390,7 +3398,7 @@
         <v>98</v>
       </c>
       <c r="C51">
-        <v>1344711.03</v>
+        <v>1337540.48</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3401,7 +3409,7 @@
         <v>100</v>
       </c>
       <c r="C52">
-        <v>1334229.9600000002</v>
+        <v>1334986.1000000001</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3412,7 +3420,7 @@
         <v>102</v>
       </c>
       <c r="C53">
-        <v>1313071.7600000002</v>
+        <v>1308534.0699999998</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3423,7 +3431,7 @@
         <v>88</v>
       </c>
       <c r="C54">
-        <v>1279765.6600000001</v>
+        <v>1281551.9699999997</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3434,7 +3442,7 @@
         <v>105</v>
       </c>
       <c r="C55">
-        <v>1276554.0400000003</v>
+        <v>1277031.1399999999</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3442,21 +3450,21 @@
         <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="C56">
-        <v>1276465.7499999998</v>
+        <v>1268702.3899999999</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="C57">
-        <v>1268522.1299999999</v>
+        <v>1264688.8799999997</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3467,7 +3475,7 @@
         <v>22</v>
       </c>
       <c r="C58">
-        <v>1252216.54</v>
+        <v>1252217.02</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3478,7 +3486,7 @@
         <v>111</v>
       </c>
       <c r="C59">
-        <v>1232912.45</v>
+        <v>1233486.7600000002</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3489,7 +3497,7 @@
         <v>113</v>
       </c>
       <c r="C60">
-        <v>1217567.6899999997</v>
+        <v>1217765.7699999998</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3500,7 +3508,7 @@
         <v>49</v>
       </c>
       <c r="C61">
-        <v>1216605.3400000001</v>
+        <v>1217161.8700000001</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3511,7 +3519,7 @@
         <v>116</v>
       </c>
       <c r="C62">
-        <v>1180334.0699999998</v>
+        <v>1179928.9100000001</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3522,7 +3530,7 @@
         <v>118</v>
       </c>
       <c r="C63">
-        <v>1164936.4600000002</v>
+        <v>1158754.1600000001</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3533,7 +3541,7 @@
         <v>120</v>
       </c>
       <c r="C64">
-        <v>1158196.5399999998</v>
+        <v>1151639.3799999997</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3544,7 +3552,7 @@
         <v>122</v>
       </c>
       <c r="C65">
-        <v>1131193.2</v>
+        <v>1131787.73</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3555,7 +3563,7 @@
         <v>124</v>
       </c>
       <c r="C66">
-        <v>1096169.3</v>
+        <v>1094586.96</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3566,7 +3574,7 @@
         <v>126</v>
       </c>
       <c r="C67">
-        <v>1071403.07</v>
+        <v>1070809.3499999999</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3577,7 +3585,7 @@
         <v>61</v>
       </c>
       <c r="C68">
-        <v>1071309.6300000001</v>
+        <v>1065044.7199999997</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3588,7 +3596,7 @@
         <v>129</v>
       </c>
       <c r="C69">
-        <v>1059116.74</v>
+        <v>1057001.93</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3599,7 +3607,7 @@
         <v>131</v>
       </c>
       <c r="C70">
-        <v>1049682.5599999998</v>
+        <v>1050142.0099999998</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3610,7 +3618,7 @@
         <v>133</v>
       </c>
       <c r="C71">
-        <v>1046851.07</v>
+        <v>1047322.9400000001</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3621,7 +3629,7 @@
         <v>135</v>
       </c>
       <c r="C72">
-        <v>1035056.7899999999</v>
+        <v>1035635.0100000001</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3632,7 +3640,7 @@
         <v>137</v>
       </c>
       <c r="C73">
-        <v>1034974.2899999999</v>
+        <v>1035412.4800000001</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3643,7 +3651,7 @@
         <v>41</v>
       </c>
       <c r="C74">
-        <v>1028774.55</v>
+        <v>1029173.74</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3654,7 +3662,7 @@
         <v>81</v>
       </c>
       <c r="C75">
-        <v>1027721.84</v>
+        <v>1028177.1000000001</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3665,7 +3673,7 @@
         <v>141</v>
       </c>
       <c r="C76">
-        <v>1000293.0000000002</v>
+        <v>999187.16000000027</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3676,7 +3684,7 @@
         <v>4</v>
       </c>
       <c r="C77">
-        <v>991637.24999999977</v>
+        <v>992131.05000000016</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3684,21 +3692,21 @@
         <v>143</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="C78">
-        <v>975916.0900000002</v>
+        <v>972482.82</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="C79">
-        <v>972025.74</v>
+        <v>971695.20999999973</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3709,7 +3717,7 @@
         <v>147</v>
       </c>
       <c r="C80">
-        <v>963683.9</v>
+        <v>964108.19999999984</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3720,7 +3728,7 @@
         <v>149</v>
       </c>
       <c r="C81">
-        <v>963399.77</v>
+        <v>962385.15999999992</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3731,7 +3739,7 @@
         <v>151</v>
       </c>
       <c r="C82">
-        <v>926755.62000000011</v>
+        <v>927103.06999999972</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3742,7 +3750,7 @@
         <v>153</v>
       </c>
       <c r="C83">
-        <v>897573.05999999994</v>
+        <v>897794.78</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3753,7 +3761,7 @@
         <v>155</v>
       </c>
       <c r="C84">
-        <v>894013.37000000011</v>
+        <v>894406.93000000017</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3764,7 +3772,7 @@
         <v>157</v>
       </c>
       <c r="C85">
-        <v>888654.08000000007</v>
+        <v>884323.26</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3775,7 +3783,7 @@
         <v>159</v>
       </c>
       <c r="C86">
-        <v>879930.28999999992</v>
+        <v>880333.2899999998</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3786,7 +3794,7 @@
         <v>161</v>
       </c>
       <c r="C87">
-        <v>871342.76</v>
+        <v>870442.89</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3797,7 +3805,7 @@
         <v>163</v>
       </c>
       <c r="C88">
-        <v>869361.74999999988</v>
+        <v>869180.75</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3808,7 +3816,7 @@
         <v>165</v>
       </c>
       <c r="C89">
-        <v>859490.82999999984</v>
+        <v>859918.88</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3819,7 +3827,7 @@
         <v>73</v>
       </c>
       <c r="C90">
-        <v>852053.3</v>
+        <v>850977.36</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3830,7 +3838,7 @@
         <v>168</v>
       </c>
       <c r="C91">
-        <v>847430.28999999992</v>
+        <v>847873.64000000013</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3841,7 +3849,7 @@
         <v>170</v>
       </c>
       <c r="C92">
-        <v>825904.82</v>
+        <v>823268.44999999984</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3852,7 +3860,7 @@
         <v>172</v>
       </c>
       <c r="C93">
-        <v>820949.76000000013</v>
+        <v>821223</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3863,7 +3871,7 @@
         <v>49</v>
       </c>
       <c r="C94">
-        <v>817150.74</v>
+        <v>816553.51</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3874,7 +3882,7 @@
         <v>26</v>
       </c>
       <c r="C95">
-        <v>809070.15000000014</v>
+        <v>808714.1399999999</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3885,7 +3893,7 @@
         <v>176</v>
       </c>
       <c r="C96">
-        <v>804099.22</v>
+        <v>804486.1599999998</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3896,7 +3904,7 @@
         <v>178</v>
       </c>
       <c r="C97">
-        <v>803554.05</v>
+        <v>803905.65</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3904,10 +3912,10 @@
         <v>179</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C98">
-        <v>788641.51000000013</v>
+        <v>788833.84999999986</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3915,10 +3923,10 @@
         <v>180</v>
       </c>
       <c r="B99" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C99">
-        <v>788264.20000000007</v>
+        <v>786609.58999999985</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3926,10 +3934,10 @@
         <v>181</v>
       </c>
       <c r="B100" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="C100">
-        <v>786257.86999999988</v>
+        <v>778844.84000000008</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3940,7 +3948,7 @@
         <v>183</v>
       </c>
       <c r="C101">
-        <v>767956.2100000002</v>
+        <v>765770.67000000016</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3951,7 +3959,7 @@
         <v>185</v>
       </c>
       <c r="C102">
-        <v>762685.69999999984</v>
+        <v>763041.59000000008</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3962,7 +3970,7 @@
         <v>187</v>
       </c>
       <c r="C103">
-        <v>758305.28999999992</v>
+        <v>758613.98</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3973,7 +3981,7 @@
         <v>189</v>
       </c>
       <c r="C104">
-        <v>750992.53</v>
+        <v>749027.61</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3984,7 +3992,7 @@
         <v>116</v>
       </c>
       <c r="C105">
-        <v>745013.19000000018</v>
+        <v>742840.37999999989</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3995,7 +4003,7 @@
         <v>192</v>
       </c>
       <c r="C106">
-        <v>721709.72000000009</v>
+        <v>722044.71000000008</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4006,7 +4014,7 @@
         <v>49</v>
       </c>
       <c r="C107">
-        <v>720008.07000000018</v>
+        <v>718107.40999999992</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4017,7 +4025,7 @@
         <v>195</v>
       </c>
       <c r="C108">
-        <v>706615.2</v>
+        <v>706179.89</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4028,7 +4036,7 @@
         <v>197</v>
       </c>
       <c r="C109">
-        <v>705987.61999999988</v>
+        <v>705917.34000000008</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4036,21 +4044,21 @@
         <v>198</v>
       </c>
       <c r="B110" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="C110">
-        <v>704230.78</v>
+        <v>704578.34</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>199</v>
+      </c>
+      <c r="B111" t="s">
         <v>200</v>
       </c>
-      <c r="B111" t="s">
-        <v>10</v>
-      </c>
       <c r="C111">
-        <v>704225.55999999994</v>
+        <v>704541.8</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4061,7 +4069,7 @@
         <v>202</v>
       </c>
       <c r="C112">
-        <v>701680.94000000018</v>
+        <v>701883.92999999993</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4072,7 +4080,7 @@
         <v>63</v>
       </c>
       <c r="C113">
-        <v>697932.07</v>
+        <v>694243.79000000015</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4083,7 +4091,7 @@
         <v>205</v>
       </c>
       <c r="C114">
-        <v>688622.12999999977</v>
+        <v>688906.56999999983</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4094,7 +4102,7 @@
         <v>207</v>
       </c>
       <c r="C115">
-        <v>676992.16</v>
+        <v>678224.81</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4105,7 +4113,7 @@
         <v>209</v>
       </c>
       <c r="C116">
-        <v>667667.4800000001</v>
+        <v>667961.18000000017</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4116,7 +4124,7 @@
         <v>49</v>
       </c>
       <c r="C117">
-        <v>666561.27</v>
+        <v>665992.51</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4127,7 +4135,7 @@
         <v>212</v>
       </c>
       <c r="C118">
-        <v>661644.54</v>
+        <v>658159.6100000001</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4138,7 +4146,7 @@
         <v>51</v>
       </c>
       <c r="C119">
-        <v>657972.58999999985</v>
+        <v>654803.06000000006</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4149,7 +4157,7 @@
         <v>39</v>
       </c>
       <c r="C120">
-        <v>648050.84</v>
+        <v>647345.81000000006</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4160,7 +4168,7 @@
         <v>216</v>
       </c>
       <c r="C121">
-        <v>646688.10000000009</v>
+        <v>646426.37</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4168,10 +4176,10 @@
         <v>217</v>
       </c>
       <c r="B122" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C122">
-        <v>645203.78000000026</v>
+        <v>643546.7300000001</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4179,10 +4187,10 @@
         <v>218</v>
       </c>
       <c r="B123" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C123">
-        <v>644492.09</v>
+        <v>638085.12000000011</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4193,7 +4201,7 @@
         <v>220</v>
       </c>
       <c r="C124">
-        <v>631148.03</v>
+        <v>631436.31999999995</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4204,7 +4212,7 @@
         <v>222</v>
       </c>
       <c r="C125">
-        <v>622996.05999999994</v>
+        <v>623278.07000000018</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4212,21 +4220,21 @@
         <v>223</v>
       </c>
       <c r="B126" t="s">
-        <v>53</v>
+        <v>224</v>
       </c>
       <c r="C126">
-        <v>616994.34</v>
+        <v>615262.18999999994</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B127" t="s">
-        <v>225</v>
+        <v>53</v>
       </c>
       <c r="C127">
-        <v>614758.66999999993</v>
+        <v>615221.16</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4234,10 +4242,10 @@
         <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C128">
-        <v>614083.25000000012</v>
+        <v>613518.40999999992</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4248,7 +4256,7 @@
         <v>228</v>
       </c>
       <c r="C129">
-        <v>613710.72000000009</v>
+        <v>612324.54999999993</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4256,10 +4264,10 @@
         <v>229</v>
       </c>
       <c r="B130" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C130">
-        <v>613284.78</v>
+        <v>606467.02000000014</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4270,7 +4278,7 @@
         <v>231</v>
       </c>
       <c r="C131">
-        <v>609792.89000000013</v>
+        <v>599325.72</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4281,7 +4289,7 @@
         <v>192</v>
       </c>
       <c r="C132">
-        <v>602219.18000000005</v>
+        <v>594317.82999999996</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4292,7 +4300,7 @@
         <v>234</v>
       </c>
       <c r="C133">
-        <v>600988.06999999983</v>
+        <v>576595.70000000007</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4303,7 +4311,7 @@
         <v>236</v>
       </c>
       <c r="C134">
-        <v>576330.2699999999</v>
+        <v>573607.44999999995</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4311,32 +4319,32 @@
         <v>237</v>
       </c>
       <c r="B135" t="s">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="C135">
-        <v>575886.99</v>
+        <v>570702.81999999995</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
+        <v>238</v>
+      </c>
+      <c r="B136" t="s">
         <v>239</v>
       </c>
-      <c r="B136" t="s">
-        <v>240</v>
-      </c>
       <c r="C136">
-        <v>573111.02999999991</v>
+        <v>569313.82000000018</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
+        <v>240</v>
+      </c>
+      <c r="B137" t="s">
         <v>241</v>
       </c>
-      <c r="B137" t="s">
-        <v>39</v>
-      </c>
       <c r="C137">
-        <v>570446.35999999987</v>
+        <v>567513.55999999994</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4347,7 +4355,7 @@
         <v>243</v>
       </c>
       <c r="C138">
-        <v>567295.74000000011</v>
+        <v>558258.68999999994</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4358,7 +4366,7 @@
         <v>245</v>
       </c>
       <c r="C139">
-        <v>557810.03999999992</v>
+        <v>557970.41999999993</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4369,7 +4377,7 @@
         <v>247</v>
       </c>
       <c r="C140">
-        <v>556583.89</v>
+        <v>549185.56000000006</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4380,7 +4388,7 @@
         <v>249</v>
       </c>
       <c r="C141">
-        <v>549169.12000000011</v>
+        <v>549072.38</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4391,7 +4399,7 @@
         <v>251</v>
       </c>
       <c r="C142">
-        <v>548948.54999999993</v>
+        <v>542077.42000000004</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4402,7 +4410,7 @@
         <v>253</v>
       </c>
       <c r="C143">
-        <v>541825.95000000007</v>
+        <v>537593.28999999992</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4413,7 +4421,7 @@
         <v>255</v>
       </c>
       <c r="C144">
-        <v>537344.19999999995</v>
+        <v>536096.12</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4421,21 +4429,21 @@
         <v>256</v>
       </c>
       <c r="B145" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="C145">
-        <v>536086.12</v>
+        <v>531788.55000000005</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
+        <v>257</v>
+      </c>
+      <c r="B146" t="s">
         <v>258</v>
       </c>
-      <c r="B146" t="s">
-        <v>216</v>
-      </c>
       <c r="C146">
-        <v>531546.6100000001</v>
+        <v>518667.5</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4446,7 +4454,7 @@
         <v>260</v>
       </c>
       <c r="C147">
-        <v>518507.80999999994</v>
+        <v>511998.64</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4457,7 +4465,7 @@
         <v>262</v>
       </c>
       <c r="C148">
-        <v>512609.06999999989</v>
+        <v>510345.6</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4468,7 +4476,7 @@
         <v>264</v>
       </c>
       <c r="C149">
-        <v>510047.46000000008</v>
+        <v>506172.60999999993</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4479,7 +4487,7 @@
         <v>266</v>
       </c>
       <c r="C150">
-        <v>508911.5</v>
+        <v>504350.11</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4490,7 +4498,7 @@
         <v>268</v>
       </c>
       <c r="C151">
-        <v>505769.87999999995</v>
+        <v>503040.7</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4501,7 +4509,7 @@
         <v>270</v>
       </c>
       <c r="C152">
-        <v>502815.57000000007</v>
+        <v>487998.62000000005</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4512,7 +4520,7 @@
         <v>272</v>
       </c>
       <c r="C153">
-        <v>488596.29000000004</v>
+        <v>486491.97</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4520,32 +4528,32 @@
         <v>273</v>
       </c>
       <c r="B154" t="s">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="C154">
-        <v>486290.19</v>
+        <v>480861.19000000006</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
+        <v>274</v>
+      </c>
+      <c r="B155" t="s">
         <v>275</v>
       </c>
-      <c r="B155" t="s">
-        <v>276</v>
-      </c>
       <c r="C155">
-        <v>483456.21</v>
+        <v>478135.73999999987</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
+        <v>276</v>
+      </c>
+      <c r="B156" t="s">
         <v>277</v>
       </c>
-      <c r="B156" t="s">
-        <v>41</v>
-      </c>
       <c r="C156">
-        <v>480637.12</v>
+        <v>466238.02999999997</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4556,7 +4564,7 @@
         <v>279</v>
       </c>
       <c r="C157">
-        <v>466087.32</v>
+        <v>457722.01999999996</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4567,7 +4575,7 @@
         <v>281</v>
       </c>
       <c r="C158">
-        <v>458062.98</v>
+        <v>456157.26</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4578,7 +4586,7 @@
         <v>283</v>
       </c>
       <c r="C159">
-        <v>457508.25000000006</v>
+        <v>452949.1100000001</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4586,32 +4594,32 @@
         <v>284</v>
       </c>
       <c r="B160" t="s">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="C160">
-        <v>455966.17999999993</v>
+        <v>449037.18000000005</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B161" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="C161">
-        <v>454092.65999999992</v>
+        <v>446582.59</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
+        <v>286</v>
+      </c>
+      <c r="B162" t="s">
         <v>287</v>
       </c>
-      <c r="B162" t="s">
-        <v>126</v>
-      </c>
       <c r="C162">
-        <v>446375.22</v>
+        <v>434262.70999999996</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4619,10 +4627,10 @@
         <v>288</v>
       </c>
       <c r="B163" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C163">
-        <v>438246.25</v>
+        <v>428621.1999999999</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4630,32 +4638,32 @@
         <v>289</v>
       </c>
       <c r="B164" t="s">
-        <v>290</v>
+        <v>10</v>
       </c>
       <c r="C164">
-        <v>436374.00999999989</v>
+        <v>427385.81</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B165" t="s">
-        <v>63</v>
+        <v>236</v>
       </c>
       <c r="C165">
-        <v>428427.91000000003</v>
+        <v>423674.89</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
+        <v>291</v>
+      </c>
+      <c r="B166" t="s">
         <v>292</v>
       </c>
-      <c r="B166" t="s">
-        <v>10</v>
-      </c>
       <c r="C166">
-        <v>427199.2</v>
+        <v>421177.4</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4663,10 +4671,10 @@
         <v>293</v>
       </c>
       <c r="B167" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="C167">
-        <v>423502.49</v>
+        <v>420557.45999999996</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4677,7 +4685,7 @@
         <v>295</v>
       </c>
       <c r="C168">
-        <v>421177.4</v>
+        <v>419697.43999999994</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4688,7 +4696,7 @@
         <v>297</v>
       </c>
       <c r="C169">
-        <v>420865.17</v>
+        <v>418554.39999999997</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4696,10 +4704,10 @@
         <v>298</v>
       </c>
       <c r="B170" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C170">
-        <v>420817.00000000006</v>
+        <v>416375.92999999993</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4707,10 +4715,10 @@
         <v>299</v>
       </c>
       <c r="B171" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="C171">
-        <v>419520.2300000001</v>
+        <v>416262.38</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4718,21 +4726,21 @@
         <v>300</v>
       </c>
       <c r="B172" t="s">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="C172">
-        <v>418370.97000000003</v>
+        <v>414687.76999999996</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
+        <v>301</v>
+      </c>
+      <c r="B173" t="s">
         <v>302</v>
       </c>
-      <c r="B173" t="s">
-        <v>199</v>
-      </c>
       <c r="C173">
-        <v>417464.64999999997</v>
+        <v>413953.61000000004</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4743,7 +4751,7 @@
         <v>304</v>
       </c>
       <c r="C174">
-        <v>413767.75</v>
+        <v>413381.56</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4751,21 +4759,21 @@
         <v>305</v>
       </c>
       <c r="B175" t="s">
-        <v>306</v>
+        <v>49</v>
       </c>
       <c r="C175">
-        <v>413767.16000000003</v>
+        <v>406323.36</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
+        <v>306</v>
+      </c>
+      <c r="B176" t="s">
         <v>307</v>
       </c>
-      <c r="B176" t="s">
-        <v>49</v>
-      </c>
       <c r="C176">
-        <v>406149.20999999996</v>
+        <v>404401.77999999997</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4776,7 +4784,7 @@
         <v>309</v>
       </c>
       <c r="C177">
-        <v>404479.52</v>
+        <v>401729.43</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4787,7 +4795,7 @@
         <v>311</v>
       </c>
       <c r="C178">
-        <v>404286.66000000003</v>
+        <v>401032.36</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4798,7 +4806,7 @@
         <v>313</v>
       </c>
       <c r="C179">
-        <v>400848.46</v>
+        <v>388028.07999999996</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4809,7 +4817,7 @@
         <v>315</v>
       </c>
       <c r="C180">
-        <v>388069.73</v>
+        <v>385791.89</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4820,7 +4828,7 @@
         <v>317</v>
       </c>
       <c r="C181">
-        <v>387656.15999999992</v>
+        <v>383640.64000000007</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4831,7 +4839,7 @@
         <v>319</v>
       </c>
       <c r="C182">
-        <v>384155.35000000009</v>
+        <v>375343.54999999987</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4839,21 +4847,21 @@
         <v>320</v>
       </c>
       <c r="B183" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C183">
-        <v>376419.24000000005</v>
+        <v>372503.89</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
+        <v>321</v>
+      </c>
+      <c r="B184" t="s">
         <v>322</v>
       </c>
-      <c r="B184" t="s">
-        <v>319</v>
-      </c>
       <c r="C184">
-        <v>373685.69</v>
+        <v>370370.06999999989</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4864,7 +4872,7 @@
         <v>324</v>
       </c>
       <c r="C185">
-        <v>371746.57</v>
+        <v>369274.15</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4872,32 +4880,32 @@
         <v>325</v>
       </c>
       <c r="B186" t="s">
-        <v>326</v>
+        <v>258</v>
       </c>
       <c r="C186">
-        <v>370587.33</v>
+        <v>367915.11</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
+        <v>326</v>
+      </c>
+      <c r="B187" t="s">
         <v>327</v>
       </c>
-      <c r="B187" t="s">
-        <v>328</v>
-      </c>
       <c r="C187">
-        <v>370256.81</v>
+        <v>367774.6</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
+        <v>328</v>
+      </c>
+      <c r="B188" t="s">
         <v>329</v>
       </c>
-      <c r="B188" t="s">
-        <v>88</v>
-      </c>
       <c r="C188">
-        <v>369256.99000000005</v>
+        <v>367312.33</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4908,7 +4916,7 @@
         <v>331</v>
       </c>
       <c r="C189">
-        <v>369113.25999999995</v>
+        <v>366692.32000000007</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4919,7 +4927,7 @@
         <v>333</v>
       </c>
       <c r="C190">
-        <v>368578.47</v>
+        <v>366330.46</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4927,10 +4935,10 @@
         <v>334</v>
       </c>
       <c r="B191" t="s">
-        <v>260</v>
+        <v>88</v>
       </c>
       <c r="C191">
-        <v>368254.07000000007</v>
+        <v>365206.81999999989</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4941,7 +4949,7 @@
         <v>336</v>
       </c>
       <c r="C192">
-        <v>366169.2099999999</v>
+        <v>364741.53</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4949,21 +4957,21 @@
         <v>337</v>
       </c>
       <c r="B193" t="s">
-        <v>338</v>
+        <v>75</v>
       </c>
       <c r="C193">
-        <v>364587.12999999995</v>
+        <v>361653.81</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
+        <v>338</v>
+      </c>
+      <c r="B194" t="s">
         <v>339</v>
       </c>
-      <c r="B194" t="s">
-        <v>75</v>
-      </c>
       <c r="C194">
-        <v>362083.74000000005</v>
+        <v>361581.42</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4971,21 +4979,21 @@
         <v>340</v>
       </c>
       <c r="B195" t="s">
-        <v>341</v>
+        <v>39</v>
       </c>
       <c r="C195">
-        <v>361421.52999999997</v>
+        <v>361504.73999999993</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
+        <v>341</v>
+      </c>
+      <c r="B196" t="s">
         <v>342</v>
       </c>
-      <c r="B196" t="s">
-        <v>39</v>
-      </c>
       <c r="C196">
-        <v>361341.88999999996</v>
+        <v>360840.44999999995</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4993,21 +5001,21 @@
         <v>343</v>
       </c>
       <c r="B197" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="C197">
-        <v>360708.67000000004</v>
+        <v>360537.34999999992</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
+        <v>344</v>
+      </c>
+      <c r="B198" t="s">
         <v>345</v>
       </c>
-      <c r="B198" t="s">
-        <v>331</v>
-      </c>
       <c r="C198">
-        <v>360380.56999999995</v>
+        <v>359080.08999999991</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -5018,7 +5026,7 @@
         <v>347</v>
       </c>
       <c r="C199">
-        <v>359034.8</v>
+        <v>354869.86000000004</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -5029,7 +5037,7 @@
         <v>349</v>
       </c>
       <c r="C200">
-        <v>355258.93</v>
+        <v>353471.23999999993</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -5040,7 +5048,7 @@
         <v>351</v>
       </c>
       <c r="C201">
-        <v>353355.67</v>
+        <v>350822.99000000005</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -5048,32 +5056,32 @@
         <v>352</v>
       </c>
       <c r="B202" t="s">
-        <v>353</v>
+        <v>245</v>
       </c>
       <c r="C202">
-        <v>350664.21</v>
+        <v>342346.76</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
+        <v>353</v>
+      </c>
+      <c r="B203" t="s">
         <v>354</v>
       </c>
-      <c r="B203" t="s">
-        <v>355</v>
-      </c>
       <c r="C203">
-        <v>342265.12000000005</v>
+        <v>342101.99</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
+        <v>355</v>
+      </c>
+      <c r="B204" t="s">
         <v>356</v>
       </c>
-      <c r="B204" t="s">
-        <v>247</v>
-      </c>
       <c r="C204">
-        <v>342207.05</v>
+        <v>340739.9</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -5084,7 +5092,7 @@
         <v>358</v>
       </c>
       <c r="C205">
-        <v>341694.38999999996</v>
+        <v>340642.12</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5095,7 +5103,7 @@
         <v>360</v>
       </c>
       <c r="C206">
-        <v>341033.78</v>
+        <v>339356.7</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5106,7 +5114,7 @@
         <v>362</v>
       </c>
       <c r="C207">
-        <v>339761.08</v>
+        <v>335878.83</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -5117,7 +5125,7 @@
         <v>364</v>
       </c>
       <c r="C208">
-        <v>335727.67</v>
+        <v>335715.70999999996</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5128,7 +5136,7 @@
         <v>366</v>
       </c>
       <c r="C209">
-        <v>335581.01999999996</v>
+        <v>333043.16000000003</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5139,7 +5147,7 @@
         <v>368</v>
       </c>
       <c r="C210">
-        <v>332898.19</v>
+        <v>330962.3</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5150,7 +5158,7 @@
         <v>370</v>
       </c>
       <c r="C211">
-        <v>330819.33999999997</v>
+        <v>328318.34999999998</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5161,7 +5169,7 @@
         <v>372</v>
       </c>
       <c r="C212">
-        <v>329360.92</v>
+        <v>325180.64</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5172,7 +5180,7 @@
         <v>374</v>
       </c>
       <c r="C213">
-        <v>325047.14999999991</v>
+        <v>324784.21999999997</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5183,7 +5191,7 @@
         <v>376</v>
       </c>
       <c r="C214">
-        <v>324640.51</v>
+        <v>320266.90000000002</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5194,7 +5202,7 @@
         <v>378</v>
       </c>
       <c r="C215">
-        <v>322311.23000000004</v>
+        <v>320260.08</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5205,7 +5213,7 @@
         <v>380</v>
       </c>
       <c r="C216">
-        <v>321439.21999999997</v>
+        <v>318607.45</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5213,32 +5221,32 @@
         <v>381</v>
       </c>
       <c r="B217" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="C217">
-        <v>318464.41000000003</v>
+        <v>314387.75</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B218" t="s">
         <v>105</v>
       </c>
       <c r="C218">
-        <v>314957.47000000009</v>
+        <v>311087.38999999996</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
+        <v>383</v>
+      </c>
+      <c r="B219" t="s">
         <v>384</v>
       </c>
-      <c r="B219" t="s">
-        <v>355</v>
-      </c>
       <c r="C219">
-        <v>314253.38999999996</v>
+        <v>309169.31</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5246,76 +5254,76 @@
         <v>385</v>
       </c>
       <c r="B220" t="s">
-        <v>386</v>
+        <v>88</v>
       </c>
       <c r="C220">
-        <v>309031.2</v>
+        <v>308574.28000000003</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B221" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C221">
-        <v>308932.79000000004</v>
+        <v>308369.38</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B222" t="s">
-        <v>49</v>
+        <v>378</v>
       </c>
       <c r="C222">
-        <v>308227.52</v>
+        <v>308014.76</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B223" t="s">
-        <v>378</v>
+        <v>4</v>
       </c>
       <c r="C223">
-        <v>307864.25</v>
+        <v>301583.98</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B224" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C224">
-        <v>301451.80999999994</v>
+        <v>296971.40999999997</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B225" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="C225">
-        <v>297102.94999999995</v>
+        <v>293471.43</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
+        <v>391</v>
+      </c>
+      <c r="B226" t="s">
         <v>392</v>
       </c>
-      <c r="B226" t="s">
-        <v>378</v>
-      </c>
       <c r="C226">
-        <v>293889.58</v>
+        <v>291344.51</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5323,10 +5331,10 @@
         <v>393</v>
       </c>
       <c r="B227" t="s">
-        <v>168</v>
+        <v>378</v>
       </c>
       <c r="C227">
-        <v>293380.43</v>
+        <v>291307.93999999994</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5334,10 +5342,10 @@
         <v>394</v>
       </c>
       <c r="B228" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C228">
-        <v>292059.86999999994</v>
+        <v>290977.01999999996</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5348,7 +5356,7 @@
         <v>396</v>
       </c>
       <c r="C229">
-        <v>291239.36</v>
+        <v>290331.67</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5359,7 +5367,7 @@
         <v>398</v>
       </c>
       <c r="C230">
-        <v>290223.06</v>
+        <v>283967.10000000003</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5370,7 +5378,7 @@
         <v>73</v>
       </c>
       <c r="C231">
-        <v>284201.83000000007</v>
+        <v>283415.76</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5378,32 +5386,32 @@
         <v>400</v>
       </c>
       <c r="B232" t="s">
-        <v>401</v>
+        <v>283</v>
       </c>
       <c r="C232">
-        <v>283853.42999999993</v>
+        <v>281814.40000000002</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B233" t="s">
         <v>53</v>
       </c>
       <c r="C233">
-        <v>282700.46999999997</v>
+        <v>281437.76</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
+        <v>402</v>
+      </c>
+      <c r="B234" t="s">
         <v>403</v>
       </c>
-      <c r="B234" t="s">
-        <v>281</v>
-      </c>
       <c r="C234">
-        <v>281664.41000000003</v>
+        <v>273763.20999999996</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5414,7 +5422,7 @@
         <v>405</v>
       </c>
       <c r="C235">
-        <v>274622.84000000003</v>
+        <v>272472.95999999996</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5425,7 +5433,7 @@
         <v>407</v>
       </c>
       <c r="C236">
-        <v>272345.38000000006</v>
+        <v>272123</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5436,7 +5444,7 @@
         <v>409</v>
       </c>
       <c r="C237">
-        <v>272004.15999999997</v>
+        <v>270878.15000000002</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5444,32 +5452,32 @@
         <v>410</v>
       </c>
       <c r="B238" t="s">
-        <v>411</v>
+        <v>222</v>
       </c>
       <c r="C238">
-        <v>270787.68</v>
+        <v>266107.99</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B239" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c r="C239">
-        <v>266678.26</v>
+        <v>265606.09000000008</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
+        <v>412</v>
+      </c>
+      <c r="B240" t="s">
         <v>413</v>
       </c>
-      <c r="B240" t="s">
-        <v>306</v>
-      </c>
       <c r="C240">
-        <v>265919.70999999996</v>
+        <v>262453.44999999995</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5480,7 +5488,7 @@
         <v>415</v>
       </c>
       <c r="C241">
-        <v>264641.8</v>
+        <v>262427.63</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5491,7 +5499,7 @@
         <v>417</v>
       </c>
       <c r="C242">
-        <v>263152.98</v>
+        <v>261039.36000000002</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5502,7 +5510,7 @@
         <v>419</v>
       </c>
       <c r="C243">
-        <v>261526.87</v>
+        <v>260946.30999999997</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5513,7 +5521,7 @@
         <v>421</v>
       </c>
       <c r="C244">
-        <v>261247.39999999997</v>
+        <v>260775.59999999998</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5524,7 +5532,7 @@
         <v>423</v>
       </c>
       <c r="C245">
-        <v>260955.07999999996</v>
+        <v>254873.23000000004</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5532,21 +5540,21 @@
         <v>424</v>
       </c>
       <c r="B246" t="s">
-        <v>425</v>
+        <v>116</v>
       </c>
       <c r="C246">
-        <v>255525.12999999998</v>
+        <v>254575.65000000002</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
+        <v>425</v>
+      </c>
+      <c r="B247" t="s">
         <v>426</v>
       </c>
-      <c r="B247" t="s">
-        <v>116</v>
-      </c>
       <c r="C247">
-        <v>253201.17999999996</v>
+        <v>251808.56</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5554,21 +5562,21 @@
         <v>427</v>
       </c>
       <c r="B248" t="s">
-        <v>428</v>
+        <v>151</v>
       </c>
       <c r="C248">
-        <v>251695.15</v>
+        <v>248614.74999999997</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
+        <v>428</v>
+      </c>
+      <c r="B249" t="s">
         <v>429</v>
       </c>
-      <c r="B249" t="s">
-        <v>151</v>
-      </c>
       <c r="C249">
-        <v>249396.21999999997</v>
+        <v>246464.52</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5579,7 +5587,7 @@
         <v>431</v>
       </c>
       <c r="C250">
-        <v>246393.82</v>
+        <v>243958</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5590,7 +5598,7 @@
         <v>433</v>
       </c>
       <c r="C251">
-        <v>244630.38999999998</v>
+        <v>243800.68000000002</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5601,7 +5609,7 @@
         <v>435</v>
       </c>
       <c r="C252">
-        <v>244594.86</v>
+        <v>242426.99</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5612,7 +5620,7 @@
         <v>437</v>
       </c>
       <c r="C253">
-        <v>242426.41</v>
+        <v>241899.64</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5623,7 +5631,7 @@
         <v>439</v>
       </c>
       <c r="C254">
-        <v>241791.32999999996</v>
+        <v>240883.12</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5634,7 +5642,7 @@
         <v>441</v>
       </c>
       <c r="C255">
-        <v>240816.28</v>
+        <v>240275.68000000005</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5642,21 +5650,21 @@
         <v>442</v>
       </c>
       <c r="B256" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="C256">
-        <v>240523.4</v>
+        <v>237524.63999999996</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
+        <v>443</v>
+      </c>
+      <c r="B257" t="s">
         <v>444</v>
       </c>
-      <c r="B257" t="s">
-        <v>423</v>
-      </c>
       <c r="C257">
-        <v>237850.67999999996</v>
+        <v>236348.69000000006</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5664,21 +5672,21 @@
         <v>445</v>
       </c>
       <c r="B258" t="s">
-        <v>446</v>
+        <v>200</v>
       </c>
       <c r="C258">
-        <v>237016.78</v>
+        <v>236172.96000000005</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
+        <v>446</v>
+      </c>
+      <c r="B259" t="s">
         <v>447</v>
       </c>
-      <c r="B259" t="s">
-        <v>199</v>
-      </c>
       <c r="C259">
-        <v>236791.76999999996</v>
+        <v>236130.89</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5689,7 +5697,7 @@
         <v>449</v>
       </c>
       <c r="C260">
-        <v>236030.67</v>
+        <v>234062.58999999997</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5700,7 +5708,7 @@
         <v>451</v>
       </c>
       <c r="C261">
-        <v>235602.40999999997</v>
+        <v>232818.77000000002</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5708,21 +5716,21 @@
         <v>452</v>
       </c>
       <c r="B262" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="C262">
-        <v>233127.76000000004</v>
+        <v>230145.25</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
+        <v>453</v>
+      </c>
+      <c r="B263" t="s">
         <v>454</v>
       </c>
-      <c r="B263" t="s">
-        <v>437</v>
-      </c>
       <c r="C263">
-        <v>230278.74</v>
+        <v>229824.80999999997</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5733,7 +5741,7 @@
         <v>456</v>
       </c>
       <c r="C264">
-        <v>229466.18</v>
+        <v>229484.68</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5744,7 +5752,7 @@
         <v>458</v>
       </c>
       <c r="C265">
-        <v>229386.51000000004</v>
+        <v>229257.8</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5755,7 +5763,7 @@
         <v>460</v>
       </c>
       <c r="C266">
-        <v>228222.71</v>
+        <v>219264.21000000002</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5766,7 +5774,7 @@
         <v>462</v>
       </c>
       <c r="C267">
-        <v>219166.99999999997</v>
+        <v>217764.54</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5774,21 +5782,21 @@
         <v>463</v>
       </c>
       <c r="B268" t="s">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="C268">
-        <v>217683.34</v>
+        <v>216569.95</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
+        <v>464</v>
+      </c>
+      <c r="B269" t="s">
         <v>465</v>
       </c>
-      <c r="B269" t="s">
-        <v>70</v>
-      </c>
       <c r="C269">
-        <v>216505.19999999998</v>
+        <v>215656.30000000002</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5796,21 +5804,21 @@
         <v>466</v>
       </c>
       <c r="B270" t="s">
-        <v>467</v>
+        <v>281</v>
       </c>
       <c r="C270">
-        <v>215559.09</v>
+        <v>213147.31</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
+        <v>467</v>
+      </c>
+      <c r="B271" t="s">
         <v>468</v>
       </c>
-      <c r="B271" t="s">
-        <v>285</v>
-      </c>
       <c r="C271">
-        <v>214257</v>
+        <v>210715.14999999997</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5821,7 +5829,7 @@
         <v>470</v>
       </c>
       <c r="C272">
-        <v>210971.7</v>
+        <v>210476.83000000002</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5832,7 +5840,7 @@
         <v>472</v>
       </c>
       <c r="C273">
-        <v>210675.40999999997</v>
+        <v>209529.05999999997</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5840,65 +5848,65 @@
         <v>473</v>
       </c>
       <c r="B274" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="C274">
-        <v>209437.21000000002</v>
+        <v>208765.26</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B275" t="s">
         <v>92</v>
       </c>
       <c r="C275">
-        <v>209174.02</v>
+        <v>206565.53999999995</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B276" t="s">
-        <v>443</v>
+        <v>75</v>
       </c>
       <c r="C276">
-        <v>208673.1</v>
+        <v>206559.91999999998</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B277" t="s">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="C277">
-        <v>207130.51</v>
+        <v>204931.61000000004</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B278" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="C278">
-        <v>205164.34999999998</v>
+        <v>204354.56</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
+        <v>478</v>
+      </c>
+      <c r="B279" t="s">
         <v>479</v>
       </c>
-      <c r="B279" t="s">
-        <v>268</v>
-      </c>
       <c r="C279">
-        <v>204864.06</v>
+        <v>203119</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5906,10 +5914,10 @@
         <v>480</v>
       </c>
       <c r="B280" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C280">
-        <v>203149.06999999998</v>
+        <v>200671.84999999998</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5917,21 +5925,21 @@
         <v>481</v>
       </c>
       <c r="B281" t="s">
-        <v>482</v>
+        <v>304</v>
       </c>
       <c r="C281">
-        <v>203032.51</v>
+        <v>199393.72000000003</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
+        <v>482</v>
+      </c>
+      <c r="B282" t="s">
         <v>483</v>
       </c>
-      <c r="B282" t="s">
-        <v>51</v>
-      </c>
       <c r="C282">
-        <v>200023.90000000002</v>
+        <v>199045.13000000003</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5939,10 +5947,10 @@
         <v>484</v>
       </c>
       <c r="B283" t="s">
-        <v>306</v>
+        <v>51</v>
       </c>
       <c r="C283">
-        <v>199688.90000000008</v>
+        <v>198970.12000000002</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5950,21 +5958,21 @@
         <v>485</v>
       </c>
       <c r="B284" t="s">
-        <v>486</v>
+        <v>53</v>
       </c>
       <c r="C284">
-        <v>199309.57000000004</v>
+        <v>195049.98999999996</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
+        <v>486</v>
+      </c>
+      <c r="B285" t="s">
         <v>487</v>
       </c>
-      <c r="B285" t="s">
-        <v>53</v>
-      </c>
       <c r="C285">
-        <v>195608.5</v>
+        <v>192707.02</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5972,10 +5980,10 @@
         <v>488</v>
       </c>
       <c r="B286" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C286">
-        <v>194459.90000000005</v>
+        <v>191573.89999999997</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5986,7 +5994,7 @@
         <v>88</v>
       </c>
       <c r="C287">
-        <v>194141.25</v>
+        <v>191547.49000000002</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5997,7 +6005,7 @@
         <v>491</v>
       </c>
       <c r="C288">
-        <v>192667.03</v>
+        <v>190744.58000000002</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -6008,7 +6016,7 @@
         <v>493</v>
       </c>
       <c r="C289">
-        <v>190666.27</v>
+        <v>189613.70999999996</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6016,43 +6024,43 @@
         <v>494</v>
       </c>
       <c r="B290" t="s">
-        <v>495</v>
+        <v>41</v>
       </c>
       <c r="C290">
-        <v>189685.94</v>
+        <v>186412.08000000002</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B291" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="C291">
-        <v>186857.76</v>
+        <v>183629.56000000003</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B292" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="C292">
-        <v>183864.15999999992</v>
+        <v>183153.17</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
+        <v>497</v>
+      </c>
+      <c r="B293" t="s">
         <v>498</v>
       </c>
-      <c r="B293" t="s">
-        <v>39</v>
-      </c>
       <c r="C293">
-        <v>183661.86</v>
+        <v>182659.09999999998</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6063,7 +6071,7 @@
         <v>500</v>
       </c>
       <c r="C294">
-        <v>183084.19000000003</v>
+        <v>180142.81</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -6074,7 +6082,7 @@
         <v>502</v>
       </c>
       <c r="C295">
-        <v>180139.4</v>
+        <v>176549.48</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -6082,21 +6090,21 @@
         <v>503</v>
       </c>
       <c r="B296" t="s">
-        <v>504</v>
+        <v>75</v>
       </c>
       <c r="C296">
-        <v>177127.88000000003</v>
+        <v>174414.66</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
+        <v>504</v>
+      </c>
+      <c r="B297" t="s">
         <v>505</v>
       </c>
-      <c r="B297" t="s">
-        <v>75</v>
-      </c>
       <c r="C297">
-        <v>174336.48</v>
+        <v>172387.24</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -6104,21 +6112,21 @@
         <v>506</v>
       </c>
       <c r="B298" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="C298">
-        <v>172312.81</v>
+        <v>172285.72</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
+        <v>507</v>
+      </c>
+      <c r="B299" t="s">
         <v>508</v>
       </c>
-      <c r="B299" t="s">
-        <v>92</v>
-      </c>
       <c r="C299">
-        <v>172213.79</v>
+        <v>169158.85</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6126,32 +6134,32 @@
         <v>509</v>
       </c>
       <c r="B300" t="s">
-        <v>510</v>
+        <v>396</v>
       </c>
       <c r="C300">
-        <v>169621.24000000002</v>
+        <v>168305.95</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B301" t="s">
-        <v>398</v>
+        <v>116</v>
       </c>
       <c r="C301">
-        <v>169008.26999999996</v>
+        <v>165655.60999999999</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
+        <v>511</v>
+      </c>
+      <c r="B302" t="s">
         <v>512</v>
       </c>
-      <c r="B302" t="s">
-        <v>116</v>
-      </c>
       <c r="C302">
-        <v>165584.95999999999</v>
+        <v>164107.54999999999</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6162,7 +6170,7 @@
         <v>514</v>
       </c>
       <c r="C303">
-        <v>164049.93</v>
+        <v>161682.35</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6173,7 +6181,7 @@
         <v>516</v>
       </c>
       <c r="C304">
-        <v>161658.76</v>
+        <v>160409.74</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6181,21 +6189,21 @@
         <v>517</v>
       </c>
       <c r="B305" t="s">
-        <v>118</v>
+        <v>518</v>
       </c>
       <c r="C305">
-        <v>160379.54999999999</v>
+        <v>160132.77000000002</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B306" t="s">
-        <v>519</v>
+        <v>120</v>
       </c>
       <c r="C306">
-        <v>160347.73000000001</v>
+        <v>159884.28</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6206,7 +6214,7 @@
         <v>521</v>
       </c>
       <c r="C307">
-        <v>160063.60999999999</v>
+        <v>158078.56</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6214,76 +6222,76 @@
         <v>522</v>
       </c>
       <c r="B308" t="s">
-        <v>523</v>
+        <v>324</v>
       </c>
       <c r="C308">
-        <v>158008.78</v>
+        <v>157749.00000000003</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B309" t="s">
-        <v>331</v>
+        <v>73</v>
       </c>
       <c r="C309">
-        <v>157695.52999999997</v>
+        <v>157684.49999999997</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B310" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C310">
-        <v>157612.98999999996</v>
+        <v>157433.89000000001</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B311" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C311">
-        <v>157359.61000000002</v>
+        <v>156677.75</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B312" t="s">
         <v>73</v>
       </c>
       <c r="C312">
-        <v>156614.32999999999</v>
+        <v>156304.93000000002</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B313" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C313">
-        <v>156239.19</v>
+        <v>154374.06</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
+        <v>528</v>
+      </c>
+      <c r="B314" t="s">
         <v>529</v>
       </c>
-      <c r="B314" t="s">
-        <v>33</v>
-      </c>
       <c r="C314">
-        <v>154373.93000000002</v>
+        <v>152350.78</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6291,32 +6299,32 @@
         <v>530</v>
       </c>
       <c r="B315" t="s">
-        <v>531</v>
+        <v>41</v>
       </c>
       <c r="C315">
-        <v>152293.87999999998</v>
+        <v>150767.17999999996</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B316" t="s">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="C316">
-        <v>150698.72999999998</v>
+        <v>148115.75</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
+        <v>532</v>
+      </c>
+      <c r="B317" t="s">
         <v>533</v>
       </c>
-      <c r="B317" t="s">
-        <v>249</v>
-      </c>
       <c r="C317">
-        <v>148598.58999999997</v>
+        <v>147018.02000000005</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6327,7 +6335,7 @@
         <v>535</v>
       </c>
       <c r="C318">
-        <v>146963.16</v>
+        <v>146779.54</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6335,21 +6343,21 @@
         <v>536</v>
       </c>
       <c r="B319" t="s">
-        <v>537</v>
+        <v>63</v>
       </c>
       <c r="C319">
-        <v>146725.58000000002</v>
+        <v>144501.99999999997</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
+        <v>537</v>
+      </c>
+      <c r="B320" t="s">
         <v>538</v>
       </c>
-      <c r="B320" t="s">
-        <v>441</v>
-      </c>
       <c r="C320">
-        <v>144561.63</v>
+        <v>144419.42000000001</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6357,10 +6365,10 @@
         <v>539</v>
       </c>
       <c r="B321" t="s">
-        <v>63</v>
+        <v>439</v>
       </c>
       <c r="C321">
-        <v>144441.40000000002</v>
+        <v>144391.62000000002</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6371,7 +6379,7 @@
         <v>222</v>
       </c>
       <c r="C322">
-        <v>144063.69</v>
+        <v>144126.03</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6379,10 +6387,10 @@
         <v>541</v>
       </c>
       <c r="B323" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C323">
-        <v>141813.61999999997</v>
+        <v>140455.28000000003</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6393,7 +6401,7 @@
         <v>543</v>
       </c>
       <c r="C324">
-        <v>140374.38999999998</v>
+        <v>140432.85999999999</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6401,21 +6409,21 @@
         <v>544</v>
       </c>
       <c r="B325" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C325">
-        <v>140022.76999999999</v>
+        <v>139693.50000000003</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
+        <v>545</v>
+      </c>
+      <c r="B326" t="s">
         <v>546</v>
       </c>
-      <c r="B326" t="s">
-        <v>545</v>
-      </c>
       <c r="C326">
-        <v>139659.44</v>
+        <v>139282.38999999998</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6426,7 +6434,7 @@
         <v>548</v>
       </c>
       <c r="C327">
-        <v>139222.14000000001</v>
+        <v>138478.26</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6437,7 +6445,7 @@
         <v>550</v>
       </c>
       <c r="C328">
-        <v>138920.97</v>
+        <v>138094.81</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6448,7 +6456,7 @@
         <v>552</v>
       </c>
       <c r="C329">
-        <v>138033.15000000002</v>
+        <v>137848.38000000003</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6459,7 +6467,7 @@
         <v>554</v>
       </c>
       <c r="C330">
-        <v>137807.32999999999</v>
+        <v>136483.68</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6470,7 +6478,7 @@
         <v>556</v>
       </c>
       <c r="C331">
-        <v>136670.58000000002</v>
+        <v>135955.5</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6481,7 +6489,7 @@
         <v>558</v>
       </c>
       <c r="C332">
-        <v>135945.49</v>
+        <v>129914.18</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6492,7 +6500,7 @@
         <v>560</v>
       </c>
       <c r="C333">
-        <v>130836.61000000002</v>
+        <v>129623.05</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6503,7 +6511,7 @@
         <v>189</v>
       </c>
       <c r="C334">
-        <v>129631.83999999998</v>
+        <v>129507.88</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6514,7 +6522,7 @@
         <v>563</v>
       </c>
       <c r="C335">
-        <v>129565.31999999999</v>
+        <v>128867.3</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6522,32 +6530,32 @@
         <v>564</v>
       </c>
       <c r="B336" t="s">
-        <v>565</v>
+        <v>231</v>
       </c>
       <c r="C336">
-        <v>128826.84999999999</v>
+        <v>128167.26</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B337" t="s">
-        <v>234</v>
+        <v>458</v>
       </c>
       <c r="C337">
-        <v>128108.69000000002</v>
+        <v>127542.28</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
+        <v>566</v>
+      </c>
+      <c r="B338" t="s">
         <v>567</v>
       </c>
-      <c r="B338" t="s">
-        <v>456</v>
-      </c>
       <c r="C338">
-        <v>127530.87</v>
+        <v>127149.07999999997</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6555,131 +6563,131 @@
         <v>568</v>
       </c>
       <c r="B339" t="s">
-        <v>569</v>
+        <v>311</v>
       </c>
       <c r="C339">
-        <v>127096.57</v>
+        <v>126680.78000000001</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B340" t="s">
-        <v>313</v>
+        <v>433</v>
       </c>
       <c r="C340">
-        <v>126623.60000000002</v>
+        <v>126429.39</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B341" t="s">
-        <v>435</v>
+        <v>538</v>
       </c>
       <c r="C341">
-        <v>126595.87000000001</v>
+        <v>125877.17</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B342" t="s">
-        <v>545</v>
+        <v>61</v>
       </c>
       <c r="C342">
-        <v>126150.28</v>
+        <v>125555.22000000002</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
+        <v>572</v>
+      </c>
+      <c r="B343" t="s">
         <v>573</v>
       </c>
-      <c r="B343" t="s">
-        <v>574</v>
-      </c>
       <c r="C343">
-        <v>125019.94000000002</v>
+        <v>124881.28</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B344" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C344">
-        <v>124276.25</v>
+        <v>122901.65000000001</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
+        <v>575</v>
+      </c>
+      <c r="B345" t="s">
         <v>576</v>
       </c>
-      <c r="B345" t="s">
-        <v>577</v>
-      </c>
       <c r="C345">
-        <v>121744.08</v>
+        <v>121803.08</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B346" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C346">
-        <v>121259.96</v>
+        <v>120929.81000000001</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B347" t="s">
         <v>75</v>
       </c>
       <c r="C347">
-        <v>119788.6</v>
+        <v>119841.18000000001</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B348" t="s">
-        <v>581</v>
+        <v>26</v>
       </c>
       <c r="C348">
-        <v>118785.01</v>
+        <v>118721.90000000001</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B349" t="s">
-        <v>26</v>
+        <v>581</v>
       </c>
       <c r="C349">
-        <v>118667.04000000002</v>
+        <v>118400.53</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
+        <v>582</v>
+      </c>
+      <c r="B350" t="s">
         <v>583</v>
       </c>
-      <c r="B350" t="s">
-        <v>550</v>
-      </c>
       <c r="C350">
-        <v>117688.04999999999</v>
+        <v>117702.73</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6687,54 +6695,54 @@
         <v>584</v>
       </c>
       <c r="B351" t="s">
-        <v>585</v>
+        <v>548</v>
       </c>
       <c r="C351">
-        <v>117647.45999999999</v>
+        <v>117576.81</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B352" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C352">
-        <v>117102</v>
+        <v>117145.82999999999</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B353" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C353">
-        <v>115097.31</v>
+        <v>115147.14</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
+        <v>587</v>
+      </c>
+      <c r="B354" t="s">
         <v>588</v>
       </c>
-      <c r="B354" t="s">
-        <v>589</v>
-      </c>
       <c r="C354">
-        <v>114694.70999999998</v>
+        <v>114794.45999999999</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
+        <v>589</v>
+      </c>
+      <c r="B355" t="s">
         <v>590</v>
       </c>
-      <c r="B355" t="s">
-        <v>61</v>
-      </c>
       <c r="C355">
-        <v>114009.16</v>
+        <v>112966.93000000001</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6745,7 +6753,7 @@
         <v>592</v>
       </c>
       <c r="C356">
-        <v>113155.44</v>
+        <v>112915.99</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6756,7 +6764,7 @@
         <v>594</v>
       </c>
       <c r="C357">
-        <v>112917.88</v>
+        <v>112815.55</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6764,54 +6772,54 @@
         <v>595</v>
       </c>
       <c r="B358" t="s">
-        <v>596</v>
+        <v>63</v>
       </c>
       <c r="C358">
-        <v>112865.92</v>
+        <v>112793.06999999999</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
+        <v>596</v>
+      </c>
+      <c r="B359" t="s">
         <v>597</v>
       </c>
-      <c r="B359" t="s">
-        <v>598</v>
-      </c>
       <c r="C359">
-        <v>112766.35</v>
+        <v>111934.29000000001</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B360" t="s">
-        <v>63</v>
+        <v>366</v>
       </c>
       <c r="C360">
-        <v>112743.92000000001</v>
+        <v>109648.18</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B361" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="C361">
-        <v>109954.12000000001</v>
+        <v>109461.94</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
+        <v>600</v>
+      </c>
+      <c r="B362" t="s">
         <v>601</v>
       </c>
-      <c r="B362" t="s">
-        <v>319</v>
-      </c>
       <c r="C362">
-        <v>109803.45000000003</v>
+        <v>107949.08999999998</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6819,21 +6827,21 @@
         <v>602</v>
       </c>
       <c r="B363" t="s">
-        <v>603</v>
+        <v>92</v>
       </c>
       <c r="C363">
-        <v>108076.12999999999</v>
+        <v>106032.39</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
+        <v>603</v>
+      </c>
+      <c r="B364" t="s">
         <v>604</v>
       </c>
-      <c r="B364" t="s">
-        <v>92</v>
-      </c>
       <c r="C364">
-        <v>106365.65000000001</v>
+        <v>105918.11</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6841,98 +6849,98 @@
         <v>605</v>
       </c>
       <c r="B365" t="s">
-        <v>606</v>
+        <v>538</v>
       </c>
       <c r="C365">
-        <v>105871.26000000001</v>
+        <v>105039.29999999999</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B366" t="s">
-        <v>545</v>
+        <v>111</v>
       </c>
       <c r="C366">
-        <v>104905.42</v>
+        <v>103715.97</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B367" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C367">
-        <v>103722.31000000001</v>
+        <v>102564.83000000002</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B368" t="s">
-        <v>111</v>
+        <v>255</v>
       </c>
       <c r="C368">
-        <v>103670.37</v>
+        <v>102558.45</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B369" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="C369">
-        <v>102522.08</v>
+        <v>102266.17</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B370" t="s">
-        <v>319</v>
+        <v>462</v>
       </c>
       <c r="C370">
-        <v>102179.26999999999</v>
+        <v>101453.34999999999</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B371" t="s">
-        <v>464</v>
+        <v>77</v>
       </c>
       <c r="C371">
-        <v>101737.60999999999</v>
+        <v>100701.74999999999</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B372" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C372">
-        <v>100699.6</v>
+        <v>100391.10999999999</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
+        <v>613</v>
+      </c>
+      <c r="B373" t="s">
         <v>614</v>
       </c>
-      <c r="B373" t="s">
-        <v>73</v>
-      </c>
       <c r="C373">
-        <v>100342.65</v>
+        <v>100249.78</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6943,7 +6951,7 @@
         <v>616</v>
       </c>
       <c r="C374">
-        <v>100206.95000000001</v>
+        <v>97470.02</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6951,21 +6959,21 @@
         <v>617</v>
       </c>
       <c r="B375" t="s">
-        <v>618</v>
+        <v>266</v>
       </c>
       <c r="C375">
-        <v>97435.040000000023</v>
+        <v>96343.26</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
+        <v>618</v>
+      </c>
+      <c r="B376" t="s">
         <v>619</v>
       </c>
-      <c r="B376" t="s">
-        <v>268</v>
-      </c>
       <c r="C376">
-        <v>96585.2</v>
+        <v>93955.06</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6973,120 +6981,120 @@
         <v>620</v>
       </c>
       <c r="B377" t="s">
-        <v>621</v>
+        <v>342</v>
       </c>
       <c r="C377">
-        <v>93903.49</v>
+        <v>93423.920000000013</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B378" t="s">
-        <v>623</v>
+        <v>61</v>
       </c>
       <c r="C378">
-        <v>91071.039999999994</v>
+        <v>93400.52</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B379" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="C379">
-        <v>89884.39</v>
+        <v>93322.950000000012</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B380" t="s">
-        <v>344</v>
+        <v>624</v>
       </c>
       <c r="C380">
-        <v>89016.650000000009</v>
+        <v>91110.409999999989</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B381" t="s">
-        <v>61</v>
+        <v>626</v>
       </c>
       <c r="C381">
-        <v>88993.38</v>
+        <v>89919.5</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B382" t="s">
-        <v>51</v>
+        <v>491</v>
       </c>
       <c r="C382">
-        <v>88902.31</v>
+        <v>88380.22</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B383" t="s">
-        <v>493</v>
+        <v>249</v>
       </c>
       <c r="C383">
-        <v>88342.310000000012</v>
+        <v>86987.63</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B384" t="s">
-        <v>249</v>
+        <v>105</v>
       </c>
       <c r="C384">
-        <v>87986.920000000013</v>
+        <v>86937.93</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B385" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C385">
-        <v>86925.099999999991</v>
+        <v>86386.69</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B386" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C386">
-        <v>86533.58</v>
+        <v>85587.430000000008</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
+        <v>632</v>
+      </c>
+      <c r="B387" t="s">
         <v>633</v>
       </c>
-      <c r="B387" t="s">
-        <v>61</v>
-      </c>
       <c r="C387">
-        <v>86467.400000000023</v>
+        <v>83860.7</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7094,43 +7102,43 @@
         <v>634</v>
       </c>
       <c r="B388" t="s">
-        <v>635</v>
+        <v>207</v>
       </c>
       <c r="C388">
-        <v>83874.780000000013</v>
+        <v>82361.450000000012</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B389" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
       <c r="C389">
-        <v>82922.67</v>
+        <v>82135.87999999999</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B390" t="s">
-        <v>207</v>
+        <v>637</v>
       </c>
       <c r="C390">
-        <v>82327.02</v>
+        <v>81927.33</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
+        <v>638</v>
+      </c>
+      <c r="B391" t="s">
         <v>639</v>
       </c>
-      <c r="B391" t="s">
-        <v>574</v>
-      </c>
       <c r="C391">
-        <v>82097.45</v>
+        <v>79907.149999999994</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7141,7 +7149,7 @@
         <v>641</v>
       </c>
       <c r="C392">
-        <v>79870.97</v>
+        <v>78097.12999999999</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -7152,7 +7160,7 @@
         <v>643</v>
       </c>
       <c r="C393">
-        <v>78062.139999999985</v>
+        <v>75890.34</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -7160,10 +7168,10 @@
         <v>644</v>
       </c>
       <c r="B394" t="s">
-        <v>439</v>
+        <v>508</v>
       </c>
       <c r="C394">
-        <v>75954.769999999975</v>
+        <v>75627.060000000012</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7174,7 +7182,7 @@
         <v>646</v>
       </c>
       <c r="C395">
-        <v>75873.460000000006</v>
+        <v>75369.850000000006</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7182,10 +7190,10 @@
         <v>647</v>
       </c>
       <c r="B396" t="s">
-        <v>510</v>
+        <v>73</v>
       </c>
       <c r="C396">
-        <v>75837.079999999987</v>
+        <v>75195.570000000022</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7193,21 +7201,21 @@
         <v>648</v>
       </c>
       <c r="B397" t="s">
-        <v>649</v>
+        <v>437</v>
       </c>
       <c r="C397">
-        <v>75336.679999999993</v>
+        <v>75054.950000000012</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
+        <v>649</v>
+      </c>
+      <c r="B398" t="s">
         <v>650</v>
       </c>
-      <c r="B398" t="s">
-        <v>73</v>
-      </c>
       <c r="C398">
-        <v>75171.090000000011</v>
+        <v>73375.12</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7215,54 +7223,54 @@
         <v>651</v>
       </c>
       <c r="B399" t="s">
-        <v>652</v>
+        <v>49</v>
       </c>
       <c r="C399">
-        <v>73343.289999999994</v>
+        <v>73143.86</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B400" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C400">
-        <v>73122.66</v>
+        <v>72498.710000000006</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B401" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="C401">
-        <v>72467.439999999988</v>
+        <v>71838.06</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
+        <v>654</v>
+      </c>
+      <c r="B402" t="s">
         <v>655</v>
       </c>
-      <c r="B402" t="s">
-        <v>656</v>
-      </c>
       <c r="C402">
-        <v>72114.490000000005</v>
+        <v>71737.26999999999</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
+        <v>656</v>
+      </c>
+      <c r="B403" t="s">
         <v>657</v>
       </c>
-      <c r="B403" t="s">
-        <v>197</v>
-      </c>
       <c r="C403">
-        <v>71807.75</v>
+        <v>70851.850000000006</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7273,7 +7281,7 @@
         <v>659</v>
       </c>
       <c r="C404">
-        <v>70824.479999999996</v>
+        <v>69653.490000000005</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7284,7 +7292,7 @@
         <v>661</v>
       </c>
       <c r="C405">
-        <v>69841.41</v>
+        <v>67733.599999999991</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7292,10 +7300,10 @@
         <v>662</v>
       </c>
       <c r="B406" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C406">
-        <v>67773.459999999992</v>
+        <v>67701.48</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7303,32 +7311,32 @@
         <v>663</v>
       </c>
       <c r="B407" t="s">
-        <v>664</v>
+        <v>324</v>
       </c>
       <c r="C407">
-        <v>67700.800000000003</v>
+        <v>66754.39</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B408" t="s">
-        <v>331</v>
+        <v>441</v>
       </c>
       <c r="C408">
-        <v>66738.59</v>
+        <v>64981.06</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
+        <v>665</v>
+      </c>
+      <c r="B409" t="s">
         <v>666</v>
       </c>
-      <c r="B409" t="s">
-        <v>443</v>
-      </c>
       <c r="C409">
-        <v>65128.360000000008</v>
+        <v>64559.839999999997</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7336,21 +7344,21 @@
         <v>667</v>
       </c>
       <c r="B410" t="s">
-        <v>668</v>
+        <v>26</v>
       </c>
       <c r="C410">
-        <v>64532.679999999993</v>
+        <v>64118.539999999994</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
+        <v>668</v>
+      </c>
+      <c r="B411" t="s">
         <v>669</v>
       </c>
-      <c r="B411" t="s">
-        <v>26</v>
-      </c>
       <c r="C411">
-        <v>64110.149999999994</v>
+        <v>63907.079999999987</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7361,7 +7369,7 @@
         <v>671</v>
       </c>
       <c r="C412">
-        <v>63879.37</v>
+        <v>62437.82</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7372,7 +7380,7 @@
         <v>673</v>
       </c>
       <c r="C413">
-        <v>62438.659999999996</v>
+        <v>62247.749999999993</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7380,21 +7388,21 @@
         <v>674</v>
       </c>
       <c r="B414" t="s">
-        <v>675</v>
+        <v>200</v>
       </c>
       <c r="C414">
-        <v>62218.44</v>
+        <v>62197.369999999995</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
+        <v>675</v>
+      </c>
+      <c r="B415" t="s">
         <v>676</v>
       </c>
-      <c r="B415" t="s">
-        <v>199</v>
-      </c>
       <c r="C415">
-        <v>62169.8</v>
+        <v>59996.220000000008</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7402,21 +7410,21 @@
         <v>677</v>
       </c>
       <c r="B416" t="s">
-        <v>51</v>
+        <v>678</v>
       </c>
       <c r="C416">
-        <v>60296.59</v>
+        <v>59674.659999999996</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B417" t="s">
-        <v>679</v>
+        <v>216</v>
       </c>
       <c r="C417">
-        <v>59968.799999999996</v>
+        <v>59651.729999999996</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7427,7 +7435,7 @@
         <v>216</v>
       </c>
       <c r="C418">
-        <v>59806.73</v>
+        <v>58727.38</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7435,32 +7443,32 @@
         <v>681</v>
       </c>
       <c r="B419" t="s">
-        <v>682</v>
+        <v>195</v>
       </c>
       <c r="C419">
-        <v>59645.67</v>
+        <v>58711.94000000001</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B420" t="s">
-        <v>197</v>
+        <v>433</v>
       </c>
       <c r="C420">
-        <v>59429.260000000009</v>
+        <v>57406.17</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
+        <v>683</v>
+      </c>
+      <c r="B421" t="s">
         <v>684</v>
       </c>
-      <c r="B421" t="s">
-        <v>216</v>
-      </c>
       <c r="C421">
-        <v>58872.2</v>
+        <v>56880.259999999995</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7468,10 +7476,10 @@
         <v>685</v>
       </c>
       <c r="B422" t="s">
-        <v>435</v>
+        <v>61</v>
       </c>
       <c r="C422">
-        <v>57383.89</v>
+        <v>56538.18</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7479,10 +7487,10 @@
         <v>686</v>
       </c>
       <c r="B423" t="s">
-        <v>61</v>
+        <v>669</v>
       </c>
       <c r="C423">
-        <v>56678.720000000001</v>
+        <v>55742.39</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7493,7 +7501,7 @@
         <v>116</v>
       </c>
       <c r="C424">
-        <v>56314.450000000012</v>
+        <v>55630.21</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7501,10 +7509,10 @@
         <v>688</v>
       </c>
       <c r="B425" t="s">
-        <v>671</v>
+        <v>487</v>
       </c>
       <c r="C425">
-        <v>55717.399999999994</v>
+        <v>55617.71</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7512,43 +7520,43 @@
         <v>689</v>
       </c>
       <c r="B426" t="s">
-        <v>491</v>
+        <v>690</v>
       </c>
       <c r="C426">
-        <v>55596.19</v>
+        <v>54268.119999999995</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B427" t="s">
         <v>155</v>
       </c>
       <c r="C427">
-        <v>53513.8</v>
+        <v>53537.939999999995</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B428" t="s">
-        <v>353</v>
+        <v>51</v>
       </c>
       <c r="C428">
-        <v>52782.820000000007</v>
+        <v>53161.829999999994</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B429" t="s">
-        <v>693</v>
+        <v>351</v>
       </c>
       <c r="C429">
-        <v>52743.760000000009</v>
+        <v>52196.159999999996</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7559,7 +7567,7 @@
         <v>81</v>
       </c>
       <c r="C430">
-        <v>51978.86</v>
+        <v>51922.990000000005</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7567,10 +7575,10 @@
         <v>695</v>
       </c>
       <c r="B431" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C431">
-        <v>51032.43</v>
+        <v>50398.279999999992</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7581,7 +7589,7 @@
         <v>53</v>
       </c>
       <c r="C432">
-        <v>50510.390000000007</v>
+        <v>49884.310000000005</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7589,10 +7597,10 @@
         <v>697</v>
       </c>
       <c r="B433" t="s">
-        <v>574</v>
+        <v>283</v>
       </c>
       <c r="C433">
-        <v>50427.25</v>
+        <v>49864.29</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7600,10 +7608,10 @@
         <v>698</v>
       </c>
       <c r="B434" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="C434">
-        <v>50107.989999999991</v>
+        <v>49802</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7611,10 +7619,10 @@
         <v>699</v>
       </c>
       <c r="B435" t="s">
-        <v>281</v>
+        <v>554</v>
       </c>
       <c r="C435">
-        <v>48909.319999999992</v>
+        <v>49487.840000000004</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7622,10 +7630,10 @@
         <v>700</v>
       </c>
       <c r="B436" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C436">
-        <v>48064.49</v>
+        <v>47831.839999999997</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7633,10 +7641,10 @@
         <v>701</v>
       </c>
       <c r="B437" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C437">
-        <v>47912.959999999999</v>
+        <v>47775.73000000001</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7644,10 +7652,10 @@
         <v>702</v>
       </c>
       <c r="B438" t="s">
-        <v>355</v>
+        <v>423</v>
       </c>
       <c r="C438">
-        <v>47545.06</v>
+        <v>47300.74</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7655,10 +7663,10 @@
         <v>703</v>
       </c>
       <c r="B439" t="s">
-        <v>425</v>
+        <v>354</v>
       </c>
       <c r="C439">
-        <v>46659.28</v>
+        <v>46984.179999999993</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7669,7 +7677,7 @@
         <v>705</v>
       </c>
       <c r="C440">
-        <v>45685.3</v>
+        <v>45702.94</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7680,7 +7688,7 @@
         <v>12</v>
       </c>
       <c r="C441">
-        <v>44830.33</v>
+        <v>44849.239999999991</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7691,7 +7699,7 @@
         <v>81</v>
       </c>
       <c r="C442">
-        <v>42341.869999999995</v>
+        <v>42225.82</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7702,7 +7710,7 @@
         <v>709</v>
       </c>
       <c r="C443">
-        <v>42118.11</v>
+        <v>42136.419999999991</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7713,7 +7721,7 @@
         <v>711</v>
       </c>
       <c r="C444">
-        <v>41325.870000000003</v>
+        <v>41208.050000000003</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7721,10 +7729,10 @@
         <v>712</v>
       </c>
       <c r="B445" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="C445">
-        <v>41156.18</v>
+        <v>40545.779999999992</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7732,32 +7740,32 @@
         <v>713</v>
       </c>
       <c r="B446" t="s">
-        <v>63</v>
+        <v>714</v>
       </c>
       <c r="C446">
-        <v>40526.600000000006</v>
+        <v>39802.890000000007</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B447" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C447">
-        <v>39786.730000000003</v>
+        <v>39375.829999999994</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B448" t="s">
-        <v>717</v>
+        <v>441</v>
       </c>
       <c r="C448">
-        <v>39358.17</v>
+        <v>36523.910000000003</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7765,21 +7773,21 @@
         <v>718</v>
       </c>
       <c r="B449" t="s">
-        <v>443</v>
+        <v>719</v>
       </c>
       <c r="C449">
-        <v>36504.870000000003</v>
+        <v>36446.020000000004</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B450" t="s">
-        <v>720</v>
+        <v>409</v>
       </c>
       <c r="C450">
-        <v>36429.700000000004</v>
+        <v>35824.17</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7787,10 +7795,10 @@
         <v>721</v>
       </c>
       <c r="B451" t="s">
-        <v>411</v>
+        <v>133</v>
       </c>
       <c r="C451">
-        <v>35836.159999999996</v>
+        <v>35129.269999999997</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7801,7 +7809,7 @@
         <v>51</v>
       </c>
       <c r="C452">
-        <v>34995.480000000003</v>
+        <v>34647.949999999997</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7812,7 +7820,7 @@
         <v>724</v>
       </c>
       <c r="C453">
-        <v>34543.75</v>
+        <v>34559.39</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7823,7 +7831,7 @@
         <v>726</v>
       </c>
       <c r="C454">
-        <v>34193.83</v>
+        <v>34208.5</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7831,10 +7839,10 @@
         <v>727</v>
       </c>
       <c r="B455" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C455">
-        <v>33303.64</v>
+        <v>33318.6</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7845,7 +7853,7 @@
         <v>39</v>
       </c>
       <c r="C456">
-        <v>31803.84</v>
+        <v>31716.48</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7853,10 +7861,10 @@
         <v>729</v>
       </c>
       <c r="B457" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C457">
-        <v>30749.969999999998</v>
+        <v>30765.68</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7867,7 +7875,7 @@
         <v>731</v>
       </c>
       <c r="C458">
-        <v>28434.360000000004</v>
+        <v>29831.040000000001</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7875,54 +7883,54 @@
         <v>732</v>
       </c>
       <c r="B459" t="s">
-        <v>491</v>
+        <v>733</v>
       </c>
       <c r="C459">
-        <v>28061.079999999994</v>
+        <v>28375.420000000002</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B460" t="s">
-        <v>417</v>
+        <v>735</v>
       </c>
       <c r="C460">
-        <v>27974.530000000002</v>
+        <v>28364.899999999998</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B461" t="s">
-        <v>199</v>
+        <v>415</v>
       </c>
       <c r="C461">
-        <v>26108.400000000001</v>
+        <v>27987.570000000003</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B462" t="s">
-        <v>736</v>
+        <v>487</v>
       </c>
       <c r="C462">
-        <v>25406.01</v>
+        <v>27737.490000000005</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B463" t="s">
-        <v>738</v>
+        <v>200</v>
       </c>
       <c r="C463">
-        <v>23270.350000000002</v>
+        <v>26119.119999999999</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7930,87 +7938,87 @@
         <v>739</v>
       </c>
       <c r="B464" t="s">
-        <v>199</v>
+        <v>740</v>
       </c>
       <c r="C464">
-        <v>21019.040000000001</v>
+        <v>23279.010000000002</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B465" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="C465">
-        <v>20692.800000000003</v>
+        <v>21024.809999999998</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B466" t="s">
-        <v>73</v>
+        <v>224</v>
       </c>
       <c r="C466">
-        <v>20263.250000000007</v>
+        <v>20701.97</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B467" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C467">
-        <v>17254.57</v>
+        <v>20271.509999999998</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B468" t="s">
-        <v>344</v>
+        <v>41</v>
       </c>
       <c r="C468">
-        <v>16463.760000000002</v>
+        <v>17261.87</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B469" t="s">
         <v>216</v>
       </c>
       <c r="C469">
-        <v>16220.58</v>
+        <v>16227.85</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B470" t="s">
-        <v>407</v>
+        <v>342</v>
       </c>
       <c r="C470">
-        <v>14513.890000000001</v>
+        <v>16158.76</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B471" t="s">
-        <v>747</v>
+        <v>405</v>
       </c>
       <c r="C471">
-        <v>14112.48</v>
+        <v>14523.779999999999</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -8021,7 +8029,7 @@
         <v>749</v>
       </c>
       <c r="C472">
-        <v>13951.23</v>
+        <v>14118.76</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8032,7 +8040,7 @@
         <v>751</v>
       </c>
       <c r="C473">
-        <v>13464.220000000001</v>
+        <v>13957.41</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8040,43 +8048,43 @@
         <v>752</v>
       </c>
       <c r="B474" t="s">
-        <v>344</v>
+        <v>753</v>
       </c>
       <c r="C474">
-        <v>12941.44</v>
+        <v>13470.24</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B475" t="s">
-        <v>6</v>
+        <v>342</v>
       </c>
       <c r="C475">
-        <v>12893.2</v>
+        <v>12947.24</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B476" t="s">
-        <v>313</v>
+        <v>6</v>
       </c>
       <c r="C476">
-        <v>11774.51</v>
+        <v>12774.64</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B477" t="s">
-        <v>756</v>
+        <v>311</v>
       </c>
       <c r="C477">
-        <v>11306.15</v>
+        <v>11776.859999999999</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8087,7 +8095,7 @@
         <v>758</v>
       </c>
       <c r="C478">
-        <v>10514.899999999998</v>
+        <v>11311.13</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8095,32 +8103,32 @@
         <v>759</v>
       </c>
       <c r="B479" t="s">
-        <v>423</v>
+        <v>760</v>
       </c>
       <c r="C479">
-        <v>10129.040000000001</v>
+        <v>10519.48</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B480" t="s">
-        <v>8</v>
+        <v>417</v>
       </c>
       <c r="C480">
-        <v>9985.43</v>
+        <v>10132.959999999999</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B481" t="s">
-        <v>762</v>
+        <v>8</v>
       </c>
       <c r="C481">
-        <v>9248.1</v>
+        <v>9989.84</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -8128,32 +8136,32 @@
         <v>763</v>
       </c>
       <c r="B482" t="s">
-        <v>199</v>
+        <v>764</v>
       </c>
       <c r="C482">
-        <v>8877</v>
+        <v>9251.9900000000016</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B483" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C483">
-        <v>7990.54</v>
+        <v>8881.74</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B484" t="s">
-        <v>766</v>
+        <v>207</v>
       </c>
       <c r="C484">
-        <v>7154.05</v>
+        <v>8014.65</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -8164,7 +8172,7 @@
         <v>768</v>
       </c>
       <c r="C485">
-        <v>6797.5999999999995</v>
+        <v>7156.62</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -8172,21 +8180,21 @@
         <v>769</v>
       </c>
       <c r="B486" t="s">
-        <v>197</v>
+        <v>770</v>
       </c>
       <c r="C486">
-        <v>5308.1</v>
+        <v>6800.52</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B487" t="s">
-        <v>771</v>
+        <v>195</v>
       </c>
       <c r="C487">
-        <v>5000</v>
+        <v>5253.37</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -8194,21 +8202,21 @@
         <v>772</v>
       </c>
       <c r="B488" t="s">
-        <v>73</v>
+        <v>773</v>
       </c>
       <c r="C488">
-        <v>4687.51</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B489" t="s">
-        <v>774</v>
+        <v>73</v>
       </c>
       <c r="C489">
-        <v>4646.6000000000004</v>
+        <v>4687.51</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -8219,7 +8227,7 @@
         <v>776</v>
       </c>
       <c r="C490">
-        <v>2300</v>
+        <v>4648.32</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -8230,7 +8238,7 @@
         <v>778</v>
       </c>
       <c r="C491">
-        <v>1518.44</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -8238,32 +8246,32 @@
         <v>779</v>
       </c>
       <c r="B492" t="s">
-        <v>33</v>
+        <v>780</v>
       </c>
       <c r="C492">
-        <v>1432.8</v>
+        <v>1519.1100000000001</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B493" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C493">
-        <v>1349.5700000000002</v>
+        <v>1433.3999999999999</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B494" t="s">
-        <v>782</v>
+        <v>53</v>
       </c>
       <c r="C494">
-        <v>1103.5899999999999</v>
+        <v>1348.84</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -8271,43 +8279,43 @@
         <v>783</v>
       </c>
       <c r="B495" t="s">
-        <v>398</v>
+        <v>784</v>
       </c>
       <c r="C495">
-        <v>1088.96</v>
+        <v>1104.0899999999999</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B496" t="s">
-        <v>592</v>
+        <v>396</v>
       </c>
       <c r="C496">
-        <v>746.27</v>
+        <v>1089.45</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B497" t="s">
-        <v>22</v>
+        <v>597</v>
       </c>
       <c r="C497">
-        <v>501.85</v>
+        <v>746.54</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B498" t="s">
-        <v>787</v>
+        <v>22</v>
       </c>
       <c r="C498">
-        <v>435.68</v>
+        <v>494.44000000000005</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -8315,29 +8323,29 @@
         <v>788</v>
       </c>
       <c r="B499" t="s">
-        <v>100</v>
+        <v>789</v>
       </c>
       <c r="C499">
-        <v>279.35000000000002</v>
+        <v>435.68</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B500" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="C500">
-        <v>150</v>
+        <v>279.47000000000003</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B501" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C501">
         <v>150</v>
@@ -8345,57 +8353,57 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B502" t="s">
-        <v>268</v>
+        <v>197</v>
       </c>
       <c r="C502">
-        <v>86.38</v>
+        <v>150</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B503" t="s">
-        <v>443</v>
+        <v>266</v>
       </c>
       <c r="C503">
-        <v>50.26</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B504" t="s">
-        <v>563</v>
+        <v>441</v>
       </c>
       <c r="C504">
-        <v>50</v>
+        <v>50.26</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B505" t="s">
-        <v>435</v>
+        <v>560</v>
       </c>
       <c r="C505">
-        <v>33.049999999999997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B506" t="s">
-        <v>796</v>
+        <v>433</v>
       </c>
       <c r="C506">
-        <v>29.770000000000003</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -8406,7 +8414,7 @@
         <v>798</v>
       </c>
       <c r="C507">
-        <v>21.27</v>
+        <v>29.770000000000003</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8414,32 +8422,32 @@
         <v>799</v>
       </c>
       <c r="B508" t="s">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="C508">
-        <v>19.079999999999998</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B509" t="s">
-        <v>276</v>
+        <v>22</v>
       </c>
       <c r="C509">
-        <v>18.32</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B510" t="s">
-        <v>802</v>
+        <v>275</v>
       </c>
       <c r="C510">
-        <v>17.86</v>
+        <v>18.32</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -8450,7 +8458,7 @@
         <v>804</v>
       </c>
       <c r="C511">
-        <v>14.67</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8461,7 +8469,7 @@
         <v>806</v>
       </c>
       <c r="C512">
-        <v>9.73</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8469,21 +8477,21 @@
         <v>807</v>
       </c>
       <c r="B513" t="s">
-        <v>268</v>
+        <v>808</v>
       </c>
       <c r="C513">
-        <v>5.55</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B514" t="s">
-        <v>809</v>
+        <v>266</v>
       </c>
       <c r="C514">
-        <v>0.05</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -8491,26 +8499,37 @@
         <v>810</v>
       </c>
       <c r="B515" t="s">
-        <v>41</v>
+        <v>811</v>
       </c>
       <c r="C515">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B516" t="s">
-        <v>812</v>
+        <v>41</v>
       </c>
       <c r="C516">
         <v>0.01</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
-      <c r="A518" t="s">
+    <row r="517" spans="1:3">
+      <c r="A517" t="s">
         <v>813</v>
+      </c>
+      <c r="B517" t="s">
+        <v>814</v>
+      </c>
+      <c r="C517">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" t="s">
+        <v>815</v>
       </c>
     </row>
   </sheetData>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52B32233-11A2-4D14-9342-998594C116C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95F110CF-B437-401B-AD00-0C4A1DE67B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="818">
   <si>
     <t>CONTA</t>
   </si>
@@ -325,66 +325,66 @@
     <t>RENATO</t>
   </si>
   <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>004552021</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004448303</t>
+  </si>
+  <si>
+    <t>NASSIM</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
     <t>004363250</t>
   </si>
   <si>
     <t>HELIO</t>
   </si>
   <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>004552021</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004448303</t>
-  </si>
-  <si>
-    <t>NASSIM</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
     <t>004846293</t>
   </si>
   <si>
     <t>LARISSA</t>
   </si>
   <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
     <t>001882235</t>
   </si>
   <si>
     <t>LAGO</t>
   </si>
   <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
     <t>003987275</t>
   </si>
   <si>
@@ -451,15 +451,15 @@
     <t>004381180</t>
   </si>
   <si>
+    <t>004482439</t>
+  </si>
+  <si>
     <t>004915243</t>
   </si>
   <si>
     <t>POLO</t>
   </si>
   <si>
-    <t>004482439</t>
-  </si>
-  <si>
     <t>004526450</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>004639776</t>
   </si>
   <si>
+    <t>004890544</t>
+  </si>
+  <si>
     <t>005190138</t>
   </si>
   <si>
-    <t>004890544</t>
-  </si>
-  <si>
     <t>004499920</t>
   </si>
   <si>
@@ -664,21 +664,21 @@
     <t>004457389</t>
   </si>
   <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
     <t>004460491</t>
   </si>
   <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
+    <t>005092207</t>
   </si>
   <si>
     <t>004752534</t>
   </si>
   <si>
-    <t>005092207</t>
-  </si>
-  <si>
     <t>004207955</t>
   </si>
   <si>
@@ -691,34 +691,46 @@
     <t>ALESSANDRA</t>
   </si>
   <si>
+    <t>004453132</t>
+  </si>
+  <si>
     <t>004646727</t>
   </si>
   <si>
     <t>RENATA</t>
   </si>
   <si>
-    <t>004453132</t>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>004497875</t>
   </si>
   <si>
     <t>004515341</t>
   </si>
   <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>004497875</t>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
   </si>
   <si>
     <t>004355790</t>
@@ -733,15 +745,15 @@
     <t>ROSANGELA</t>
   </si>
   <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
     <t>004458624</t>
   </si>
   <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
     <t>004452476</t>
   </si>
   <si>
@@ -841,15 +853,15 @@
     <t>VALDIVINO</t>
   </si>
   <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
     <t>001731007</t>
   </si>
   <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
     <t>004588677</t>
   </si>
   <si>
@@ -862,18 +874,18 @@
     <t>VERANICE</t>
   </si>
   <si>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
     <t>004419765</t>
   </si>
   <si>
     <t>WALTER</t>
   </si>
   <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
     <t>004751770</t>
   </si>
   <si>
@@ -910,6 +922,9 @@
     <t>CASSIO</t>
   </si>
   <si>
+    <t>004958539</t>
+  </si>
+  <si>
     <t>004472431</t>
   </si>
   <si>
@@ -922,9 +937,6 @@
     <t>004811224</t>
   </si>
   <si>
-    <t>004958539</t>
-  </si>
-  <si>
     <t>004252768</t>
   </si>
   <si>
@@ -985,6 +997,18 @@
     <t>004565108</t>
   </si>
   <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
     <t>002694089</t>
   </si>
   <si>
@@ -997,36 +1021,24 @@
     <t>PATRICIA</t>
   </si>
   <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
     <t>004346716</t>
   </si>
   <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
     <t>004805333</t>
   </si>
   <si>
     <t>ROSANA</t>
   </si>
   <si>
-    <t>004435987</t>
-  </si>
-  <si>
     <t>004223226</t>
   </si>
   <si>
@@ -1087,24 +1099,18 @@
     <t>MATEUS</t>
   </si>
   <si>
+    <t>004482090</t>
+  </si>
+  <si>
+    <t>CEZAR</t>
+  </si>
+  <si>
     <t>003921139</t>
   </si>
   <si>
     <t>GEISA</t>
   </si>
   <si>
-    <t>004482090</t>
-  </si>
-  <si>
-    <t>CEZAR</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
     <t>004213943</t>
   </si>
   <si>
@@ -1147,18 +1153,18 @@
     <t>NINA</t>
   </si>
   <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
     <t>004342617</t>
   </si>
   <si>
     <t>JURACI</t>
   </si>
   <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
     <t>004853111</t>
   </si>
   <si>
@@ -1192,60 +1198,60 @@
     <t>004803348</t>
   </si>
   <si>
+    <t>004999410</t>
+  </si>
+  <si>
     <t>004368994</t>
   </si>
   <si>
+    <t>004515548</t>
+  </si>
+  <si>
     <t>004550605</t>
   </si>
   <si>
     <t>REJANE</t>
   </si>
   <si>
-    <t>004999410</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
     <t>004493324</t>
   </si>
   <si>
     <t>DANIEL</t>
   </si>
   <si>
+    <t>004479287</t>
+  </si>
+  <si>
     <t>004491730</t>
   </si>
   <si>
     <t>DENISE</t>
   </si>
   <si>
-    <t>004479287</t>
+    <t>005061124</t>
   </si>
   <si>
     <t>004259649</t>
   </si>
   <si>
-    <t>005061124</t>
-  </si>
-  <si>
     <t>005002390</t>
   </si>
   <si>
     <t>LUCIANO</t>
   </si>
   <si>
+    <t>001000882</t>
+  </si>
+  <si>
+    <t>AYRTON</t>
+  </si>
+  <si>
     <t>004556150</t>
   </si>
   <si>
     <t>MARINA</t>
   </si>
   <si>
-    <t>001000882</t>
-  </si>
-  <si>
-    <t>AYRTON</t>
-  </si>
-  <si>
     <t>004805273</t>
   </si>
   <si>
@@ -1258,16 +1264,28 @@
     <t>004584517</t>
   </si>
   <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
     <t>004550750</t>
   </si>
   <si>
     <t>THEO</t>
   </si>
   <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
   </si>
   <si>
     <t>004473829</t>
@@ -1276,16 +1294,7 @@
     <t>LUCAS</t>
   </si>
   <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
+    <t>004580355</t>
   </si>
   <si>
     <t>004575621</t>
@@ -1294,15 +1303,18 @@
     <t>MARCUS</t>
   </si>
   <si>
-    <t>004580355</t>
-  </si>
-  <si>
     <t>005147664</t>
   </si>
   <si>
     <t>SAVIO</t>
   </si>
   <si>
+    <t>005231126</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
     <t>002823185</t>
   </si>
   <si>
@@ -1450,12 +1462,12 @@
     <t>004386464</t>
   </si>
   <si>
+    <t>004216657</t>
+  </si>
+  <si>
     <t>004398253</t>
   </si>
   <si>
-    <t>004216657</t>
-  </si>
-  <si>
     <t>005007114</t>
   </si>
   <si>
@@ -1465,6 +1477,9 @@
     <t>004462930</t>
   </si>
   <si>
+    <t>004212409</t>
+  </si>
+  <si>
     <t>004512434</t>
   </si>
   <si>
@@ -1474,12 +1489,12 @@
     <t>JAIME</t>
   </si>
   <si>
-    <t>004212409</t>
-  </si>
-  <si>
     <t>004584982</t>
   </si>
   <si>
+    <t>004436055</t>
+  </si>
+  <si>
     <t>000827730</t>
   </si>
   <si>
@@ -1489,9 +1504,6 @@
     <t>004259650</t>
   </si>
   <si>
-    <t>004436055</t>
-  </si>
-  <si>
     <t>004202332</t>
   </si>
   <si>
@@ -1534,12 +1546,6 @@
     <t>004360431</t>
   </si>
   <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
     <t>005040864</t>
   </si>
   <si>
@@ -1573,15 +1579,15 @@
     <t>CLAUDIO</t>
   </si>
   <si>
+    <t>004570632</t>
+  </si>
+  <si>
     <t>004475395</t>
   </si>
   <si>
     <t>DAVID</t>
   </si>
   <si>
-    <t>004570632</t>
-  </si>
-  <si>
     <t>005142661</t>
   </si>
   <si>
@@ -1699,15 +1705,15 @@
     <t>PAULA</t>
   </si>
   <si>
+    <t>005063749</t>
+  </si>
+  <si>
     <t>004382902</t>
   </si>
   <si>
     <t>LEILA</t>
   </si>
   <si>
-    <t>005063749</t>
-  </si>
-  <si>
     <t>004467016</t>
   </si>
   <si>
@@ -1753,69 +1759,69 @@
     <t>VALMIR</t>
   </si>
   <si>
+    <t>004587511</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>004238164</t>
+  </si>
+  <si>
+    <t>004974089</t>
+  </si>
+  <si>
+    <t>004224011</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>004498637</t>
+  </si>
+  <si>
+    <t>004547722</t>
+  </si>
+  <si>
+    <t>004458604</t>
+  </si>
+  <si>
+    <t>FABIOLA</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004230529</t>
+  </si>
+  <si>
+    <t>LAIS</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
     <t>004527606</t>
   </si>
   <si>
-    <t>004587511</t>
-  </si>
-  <si>
-    <t>004238164</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>004974089</t>
-  </si>
-  <si>
-    <t>004498637</t>
-  </si>
-  <si>
-    <t>004547722</t>
-  </si>
-  <si>
-    <t>004458604</t>
-  </si>
-  <si>
-    <t>FABIOLA</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004230529</t>
-  </si>
-  <si>
-    <t>LAIS</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
     <t>004907688</t>
   </si>
   <si>
@@ -1924,18 +1930,18 @@
     <t>ANGELA</t>
   </si>
   <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
     <t>003894173</t>
   </si>
   <si>
     <t>004752461</t>
   </si>
   <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
     <t>004255049</t>
   </si>
   <si>
@@ -1957,6 +1963,9 @@
     <t>004462543</t>
   </si>
   <si>
+    <t>004767746</t>
+  </si>
+  <si>
     <t>001761119</t>
   </si>
   <si>
@@ -1966,9 +1975,6 @@
     <t>005009922</t>
   </si>
   <si>
-    <t>004767746</t>
-  </si>
-  <si>
     <t>004994036</t>
   </si>
   <si>
@@ -1981,15 +1987,15 @@
     <t>004972070</t>
   </si>
   <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
     <t>000772433</t>
   </si>
   <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
     <t>004451725</t>
   </si>
   <si>
@@ -2002,15 +2008,15 @@
     <t>OTAVIO</t>
   </si>
   <si>
+    <t>005064129</t>
+  </si>
+  <si>
     <t>004381194</t>
   </si>
   <si>
     <t>ALINNE</t>
   </si>
   <si>
-    <t>005064129</t>
-  </si>
-  <si>
     <t>004267044</t>
   </si>
   <si>
@@ -2062,12 +2068,12 @@
     <t>004298042</t>
   </si>
   <si>
+    <t>004455356</t>
+  </si>
+  <si>
     <t>004877741</t>
   </si>
   <si>
-    <t>004455356</t>
-  </si>
-  <si>
     <t>005022526</t>
   </si>
   <si>
@@ -2080,12 +2086,12 @@
     <t>004946997</t>
   </si>
   <si>
+    <t>004290978</t>
+  </si>
+  <si>
     <t>005000460</t>
   </si>
   <si>
-    <t>004290978</t>
-  </si>
-  <si>
     <t>004432455</t>
   </si>
   <si>
@@ -2110,12 +2116,12 @@
     <t>004551472</t>
   </si>
   <si>
+    <t>004259659</t>
+  </si>
+  <si>
     <t>004754056</t>
   </si>
   <si>
-    <t>004259659</t>
-  </si>
-  <si>
     <t>004752494</t>
   </si>
   <si>
@@ -2176,6 +2182,9 @@
     <t>004479734</t>
   </si>
   <si>
+    <t>005135281</t>
+  </si>
+  <si>
     <t>004229526</t>
   </si>
   <si>
@@ -2188,9 +2197,6 @@
     <t>005018038</t>
   </si>
   <si>
-    <t>005135281</t>
-  </si>
-  <si>
     <t>004228456</t>
   </si>
   <si>
@@ -2230,12 +2236,12 @@
     <t>LAURA</t>
   </si>
   <si>
+    <t>004804036</t>
+  </si>
+  <si>
     <t>004207278</t>
   </si>
   <si>
-    <t>004804036</t>
-  </si>
-  <si>
     <t>004638738</t>
   </si>
   <si>
@@ -2257,12 +2263,12 @@
     <t>000431814</t>
   </si>
   <si>
+    <t>004563252</t>
+  </si>
+  <si>
     <t>004517506</t>
   </si>
   <si>
-    <t>004563252</t>
-  </si>
-  <si>
     <t>003249855</t>
   </si>
   <si>
@@ -2284,10 +2290,10 @@
     <t>DAIANNE</t>
   </si>
   <si>
+    <t>004958578</t>
+  </si>
+  <si>
     <t>004895776</t>
-  </si>
-  <si>
-    <t>004958578</t>
   </si>
   <si>
     <t>004477812</t>
@@ -2832,10 +2838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C519"/>
+  <dimension ref="A1:C520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2859,7 +2865,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>16340010.58</v>
+        <v>16355028.980000004</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2870,7 +2876,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>8214144.6999999993</v>
+        <v>8216364.8699999982</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2881,7 +2887,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7261705.6899999995</v>
+        <v>7293886.1799999997</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2892,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6181725.1900000004</v>
+        <v>6187198.6100000013</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2903,7 +2909,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>5731081.1400000006</v>
+        <v>5760230.2799999993</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2914,7 +2920,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>4602824.2600000007</v>
+        <v>4604275.0799999982</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2925,7 +2931,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>4316022.6900000004</v>
+        <v>4315735.03</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2936,7 +2942,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>4229900.99</v>
+        <v>4251891.4100000011</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2947,7 +2953,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>4225096.6999999993</v>
+        <v>4225752.49</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2958,7 +2964,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>4215797.33</v>
+        <v>4218071.82</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2969,7 +2975,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>3962204.5399999991</v>
+        <v>3963982.4899999998</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2980,7 +2986,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>3740187.8200000003</v>
+        <v>3740730.0399999996</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2991,7 +2997,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>3734301.28</v>
+        <v>3736683.5500000007</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3002,7 +3008,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>3575229.75</v>
+        <v>3578698.34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3013,7 +3019,7 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>3395157.4000000008</v>
+        <v>3401581.5499999993</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3024,7 +3030,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>3298343.3199999994</v>
+        <v>3299690.9599999995</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3035,7 +3041,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>3185339.61</v>
+        <v>3186735.8599999994</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3046,7 +3052,7 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3093643.41</v>
+        <v>3095021.54</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3057,7 +3063,7 @@
         <v>39</v>
       </c>
       <c r="C20">
-        <v>3028404.6999999997</v>
+        <v>3029713.9399999995</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3068,7 +3074,7 @@
         <v>41</v>
       </c>
       <c r="C21">
-        <v>2946163.25</v>
+        <v>2949882.3100000005</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3079,7 +3085,7 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>2807797.9300000006</v>
+        <v>2809019.8699999996</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3090,7 +3096,7 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>2791725.9099999997</v>
+        <v>2795997.9800000004</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3101,7 +3107,7 @@
         <v>47</v>
       </c>
       <c r="C24">
-        <v>2733781.78</v>
+        <v>2734806.63</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3112,7 +3118,7 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>2665592.46</v>
+        <v>2686610.2300000004</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3123,7 +3129,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <v>2542606.3299999991</v>
+        <v>2544472.59</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3134,7 +3140,7 @@
         <v>53</v>
       </c>
       <c r="C27">
-        <v>2377259.4299999997</v>
+        <v>2384325.8400000008</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3145,7 +3151,7 @@
         <v>55</v>
       </c>
       <c r="C28">
-        <v>2291219.0299999998</v>
+        <v>2292253.7299999995</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3156,7 +3162,7 @@
         <v>57</v>
       </c>
       <c r="C29">
-        <v>2207907.7799999998</v>
+        <v>2208566.96</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3167,7 +3173,7 @@
         <v>59</v>
       </c>
       <c r="C30">
-        <v>2206297.02</v>
+        <v>2207284.38</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3178,7 +3184,7 @@
         <v>61</v>
       </c>
       <c r="C31">
-        <v>2101327.4699999997</v>
+        <v>2104728.58</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3189,7 +3195,7 @@
         <v>63</v>
       </c>
       <c r="C32">
-        <v>2049021.48</v>
+        <v>2049196.2000000002</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3200,7 +3206,7 @@
         <v>39</v>
       </c>
       <c r="C33">
-        <v>2041944.6500000001</v>
+        <v>2042647.7500000002</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3211,7 +3217,7 @@
         <v>66</v>
       </c>
       <c r="C34">
-        <v>1959199.0399999998</v>
+        <v>1965418.9599999997</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3222,7 +3228,7 @@
         <v>68</v>
       </c>
       <c r="C35">
-        <v>1947866.83</v>
+        <v>1949939.83</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3233,7 +3239,7 @@
         <v>70</v>
       </c>
       <c r="C36">
-        <v>1859336.5899999999</v>
+        <v>1862280.4999999993</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3244,7 +3250,7 @@
         <v>22</v>
       </c>
       <c r="C37">
-        <v>1843640.6</v>
+        <v>1847179.54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3255,7 +3261,7 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>1822813.64</v>
+        <v>1823629.02</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3266,7 +3272,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>1818410.2399999993</v>
+        <v>1818871.9699999995</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3277,7 +3283,7 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>1804237.1399999994</v>
+        <v>1805041.9899999995</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3288,7 +3294,7 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <v>1766908.6500000001</v>
+        <v>1767709.4199999997</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3299,7 +3305,7 @@
         <v>81</v>
       </c>
       <c r="C42">
-        <v>1604702.7999999998</v>
+        <v>1605208.7799999998</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3310,7 +3316,7 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>1584473.76</v>
+        <v>1585184.82</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3321,7 +3327,7 @@
         <v>85</v>
       </c>
       <c r="C44">
-        <v>1519856.3699999994</v>
+        <v>1520789.61</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3332,7 +3338,7 @@
         <v>79</v>
       </c>
       <c r="C45">
-        <v>1478988.3599999999</v>
+        <v>1479630.7999999998</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3343,7 +3349,7 @@
         <v>88</v>
       </c>
       <c r="C46">
-        <v>1435905.5700000003</v>
+        <v>1438255.33</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3354,7 +3360,7 @@
         <v>90</v>
       </c>
       <c r="C47">
-        <v>1402923.09</v>
+        <v>1403077.2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3365,7 +3371,7 @@
         <v>92</v>
       </c>
       <c r="C48">
-        <v>1385038.7899999996</v>
+        <v>1384107.4899999995</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3376,7 +3382,7 @@
         <v>94</v>
       </c>
       <c r="C49">
-        <v>1366627.3399999996</v>
+        <v>1367033.4599999997</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3387,7 +3393,7 @@
         <v>96</v>
       </c>
       <c r="C50">
-        <v>1362471.9200000002</v>
+        <v>1363097.83</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3398,7 +3404,7 @@
         <v>98</v>
       </c>
       <c r="C51">
-        <v>1337540.48</v>
+        <v>1344308.5499999996</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3409,7 +3415,7 @@
         <v>100</v>
       </c>
       <c r="C52">
-        <v>1334986.1000000001</v>
+        <v>1335649.3499999999</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3417,21 +3423,21 @@
         <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C53">
-        <v>1308534.0699999998</v>
+        <v>1284794.44</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
         <v>103</v>
       </c>
-      <c r="B54" t="s">
-        <v>88</v>
-      </c>
       <c r="C54">
-        <v>1281551.9699999997</v>
+        <v>1277835.8499999999</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3442,7 +3448,7 @@
         <v>105</v>
       </c>
       <c r="C55">
-        <v>1277031.1399999999</v>
+        <v>1269103.5900000003</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3450,32 +3456,32 @@
         <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="C56">
-        <v>1268702.3899999999</v>
+        <v>1265190.01</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B57" t="s">
         <v>22</v>
       </c>
       <c r="C57">
-        <v>1264688.8799999997</v>
+        <v>1252610.3500000001</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" t="s">
         <v>109</v>
       </c>
-      <c r="B58" t="s">
-        <v>22</v>
-      </c>
       <c r="C58">
-        <v>1252217.02</v>
+        <v>1234055.0299999998</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3486,7 +3492,7 @@
         <v>111</v>
       </c>
       <c r="C59">
-        <v>1233486.7600000002</v>
+        <v>1218060.9099999999</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3494,21 +3500,21 @@
         <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="C60">
-        <v>1217765.7699999998</v>
+        <v>1217718.17</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" t="s">
         <v>114</v>
       </c>
-      <c r="B61" t="s">
-        <v>49</v>
-      </c>
       <c r="C61">
-        <v>1217161.8700000001</v>
+        <v>1211524.49</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3519,7 +3525,7 @@
         <v>116</v>
       </c>
       <c r="C62">
-        <v>1179928.9100000001</v>
+        <v>1180557.2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3530,7 +3536,7 @@
         <v>118</v>
       </c>
       <c r="C63">
-        <v>1158754.1600000001</v>
+        <v>1164810.05</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3541,7 +3547,7 @@
         <v>120</v>
       </c>
       <c r="C64">
-        <v>1151639.3799999997</v>
+        <v>1159003.2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3552,7 +3558,7 @@
         <v>122</v>
       </c>
       <c r="C65">
-        <v>1131787.73</v>
+        <v>1132367.5000000002</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3563,7 +3569,7 @@
         <v>124</v>
       </c>
       <c r="C66">
-        <v>1094586.96</v>
+        <v>1096407.5899999999</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3574,7 +3580,7 @@
         <v>126</v>
       </c>
       <c r="C67">
-        <v>1070809.3499999999</v>
+        <v>1074479.51</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3585,7 +3591,7 @@
         <v>61</v>
       </c>
       <c r="C68">
-        <v>1065044.7199999997</v>
+        <v>1070887.25</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3596,7 +3602,7 @@
         <v>129</v>
       </c>
       <c r="C69">
-        <v>1057001.93</v>
+        <v>1059237.54</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3607,7 +3613,7 @@
         <v>131</v>
       </c>
       <c r="C70">
-        <v>1050142.0099999998</v>
+        <v>1050601.8699999999</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3618,7 +3624,7 @@
         <v>133</v>
       </c>
       <c r="C71">
-        <v>1047322.9400000001</v>
+        <v>1047743.0300000001</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3629,7 +3635,7 @@
         <v>135</v>
       </c>
       <c r="C72">
-        <v>1035635.0100000001</v>
+        <v>1036136.0599999999</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3640,7 +3646,7 @@
         <v>137</v>
       </c>
       <c r="C73">
-        <v>1035412.4800000001</v>
+        <v>1035863.1400000001</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3651,7 +3657,7 @@
         <v>41</v>
       </c>
       <c r="C74">
-        <v>1029173.74</v>
+        <v>1029627.0499999999</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3662,7 +3668,7 @@
         <v>81</v>
       </c>
       <c r="C75">
-        <v>1028177.1000000001</v>
+        <v>1028623.3899999999</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3673,7 +3679,7 @@
         <v>141</v>
       </c>
       <c r="C76">
-        <v>999187.16000000027</v>
+        <v>1000899.8299999998</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3684,7 +3690,7 @@
         <v>4</v>
       </c>
       <c r="C77">
-        <v>992131.05000000016</v>
+        <v>991883.45000000019</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3692,21 +3698,21 @@
         <v>143</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="C78">
-        <v>972482.82</v>
+        <v>975374.53999999992</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>144</v>
+      </c>
+      <c r="B79" t="s">
         <v>145</v>
       </c>
-      <c r="B79" t="s">
-        <v>39</v>
-      </c>
       <c r="C79">
-        <v>971695.20999999973</v>
+        <v>972927.9800000001</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3717,7 +3723,7 @@
         <v>147</v>
       </c>
       <c r="C80">
-        <v>964108.19999999984</v>
+        <v>964532.62999999977</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3728,7 +3734,7 @@
         <v>149</v>
       </c>
       <c r="C81">
-        <v>962385.15999999992</v>
+        <v>963586.78999999992</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3739,7 +3745,7 @@
         <v>151</v>
       </c>
       <c r="C82">
-        <v>927103.06999999972</v>
+        <v>936750.8400000002</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3750,7 +3756,7 @@
         <v>153</v>
       </c>
       <c r="C83">
-        <v>897794.78</v>
+        <v>898124.82000000007</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3761,7 +3767,7 @@
         <v>155</v>
       </c>
       <c r="C84">
-        <v>894406.93000000017</v>
+        <v>894800.47999999975</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3772,7 +3778,7 @@
         <v>157</v>
       </c>
       <c r="C85">
-        <v>884323.26</v>
+        <v>889108.3</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3783,7 +3789,7 @@
         <v>159</v>
       </c>
       <c r="C86">
-        <v>880333.2899999998</v>
+        <v>881022.1100000001</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3794,7 +3800,7 @@
         <v>161</v>
       </c>
       <c r="C87">
-        <v>870442.89</v>
+        <v>871814.58000000007</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3805,7 +3811,7 @@
         <v>163</v>
       </c>
       <c r="C88">
-        <v>869180.75</v>
+        <v>869550.26000000013</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3816,7 +3822,7 @@
         <v>165</v>
       </c>
       <c r="C89">
-        <v>859918.88</v>
+        <v>860267.94000000006</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3827,7 +3833,7 @@
         <v>73</v>
       </c>
       <c r="C90">
-        <v>850977.36</v>
+        <v>852417.43</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3838,7 +3844,7 @@
         <v>168</v>
       </c>
       <c r="C91">
-        <v>847873.64000000013</v>
+        <v>848086.27</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3849,7 +3855,7 @@
         <v>170</v>
       </c>
       <c r="C92">
-        <v>823268.44999999984</v>
+        <v>825928.5199999999</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3860,7 +3866,7 @@
         <v>172</v>
       </c>
       <c r="C93">
-        <v>821223</v>
+        <v>821672.79000000027</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3871,7 +3877,7 @@
         <v>49</v>
       </c>
       <c r="C94">
-        <v>816553.51</v>
+        <v>818357.98</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3882,7 +3888,7 @@
         <v>26</v>
       </c>
       <c r="C95">
-        <v>808714.1399999999</v>
+        <v>810362.96000000008</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3893,7 +3899,7 @@
         <v>176</v>
       </c>
       <c r="C96">
-        <v>804486.1599999998</v>
+        <v>804860.04999999981</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3904,7 +3910,7 @@
         <v>178</v>
       </c>
       <c r="C97">
-        <v>803905.65</v>
+        <v>804327.2300000001</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3915,7 +3921,7 @@
         <v>49</v>
       </c>
       <c r="C98">
-        <v>788833.84999999986</v>
+        <v>788790.64</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3923,10 +3929,10 @@
         <v>180</v>
       </c>
       <c r="B99" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="C99">
-        <v>786609.58999999985</v>
+        <v>787296.29000000015</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3934,10 +3940,10 @@
         <v>181</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C100">
-        <v>778844.84000000008</v>
+        <v>786960.98</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3948,7 +3954,7 @@
         <v>183</v>
       </c>
       <c r="C101">
-        <v>765770.67000000016</v>
+        <v>768320.95</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3959,7 +3965,7 @@
         <v>185</v>
       </c>
       <c r="C102">
-        <v>763041.59000000008</v>
+        <v>763397.59000000008</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3970,7 +3976,7 @@
         <v>187</v>
       </c>
       <c r="C103">
-        <v>758613.98</v>
+        <v>758902.65000000014</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3981,7 +3987,7 @@
         <v>189</v>
       </c>
       <c r="C104">
-        <v>749027.61</v>
+        <v>751250.8400000002</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3992,7 +3998,7 @@
         <v>116</v>
       </c>
       <c r="C105">
-        <v>742840.37999999989</v>
+        <v>745201.82000000007</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4003,7 +4009,7 @@
         <v>192</v>
       </c>
       <c r="C106">
-        <v>722044.71000000008</v>
+        <v>722376.03999999992</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4014,7 +4020,7 @@
         <v>49</v>
       </c>
       <c r="C107">
-        <v>718107.40999999992</v>
+        <v>720405.71999999986</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4025,7 +4031,7 @@
         <v>195</v>
       </c>
       <c r="C108">
-        <v>706179.89</v>
+        <v>706769.92000000004</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4036,7 +4042,7 @@
         <v>197</v>
       </c>
       <c r="C109">
-        <v>705917.34000000008</v>
+        <v>706626.7</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4047,7 +4053,7 @@
         <v>10</v>
       </c>
       <c r="C110">
-        <v>704578.34</v>
+        <v>704953.1100000001</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4058,7 +4064,7 @@
         <v>200</v>
       </c>
       <c r="C111">
-        <v>704541.8</v>
+        <v>704852.81</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4069,7 +4075,7 @@
         <v>202</v>
       </c>
       <c r="C112">
-        <v>701883.92999999993</v>
+        <v>702257.97</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4080,7 +4086,7 @@
         <v>63</v>
       </c>
       <c r="C113">
-        <v>694243.79000000015</v>
+        <v>697762.14999999991</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4091,7 +4097,7 @@
         <v>205</v>
       </c>
       <c r="C114">
-        <v>688906.56999999983</v>
+        <v>689056.9</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4102,7 +4108,7 @@
         <v>207</v>
       </c>
       <c r="C115">
-        <v>678224.81</v>
+        <v>677069.75</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4113,7 +4119,7 @@
         <v>209</v>
       </c>
       <c r="C116">
-        <v>667961.18000000017</v>
+        <v>668504.8200000003</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4124,7 +4130,7 @@
         <v>49</v>
       </c>
       <c r="C117">
-        <v>665992.51</v>
+        <v>666904.86999999988</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4135,7 +4141,7 @@
         <v>212</v>
       </c>
       <c r="C118">
-        <v>658159.6100000001</v>
+        <v>661644.54999999993</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4146,7 +4152,7 @@
         <v>51</v>
       </c>
       <c r="C119">
-        <v>654803.06000000006</v>
+        <v>658294.33000000007</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4154,21 +4160,21 @@
         <v>214</v>
       </c>
       <c r="B120" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="C120">
-        <v>647345.81000000006</v>
+        <v>646952.54999999993</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="C121">
-        <v>646426.37</v>
+        <v>646711.09</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4176,10 +4182,10 @@
         <v>217</v>
       </c>
       <c r="B122" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C122">
-        <v>643546.7300000001</v>
+        <v>645063.53</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4187,10 +4193,10 @@
         <v>218</v>
       </c>
       <c r="B123" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C123">
-        <v>638085.12000000011</v>
+        <v>644854.36</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4201,7 +4207,7 @@
         <v>220</v>
       </c>
       <c r="C124">
-        <v>631436.31999999995</v>
+        <v>631690.84999999986</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4212,7 +4218,7 @@
         <v>222</v>
       </c>
       <c r="C125">
-        <v>623278.07000000018</v>
+        <v>623561.30000000005</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4220,21 +4226,21 @@
         <v>223</v>
       </c>
       <c r="B126" t="s">
-        <v>224</v>
+        <v>53</v>
       </c>
       <c r="C126">
-        <v>615262.18999999994</v>
+        <v>617254.76</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
+        <v>224</v>
+      </c>
+      <c r="B127" t="s">
         <v>225</v>
       </c>
-      <c r="B127" t="s">
-        <v>53</v>
-      </c>
       <c r="C127">
-        <v>615221.16</v>
+        <v>615643.66</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4242,21 +4248,21 @@
         <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="C128">
-        <v>613518.40999999992</v>
+        <v>613945.25</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B129" t="s">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="C129">
-        <v>612324.54999999993</v>
+        <v>613022.5199999999</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4264,43 +4270,43 @@
         <v>229</v>
       </c>
       <c r="B130" t="s">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="C130">
-        <v>606467.02000000014</v>
+        <v>603377.92999999993</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B131" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C131">
-        <v>599325.72</v>
+        <v>601341.98</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B132" t="s">
         <v>192</v>
       </c>
       <c r="C132">
-        <v>594317.82999999996</v>
+        <v>600874.96</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B133" t="s">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="C133">
-        <v>576595.70000000007</v>
+        <v>592444.8600000001</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4311,7 +4317,7 @@
         <v>236</v>
       </c>
       <c r="C134">
-        <v>573607.44999999995</v>
+        <v>589995</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4319,43 +4325,43 @@
         <v>237</v>
       </c>
       <c r="B135" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="C135">
-        <v>570702.81999999995</v>
+        <v>576861.38</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B136" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C136">
-        <v>569313.82000000018</v>
+        <v>574523.19999999995</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B137" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C137">
-        <v>567513.55999999994</v>
+        <v>573229.25</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B138" t="s">
-        <v>243</v>
+        <v>39</v>
       </c>
       <c r="C138">
-        <v>558258.68999999994</v>
+        <v>570966.73</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4366,7 +4372,7 @@
         <v>245</v>
       </c>
       <c r="C139">
-        <v>557970.41999999993</v>
+        <v>567686.11</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4377,7 +4383,7 @@
         <v>247</v>
       </c>
       <c r="C140">
-        <v>549185.56000000006</v>
+        <v>558541.07999999996</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4388,7 +4394,7 @@
         <v>249</v>
       </c>
       <c r="C141">
-        <v>549072.38</v>
+        <v>555473.78</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4399,7 +4405,7 @@
         <v>251</v>
       </c>
       <c r="C142">
-        <v>542077.42000000004</v>
+        <v>549449.91</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4410,7 +4416,7 @@
         <v>253</v>
       </c>
       <c r="C143">
-        <v>537593.28999999992</v>
+        <v>549439.40999999992</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4421,7 +4427,7 @@
         <v>255</v>
       </c>
       <c r="C144">
-        <v>536096.12</v>
+        <v>542325.4</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4429,32 +4435,32 @@
         <v>256</v>
       </c>
       <c r="B145" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C145">
-        <v>531788.55000000005</v>
+        <v>537841.31999999995</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B146" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C146">
-        <v>518667.5</v>
+        <v>536513.74</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B147" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="C147">
-        <v>511998.64</v>
+        <v>532028.94000000006</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4465,7 +4471,7 @@
         <v>262</v>
       </c>
       <c r="C148">
-        <v>510345.6</v>
+        <v>518982.73</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4476,7 +4482,7 @@
         <v>264</v>
       </c>
       <c r="C149">
-        <v>506172.60999999993</v>
+        <v>512934.99</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4487,7 +4493,7 @@
         <v>266</v>
       </c>
       <c r="C150">
-        <v>504350.11</v>
+        <v>510599.55000000005</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4498,7 +4504,7 @@
         <v>268</v>
       </c>
       <c r="C151">
-        <v>503040.7</v>
+        <v>507899.39999999991</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4509,7 +4515,7 @@
         <v>270</v>
       </c>
       <c r="C152">
-        <v>487998.62000000005</v>
+        <v>506041.85</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4520,7 +4526,7 @@
         <v>272</v>
       </c>
       <c r="C153">
-        <v>486491.97</v>
+        <v>503265.27999999997</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4528,43 +4534,43 @@
         <v>273</v>
       </c>
       <c r="B154" t="s">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="C154">
-        <v>480861.19000000006</v>
+        <v>488781.13</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B155" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C155">
-        <v>478135.73999999987</v>
+        <v>486693.89</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B156" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C156">
-        <v>466238.02999999997</v>
+        <v>483301.55</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B157" t="s">
-        <v>279</v>
+        <v>41</v>
       </c>
       <c r="C157">
-        <v>457722.01999999996</v>
+        <v>481085.42</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4575,7 +4581,7 @@
         <v>281</v>
       </c>
       <c r="C158">
-        <v>456157.26</v>
+        <v>466350.61999999994</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4586,7 +4592,7 @@
         <v>283</v>
       </c>
       <c r="C159">
-        <v>452949.1100000001</v>
+        <v>457935.93000000005</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4594,109 +4600,109 @@
         <v>284</v>
       </c>
       <c r="B160" t="s">
-        <v>14</v>
+        <v>285</v>
       </c>
       <c r="C160">
-        <v>449037.18000000005</v>
+        <v>457889.84999999986</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B161" t="s">
-        <v>126</v>
+        <v>287</v>
       </c>
       <c r="C161">
-        <v>446582.59</v>
+        <v>456319.61999999994</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B162" t="s">
-        <v>287</v>
+        <v>14</v>
       </c>
       <c r="C162">
-        <v>434262.70999999996</v>
+        <v>453932.65000000014</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B163" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C163">
-        <v>428621.1999999999</v>
+        <v>446783.32</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
+        <v>291</v>
       </c>
       <c r="C164">
-        <v>427385.81</v>
+        <v>436643.23</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B165" t="s">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="C165">
-        <v>423674.89</v>
+        <v>428820.82999999996</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B166" t="s">
-        <v>292</v>
+        <v>10</v>
       </c>
       <c r="C166">
-        <v>421177.4</v>
+        <v>427574.11</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B167" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="C167">
-        <v>420557.45999999996</v>
+        <v>423847.39</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B168" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C168">
-        <v>419697.43999999994</v>
+        <v>421366.42</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B169" t="s">
-        <v>297</v>
+        <v>195</v>
       </c>
       <c r="C169">
-        <v>418554.39999999997</v>
+        <v>421132.20000000007</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4704,54 +4710,54 @@
         <v>298</v>
       </c>
       <c r="B170" t="s">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="C170">
-        <v>416375.92999999993</v>
+        <v>421013.94999999995</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B171" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="C171">
-        <v>416262.38</v>
+        <v>419381.14</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B172" t="s">
-        <v>126</v>
+        <v>302</v>
       </c>
       <c r="C172">
-        <v>414687.76999999996</v>
+        <v>418755.22999999992</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B173" t="s">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="C173">
-        <v>413953.61000000004</v>
+        <v>417610.20999999996</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B174" t="s">
-        <v>304</v>
+        <v>22</v>
       </c>
       <c r="C174">
-        <v>413381.56</v>
+        <v>415675.38</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4759,32 +4765,32 @@
         <v>305</v>
       </c>
       <c r="B175" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="C175">
-        <v>406323.36</v>
+        <v>414140.64000000013</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B176" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C176">
-        <v>404401.77999999997</v>
+        <v>414118.22</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B177" t="s">
-        <v>309</v>
+        <v>49</v>
       </c>
       <c r="C177">
-        <v>401729.43</v>
+        <v>406501.99</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4795,7 +4801,7 @@
         <v>311</v>
       </c>
       <c r="C178">
-        <v>401032.36</v>
+        <v>404591.01</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4806,7 +4812,7 @@
         <v>313</v>
       </c>
       <c r="C179">
-        <v>388028.07999999996</v>
+        <v>402478</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4817,7 +4823,7 @@
         <v>315</v>
       </c>
       <c r="C180">
-        <v>385791.89</v>
+        <v>401216.29999999987</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4828,7 +4834,7 @@
         <v>317</v>
       </c>
       <c r="C181">
-        <v>383640.64000000007</v>
+        <v>387726.74999999994</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4839,7 +4845,7 @@
         <v>319</v>
       </c>
       <c r="C182">
-        <v>375343.54999999987</v>
+        <v>387058.29000000004</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4847,32 +4853,32 @@
         <v>320</v>
       </c>
       <c r="B183" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C183">
-        <v>372503.89</v>
+        <v>384317.92999999988</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B184" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C184">
-        <v>370370.06999999989</v>
+        <v>376577.26</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B185" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C185">
-        <v>369274.15</v>
+        <v>373653.32</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4880,54 +4886,54 @@
         <v>325</v>
       </c>
       <c r="B186" t="s">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="C186">
-        <v>367915.11</v>
+        <v>371315.74</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B187" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C187">
-        <v>367774.6</v>
+        <v>370632.73</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B188" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C188">
-        <v>367312.33</v>
+        <v>370441.76999999996</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B189" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C189">
-        <v>366692.32000000007</v>
+        <v>369441.1</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B190" t="s">
-        <v>333</v>
+        <v>88</v>
       </c>
       <c r="C190">
-        <v>366330.46</v>
+        <v>369151.29000000004</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4935,21 +4941,21 @@
         <v>334</v>
       </c>
       <c r="B191" t="s">
-        <v>88</v>
+        <v>335</v>
       </c>
       <c r="C191">
-        <v>365206.81999999989</v>
+        <v>368535.92</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B192" t="s">
-        <v>336</v>
+        <v>262</v>
       </c>
       <c r="C192">
-        <v>364741.53</v>
+        <v>367926.43</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4957,76 +4963,76 @@
         <v>337</v>
       </c>
       <c r="B193" t="s">
-        <v>75</v>
+        <v>338</v>
       </c>
       <c r="C193">
-        <v>361653.81</v>
+        <v>366492.58999999997</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B194" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C194">
-        <v>361581.42</v>
+        <v>364896.14</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B195" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C195">
-        <v>361504.73999999993</v>
+        <v>362322.89999999997</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B196" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C196">
-        <v>360840.44999999995</v>
+        <v>361741.41</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B197" t="s">
-        <v>324</v>
+        <v>39</v>
       </c>
       <c r="C197">
-        <v>360537.34999999992</v>
+        <v>361664.73000000004</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B198" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C198">
-        <v>359080.08999999991</v>
+        <v>360904.68</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B199" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C199">
-        <v>354869.86000000004</v>
+        <v>360694.21</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -5037,7 +5043,7 @@
         <v>349</v>
       </c>
       <c r="C200">
-        <v>353471.23999999993</v>
+        <v>359265.13000000018</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -5048,7 +5054,7 @@
         <v>351</v>
       </c>
       <c r="C201">
-        <v>350822.99000000005</v>
+        <v>354518.94</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -5056,32 +5062,32 @@
         <v>352</v>
       </c>
       <c r="B202" t="s">
-        <v>245</v>
+        <v>353</v>
       </c>
       <c r="C202">
-        <v>342346.76</v>
+        <v>353530.35000000003</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B203" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C203">
-        <v>342101.99</v>
+        <v>350981.96000000008</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B204" t="s">
-        <v>356</v>
+        <v>249</v>
       </c>
       <c r="C204">
-        <v>340739.9</v>
+        <v>342488.43999999994</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -5092,7 +5098,7 @@
         <v>358</v>
       </c>
       <c r="C205">
-        <v>340642.12</v>
+        <v>342473.81999999995</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5103,7 +5109,7 @@
         <v>360</v>
       </c>
       <c r="C206">
-        <v>339356.7</v>
+        <v>341780.62999999989</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5114,7 +5120,7 @@
         <v>362</v>
       </c>
       <c r="C207">
-        <v>335878.83</v>
+        <v>341297.83</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -5125,7 +5131,7 @@
         <v>364</v>
       </c>
       <c r="C208">
-        <v>335715.70999999996</v>
+        <v>336030.09</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5136,7 +5142,7 @@
         <v>366</v>
       </c>
       <c r="C209">
-        <v>333043.16000000003</v>
+        <v>335850.5</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5147,7 +5153,7 @@
         <v>368</v>
       </c>
       <c r="C210">
-        <v>330962.3</v>
+        <v>333186.85000000009</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5158,7 +5164,7 @@
         <v>370</v>
       </c>
       <c r="C211">
-        <v>328318.34999999998</v>
+        <v>331108.12</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5169,7 +5175,7 @@
         <v>372</v>
       </c>
       <c r="C212">
-        <v>325180.64</v>
+        <v>329393.06999999995</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5180,7 +5186,7 @@
         <v>374</v>
       </c>
       <c r="C213">
-        <v>324784.21999999997</v>
+        <v>325314.24</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5191,7 +5197,7 @@
         <v>376</v>
       </c>
       <c r="C214">
-        <v>320266.90000000002</v>
+        <v>324928.06</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5202,7 +5208,7 @@
         <v>378</v>
       </c>
       <c r="C215">
-        <v>320260.08</v>
+        <v>324535.66000000003</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5213,7 +5219,7 @@
         <v>380</v>
       </c>
       <c r="C216">
-        <v>318607.45</v>
+        <v>321333.05</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5221,32 +5227,32 @@
         <v>381</v>
       </c>
       <c r="B217" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="C217">
-        <v>314387.75</v>
+        <v>318750.56999999995</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B218" t="s">
-        <v>105</v>
+        <v>358</v>
       </c>
       <c r="C218">
-        <v>311087.38999999996</v>
+        <v>314520.61000000004</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B219" t="s">
-        <v>384</v>
+        <v>103</v>
       </c>
       <c r="C219">
-        <v>309169.31</v>
+        <v>314459.28999999992</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5254,76 +5260,76 @@
         <v>385</v>
       </c>
       <c r="B220" t="s">
-        <v>88</v>
+        <v>386</v>
       </c>
       <c r="C220">
-        <v>308574.28000000003</v>
+        <v>309306.53000000003</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B221" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C221">
-        <v>308369.38</v>
+        <v>308955.55000000005</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B222" t="s">
-        <v>378</v>
+        <v>49</v>
       </c>
       <c r="C222">
-        <v>308014.76</v>
+        <v>308511.29000000004</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B223" t="s">
-        <v>4</v>
+        <v>378</v>
       </c>
       <c r="C223">
-        <v>301583.98</v>
+        <v>308165.90999999997</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B224" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="C224">
-        <v>296971.40999999997</v>
+        <v>301716.21000000002</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B225" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="C225">
-        <v>293471.43</v>
+        <v>297330.18</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B226" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="C226">
-        <v>291344.51</v>
+        <v>295414.49</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5331,10 +5337,10 @@
         <v>393</v>
       </c>
       <c r="B227" t="s">
-        <v>378</v>
+        <v>168</v>
       </c>
       <c r="C227">
-        <v>291307.93999999994</v>
+        <v>293710.06000000006</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5342,10 +5348,10 @@
         <v>394</v>
       </c>
       <c r="B228" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C228">
-        <v>290977.01999999996</v>
+        <v>292097.11999999994</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5356,7 +5362,7 @@
         <v>396</v>
       </c>
       <c r="C229">
-        <v>290331.67</v>
+        <v>291412.34000000003</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5367,7 +5373,7 @@
         <v>398</v>
       </c>
       <c r="C230">
-        <v>283967.10000000003</v>
+        <v>290512.68</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5378,7 +5384,7 @@
         <v>73</v>
       </c>
       <c r="C231">
-        <v>283415.76</v>
+        <v>284359.62</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5386,32 +5392,32 @@
         <v>400</v>
       </c>
       <c r="B232" t="s">
-        <v>283</v>
+        <v>401</v>
       </c>
       <c r="C232">
-        <v>281814.40000000002</v>
+        <v>284050.88</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B233" t="s">
         <v>53</v>
       </c>
       <c r="C233">
-        <v>281437.76</v>
+        <v>282799.09000000008</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B234" t="s">
-        <v>403</v>
+        <v>285</v>
       </c>
       <c r="C234">
-        <v>273763.20999999996</v>
+        <v>281588.79000000004</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5422,7 +5428,7 @@
         <v>405</v>
       </c>
       <c r="C235">
-        <v>272472.95999999996</v>
+        <v>274656.59000000003</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5433,7 +5439,7 @@
         <v>407</v>
       </c>
       <c r="C236">
-        <v>272123</v>
+        <v>273740.53999999998</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5444,7 +5450,7 @@
         <v>409</v>
       </c>
       <c r="C237">
-        <v>270878.15000000002</v>
+        <v>272600.38999999996</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5452,32 +5458,32 @@
         <v>410</v>
       </c>
       <c r="B238" t="s">
-        <v>222</v>
+        <v>411</v>
       </c>
       <c r="C238">
-        <v>266107.99</v>
+        <v>270953.31</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B239" t="s">
-        <v>304</v>
+        <v>222</v>
       </c>
       <c r="C239">
-        <v>265606.09000000008</v>
+        <v>266127.13999999996</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B240" t="s">
-        <v>413</v>
+        <v>308</v>
       </c>
       <c r="C240">
-        <v>262453.44999999995</v>
+        <v>266071.02999999997</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5488,7 +5494,7 @@
         <v>415</v>
       </c>
       <c r="C241">
-        <v>262427.63</v>
+        <v>263307.29000000004</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5499,7 +5505,7 @@
         <v>417</v>
       </c>
       <c r="C242">
-        <v>261039.36000000002</v>
+        <v>263218.59000000003</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5510,7 +5516,7 @@
         <v>419</v>
       </c>
       <c r="C243">
-        <v>260946.30999999997</v>
+        <v>261681.55000000005</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5521,7 +5527,7 @@
         <v>421</v>
       </c>
       <c r="C244">
-        <v>260775.59999999998</v>
+        <v>261434.81000000003</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5532,7 +5538,7 @@
         <v>423</v>
       </c>
       <c r="C245">
-        <v>254873.23000000004</v>
+        <v>261243.16000000006</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5543,7 +5549,7 @@
         <v>116</v>
       </c>
       <c r="C246">
-        <v>254575.65000000002</v>
+        <v>255971.58</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5554,7 +5560,7 @@
         <v>426</v>
       </c>
       <c r="C247">
-        <v>251808.56</v>
+        <v>255596.39999999997</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5562,32 +5568,32 @@
         <v>427</v>
       </c>
       <c r="B248" t="s">
-        <v>151</v>
+        <v>428</v>
       </c>
       <c r="C248">
-        <v>248614.74999999997</v>
+        <v>251922.06000000003</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B249" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C249">
-        <v>246464.52</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B250" t="s">
-        <v>431</v>
+        <v>151</v>
       </c>
       <c r="C250">
-        <v>243958</v>
+        <v>249390.46</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5598,7 +5604,7 @@
         <v>433</v>
       </c>
       <c r="C251">
-        <v>243800.68000000002</v>
+        <v>246728.22999999998</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5609,7 +5615,7 @@
         <v>435</v>
       </c>
       <c r="C252">
-        <v>242426.99</v>
+        <v>244774.15000000002</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5620,7 +5626,7 @@
         <v>437</v>
       </c>
       <c r="C253">
-        <v>241899.64</v>
+        <v>244577.52000000002</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5631,7 +5637,7 @@
         <v>439</v>
       </c>
       <c r="C254">
-        <v>240883.12</v>
+        <v>242535.78999999998</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5642,7 +5648,7 @@
         <v>441</v>
       </c>
       <c r="C255">
-        <v>240275.68000000005</v>
+        <v>242008.05000000002</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5650,54 +5656,54 @@
         <v>442</v>
       </c>
       <c r="B256" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="C256">
-        <v>237524.63999999996</v>
+        <v>241034.96000000002</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B257" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C257">
-        <v>236348.69000000006</v>
+        <v>240703.11</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B258" t="s">
-        <v>200</v>
+        <v>423</v>
       </c>
       <c r="C258">
-        <v>236172.96000000005</v>
+        <v>238014.06000000003</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B259" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C259">
-        <v>236130.89</v>
+        <v>237130.39000000004</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B260" t="s">
-        <v>449</v>
+        <v>200</v>
       </c>
       <c r="C260">
-        <v>234062.58999999997</v>
+        <v>236906.34</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5708,7 +5714,7 @@
         <v>451</v>
       </c>
       <c r="C261">
-        <v>232818.77000000002</v>
+        <v>236232.5</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5716,32 +5722,32 @@
         <v>452</v>
       </c>
       <c r="B262" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="C262">
-        <v>230145.25</v>
+        <v>235246.59999999998</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B263" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C263">
-        <v>229824.80999999997</v>
+        <v>233265.00000000003</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B264" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="C264">
-        <v>229484.68</v>
+        <v>230730.62</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5752,7 +5758,7 @@
         <v>458</v>
       </c>
       <c r="C265">
-        <v>229257.8</v>
+        <v>229927.64</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5763,7 +5769,7 @@
         <v>460</v>
       </c>
       <c r="C266">
-        <v>219264.21000000002</v>
+        <v>229583.29</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5774,7 +5780,7 @@
         <v>462</v>
       </c>
       <c r="C267">
-        <v>217764.54</v>
+        <v>229533.37</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5782,54 +5788,54 @@
         <v>463</v>
       </c>
       <c r="B268" t="s">
-        <v>70</v>
+        <v>464</v>
       </c>
       <c r="C268">
-        <v>216569.95</v>
+        <v>219196.45</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B269" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C269">
-        <v>215656.30000000002</v>
+        <v>217842.91</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B270" t="s">
-        <v>281</v>
+        <v>70</v>
       </c>
       <c r="C270">
-        <v>213147.31</v>
+        <v>216641.42999999996</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B271" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C271">
-        <v>210715.14999999997</v>
+        <v>215753.56</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B272" t="s">
-        <v>470</v>
+        <v>287</v>
       </c>
       <c r="C272">
-        <v>210476.83000000002</v>
+        <v>213384.81</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5840,7 +5846,7 @@
         <v>472</v>
       </c>
       <c r="C273">
-        <v>209529.05999999997</v>
+        <v>211107.03999999998</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5848,175 +5854,175 @@
         <v>473</v>
       </c>
       <c r="B274" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="C274">
-        <v>208765.26</v>
+        <v>210276.56999999998</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B275" t="s">
-        <v>92</v>
+        <v>476</v>
       </c>
       <c r="C275">
-        <v>206565.53999999995</v>
+        <v>209620.94</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B276" t="s">
-        <v>75</v>
+        <v>445</v>
       </c>
       <c r="C276">
-        <v>206559.91999999998</v>
+        <v>208857.42</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B277" t="s">
-        <v>243</v>
+        <v>92</v>
       </c>
       <c r="C277">
-        <v>204931.61000000004</v>
+        <v>208790.23</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B278" t="s">
-        <v>266</v>
+        <v>75</v>
       </c>
       <c r="C278">
-        <v>204354.56</v>
+        <v>207246.97999999998</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B279" t="s">
-        <v>479</v>
+        <v>270</v>
       </c>
       <c r="C279">
-        <v>203119</v>
+        <v>204921.09999999995</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B280" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="C280">
-        <v>200671.84999999998</v>
+        <v>204726.97000000003</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B281" t="s">
-        <v>304</v>
+        <v>483</v>
       </c>
       <c r="C281">
-        <v>199393.72000000003</v>
+        <v>203205.58</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B282" t="s">
-        <v>483</v>
+        <v>287</v>
       </c>
       <c r="C282">
-        <v>199045.13000000003</v>
+        <v>202841.84</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B283" t="s">
         <v>51</v>
       </c>
       <c r="C283">
-        <v>198970.12000000002</v>
+        <v>199969.27000000002</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B284" t="s">
-        <v>53</v>
+        <v>308</v>
       </c>
       <c r="C284">
-        <v>195049.98999999996</v>
+        <v>199748.91999999998</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B285" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C285">
-        <v>192707.02</v>
+        <v>199428.13</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B286" t="s">
-        <v>283</v>
+        <v>53</v>
       </c>
       <c r="C286">
-        <v>191573.89999999997</v>
+        <v>195655.91</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B287" t="s">
         <v>88</v>
       </c>
       <c r="C287">
-        <v>191547.49000000002</v>
+        <v>194458.34000000003</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B288" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C288">
-        <v>190744.58000000002</v>
+        <v>192789.34</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B289" t="s">
-        <v>493</v>
+        <v>285</v>
       </c>
       <c r="C289">
-        <v>189613.70999999996</v>
+        <v>191622.70999999996</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6024,54 +6030,54 @@
         <v>494</v>
       </c>
       <c r="B290" t="s">
-        <v>41</v>
+        <v>495</v>
       </c>
       <c r="C290">
-        <v>186412.08000000002</v>
+        <v>190795.69999999998</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B291" t="s">
-        <v>126</v>
+        <v>497</v>
       </c>
       <c r="C291">
-        <v>183629.56000000003</v>
+        <v>189778.87</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B292" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C292">
-        <v>183153.17</v>
+        <v>186968.84999999998</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B293" t="s">
-        <v>498</v>
+        <v>126</v>
       </c>
       <c r="C293">
-        <v>182659.09999999998</v>
+        <v>183961.08000000002</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B294" t="s">
-        <v>500</v>
+        <v>39</v>
       </c>
       <c r="C294">
-        <v>180142.81</v>
+        <v>183733.44000000003</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -6082,7 +6088,7 @@
         <v>502</v>
       </c>
       <c r="C295">
-        <v>176549.48</v>
+        <v>183212.78999999992</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -6090,43 +6096,43 @@
         <v>503</v>
       </c>
       <c r="B296" t="s">
-        <v>75</v>
+        <v>504</v>
       </c>
       <c r="C296">
-        <v>174414.66</v>
+        <v>180224.5</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B297" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C297">
-        <v>172387.24</v>
+        <v>177163.84</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B298" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C298">
-        <v>172285.72</v>
+        <v>174495.62</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B299" t="s">
-        <v>508</v>
+        <v>92</v>
       </c>
       <c r="C299">
-        <v>169158.85</v>
+        <v>172359.44999999998</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6134,32 +6140,32 @@
         <v>509</v>
       </c>
       <c r="B300" t="s">
-        <v>396</v>
+        <v>510</v>
       </c>
       <c r="C300">
-        <v>168305.95</v>
+        <v>169726.63</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B301" t="s">
-        <v>116</v>
+        <v>398</v>
       </c>
       <c r="C301">
-        <v>165655.60999999999</v>
+        <v>169077.67</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B302" t="s">
-        <v>512</v>
+        <v>116</v>
       </c>
       <c r="C302">
-        <v>164107.54999999999</v>
+        <v>165726.53999999998</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6170,7 +6176,7 @@
         <v>514</v>
       </c>
       <c r="C303">
-        <v>161682.35</v>
+        <v>164286.79</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6181,7 +6187,7 @@
         <v>516</v>
       </c>
       <c r="C304">
-        <v>160409.74</v>
+        <v>161804.13</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6192,7 +6198,7 @@
         <v>518</v>
       </c>
       <c r="C305">
-        <v>160132.77000000002</v>
+        <v>160480.38999999998</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6200,10 +6206,10 @@
         <v>519</v>
       </c>
       <c r="B306" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C306">
-        <v>159884.28</v>
+        <v>160415.25</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6214,7 +6220,7 @@
         <v>521</v>
       </c>
       <c r="C307">
-        <v>158078.56</v>
+        <v>160201.97</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6222,76 +6228,76 @@
         <v>522</v>
       </c>
       <c r="B308" t="s">
-        <v>324</v>
+        <v>523</v>
       </c>
       <c r="C308">
-        <v>157749.00000000003</v>
+        <v>158148.34</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B309" t="s">
-        <v>73</v>
+        <v>332</v>
       </c>
       <c r="C309">
-        <v>157684.49999999997</v>
+        <v>157764.18000000002</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B310" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C310">
-        <v>157433.89000000001</v>
+        <v>157753.18</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B311" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C311">
-        <v>156677.75</v>
+        <v>157508.18</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B312" t="s">
         <v>73</v>
       </c>
       <c r="C312">
-        <v>156304.93000000002</v>
+        <v>156727.79000000004</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B313" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C313">
-        <v>154374.06</v>
+        <v>156370.75</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B314" t="s">
-        <v>529</v>
+        <v>33</v>
       </c>
       <c r="C314">
-        <v>152350.78</v>
+        <v>154443.34</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6299,32 +6305,32 @@
         <v>530</v>
       </c>
       <c r="B315" t="s">
-        <v>41</v>
+        <v>531</v>
       </c>
       <c r="C315">
-        <v>150767.17999999996</v>
+        <v>152385.82</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B316" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="C316">
-        <v>148115.75</v>
+        <v>152316.84999999998</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B317" t="s">
-        <v>533</v>
+        <v>253</v>
       </c>
       <c r="C317">
-        <v>147018.02000000005</v>
+        <v>148653.43000000002</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6335,7 +6341,7 @@
         <v>535</v>
       </c>
       <c r="C318">
-        <v>146779.54</v>
+        <v>147072.72</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6343,21 +6349,21 @@
         <v>536</v>
       </c>
       <c r="B319" t="s">
-        <v>63</v>
+        <v>537</v>
       </c>
       <c r="C319">
-        <v>144501.99999999997</v>
+        <v>146862.07</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B320" t="s">
-        <v>538</v>
+        <v>63</v>
       </c>
       <c r="C320">
-        <v>144419.42000000001</v>
+        <v>144550.56</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6365,43 +6371,43 @@
         <v>539</v>
       </c>
       <c r="B321" t="s">
-        <v>439</v>
+        <v>540</v>
       </c>
       <c r="C321">
-        <v>144391.62000000002</v>
+        <v>144496.22</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B322" t="s">
-        <v>222</v>
+        <v>443</v>
       </c>
       <c r="C322">
-        <v>144126.03</v>
+        <v>144451.44</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B323" t="s">
-        <v>297</v>
+        <v>222</v>
       </c>
       <c r="C323">
-        <v>140455.28000000003</v>
+        <v>144188.41000000003</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B324" t="s">
-        <v>543</v>
+        <v>302</v>
       </c>
       <c r="C324">
-        <v>140432.85999999999</v>
+        <v>141554.49</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6409,21 +6415,21 @@
         <v>544</v>
       </c>
       <c r="B325" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C325">
-        <v>139693.50000000003</v>
+        <v>140491.35</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B326" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C326">
-        <v>139282.38999999998</v>
+        <v>139703.54</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6434,7 +6440,7 @@
         <v>548</v>
       </c>
       <c r="C327">
-        <v>138478.26</v>
+        <v>139342.67000000001</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6445,7 +6451,7 @@
         <v>550</v>
       </c>
       <c r="C328">
-        <v>138094.81</v>
+        <v>138949.59</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6456,7 +6462,7 @@
         <v>552</v>
       </c>
       <c r="C329">
-        <v>137848.38000000003</v>
+        <v>138156.56</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6467,7 +6473,7 @@
         <v>554</v>
       </c>
       <c r="C330">
-        <v>136483.68</v>
+        <v>137953.09</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6478,7 +6484,7 @@
         <v>556</v>
       </c>
       <c r="C331">
-        <v>135955.5</v>
+        <v>136729.18000000002</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6489,7 +6495,7 @@
         <v>558</v>
       </c>
       <c r="C332">
-        <v>129914.18</v>
+        <v>136152.14000000001</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6500,7 +6506,7 @@
         <v>560</v>
       </c>
       <c r="C333">
-        <v>129623.05</v>
+        <v>130291.14</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6511,7 +6517,7 @@
         <v>189</v>
       </c>
       <c r="C334">
-        <v>129507.88</v>
+        <v>129711.96999999997</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6522,7 +6528,7 @@
         <v>563</v>
       </c>
       <c r="C335">
-        <v>128867.3</v>
+        <v>129680.81</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6530,32 +6536,32 @@
         <v>564</v>
       </c>
       <c r="B336" t="s">
-        <v>231</v>
+        <v>565</v>
       </c>
       <c r="C336">
-        <v>128167.26</v>
+        <v>128971.48</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B337" t="s">
-        <v>458</v>
+        <v>232</v>
       </c>
       <c r="C337">
-        <v>127542.28</v>
+        <v>128224.40999999999</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B338" t="s">
-        <v>567</v>
+        <v>462</v>
       </c>
       <c r="C338">
-        <v>127149.07999999997</v>
+        <v>127591.21000000002</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6563,54 +6569,54 @@
         <v>568</v>
       </c>
       <c r="B339" t="s">
-        <v>311</v>
+        <v>569</v>
       </c>
       <c r="C339">
-        <v>126680.78000000001</v>
+        <v>127195.01000000002</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B340" t="s">
-        <v>433</v>
+        <v>315</v>
       </c>
       <c r="C340">
-        <v>126429.39</v>
+        <v>126738.04999999999</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B341" t="s">
-        <v>538</v>
+        <v>437</v>
       </c>
       <c r="C341">
-        <v>125877.17</v>
+        <v>126680.95000000001</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B342" t="s">
-        <v>61</v>
+        <v>540</v>
       </c>
       <c r="C342">
-        <v>125555.22000000002</v>
+        <v>126232.48999999999</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B343" t="s">
-        <v>573</v>
+        <v>61</v>
       </c>
       <c r="C343">
-        <v>124881.28</v>
+        <v>125620.67000000001</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6618,21 +6624,21 @@
         <v>574</v>
       </c>
       <c r="B344" t="s">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="C344">
-        <v>122901.65000000001</v>
+        <v>124760.1</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B345" t="s">
-        <v>576</v>
+        <v>535</v>
       </c>
       <c r="C345">
-        <v>121803.08</v>
+        <v>124231.16999999998</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6640,54 +6646,54 @@
         <v>577</v>
       </c>
       <c r="B346" t="s">
-        <v>439</v>
+        <v>578</v>
       </c>
       <c r="C346">
-        <v>120929.81000000001</v>
+        <v>121862.09000000001</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B347" t="s">
         <v>75</v>
       </c>
       <c r="C347">
-        <v>119841.18000000001</v>
+        <v>119893.81999999999</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B348" t="s">
-        <v>26</v>
+        <v>581</v>
       </c>
       <c r="C348">
-        <v>118721.90000000001</v>
+        <v>118804.36</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B349" t="s">
-        <v>581</v>
+        <v>26</v>
       </c>
       <c r="C349">
-        <v>118400.53</v>
+        <v>118776.77</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B350" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="C350">
-        <v>117702.73</v>
+        <v>117779.37000000001</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6695,131 +6701,131 @@
         <v>584</v>
       </c>
       <c r="B351" t="s">
-        <v>548</v>
+        <v>585</v>
       </c>
       <c r="C351">
-        <v>117576.81</v>
+        <v>117755.52</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B352" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C352">
-        <v>117145.82999999999</v>
+        <v>117198.78</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B353" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C353">
-        <v>115147.14</v>
+        <v>115197.01000000001</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B354" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C354">
-        <v>114794.45999999999</v>
+        <v>114884.02</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B355" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C355">
-        <v>112966.93000000001</v>
+        <v>113179.19999999998</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B356" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C356">
-        <v>112915.99</v>
+        <v>113015.27</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B357" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C357">
-        <v>112815.55</v>
+        <v>112965.31</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B358" t="s">
-        <v>63</v>
+        <v>597</v>
       </c>
       <c r="C358">
-        <v>112793.06999999999</v>
+        <v>112864.71</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B359" t="s">
-        <v>597</v>
+        <v>63</v>
       </c>
       <c r="C359">
-        <v>111934.29000000001</v>
+        <v>112841.44</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B360" t="s">
-        <v>366</v>
+        <v>443</v>
       </c>
       <c r="C360">
-        <v>109648.18</v>
+        <v>110976.73</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B361" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="C361">
-        <v>109461.94</v>
+        <v>110008.52</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B362" t="s">
-        <v>601</v>
+        <v>321</v>
       </c>
       <c r="C362">
-        <v>107949.08999999998</v>
+        <v>109825.66000000002</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6827,21 +6833,21 @@
         <v>602</v>
       </c>
       <c r="B363" t="s">
-        <v>92</v>
+        <v>603</v>
       </c>
       <c r="C363">
-        <v>106032.39</v>
+        <v>108174.93999999997</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B364" t="s">
-        <v>604</v>
+        <v>92</v>
       </c>
       <c r="C364">
-        <v>105918.11</v>
+        <v>106384.7</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6849,98 +6855,98 @@
         <v>605</v>
       </c>
       <c r="B365" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="C365">
-        <v>105039.29999999999</v>
+        <v>105965.13</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B366" t="s">
-        <v>111</v>
+        <v>540</v>
       </c>
       <c r="C366">
-        <v>103715.97</v>
+        <v>105067.28</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B367" t="s">
-        <v>423</v>
+        <v>109</v>
       </c>
       <c r="C367">
-        <v>102564.83000000002</v>
+        <v>103761.93</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B368" t="s">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="C368">
-        <v>102558.45</v>
+        <v>102612.57000000002</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B369" t="s">
-        <v>317</v>
+        <v>259</v>
       </c>
       <c r="C369">
-        <v>102266.17</v>
+        <v>102609.92000000001</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B370" t="s">
-        <v>462</v>
+        <v>321</v>
       </c>
       <c r="C370">
-        <v>101453.34999999999</v>
+        <v>102396.82</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B371" t="s">
-        <v>77</v>
+        <v>466</v>
       </c>
       <c r="C371">
-        <v>100701.74999999999</v>
+        <v>101789.39</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B372" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C372">
-        <v>100391.10999999999</v>
+        <v>100747.18</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B373" t="s">
-        <v>614</v>
+        <v>73</v>
       </c>
       <c r="C373">
-        <v>100249.78</v>
+        <v>100439.6</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6951,7 +6957,7 @@
         <v>616</v>
       </c>
       <c r="C374">
-        <v>97470.02</v>
+        <v>100295.33</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6959,21 +6965,21 @@
         <v>617</v>
       </c>
       <c r="B375" t="s">
-        <v>266</v>
+        <v>618</v>
       </c>
       <c r="C375">
-        <v>96343.26</v>
+        <v>97506.000000000015</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B376" t="s">
-        <v>619</v>
+        <v>270</v>
       </c>
       <c r="C376">
-        <v>93955.06</v>
+        <v>96639.91</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6981,43 +6987,43 @@
         <v>620</v>
       </c>
       <c r="B377" t="s">
-        <v>342</v>
+        <v>621</v>
       </c>
       <c r="C377">
-        <v>93423.920000000013</v>
+        <v>94000.329999999987</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B378" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="C378">
-        <v>93400.52</v>
+        <v>93555.32</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B379" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C379">
-        <v>93322.950000000012</v>
+        <v>93532.709999999992</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B380" t="s">
-        <v>624</v>
+        <v>51</v>
       </c>
       <c r="C380">
-        <v>91110.409999999989</v>
+        <v>93455.280000000013</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -7028,7 +7034,7 @@
         <v>626</v>
       </c>
       <c r="C381">
-        <v>89919.5</v>
+        <v>91151.45</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -7036,65 +7042,65 @@
         <v>627</v>
       </c>
       <c r="B382" t="s">
-        <v>491</v>
+        <v>628</v>
       </c>
       <c r="C382">
-        <v>88380.22</v>
+        <v>89955.78</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B383" t="s">
-        <v>249</v>
+        <v>495</v>
       </c>
       <c r="C383">
-        <v>86987.63</v>
+        <v>88417.65</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B384" t="s">
-        <v>105</v>
+        <v>253</v>
       </c>
       <c r="C384">
-        <v>86937.93</v>
+        <v>87903.930000000008</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B385" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="C385">
-        <v>86386.69</v>
+        <v>87027.89</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B386" t="s">
-        <v>297</v>
+        <v>61</v>
       </c>
       <c r="C386">
-        <v>85587.430000000008</v>
+        <v>86536.91</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B387" t="s">
-        <v>633</v>
+        <v>302</v>
       </c>
       <c r="C387">
-        <v>83860.7</v>
+        <v>86510.319999999978</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7102,43 +7108,43 @@
         <v>634</v>
       </c>
       <c r="B388" t="s">
-        <v>207</v>
+        <v>635</v>
       </c>
       <c r="C388">
-        <v>82361.450000000012</v>
+        <v>84000.95</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B389" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="C389">
-        <v>82135.87999999999</v>
+        <v>82810.89</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B390" t="s">
-        <v>637</v>
+        <v>207</v>
       </c>
       <c r="C390">
-        <v>81927.33</v>
+        <v>82395.359999999986</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B391" t="s">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="C391">
-        <v>79907.149999999994</v>
+        <v>82167.78</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7149,7 +7155,7 @@
         <v>641</v>
       </c>
       <c r="C392">
-        <v>78097.12999999999</v>
+        <v>79943.38</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -7160,7 +7166,7 @@
         <v>643</v>
       </c>
       <c r="C393">
-        <v>75890.34</v>
+        <v>78129.819999999992</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -7168,21 +7174,21 @@
         <v>644</v>
       </c>
       <c r="B394" t="s">
-        <v>508</v>
+        <v>645</v>
       </c>
       <c r="C394">
-        <v>75627.060000000012</v>
+        <v>75921.679999999993</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B395" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
       <c r="C395">
-        <v>75369.850000000006</v>
+        <v>75880.099999999991</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7190,10 +7196,10 @@
         <v>647</v>
       </c>
       <c r="B396" t="s">
-        <v>73</v>
+        <v>441</v>
       </c>
       <c r="C396">
-        <v>75195.570000000022</v>
+        <v>75858.030000000013</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7201,21 +7207,21 @@
         <v>648</v>
       </c>
       <c r="B397" t="s">
-        <v>437</v>
+        <v>649</v>
       </c>
       <c r="C397">
-        <v>75054.950000000012</v>
+        <v>75403.03</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B398" t="s">
-        <v>650</v>
+        <v>73</v>
       </c>
       <c r="C398">
-        <v>73375.12</v>
+        <v>75213.179999999993</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7223,54 +7229,54 @@
         <v>651</v>
       </c>
       <c r="B399" t="s">
-        <v>49</v>
+        <v>652</v>
       </c>
       <c r="C399">
-        <v>73143.86</v>
+        <v>73406.950000000012</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B400" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C400">
-        <v>72498.710000000006</v>
+        <v>73165.06</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B401" t="s">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="C401">
-        <v>71838.06</v>
+        <v>72530.02</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B402" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C402">
-        <v>71737.26999999999</v>
+        <v>72099.850000000006</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B403" t="s">
-        <v>657</v>
+        <v>195</v>
       </c>
       <c r="C403">
-        <v>70851.850000000006</v>
+        <v>71868.95</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7281,7 +7287,7 @@
         <v>659</v>
       </c>
       <c r="C404">
-        <v>69653.490000000005</v>
+        <v>70883.06</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7292,7 +7298,7 @@
         <v>661</v>
       </c>
       <c r="C405">
-        <v>67733.599999999991</v>
+        <v>69859.89</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7300,10 +7306,10 @@
         <v>662</v>
       </c>
       <c r="B406" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C406">
-        <v>67701.48</v>
+        <v>67815.45</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7311,32 +7317,32 @@
         <v>663</v>
       </c>
       <c r="B407" t="s">
-        <v>324</v>
+        <v>664</v>
       </c>
       <c r="C407">
-        <v>66754.39</v>
+        <v>67766.420000000013</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B408" t="s">
-        <v>441</v>
+        <v>332</v>
       </c>
       <c r="C408">
-        <v>64981.06</v>
+        <v>66818.94</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B409" t="s">
-        <v>666</v>
+        <v>445</v>
       </c>
       <c r="C409">
-        <v>64559.839999999997</v>
+        <v>65153.070000000007</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7344,21 +7350,21 @@
         <v>667</v>
       </c>
       <c r="B410" t="s">
-        <v>26</v>
+        <v>668</v>
       </c>
       <c r="C410">
-        <v>64118.539999999994</v>
+        <v>64586.960000000006</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B411" t="s">
-        <v>669</v>
+        <v>26</v>
       </c>
       <c r="C411">
-        <v>63907.079999999987</v>
+        <v>64105.25</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7369,7 +7375,7 @@
         <v>671</v>
       </c>
       <c r="C412">
-        <v>62437.82</v>
+        <v>63934.80000000001</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7380,7 +7386,7 @@
         <v>673</v>
       </c>
       <c r="C413">
-        <v>62247.749999999993</v>
+        <v>62510.46</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7388,21 +7394,21 @@
         <v>674</v>
       </c>
       <c r="B414" t="s">
-        <v>200</v>
+        <v>675</v>
       </c>
       <c r="C414">
-        <v>62197.369999999995</v>
+        <v>62277.070000000007</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B415" t="s">
-        <v>676</v>
+        <v>200</v>
       </c>
       <c r="C415">
-        <v>59996.220000000008</v>
+        <v>62224.94</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7413,7 +7419,7 @@
         <v>678</v>
       </c>
       <c r="C416">
-        <v>59674.659999999996</v>
+        <v>60022.619999999995</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7421,54 +7427,54 @@
         <v>679</v>
       </c>
       <c r="B417" t="s">
-        <v>216</v>
+        <v>680</v>
       </c>
       <c r="C417">
-        <v>59651.729999999996</v>
+        <v>59701.120000000003</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B418" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C418">
-        <v>58727.38</v>
+        <v>59688.950000000004</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B419" t="s">
         <v>195</v>
       </c>
       <c r="C419">
-        <v>58711.94000000001</v>
+        <v>59337.21</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B420" t="s">
-        <v>433</v>
+        <v>215</v>
       </c>
       <c r="C420">
-        <v>57406.17</v>
+        <v>58904.56</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B421" t="s">
-        <v>684</v>
+        <v>437</v>
       </c>
       <c r="C421">
-        <v>56880.259999999995</v>
+        <v>57428.520000000004</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7476,54 +7482,54 @@
         <v>685</v>
       </c>
       <c r="B422" t="s">
-        <v>61</v>
+        <v>686</v>
       </c>
       <c r="C422">
-        <v>56538.18</v>
+        <v>56901.09</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B423" t="s">
-        <v>669</v>
+        <v>61</v>
       </c>
       <c r="C423">
-        <v>55742.39</v>
+        <v>56709.41</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B424" t="s">
         <v>116</v>
       </c>
       <c r="C424">
-        <v>55630.21</v>
+        <v>56230.35</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B425" t="s">
-        <v>487</v>
+        <v>671</v>
       </c>
       <c r="C425">
-        <v>55617.71</v>
+        <v>55767.300000000017</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B426" t="s">
-        <v>690</v>
+        <v>492</v>
       </c>
       <c r="C426">
-        <v>54268.119999999995</v>
+        <v>55642.11</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7531,153 +7537,153 @@
         <v>691</v>
       </c>
       <c r="B427" t="s">
-        <v>155</v>
+        <v>692</v>
       </c>
       <c r="C427">
-        <v>53537.939999999995</v>
+        <v>54292.54</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B428" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="C428">
-        <v>53161.829999999994</v>
+        <v>53561.280000000006</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B429" t="s">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="C429">
-        <v>52196.159999999996</v>
+        <v>53290.340000000004</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B430" t="s">
-        <v>81</v>
+        <v>355</v>
       </c>
       <c r="C430">
-        <v>51922.990000000005</v>
+        <v>52760.000000000007</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B431" t="s">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="C431">
-        <v>50398.279999999992</v>
+        <v>51873.990000000005</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B432" t="s">
-        <v>53</v>
+        <v>315</v>
       </c>
       <c r="C432">
-        <v>49884.310000000005</v>
+        <v>50943.160000000011</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B433" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C433">
-        <v>49864.29</v>
+        <v>50611.110000000008</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B434" t="s">
-        <v>573</v>
+        <v>53</v>
       </c>
       <c r="C434">
-        <v>49802</v>
+        <v>50423.850000000006</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B435" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="C435">
-        <v>49487.840000000004</v>
+        <v>50341.5</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B436" t="s">
-        <v>245</v>
+        <v>556</v>
       </c>
       <c r="C436">
-        <v>47831.839999999997</v>
+        <v>50022.39</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B437" t="s">
-        <v>538</v>
+        <v>249</v>
       </c>
       <c r="C437">
-        <v>47775.73000000001</v>
+        <v>48062.770000000011</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B438" t="s">
-        <v>423</v>
+        <v>540</v>
       </c>
       <c r="C438">
-        <v>47300.74</v>
+        <v>47926.54</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B439" t="s">
-        <v>354</v>
+        <v>426</v>
       </c>
       <c r="C439">
-        <v>46984.179999999993</v>
+        <v>47847.15</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B440" t="s">
-        <v>705</v>
+        <v>358</v>
       </c>
       <c r="C440">
-        <v>45702.94</v>
+        <v>47492.220000000008</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7685,32 +7691,32 @@
         <v>706</v>
       </c>
       <c r="B441" t="s">
-        <v>12</v>
+        <v>707</v>
       </c>
       <c r="C441">
-        <v>44849.239999999991</v>
+        <v>45723.040000000001</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B442" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C442">
-        <v>42225.82</v>
+        <v>44868.159999999996</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B443" t="s">
-        <v>709</v>
+        <v>81</v>
       </c>
       <c r="C443">
-        <v>42136.419999999991</v>
+        <v>42365.120000000003</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7721,7 +7727,7 @@
         <v>711</v>
       </c>
       <c r="C444">
-        <v>41208.050000000003</v>
+        <v>42154.720000000001</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7729,21 +7735,21 @@
         <v>712</v>
       </c>
       <c r="B445" t="s">
-        <v>63</v>
+        <v>713</v>
       </c>
       <c r="C445">
-        <v>40545.779999999992</v>
+        <v>41338.730000000003</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B446" t="s">
-        <v>714</v>
+        <v>63</v>
       </c>
       <c r="C446">
-        <v>39802.890000000007</v>
+        <v>40564.229999999996</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7754,7 +7760,7 @@
         <v>716</v>
       </c>
       <c r="C447">
-        <v>39375.829999999994</v>
+        <v>39819.06</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7762,21 +7768,21 @@
         <v>717</v>
       </c>
       <c r="B448" t="s">
-        <v>441</v>
+        <v>718</v>
       </c>
       <c r="C448">
-        <v>36523.910000000003</v>
+        <v>39393.5</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B449" t="s">
-        <v>719</v>
+        <v>445</v>
       </c>
       <c r="C449">
-        <v>36446.020000000004</v>
+        <v>36543.01</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7784,10 +7790,10 @@
         <v>720</v>
       </c>
       <c r="B450" t="s">
-        <v>409</v>
+        <v>51</v>
       </c>
       <c r="C450">
-        <v>35824.17</v>
+        <v>36493.619999999995</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7795,32 +7801,32 @@
         <v>721</v>
       </c>
       <c r="B451" t="s">
-        <v>133</v>
+        <v>722</v>
       </c>
       <c r="C451">
-        <v>35129.269999999997</v>
+        <v>36462.380000000005</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B452" t="s">
-        <v>51</v>
+        <v>411</v>
       </c>
       <c r="C452">
-        <v>34647.949999999997</v>
+        <v>35691.57</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B453" t="s">
-        <v>724</v>
+        <v>133</v>
       </c>
       <c r="C453">
-        <v>34559.39</v>
+        <v>35145.379999999997</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7831,7 +7837,7 @@
         <v>726</v>
       </c>
       <c r="C454">
-        <v>34208.5</v>
+        <v>34564.61</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7839,43 +7845,43 @@
         <v>727</v>
       </c>
       <c r="B455" t="s">
-        <v>671</v>
+        <v>728</v>
       </c>
       <c r="C455">
-        <v>33318.6</v>
+        <v>34228.550000000003</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B456" t="s">
-        <v>39</v>
+        <v>673</v>
       </c>
       <c r="C456">
-        <v>31716.48</v>
+        <v>33333.57</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B457" t="s">
-        <v>508</v>
+        <v>39</v>
       </c>
       <c r="C457">
-        <v>30765.68</v>
+        <v>31729.930000000004</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B458" t="s">
-        <v>731</v>
+        <v>510</v>
       </c>
       <c r="C458">
-        <v>29831.040000000001</v>
+        <v>30781.399999999998</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7886,7 +7892,7 @@
         <v>733</v>
       </c>
       <c r="C459">
-        <v>28375.420000000002</v>
+        <v>29831.040000000001</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7897,7 +7903,7 @@
         <v>735</v>
       </c>
       <c r="C460">
-        <v>28364.899999999998</v>
+        <v>29365.25</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7905,43 +7911,43 @@
         <v>736</v>
       </c>
       <c r="B461" t="s">
-        <v>415</v>
+        <v>737</v>
       </c>
       <c r="C461">
-        <v>27987.570000000003</v>
+        <v>28442.689999999995</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B462" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C462">
-        <v>27737.490000000005</v>
+        <v>28068.240000000005</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B463" t="s">
-        <v>200</v>
+        <v>415</v>
       </c>
       <c r="C463">
-        <v>26119.119999999999</v>
+        <v>28000.639999999999</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B464" t="s">
-        <v>740</v>
+        <v>200</v>
       </c>
       <c r="C464">
-        <v>23279.010000000002</v>
+        <v>26130.7</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7949,87 +7955,87 @@
         <v>741</v>
       </c>
       <c r="B465" t="s">
-        <v>200</v>
+        <v>742</v>
       </c>
       <c r="C465">
-        <v>21024.809999999998</v>
+        <v>23271.4</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B466" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C466">
-        <v>20701.97</v>
+        <v>21033.829999999998</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B467" t="s">
-        <v>73</v>
+        <v>225</v>
       </c>
       <c r="C467">
-        <v>20271.509999999998</v>
+        <v>20711.14</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B468" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C468">
-        <v>17261.87</v>
+        <v>20279.93</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B469" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="C469">
-        <v>16227.85</v>
+        <v>17269.87</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B470" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C470">
-        <v>16158.76</v>
+        <v>16423.59</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B471" t="s">
-        <v>405</v>
+        <v>215</v>
       </c>
       <c r="C471">
-        <v>14523.779999999999</v>
+        <v>16235.12</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B472" t="s">
-        <v>749</v>
+        <v>409</v>
       </c>
       <c r="C472">
-        <v>14118.76</v>
+        <v>14521.75</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8040,7 +8046,7 @@
         <v>751</v>
       </c>
       <c r="C473">
-        <v>13957.41</v>
+        <v>14125.06</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8051,7 +8057,7 @@
         <v>753</v>
       </c>
       <c r="C474">
-        <v>13470.24</v>
+        <v>13963.59</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8059,43 +8065,43 @@
         <v>754</v>
       </c>
       <c r="B475" t="s">
-        <v>342</v>
+        <v>755</v>
       </c>
       <c r="C475">
-        <v>12947.24</v>
+        <v>13476.25</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B476" t="s">
         <v>6</v>
       </c>
       <c r="C476">
-        <v>12774.64</v>
+        <v>12967.04</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B477" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="C477">
-        <v>11776.859999999999</v>
+        <v>12953.050000000001</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B478" t="s">
-        <v>758</v>
+        <v>315</v>
       </c>
       <c r="C478">
-        <v>11311.13</v>
+        <v>12784.89</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8106,7 +8112,7 @@
         <v>760</v>
       </c>
       <c r="C479">
-        <v>10519.48</v>
+        <v>11316.119999999999</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -8114,32 +8120,32 @@
         <v>761</v>
       </c>
       <c r="B480" t="s">
-        <v>417</v>
+        <v>762</v>
       </c>
       <c r="C480">
-        <v>10132.959999999999</v>
+        <v>10524.080000000002</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B481" t="s">
-        <v>8</v>
+        <v>423</v>
       </c>
       <c r="C481">
-        <v>9989.84</v>
+        <v>10137.42</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B482" t="s">
-        <v>764</v>
+        <v>8</v>
       </c>
       <c r="C482">
-        <v>9251.9900000000016</v>
+        <v>9994.26</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -8147,32 +8153,32 @@
         <v>765</v>
       </c>
       <c r="B483" t="s">
-        <v>200</v>
+        <v>766</v>
       </c>
       <c r="C483">
-        <v>8881.74</v>
+        <v>9256.0999999999985</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B484" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C484">
-        <v>8014.65</v>
+        <v>8886.4999999999982</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B485" t="s">
-        <v>768</v>
+        <v>207</v>
       </c>
       <c r="C485">
-        <v>7156.62</v>
+        <v>8161.98</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -8183,7 +8189,7 @@
         <v>770</v>
       </c>
       <c r="C486">
-        <v>6800.52</v>
+        <v>7159.19</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -8191,21 +8197,21 @@
         <v>771</v>
       </c>
       <c r="B487" t="s">
-        <v>195</v>
+        <v>772</v>
       </c>
       <c r="C487">
-        <v>5253.37</v>
+        <v>6803.4499999999989</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B488" t="s">
-        <v>773</v>
+        <v>195</v>
       </c>
       <c r="C488">
-        <v>5000</v>
+        <v>5310.23</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -8213,21 +8219,21 @@
         <v>774</v>
       </c>
       <c r="B489" t="s">
-        <v>73</v>
+        <v>775</v>
       </c>
       <c r="C489">
-        <v>4687.51</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B490" t="s">
-        <v>776</v>
+        <v>73</v>
       </c>
       <c r="C490">
-        <v>4648.32</v>
+        <v>4689.5300000000007</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -8238,7 +8244,7 @@
         <v>778</v>
       </c>
       <c r="C491">
-        <v>2300</v>
+        <v>4650.2199999999993</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -8249,7 +8255,7 @@
         <v>780</v>
       </c>
       <c r="C492">
-        <v>1519.1100000000001</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -8257,32 +8263,32 @@
         <v>781</v>
       </c>
       <c r="B493" t="s">
-        <v>33</v>
+        <v>782</v>
       </c>
       <c r="C493">
-        <v>1433.3999999999999</v>
+        <v>1519.7800000000002</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B494" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C494">
-        <v>1348.84</v>
+        <v>1434.01</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B495" t="s">
-        <v>784</v>
+        <v>53</v>
       </c>
       <c r="C495">
-        <v>1104.0899999999999</v>
+        <v>1379.5900000000001</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -8290,43 +8296,43 @@
         <v>785</v>
       </c>
       <c r="B496" t="s">
-        <v>396</v>
+        <v>786</v>
       </c>
       <c r="C496">
-        <v>1089.45</v>
+        <v>1104.58</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B497" t="s">
-        <v>597</v>
+        <v>398</v>
       </c>
       <c r="C497">
-        <v>746.54</v>
+        <v>1089.94</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B498" t="s">
-        <v>22</v>
+        <v>591</v>
       </c>
       <c r="C498">
-        <v>494.44000000000005</v>
+        <v>746.82</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B499" t="s">
-        <v>789</v>
+        <v>22</v>
       </c>
       <c r="C499">
-        <v>435.68</v>
+        <v>488.29999999999995</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -8334,26 +8340,26 @@
         <v>790</v>
       </c>
       <c r="B500" t="s">
-        <v>100</v>
+        <v>791</v>
       </c>
       <c r="C500">
-        <v>279.47000000000003</v>
+        <v>435.68</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B501" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="C501">
-        <v>150</v>
+        <v>279.58999999999997</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B502" t="s">
         <v>197</v>
@@ -8364,57 +8370,57 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B503" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="C503">
-        <v>86.38</v>
+        <v>150</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B504" t="s">
-        <v>441</v>
+        <v>270</v>
       </c>
       <c r="C504">
-        <v>50.26</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B505" t="s">
-        <v>560</v>
+        <v>445</v>
       </c>
       <c r="C505">
-        <v>50</v>
+        <v>50.26</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B506" t="s">
-        <v>433</v>
+        <v>563</v>
       </c>
       <c r="C506">
-        <v>33.049999999999997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B507" t="s">
-        <v>798</v>
+        <v>437</v>
       </c>
       <c r="C507">
-        <v>29.770000000000003</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8425,7 +8431,7 @@
         <v>800</v>
       </c>
       <c r="C508">
-        <v>21.27</v>
+        <v>29.77</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -8433,32 +8439,32 @@
         <v>801</v>
       </c>
       <c r="B509" t="s">
-        <v>22</v>
+        <v>802</v>
       </c>
       <c r="C509">
-        <v>19.079999999999998</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B510" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="C510">
-        <v>18.32</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B511" t="s">
-        <v>804</v>
+        <v>278</v>
       </c>
       <c r="C511">
-        <v>17.86</v>
+        <v>18.32</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8469,7 +8475,7 @@
         <v>806</v>
       </c>
       <c r="C512">
-        <v>14.67</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8480,7 +8486,7 @@
         <v>808</v>
       </c>
       <c r="C513">
-        <v>9.73</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -8488,21 +8494,21 @@
         <v>809</v>
       </c>
       <c r="B514" t="s">
-        <v>266</v>
+        <v>810</v>
       </c>
       <c r="C514">
-        <v>5.55</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B515" t="s">
-        <v>811</v>
+        <v>270</v>
       </c>
       <c r="C515">
-        <v>0.05</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -8510,26 +8516,37 @@
         <v>812</v>
       </c>
       <c r="B516" t="s">
-        <v>41</v>
+        <v>813</v>
       </c>
       <c r="C516">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B517" t="s">
-        <v>814</v>
+        <v>41</v>
       </c>
       <c r="C517">
         <v>0.01</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
-      <c r="A519" t="s">
+    <row r="518" spans="1:3">
+      <c r="A518" t="s">
         <v>815</v>
+      </c>
+      <c r="B518" t="s">
+        <v>816</v>
+      </c>
+      <c r="C518">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" t="s">
+        <v>817</v>
       </c>
     </row>
   </sheetData>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95F110CF-B437-401B-AD00-0C4A1DE67B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBE4D075-B432-44B7-93D6-645F0CB609AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="820">
   <si>
     <t>CONTA</t>
   </si>
@@ -148,18 +148,18 @@
     <t>GUILHERME</t>
   </si>
   <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
     <t>004893911</t>
   </si>
   <si>
     <t>FAUSTO</t>
   </si>
   <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
     <t>004329441</t>
   </si>
   <si>
@@ -373,18 +373,18 @@
     <t>LARISSA</t>
   </si>
   <si>
+    <t>001882235</t>
+  </si>
+  <si>
+    <t>LAGO</t>
+  </si>
+  <si>
     <t>004912314</t>
   </si>
   <si>
     <t>FABRICIO</t>
   </si>
   <si>
-    <t>001882235</t>
-  </si>
-  <si>
-    <t>LAGO</t>
-  </si>
-  <si>
     <t>003987275</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>004639776</t>
   </si>
   <si>
+    <t>005190138</t>
+  </si>
+  <si>
     <t>004890544</t>
   </si>
   <si>
-    <t>005190138</t>
-  </si>
-  <si>
     <t>004499920</t>
   </si>
   <si>
@@ -604,27 +604,27 @@
     <t>004453157</t>
   </si>
   <si>
+    <t>004586209</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>004241147</t>
+  </si>
+  <si>
+    <t>005143579</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
     <t>004444380</t>
   </si>
   <si>
     <t>MARCELO</t>
   </si>
   <si>
-    <t>004586209</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>004241147</t>
-  </si>
-  <si>
-    <t>005143579</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
     <t>004459461</t>
   </si>
   <si>
@@ -673,12 +673,12 @@
     <t>004460491</t>
   </si>
   <si>
+    <t>004752534</t>
+  </si>
+  <si>
     <t>005092207</t>
   </si>
   <si>
-    <t>004752534</t>
-  </si>
-  <si>
     <t>004207955</t>
   </si>
   <si>
@@ -853,15 +853,15 @@
     <t>VALDIVINO</t>
   </si>
   <si>
+    <t>001731007</t>
+  </si>
+  <si>
     <t>004381095</t>
   </si>
   <si>
     <t>THIAGO</t>
   </si>
   <si>
-    <t>001731007</t>
-  </si>
-  <si>
     <t>004588677</t>
   </si>
   <si>
@@ -874,18 +874,24 @@
     <t>VERANICE</t>
   </si>
   <si>
+    <t>004207374</t>
+  </si>
+  <si>
+    <t>ANGELICA</t>
+  </si>
+  <si>
+    <t>004419765</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
     <t>004200433</t>
   </si>
   <si>
     <t>BENTO</t>
   </si>
   <si>
-    <t>004419765</t>
-  </si>
-  <si>
-    <t>WALTER</t>
-  </si>
-  <si>
     <t>004751770</t>
   </si>
   <si>
@@ -922,21 +928,21 @@
     <t>CASSIO</t>
   </si>
   <si>
+    <t>004472431</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>004950193</t>
+  </si>
+  <si>
+    <t>004811224</t>
+  </si>
+  <si>
     <t>004958539</t>
   </si>
   <si>
-    <t>004472431</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>004950193</t>
-  </si>
-  <si>
-    <t>004811224</t>
-  </si>
-  <si>
     <t>004252768</t>
   </si>
   <si>
@@ -997,6 +1003,18 @@
     <t>004565108</t>
   </si>
   <si>
+    <t>002694089</t>
+  </si>
+  <si>
+    <t>VITOR</t>
+  </si>
+  <si>
+    <t>004805133</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
     <t>005009992</t>
   </si>
   <si>
@@ -1009,1396 +1027,1384 @@
     <t>JULIAN</t>
   </si>
   <si>
-    <t>002694089</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
-    <t>004805133</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004346716</t>
   </si>
   <si>
     <t>004435987</t>
   </si>
   <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
     <t>004805333</t>
   </si>
   <si>
     <t>ROSANA</t>
   </si>
   <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004482262</t>
+  </si>
+  <si>
+    <t>RITA</t>
+  </si>
+  <si>
+    <t>004460487</t>
+  </si>
+  <si>
+    <t>004563237</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>004827315</t>
+  </si>
+  <si>
+    <t>GILTON</t>
+  </si>
+  <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>004276856</t>
+  </si>
+  <si>
+    <t>DAURA</t>
+  </si>
+  <si>
+    <t>004693349</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>005206566</t>
+  </si>
+  <si>
+    <t>LEVI</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004482090</t>
+  </si>
+  <si>
+    <t>CEZAR</t>
+  </si>
+  <si>
+    <t>003921139</t>
+  </si>
+  <si>
+    <t>GEISA</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>003435941</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>004866753</t>
+  </si>
+  <si>
+    <t>GENESI</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>004853111</t>
+  </si>
+  <si>
+    <t>MARCONDES</t>
+  </si>
+  <si>
+    <t>004756981</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>004567880</t>
+  </si>
+  <si>
+    <t>LUANA</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>004945161</t>
+  </si>
+  <si>
+    <t>004870976</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>004999410</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>004550605</t>
+  </si>
+  <si>
+    <t>REJANE</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004491730</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>004479287</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>004259649</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>001000882</t>
+  </si>
+  <si>
+    <t>AYRTON</t>
+  </si>
+  <si>
+    <t>004556150</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004805273</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004575632</t>
+  </si>
+  <si>
+    <t>ADELE</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004550750</t>
+  </si>
+  <si>
+    <t>THEO</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>004575621</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>005147664</t>
+  </si>
+  <si>
+    <t>SAVIO</t>
+  </si>
+  <si>
+    <t>005231126</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>002823185</t>
+  </si>
+  <si>
+    <t>004461526</t>
+  </si>
+  <si>
+    <t>ASSISTIGAS</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>004520100</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>004806286</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004463586</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>004552944</t>
+  </si>
+  <si>
+    <t>YURI</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>005105970</t>
+  </si>
+  <si>
+    <t>005141215</t>
+  </si>
+  <si>
+    <t>KARINA</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>005073033</t>
+  </si>
+  <si>
+    <t>NILBORN</t>
+  </si>
+  <si>
+    <t>004924222</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
+    <t>004431591</t>
+  </si>
+  <si>
+    <t>004211807</t>
+  </si>
+  <si>
+    <t>EDINARDO</t>
+  </si>
+  <si>
+    <t>004466221</t>
+  </si>
+  <si>
+    <t>004967702</t>
+  </si>
+  <si>
+    <t>VINICIUS</t>
+  </si>
+  <si>
+    <t>004207658</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
+  </si>
+  <si>
+    <t>005142624</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004398253</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>004462930</t>
+  </si>
+  <si>
+    <t>004230529</t>
+  </si>
+  <si>
+    <t>LAIS</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>004212409</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>004436055</t>
+  </si>
+  <si>
+    <t>000827730</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004259650</t>
+  </si>
+  <si>
+    <t>004202332</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>004971783</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>004550415</t>
+  </si>
+  <si>
+    <t>DIOGO</t>
+  </si>
+  <si>
+    <t>004425965</t>
+  </si>
+  <si>
+    <t>CAROLLINA</t>
+  </si>
+  <si>
+    <t>004403674</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
+    <t>005040864</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>004289402</t>
+  </si>
+  <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>004425261</t>
+  </si>
+  <si>
+    <t>THAYSA</t>
+  </si>
+  <si>
+    <t>004465263</t>
+  </si>
+  <si>
+    <t>CLAUDIO</t>
+  </si>
+  <si>
+    <t>004475395</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>005142661</t>
+  </si>
+  <si>
+    <t>SABRINA</t>
+  </si>
+  <si>
+    <t>004421636</t>
+  </si>
+  <si>
+    <t>004467884</t>
+  </si>
+  <si>
+    <t>004886366</t>
+  </si>
+  <si>
+    <t>005165116</t>
+  </si>
+  <si>
+    <t>004267119</t>
+  </si>
+  <si>
+    <t>004335031</t>
+  </si>
+  <si>
+    <t>004511696</t>
+  </si>
+  <si>
+    <t>KRYSCIA</t>
+  </si>
+  <si>
+    <t>004224815</t>
+  </si>
+  <si>
+    <t>001879977</t>
+  </si>
+  <si>
+    <t>THAISSA</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004981655</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>002786022</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>004936634</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>004920447</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>005076418</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004471893</t>
+  </si>
+  <si>
+    <t>PAULA</t>
+  </si>
+  <si>
+    <t>004334158</t>
+  </si>
+  <si>
+    <t>LEONE</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>001922009</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
+  </si>
+  <si>
+    <t>004382902</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>004467016</t>
+  </si>
+  <si>
+    <t>ISABEL</t>
+  </si>
+  <si>
+    <t>004480970</t>
+  </si>
+  <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>004486497</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>004479965</t>
+  </si>
+  <si>
+    <t>005024046</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
+    <t>005169333</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004587511</t>
+  </si>
+  <si>
+    <t>004238164</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>004224011</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>004974089</t>
+  </si>
+  <si>
+    <t>004498637</t>
+  </si>
+  <si>
+    <t>004547722</t>
+  </si>
+  <si>
+    <t>004458604</t>
+  </si>
+  <si>
+    <t>FABIOLA</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>005000656</t>
+  </si>
+  <si>
+    <t>004643153</t>
+  </si>
+  <si>
+    <t>000834301</t>
+  </si>
+  <si>
+    <t>004313254</t>
+  </si>
+  <si>
+    <t>004848279</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>005173958</t>
+  </si>
+  <si>
+    <t>004444164</t>
+  </si>
+  <si>
+    <t>005079458</t>
+  </si>
+  <si>
+    <t>JONAS</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>004278033</t>
+  </si>
+  <si>
+    <t>DAISY</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>004508516</t>
+  </si>
+  <si>
+    <t>004500804</t>
+  </si>
+  <si>
+    <t>004397124</t>
+  </si>
+  <si>
+    <t>MURYLO</t>
+  </si>
+  <si>
+    <t>004691225</t>
+  </si>
+  <si>
+    <t>ANNA</t>
+  </si>
+  <si>
+    <t>004517080</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>001719494</t>
+  </si>
+  <si>
+    <t>004377415</t>
+  </si>
+  <si>
+    <t>ANGELA</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>005146441</t>
+  </si>
+  <si>
+    <t>004255049</t>
+  </si>
+  <si>
+    <t>MATHEUS</t>
+  </si>
+  <si>
+    <t>004265173</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>001761119</t>
+  </si>
+  <si>
+    <t>BLUEMETRIX</t>
+  </si>
+  <si>
+    <t>004767746</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>004854496</t>
+  </si>
+  <si>
+    <t>004242237</t>
+  </si>
+  <si>
+    <t>MARIAH</t>
+  </si>
+  <si>
+    <t>004972070</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>000772433</t>
+  </si>
+  <si>
+    <t>004451725</t>
+  </si>
+  <si>
+    <t>PABLO</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004381194</t>
+  </si>
+  <si>
+    <t>ALINNE</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>004267044</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>004388077</t>
+  </si>
+  <si>
+    <t>WLADMIR</t>
+  </si>
+  <si>
+    <t>004452507</t>
+  </si>
+  <si>
+    <t>005046919</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>004973881</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>004643880</t>
+  </si>
+  <si>
+    <t>004243043</t>
+  </si>
+  <si>
+    <t>SUELI</t>
+  </si>
+  <si>
+    <t>001294033</t>
+  </si>
+  <si>
+    <t>VIVIANE</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>004455356</t>
+  </si>
+  <si>
+    <t>004877741</t>
+  </si>
+  <si>
+    <t>005022526</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>004290978</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>004497825</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004259659</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004752494</t>
+  </si>
+  <si>
+    <t>004749928</t>
+  </si>
+  <si>
+    <t>004508159</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>004752519</t>
+  </si>
+  <si>
+    <t>005140667</t>
+  </si>
+  <si>
+    <t>004215217</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>004426743</t>
+  </si>
+  <si>
+    <t>GABRIELLE</t>
+  </si>
+  <si>
+    <t>004369172</t>
+  </si>
+  <si>
+    <t>LUIZA</t>
+  </si>
+  <si>
+    <t>005133039</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>003497496</t>
+  </si>
+  <si>
+    <t>ELISANDRA</t>
+  </si>
+  <si>
+    <t>004479734</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>005135281</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>005018038</t>
+  </si>
+  <si>
+    <t>004228456</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>004308815</t>
+  </si>
+  <si>
+    <t>ZELI</t>
+  </si>
+  <si>
+    <t>003836362</t>
+  </si>
+  <si>
+    <t>004809902</t>
+  </si>
+  <si>
+    <t>004470679</t>
+  </si>
+  <si>
+    <t>004504449</t>
+  </si>
+  <si>
+    <t>KELMA</t>
+  </si>
+  <si>
+    <t>004756968</t>
+  </si>
+  <si>
+    <t>DANIELY</t>
+  </si>
+  <si>
+    <t>004693308</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>004207278</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>004638738</t>
+  </si>
+  <si>
+    <t>004274441</t>
+  </si>
+  <si>
+    <t>VICTORIA</t>
+  </si>
+  <si>
+    <t>004340984</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>000431814</t>
+  </si>
+  <si>
+    <t>004563252</t>
+  </si>
+  <si>
+    <t>004517506</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>004752615</t>
+  </si>
+  <si>
+    <t>LUZIMAR</t>
+  </si>
+  <si>
+    <t>004581652</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>004473942</t>
+  </si>
+  <si>
+    <t>DAIANNE</t>
+  </si>
+  <si>
+    <t>004895776</t>
+  </si>
+  <si>
+    <t>004958578</t>
+  </si>
+  <si>
+    <t>004477812</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>005122672</t>
+  </si>
+  <si>
+    <t>004192775</t>
+  </si>
+  <si>
+    <t>004380948</t>
+  </si>
+  <si>
+    <t>LUISA</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>005186167</t>
+  </si>
+  <si>
+    <t>003115072</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>004536602</t>
+  </si>
+  <si>
+    <t>TATIANY</t>
+  </si>
+  <si>
+    <t>004264780</t>
+  </si>
+  <si>
+    <t>005070742</t>
+  </si>
+  <si>
+    <t>JUSCELINO</t>
+  </si>
+  <si>
+    <t>000989247</t>
+  </si>
+  <si>
+    <t>005110867</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>005075382</t>
+  </si>
+  <si>
+    <t>NAYARA</t>
+  </si>
+  <si>
+    <t>004335251</t>
+  </si>
+  <si>
+    <t>005171652</t>
+  </si>
+  <si>
+    <t>004371857</t>
+  </si>
+  <si>
+    <t>NAZARETH</t>
+  </si>
+  <si>
+    <t>004321092</t>
+  </si>
+  <si>
+    <t>004318604</t>
+  </si>
+  <si>
+    <t>004214460</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>004850070</t>
+  </si>
+  <si>
     <t>004223226</t>
   </si>
   <si>
     <t>YESHUA</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004482262</t>
-  </si>
-  <si>
-    <t>RITA</t>
-  </si>
-  <si>
-    <t>004460487</t>
-  </si>
-  <si>
-    <t>004563237</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>004827315</t>
-  </si>
-  <si>
-    <t>GILTON</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>004276856</t>
-  </si>
-  <si>
-    <t>DAURA</t>
-  </si>
-  <si>
-    <t>004693349</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004482090</t>
-  </si>
-  <si>
-    <t>CEZAR</t>
-  </si>
-  <si>
-    <t>003921139</t>
-  </si>
-  <si>
-    <t>GEISA</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>003435941</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>004866753</t>
-  </si>
-  <si>
-    <t>GENESI</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>004853111</t>
-  </si>
-  <si>
-    <t>MARCONDES</t>
-  </si>
-  <si>
-    <t>004756981</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>004567880</t>
-  </si>
-  <si>
-    <t>LUANA</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004945161</t>
-  </si>
-  <si>
-    <t>004870976</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>004999410</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>004550605</t>
-  </si>
-  <si>
-    <t>REJANE</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004479287</t>
-  </si>
-  <si>
-    <t>004491730</t>
-  </si>
-  <si>
-    <t>DENISE</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>004259649</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>001000882</t>
-  </si>
-  <si>
-    <t>AYRTON</t>
-  </si>
-  <si>
-    <t>004556150</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004805273</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004550750</t>
-  </si>
-  <si>
-    <t>THEO</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>004575621</t>
-  </si>
-  <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
-    <t>005147664</t>
-  </si>
-  <si>
-    <t>SAVIO</t>
-  </si>
-  <si>
-    <t>005231126</t>
-  </si>
-  <si>
-    <t>WASHINGTON</t>
-  </si>
-  <si>
-    <t>002823185</t>
-  </si>
-  <si>
-    <t>004461526</t>
-  </si>
-  <si>
-    <t>ASSISTIGAS</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004520100</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>004806286</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004463586</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>004552944</t>
-  </si>
-  <si>
-    <t>YURI</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>005105970</t>
-  </si>
-  <si>
-    <t>005141215</t>
-  </si>
-  <si>
-    <t>KARINA</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>005073033</t>
-  </si>
-  <si>
-    <t>NILBORN</t>
-  </si>
-  <si>
-    <t>004924222</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>004431591</t>
-  </si>
-  <si>
-    <t>004211807</t>
-  </si>
-  <si>
-    <t>EDINARDO</t>
-  </si>
-  <si>
-    <t>004466221</t>
-  </si>
-  <si>
-    <t>004575632</t>
-  </si>
-  <si>
-    <t>ADELE</t>
-  </si>
-  <si>
-    <t>004967702</t>
-  </si>
-  <si>
-    <t>VINICIUS</t>
-  </si>
-  <si>
-    <t>004207658</t>
-  </si>
-  <si>
-    <t>ROBERTO</t>
-  </si>
-  <si>
-    <t>005142624</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004398253</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>004462930</t>
-  </si>
-  <si>
-    <t>004212409</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>004436055</t>
-  </si>
-  <si>
-    <t>000827730</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004259650</t>
-  </si>
-  <si>
-    <t>004202332</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>004971783</t>
-  </si>
-  <si>
-    <t>ERIKA</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004550415</t>
-  </si>
-  <si>
-    <t>DIOGO</t>
-  </si>
-  <si>
-    <t>004425965</t>
-  </si>
-  <si>
-    <t>CAROLLINA</t>
-  </si>
-  <si>
-    <t>004403674</t>
-  </si>
-  <si>
-    <t>LILIAN</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
-    <t>005040864</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>004289402</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>004425261</t>
-  </si>
-  <si>
-    <t>THAYSA</t>
-  </si>
-  <si>
-    <t>004465263</t>
-  </si>
-  <si>
-    <t>CLAUDIO</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>004475395</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>005142661</t>
-  </si>
-  <si>
-    <t>SABRINA</t>
-  </si>
-  <si>
-    <t>004421636</t>
-  </si>
-  <si>
-    <t>004467884</t>
-  </si>
-  <si>
-    <t>004886366</t>
-  </si>
-  <si>
-    <t>005165116</t>
-  </si>
-  <si>
-    <t>004267119</t>
-  </si>
-  <si>
-    <t>004335031</t>
-  </si>
-  <si>
-    <t>004511696</t>
-  </si>
-  <si>
-    <t>KRYSCIA</t>
-  </si>
-  <si>
-    <t>004224815</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004981655</t>
-  </si>
-  <si>
-    <t>WILLIAM</t>
-  </si>
-  <si>
-    <t>002786022</t>
-  </si>
-  <si>
-    <t>004936634</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>004920447</t>
-  </si>
-  <si>
-    <t>MARILIA</t>
-  </si>
-  <si>
-    <t>005076418</t>
-  </si>
-  <si>
-    <t>001879977</t>
-  </si>
-  <si>
-    <t>THAISSA</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004334158</t>
-  </si>
-  <si>
-    <t>LEONE</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>001922009</t>
-  </si>
-  <si>
-    <t>SOFIA</t>
-  </si>
-  <si>
-    <t>004471893</t>
-  </si>
-  <si>
-    <t>PAULA</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>004382902</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004467016</t>
-  </si>
-  <si>
-    <t>ISABEL</t>
-  </si>
-  <si>
-    <t>004480970</t>
-  </si>
-  <si>
-    <t>005055226</t>
-  </si>
-  <si>
-    <t>004486497</t>
-  </si>
-  <si>
-    <t>ELENA</t>
-  </si>
-  <si>
-    <t>004479965</t>
-  </si>
-  <si>
-    <t>005024046</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>005169333</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004587511</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>004238164</t>
-  </si>
-  <si>
-    <t>004974089</t>
-  </si>
-  <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>004498637</t>
-  </si>
-  <si>
-    <t>004547722</t>
-  </si>
-  <si>
-    <t>004458604</t>
-  </si>
-  <si>
-    <t>FABIOLA</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004230529</t>
-  </si>
-  <si>
-    <t>LAIS</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>004848279</t>
-  </si>
-  <si>
-    <t>005000656</t>
-  </si>
-  <si>
-    <t>000834301</t>
-  </si>
-  <si>
-    <t>004643153</t>
-  </si>
-  <si>
-    <t>004313254</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>005173958</t>
-  </si>
-  <si>
-    <t>004444164</t>
-  </si>
-  <si>
-    <t>005079458</t>
-  </si>
-  <si>
-    <t>JONAS</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>004278033</t>
-  </si>
-  <si>
-    <t>DAISY</t>
-  </si>
-  <si>
-    <t>004508504</t>
-  </si>
-  <si>
-    <t>004508516</t>
-  </si>
-  <si>
-    <t>004500804</t>
-  </si>
-  <si>
-    <t>004397124</t>
-  </si>
-  <si>
-    <t>MURYLO</t>
-  </si>
-  <si>
-    <t>004691225</t>
-  </si>
-  <si>
-    <t>ANNA</t>
-  </si>
-  <si>
-    <t>004517080</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>001719494</t>
-  </si>
-  <si>
-    <t>004377415</t>
-  </si>
-  <si>
-    <t>ANGELA</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>004255049</t>
-  </si>
-  <si>
-    <t>MATHEUS</t>
-  </si>
-  <si>
-    <t>004265173</t>
-  </si>
-  <si>
-    <t>JULIA</t>
-  </si>
-  <si>
-    <t>004242237</t>
-  </si>
-  <si>
-    <t>MARIAH</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>004767746</t>
-  </si>
-  <si>
-    <t>001761119</t>
-  </si>
-  <si>
-    <t>BLUEMETRIX</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>004854496</t>
-  </si>
-  <si>
-    <t>004972070</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>000772433</t>
-  </si>
-  <si>
-    <t>004451725</t>
-  </si>
-  <si>
-    <t>PABLO</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>004381194</t>
-  </si>
-  <si>
-    <t>ALINNE</t>
-  </si>
-  <si>
-    <t>004267044</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>004388077</t>
-  </si>
-  <si>
-    <t>WLADMIR</t>
-  </si>
-  <si>
-    <t>004452507</t>
-  </si>
-  <si>
-    <t>005046919</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>004973881</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>004643880</t>
-  </si>
-  <si>
-    <t>004243043</t>
-  </si>
-  <si>
-    <t>SUELI</t>
-  </si>
-  <si>
-    <t>001294033</t>
-  </si>
-  <si>
-    <t>VIVIANE</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>004877741</t>
-  </si>
-  <si>
-    <t>005022526</t>
-  </si>
-  <si>
-    <t>004207374</t>
-  </si>
-  <si>
-    <t>ANGELICA</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>004290978</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>004497825</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004259659</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004752494</t>
-  </si>
-  <si>
-    <t>004749928</t>
-  </si>
-  <si>
-    <t>004508159</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>004752519</t>
-  </si>
-  <si>
-    <t>005140667</t>
-  </si>
-  <si>
-    <t>004215217</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>004426743</t>
-  </si>
-  <si>
-    <t>GABRIELLE</t>
-  </si>
-  <si>
-    <t>004369172</t>
-  </si>
-  <si>
-    <t>LUIZA</t>
-  </si>
-  <si>
-    <t>005133039</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>003497496</t>
-  </si>
-  <si>
-    <t>ELISANDRA</t>
-  </si>
-  <si>
-    <t>004479734</t>
-  </si>
-  <si>
-    <t>005135281</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>005018038</t>
-  </si>
-  <si>
-    <t>004228456</t>
-  </si>
-  <si>
-    <t>FLASH</t>
-  </si>
-  <si>
-    <t>004308815</t>
-  </si>
-  <si>
-    <t>ZELI</t>
-  </si>
-  <si>
-    <t>003836362</t>
-  </si>
-  <si>
-    <t>004809902</t>
-  </si>
-  <si>
-    <t>004470679</t>
-  </si>
-  <si>
-    <t>004756968</t>
-  </si>
-  <si>
-    <t>DANIELY</t>
-  </si>
-  <si>
-    <t>004504449</t>
-  </si>
-  <si>
-    <t>KELMA</t>
-  </si>
-  <si>
-    <t>004693308</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>004207278</t>
-  </si>
-  <si>
-    <t>004638738</t>
-  </si>
-  <si>
-    <t>004274441</t>
-  </si>
-  <si>
-    <t>VICTORIA</t>
-  </si>
-  <si>
-    <t>005047946</t>
-  </si>
-  <si>
-    <t>004340984</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>000431814</t>
-  </si>
-  <si>
-    <t>004563252</t>
-  </si>
-  <si>
-    <t>004517506</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>004752615</t>
-  </si>
-  <si>
-    <t>LUZIMAR</t>
-  </si>
-  <si>
-    <t>004581652</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>004473942</t>
-  </si>
-  <si>
-    <t>DAIANNE</t>
-  </si>
-  <si>
-    <t>004958578</t>
-  </si>
-  <si>
-    <t>004895776</t>
-  </si>
-  <si>
-    <t>004477812</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>005122672</t>
-  </si>
-  <si>
-    <t>004192775</t>
-  </si>
-  <si>
-    <t>004380948</t>
-  </si>
-  <si>
-    <t>LUISA</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>005186167</t>
-  </si>
-  <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>004536602</t>
-  </si>
-  <si>
-    <t>TATIANY</t>
-  </si>
-  <si>
-    <t>004264780</t>
-  </si>
-  <si>
-    <t>005070742</t>
-  </si>
-  <si>
-    <t>JUSCELINO</t>
-  </si>
-  <si>
-    <t>000989247</t>
-  </si>
-  <si>
-    <t>005110867</t>
-  </si>
-  <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>005075382</t>
-  </si>
-  <si>
-    <t>NAYARA</t>
-  </si>
-  <si>
-    <t>004335251</t>
-  </si>
-  <si>
-    <t>005171652</t>
-  </si>
-  <si>
-    <t>004371857</t>
-  </si>
-  <si>
-    <t>NAZARETH</t>
-  </si>
-  <si>
-    <t>004321092</t>
-  </si>
-  <si>
-    <t>004318604</t>
-  </si>
-  <si>
-    <t>004214460</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>004850070</t>
   </si>
   <si>
     <t>005203501</t>
@@ -2838,10 +2844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C520"/>
+  <dimension ref="A1:C521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2865,7 +2871,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>16355028.980000004</v>
+        <v>16357499.910000004</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2876,7 +2882,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>8216364.8699999982</v>
+        <v>8222481.1100000003</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2887,7 +2893,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7293886.1799999997</v>
+        <v>7295934.169999999</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2898,7 +2904,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6187198.6100000013</v>
+        <v>6184466.4900000002</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2909,7 +2915,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>5760230.2799999993</v>
+        <v>5762407.25</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2920,7 +2926,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>4604275.0799999982</v>
+        <v>4607431.09</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2931,7 +2937,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>4315735.03</v>
+        <v>4319639.7300000004</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2942,7 +2948,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>4251891.4100000011</v>
+        <v>4241330.3900000006</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2953,7 +2959,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>4225752.49</v>
+        <v>4226683.7299999995</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2964,7 +2970,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>4218071.82</v>
+        <v>4220265.5599999996</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2975,7 +2981,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>3963982.4899999998</v>
+        <v>3965767.3499999996</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2986,7 +2992,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>3740730.0399999996</v>
+        <v>3743397.1499999994</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2997,7 +3003,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>3736683.5500000007</v>
+        <v>3738703.6400000006</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3008,7 +3014,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>3578698.34</v>
+        <v>3579235.8</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3019,7 +3025,7 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>3401581.5499999993</v>
+        <v>3399972.41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3030,7 +3036,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>3299690.9599999995</v>
+        <v>3301190.1099999994</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3041,7 +3047,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>3186735.8599999994</v>
+        <v>3188146.2599999993</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3052,7 +3058,7 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3095021.54</v>
+        <v>3096399.0300000003</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3063,7 +3069,7 @@
         <v>39</v>
       </c>
       <c r="C20">
-        <v>3029713.9399999995</v>
+        <v>3031250.61</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3074,7 +3080,7 @@
         <v>41</v>
       </c>
       <c r="C21">
-        <v>2949882.3100000005</v>
+        <v>2948279.5300000003</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3085,7 +3091,7 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>2809019.8699999996</v>
+        <v>2819301.7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3096,7 +3102,7 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>2795997.9800000004</v>
+        <v>2810104.9099999992</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3107,7 +3113,7 @@
         <v>47</v>
       </c>
       <c r="C24">
-        <v>2734806.63</v>
+        <v>2735817.3100000005</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3118,7 +3124,7 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>2686610.2300000004</v>
+        <v>2688004.36</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3129,7 +3135,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <v>2544472.59</v>
+        <v>2543739.7000000002</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3140,7 +3146,7 @@
         <v>53</v>
       </c>
       <c r="C27">
-        <v>2384325.8400000008</v>
+        <v>2381724.46</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3151,7 +3157,7 @@
         <v>55</v>
       </c>
       <c r="C28">
-        <v>2292253.7299999995</v>
+        <v>2293297.89</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3162,7 +3168,7 @@
         <v>57</v>
       </c>
       <c r="C29">
-        <v>2208566.96</v>
+        <v>2209456.7399999998</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3173,7 +3179,7 @@
         <v>59</v>
       </c>
       <c r="C30">
-        <v>2207284.38</v>
+        <v>2208269.6</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3184,7 +3190,7 @@
         <v>61</v>
       </c>
       <c r="C31">
-        <v>2104728.58</v>
+        <v>2101251.5300000003</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3195,7 +3201,7 @@
         <v>63</v>
       </c>
       <c r="C32">
-        <v>2049196.2000000002</v>
+        <v>2050752.3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3206,7 +3212,7 @@
         <v>39</v>
       </c>
       <c r="C33">
-        <v>2042647.7500000002</v>
+        <v>2043839.6999999997</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3217,7 +3223,7 @@
         <v>66</v>
       </c>
       <c r="C34">
-        <v>1965418.9599999997</v>
+        <v>1963334.31</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3228,7 +3234,7 @@
         <v>68</v>
       </c>
       <c r="C35">
-        <v>1949939.83</v>
+        <v>1949746.1500000001</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3239,7 +3245,7 @@
         <v>70</v>
       </c>
       <c r="C36">
-        <v>1862280.4999999993</v>
+        <v>1861769.0699999998</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3250,7 +3256,7 @@
         <v>22</v>
       </c>
       <c r="C37">
-        <v>1847179.54</v>
+        <v>1846320.47</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3261,7 +3267,7 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>1823629.02</v>
+        <v>1824445.7100000002</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3272,7 +3278,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>1818871.9699999995</v>
+        <v>1820355.8900000001</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3283,7 +3289,7 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>1805041.9899999995</v>
+        <v>1805835.66</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3294,7 +3300,7 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <v>1767709.4199999997</v>
+        <v>1768622.38</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3305,7 +3311,7 @@
         <v>81</v>
       </c>
       <c r="C42">
-        <v>1605208.7799999998</v>
+        <v>1605237.5699999998</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3316,7 +3322,7 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>1585184.82</v>
+        <v>1585898.51</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3327,7 +3333,7 @@
         <v>85</v>
       </c>
       <c r="C44">
-        <v>1520789.61</v>
+        <v>1522230.6799999995</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3338,7 +3344,7 @@
         <v>79</v>
       </c>
       <c r="C45">
-        <v>1479630.7999999998</v>
+        <v>1480273.24</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3349,7 +3355,7 @@
         <v>88</v>
       </c>
       <c r="C46">
-        <v>1438255.33</v>
+        <v>1438352.8800000001</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3360,7 +3366,7 @@
         <v>90</v>
       </c>
       <c r="C47">
-        <v>1403077.2</v>
+        <v>1402418.68</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3371,7 +3377,7 @@
         <v>92</v>
       </c>
       <c r="C48">
-        <v>1384107.4899999995</v>
+        <v>1384681.67</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3382,7 +3388,7 @@
         <v>94</v>
       </c>
       <c r="C49">
-        <v>1367033.4599999997</v>
+        <v>1367400.12</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3393,7 +3399,7 @@
         <v>96</v>
       </c>
       <c r="C50">
-        <v>1363097.83</v>
+        <v>1363694.8900000001</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3404,7 +3410,7 @@
         <v>98</v>
       </c>
       <c r="C51">
-        <v>1344308.5499999996</v>
+        <v>1341094.3199999998</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3415,7 +3421,7 @@
         <v>100</v>
       </c>
       <c r="C52">
-        <v>1335649.3499999999</v>
+        <v>1336312.69</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3426,7 +3432,7 @@
         <v>88</v>
       </c>
       <c r="C53">
-        <v>1284794.44</v>
+        <v>1284598.7700000003</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3437,7 +3443,7 @@
         <v>103</v>
       </c>
       <c r="C54">
-        <v>1277835.8499999999</v>
+        <v>1278356.78</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3448,7 +3454,7 @@
         <v>105</v>
       </c>
       <c r="C55">
-        <v>1269103.5900000003</v>
+        <v>1269809.45</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3459,7 +3465,7 @@
         <v>22</v>
       </c>
       <c r="C56">
-        <v>1265190.01</v>
+        <v>1265962.6399999999</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3470,7 +3476,7 @@
         <v>22</v>
       </c>
       <c r="C57">
-        <v>1252610.3500000001</v>
+        <v>1252478.93</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3481,7 +3487,7 @@
         <v>109</v>
       </c>
       <c r="C58">
-        <v>1234055.0299999998</v>
+        <v>1234625.05</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3492,7 +3498,7 @@
         <v>111</v>
       </c>
       <c r="C59">
-        <v>1218060.9099999999</v>
+        <v>1219067.8599999999</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3503,7 +3509,7 @@
         <v>49</v>
       </c>
       <c r="C60">
-        <v>1217718.17</v>
+        <v>1218274.32</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3514,7 +3520,7 @@
         <v>114</v>
       </c>
       <c r="C61">
-        <v>1211524.49</v>
+        <v>1210027.23</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3525,7 +3531,7 @@
         <v>116</v>
       </c>
       <c r="C62">
-        <v>1180557.2</v>
+        <v>1181389.5299999998</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3536,7 +3542,7 @@
         <v>118</v>
       </c>
       <c r="C63">
-        <v>1164810.05</v>
+        <v>1159562.8299999998</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3547,7 +3553,7 @@
         <v>120</v>
       </c>
       <c r="C64">
-        <v>1159003.2</v>
+        <v>1157440.5200000003</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3558,7 +3564,7 @@
         <v>122</v>
       </c>
       <c r="C65">
-        <v>1132367.5000000002</v>
+        <v>1132947.5100000002</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3569,7 +3575,7 @@
         <v>124</v>
       </c>
       <c r="C66">
-        <v>1096407.5899999999</v>
+        <v>1096273.6800000002</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3580,7 +3586,7 @@
         <v>126</v>
       </c>
       <c r="C67">
-        <v>1074479.51</v>
+        <v>1074873.1499999999</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3591,7 +3597,7 @@
         <v>61</v>
       </c>
       <c r="C68">
-        <v>1070887.25</v>
+        <v>1068101.6400000001</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3602,7 +3608,7 @@
         <v>129</v>
       </c>
       <c r="C69">
-        <v>1059237.54</v>
+        <v>1058638.3500000001</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3613,7 +3619,7 @@
         <v>131</v>
       </c>
       <c r="C70">
-        <v>1050601.8699999999</v>
+        <v>1051061.51</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3624,7 +3630,7 @@
         <v>133</v>
       </c>
       <c r="C71">
-        <v>1047743.0300000001</v>
+        <v>1048204.63</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3635,7 +3641,7 @@
         <v>135</v>
       </c>
       <c r="C72">
-        <v>1036136.0599999999</v>
+        <v>1036646.5100000002</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3646,7 +3652,7 @@
         <v>137</v>
       </c>
       <c r="C73">
-        <v>1035863.1400000001</v>
+        <v>1036308.46</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3657,7 +3663,7 @@
         <v>41</v>
       </c>
       <c r="C74">
-        <v>1029627.0499999999</v>
+        <v>1030039.46</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3668,7 +3674,7 @@
         <v>81</v>
       </c>
       <c r="C75">
-        <v>1028623.3899999999</v>
+        <v>1029076.51</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3679,7 +3685,7 @@
         <v>141</v>
       </c>
       <c r="C76">
-        <v>1000899.8299999998</v>
+        <v>1000566.8200000001</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3690,7 +3696,7 @@
         <v>4</v>
       </c>
       <c r="C77">
-        <v>991883.45000000019</v>
+        <v>992345.76000000013</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3701,7 +3707,7 @@
         <v>39</v>
       </c>
       <c r="C78">
-        <v>975374.53999999992</v>
+        <v>973400.92999999993</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3712,7 +3718,7 @@
         <v>145</v>
       </c>
       <c r="C79">
-        <v>972927.9800000001</v>
+        <v>973373.29000000015</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3723,7 +3729,7 @@
         <v>147</v>
       </c>
       <c r="C80">
-        <v>964532.62999999977</v>
+        <v>964957.10000000009</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3734,7 +3740,7 @@
         <v>149</v>
       </c>
       <c r="C81">
-        <v>963586.78999999992</v>
+        <v>962705.32000000007</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3745,7 +3751,7 @@
         <v>151</v>
       </c>
       <c r="C82">
-        <v>936750.8400000002</v>
+        <v>937132.5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3756,7 +3762,7 @@
         <v>153</v>
       </c>
       <c r="C83">
-        <v>898124.82000000007</v>
+        <v>898381.13</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3767,7 +3773,7 @@
         <v>155</v>
       </c>
       <c r="C84">
-        <v>894800.47999999975</v>
+        <v>893987.6</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3778,7 +3784,7 @@
         <v>157</v>
       </c>
       <c r="C85">
-        <v>889108.3</v>
+        <v>886921.84</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3789,7 +3795,7 @@
         <v>159</v>
       </c>
       <c r="C86">
-        <v>881022.1100000001</v>
+        <v>881292.52</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3800,7 +3806,7 @@
         <v>161</v>
       </c>
       <c r="C87">
-        <v>871814.58000000007</v>
+        <v>872398.70000000007</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3811,7 +3817,7 @@
         <v>163</v>
       </c>
       <c r="C88">
-        <v>869550.26000000013</v>
+        <v>869915.66</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3822,7 +3828,7 @@
         <v>165</v>
       </c>
       <c r="C89">
-        <v>860267.94000000006</v>
+        <v>860728.78</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3833,7 +3839,7 @@
         <v>73</v>
       </c>
       <c r="C90">
-        <v>852417.43</v>
+        <v>852476.32000000007</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3844,7 +3850,7 @@
         <v>168</v>
       </c>
       <c r="C91">
-        <v>848086.27</v>
+        <v>848673.2</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3855,7 +3861,7 @@
         <v>170</v>
       </c>
       <c r="C92">
-        <v>825928.5199999999</v>
+        <v>823270.97</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3866,7 +3872,7 @@
         <v>172</v>
       </c>
       <c r="C93">
-        <v>821672.79000000027</v>
+        <v>821810.79</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3877,7 +3883,7 @@
         <v>49</v>
       </c>
       <c r="C94">
-        <v>818357.98</v>
+        <v>818362.60000000009</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3888,7 +3894,7 @@
         <v>26</v>
       </c>
       <c r="C95">
-        <v>810362.96000000008</v>
+        <v>810925.77999999991</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3899,7 +3905,7 @@
         <v>176</v>
       </c>
       <c r="C96">
-        <v>804860.04999999981</v>
+        <v>805097.50000000012</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3910,7 +3916,7 @@
         <v>178</v>
       </c>
       <c r="C97">
-        <v>804327.2300000001</v>
+        <v>804823.94000000006</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3921,7 +3927,7 @@
         <v>49</v>
       </c>
       <c r="C98">
-        <v>788790.64</v>
+        <v>789450.37999999989</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3929,10 +3935,10 @@
         <v>180</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C99">
-        <v>787296.29000000015</v>
+        <v>787312.33000000007</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3940,10 +3946,10 @@
         <v>181</v>
       </c>
       <c r="B100" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="C100">
-        <v>786960.98</v>
+        <v>782490.74999999988</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3954,7 +3960,7 @@
         <v>183</v>
       </c>
       <c r="C101">
-        <v>768320.95</v>
+        <v>767271.73</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3965,7 +3971,7 @@
         <v>185</v>
       </c>
       <c r="C102">
-        <v>763397.59000000008</v>
+        <v>763753.79</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3976,7 +3982,7 @@
         <v>187</v>
       </c>
       <c r="C103">
-        <v>758902.65000000014</v>
+        <v>759309.15</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3987,7 +3993,7 @@
         <v>189</v>
       </c>
       <c r="C104">
-        <v>751250.8400000002</v>
+        <v>750451.54</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3998,7 +4004,7 @@
         <v>116</v>
       </c>
       <c r="C105">
-        <v>745201.82000000007</v>
+        <v>744294.70000000007</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4009,7 +4015,7 @@
         <v>192</v>
       </c>
       <c r="C106">
-        <v>722376.03999999992</v>
+        <v>722707.44000000018</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4020,7 +4026,7 @@
         <v>49</v>
       </c>
       <c r="C107">
-        <v>720405.71999999986</v>
+        <v>718705.25</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4031,7 +4037,7 @@
         <v>195</v>
       </c>
       <c r="C108">
-        <v>706769.92000000004</v>
+        <v>706810.54</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4039,21 +4045,21 @@
         <v>196</v>
       </c>
       <c r="B109" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="C109">
-        <v>706626.7</v>
+        <v>705262.34</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>197</v>
+      </c>
+      <c r="B110" t="s">
         <v>198</v>
       </c>
-      <c r="B110" t="s">
-        <v>10</v>
-      </c>
       <c r="C110">
-        <v>704953.1100000001</v>
+        <v>705164.52</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4064,7 +4070,7 @@
         <v>200</v>
       </c>
       <c r="C111">
-        <v>704852.81</v>
+        <v>704350.54</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4075,7 +4081,7 @@
         <v>202</v>
       </c>
       <c r="C112">
-        <v>702257.97</v>
+        <v>702569.16999999993</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4086,7 +4092,7 @@
         <v>63</v>
       </c>
       <c r="C113">
-        <v>697762.14999999991</v>
+        <v>696169.2300000001</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4097,7 +4103,7 @@
         <v>205</v>
       </c>
       <c r="C114">
-        <v>689056.9</v>
+        <v>689354.89000000013</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4108,7 +4114,7 @@
         <v>207</v>
       </c>
       <c r="C115">
-        <v>677069.75</v>
+        <v>678988.61</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4119,7 +4125,7 @@
         <v>209</v>
       </c>
       <c r="C116">
-        <v>668504.8200000003</v>
+        <v>668869.15999999992</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4130,7 +4136,7 @@
         <v>49</v>
       </c>
       <c r="C117">
-        <v>666904.86999999988</v>
+        <v>666831.35</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4141,7 +4147,7 @@
         <v>212</v>
       </c>
       <c r="C118">
-        <v>661644.54999999993</v>
+        <v>659953.86</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4152,7 +4158,7 @@
         <v>51</v>
       </c>
       <c r="C119">
-        <v>658294.33000000007</v>
+        <v>656632.92000000004</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4163,7 +4169,7 @@
         <v>215</v>
       </c>
       <c r="C120">
-        <v>646952.54999999993</v>
+        <v>646965.86</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4174,7 +4180,7 @@
         <v>39</v>
       </c>
       <c r="C121">
-        <v>646711.09</v>
+        <v>645960.88</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4182,10 +4188,10 @@
         <v>217</v>
       </c>
       <c r="B122" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C122">
-        <v>645063.53</v>
+        <v>644946.47999999986</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4193,10 +4199,10 @@
         <v>218</v>
       </c>
       <c r="B123" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C123">
-        <v>644854.36</v>
+        <v>641346.34999999986</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4207,7 +4213,7 @@
         <v>220</v>
       </c>
       <c r="C124">
-        <v>631690.84999999986</v>
+        <v>631968.53</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4218,7 +4224,7 @@
         <v>222</v>
       </c>
       <c r="C125">
-        <v>623561.30000000005</v>
+        <v>623842.12</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4229,7 +4235,7 @@
         <v>53</v>
       </c>
       <c r="C126">
-        <v>617254.76</v>
+        <v>616460.03999999992</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4240,7 +4246,7 @@
         <v>225</v>
       </c>
       <c r="C127">
-        <v>615643.66</v>
+        <v>616267.33000000007</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4251,7 +4257,7 @@
         <v>227</v>
       </c>
       <c r="C128">
-        <v>613945.25</v>
+        <v>613390.75999999989</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4262,7 +4268,7 @@
         <v>33</v>
       </c>
       <c r="C129">
-        <v>613022.5199999999</v>
+        <v>609333.77</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4273,7 +4279,7 @@
         <v>230</v>
       </c>
       <c r="C130">
-        <v>603377.92999999993</v>
+        <v>604061.02</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4284,7 +4290,7 @@
         <v>232</v>
       </c>
       <c r="C131">
-        <v>601341.98</v>
+        <v>599649.40999999992</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4295,7 +4301,7 @@
         <v>192</v>
       </c>
       <c r="C132">
-        <v>600874.96</v>
+        <v>597415.48000000021</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4306,7 +4312,7 @@
         <v>53</v>
       </c>
       <c r="C133">
-        <v>592444.8600000001</v>
+        <v>592944.00000000012</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4317,7 +4323,7 @@
         <v>236</v>
       </c>
       <c r="C134">
-        <v>589995</v>
+        <v>589368.85</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4328,7 +4334,7 @@
         <v>238</v>
       </c>
       <c r="C135">
-        <v>576861.38</v>
+        <v>577127.04000000015</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4339,7 +4345,7 @@
         <v>240</v>
       </c>
       <c r="C136">
-        <v>574523.19999999995</v>
+        <v>574473.34000000008</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4350,7 +4356,7 @@
         <v>242</v>
       </c>
       <c r="C137">
-        <v>573229.25</v>
+        <v>571701.13</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4361,7 +4367,7 @@
         <v>39</v>
       </c>
       <c r="C138">
-        <v>570966.73</v>
+        <v>571225.03</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4372,7 +4378,7 @@
         <v>245</v>
       </c>
       <c r="C139">
-        <v>567686.11</v>
+        <v>568067.5199999999</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4383,7 +4389,7 @@
         <v>247</v>
       </c>
       <c r="C140">
-        <v>558541.07999999996</v>
+        <v>558804.02</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4394,7 +4400,7 @@
         <v>249</v>
       </c>
       <c r="C141">
-        <v>555473.78</v>
+        <v>557407.67999999993</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4405,7 +4411,7 @@
         <v>251</v>
       </c>
       <c r="C142">
-        <v>549449.91</v>
+        <v>549694.19999999995</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4416,7 +4422,7 @@
         <v>253</v>
       </c>
       <c r="C143">
-        <v>549439.40999999992</v>
+        <v>549530.56000000006</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4427,7 +4433,7 @@
         <v>255</v>
       </c>
       <c r="C144">
-        <v>542325.4</v>
+        <v>542571.65</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4438,7 +4444,7 @@
         <v>257</v>
       </c>
       <c r="C145">
-        <v>537841.31999999995</v>
+        <v>538089.38</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4449,7 +4455,7 @@
         <v>259</v>
       </c>
       <c r="C146">
-        <v>536513.74</v>
+        <v>536357.27</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4460,7 +4466,7 @@
         <v>215</v>
       </c>
       <c r="C147">
-        <v>532028.94000000006</v>
+        <v>532267.97000000009</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4471,7 +4477,7 @@
         <v>262</v>
       </c>
       <c r="C148">
-        <v>518982.73</v>
+        <v>519344.2300000001</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4482,7 +4488,7 @@
         <v>264</v>
       </c>
       <c r="C149">
-        <v>512934.99</v>
+        <v>512762.07000000012</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4493,7 +4499,7 @@
         <v>266</v>
       </c>
       <c r="C150">
-        <v>510599.55000000005</v>
+        <v>510853.56</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4504,7 +4510,7 @@
         <v>268</v>
       </c>
       <c r="C151">
-        <v>507899.39999999991</v>
+        <v>507235.34000000008</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4515,7 +4521,7 @@
         <v>270</v>
       </c>
       <c r="C152">
-        <v>506041.85</v>
+        <v>505352.78</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4526,7 +4532,7 @@
         <v>272</v>
       </c>
       <c r="C153">
-        <v>503265.27999999997</v>
+        <v>503489.35</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4537,7 +4543,7 @@
         <v>274</v>
       </c>
       <c r="C154">
-        <v>488781.13</v>
+        <v>488724.07</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4548,7 +4554,7 @@
         <v>276</v>
       </c>
       <c r="C155">
-        <v>486693.89</v>
+        <v>486895.72000000003</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4556,21 +4562,21 @@
         <v>277</v>
       </c>
       <c r="B156" t="s">
-        <v>278</v>
+        <v>41</v>
       </c>
       <c r="C156">
-        <v>483301.55</v>
+        <v>481309.71</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
+        <v>278</v>
+      </c>
+      <c r="B157" t="s">
         <v>279</v>
       </c>
-      <c r="B157" t="s">
-        <v>41</v>
-      </c>
       <c r="C157">
-        <v>481085.42</v>
+        <v>480391.13</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4581,7 +4587,7 @@
         <v>281</v>
       </c>
       <c r="C158">
-        <v>466350.61999999994</v>
+        <v>466744.9</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4592,7 +4598,7 @@
         <v>283</v>
       </c>
       <c r="C159">
-        <v>457935.93000000005</v>
+        <v>458149.94000000006</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4603,7 +4609,7 @@
         <v>285</v>
       </c>
       <c r="C160">
-        <v>457889.84999999986</v>
+        <v>456921.93</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4614,7 +4620,7 @@
         <v>287</v>
       </c>
       <c r="C161">
-        <v>456319.61999999994</v>
+        <v>456588.35</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4622,32 +4628,32 @@
         <v>288</v>
       </c>
       <c r="B162" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="C162">
-        <v>453932.65000000014</v>
+        <v>455081.12</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B163" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="C163">
-        <v>446783.32</v>
+        <v>451149.66999999993</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B164" t="s">
-        <v>291</v>
+        <v>126</v>
       </c>
       <c r="C164">
-        <v>436643.23</v>
+        <v>446984.09</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4655,43 +4661,43 @@
         <v>292</v>
       </c>
       <c r="B165" t="s">
-        <v>63</v>
+        <v>293</v>
       </c>
       <c r="C165">
-        <v>428820.82999999996</v>
+        <v>435529.14</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C166">
-        <v>427574.11</v>
+        <v>429015.54</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B167" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="C167">
-        <v>423847.39</v>
+        <v>427762.45</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B168" t="s">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="C168">
-        <v>421366.42</v>
+        <v>424019.94</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4699,21 +4705,21 @@
         <v>297</v>
       </c>
       <c r="B169" t="s">
-        <v>195</v>
+        <v>298</v>
       </c>
       <c r="C169">
-        <v>421132.20000000007</v>
+        <v>421556.19</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B170" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="C170">
-        <v>421013.94999999995</v>
+        <v>421070.6</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4721,54 +4727,54 @@
         <v>300</v>
       </c>
       <c r="B171" t="s">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="C171">
-        <v>419381.14</v>
+        <v>420573.12</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B172" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C172">
-        <v>418755.22999999992</v>
+        <v>418943.18999999994</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B173" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C173">
-        <v>417610.20999999996</v>
+        <v>417181.49000000005</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B174" t="s">
         <v>22</v>
       </c>
       <c r="C174">
-        <v>415675.38</v>
+        <v>417118.81</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B175" t="s">
-        <v>306</v>
+        <v>126</v>
       </c>
       <c r="C175">
-        <v>414140.64000000013</v>
+        <v>416721.72</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4779,7 +4785,7 @@
         <v>308</v>
       </c>
       <c r="C176">
-        <v>414118.22</v>
+        <v>414324.55</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4787,21 +4793,21 @@
         <v>309</v>
       </c>
       <c r="B177" t="s">
-        <v>49</v>
+        <v>310</v>
       </c>
       <c r="C177">
-        <v>406501.99</v>
+        <v>413973.76000000001</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B178" t="s">
-        <v>311</v>
+        <v>49</v>
       </c>
       <c r="C178">
-        <v>404591.01</v>
+        <v>406677.31</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4812,7 +4818,7 @@
         <v>313</v>
       </c>
       <c r="C179">
-        <v>402478</v>
+        <v>404780.56000000006</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4823,7 +4829,7 @@
         <v>315</v>
       </c>
       <c r="C180">
-        <v>401216.29999999987</v>
+        <v>402368.79000000004</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4834,7 +4840,7 @@
         <v>317</v>
       </c>
       <c r="C181">
-        <v>387726.74999999994</v>
+        <v>401400.35000000003</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4845,7 +4851,7 @@
         <v>319</v>
       </c>
       <c r="C182">
-        <v>387058.29000000004</v>
+        <v>387646.45999999996</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4856,7 +4862,7 @@
         <v>321</v>
       </c>
       <c r="C183">
-        <v>384317.92999999988</v>
+        <v>386529.1</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4867,7 +4873,7 @@
         <v>323</v>
       </c>
       <c r="C184">
-        <v>376577.26</v>
+        <v>384206.78</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4875,21 +4881,21 @@
         <v>324</v>
       </c>
       <c r="B185" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C185">
-        <v>373653.32</v>
+        <v>376095.58999999997</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B186" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C186">
-        <v>371315.74</v>
+        <v>373283.99</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4900,7 +4906,7 @@
         <v>328</v>
       </c>
       <c r="C187">
-        <v>370632.73</v>
+        <v>370767.44</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4911,7 +4917,7 @@
         <v>330</v>
       </c>
       <c r="C188">
-        <v>370441.76999999996</v>
+        <v>369603.55</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4922,7 +4928,7 @@
         <v>332</v>
       </c>
       <c r="C189">
-        <v>369441.1</v>
+        <v>369180.99</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4930,43 +4936,43 @@
         <v>333</v>
       </c>
       <c r="B190" t="s">
-        <v>88</v>
+        <v>334</v>
       </c>
       <c r="C190">
-        <v>369151.29000000004</v>
+        <v>368573.28999999992</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B191" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C191">
-        <v>368535.92</v>
+        <v>368021.42</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B192" t="s">
         <v>262</v>
       </c>
       <c r="C192">
-        <v>367926.43</v>
+        <v>367151.37000000005</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B193" t="s">
-        <v>338</v>
+        <v>88</v>
       </c>
       <c r="C193">
-        <v>366492.58999999997</v>
+        <v>366928.27999999997</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4977,7 +4983,7 @@
         <v>340</v>
       </c>
       <c r="C194">
-        <v>364896.14</v>
+        <v>366653.44000000006</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4988,7 +4994,7 @@
         <v>75</v>
       </c>
       <c r="C195">
-        <v>362322.89999999997</v>
+        <v>362156.94</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4999,7 +5005,7 @@
         <v>343</v>
       </c>
       <c r="C196">
-        <v>361741.41</v>
+        <v>361901.42</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -5010,7 +5016,7 @@
         <v>39</v>
       </c>
       <c r="C197">
-        <v>361664.73000000004</v>
+        <v>361824.70999999996</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -5021,7 +5027,7 @@
         <v>346</v>
       </c>
       <c r="C198">
-        <v>360904.68</v>
+        <v>361222.76</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -5029,10 +5035,10 @@
         <v>347</v>
       </c>
       <c r="B199" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C199">
-        <v>360694.21</v>
+        <v>360851.12</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -5043,7 +5049,7 @@
         <v>349</v>
       </c>
       <c r="C200">
-        <v>359265.13000000018</v>
+        <v>359349.01</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -5054,7 +5060,7 @@
         <v>351</v>
       </c>
       <c r="C201">
-        <v>354518.94</v>
+        <v>354104.21</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -5065,7 +5071,7 @@
         <v>353</v>
       </c>
       <c r="C202">
-        <v>353530.35000000003</v>
+        <v>353880.25999999995</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -5076,7 +5082,7 @@
         <v>355</v>
       </c>
       <c r="C203">
-        <v>350981.96000000008</v>
+        <v>351140.87</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -5084,21 +5090,21 @@
         <v>356</v>
       </c>
       <c r="B204" t="s">
-        <v>249</v>
+        <v>357</v>
       </c>
       <c r="C204">
-        <v>342488.43999999994</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B205" t="s">
-        <v>358</v>
+        <v>249</v>
       </c>
       <c r="C205">
-        <v>342473.81999999995</v>
+        <v>342628.67</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5109,7 +5115,7 @@
         <v>360</v>
       </c>
       <c r="C206">
-        <v>341780.62999999989</v>
+        <v>342474.47000000003</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5120,7 +5126,7 @@
         <v>362</v>
       </c>
       <c r="C207">
-        <v>341297.83</v>
+        <v>341317.47000000003</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -5131,7 +5137,7 @@
         <v>364</v>
       </c>
       <c r="C208">
-        <v>336030.09</v>
+        <v>341221.74000000005</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5142,7 +5148,7 @@
         <v>366</v>
       </c>
       <c r="C209">
-        <v>335850.5</v>
+        <v>336152.46000000008</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5153,7 +5159,7 @@
         <v>368</v>
       </c>
       <c r="C210">
-        <v>333186.85000000009</v>
+        <v>335985.27</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5164,7 +5170,7 @@
         <v>370</v>
       </c>
       <c r="C211">
-        <v>331108.12</v>
+        <v>333330.49</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5175,7 +5181,7 @@
         <v>372</v>
       </c>
       <c r="C212">
-        <v>329393.06999999995</v>
+        <v>331251.86</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5186,7 +5192,7 @@
         <v>374</v>
       </c>
       <c r="C213">
-        <v>325314.24</v>
+        <v>328981.88</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5197,7 +5203,7 @@
         <v>376</v>
       </c>
       <c r="C214">
-        <v>324928.06</v>
+        <v>325447.87</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5208,7 +5214,7 @@
         <v>378</v>
       </c>
       <c r="C215">
-        <v>324535.66000000003</v>
+        <v>325071.85000000003</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5219,7 +5225,7 @@
         <v>380</v>
       </c>
       <c r="C216">
-        <v>321333.05</v>
+        <v>323620.78999999998</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5230,7 +5236,7 @@
         <v>382</v>
       </c>
       <c r="C217">
-        <v>318750.56999999995</v>
+        <v>320886.27999999997</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5238,32 +5244,32 @@
         <v>383</v>
       </c>
       <c r="B218" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="C218">
-        <v>314520.61000000004</v>
+        <v>318893.69</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B219" t="s">
-        <v>103</v>
+        <v>360</v>
       </c>
       <c r="C219">
-        <v>314459.28999999992</v>
+        <v>314653.50999999995</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B220" t="s">
-        <v>386</v>
+        <v>103</v>
       </c>
       <c r="C220">
-        <v>309306.53000000003</v>
+        <v>312553.74999999988</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5271,109 +5277,109 @@
         <v>387</v>
       </c>
       <c r="B221" t="s">
-        <v>88</v>
+        <v>388</v>
       </c>
       <c r="C221">
-        <v>308955.55000000005</v>
+        <v>309443.61</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B222" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C222">
-        <v>308511.29000000004</v>
+        <v>308942.02999999997</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B223" t="s">
-        <v>378</v>
+        <v>49</v>
       </c>
       <c r="C223">
-        <v>308165.90999999997</v>
+        <v>308653.2</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B224" t="s">
-        <v>4</v>
+        <v>380</v>
       </c>
       <c r="C224">
-        <v>301716.21000000002</v>
+        <v>308317.13</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B225" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="C225">
-        <v>297330.18</v>
+        <v>301848.39</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B226" t="s">
-        <v>378</v>
+        <v>68</v>
       </c>
       <c r="C226">
-        <v>295414.49</v>
+        <v>297297.19</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B227" t="s">
-        <v>168</v>
+        <v>380</v>
       </c>
       <c r="C227">
-        <v>293710.06000000006</v>
+        <v>296081.24</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B228" t="s">
-        <v>319</v>
+        <v>168</v>
       </c>
       <c r="C228">
-        <v>292097.11999999994</v>
+        <v>293822.74</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B229" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C229">
-        <v>291412.34000000003</v>
+        <v>291638.36</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B230" t="s">
-        <v>398</v>
+        <v>321</v>
       </c>
       <c r="C230">
-        <v>290512.68</v>
+        <v>291612.17</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5381,54 +5387,54 @@
         <v>399</v>
       </c>
       <c r="B231" t="s">
-        <v>73</v>
+        <v>400</v>
       </c>
       <c r="C231">
-        <v>284359.62</v>
+        <v>290630.2</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B232" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C232">
-        <v>284050.88</v>
+        <v>284253.68</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B233" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C233">
-        <v>282799.09000000008</v>
+        <v>283971.95999999996</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B234" t="s">
-        <v>285</v>
+        <v>53</v>
       </c>
       <c r="C234">
-        <v>281588.79000000004</v>
+        <v>282153.7</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B235" t="s">
-        <v>405</v>
+        <v>289</v>
       </c>
       <c r="C235">
-        <v>274656.59000000003</v>
+        <v>281917.31999999995</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5439,7 +5445,7 @@
         <v>407</v>
       </c>
       <c r="C236">
-        <v>273740.53999999998</v>
+        <v>274321.06000000006</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5450,7 +5456,7 @@
         <v>409</v>
       </c>
       <c r="C237">
-        <v>272600.38999999996</v>
+        <v>273859.09999999998</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5461,7 +5467,7 @@
         <v>411</v>
       </c>
       <c r="C238">
-        <v>270953.31</v>
+        <v>272727.77</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5469,43 +5475,43 @@
         <v>412</v>
       </c>
       <c r="B239" t="s">
-        <v>222</v>
+        <v>413</v>
       </c>
       <c r="C239">
-        <v>266127.13999999996</v>
+        <v>271206.57</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B240" t="s">
-        <v>308</v>
+        <v>415</v>
       </c>
       <c r="C240">
-        <v>266071.02999999997</v>
+        <v>271029.46000000002</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B241" t="s">
-        <v>415</v>
+        <v>310</v>
       </c>
       <c r="C241">
-        <v>263307.29000000004</v>
+        <v>266007.37</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B242" t="s">
-        <v>417</v>
+        <v>222</v>
       </c>
       <c r="C242">
-        <v>263218.59000000003</v>
+        <v>265992.21999999997</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5516,7 +5522,7 @@
         <v>419</v>
       </c>
       <c r="C243">
-        <v>261681.55000000005</v>
+        <v>262959.49</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5527,7 +5533,7 @@
         <v>421</v>
       </c>
       <c r="C244">
-        <v>261434.81000000003</v>
+        <v>262939.74</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5538,7 +5544,7 @@
         <v>423</v>
       </c>
       <c r="C245">
-        <v>261243.16000000006</v>
+        <v>261344.36000000002</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5546,32 +5552,32 @@
         <v>424</v>
       </c>
       <c r="B246" t="s">
-        <v>116</v>
+        <v>425</v>
       </c>
       <c r="C246">
-        <v>255971.58</v>
+        <v>261318.40999999997</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B247" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C247">
-        <v>255596.39999999997</v>
+        <v>261309.10000000003</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B248" t="s">
-        <v>428</v>
+        <v>116</v>
       </c>
       <c r="C248">
-        <v>251922.06000000003</v>
+        <v>256264.78000000003</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5582,7 +5588,7 @@
         <v>430</v>
       </c>
       <c r="C249">
-        <v>250000</v>
+        <v>255288.32000000001</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5590,32 +5596,32 @@
         <v>431</v>
       </c>
       <c r="B250" t="s">
-        <v>151</v>
+        <v>432</v>
       </c>
       <c r="C250">
-        <v>249390.46</v>
+        <v>252035.56</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B251" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C251">
-        <v>246728.22999999998</v>
+        <v>249483.83000000002</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B252" t="s">
-        <v>435</v>
+        <v>151</v>
       </c>
       <c r="C252">
-        <v>244774.15000000002</v>
+        <v>249093.50999999998</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5626,7 +5632,7 @@
         <v>437</v>
       </c>
       <c r="C253">
-        <v>244577.52000000002</v>
+        <v>246905.00999999998</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5637,7 +5643,7 @@
         <v>439</v>
       </c>
       <c r="C254">
-        <v>242535.78999999998</v>
+        <v>244437.12</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5648,7 +5654,7 @@
         <v>441</v>
       </c>
       <c r="C255">
-        <v>242008.05000000002</v>
+        <v>244299.38</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5659,7 +5665,7 @@
         <v>443</v>
       </c>
       <c r="C256">
-        <v>241034.96000000002</v>
+        <v>242645</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5670,7 +5676,7 @@
         <v>445</v>
       </c>
       <c r="C257">
-        <v>240703.11</v>
+        <v>242116.43</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5678,54 +5684,54 @@
         <v>446</v>
       </c>
       <c r="B258" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="C258">
-        <v>238014.06000000003</v>
+        <v>241120.49999999997</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B259" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C259">
-        <v>237130.39000000004</v>
+        <v>240614.64</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B260" t="s">
-        <v>200</v>
+        <v>423</v>
       </c>
       <c r="C260">
-        <v>236906.34</v>
+        <v>237879.98</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B261" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C261">
-        <v>236232.5</v>
+        <v>236803.56999999998</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B262" t="s">
-        <v>453</v>
+        <v>198</v>
       </c>
       <c r="C262">
-        <v>235246.59999999998</v>
+        <v>236634.08</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5736,7 +5742,7 @@
         <v>455</v>
       </c>
       <c r="C263">
-        <v>233265.00000000003</v>
+        <v>236357.69</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5744,32 +5750,32 @@
         <v>456</v>
       </c>
       <c r="B264" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="C264">
-        <v>230730.62</v>
+        <v>234986.54</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B265" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C265">
-        <v>229927.64</v>
+        <v>233159.5</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B266" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="C266">
-        <v>229583.29</v>
+        <v>230646.13</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5780,7 +5786,7 @@
         <v>462</v>
       </c>
       <c r="C267">
-        <v>229533.37</v>
+        <v>230030.49000000002</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5791,7 +5797,7 @@
         <v>464</v>
       </c>
       <c r="C268">
-        <v>219196.45</v>
+        <v>229681.37000000002</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5802,7 +5808,7 @@
         <v>466</v>
       </c>
       <c r="C269">
-        <v>217842.91</v>
+        <v>229434.01</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5810,10 +5816,10 @@
         <v>467</v>
       </c>
       <c r="B270" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C270">
-        <v>216641.42999999996</v>
+        <v>226767.73</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5824,7 +5830,7 @@
         <v>469</v>
       </c>
       <c r="C271">
-        <v>215753.56</v>
+        <v>219294.06000000003</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5832,21 +5838,21 @@
         <v>470</v>
       </c>
       <c r="B272" t="s">
-        <v>287</v>
+        <v>471</v>
       </c>
       <c r="C272">
-        <v>213384.81</v>
+        <v>217957.5</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B273" t="s">
-        <v>472</v>
+        <v>70</v>
       </c>
       <c r="C273">
-        <v>211107.03999999998</v>
+        <v>216802.23</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5857,7 +5863,7 @@
         <v>474</v>
       </c>
       <c r="C274">
-        <v>210276.56999999998</v>
+        <v>215850.84999999998</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5865,21 +5871,21 @@
         <v>475</v>
       </c>
       <c r="B275" t="s">
-        <v>476</v>
+        <v>287</v>
       </c>
       <c r="C275">
-        <v>209620.94</v>
+        <v>213245.79000000004</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
+        <v>476</v>
+      </c>
+      <c r="B276" t="s">
         <v>477</v>
       </c>
-      <c r="B276" t="s">
-        <v>445</v>
-      </c>
       <c r="C276">
-        <v>208857.42</v>
+        <v>210044.38</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5887,54 +5893,54 @@
         <v>478</v>
       </c>
       <c r="B277" t="s">
-        <v>92</v>
+        <v>479</v>
       </c>
       <c r="C277">
-        <v>208790.23</v>
+        <v>209712.85</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B278" t="s">
-        <v>75</v>
+        <v>449</v>
       </c>
       <c r="C278">
-        <v>207246.97999999998</v>
+        <v>208949.78</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B279" t="s">
-        <v>270</v>
+        <v>92</v>
       </c>
       <c r="C279">
-        <v>204921.09999999995</v>
+        <v>207172.35000000006</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B280" t="s">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="C280">
-        <v>204726.97000000003</v>
+        <v>206962.84000000003</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B281" t="s">
-        <v>483</v>
+        <v>270</v>
       </c>
       <c r="C281">
-        <v>203205.58</v>
+        <v>204720.57000000007</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5942,10 +5948,10 @@
         <v>484</v>
       </c>
       <c r="B282" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="C282">
-        <v>202841.84</v>
+        <v>204511.55000000002</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5953,87 +5959,87 @@
         <v>485</v>
       </c>
       <c r="B283" t="s">
-        <v>51</v>
+        <v>486</v>
       </c>
       <c r="C283">
-        <v>199969.27000000002</v>
+        <v>203292.1</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B284" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C284">
-        <v>199748.91999999998</v>
+        <v>201618.94999999998</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B285" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C285">
-        <v>199428.13</v>
+        <v>200913.93</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B286" t="s">
-        <v>53</v>
+        <v>310</v>
       </c>
       <c r="C286">
-        <v>195655.91</v>
+        <v>199707.52000000002</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B287" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C287">
-        <v>194458.34000000003</v>
+        <v>199489.3</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B288" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C288">
-        <v>192789.34</v>
+        <v>199337.29</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B289" t="s">
-        <v>285</v>
+        <v>53</v>
       </c>
       <c r="C289">
-        <v>191622.70999999996</v>
+        <v>195427.18</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B290" t="s">
-        <v>495</v>
+        <v>88</v>
       </c>
       <c r="C290">
-        <v>190795.69999999998</v>
+        <v>193859.04</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -6044,7 +6050,7 @@
         <v>497</v>
       </c>
       <c r="C291">
-        <v>189778.87</v>
+        <v>192871.8</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -6052,10 +6058,10 @@
         <v>498</v>
       </c>
       <c r="B292" t="s">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="C292">
-        <v>186968.84999999998</v>
+        <v>191699.46</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -6063,43 +6069,43 @@
         <v>499</v>
       </c>
       <c r="B293" t="s">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="C293">
-        <v>183961.08000000002</v>
+        <v>190901.39</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B294" t="s">
-        <v>39</v>
+        <v>502</v>
       </c>
       <c r="C294">
-        <v>183733.44000000003</v>
+        <v>189809.31</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B295" t="s">
-        <v>502</v>
+        <v>126</v>
       </c>
       <c r="C295">
-        <v>183212.78999999992</v>
+        <v>183901.27</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B296" t="s">
-        <v>504</v>
+        <v>39</v>
       </c>
       <c r="C296">
-        <v>180224.5</v>
+        <v>183532</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -6110,7 +6116,7 @@
         <v>506</v>
       </c>
       <c r="C297">
-        <v>177163.84</v>
+        <v>183006.11</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -6118,76 +6124,76 @@
         <v>507</v>
       </c>
       <c r="B298" t="s">
-        <v>75</v>
+        <v>508</v>
       </c>
       <c r="C298">
-        <v>174495.62</v>
+        <v>180312.25</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B299" t="s">
-        <v>92</v>
+        <v>510</v>
       </c>
       <c r="C299">
-        <v>172359.44999999998</v>
+        <v>176924.54999999996</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B300" t="s">
-        <v>510</v>
+        <v>75</v>
       </c>
       <c r="C300">
-        <v>169726.63</v>
+        <v>174574.22999999998</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B301" t="s">
-        <v>398</v>
+        <v>92</v>
       </c>
       <c r="C301">
-        <v>169077.67</v>
+        <v>172431.7</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B302" t="s">
-        <v>116</v>
+        <v>514</v>
       </c>
       <c r="C302">
-        <v>165726.53999999998</v>
+        <v>169498.55</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B303" t="s">
-        <v>514</v>
+        <v>400</v>
       </c>
       <c r="C303">
-        <v>164286.79</v>
+        <v>169134.72999999998</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B304" t="s">
-        <v>516</v>
+        <v>116</v>
       </c>
       <c r="C304">
-        <v>161804.13</v>
+        <v>165797.31</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6198,7 +6204,7 @@
         <v>518</v>
       </c>
       <c r="C305">
-        <v>160480.38999999998</v>
+        <v>164401.78999999998</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6206,263 +6212,263 @@
         <v>519</v>
       </c>
       <c r="B306" t="s">
-        <v>118</v>
+        <v>520</v>
       </c>
       <c r="C306">
-        <v>160415.25</v>
+        <v>161827.54999999999</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B307" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C307">
-        <v>160201.97</v>
+        <v>160544.53</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B308" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C308">
-        <v>158148.34</v>
+        <v>160271.18</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B309" t="s">
-        <v>332</v>
+        <v>120</v>
       </c>
       <c r="C309">
-        <v>157764.18000000002</v>
+        <v>160194.78</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B310" t="s">
-        <v>73</v>
+        <v>527</v>
       </c>
       <c r="C310">
-        <v>157753.18</v>
+        <v>158218.28</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B311" t="s">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="C311">
-        <v>157508.18</v>
+        <v>157925.18</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B312" t="s">
         <v>73</v>
       </c>
       <c r="C312">
-        <v>156727.79000000004</v>
+        <v>157821.85999999999</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B313" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C313">
-        <v>156370.75</v>
+        <v>157582.53</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B314" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C314">
-        <v>154443.34</v>
+        <v>156821.06</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B315" t="s">
-        <v>531</v>
+        <v>73</v>
       </c>
       <c r="C315">
-        <v>152385.82</v>
+        <v>156436.57</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B316" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C316">
-        <v>152316.84999999998</v>
+        <v>154512.87999999998</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B317" t="s">
-        <v>253</v>
+        <v>535</v>
       </c>
       <c r="C317">
-        <v>148653.43000000002</v>
+        <v>152512.21000000002</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B318" t="s">
-        <v>535</v>
+        <v>41</v>
       </c>
       <c r="C318">
-        <v>147072.72</v>
+        <v>152071.18</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B319" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C319">
-        <v>146862.07</v>
+        <v>149402.95000000001</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B320" t="s">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="C320">
-        <v>144550.56</v>
+        <v>148437.40000000002</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B321" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C321">
-        <v>144496.22</v>
+        <v>147138.70000000001</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B322" t="s">
-        <v>443</v>
+        <v>543</v>
       </c>
       <c r="C322">
-        <v>144451.44</v>
+        <v>146927.81</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B323" t="s">
-        <v>222</v>
+        <v>63</v>
       </c>
       <c r="C323">
-        <v>144188.41000000003</v>
+        <v>144641.73000000001</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B324" t="s">
-        <v>302</v>
+        <v>447</v>
       </c>
       <c r="C324">
-        <v>141554.49</v>
+        <v>144596.25</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B325" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C325">
-        <v>140491.35</v>
+        <v>144573.00000000003</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B326" t="s">
-        <v>540</v>
+        <v>222</v>
       </c>
       <c r="C326">
-        <v>139703.54</v>
+        <v>144250.81000000003</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B327" t="s">
-        <v>548</v>
+        <v>303</v>
       </c>
       <c r="C327">
-        <v>139342.67000000001</v>
+        <v>140733.32</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B328" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C328">
-        <v>138949.59</v>
+        <v>140549.84</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B329" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C329">
-        <v>138156.56</v>
+        <v>139679.15999999997</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6473,7 +6479,7 @@
         <v>554</v>
       </c>
       <c r="C330">
-        <v>137953.09</v>
+        <v>138759.88</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6484,7 +6490,7 @@
         <v>556</v>
       </c>
       <c r="C331">
-        <v>136729.18000000002</v>
+        <v>138596.64000000001</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6495,7 +6501,7 @@
         <v>558</v>
       </c>
       <c r="C332">
-        <v>136152.14000000001</v>
+        <v>138218.28</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6506,7 +6512,7 @@
         <v>560</v>
       </c>
       <c r="C333">
-        <v>130291.14</v>
+        <v>138002.41999999998</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6514,241 +6520,241 @@
         <v>561</v>
       </c>
       <c r="B334" t="s">
-        <v>189</v>
+        <v>562</v>
       </c>
       <c r="C334">
-        <v>129711.96999999997</v>
+        <v>136686.48000000001</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B335" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C335">
-        <v>129680.81</v>
+        <v>136181.24000000002</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B336" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C336">
-        <v>128971.48</v>
+        <v>129738.58</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B337" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="C337">
-        <v>128224.40999999999</v>
+        <v>129680.01</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B338" t="s">
-        <v>462</v>
+        <v>569</v>
       </c>
       <c r="C338">
-        <v>127591.21000000002</v>
+        <v>129020.01000000001</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B339" t="s">
-        <v>569</v>
+        <v>232</v>
       </c>
       <c r="C339">
-        <v>127195.01000000002</v>
+        <v>128281.56</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B340" t="s">
-        <v>315</v>
+        <v>466</v>
       </c>
       <c r="C340">
-        <v>126738.04999999999</v>
+        <v>127657.28</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B341" t="s">
-        <v>437</v>
+        <v>573</v>
       </c>
       <c r="C341">
-        <v>126680.95000000001</v>
+        <v>127263.86</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B342" t="s">
-        <v>540</v>
+        <v>317</v>
       </c>
       <c r="C342">
-        <v>126232.48999999999</v>
+        <v>126795.23000000001</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B343" t="s">
-        <v>61</v>
+        <v>441</v>
       </c>
       <c r="C343">
-        <v>125620.67000000001</v>
+        <v>126615.49999999999</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B344" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="C344">
-        <v>124760.1</v>
+        <v>126100.54000000001</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B345" t="s">
-        <v>535</v>
+        <v>61</v>
       </c>
       <c r="C345">
-        <v>124231.16999999998</v>
+        <v>125686.60999999999</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B346" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C346">
-        <v>121862.09000000001</v>
+        <v>124613.51</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B347" t="s">
-        <v>75</v>
+        <v>541</v>
       </c>
       <c r="C347">
-        <v>119893.81999999999</v>
+        <v>123482.47000000002</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B348" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C348">
-        <v>118804.36</v>
+        <v>121921.13</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B349" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C349">
-        <v>118776.77</v>
+        <v>119946.43999999999</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B350" t="s">
-        <v>550</v>
+        <v>26</v>
       </c>
       <c r="C350">
-        <v>117779.37000000001</v>
+        <v>118831.66</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B351" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C351">
-        <v>117755.52</v>
+        <v>118635.50999999998</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B352" t="s">
-        <v>262</v>
+        <v>588</v>
       </c>
       <c r="C352">
-        <v>117198.78</v>
+        <v>117808.34</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B353" t="s">
-        <v>443</v>
+        <v>554</v>
       </c>
       <c r="C353">
-        <v>115197.01000000001</v>
+        <v>117740.51000000001</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B354" t="s">
-        <v>589</v>
+        <v>262</v>
       </c>
       <c r="C354">
-        <v>114884.02</v>
+        <v>117245.43000000001</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B355" t="s">
-        <v>591</v>
+        <v>447</v>
       </c>
       <c r="C355">
-        <v>113179.19999999998</v>
+        <v>115244.5</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6759,7 +6765,7 @@
         <v>593</v>
       </c>
       <c r="C356">
-        <v>113015.27</v>
+        <v>114925.69</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6770,7 +6776,7 @@
         <v>595</v>
       </c>
       <c r="C357">
-        <v>112965.31</v>
+        <v>113062.98</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6781,7 +6787,7 @@
         <v>597</v>
       </c>
       <c r="C358">
-        <v>112864.71</v>
+        <v>113014.08000000002</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6792,7 +6798,7 @@
         <v>63</v>
       </c>
       <c r="C359">
-        <v>112841.44</v>
+        <v>112889.26999999999</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6800,43 +6806,43 @@
         <v>599</v>
       </c>
       <c r="B360" t="s">
-        <v>443</v>
+        <v>600</v>
       </c>
       <c r="C360">
-        <v>110976.73</v>
+        <v>112529.17000000001</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B361" t="s">
-        <v>368</v>
+        <v>447</v>
       </c>
       <c r="C361">
-        <v>110008.52</v>
+        <v>111025.49</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B362" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="C362">
-        <v>109825.66000000002</v>
+        <v>109859.33000000002</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B363" t="s">
-        <v>603</v>
+        <v>323</v>
       </c>
       <c r="C363">
-        <v>108174.93999999997</v>
+        <v>109675.38</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6844,21 +6850,21 @@
         <v>604</v>
       </c>
       <c r="B364" t="s">
-        <v>92</v>
+        <v>605</v>
       </c>
       <c r="C364">
-        <v>106384.7</v>
+        <v>108122.61</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B365" t="s">
-        <v>606</v>
+        <v>92</v>
       </c>
       <c r="C365">
-        <v>105965.13</v>
+        <v>106236.14000000001</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6866,98 +6872,98 @@
         <v>607</v>
       </c>
       <c r="B366" t="s">
-        <v>540</v>
+        <v>608</v>
       </c>
       <c r="C366">
-        <v>105067.28</v>
+        <v>106012.03000000001</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B367" t="s">
         <v>109</v>
       </c>
       <c r="C367">
-        <v>103761.93</v>
+        <v>103807.9</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B368" t="s">
-        <v>426</v>
+        <v>259</v>
       </c>
       <c r="C368">
-        <v>102612.57000000002</v>
+        <v>102674.09999999999</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B369" t="s">
-        <v>259</v>
+        <v>430</v>
       </c>
       <c r="C369">
-        <v>102609.92000000001</v>
+        <v>102660.28</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B370" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C370">
-        <v>102396.82</v>
+        <v>102378.73999999999</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B371" t="s">
-        <v>466</v>
+        <v>547</v>
       </c>
       <c r="C371">
-        <v>101789.39</v>
+        <v>101872.25</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B372" t="s">
-        <v>77</v>
+        <v>471</v>
       </c>
       <c r="C372">
-        <v>100747.18</v>
+        <v>101650.53000000001</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B373" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C373">
-        <v>100439.6</v>
+        <v>100795.05</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B374" t="s">
-        <v>616</v>
+        <v>73</v>
       </c>
       <c r="C374">
-        <v>100295.33</v>
+        <v>100488.05</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6968,7 +6974,7 @@
         <v>618</v>
       </c>
       <c r="C375">
-        <v>97506.000000000015</v>
+        <v>100338.82999999999</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6976,21 +6982,21 @@
         <v>619</v>
       </c>
       <c r="B376" t="s">
-        <v>270</v>
+        <v>620</v>
       </c>
       <c r="C376">
-        <v>96639.91</v>
+        <v>97564.1</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B377" t="s">
-        <v>621</v>
+        <v>270</v>
       </c>
       <c r="C377">
-        <v>94000.329999999987</v>
+        <v>96655.489999999991</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6998,43 +7004,43 @@
         <v>622</v>
       </c>
       <c r="B378" t="s">
-        <v>346</v>
+        <v>623</v>
       </c>
       <c r="C378">
-        <v>93555.32</v>
+        <v>94045.61</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B379" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="C379">
-        <v>93532.709999999992</v>
+        <v>93518.470000000016</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B380" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C380">
-        <v>93455.280000000013</v>
+        <v>93495.97</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B381" t="s">
-        <v>626</v>
+        <v>51</v>
       </c>
       <c r="C381">
-        <v>91151.45</v>
+        <v>93418.900000000023</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -7045,7 +7051,7 @@
         <v>628</v>
       </c>
       <c r="C382">
-        <v>89955.78</v>
+        <v>91191.26999999999</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -7053,65 +7059,65 @@
         <v>629</v>
       </c>
       <c r="B383" t="s">
-        <v>495</v>
+        <v>630</v>
       </c>
       <c r="C383">
-        <v>88417.65</v>
+        <v>90007.56</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B384" t="s">
-        <v>253</v>
+        <v>500</v>
       </c>
       <c r="C384">
-        <v>87903.930000000008</v>
+        <v>88455.21</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B385" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="C385">
-        <v>87027.89</v>
+        <v>87446.31</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B386" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="C386">
-        <v>86536.91</v>
+        <v>87056.000000000015</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B387" t="s">
-        <v>302</v>
+        <v>61</v>
       </c>
       <c r="C387">
-        <v>86510.319999999978</v>
+        <v>86519.01999999999</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B388" t="s">
-        <v>635</v>
+        <v>303</v>
       </c>
       <c r="C388">
-        <v>84000.95</v>
+        <v>85989.61</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7122,7 +7128,7 @@
         <v>637</v>
       </c>
       <c r="C389">
-        <v>82810.89</v>
+        <v>83990.709999999992</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7133,7 +7139,7 @@
         <v>207</v>
       </c>
       <c r="C390">
-        <v>82395.359999999986</v>
+        <v>82442.7</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -7141,21 +7147,21 @@
         <v>639</v>
       </c>
       <c r="B391" t="s">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="C391">
-        <v>82167.78</v>
+        <v>82327.239999999991</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B392" t="s">
-        <v>641</v>
+        <v>579</v>
       </c>
       <c r="C392">
-        <v>79943.38</v>
+        <v>82212.28</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -7163,32 +7169,32 @@
         <v>642</v>
       </c>
       <c r="B393" t="s">
-        <v>643</v>
+        <v>49</v>
       </c>
       <c r="C393">
-        <v>78129.819999999992</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
+        <v>643</v>
+      </c>
+      <c r="B394" t="s">
         <v>644</v>
       </c>
-      <c r="B394" t="s">
-        <v>645</v>
-      </c>
       <c r="C394">
-        <v>75921.679999999993</v>
+        <v>79979.61</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
+        <v>645</v>
+      </c>
+      <c r="B395" t="s">
         <v>646</v>
       </c>
-      <c r="B395" t="s">
-        <v>510</v>
-      </c>
       <c r="C395">
-        <v>75880.099999999991</v>
+        <v>78162.45</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7196,10 +7202,10 @@
         <v>647</v>
       </c>
       <c r="B396" t="s">
-        <v>441</v>
+        <v>514</v>
       </c>
       <c r="C396">
-        <v>75858.030000000013</v>
+        <v>75775.009999999995</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7210,7 +7216,7 @@
         <v>649</v>
       </c>
       <c r="C397">
-        <v>75403.03</v>
+        <v>75445.279999999999</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7218,10 +7224,10 @@
         <v>650</v>
       </c>
       <c r="B398" t="s">
-        <v>73</v>
+        <v>445</v>
       </c>
       <c r="C398">
-        <v>75213.179999999993</v>
+        <v>75437.06</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7229,21 +7235,21 @@
         <v>651</v>
       </c>
       <c r="B399" t="s">
-        <v>652</v>
+        <v>73</v>
       </c>
       <c r="C399">
-        <v>73406.950000000012</v>
+        <v>75273.39</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
+        <v>652</v>
+      </c>
+      <c r="B400" t="s">
         <v>653</v>
       </c>
-      <c r="B400" t="s">
-        <v>49</v>
-      </c>
       <c r="C400">
-        <v>73165.06</v>
+        <v>73438.78</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7251,10 +7257,10 @@
         <v>654</v>
       </c>
       <c r="B401" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C401">
-        <v>72530.02</v>
+        <v>73186.260000000009</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7265,7 +7271,7 @@
         <v>656</v>
       </c>
       <c r="C402">
-        <v>72099.850000000006</v>
+        <v>72956.569999999992</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7273,10 +7279,10 @@
         <v>657</v>
       </c>
       <c r="B403" t="s">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="C403">
-        <v>71868.95</v>
+        <v>72561.289999999994</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7287,7 +7293,7 @@
         <v>659</v>
       </c>
       <c r="C404">
-        <v>70883.06</v>
+        <v>71922.58</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7295,21 +7301,21 @@
         <v>660</v>
       </c>
       <c r="B405" t="s">
-        <v>661</v>
+        <v>200</v>
       </c>
       <c r="C405">
-        <v>69859.89</v>
+        <v>71899.319999999992</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
+        <v>661</v>
+      </c>
+      <c r="B406" t="s">
         <v>662</v>
       </c>
-      <c r="B406" t="s">
-        <v>278</v>
-      </c>
       <c r="C406">
-        <v>67815.45</v>
+        <v>70911.37</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7320,7 +7326,7 @@
         <v>664</v>
       </c>
       <c r="C407">
-        <v>67766.420000000013</v>
+        <v>69777.460000000006</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7328,32 +7334,32 @@
         <v>665</v>
       </c>
       <c r="B408" t="s">
-        <v>332</v>
+        <v>666</v>
       </c>
       <c r="C408">
-        <v>66818.94</v>
+        <v>67799.22</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B409" t="s">
-        <v>445</v>
+        <v>279</v>
       </c>
       <c r="C409">
-        <v>65153.070000000007</v>
+        <v>67796.78</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B410" t="s">
-        <v>668</v>
+        <v>330</v>
       </c>
       <c r="C410">
-        <v>64586.960000000006</v>
+        <v>66868.199999999983</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7361,10 +7367,10 @@
         <v>669</v>
       </c>
       <c r="B411" t="s">
-        <v>26</v>
+        <v>449</v>
       </c>
       <c r="C411">
-        <v>64105.25</v>
+        <v>65094.36</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7375,7 +7381,7 @@
         <v>671</v>
       </c>
       <c r="C412">
-        <v>63934.80000000001</v>
+        <v>64613.680000000008</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7383,32 +7389,32 @@
         <v>672</v>
       </c>
       <c r="B413" t="s">
-        <v>673</v>
+        <v>26</v>
       </c>
       <c r="C413">
-        <v>62510.46</v>
+        <v>64209.619999999995</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
+        <v>673</v>
+      </c>
+      <c r="B414" t="s">
         <v>674</v>
       </c>
-      <c r="B414" t="s">
-        <v>675</v>
-      </c>
       <c r="C414">
-        <v>62277.070000000007</v>
+        <v>63962.49</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
+        <v>675</v>
+      </c>
+      <c r="B415" t="s">
         <v>676</v>
       </c>
-      <c r="B415" t="s">
-        <v>200</v>
-      </c>
       <c r="C415">
-        <v>62224.94</v>
+        <v>62543.740000000005</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7419,7 +7425,7 @@
         <v>678</v>
       </c>
       <c r="C416">
-        <v>60022.619999999995</v>
+        <v>62306.34</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7427,21 +7433,21 @@
         <v>679</v>
       </c>
       <c r="B417" t="s">
-        <v>680</v>
+        <v>198</v>
       </c>
       <c r="C417">
-        <v>59701.120000000003</v>
+        <v>62252.520000000011</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
+        <v>680</v>
+      </c>
+      <c r="B418" t="s">
         <v>681</v>
       </c>
-      <c r="B418" t="s">
-        <v>215</v>
-      </c>
       <c r="C418">
-        <v>59688.950000000004</v>
+        <v>60049.03</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7449,43 +7455,43 @@
         <v>682</v>
       </c>
       <c r="B419" t="s">
-        <v>195</v>
+        <v>683</v>
       </c>
       <c r="C419">
-        <v>59337.21</v>
+        <v>59729.2</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B420" t="s">
         <v>215</v>
       </c>
       <c r="C420">
-        <v>58904.56</v>
+        <v>59625.180000000008</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B421" t="s">
-        <v>437</v>
+        <v>200</v>
       </c>
       <c r="C421">
-        <v>57428.520000000004</v>
+        <v>59009.459999999992</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B422" t="s">
-        <v>686</v>
+        <v>215</v>
       </c>
       <c r="C422">
-        <v>56901.09</v>
+        <v>58835.25</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7493,10 +7499,10 @@
         <v>687</v>
       </c>
       <c r="B423" t="s">
-        <v>61</v>
+        <v>441</v>
       </c>
       <c r="C423">
-        <v>56709.41</v>
+        <v>57450.770000000004</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7504,10 +7510,10 @@
         <v>688</v>
       </c>
       <c r="B424" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="C424">
-        <v>56230.35</v>
+        <v>56641.81</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7515,10 +7521,10 @@
         <v>689</v>
       </c>
       <c r="B425" t="s">
-        <v>671</v>
+        <v>116</v>
       </c>
       <c r="C425">
-        <v>55767.300000000017</v>
+        <v>55890.249999999993</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7526,10 +7532,10 @@
         <v>690</v>
       </c>
       <c r="B426" t="s">
-        <v>492</v>
+        <v>674</v>
       </c>
       <c r="C426">
-        <v>55642.11</v>
+        <v>55792.26</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7537,21 +7543,21 @@
         <v>691</v>
       </c>
       <c r="B427" t="s">
-        <v>692</v>
+        <v>497</v>
       </c>
       <c r="C427">
-        <v>54292.54</v>
+        <v>55664.340000000004</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
+        <v>692</v>
+      </c>
+      <c r="B428" t="s">
         <v>693</v>
       </c>
-      <c r="B428" t="s">
-        <v>155</v>
-      </c>
       <c r="C428">
-        <v>53561.280000000006</v>
+        <v>54316.54</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7559,10 +7565,10 @@
         <v>694</v>
       </c>
       <c r="B429" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="C429">
-        <v>53290.340000000004</v>
+        <v>53584.630000000005</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7570,10 +7576,10 @@
         <v>695</v>
       </c>
       <c r="B430" t="s">
-        <v>355</v>
+        <v>51</v>
       </c>
       <c r="C430">
-        <v>52760.000000000007</v>
+        <v>53200.820000000007</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7581,10 +7587,10 @@
         <v>696</v>
       </c>
       <c r="B431" t="s">
-        <v>81</v>
+        <v>355</v>
       </c>
       <c r="C431">
-        <v>51873.990000000005</v>
+        <v>52442.86</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7592,10 +7598,10 @@
         <v>697</v>
       </c>
       <c r="B432" t="s">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="C432">
-        <v>50943.160000000011</v>
+        <v>51815.649999999994</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7603,10 +7609,10 @@
         <v>698</v>
       </c>
       <c r="B433" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="C433">
-        <v>50611.110000000008</v>
+        <v>50635.509999999995</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7614,10 +7620,10 @@
         <v>699</v>
       </c>
       <c r="B434" t="s">
-        <v>53</v>
+        <v>289</v>
       </c>
       <c r="C434">
-        <v>50423.850000000006</v>
+        <v>50464.72</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7625,10 +7631,10 @@
         <v>700</v>
       </c>
       <c r="B435" t="s">
-        <v>575</v>
+        <v>53</v>
       </c>
       <c r="C435">
-        <v>50341.5</v>
+        <v>50119.46</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7636,10 +7642,10 @@
         <v>701</v>
       </c>
       <c r="B436" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="C436">
-        <v>50022.39</v>
+        <v>50037.049999999988</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7647,10 +7653,10 @@
         <v>702</v>
       </c>
       <c r="B437" t="s">
-        <v>249</v>
+        <v>562</v>
       </c>
       <c r="C437">
-        <v>48062.770000000011</v>
+        <v>49721.240000000005</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7658,10 +7664,10 @@
         <v>703</v>
       </c>
       <c r="B438" t="s">
-        <v>540</v>
+        <v>249</v>
       </c>
       <c r="C438">
-        <v>47926.54</v>
+        <v>47954.840000000004</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7669,10 +7675,10 @@
         <v>704</v>
       </c>
       <c r="B439" t="s">
-        <v>426</v>
+        <v>547</v>
       </c>
       <c r="C439">
-        <v>47847.15</v>
+        <v>47869.96</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7680,10 +7686,10 @@
         <v>705</v>
       </c>
       <c r="B440" t="s">
-        <v>358</v>
+        <v>430</v>
       </c>
       <c r="C440">
-        <v>47492.220000000008</v>
+        <v>47537.21</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7691,21 +7697,21 @@
         <v>706</v>
       </c>
       <c r="B441" t="s">
-        <v>707</v>
+        <v>360</v>
       </c>
       <c r="C441">
-        <v>45723.040000000001</v>
+        <v>47231.399999999994</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
+        <v>707</v>
+      </c>
+      <c r="B442" t="s">
         <v>708</v>
       </c>
-      <c r="B442" t="s">
-        <v>12</v>
-      </c>
       <c r="C442">
-        <v>44868.159999999996</v>
+        <v>45741.280000000006</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7713,10 +7719,10 @@
         <v>709</v>
       </c>
       <c r="B443" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C443">
-        <v>42365.120000000003</v>
+        <v>44887.09</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7724,32 +7730,32 @@
         <v>710</v>
       </c>
       <c r="B444" t="s">
-        <v>711</v>
+        <v>81</v>
       </c>
       <c r="C444">
-        <v>42154.720000000001</v>
+        <v>42306.86</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
+        <v>711</v>
+      </c>
+      <c r="B445" t="s">
         <v>712</v>
       </c>
-      <c r="B445" t="s">
-        <v>713</v>
-      </c>
       <c r="C445">
-        <v>41338.730000000003</v>
+        <v>42173.07</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" t="s">
+        <v>713</v>
+      </c>
+      <c r="B446" t="s">
         <v>714</v>
       </c>
-      <c r="B446" t="s">
-        <v>63</v>
-      </c>
       <c r="C446">
-        <v>40564.229999999996</v>
+        <v>41289.139999999992</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7757,32 +7763,32 @@
         <v>715</v>
       </c>
       <c r="B447" t="s">
-        <v>716</v>
+        <v>63</v>
       </c>
       <c r="C447">
-        <v>39819.06</v>
+        <v>40582.639999999999</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
+        <v>716</v>
+      </c>
+      <c r="B448" t="s">
         <v>717</v>
       </c>
-      <c r="B448" t="s">
-        <v>718</v>
-      </c>
       <c r="C448">
-        <v>39393.5</v>
+        <v>39835.24</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
+        <v>718</v>
+      </c>
+      <c r="B449" t="s">
         <v>719</v>
       </c>
-      <c r="B449" t="s">
-        <v>445</v>
-      </c>
       <c r="C449">
-        <v>36543.01</v>
+        <v>39411.18</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7790,10 +7796,10 @@
         <v>720</v>
       </c>
       <c r="B450" t="s">
-        <v>51</v>
+        <v>449</v>
       </c>
       <c r="C450">
-        <v>36493.619999999995</v>
+        <v>36562.080000000002</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7804,7 +7810,7 @@
         <v>722</v>
       </c>
       <c r="C451">
-        <v>36462.380000000005</v>
+        <v>36478.71</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7812,10 +7818,10 @@
         <v>723</v>
       </c>
       <c r="B452" t="s">
-        <v>411</v>
+        <v>51</v>
       </c>
       <c r="C452">
-        <v>35691.57</v>
+        <v>36292.14</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7823,10 +7829,10 @@
         <v>724</v>
       </c>
       <c r="B453" t="s">
-        <v>133</v>
+        <v>413</v>
       </c>
       <c r="C453">
-        <v>35145.379999999997</v>
+        <v>35639.610000000008</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7834,32 +7840,32 @@
         <v>725</v>
       </c>
       <c r="B454" t="s">
-        <v>726</v>
+        <v>133</v>
       </c>
       <c r="C454">
-        <v>34564.61</v>
+        <v>35161.5</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
+        <v>726</v>
+      </c>
+      <c r="B455" t="s">
         <v>727</v>
       </c>
-      <c r="B455" t="s">
-        <v>728</v>
-      </c>
       <c r="C455">
-        <v>34228.550000000003</v>
+        <v>34591.380000000005</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" t="s">
+        <v>728</v>
+      </c>
+      <c r="B456" t="s">
         <v>729</v>
       </c>
-      <c r="B456" t="s">
-        <v>673</v>
-      </c>
       <c r="C456">
-        <v>33333.57</v>
+        <v>34243.199999999997</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7867,10 +7873,10 @@
         <v>730</v>
       </c>
       <c r="B457" t="s">
-        <v>39</v>
+        <v>676</v>
       </c>
       <c r="C457">
-        <v>31729.930000000004</v>
+        <v>33348.550000000003</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7878,10 +7884,10 @@
         <v>731</v>
       </c>
       <c r="B458" t="s">
-        <v>510</v>
+        <v>39</v>
       </c>
       <c r="C458">
-        <v>30781.399999999998</v>
+        <v>31743.13</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7889,43 +7895,43 @@
         <v>732</v>
       </c>
       <c r="B459" t="s">
-        <v>733</v>
+        <v>514</v>
       </c>
       <c r="C459">
-        <v>29831.040000000001</v>
+        <v>30797.120000000003</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
+        <v>733</v>
+      </c>
+      <c r="B460" t="s">
         <v>734</v>
       </c>
-      <c r="B460" t="s">
-        <v>735</v>
-      </c>
       <c r="C460">
-        <v>29365.25</v>
+        <v>30331.120000000003</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
+        <v>735</v>
+      </c>
+      <c r="B461" t="s">
         <v>736</v>
       </c>
-      <c r="B461" t="s">
-        <v>737</v>
-      </c>
       <c r="C461">
-        <v>28442.689999999995</v>
+        <v>29843.119999999999</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
+        <v>737</v>
+      </c>
+      <c r="B462" t="s">
         <v>738</v>
       </c>
-      <c r="B462" t="s">
-        <v>492</v>
-      </c>
       <c r="C462">
-        <v>28068.240000000005</v>
+        <v>28413.480000000003</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7933,10 +7939,10 @@
         <v>739</v>
       </c>
       <c r="B463" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C463">
-        <v>28000.639999999999</v>
+        <v>28013.61</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7944,10 +7950,10 @@
         <v>740</v>
       </c>
       <c r="B464" t="s">
-        <v>200</v>
+        <v>497</v>
       </c>
       <c r="C464">
-        <v>26130.7</v>
+        <v>27919.89</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7955,21 +7961,21 @@
         <v>741</v>
       </c>
       <c r="B465" t="s">
-        <v>742</v>
+        <v>198</v>
       </c>
       <c r="C465">
-        <v>23271.4</v>
+        <v>26141.65</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
+        <v>742</v>
+      </c>
+      <c r="B466" t="s">
         <v>743</v>
       </c>
-      <c r="B466" t="s">
-        <v>200</v>
-      </c>
       <c r="C466">
-        <v>21033.829999999998</v>
+        <v>23287.67</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -7980,7 +7986,7 @@
         <v>225</v>
       </c>
       <c r="C467">
-        <v>20711.14</v>
+        <v>20720.34</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7991,7 +7997,7 @@
         <v>73</v>
       </c>
       <c r="C468">
-        <v>20279.93</v>
+        <v>20288.339999999997</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -8002,7 +8008,7 @@
         <v>41</v>
       </c>
       <c r="C469">
-        <v>17269.87</v>
+        <v>17277.46</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -8013,7 +8019,7 @@
         <v>346</v>
       </c>
       <c r="C470">
-        <v>16423.59</v>
+        <v>16397.900000000001</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -8024,7 +8030,7 @@
         <v>215</v>
       </c>
       <c r="C471">
-        <v>16235.12</v>
+        <v>16242.39</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -8032,10 +8038,10 @@
         <v>749</v>
       </c>
       <c r="B472" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C472">
-        <v>14521.75</v>
+        <v>14538.61</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8046,7 +8052,7 @@
         <v>751</v>
       </c>
       <c r="C473">
-        <v>14125.06</v>
+        <v>14131.33</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8057,7 +8063,7 @@
         <v>753</v>
       </c>
       <c r="C474">
-        <v>13963.59</v>
+        <v>13969.769999999999</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8068,7 +8074,7 @@
         <v>755</v>
       </c>
       <c r="C475">
-        <v>13476.25</v>
+        <v>13482.26</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -8076,10 +8082,10 @@
         <v>756</v>
       </c>
       <c r="B476" t="s">
-        <v>6</v>
+        <v>346</v>
       </c>
       <c r="C476">
-        <v>12967.04</v>
+        <v>12958.84</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8087,10 +8093,10 @@
         <v>757</v>
       </c>
       <c r="B477" t="s">
-        <v>346</v>
+        <v>6</v>
       </c>
       <c r="C477">
-        <v>12953.050000000001</v>
+        <v>12906.72</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8098,10 +8104,10 @@
         <v>758</v>
       </c>
       <c r="B478" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C478">
-        <v>12784.89</v>
+        <v>12787.259999999998</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8112,7 +8118,7 @@
         <v>760</v>
       </c>
       <c r="C479">
-        <v>11316.119999999999</v>
+        <v>11321.1</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -8123,7 +8129,7 @@
         <v>762</v>
       </c>
       <c r="C480">
-        <v>10524.080000000002</v>
+        <v>10528.689999999999</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -8134,7 +8140,7 @@
         <v>423</v>
       </c>
       <c r="C481">
-        <v>10137.42</v>
+        <v>10141.469999999999</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -8145,7 +8151,7 @@
         <v>8</v>
       </c>
       <c r="C482">
-        <v>9994.26</v>
+        <v>9998.67</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -8156,7 +8162,7 @@
         <v>766</v>
       </c>
       <c r="C483">
-        <v>9256.0999999999985</v>
+        <v>9260.0299999999988</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -8164,10 +8170,10 @@
         <v>767</v>
       </c>
       <c r="B484" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C484">
-        <v>8886.4999999999982</v>
+        <v>8891.24</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -8178,7 +8184,7 @@
         <v>207</v>
       </c>
       <c r="C485">
-        <v>8161.98</v>
+        <v>8227.5300000000007</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -8189,7 +8195,7 @@
         <v>770</v>
       </c>
       <c r="C486">
-        <v>7159.19</v>
+        <v>7161.76</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -8200,7 +8206,7 @@
         <v>772</v>
       </c>
       <c r="C487">
-        <v>6803.4499999999989</v>
+        <v>6806.369999999999</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -8208,10 +8214,10 @@
         <v>773</v>
       </c>
       <c r="B488" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C488">
-        <v>5310.23</v>
+        <v>5273.5100000000011</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -8233,7 +8239,7 @@
         <v>73</v>
       </c>
       <c r="C490">
-        <v>4689.5300000000007</v>
+        <v>4691.5700000000006</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -8244,7 +8250,7 @@
         <v>778</v>
       </c>
       <c r="C491">
-        <v>4650.2199999999993</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -8266,7 +8272,7 @@
         <v>782</v>
       </c>
       <c r="C493">
-        <v>1519.7800000000002</v>
+        <v>1520.4499999999998</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -8277,7 +8283,7 @@
         <v>33</v>
       </c>
       <c r="C494">
-        <v>1434.01</v>
+        <v>1434.6</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -8288,7 +8294,7 @@
         <v>53</v>
       </c>
       <c r="C495">
-        <v>1379.5900000000001</v>
+        <v>1392.0700000000002</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -8299,7 +8305,7 @@
         <v>786</v>
       </c>
       <c r="C496">
-        <v>1104.58</v>
+        <v>1105.08</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -8307,10 +8313,10 @@
         <v>787</v>
       </c>
       <c r="B497" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C497">
-        <v>1089.94</v>
+        <v>1090.43</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -8318,10 +8324,10 @@
         <v>788</v>
       </c>
       <c r="B498" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="C498">
-        <v>746.82</v>
+        <v>747.1</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -8332,7 +8338,7 @@
         <v>22</v>
       </c>
       <c r="C499">
-        <v>488.29999999999995</v>
+        <v>493.91</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -8354,7 +8360,7 @@
         <v>100</v>
       </c>
       <c r="C501">
-        <v>279.58999999999997</v>
+        <v>279.70999999999998</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -8362,18 +8368,18 @@
         <v>793</v>
       </c>
       <c r="B502" t="s">
-        <v>197</v>
+        <v>794</v>
       </c>
       <c r="C502">
-        <v>150</v>
+        <v>220</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B503" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C503">
         <v>150</v>
@@ -8381,57 +8387,57 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B504" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="C504">
-        <v>86.38</v>
+        <v>150</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B505" t="s">
-        <v>445</v>
+        <v>270</v>
       </c>
       <c r="C505">
-        <v>50.26</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B506" t="s">
-        <v>563</v>
+        <v>449</v>
       </c>
       <c r="C506">
-        <v>50</v>
+        <v>50.26</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B507" t="s">
-        <v>437</v>
+        <v>566</v>
       </c>
       <c r="C507">
-        <v>33.049999999999997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B508" t="s">
-        <v>800</v>
+        <v>441</v>
       </c>
       <c r="C508">
-        <v>29.77</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -8442,7 +8448,7 @@
         <v>802</v>
       </c>
       <c r="C509">
-        <v>21.27</v>
+        <v>29.77</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8450,32 +8456,32 @@
         <v>803</v>
       </c>
       <c r="B510" t="s">
-        <v>22</v>
+        <v>804</v>
       </c>
       <c r="C510">
-        <v>19.079999999999998</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B511" t="s">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="C511">
-        <v>18.32</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B512" t="s">
-        <v>806</v>
+        <v>279</v>
       </c>
       <c r="C512">
-        <v>17.86</v>
+        <v>18.32</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8486,7 +8492,7 @@
         <v>808</v>
       </c>
       <c r="C513">
-        <v>14.67</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -8497,7 +8503,7 @@
         <v>810</v>
       </c>
       <c r="C514">
-        <v>9.73</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -8505,21 +8511,21 @@
         <v>811</v>
       </c>
       <c r="B515" t="s">
-        <v>270</v>
+        <v>812</v>
       </c>
       <c r="C515">
-        <v>5.55</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B516" t="s">
-        <v>813</v>
+        <v>270</v>
       </c>
       <c r="C516">
-        <v>0.05</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -8527,26 +8533,37 @@
         <v>814</v>
       </c>
       <c r="B517" t="s">
-        <v>41</v>
+        <v>815</v>
       </c>
       <c r="C517">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B518" t="s">
-        <v>816</v>
+        <v>41</v>
       </c>
       <c r="C518">
         <v>0.01</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
-      <c r="A520" t="s">
+    <row r="519" spans="1:3">
+      <c r="A519" t="s">
         <v>817</v>
+      </c>
+      <c r="B519" t="s">
+        <v>818</v>
+      </c>
+      <c r="C519">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" t="s">
+        <v>819</v>
       </c>
     </row>
   </sheetData>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBE4D075-B432-44B7-93D6-645F0CB609AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F839F233-BCF4-4462-8F35-D35E7EEC8D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="821">
   <si>
     <t>CONTA</t>
   </si>
@@ -295,39 +295,39 @@
     <t>SUELY</t>
   </si>
   <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004450760</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
+    <t>004862672</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
     <t>005003629</t>
   </si>
   <si>
     <t>ANDRE</t>
   </si>
   <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004450760</t>
-  </si>
-  <si>
-    <t>SILVIO</t>
-  </si>
-  <si>
-    <t>004862672</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
     <t>004387250</t>
   </si>
   <si>
@@ -373,18 +373,18 @@
     <t>LARISSA</t>
   </si>
   <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
     <t>001882235</t>
   </si>
   <si>
     <t>LAGO</t>
   </si>
   <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
     <t>003987275</t>
   </si>
   <si>
@@ -439,18 +439,18 @@
     <t>005087681</t>
   </si>
   <si>
+    <t>005121919</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
     <t>002697806</t>
   </si>
   <si>
-    <t>005121919</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
     <t>004482439</t>
   </si>
   <si>
@@ -586,15 +586,15 @@
     <t>IRACY</t>
   </si>
   <si>
+    <t>004363260</t>
+  </si>
+  <si>
     <t>004482102</t>
   </si>
   <si>
     <t>NATALIA</t>
   </si>
   <si>
-    <t>004363260</t>
-  </si>
-  <si>
     <t>004479463</t>
   </si>
   <si>
@@ -745,15 +745,15 @@
     <t>ROSANGELA</t>
   </si>
   <si>
+    <t>004458624</t>
+  </si>
+  <si>
     <t>004556853</t>
   </si>
   <si>
     <t>MARCEL</t>
   </si>
   <si>
-    <t>004458624</t>
-  </si>
-  <si>
     <t>004452476</t>
   </si>
   <si>
@@ -853,15 +853,15 @@
     <t>VALDIVINO</t>
   </si>
   <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
     <t>001731007</t>
   </si>
   <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
     <t>004588677</t>
   </si>
   <si>
@@ -934,15 +934,15 @@
     <t>LUIS</t>
   </si>
   <si>
+    <t>004958539</t>
+  </si>
+  <si>
     <t>004950193</t>
   </si>
   <si>
     <t>004811224</t>
   </si>
   <si>
-    <t>004958539</t>
-  </si>
-  <si>
     <t>004252768</t>
   </si>
   <si>
@@ -1009,18 +1009,18 @@
     <t>VITOR</t>
   </si>
   <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
     <t>004805133</t>
   </si>
   <si>
     <t>PATRICIA</t>
   </si>
   <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
     <t>004453045</t>
   </si>
   <si>
@@ -1033,12 +1033,12 @@
     <t>LUCYENE</t>
   </si>
   <si>
+    <t>004435987</t>
+  </si>
+  <si>
     <t>004346716</t>
   </si>
   <si>
-    <t>004435987</t>
-  </si>
-  <si>
     <t>004805333</t>
   </si>
   <si>
@@ -1072,18 +1072,18 @@
     <t>GILTON</t>
   </si>
   <si>
+    <t>004276856</t>
+  </si>
+  <si>
+    <t>DAURA</t>
+  </si>
+  <si>
     <t>004206790</t>
   </si>
   <si>
     <t>EMMANUELLE</t>
   </si>
   <si>
-    <t>004276856</t>
-  </si>
-  <si>
-    <t>DAURA</t>
-  </si>
-  <si>
     <t>004693349</t>
   </si>
   <si>
@@ -1096,6 +1096,12 @@
     <t>LEVI</t>
   </si>
   <si>
+    <t>004575632</t>
+  </si>
+  <si>
+    <t>ADELE</t>
+  </si>
+  <si>
     <t>005135532</t>
   </si>
   <si>
@@ -1198,6 +1204,9 @@
     <t>004945161</t>
   </si>
   <si>
+    <t>004384131</t>
+  </si>
+  <si>
     <t>004870976</t>
   </si>
   <si>
@@ -1210,15 +1219,15 @@
     <t>004368994</t>
   </si>
   <si>
+    <t>004515548</t>
+  </si>
+  <si>
     <t>004550605</t>
   </si>
   <si>
     <t>REJANE</t>
   </si>
   <si>
-    <t>004515548</t>
-  </si>
-  <si>
     <t>004493324</t>
   </si>
   <si>
@@ -1264,18 +1273,12 @@
     <t>CLISIA</t>
   </si>
   <si>
-    <t>004575632</t>
-  </si>
-  <si>
-    <t>ADELE</t>
+    <t>004872395</t>
   </si>
   <si>
     <t>004584517</t>
   </si>
   <si>
-    <t>004872395</t>
-  </si>
-  <si>
     <t>004862746</t>
   </si>
   <si>
@@ -1288,24 +1291,24 @@
     <t>THEO</t>
   </si>
   <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
     <t>004473829</t>
   </si>
   <si>
     <t>LUCAS</t>
   </si>
   <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
     <t>004580355</t>
   </si>
   <si>
@@ -1411,21 +1414,21 @@
     <t>KARINA</t>
   </si>
   <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
     <t>004908680</t>
   </si>
   <si>
     <t>ELENE</t>
   </si>
   <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
     <t>005073033</t>
   </si>
   <si>
@@ -1465,9 +1468,6 @@
     <t>005142624</t>
   </si>
   <si>
-    <t>004384131</t>
-  </si>
-  <si>
     <t>004386464</t>
   </si>
   <si>
@@ -1591,15 +1591,15 @@
     <t>CLAUDIO</t>
   </si>
   <si>
+    <t>004570632</t>
+  </si>
+  <si>
     <t>004475395</t>
   </si>
   <si>
     <t>DAVID</t>
   </si>
   <si>
-    <t>004570632</t>
-  </si>
-  <si>
     <t>005142661</t>
   </si>
   <si>
@@ -1654,12 +1654,12 @@
     <t>WILLIAM</t>
   </si>
   <si>
+    <t>004854514</t>
+  </si>
+  <si>
     <t>002786022</t>
   </si>
   <si>
-    <t>004854514</t>
-  </si>
-  <si>
     <t>004936634</t>
   </si>
   <si>
@@ -1834,75 +1834,78 @@
     <t>004452790</t>
   </si>
   <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>005000656</t>
+  </si>
+  <si>
+    <t>000834301</t>
+  </si>
+  <si>
+    <t>004643153</t>
+  </si>
+  <si>
+    <t>004313254</t>
+  </si>
+  <si>
+    <t>004848279</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>005173958</t>
+  </si>
+  <si>
+    <t>004444164</t>
+  </si>
+  <si>
+    <t>005079458</t>
+  </si>
+  <si>
+    <t>JONAS</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>004278033</t>
+  </si>
+  <si>
+    <t>DAISY</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>004508516</t>
+  </si>
+  <si>
+    <t>004500804</t>
+  </si>
+  <si>
     <t>001759765</t>
   </si>
   <si>
     <t>NATAL</t>
   </si>
   <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>005000656</t>
-  </si>
-  <si>
-    <t>004643153</t>
-  </si>
-  <si>
-    <t>000834301</t>
-  </si>
-  <si>
-    <t>004313254</t>
-  </si>
-  <si>
-    <t>004848279</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>005173958</t>
-  </si>
-  <si>
-    <t>004444164</t>
-  </si>
-  <si>
-    <t>005079458</t>
-  </si>
-  <si>
-    <t>JONAS</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>004278033</t>
-  </si>
-  <si>
-    <t>DAISY</t>
-  </si>
-  <si>
-    <t>004508504</t>
-  </si>
-  <si>
-    <t>004508516</t>
-  </si>
-  <si>
-    <t>004500804</t>
-  </si>
-  <si>
     <t>004397124</t>
   </si>
   <si>
@@ -1936,48 +1939,51 @@
     <t>ANGELA</t>
   </si>
   <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>004255049</t>
+  </si>
+  <si>
+    <t>MATHEUS</t>
+  </si>
+  <si>
+    <t>005146441</t>
+  </si>
+  <si>
+    <t>004265173</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>000772433</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>004767746</t>
+  </si>
+  <si>
+    <t>001761119</t>
+  </si>
+  <si>
+    <t>BLUEMETRIX</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
     <t>003894173</t>
   </si>
   <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>005146441</t>
-  </si>
-  <si>
-    <t>004255049</t>
-  </si>
-  <si>
-    <t>MATHEUS</t>
-  </si>
-  <si>
-    <t>004265173</t>
-  </si>
-  <si>
-    <t>JULIA</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>001761119</t>
-  </si>
-  <si>
-    <t>BLUEMETRIX</t>
-  </si>
-  <si>
-    <t>004767746</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
     <t>004994036</t>
   </si>
   <si>
@@ -2002,9 +2008,6 @@
     <t>LUCA</t>
   </si>
   <si>
-    <t>000772433</t>
-  </si>
-  <si>
     <t>004451725</t>
   </si>
   <si>
@@ -2017,15 +2020,15 @@
     <t>OTAVIO</t>
   </si>
   <si>
+    <t>005064129</t>
+  </si>
+  <si>
     <t>004381194</t>
   </si>
   <si>
     <t>ALINNE</t>
   </si>
   <si>
-    <t>005064129</t>
-  </si>
-  <si>
     <t>004267044</t>
   </si>
   <si>
@@ -2107,21 +2110,18 @@
     <t>004497825</t>
   </si>
   <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004259659</t>
+  </si>
+  <si>
     <t>004454365</t>
   </si>
   <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004259659</t>
-  </si>
-  <si>
     <t>004754056</t>
   </si>
   <si>
@@ -2170,48 +2170,48 @@
     <t>005133039</t>
   </si>
   <si>
+    <t>003497496</t>
+  </si>
+  <si>
+    <t>ELISANDRA</t>
+  </si>
+  <si>
+    <t>004479734</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>005135281</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>005018038</t>
+  </si>
+  <si>
+    <t>004228456</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>004308815</t>
+  </si>
+  <si>
+    <t>ZELI</t>
+  </si>
+  <si>
     <t>004115403</t>
   </si>
   <si>
     <t>HEBERT</t>
   </si>
   <si>
-    <t>003497496</t>
-  </si>
-  <si>
-    <t>ELISANDRA</t>
-  </si>
-  <si>
-    <t>004479734</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>005135281</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>005018038</t>
-  </si>
-  <si>
-    <t>004228456</t>
-  </si>
-  <si>
-    <t>FLASH</t>
-  </si>
-  <si>
-    <t>004308815</t>
-  </si>
-  <si>
-    <t>ZELI</t>
-  </si>
-  <si>
     <t>003836362</t>
   </si>
   <si>
@@ -2260,51 +2260,54 @@
     <t>005032151</t>
   </si>
   <si>
+    <t>004563252</t>
+  </si>
+  <si>
+    <t>004517506</t>
+  </si>
+  <si>
+    <t>005186167</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>004752615</t>
+  </si>
+  <si>
+    <t>LUZIMAR</t>
+  </si>
+  <si>
+    <t>004581652</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>004473942</t>
+  </si>
+  <si>
+    <t>DAIANNE</t>
+  </si>
+  <si>
+    <t>004895776</t>
+  </si>
+  <si>
+    <t>004958578</t>
+  </si>
+  <si>
+    <t>004477812</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
     <t>000431814</t>
   </si>
   <si>
-    <t>004563252</t>
-  </si>
-  <si>
-    <t>004517506</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>004752615</t>
-  </si>
-  <si>
-    <t>LUZIMAR</t>
-  </si>
-  <si>
-    <t>004581652</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>004473942</t>
-  </si>
-  <si>
-    <t>DAIANNE</t>
-  </si>
-  <si>
-    <t>004895776</t>
-  </si>
-  <si>
-    <t>004958578</t>
-  </si>
-  <si>
-    <t>004477812</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
     <t>004451996</t>
   </si>
   <si>
@@ -2326,9 +2329,6 @@
     <t>004329229</t>
   </si>
   <si>
-    <t>005186167</t>
-  </si>
-  <si>
     <t>003115072</t>
   </si>
   <si>
@@ -2341,85 +2341,88 @@
     <t>TATIANY</t>
   </si>
   <si>
+    <t>005070742</t>
+  </si>
+  <si>
+    <t>JUSCELINO</t>
+  </si>
+  <si>
+    <t>000989247</t>
+  </si>
+  <si>
+    <t>005110867</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>005075382</t>
+  </si>
+  <si>
+    <t>NAYARA</t>
+  </si>
+  <si>
+    <t>004335251</t>
+  </si>
+  <si>
+    <t>005171652</t>
+  </si>
+  <si>
+    <t>004371857</t>
+  </si>
+  <si>
+    <t>NAZARETH</t>
+  </si>
+  <si>
+    <t>004321092</t>
+  </si>
+  <si>
+    <t>004231371</t>
+  </si>
+  <si>
+    <t>004318604</t>
+  </si>
+  <si>
+    <t>004214460</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>004850070</t>
+  </si>
+  <si>
+    <t>004223226</t>
+  </si>
+  <si>
+    <t>YESHUA</t>
+  </si>
+  <si>
+    <t>005203501</t>
+  </si>
+  <si>
+    <t>005203562</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>004392159</t>
+  </si>
+  <si>
+    <t>004208447</t>
+  </si>
+  <si>
     <t>004264780</t>
-  </si>
-  <si>
-    <t>005070742</t>
-  </si>
-  <si>
-    <t>JUSCELINO</t>
-  </si>
-  <si>
-    <t>000989247</t>
-  </si>
-  <si>
-    <t>005110867</t>
-  </si>
-  <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>005075382</t>
-  </si>
-  <si>
-    <t>NAYARA</t>
-  </si>
-  <si>
-    <t>004335251</t>
-  </si>
-  <si>
-    <t>005171652</t>
-  </si>
-  <si>
-    <t>004371857</t>
-  </si>
-  <si>
-    <t>NAZARETH</t>
-  </si>
-  <si>
-    <t>004321092</t>
-  </si>
-  <si>
-    <t>004318604</t>
-  </si>
-  <si>
-    <t>004214460</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>004850070</t>
-  </si>
-  <si>
-    <t>004223226</t>
-  </si>
-  <si>
-    <t>YESHUA</t>
-  </si>
-  <si>
-    <t>005203501</t>
-  </si>
-  <si>
-    <t>005203562</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>004392159</t>
-  </si>
-  <si>
-    <t>004208447</t>
   </si>
   <si>
     <t>005028018</t>
@@ -2844,10 +2847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C521"/>
+  <dimension ref="A1:C522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2871,7 +2874,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>16357499.910000004</v>
+        <v>16362427.980000002</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2882,7 +2885,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>8222481.1100000003</v>
+        <v>8225197.1599999983</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2893,7 +2896,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7295934.169999999</v>
+        <v>7313105.2199999997</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2904,7 +2907,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6184466.4900000002</v>
+        <v>6192010.4899999993</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2915,7 +2918,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>5762407.25</v>
+        <v>5782310.370000001</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2926,7 +2929,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>4607431.09</v>
+        <v>4607877.1099999994</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2937,7 +2940,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>4319639.7300000004</v>
+        <v>4318589.9700000007</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2948,7 +2951,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>4241330.3900000006</v>
+        <v>4247206.43</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2959,7 +2962,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>4226683.7299999995</v>
+        <v>4232945.9399999995</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2970,7 +2973,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>4220265.5599999996</v>
+        <v>4222222.6700000009</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2981,7 +2984,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>3965767.3499999996</v>
+        <v>3967542.6100000003</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2992,7 +2995,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>3743397.1499999994</v>
+        <v>3743599.3300000005</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3003,7 +3006,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>3738703.6400000006</v>
+        <v>3740245.7200000007</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3014,7 +3017,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>3579235.8</v>
+        <v>3580747.3699999996</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3025,7 +3028,7 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>3399972.41</v>
+        <v>3402519.88</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3036,7 +3039,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>3301190.1099999994</v>
+        <v>3302613.5799999996</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3047,7 +3050,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>3188146.2599999993</v>
+        <v>3189341.26</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3058,7 +3061,7 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3096399.0300000003</v>
+        <v>3097778.19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3069,7 +3072,7 @@
         <v>39</v>
       </c>
       <c r="C20">
-        <v>3031250.61</v>
+        <v>3032674.2200000007</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3080,7 +3083,7 @@
         <v>41</v>
       </c>
       <c r="C21">
-        <v>2948279.5300000003</v>
+        <v>2949858.92</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3091,7 +3094,7 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>2819301.7</v>
+        <v>2820006.21</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3102,7 +3105,7 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>2810104.9099999992</v>
+        <v>2800350.64</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3113,7 +3116,7 @@
         <v>47</v>
       </c>
       <c r="C24">
-        <v>2735817.3100000005</v>
+        <v>2736794.4800000004</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3124,7 +3127,7 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>2688004.36</v>
+        <v>2688662.1799999997</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3135,7 +3138,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <v>2543739.7000000002</v>
+        <v>2546415.3999999994</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3146,7 +3149,7 @@
         <v>53</v>
       </c>
       <c r="C27">
-        <v>2381724.46</v>
+        <v>2384057.59</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3157,7 +3160,7 @@
         <v>55</v>
       </c>
       <c r="C28">
-        <v>2293297.89</v>
+        <v>2294375.38</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3168,7 +3171,7 @@
         <v>57</v>
       </c>
       <c r="C29">
-        <v>2209456.7399999998</v>
+        <v>2210221.73</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3179,7 +3182,7 @@
         <v>59</v>
       </c>
       <c r="C30">
-        <v>2208269.6</v>
+        <v>2209253.16</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3190,7 +3193,7 @@
         <v>61</v>
       </c>
       <c r="C31">
-        <v>2101251.5300000003</v>
+        <v>2102905.3499999996</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3201,7 +3204,7 @@
         <v>63</v>
       </c>
       <c r="C32">
-        <v>2050752.3</v>
+        <v>2051880.3199999998</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3212,7 +3215,7 @@
         <v>39</v>
       </c>
       <c r="C33">
-        <v>2043839.6999999997</v>
+        <v>2044699.06</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3223,7 +3226,7 @@
         <v>66</v>
       </c>
       <c r="C34">
-        <v>1963334.31</v>
+        <v>1965255.06</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3234,7 +3237,7 @@
         <v>68</v>
       </c>
       <c r="C35">
-        <v>1949746.1500000001</v>
+        <v>1951884.98</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3245,7 +3248,7 @@
         <v>70</v>
       </c>
       <c r="C36">
-        <v>1861769.0699999998</v>
+        <v>1863132.75</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3256,7 +3259,7 @@
         <v>22</v>
       </c>
       <c r="C37">
-        <v>1846320.47</v>
+        <v>1847307.32</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3267,7 +3270,7 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>1824445.7100000002</v>
+        <v>1825262.2000000002</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3278,7 +3281,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>1820355.8900000001</v>
+        <v>1820945.27</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3289,7 +3292,7 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>1805835.66</v>
+        <v>1806625.2599999998</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3300,7 +3303,7 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <v>1768622.38</v>
+        <v>1769164.4699999997</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3311,7 +3314,7 @@
         <v>81</v>
       </c>
       <c r="C42">
-        <v>1605237.5699999998</v>
+        <v>1607025.4800000004</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3322,7 +3325,7 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>1585898.51</v>
+        <v>1586608.39</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3333,7 +3336,7 @@
         <v>85</v>
       </c>
       <c r="C44">
-        <v>1522230.6799999995</v>
+        <v>1522861.8000000003</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3344,7 +3347,7 @@
         <v>79</v>
       </c>
       <c r="C45">
-        <v>1480273.24</v>
+        <v>1480915.9400000002</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3355,7 +3358,7 @@
         <v>88</v>
       </c>
       <c r="C46">
-        <v>1438352.8800000001</v>
+        <v>1439273.46</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3366,7 +3369,7 @@
         <v>90</v>
       </c>
       <c r="C47">
-        <v>1402418.68</v>
+        <v>1402514.7100000002</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3377,7 +3380,7 @@
         <v>92</v>
       </c>
       <c r="C48">
-        <v>1384681.67</v>
+        <v>1367489.5800000005</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3388,7 +3391,7 @@
         <v>94</v>
       </c>
       <c r="C49">
-        <v>1367400.12</v>
+        <v>1363974.8900000001</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3399,7 +3402,7 @@
         <v>96</v>
       </c>
       <c r="C50">
-        <v>1363694.8900000001</v>
+        <v>1343010.1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3410,7 +3413,7 @@
         <v>98</v>
       </c>
       <c r="C51">
-        <v>1341094.3199999998</v>
+        <v>1336976.3900000001</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3418,21 +3421,21 @@
         <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C52">
-        <v>1336312.69</v>
+        <v>1288607.0599999996</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
         <v>101</v>
       </c>
-      <c r="B53" t="s">
-        <v>88</v>
-      </c>
       <c r="C53">
-        <v>1284598.7700000003</v>
+        <v>1282928.44</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3443,7 +3446,7 @@
         <v>103</v>
       </c>
       <c r="C54">
-        <v>1278356.78</v>
+        <v>1278992.0999999999</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3454,7 +3457,7 @@
         <v>105</v>
       </c>
       <c r="C55">
-        <v>1269809.45</v>
+        <v>1270440.44</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3465,7 +3468,7 @@
         <v>22</v>
       </c>
       <c r="C56">
-        <v>1265962.6399999999</v>
+        <v>1266412.0899999996</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3476,7 +3479,7 @@
         <v>22</v>
       </c>
       <c r="C57">
-        <v>1252478.93</v>
+        <v>1253620.07</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3487,7 +3490,7 @@
         <v>109</v>
       </c>
       <c r="C58">
-        <v>1234625.05</v>
+        <v>1235166.0600000003</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3498,7 +3501,7 @@
         <v>111</v>
       </c>
       <c r="C59">
-        <v>1219067.8599999999</v>
+        <v>1219312.69</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3509,7 +3512,7 @@
         <v>49</v>
       </c>
       <c r="C60">
-        <v>1218274.32</v>
+        <v>1218774.25</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3520,7 +3523,7 @@
         <v>114</v>
       </c>
       <c r="C61">
-        <v>1210027.23</v>
+        <v>1211277.96</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3531,7 +3534,7 @@
         <v>116</v>
       </c>
       <c r="C62">
-        <v>1181389.5299999998</v>
+        <v>1182208.46</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3542,7 +3545,7 @@
         <v>118</v>
       </c>
       <c r="C63">
-        <v>1159562.8299999998</v>
+        <v>1161025.1600000001</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3553,7 +3556,7 @@
         <v>120</v>
       </c>
       <c r="C64">
-        <v>1157440.5200000003</v>
+        <v>1160120.3499999999</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3564,7 +3567,7 @@
         <v>122</v>
       </c>
       <c r="C65">
-        <v>1132947.5100000002</v>
+        <v>1133526.3200000003</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3575,7 +3578,7 @@
         <v>124</v>
       </c>
       <c r="C66">
-        <v>1096273.6800000002</v>
+        <v>1097520.25</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3586,7 +3589,7 @@
         <v>126</v>
       </c>
       <c r="C67">
-        <v>1074873.1499999999</v>
+        <v>1074391.74</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3597,7 +3600,7 @@
         <v>61</v>
       </c>
       <c r="C68">
-        <v>1068101.6400000001</v>
+        <v>1069678.5299999998</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3608,7 +3611,7 @@
         <v>129</v>
       </c>
       <c r="C69">
-        <v>1058638.3500000001</v>
+        <v>1060476.68</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3619,7 +3622,7 @@
         <v>131</v>
       </c>
       <c r="C70">
-        <v>1051061.51</v>
+        <v>1050553.33</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3630,7 +3633,7 @@
         <v>133</v>
       </c>
       <c r="C71">
-        <v>1048204.63</v>
+        <v>1048665.6599999999</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3641,7 +3644,7 @@
         <v>135</v>
       </c>
       <c r="C72">
-        <v>1036646.5100000002</v>
+        <v>1037181.31</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3652,7 +3655,7 @@
         <v>137</v>
       </c>
       <c r="C73">
-        <v>1036308.46</v>
+        <v>1036757.5900000001</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3663,7 +3666,7 @@
         <v>41</v>
       </c>
       <c r="C74">
-        <v>1030039.46</v>
+        <v>1030460.9</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3671,21 +3674,21 @@
         <v>139</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C75">
-        <v>1029076.51</v>
+        <v>1001114.52</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B76" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="C76">
-        <v>1000566.8200000001</v>
+        <v>992720.38</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3693,10 +3696,10 @@
         <v>142</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C77">
-        <v>992345.76000000013</v>
+        <v>978677.57999999984</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3707,7 +3710,7 @@
         <v>39</v>
       </c>
       <c r="C78">
-        <v>973400.92999999993</v>
+        <v>974656.98</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3718,7 +3721,7 @@
         <v>145</v>
       </c>
       <c r="C79">
-        <v>973373.29000000015</v>
+        <v>973813.66999999993</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3729,7 +3732,7 @@
         <v>147</v>
       </c>
       <c r="C80">
-        <v>964957.10000000009</v>
+        <v>965381.93000000017</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3740,7 +3743,7 @@
         <v>149</v>
       </c>
       <c r="C81">
-        <v>962705.32000000007</v>
+        <v>963798.11999999988</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3751,7 +3754,7 @@
         <v>151</v>
       </c>
       <c r="C82">
-        <v>937132.5</v>
+        <v>937598.05999999982</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3762,7 +3765,7 @@
         <v>153</v>
       </c>
       <c r="C83">
-        <v>898381.13</v>
+        <v>898647.52</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3773,7 +3776,7 @@
         <v>155</v>
       </c>
       <c r="C84">
-        <v>893987.6</v>
+        <v>894292.52000000014</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3784,7 +3787,7 @@
         <v>157</v>
       </c>
       <c r="C85">
-        <v>886921.84</v>
+        <v>888275.3</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3795,7 +3798,7 @@
         <v>159</v>
       </c>
       <c r="C86">
-        <v>881292.52</v>
+        <v>881826.36</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3806,7 +3809,7 @@
         <v>161</v>
       </c>
       <c r="C87">
-        <v>872398.70000000007</v>
+        <v>873040.91999999993</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3817,7 +3820,7 @@
         <v>163</v>
       </c>
       <c r="C88">
-        <v>869915.66</v>
+        <v>870157.06</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3828,7 +3831,7 @@
         <v>165</v>
       </c>
       <c r="C89">
-        <v>860728.78</v>
+        <v>861136.55999999982</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3839,7 +3842,7 @@
         <v>73</v>
       </c>
       <c r="C90">
-        <v>852476.32000000007</v>
+        <v>853014.75</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3850,7 +3853,7 @@
         <v>168</v>
       </c>
       <c r="C91">
-        <v>848673.2</v>
+        <v>848899.83</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3861,7 +3864,7 @@
         <v>170</v>
       </c>
       <c r="C92">
-        <v>823270.97</v>
+        <v>824094.74</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3872,7 +3875,7 @@
         <v>172</v>
       </c>
       <c r="C93">
-        <v>821810.79</v>
+        <v>822080.08</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3883,7 +3886,7 @@
         <v>49</v>
       </c>
       <c r="C94">
-        <v>818362.60000000009</v>
+        <v>818122.99999999988</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3894,7 +3897,7 @@
         <v>26</v>
       </c>
       <c r="C95">
-        <v>810925.77999999991</v>
+        <v>811733.73</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3905,7 +3908,7 @@
         <v>176</v>
       </c>
       <c r="C96">
-        <v>805097.50000000012</v>
+        <v>805472.61999999988</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3916,7 +3919,7 @@
         <v>178</v>
       </c>
       <c r="C97">
-        <v>804823.94000000006</v>
+        <v>805175.59000000008</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3927,7 +3930,7 @@
         <v>49</v>
       </c>
       <c r="C98">
-        <v>789450.37999999989</v>
+        <v>788780.74</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3938,7 +3941,7 @@
         <v>73</v>
       </c>
       <c r="C99">
-        <v>787312.33000000007</v>
+        <v>787529.48999999987</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3949,7 +3952,7 @@
         <v>6</v>
       </c>
       <c r="C100">
-        <v>782490.74999999988</v>
+        <v>784468.36</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3960,7 +3963,7 @@
         <v>183</v>
       </c>
       <c r="C101">
-        <v>767271.73</v>
+        <v>768076.07000000007</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3971,7 +3974,7 @@
         <v>185</v>
       </c>
       <c r="C102">
-        <v>763753.79</v>
+        <v>764103.27</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3982,7 +3985,7 @@
         <v>187</v>
       </c>
       <c r="C103">
-        <v>759309.15</v>
+        <v>759473.07000000007</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3990,21 +3993,21 @@
         <v>188</v>
       </c>
       <c r="B104" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="C104">
-        <v>750451.54</v>
+        <v>753039.10000000009</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
+        <v>189</v>
+      </c>
+      <c r="B105" t="s">
         <v>190</v>
       </c>
-      <c r="B105" t="s">
-        <v>116</v>
-      </c>
       <c r="C105">
-        <v>744294.70000000007</v>
+        <v>751159.28</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4015,7 +4018,7 @@
         <v>192</v>
       </c>
       <c r="C106">
-        <v>722707.44000000018</v>
+        <v>723036.56</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4026,7 +4029,7 @@
         <v>49</v>
       </c>
       <c r="C107">
-        <v>718705.25</v>
+        <v>719454.25</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4037,7 +4040,7 @@
         <v>195</v>
       </c>
       <c r="C108">
-        <v>706810.54</v>
+        <v>707098.01</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4048,7 +4051,7 @@
         <v>10</v>
       </c>
       <c r="C109">
-        <v>705262.34</v>
+        <v>705579.05</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4059,7 +4062,7 @@
         <v>198</v>
       </c>
       <c r="C110">
-        <v>705164.52</v>
+        <v>705476.23</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4070,7 +4073,7 @@
         <v>200</v>
       </c>
       <c r="C111">
-        <v>704350.54</v>
+        <v>704746.24</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4081,7 +4084,7 @@
         <v>202</v>
       </c>
       <c r="C112">
-        <v>702569.16999999993</v>
+        <v>702906.89999999991</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4092,7 +4095,7 @@
         <v>63</v>
       </c>
       <c r="C113">
-        <v>696169.2300000001</v>
+        <v>697397.84000000008</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4103,7 +4106,7 @@
         <v>205</v>
       </c>
       <c r="C114">
-        <v>689354.89000000013</v>
+        <v>689587.08</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4114,7 +4117,7 @@
         <v>207</v>
       </c>
       <c r="C115">
-        <v>678988.61</v>
+        <v>678477.73</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4125,7 +4128,7 @@
         <v>209</v>
       </c>
       <c r="C116">
-        <v>668869.15999999992</v>
+        <v>669040.68999999994</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4136,7 +4139,7 @@
         <v>49</v>
       </c>
       <c r="C117">
-        <v>666831.35</v>
+        <v>667302.98</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4147,7 +4150,7 @@
         <v>212</v>
       </c>
       <c r="C118">
-        <v>659953.86</v>
+        <v>660821.55000000005</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4158,7 +4161,7 @@
         <v>51</v>
       </c>
       <c r="C119">
-        <v>656632.92000000004</v>
+        <v>657628.22</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4169,7 +4172,7 @@
         <v>215</v>
       </c>
       <c r="C120">
-        <v>646965.86</v>
+        <v>647475.15</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4180,7 +4183,7 @@
         <v>39</v>
       </c>
       <c r="C121">
-        <v>645960.88</v>
+        <v>645775.23999999987</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4191,7 +4194,7 @@
         <v>75</v>
       </c>
       <c r="C122">
-        <v>644946.47999999986</v>
+        <v>645359.80999999994</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4202,7 +4205,7 @@
         <v>53</v>
       </c>
       <c r="C123">
-        <v>641346.34999999986</v>
+        <v>643285.14</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4213,7 +4216,7 @@
         <v>220</v>
       </c>
       <c r="C124">
-        <v>631968.53</v>
+        <v>632247.19000000006</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4224,7 +4227,7 @@
         <v>222</v>
       </c>
       <c r="C125">
-        <v>623842.12</v>
+        <v>624116.68999999994</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4235,7 +4238,7 @@
         <v>53</v>
       </c>
       <c r="C126">
-        <v>616460.03999999992</v>
+        <v>617081.14</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4246,7 +4249,7 @@
         <v>225</v>
       </c>
       <c r="C127">
-        <v>616267.33000000007</v>
+        <v>616348.43999999994</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4257,7 +4260,7 @@
         <v>227</v>
       </c>
       <c r="C128">
-        <v>613390.75999999989</v>
+        <v>613935.51</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4268,7 +4271,7 @@
         <v>33</v>
       </c>
       <c r="C129">
-        <v>609333.77</v>
+        <v>610936.12</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4279,7 +4282,7 @@
         <v>230</v>
       </c>
       <c r="C130">
-        <v>604061.02</v>
+        <v>604381.17999999993</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4290,7 +4293,7 @@
         <v>232</v>
       </c>
       <c r="C131">
-        <v>599649.40999999992</v>
+        <v>600152.44999999995</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4301,7 +4304,7 @@
         <v>192</v>
       </c>
       <c r="C132">
-        <v>597415.48000000021</v>
+        <v>598785.03999999992</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4312,7 +4315,7 @@
         <v>53</v>
       </c>
       <c r="C133">
-        <v>592944.00000000012</v>
+        <v>593101.93000000005</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4323,7 +4326,7 @@
         <v>236</v>
       </c>
       <c r="C134">
-        <v>589368.85</v>
+        <v>589814.44999999995</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4334,7 +4337,7 @@
         <v>238</v>
       </c>
       <c r="C135">
-        <v>577127.04000000015</v>
+        <v>577392.76</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4345,7 +4348,7 @@
         <v>240</v>
       </c>
       <c r="C136">
-        <v>574473.34000000008</v>
+        <v>574819.69000000006</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4353,21 +4356,21 @@
         <v>241</v>
       </c>
       <c r="B137" t="s">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="C137">
-        <v>571701.13</v>
+        <v>571483.86</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
+        <v>242</v>
+      </c>
+      <c r="B138" t="s">
         <v>243</v>
       </c>
-      <c r="B138" t="s">
-        <v>39</v>
-      </c>
       <c r="C138">
-        <v>571225.03</v>
+        <v>570546.87999999989</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4378,7 +4381,7 @@
         <v>245</v>
       </c>
       <c r="C139">
-        <v>568067.5199999999</v>
+        <v>568267.91</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4389,7 +4392,7 @@
         <v>247</v>
       </c>
       <c r="C140">
-        <v>558804.02</v>
+        <v>558918.14999999991</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4400,7 +4403,7 @@
         <v>249</v>
       </c>
       <c r="C141">
-        <v>557407.67999999993</v>
+        <v>558202.18999999994</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4411,7 +4414,7 @@
         <v>251</v>
       </c>
       <c r="C142">
-        <v>549694.19999999995</v>
+        <v>549932.27</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4422,7 +4425,7 @@
         <v>253</v>
       </c>
       <c r="C143">
-        <v>549530.56000000006</v>
+        <v>549567.42999999993</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4433,7 +4436,7 @@
         <v>255</v>
       </c>
       <c r="C144">
-        <v>542571.65</v>
+        <v>542814.8600000001</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4444,7 +4447,7 @@
         <v>257</v>
       </c>
       <c r="C145">
-        <v>538089.38</v>
+        <v>538337.56000000006</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4455,7 +4458,7 @@
         <v>259</v>
       </c>
       <c r="C146">
-        <v>536357.27</v>
+        <v>536824.57999999996</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4466,7 +4469,7 @@
         <v>215</v>
       </c>
       <c r="C147">
-        <v>532267.97000000009</v>
+        <v>532506.81000000006</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4477,7 +4480,7 @@
         <v>262</v>
       </c>
       <c r="C148">
-        <v>519344.2300000001</v>
+        <v>519282.16999999993</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4488,7 +4491,7 @@
         <v>264</v>
       </c>
       <c r="C149">
-        <v>512762.07000000012</v>
+        <v>513121.54</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4499,7 +4502,7 @@
         <v>266</v>
       </c>
       <c r="C150">
-        <v>510853.56</v>
+        <v>511107.19</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4510,7 +4513,7 @@
         <v>268</v>
       </c>
       <c r="C151">
-        <v>507235.34000000008</v>
+        <v>507784.22999999992</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4521,7 +4524,7 @@
         <v>270</v>
       </c>
       <c r="C152">
-        <v>505352.78</v>
+        <v>505900.86</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4532,7 +4535,7 @@
         <v>272</v>
       </c>
       <c r="C153">
-        <v>503489.35</v>
+        <v>503634.81</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4543,7 +4546,7 @@
         <v>274</v>
       </c>
       <c r="C154">
-        <v>488724.07</v>
+        <v>488998.38</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4554,7 +4557,7 @@
         <v>276</v>
       </c>
       <c r="C155">
-        <v>486895.72000000003</v>
+        <v>487097.63</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4562,21 +4565,21 @@
         <v>277</v>
       </c>
       <c r="B156" t="s">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="C156">
-        <v>481309.71</v>
+        <v>481678.82</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B157" t="s">
-        <v>279</v>
+        <v>41</v>
       </c>
       <c r="C157">
-        <v>480391.13</v>
+        <v>481532.99999999994</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4587,7 +4590,7 @@
         <v>281</v>
       </c>
       <c r="C158">
-        <v>466744.9</v>
+        <v>466879.95</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4598,7 +4601,7 @@
         <v>283</v>
       </c>
       <c r="C159">
-        <v>458149.94000000006</v>
+        <v>458357.42000000004</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4609,7 +4612,7 @@
         <v>285</v>
       </c>
       <c r="C160">
-        <v>456921.93</v>
+        <v>457116.65</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4620,7 +4623,7 @@
         <v>287</v>
       </c>
       <c r="C161">
-        <v>456588.35</v>
+        <v>456763.65</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4631,7 +4634,7 @@
         <v>289</v>
       </c>
       <c r="C162">
-        <v>455081.12</v>
+        <v>456238.36</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4642,7 +4645,7 @@
         <v>14</v>
       </c>
       <c r="C163">
-        <v>451149.66999999993</v>
+        <v>452296.8</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4653,7 +4656,7 @@
         <v>126</v>
       </c>
       <c r="C164">
-        <v>446984.09</v>
+        <v>447184.97</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4664,7 +4667,7 @@
         <v>293</v>
       </c>
       <c r="C165">
-        <v>435529.14</v>
+        <v>436200.7</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4675,7 +4678,7 @@
         <v>63</v>
       </c>
       <c r="C166">
-        <v>429015.54</v>
+        <v>429211.69</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4686,7 +4689,7 @@
         <v>10</v>
       </c>
       <c r="C167">
-        <v>427762.45</v>
+        <v>427950.86</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4697,7 +4700,7 @@
         <v>240</v>
       </c>
       <c r="C168">
-        <v>424019.94</v>
+        <v>424192.57000000007</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4708,7 +4711,7 @@
         <v>298</v>
       </c>
       <c r="C169">
-        <v>421556.19</v>
+        <v>421744.95</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4719,7 +4722,7 @@
         <v>200</v>
       </c>
       <c r="C170">
-        <v>421070.6</v>
+        <v>421335.24</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4730,7 +4733,7 @@
         <v>301</v>
       </c>
       <c r="C171">
-        <v>420573.12</v>
+        <v>420969.83</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4741,7 +4744,7 @@
         <v>303</v>
       </c>
       <c r="C172">
-        <v>418943.18999999994</v>
+        <v>419130.93000000005</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4749,10 +4752,10 @@
         <v>304</v>
       </c>
       <c r="B173" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="C173">
-        <v>417181.49000000005</v>
+        <v>417886.16999999993</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4760,10 +4763,10 @@
         <v>305</v>
       </c>
       <c r="B174" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="C174">
-        <v>417118.81</v>
+        <v>417563.44000000006</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4771,10 +4774,10 @@
         <v>306</v>
       </c>
       <c r="B175" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="C175">
-        <v>416721.72</v>
+        <v>415322.18000000005</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4785,7 +4788,7 @@
         <v>308</v>
       </c>
       <c r="C176">
-        <v>414324.55</v>
+        <v>414508.31</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4796,7 +4799,7 @@
         <v>310</v>
       </c>
       <c r="C177">
-        <v>413973.76000000001</v>
+        <v>414267.35000000003</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4807,7 +4810,7 @@
         <v>49</v>
       </c>
       <c r="C178">
-        <v>406677.31</v>
+        <v>406853.45</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4818,7 +4821,7 @@
         <v>313</v>
       </c>
       <c r="C179">
-        <v>404780.56000000006</v>
+        <v>404921.2</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4829,7 +4832,7 @@
         <v>315</v>
       </c>
       <c r="C180">
-        <v>402368.79000000004</v>
+        <v>402655.17</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4840,7 +4843,7 @@
         <v>317</v>
       </c>
       <c r="C181">
-        <v>401400.35000000003</v>
+        <v>401564.13</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4851,7 +4854,7 @@
         <v>319</v>
       </c>
       <c r="C182">
-        <v>387646.45999999996</v>
+        <v>387706.12</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4862,7 +4865,7 @@
         <v>321</v>
       </c>
       <c r="C183">
-        <v>386529.1</v>
+        <v>386933.78999999992</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4873,7 +4876,7 @@
         <v>323</v>
       </c>
       <c r="C184">
-        <v>384206.78</v>
+        <v>384480.99</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4884,7 +4887,7 @@
         <v>325</v>
       </c>
       <c r="C185">
-        <v>376095.58999999997</v>
+        <v>376478.44</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4895,7 +4898,7 @@
         <v>323</v>
       </c>
       <c r="C186">
-        <v>373283.99</v>
+        <v>373630.54000000004</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4906,7 +4909,7 @@
         <v>328</v>
       </c>
       <c r="C187">
-        <v>370767.44</v>
+        <v>370864.80000000005</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4917,7 +4920,7 @@
         <v>330</v>
       </c>
       <c r="C188">
-        <v>369603.55</v>
+        <v>370300.7</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4928,7 +4931,7 @@
         <v>332</v>
       </c>
       <c r="C189">
-        <v>369180.99</v>
+        <v>369767.06</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4939,7 +4942,7 @@
         <v>334</v>
       </c>
       <c r="C190">
-        <v>368573.28999999992</v>
+        <v>369541.95999999996</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4950,7 +4953,7 @@
         <v>336</v>
       </c>
       <c r="C191">
-        <v>368021.42</v>
+        <v>368405.28000000009</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4958,10 +4961,10 @@
         <v>337</v>
       </c>
       <c r="B192" t="s">
-        <v>262</v>
+        <v>88</v>
       </c>
       <c r="C192">
-        <v>367151.37000000005</v>
+        <v>367911.66000000003</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4969,10 +4972,10 @@
         <v>338</v>
       </c>
       <c r="B193" t="s">
-        <v>88</v>
+        <v>262</v>
       </c>
       <c r="C193">
-        <v>366928.27999999997</v>
+        <v>367048</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4983,7 +4986,7 @@
         <v>340</v>
       </c>
       <c r="C194">
-        <v>366653.44000000006</v>
+        <v>366814.23</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4994,7 +4997,7 @@
         <v>75</v>
       </c>
       <c r="C195">
-        <v>362156.94</v>
+        <v>362413.20999999996</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -5005,7 +5008,7 @@
         <v>343</v>
       </c>
       <c r="C196">
-        <v>361901.42</v>
+        <v>362061.55000000005</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -5016,7 +5019,7 @@
         <v>39</v>
       </c>
       <c r="C197">
-        <v>361824.70999999996</v>
+        <v>361984.76999999996</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -5027,7 +5030,7 @@
         <v>346</v>
       </c>
       <c r="C198">
-        <v>361222.76</v>
+        <v>361326.87000000005</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -5035,10 +5038,10 @@
         <v>347</v>
       </c>
       <c r="B199" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C199">
-        <v>360851.12</v>
+        <v>361008.08000000007</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -5049,7 +5052,7 @@
         <v>349</v>
       </c>
       <c r="C200">
-        <v>359349.01</v>
+        <v>359447.51</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -5060,7 +5063,7 @@
         <v>351</v>
       </c>
       <c r="C201">
-        <v>354104.21</v>
+        <v>354080.62</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -5071,7 +5074,7 @@
         <v>353</v>
       </c>
       <c r="C202">
-        <v>353880.25999999995</v>
+        <v>354000.83</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -5082,7 +5085,7 @@
         <v>355</v>
       </c>
       <c r="C203">
-        <v>351140.87</v>
+        <v>351299.91</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -5101,21 +5104,21 @@
         <v>358</v>
       </c>
       <c r="B205" t="s">
-        <v>249</v>
+        <v>359</v>
       </c>
       <c r="C205">
-        <v>342628.67</v>
+        <v>346124.67999999993</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B206" t="s">
-        <v>360</v>
+        <v>249</v>
       </c>
       <c r="C206">
-        <v>342474.47000000003</v>
+        <v>342769.25</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5126,7 +5129,7 @@
         <v>362</v>
       </c>
       <c r="C207">
-        <v>341317.47000000003</v>
+        <v>342714.01</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -5137,7 +5140,7 @@
         <v>364</v>
       </c>
       <c r="C208">
-        <v>341221.74000000005</v>
+        <v>341684.04000000004</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5148,7 +5151,7 @@
         <v>366</v>
       </c>
       <c r="C209">
-        <v>336152.46000000008</v>
+        <v>341326.95999999996</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5159,7 +5162,7 @@
         <v>368</v>
       </c>
       <c r="C210">
-        <v>335985.27</v>
+        <v>336304.59</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5170,7 +5173,7 @@
         <v>370</v>
       </c>
       <c r="C211">
-        <v>333330.49</v>
+        <v>336098.64</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5181,7 +5184,7 @@
         <v>372</v>
       </c>
       <c r="C212">
-        <v>331251.86</v>
+        <v>333474.24</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5192,7 +5195,7 @@
         <v>374</v>
       </c>
       <c r="C213">
-        <v>328981.88</v>
+        <v>331396.13</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5203,7 +5206,7 @@
         <v>376</v>
       </c>
       <c r="C214">
-        <v>325447.87</v>
+        <v>329317.08</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5214,7 +5217,7 @@
         <v>378</v>
       </c>
       <c r="C215">
-        <v>325071.85000000003</v>
+        <v>325581.57999999996</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5225,7 +5228,7 @@
         <v>380</v>
       </c>
       <c r="C216">
-        <v>323620.78999999998</v>
+        <v>325183.38</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5236,7 +5239,7 @@
         <v>382</v>
       </c>
       <c r="C217">
-        <v>320886.27999999997</v>
+        <v>321578.97999999992</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5247,7 +5250,7 @@
         <v>384</v>
       </c>
       <c r="C218">
-        <v>318893.69</v>
+        <v>321199</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5255,32 +5258,32 @@
         <v>385</v>
       </c>
       <c r="B219" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="C219">
-        <v>314653.50999999995</v>
+        <v>319036.13</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B220" t="s">
-        <v>103</v>
+        <v>362</v>
       </c>
       <c r="C220">
-        <v>312553.74999999988</v>
+        <v>314785.74</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B221" t="s">
-        <v>388</v>
+        <v>103</v>
       </c>
       <c r="C221">
-        <v>309443.61</v>
+        <v>313377.19000000006</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5288,87 +5291,87 @@
         <v>389</v>
       </c>
       <c r="B222" t="s">
-        <v>88</v>
+        <v>390</v>
       </c>
       <c r="C222">
-        <v>308942.02999999997</v>
+        <v>309580.59999999998</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B223" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C223">
-        <v>308653.2</v>
+        <v>309129.13</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B224" t="s">
-        <v>380</v>
+        <v>49</v>
       </c>
       <c r="C224">
-        <v>308317.13</v>
+        <v>308795.25</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B225" t="s">
-        <v>4</v>
+        <v>382</v>
       </c>
       <c r="C225">
-        <v>301848.39</v>
+        <v>308468.43999999994</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B226" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C226">
-        <v>297297.19</v>
+        <v>308049.91999999993</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B227" t="s">
-        <v>380</v>
+        <v>4</v>
       </c>
       <c r="C227">
-        <v>296081.24</v>
+        <v>301980.66000000003</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B228" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="C228">
-        <v>293822.74</v>
+        <v>297449.83999999997</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B229" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="C229">
-        <v>291638.36</v>
+        <v>296072.25</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5376,10 +5379,10 @@
         <v>398</v>
       </c>
       <c r="B230" t="s">
-        <v>321</v>
+        <v>168</v>
       </c>
       <c r="C230">
-        <v>291612.17</v>
+        <v>293987.19</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5387,32 +5390,32 @@
         <v>399</v>
       </c>
       <c r="B231" t="s">
-        <v>400</v>
+        <v>321</v>
       </c>
       <c r="C231">
-        <v>290630.2</v>
+        <v>291959.31</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
+        <v>400</v>
+      </c>
+      <c r="B232" t="s">
         <v>401</v>
       </c>
-      <c r="B232" t="s">
-        <v>402</v>
-      </c>
       <c r="C232">
-        <v>284253.68</v>
+        <v>291729.71999999997</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
+        <v>402</v>
+      </c>
+      <c r="B233" t="s">
         <v>403</v>
       </c>
-      <c r="B233" t="s">
-        <v>73</v>
-      </c>
       <c r="C233">
-        <v>283971.95999999996</v>
+        <v>290707.01999999996</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5420,32 +5423,32 @@
         <v>404</v>
       </c>
       <c r="B234" t="s">
-        <v>53</v>
+        <v>405</v>
       </c>
       <c r="C234">
-        <v>282153.7</v>
+        <v>284341.63</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B235" t="s">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="C235">
-        <v>281917.31999999995</v>
+        <v>284277.39000000007</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B236" t="s">
-        <v>407</v>
+        <v>53</v>
       </c>
       <c r="C236">
-        <v>274321.06000000006</v>
+        <v>282536.16000000003</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5453,54 +5456,54 @@
         <v>408</v>
       </c>
       <c r="B237" t="s">
-        <v>409</v>
+        <v>289</v>
       </c>
       <c r="C237">
-        <v>273859.09999999998</v>
+        <v>282195.42000000004</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
+        <v>409</v>
+      </c>
+      <c r="B238" t="s">
         <v>410</v>
       </c>
-      <c r="B238" t="s">
-        <v>411</v>
-      </c>
       <c r="C238">
-        <v>272727.77</v>
+        <v>274596.79000000004</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
+        <v>411</v>
+      </c>
+      <c r="B239" t="s">
         <v>412</v>
       </c>
-      <c r="B239" t="s">
-        <v>413</v>
-      </c>
       <c r="C239">
-        <v>271206.57</v>
+        <v>273977.67</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
+        <v>413</v>
+      </c>
+      <c r="B240" t="s">
         <v>414</v>
       </c>
-      <c r="B240" t="s">
-        <v>415</v>
-      </c>
       <c r="C240">
-        <v>271029.46000000002</v>
+        <v>272855.26</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
+        <v>415</v>
+      </c>
+      <c r="B241" t="s">
         <v>416</v>
       </c>
-      <c r="B241" t="s">
-        <v>310</v>
-      </c>
       <c r="C241">
-        <v>266007.37</v>
+        <v>271287.13</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5511,7 +5514,7 @@
         <v>222</v>
       </c>
       <c r="C242">
-        <v>265992.21999999997</v>
+        <v>266308.69</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5519,65 +5522,65 @@
         <v>418</v>
       </c>
       <c r="B243" t="s">
-        <v>419</v>
+        <v>310</v>
       </c>
       <c r="C243">
-        <v>262959.49</v>
+        <v>266184.17</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
+        <v>419</v>
+      </c>
+      <c r="B244" t="s">
         <v>420</v>
       </c>
-      <c r="B244" t="s">
-        <v>421</v>
-      </c>
       <c r="C244">
-        <v>262939.74</v>
+        <v>263249.73</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
+        <v>421</v>
+      </c>
+      <c r="B245" t="s">
         <v>422</v>
       </c>
-      <c r="B245" t="s">
-        <v>423</v>
-      </c>
       <c r="C245">
-        <v>261344.36000000002</v>
+        <v>263216.34999999998</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
+        <v>423</v>
+      </c>
+      <c r="B246" t="s">
         <v>424</v>
       </c>
-      <c r="B246" t="s">
-        <v>425</v>
-      </c>
       <c r="C246">
-        <v>261318.40999999997</v>
+        <v>261554.72999999998</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
+        <v>425</v>
+      </c>
+      <c r="B247" t="s">
         <v>426</v>
       </c>
-      <c r="B247" t="s">
-        <v>427</v>
-      </c>
       <c r="C247">
-        <v>261309.10000000003</v>
+        <v>261498.74999999997</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
+        <v>427</v>
+      </c>
+      <c r="B248" t="s">
         <v>428</v>
       </c>
-      <c r="B248" t="s">
-        <v>116</v>
-      </c>
       <c r="C248">
-        <v>256264.78000000003</v>
+        <v>261488.93</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5585,43 +5588,43 @@
         <v>429</v>
       </c>
       <c r="B249" t="s">
-        <v>430</v>
+        <v>116</v>
       </c>
       <c r="C249">
-        <v>255288.32000000001</v>
+        <v>256583.52000000002</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
+        <v>430</v>
+      </c>
+      <c r="B250" t="s">
         <v>431</v>
       </c>
-      <c r="B250" t="s">
-        <v>432</v>
-      </c>
       <c r="C250">
-        <v>252035.56</v>
+        <v>255530.5</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
+        <v>432</v>
+      </c>
+      <c r="B251" t="s">
         <v>433</v>
       </c>
-      <c r="B251" t="s">
-        <v>434</v>
-      </c>
       <c r="C251">
-        <v>249483.83000000002</v>
+        <v>252149.09999999998</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
+        <v>434</v>
+      </c>
+      <c r="B252" t="s">
         <v>435</v>
       </c>
-      <c r="B252" t="s">
-        <v>151</v>
-      </c>
       <c r="C252">
-        <v>249093.50999999998</v>
+        <v>249740.14</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5629,87 +5632,87 @@
         <v>436</v>
       </c>
       <c r="B253" t="s">
-        <v>437</v>
+        <v>151</v>
       </c>
       <c r="C253">
-        <v>246905.00999999998</v>
+        <v>249319.31</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
+        <v>437</v>
+      </c>
+      <c r="B254" t="s">
         <v>438</v>
       </c>
-      <c r="B254" t="s">
-        <v>439</v>
-      </c>
       <c r="C254">
-        <v>244437.12</v>
+        <v>247065.75000000003</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
+        <v>439</v>
+      </c>
+      <c r="B255" t="s">
         <v>440</v>
       </c>
-      <c r="B255" t="s">
-        <v>441</v>
-      </c>
       <c r="C255">
-        <v>244299.38</v>
+        <v>244692.32</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
+        <v>441</v>
+      </c>
+      <c r="B256" t="s">
         <v>442</v>
       </c>
-      <c r="B256" t="s">
-        <v>443</v>
-      </c>
       <c r="C256">
-        <v>242645</v>
+        <v>244529.25999999998</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
+        <v>443</v>
+      </c>
+      <c r="B257" t="s">
         <v>444</v>
       </c>
-      <c r="B257" t="s">
-        <v>445</v>
-      </c>
       <c r="C257">
-        <v>242116.43</v>
+        <v>242753.62</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
+        <v>445</v>
+      </c>
+      <c r="B258" t="s">
         <v>446</v>
       </c>
-      <c r="B258" t="s">
-        <v>447</v>
-      </c>
       <c r="C258">
-        <v>241120.49999999997</v>
+        <v>242224.86000000002</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
+        <v>447</v>
+      </c>
+      <c r="B259" t="s">
         <v>448</v>
       </c>
-      <c r="B259" t="s">
-        <v>449</v>
-      </c>
       <c r="C259">
-        <v>240614.64</v>
+        <v>241204.53999999998</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
+        <v>449</v>
+      </c>
+      <c r="B260" t="s">
         <v>450</v>
       </c>
-      <c r="B260" t="s">
-        <v>423</v>
-      </c>
       <c r="C260">
-        <v>237879.98</v>
+        <v>240789.43999999997</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5717,21 +5720,21 @@
         <v>451</v>
       </c>
       <c r="B261" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="C261">
-        <v>236803.56999999998</v>
+        <v>238067.66</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
+        <v>452</v>
+      </c>
+      <c r="B262" t="s">
         <v>453</v>
       </c>
-      <c r="B262" t="s">
-        <v>198</v>
-      </c>
       <c r="C262">
-        <v>236634.08</v>
+        <v>237044.65</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5739,43 +5742,43 @@
         <v>454</v>
       </c>
       <c r="B263" t="s">
-        <v>455</v>
+        <v>198</v>
       </c>
       <c r="C263">
-        <v>236357.69</v>
+        <v>236863.82</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
+        <v>455</v>
+      </c>
+      <c r="B264" t="s">
         <v>456</v>
       </c>
-      <c r="B264" t="s">
-        <v>457</v>
-      </c>
       <c r="C264">
-        <v>234986.54</v>
+        <v>236457.69999999998</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
+        <v>457</v>
+      </c>
+      <c r="B265" t="s">
         <v>458</v>
       </c>
-      <c r="B265" t="s">
-        <v>459</v>
-      </c>
       <c r="C265">
-        <v>233159.5</v>
+        <v>235102.59</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
+        <v>459</v>
+      </c>
+      <c r="B266" t="s">
         <v>460</v>
       </c>
-      <c r="B266" t="s">
-        <v>443</v>
-      </c>
       <c r="C266">
-        <v>230646.13</v>
+        <v>233339.05</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5783,76 +5786,76 @@
         <v>461</v>
       </c>
       <c r="B267" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="C267">
-        <v>230030.49000000002</v>
+        <v>230910.3</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
+        <v>462</v>
+      </c>
+      <c r="B268" t="s">
         <v>463</v>
       </c>
-      <c r="B268" t="s">
-        <v>464</v>
-      </c>
       <c r="C268">
-        <v>229681.37000000002</v>
+        <v>230133.12</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
+        <v>464</v>
+      </c>
+      <c r="B269" t="s">
         <v>465</v>
       </c>
-      <c r="B269" t="s">
-        <v>466</v>
-      </c>
       <c r="C269">
-        <v>229434.01</v>
+        <v>229659.3</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B270" t="s">
         <v>41</v>
       </c>
       <c r="C270">
-        <v>226767.73</v>
+        <v>226885.68</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
+        <v>467</v>
+      </c>
+      <c r="B271" t="s">
         <v>468</v>
       </c>
-      <c r="B271" t="s">
-        <v>469</v>
-      </c>
       <c r="C271">
-        <v>219294.06000000003</v>
+        <v>225766.12000000002</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
+        <v>469</v>
+      </c>
+      <c r="B272" t="s">
         <v>470</v>
       </c>
-      <c r="B272" t="s">
-        <v>471</v>
-      </c>
       <c r="C272">
-        <v>217957.5</v>
+        <v>219391.71000000002</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
+        <v>471</v>
+      </c>
+      <c r="B273" t="s">
         <v>472</v>
       </c>
-      <c r="B273" t="s">
-        <v>70</v>
-      </c>
       <c r="C273">
-        <v>216802.23</v>
+        <v>218037.16999999998</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5860,21 +5863,21 @@
         <v>473</v>
       </c>
       <c r="B274" t="s">
-        <v>474</v>
+        <v>70</v>
       </c>
       <c r="C274">
-        <v>215850.84999999998</v>
+        <v>216855.63</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
+        <v>474</v>
+      </c>
+      <c r="B275" t="s">
         <v>475</v>
       </c>
-      <c r="B275" t="s">
-        <v>287</v>
-      </c>
       <c r="C275">
-        <v>213245.79000000004</v>
+        <v>215950.36000000002</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5882,32 +5885,32 @@
         <v>476</v>
       </c>
       <c r="B276" t="s">
-        <v>477</v>
+        <v>287</v>
       </c>
       <c r="C276">
-        <v>210044.38</v>
+        <v>213247.32000000004</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
+        <v>477</v>
+      </c>
+      <c r="B277" t="s">
         <v>478</v>
       </c>
-      <c r="B277" t="s">
-        <v>479</v>
-      </c>
       <c r="C277">
-        <v>209712.85</v>
+        <v>209981.46</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
+        <v>479</v>
+      </c>
+      <c r="B278" t="s">
         <v>480</v>
       </c>
-      <c r="B278" t="s">
-        <v>449</v>
-      </c>
       <c r="C278">
-        <v>208949.78</v>
+        <v>209804.81</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5915,10 +5918,10 @@
         <v>481</v>
       </c>
       <c r="B279" t="s">
-        <v>92</v>
+        <v>450</v>
       </c>
       <c r="C279">
-        <v>207172.35000000006</v>
+        <v>209042.15</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5929,7 +5932,7 @@
         <v>75</v>
       </c>
       <c r="C280">
-        <v>206962.84000000003</v>
+        <v>207182.84999999998</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5940,7 +5943,7 @@
         <v>270</v>
       </c>
       <c r="C281">
-        <v>204720.57000000007</v>
+        <v>204910.84</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5951,7 +5954,7 @@
         <v>247</v>
       </c>
       <c r="C282">
-        <v>204511.55000000002</v>
+        <v>204445.02</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5962,7 +5965,7 @@
         <v>486</v>
       </c>
       <c r="C283">
-        <v>203292.1</v>
+        <v>203378.53000000003</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5973,7 +5976,7 @@
         <v>287</v>
       </c>
       <c r="C284">
-        <v>201618.94999999998</v>
+        <v>201625.86000000002</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5984,7 +5987,7 @@
         <v>489</v>
       </c>
       <c r="C285">
-        <v>200913.93</v>
+        <v>200274.31</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5995,7 +5998,7 @@
         <v>310</v>
       </c>
       <c r="C286">
-        <v>199707.52000000002</v>
+        <v>199841.38</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -6006,7 +6009,7 @@
         <v>51</v>
       </c>
       <c r="C287">
-        <v>199489.3</v>
+        <v>199756.65999999997</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -6017,7 +6020,7 @@
         <v>493</v>
       </c>
       <c r="C288">
-        <v>199337.29</v>
+        <v>199491.28</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -6028,7 +6031,7 @@
         <v>53</v>
       </c>
       <c r="C289">
-        <v>195427.18</v>
+        <v>195624.27000000002</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6039,7 +6042,7 @@
         <v>88</v>
       </c>
       <c r="C290">
-        <v>193859.04</v>
+        <v>193869.81</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -6050,7 +6053,7 @@
         <v>497</v>
       </c>
       <c r="C291">
-        <v>192871.8</v>
+        <v>192954.05</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -6061,7 +6064,7 @@
         <v>289</v>
       </c>
       <c r="C292">
-        <v>191699.46</v>
+        <v>191769.94</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -6072,7 +6075,7 @@
         <v>500</v>
       </c>
       <c r="C293">
-        <v>190901.39</v>
+        <v>190952.49000000002</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6083,7 +6086,7 @@
         <v>502</v>
       </c>
       <c r="C294">
-        <v>189809.31</v>
+        <v>189899.73</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -6094,7 +6097,7 @@
         <v>126</v>
       </c>
       <c r="C295">
-        <v>183901.27</v>
+        <v>184027.69</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -6105,7 +6108,7 @@
         <v>39</v>
       </c>
       <c r="C296">
-        <v>183532</v>
+        <v>183710.75000000003</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -6116,7 +6119,7 @@
         <v>506</v>
       </c>
       <c r="C297">
-        <v>183006.11</v>
+        <v>183190.79</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -6127,7 +6130,7 @@
         <v>508</v>
       </c>
       <c r="C298">
-        <v>180312.25</v>
+        <v>180424.78</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -6138,7 +6141,7 @@
         <v>510</v>
       </c>
       <c r="C299">
-        <v>176924.54999999996</v>
+        <v>177084.90000000002</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6149,7 +6152,7 @@
         <v>75</v>
       </c>
       <c r="C300">
-        <v>174574.22999999998</v>
+        <v>174652.46</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -6157,10 +6160,10 @@
         <v>512</v>
       </c>
       <c r="B301" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C301">
-        <v>172431.7</v>
+        <v>172504.30000000002</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -6171,7 +6174,7 @@
         <v>514</v>
       </c>
       <c r="C302">
-        <v>169498.55</v>
+        <v>169684.91</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6179,10 +6182,10 @@
         <v>515</v>
       </c>
       <c r="B303" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C303">
-        <v>169134.72999999998</v>
+        <v>169333.61000000002</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6193,7 +6196,7 @@
         <v>116</v>
       </c>
       <c r="C304">
-        <v>165797.31</v>
+        <v>165861.85</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6204,7 +6207,7 @@
         <v>518</v>
       </c>
       <c r="C305">
-        <v>164401.78999999998</v>
+        <v>164640.47</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6215,7 +6218,7 @@
         <v>520</v>
       </c>
       <c r="C306">
-        <v>161827.54999999999</v>
+        <v>161893.63</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6226,7 +6229,7 @@
         <v>522</v>
       </c>
       <c r="C307">
-        <v>160544.53</v>
+        <v>160610.1</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6234,21 +6237,21 @@
         <v>523</v>
       </c>
       <c r="B308" t="s">
-        <v>524</v>
+        <v>118</v>
       </c>
       <c r="C308">
-        <v>160271.18</v>
+        <v>160366.99000000002</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
+        <v>524</v>
+      </c>
+      <c r="B309" t="s">
         <v>525</v>
       </c>
-      <c r="B309" t="s">
-        <v>120</v>
-      </c>
       <c r="C309">
-        <v>160194.78</v>
+        <v>160340.04</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6259,7 +6262,7 @@
         <v>527</v>
       </c>
       <c r="C310">
-        <v>158218.28</v>
+        <v>158288.22</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6267,10 +6270,10 @@
         <v>528</v>
       </c>
       <c r="B311" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C311">
-        <v>157925.18</v>
+        <v>157964</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6281,7 +6284,7 @@
         <v>73</v>
       </c>
       <c r="C312">
-        <v>157821.85999999999</v>
+        <v>157890.54999999999</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6289,10 +6292,10 @@
         <v>530</v>
       </c>
       <c r="B313" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C313">
-        <v>157582.53</v>
+        <v>157656.1</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6303,7 +6306,7 @@
         <v>73</v>
       </c>
       <c r="C314">
-        <v>156821.06</v>
+        <v>156878.96</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6314,7 +6317,7 @@
         <v>73</v>
       </c>
       <c r="C315">
-        <v>156436.57</v>
+        <v>156489.82999999999</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -6325,7 +6328,7 @@
         <v>33</v>
       </c>
       <c r="C316">
-        <v>154512.87999999998</v>
+        <v>154582.04999999999</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6336,7 +6339,7 @@
         <v>535</v>
       </c>
       <c r="C317">
-        <v>152512.21000000002</v>
+        <v>152559.14000000001</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6347,7 +6350,7 @@
         <v>41</v>
       </c>
       <c r="C318">
-        <v>152071.18</v>
+        <v>152133.26</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6358,7 +6361,7 @@
         <v>538</v>
       </c>
       <c r="C319">
-        <v>149402.95000000001</v>
+        <v>149442.98000000001</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6369,7 +6372,7 @@
         <v>253</v>
       </c>
       <c r="C320">
-        <v>148437.40000000002</v>
+        <v>148580.95000000001</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6380,7 +6383,7 @@
         <v>541</v>
       </c>
       <c r="C321">
-        <v>147138.70000000001</v>
+        <v>147193.36000000002</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6391,7 +6394,7 @@
         <v>543</v>
       </c>
       <c r="C322">
-        <v>146927.81</v>
+        <v>146994</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6399,10 +6402,10 @@
         <v>544</v>
       </c>
       <c r="B323" t="s">
-        <v>63</v>
+        <v>448</v>
       </c>
       <c r="C323">
-        <v>144641.73000000001</v>
+        <v>144706.13</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6410,10 +6413,10 @@
         <v>545</v>
       </c>
       <c r="B324" t="s">
-        <v>447</v>
+        <v>63</v>
       </c>
       <c r="C324">
-        <v>144596.25</v>
+        <v>144697.25</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6424,7 +6427,7 @@
         <v>547</v>
       </c>
       <c r="C325">
-        <v>144573.00000000003</v>
+        <v>144638.70000000001</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -6435,7 +6438,7 @@
         <v>222</v>
       </c>
       <c r="C326">
-        <v>144250.81000000003</v>
+        <v>144312.95000000001</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6446,7 +6449,7 @@
         <v>303</v>
       </c>
       <c r="C327">
-        <v>140733.32</v>
+        <v>141032.64000000001</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6457,7 +6460,7 @@
         <v>551</v>
       </c>
       <c r="C328">
-        <v>140549.84</v>
+        <v>140607.56</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6468,7 +6471,7 @@
         <v>547</v>
       </c>
       <c r="C329">
-        <v>139679.15999999997</v>
+        <v>139690.29999999999</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6479,7 +6482,7 @@
         <v>554</v>
       </c>
       <c r="C330">
-        <v>138759.88</v>
+        <v>138900.28</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6490,7 +6493,7 @@
         <v>556</v>
       </c>
       <c r="C331">
-        <v>138596.64000000001</v>
+        <v>138695.62999999998</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6501,7 +6504,7 @@
         <v>558</v>
       </c>
       <c r="C332">
-        <v>138218.28</v>
+        <v>138280.07</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6512,7 +6515,7 @@
         <v>560</v>
       </c>
       <c r="C333">
-        <v>138002.41999999998</v>
+        <v>138075.40999999997</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6523,7 +6526,7 @@
         <v>562</v>
       </c>
       <c r="C334">
-        <v>136686.48000000001</v>
+        <v>136780.25</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6534,7 +6537,7 @@
         <v>564</v>
       </c>
       <c r="C335">
-        <v>136181.24000000002</v>
+        <v>136244.85999999999</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6545,7 +6548,7 @@
         <v>566</v>
       </c>
       <c r="C336">
-        <v>129738.58</v>
+        <v>129796.4</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6553,10 +6556,10 @@
         <v>567</v>
       </c>
       <c r="B337" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C337">
-        <v>129680.01</v>
+        <v>129769.67</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6567,7 +6570,7 @@
         <v>569</v>
       </c>
       <c r="C338">
-        <v>129020.01000000001</v>
+        <v>129051.5</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6578,7 +6581,7 @@
         <v>232</v>
       </c>
       <c r="C339">
-        <v>128281.56</v>
+        <v>128338.37000000002</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6586,10 +6589,10 @@
         <v>571</v>
       </c>
       <c r="B340" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C340">
-        <v>127657.28</v>
+        <v>127711.15000000001</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6600,7 +6603,7 @@
         <v>573</v>
       </c>
       <c r="C341">
-        <v>127263.86</v>
+        <v>127313.19000000003</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6611,7 +6614,7 @@
         <v>317</v>
       </c>
       <c r="C342">
-        <v>126795.23000000001</v>
+        <v>126852.5</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6619,10 +6622,10 @@
         <v>575</v>
       </c>
       <c r="B343" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C343">
-        <v>126615.49999999999</v>
+        <v>126714.13999999998</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6633,7 +6636,7 @@
         <v>547</v>
       </c>
       <c r="C344">
-        <v>126100.54000000001</v>
+        <v>126216.37000000001</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6644,7 +6647,7 @@
         <v>61</v>
       </c>
       <c r="C345">
-        <v>125686.60999999999</v>
+        <v>125752.57999999999</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6655,7 +6658,7 @@
         <v>579</v>
       </c>
       <c r="C346">
-        <v>124613.51</v>
+        <v>124576.70999999999</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6666,7 +6669,7 @@
         <v>541</v>
       </c>
       <c r="C347">
-        <v>123482.47000000002</v>
+        <v>123813.25</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6677,7 +6680,7 @@
         <v>582</v>
       </c>
       <c r="C348">
-        <v>121921.13</v>
+        <v>121979.92</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6688,7 +6691,7 @@
         <v>75</v>
       </c>
       <c r="C349">
-        <v>119946.43999999999</v>
+        <v>119999.07</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6699,7 +6702,7 @@
         <v>26</v>
       </c>
       <c r="C350">
-        <v>118831.66</v>
+        <v>118886.57</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6710,7 +6713,7 @@
         <v>586</v>
       </c>
       <c r="C351">
-        <v>118635.50999999998</v>
+        <v>118761.81999999998</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6721,7 +6724,7 @@
         <v>588</v>
       </c>
       <c r="C352">
-        <v>117808.34</v>
+        <v>117861.16</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6732,7 +6735,7 @@
         <v>554</v>
       </c>
       <c r="C353">
-        <v>117740.51000000001</v>
+        <v>117827.49000000002</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6743,7 +6746,7 @@
         <v>262</v>
       </c>
       <c r="C354">
-        <v>117245.43000000001</v>
+        <v>117291.62</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6751,10 +6754,10 @@
         <v>591</v>
       </c>
       <c r="B355" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C355">
-        <v>115244.5</v>
+        <v>115293.07</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6765,7 +6768,7 @@
         <v>593</v>
       </c>
       <c r="C356">
-        <v>114925.69</v>
+        <v>115003.93</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6776,7 +6779,7 @@
         <v>595</v>
       </c>
       <c r="C357">
-        <v>113062.98</v>
+        <v>113111.35</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6787,7 +6790,7 @@
         <v>597</v>
       </c>
       <c r="C358">
-        <v>113014.08000000002</v>
+        <v>113063.49</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6798,7 +6801,7 @@
         <v>63</v>
       </c>
       <c r="C359">
-        <v>112889.26999999999</v>
+        <v>112919.76</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6809,7 +6812,7 @@
         <v>600</v>
       </c>
       <c r="C360">
-        <v>112529.17000000001</v>
+        <v>112833.47</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6817,10 +6820,10 @@
         <v>601</v>
       </c>
       <c r="B361" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C361">
-        <v>111025.49</v>
+        <v>111067.94999999998</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6828,10 +6831,10 @@
         <v>602</v>
       </c>
       <c r="B362" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C362">
-        <v>109859.33000000002</v>
+        <v>109972.19</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6842,7 +6845,7 @@
         <v>323</v>
       </c>
       <c r="C363">
-        <v>109675.38</v>
+        <v>109793.04999999999</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6850,21 +6853,21 @@
         <v>604</v>
       </c>
       <c r="B364" t="s">
-        <v>605</v>
+        <v>101</v>
       </c>
       <c r="C364">
-        <v>108122.61</v>
+        <v>106346.79999999999</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
+        <v>605</v>
+      </c>
+      <c r="B365" t="s">
         <v>606</v>
       </c>
-      <c r="B365" t="s">
-        <v>92</v>
-      </c>
       <c r="C365">
-        <v>106236.14000000001</v>
+        <v>106058.75</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6872,208 +6875,208 @@
         <v>607</v>
       </c>
       <c r="B366" t="s">
-        <v>608</v>
+        <v>109</v>
       </c>
       <c r="C366">
-        <v>106012.03000000001</v>
+        <v>103853.87</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B367" t="s">
-        <v>109</v>
+        <v>431</v>
       </c>
       <c r="C367">
-        <v>103807.9</v>
+        <v>102708.03</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B368" t="s">
         <v>259</v>
       </c>
       <c r="C368">
-        <v>102674.09999999999</v>
+        <v>102685.67000000001</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B369" t="s">
-        <v>430</v>
+        <v>323</v>
       </c>
       <c r="C369">
-        <v>102660.28</v>
+        <v>102445.72</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B370" t="s">
-        <v>323</v>
+        <v>547</v>
       </c>
       <c r="C370">
-        <v>102378.73999999999</v>
+        <v>101898.64</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B371" t="s">
-        <v>547</v>
+        <v>472</v>
       </c>
       <c r="C371">
-        <v>101872.25</v>
+        <v>101757.53</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B372" t="s">
-        <v>471</v>
+        <v>81</v>
       </c>
       <c r="C372">
-        <v>101650.53000000001</v>
+        <v>101692.85</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B373" t="s">
         <v>77</v>
       </c>
       <c r="C373">
-        <v>100795.05</v>
+        <v>100852.84</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B374" t="s">
         <v>73</v>
       </c>
       <c r="C374">
-        <v>100488.05</v>
+        <v>100536.54</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
+        <v>616</v>
+      </c>
+      <c r="B375" t="s">
         <v>617</v>
       </c>
-      <c r="B375" t="s">
-        <v>618</v>
-      </c>
       <c r="C375">
-        <v>100338.82999999999</v>
+        <v>100382.81</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
+        <v>618</v>
+      </c>
+      <c r="B376" t="s">
         <v>619</v>
       </c>
-      <c r="B376" t="s">
-        <v>620</v>
-      </c>
       <c r="C376">
-        <v>97564.1</v>
+        <v>97606.609999999986</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B377" t="s">
         <v>270</v>
       </c>
       <c r="C377">
-        <v>96655.489999999991</v>
+        <v>96279.800000000017</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
+        <v>621</v>
+      </c>
+      <c r="B378" t="s">
         <v>622</v>
       </c>
-      <c r="B378" t="s">
-        <v>623</v>
-      </c>
       <c r="C378">
-        <v>94045.61</v>
+        <v>94090.91</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B379" t="s">
         <v>346</v>
       </c>
       <c r="C379">
-        <v>93518.470000000016</v>
+        <v>93583.13</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B380" t="s">
         <v>61</v>
       </c>
       <c r="C380">
-        <v>93495.97</v>
+        <v>93560.700000000012</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B381" t="s">
         <v>51</v>
       </c>
       <c r="C381">
-        <v>93418.900000000023</v>
+        <v>93484.37</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
+        <v>626</v>
+      </c>
+      <c r="B382" t="s">
         <v>627</v>
       </c>
-      <c r="B382" t="s">
-        <v>628</v>
-      </c>
       <c r="C382">
-        <v>91191.26999999999</v>
+        <v>92698.96</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
+        <v>628</v>
+      </c>
+      <c r="B383" t="s">
         <v>629</v>
       </c>
-      <c r="B383" t="s">
-        <v>630</v>
-      </c>
       <c r="C383">
-        <v>90007.56</v>
+        <v>91231.37999999999</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
+        <v>630</v>
+      </c>
+      <c r="B384" t="s">
         <v>631</v>
       </c>
-      <c r="B384" t="s">
-        <v>500</v>
-      </c>
       <c r="C384">
-        <v>88455.21</v>
+        <v>90049.03</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -7081,10 +7084,10 @@
         <v>632</v>
       </c>
       <c r="B385" t="s">
-        <v>253</v>
+        <v>500</v>
       </c>
       <c r="C385">
-        <v>87446.31</v>
+        <v>88492.89</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7092,10 +7095,10 @@
         <v>633</v>
       </c>
       <c r="B386" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="C386">
-        <v>87056.000000000015</v>
+        <v>87603.23</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7103,10 +7106,10 @@
         <v>634</v>
       </c>
       <c r="B387" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="C387">
-        <v>86519.01999999999</v>
+        <v>87092.83</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7114,10 +7117,10 @@
         <v>635</v>
       </c>
       <c r="B388" t="s">
-        <v>303</v>
+        <v>61</v>
       </c>
       <c r="C388">
-        <v>85989.61</v>
+        <v>86564.790000000008</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7125,21 +7128,21 @@
         <v>636</v>
       </c>
       <c r="B389" t="s">
-        <v>637</v>
+        <v>303</v>
       </c>
       <c r="C389">
-        <v>83990.709999999992</v>
+        <v>86215.01999999999</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
+        <v>637</v>
+      </c>
+      <c r="B390" t="s">
         <v>638</v>
       </c>
-      <c r="B390" t="s">
-        <v>207</v>
-      </c>
       <c r="C390">
-        <v>82442.7</v>
+        <v>83992.390000000014</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -7150,7 +7153,7 @@
         <v>640</v>
       </c>
       <c r="C391">
-        <v>82327.239999999991</v>
+        <v>82568.140000000014</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7161,7 +7164,7 @@
         <v>579</v>
       </c>
       <c r="C392">
-        <v>82212.28</v>
+        <v>82250.509999999995</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -7169,21 +7172,21 @@
         <v>642</v>
       </c>
       <c r="B393" t="s">
-        <v>49</v>
+        <v>643</v>
       </c>
       <c r="C393">
-        <v>80000</v>
+        <v>80015.88</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B394" t="s">
-        <v>644</v>
+        <v>49</v>
       </c>
       <c r="C394">
-        <v>79979.61</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7194,7 +7197,7 @@
         <v>646</v>
       </c>
       <c r="C395">
-        <v>78162.45</v>
+        <v>78195.150000000009</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7202,10 +7205,10 @@
         <v>647</v>
       </c>
       <c r="B396" t="s">
-        <v>514</v>
+        <v>200</v>
       </c>
       <c r="C396">
-        <v>75775.009999999995</v>
+        <v>77179.61</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7213,32 +7216,32 @@
         <v>648</v>
       </c>
       <c r="B397" t="s">
-        <v>649</v>
+        <v>514</v>
       </c>
       <c r="C397">
-        <v>75445.279999999999</v>
+        <v>75853.860000000015</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B398" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C398">
-        <v>75437.06</v>
+        <v>75650.87</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
+        <v>650</v>
+      </c>
+      <c r="B399" t="s">
         <v>651</v>
       </c>
-      <c r="B399" t="s">
-        <v>73</v>
-      </c>
       <c r="C399">
-        <v>75273.39</v>
+        <v>75478.47</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -7246,120 +7249,120 @@
         <v>652</v>
       </c>
       <c r="B400" t="s">
-        <v>653</v>
+        <v>73</v>
       </c>
       <c r="C400">
-        <v>73438.78</v>
+        <v>75295.240000000005</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B401" t="s">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="C401">
-        <v>73186.260000000009</v>
+        <v>74444.829999999987</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
+        <v>654</v>
+      </c>
+      <c r="B402" t="s">
         <v>655</v>
       </c>
-      <c r="B402" t="s">
-        <v>656</v>
-      </c>
       <c r="C402">
-        <v>72956.569999999992</v>
+        <v>73470.66</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B403" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C403">
-        <v>72561.289999999994</v>
+        <v>73207.460000000006</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
+        <v>657</v>
+      </c>
+      <c r="B404" t="s">
         <v>658</v>
       </c>
-      <c r="B404" t="s">
-        <v>659</v>
-      </c>
       <c r="C404">
-        <v>71922.58</v>
+        <v>72985.38</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B405" t="s">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="C405">
-        <v>71899.319999999992</v>
+        <v>72592.62</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
+        <v>660</v>
+      </c>
+      <c r="B406" t="s">
         <v>661</v>
       </c>
-      <c r="B406" t="s">
-        <v>662</v>
-      </c>
       <c r="C406">
-        <v>70911.37</v>
+        <v>72024.390000000014</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
+        <v>662</v>
+      </c>
+      <c r="B407" t="s">
         <v>663</v>
       </c>
-      <c r="B407" t="s">
-        <v>664</v>
-      </c>
       <c r="C407">
-        <v>69777.460000000006</v>
+        <v>70940.33</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
+        <v>664</v>
+      </c>
+      <c r="B408" t="s">
         <v>665</v>
       </c>
-      <c r="B408" t="s">
-        <v>666</v>
-      </c>
       <c r="C408">
-        <v>67799.22</v>
+        <v>69843.7</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B409" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C409">
-        <v>67796.78</v>
+        <v>67842.5</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
+        <v>667</v>
+      </c>
+      <c r="B410" t="s">
         <v>668</v>
       </c>
-      <c r="B410" t="s">
-        <v>330</v>
-      </c>
       <c r="C410">
-        <v>66868.199999999983</v>
+        <v>67832.06</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7367,10 +7370,10 @@
         <v>669</v>
       </c>
       <c r="B411" t="s">
-        <v>449</v>
+        <v>332</v>
       </c>
       <c r="C411">
-        <v>65094.36</v>
+        <v>66857.119999999995</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7378,21 +7381,21 @@
         <v>670</v>
       </c>
       <c r="B412" t="s">
-        <v>671</v>
+        <v>450</v>
       </c>
       <c r="C412">
-        <v>64613.680000000008</v>
+        <v>65152.03</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
+        <v>671</v>
+      </c>
+      <c r="B413" t="s">
         <v>672</v>
       </c>
-      <c r="B413" t="s">
-        <v>26</v>
-      </c>
       <c r="C413">
-        <v>64209.619999999995</v>
+        <v>64639.55</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7400,43 +7403,43 @@
         <v>673</v>
       </c>
       <c r="B414" t="s">
-        <v>674</v>
+        <v>26</v>
       </c>
       <c r="C414">
-        <v>63962.49</v>
+        <v>64209.93</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
+        <v>674</v>
+      </c>
+      <c r="B415" t="s">
         <v>675</v>
       </c>
-      <c r="B415" t="s">
-        <v>676</v>
-      </c>
       <c r="C415">
-        <v>62543.740000000005</v>
+        <v>63990.200000000004</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" t="s">
+        <v>676</v>
+      </c>
+      <c r="B416" t="s">
         <v>677</v>
       </c>
-      <c r="B416" t="s">
-        <v>678</v>
-      </c>
       <c r="C416">
-        <v>62306.34</v>
+        <v>62559.85</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
+        <v>678</v>
+      </c>
+      <c r="B417" t="s">
         <v>679</v>
       </c>
-      <c r="B417" t="s">
-        <v>198</v>
-      </c>
       <c r="C417">
-        <v>62252.520000000011</v>
+        <v>62335.490000000005</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7444,32 +7447,32 @@
         <v>680</v>
       </c>
       <c r="B418" t="s">
-        <v>681</v>
+        <v>198</v>
       </c>
       <c r="C418">
-        <v>60049.03</v>
+        <v>62280.07</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" t="s">
+        <v>681</v>
+      </c>
+      <c r="B419" t="s">
         <v>682</v>
       </c>
-      <c r="B419" t="s">
-        <v>683</v>
-      </c>
       <c r="C419">
-        <v>59729.2</v>
+        <v>60075.43</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
+        <v>683</v>
+      </c>
+      <c r="B420" t="s">
         <v>684</v>
       </c>
-      <c r="B420" t="s">
-        <v>215</v>
-      </c>
       <c r="C420">
-        <v>59625.180000000008</v>
+        <v>59756.420000000006</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7477,10 +7480,10 @@
         <v>685</v>
       </c>
       <c r="B421" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C421">
-        <v>59009.459999999992</v>
+        <v>59674.080000000002</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7488,10 +7491,10 @@
         <v>686</v>
       </c>
       <c r="B422" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C422">
-        <v>58835.25</v>
+        <v>59136.990000000005</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7499,10 +7502,10 @@
         <v>687</v>
       </c>
       <c r="B423" t="s">
-        <v>441</v>
+        <v>215</v>
       </c>
       <c r="C423">
-        <v>57450.770000000004</v>
+        <v>58884.91</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7510,10 +7513,10 @@
         <v>688</v>
       </c>
       <c r="B424" t="s">
-        <v>61</v>
+        <v>442</v>
       </c>
       <c r="C424">
-        <v>56641.81</v>
+        <v>57473.04</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7521,10 +7524,10 @@
         <v>689</v>
       </c>
       <c r="B425" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="C425">
-        <v>55890.249999999993</v>
+        <v>56698.8</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7532,10 +7535,10 @@
         <v>690</v>
       </c>
       <c r="B426" t="s">
-        <v>674</v>
+        <v>116</v>
       </c>
       <c r="C426">
-        <v>55792.26</v>
+        <v>56038.820000000007</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7543,10 +7546,10 @@
         <v>691</v>
       </c>
       <c r="B427" t="s">
-        <v>497</v>
+        <v>675</v>
       </c>
       <c r="C427">
-        <v>55664.340000000004</v>
+        <v>55817.1</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7554,21 +7557,21 @@
         <v>692</v>
       </c>
       <c r="B428" t="s">
-        <v>693</v>
+        <v>497</v>
       </c>
       <c r="C428">
-        <v>54316.54</v>
+        <v>55687.05</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
+        <v>693</v>
+      </c>
+      <c r="B429" t="s">
         <v>694</v>
       </c>
-      <c r="B429" t="s">
-        <v>155</v>
-      </c>
       <c r="C429">
-        <v>53584.630000000005</v>
+        <v>54340.56</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7576,10 +7579,10 @@
         <v>695</v>
       </c>
       <c r="B430" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="C430">
-        <v>53200.820000000007</v>
+        <v>53607.969999999994</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7590,7 +7593,7 @@
         <v>355</v>
       </c>
       <c r="C431">
-        <v>52442.86</v>
+        <v>52580.5</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7598,10 +7601,10 @@
         <v>697</v>
       </c>
       <c r="B432" t="s">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="C432">
-        <v>51815.649999999994</v>
+        <v>50770.28</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7609,10 +7612,10 @@
         <v>698</v>
       </c>
       <c r="B433" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="C433">
-        <v>50635.509999999995</v>
+        <v>50471.97</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7620,10 +7623,10 @@
         <v>699</v>
       </c>
       <c r="B434" t="s">
-        <v>289</v>
+        <v>51</v>
       </c>
       <c r="C434">
-        <v>50464.72</v>
+        <v>50291.47</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7634,7 +7637,7 @@
         <v>53</v>
       </c>
       <c r="C435">
-        <v>50119.46</v>
+        <v>50252.090000000004</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7645,7 +7648,7 @@
         <v>579</v>
       </c>
       <c r="C436">
-        <v>50037.049999999988</v>
+        <v>50169.600000000006</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7656,7 +7659,7 @@
         <v>562</v>
       </c>
       <c r="C437">
-        <v>49721.240000000005</v>
+        <v>49851.899999999994</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7667,7 +7670,7 @@
         <v>249</v>
       </c>
       <c r="C438">
-        <v>47954.840000000004</v>
+        <v>48019.490000000005</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7678,7 +7681,7 @@
         <v>547</v>
       </c>
       <c r="C439">
-        <v>47869.96</v>
+        <v>47922.080000000002</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7686,10 +7689,10 @@
         <v>705</v>
       </c>
       <c r="B440" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C440">
-        <v>47537.21</v>
+        <v>47669.290000000023</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7697,10 +7700,10 @@
         <v>706</v>
       </c>
       <c r="B441" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C441">
-        <v>47231.399999999994</v>
+        <v>47359.840000000004</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7711,7 +7714,7 @@
         <v>708</v>
       </c>
       <c r="C442">
-        <v>45741.280000000006</v>
+        <v>45759.94</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7722,7 +7725,7 @@
         <v>12</v>
       </c>
       <c r="C443">
-        <v>44887.09</v>
+        <v>44906.010000000009</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7733,7 +7736,7 @@
         <v>81</v>
       </c>
       <c r="C444">
-        <v>42306.86</v>
+        <v>42349.64</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7744,7 +7747,7 @@
         <v>712</v>
       </c>
       <c r="C445">
-        <v>42173.07</v>
+        <v>42191.4</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7755,7 +7758,7 @@
         <v>714</v>
       </c>
       <c r="C446">
-        <v>41289.139999999992</v>
+        <v>41320.369999999995</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7766,7 +7769,7 @@
         <v>63</v>
       </c>
       <c r="C447">
-        <v>40582.639999999999</v>
+        <v>40601.090000000004</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7777,7 +7780,7 @@
         <v>717</v>
       </c>
       <c r="C448">
-        <v>39835.24</v>
+        <v>39428.85</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7785,21 +7788,21 @@
         <v>718</v>
       </c>
       <c r="B449" t="s">
-        <v>719</v>
+        <v>450</v>
       </c>
       <c r="C449">
-        <v>39411.18</v>
+        <v>36581.15</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" t="s">
+        <v>719</v>
+      </c>
+      <c r="B450" t="s">
         <v>720</v>
       </c>
-      <c r="B450" t="s">
-        <v>449</v>
-      </c>
       <c r="C450">
-        <v>36562.080000000002</v>
+        <v>36495.090000000004</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7807,43 +7810,43 @@
         <v>721</v>
       </c>
       <c r="B451" t="s">
-        <v>722</v>
+        <v>51</v>
       </c>
       <c r="C451">
-        <v>36478.71</v>
+        <v>36340</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B452" t="s">
-        <v>51</v>
+        <v>416</v>
       </c>
       <c r="C452">
-        <v>36292.14</v>
+        <v>35695.360000000008</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B453" t="s">
-        <v>413</v>
+        <v>133</v>
       </c>
       <c r="C453">
-        <v>35639.610000000008</v>
+        <v>35177.629999999997</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
+        <v>724</v>
+      </c>
+      <c r="B454" t="s">
         <v>725</v>
       </c>
-      <c r="B454" t="s">
-        <v>133</v>
-      </c>
       <c r="C454">
-        <v>35161.5</v>
+        <v>34596.600000000006</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7854,7 +7857,7 @@
         <v>727</v>
       </c>
       <c r="C455">
-        <v>34591.380000000005</v>
+        <v>34253.230000000003</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7865,7 +7868,7 @@
         <v>729</v>
       </c>
       <c r="C456">
-        <v>34243.199999999997</v>
+        <v>33699.64</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7873,10 +7876,10 @@
         <v>730</v>
       </c>
       <c r="B457" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C457">
-        <v>33348.550000000003</v>
+        <v>33363.490000000005</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7887,7 +7890,7 @@
         <v>39</v>
       </c>
       <c r="C458">
-        <v>31743.13</v>
+        <v>31756.21</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7898,7 +7901,7 @@
         <v>514</v>
       </c>
       <c r="C459">
-        <v>30797.120000000003</v>
+        <v>30812.840000000004</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7909,7 +7912,7 @@
         <v>734</v>
       </c>
       <c r="C460">
-        <v>30331.120000000003</v>
+        <v>30343.17</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7920,7 +7923,7 @@
         <v>736</v>
       </c>
       <c r="C461">
-        <v>29843.119999999999</v>
+        <v>29855.22</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7931,7 +7934,7 @@
         <v>738</v>
       </c>
       <c r="C462">
-        <v>28413.480000000003</v>
+        <v>28439.97</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7939,10 +7942,10 @@
         <v>739</v>
       </c>
       <c r="B463" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C463">
-        <v>28013.61</v>
+        <v>28026.58</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7953,7 +7956,7 @@
         <v>497</v>
       </c>
       <c r="C464">
-        <v>27919.89</v>
+        <v>27961.439999999995</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7964,7 +7967,7 @@
         <v>198</v>
       </c>
       <c r="C465">
-        <v>26141.65</v>
+        <v>26152.730000000003</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7975,7 +7978,7 @@
         <v>743</v>
       </c>
       <c r="C466">
-        <v>23287.67</v>
+        <v>23301.08</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -7986,7 +7989,7 @@
         <v>225</v>
       </c>
       <c r="C467">
-        <v>20720.34</v>
+        <v>20729.53</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7997,7 +8000,7 @@
         <v>73</v>
       </c>
       <c r="C468">
-        <v>20288.339999999997</v>
+        <v>20296.740000000002</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -8005,10 +8008,10 @@
         <v>746</v>
       </c>
       <c r="B469" t="s">
-        <v>41</v>
+        <v>346</v>
       </c>
       <c r="C469">
-        <v>17277.46</v>
+        <v>16302.37</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -8016,10 +8019,10 @@
         <v>747</v>
       </c>
       <c r="B470" t="s">
-        <v>346</v>
+        <v>215</v>
       </c>
       <c r="C470">
-        <v>16397.900000000001</v>
+        <v>16249.67</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -8027,10 +8030,10 @@
         <v>748</v>
       </c>
       <c r="B471" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C471">
-        <v>16242.39</v>
+        <v>16187.89</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -8038,10 +8041,10 @@
         <v>749</v>
       </c>
       <c r="B472" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C472">
-        <v>14538.61</v>
+        <v>14548.019999999999</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8052,7 +8055,7 @@
         <v>751</v>
       </c>
       <c r="C473">
-        <v>14131.33</v>
+        <v>14137.64</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8063,7 +8066,7 @@
         <v>753</v>
       </c>
       <c r="C474">
-        <v>13969.769999999999</v>
+        <v>13975.97</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8074,7 +8077,7 @@
         <v>755</v>
       </c>
       <c r="C475">
-        <v>13482.26</v>
+        <v>13488.25</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -8085,7 +8088,7 @@
         <v>346</v>
       </c>
       <c r="C476">
-        <v>12958.84</v>
+        <v>12964.650000000001</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8096,7 +8099,7 @@
         <v>6</v>
       </c>
       <c r="C477">
-        <v>12906.72</v>
+        <v>12957.68</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8107,7 +8110,7 @@
         <v>317</v>
       </c>
       <c r="C478">
-        <v>12787.259999999998</v>
+        <v>12792.42</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8118,7 +8121,7 @@
         <v>760</v>
       </c>
       <c r="C479">
-        <v>11321.1</v>
+        <v>11326.060000000001</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -8126,21 +8129,21 @@
         <v>761</v>
       </c>
       <c r="B480" t="s">
-        <v>762</v>
+        <v>41</v>
       </c>
       <c r="C480">
-        <v>10528.689999999999</v>
+        <v>11050.33</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
+        <v>762</v>
+      </c>
+      <c r="B481" t="s">
         <v>763</v>
       </c>
-      <c r="B481" t="s">
-        <v>423</v>
-      </c>
       <c r="C481">
-        <v>10141.469999999999</v>
+        <v>10533.28</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -8148,10 +8151,10 @@
         <v>764</v>
       </c>
       <c r="B482" t="s">
-        <v>8</v>
+        <v>428</v>
       </c>
       <c r="C482">
-        <v>9998.67</v>
+        <v>10145.61</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -8159,21 +8162,21 @@
         <v>765</v>
       </c>
       <c r="B483" t="s">
-        <v>766</v>
+        <v>8</v>
       </c>
       <c r="C483">
-        <v>9260.0299999999988</v>
+        <v>10003.09</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
+        <v>766</v>
+      </c>
+      <c r="B484" t="s">
         <v>767</v>
       </c>
-      <c r="B484" t="s">
-        <v>198</v>
-      </c>
       <c r="C484">
-        <v>8891.24</v>
+        <v>9264.01</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -8181,10 +8184,10 @@
         <v>768</v>
       </c>
       <c r="B485" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C485">
-        <v>8227.5300000000007</v>
+        <v>8895.98</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -8195,7 +8198,7 @@
         <v>770</v>
       </c>
       <c r="C486">
-        <v>7161.76</v>
+        <v>7164.33</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -8206,7 +8209,7 @@
         <v>772</v>
       </c>
       <c r="C487">
-        <v>6806.369999999999</v>
+        <v>6809.3000000000011</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -8214,21 +8217,21 @@
         <v>773</v>
       </c>
       <c r="B488" t="s">
-        <v>200</v>
+        <v>774</v>
       </c>
       <c r="C488">
-        <v>5273.5100000000011</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B489" t="s">
-        <v>775</v>
+        <v>73</v>
       </c>
       <c r="C489">
-        <v>5000</v>
+        <v>4693.59</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -8236,43 +8239,43 @@
         <v>776</v>
       </c>
       <c r="B490" t="s">
-        <v>73</v>
+        <v>777</v>
       </c>
       <c r="C490">
-        <v>4691.5700000000006</v>
+        <v>4653.79</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B491" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C491">
-        <v>4652</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B492" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C492">
-        <v>2300</v>
+        <v>1521.13</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B493" t="s">
-        <v>782</v>
+        <v>33</v>
       </c>
       <c r="C493">
-        <v>1520.4499999999998</v>
+        <v>1435.2</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -8280,10 +8283,10 @@
         <v>783</v>
       </c>
       <c r="B494" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C494">
-        <v>1434.6</v>
+        <v>1372.03</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -8291,21 +8294,21 @@
         <v>784</v>
       </c>
       <c r="B495" t="s">
-        <v>53</v>
+        <v>785</v>
       </c>
       <c r="C495">
-        <v>1392.0700000000002</v>
+        <v>1105.57</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B496" t="s">
-        <v>786</v>
+        <v>403</v>
       </c>
       <c r="C496">
-        <v>1105.08</v>
+        <v>1090.92</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -8313,10 +8316,10 @@
         <v>787</v>
       </c>
       <c r="B497" t="s">
-        <v>400</v>
+        <v>763</v>
       </c>
       <c r="C497">
-        <v>1090.43</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -8327,7 +8330,7 @@
         <v>600</v>
       </c>
       <c r="C498">
-        <v>747.1</v>
+        <v>747.38</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -8338,7 +8341,7 @@
         <v>22</v>
       </c>
       <c r="C499">
-        <v>493.91</v>
+        <v>489.86</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -8357,10 +8360,10 @@
         <v>792</v>
       </c>
       <c r="B501" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C501">
-        <v>279.70999999999998</v>
+        <v>279.83999999999997</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -8412,7 +8415,7 @@
         <v>798</v>
       </c>
       <c r="B506" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C506">
         <v>50.26</v>
@@ -8434,10 +8437,10 @@
         <v>800</v>
       </c>
       <c r="B508" t="s">
-        <v>441</v>
+        <v>200</v>
       </c>
       <c r="C508">
-        <v>33.049999999999997</v>
+        <v>35.340000000000003</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -8445,32 +8448,32 @@
         <v>801</v>
       </c>
       <c r="B509" t="s">
-        <v>802</v>
+        <v>442</v>
       </c>
       <c r="C509">
-        <v>29.77</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" t="s">
+        <v>802</v>
+      </c>
+      <c r="B510" t="s">
         <v>803</v>
       </c>
-      <c r="B510" t="s">
-        <v>804</v>
-      </c>
       <c r="C510">
-        <v>21.27</v>
+        <v>29.77</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" t="s">
+        <v>804</v>
+      </c>
+      <c r="B511" t="s">
         <v>805</v>
       </c>
-      <c r="B511" t="s">
-        <v>22</v>
-      </c>
       <c r="C511">
-        <v>19.079999999999998</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8478,10 +8481,10 @@
         <v>806</v>
       </c>
       <c r="B512" t="s">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="C512">
-        <v>18.32</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8489,43 +8492,43 @@
         <v>807</v>
       </c>
       <c r="B513" t="s">
-        <v>808</v>
+        <v>278</v>
       </c>
       <c r="C513">
-        <v>17.86</v>
+        <v>18.32</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" t="s">
+        <v>808</v>
+      </c>
+      <c r="B514" t="s">
         <v>809</v>
       </c>
-      <c r="B514" t="s">
-        <v>810</v>
-      </c>
       <c r="C514">
-        <v>14.67</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" t="s">
+        <v>810</v>
+      </c>
+      <c r="B515" t="s">
         <v>811</v>
       </c>
-      <c r="B515" t="s">
-        <v>812</v>
-      </c>
       <c r="C515">
-        <v>9.73</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" t="s">
+        <v>812</v>
+      </c>
+      <c r="B516" t="s">
         <v>813</v>
       </c>
-      <c r="B516" t="s">
-        <v>270</v>
-      </c>
       <c r="C516">
-        <v>5.55</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -8533,21 +8536,21 @@
         <v>814</v>
       </c>
       <c r="B517" t="s">
-        <v>815</v>
+        <v>270</v>
       </c>
       <c r="C517">
-        <v>0.05</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" t="s">
+        <v>815</v>
+      </c>
+      <c r="B518" t="s">
         <v>816</v>
       </c>
-      <c r="B518" t="s">
-        <v>41</v>
-      </c>
       <c r="C518">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -8555,15 +8558,26 @@
         <v>817</v>
       </c>
       <c r="B519" t="s">
-        <v>818</v>
+        <v>41</v>
       </c>
       <c r="C519">
         <v>0.01</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
-      <c r="A521" t="s">
+    <row r="520" spans="1:3">
+      <c r="A520" t="s">
+        <v>818</v>
+      </c>
+      <c r="B520" t="s">
         <v>819</v>
+      </c>
+      <c r="C520">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" t="s">
+        <v>820</v>
       </c>
     </row>
   </sheetData>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E344A36B-B4BB-45E6-9452-0CF727E9C210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC83E919-ECA7-4CC3-959C-D742A1F8163B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,18 +73,18 @@
     <t>WILSON</t>
   </si>
   <si>
+    <t>004748803</t>
+  </si>
+  <si>
+    <t>DORIVAL</t>
+  </si>
+  <si>
     <t>004870019</t>
   </si>
   <si>
     <t>MARIA</t>
   </si>
   <si>
-    <t>004748803</t>
-  </si>
-  <si>
-    <t>DORIVAL</t>
-  </si>
-  <si>
     <t>004352384</t>
   </si>
   <si>
@@ -370,36 +370,36 @@
     <t>LAGO</t>
   </si>
   <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
     <t>004853901</t>
   </si>
   <si>
     <t>CRISTINA</t>
   </si>
   <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
     <t>003987275</t>
   </si>
   <si>
     <t>ELIANE</t>
   </si>
   <si>
+    <t>004918709</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
     <t>004444380</t>
   </si>
   <si>
     <t>MARCELO</t>
   </si>
   <si>
-    <t>004918709</t>
-  </si>
-  <si>
-    <t>VANESSA</t>
-  </si>
-  <si>
     <t>005020439</t>
   </si>
   <si>
@@ -439,6 +439,51 @@
     <t>EDMUR</t>
   </si>
   <si>
+    <t>005121919</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>002697806</t>
+  </si>
+  <si>
+    <t>004915243</t>
+  </si>
+  <si>
+    <t>POLO</t>
+  </si>
+  <si>
+    <t>004482439</t>
+  </si>
+  <si>
+    <t>004526450</t>
+  </si>
+  <si>
+    <t>MSD</t>
+  </si>
+  <si>
+    <t>004996634</t>
+  </si>
+  <si>
+    <t>HIROKO</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
     <t>004119016</t>
   </si>
   <si>
@@ -448,51 +493,6 @@
     <t>005087681</t>
   </si>
   <si>
-    <t>005121919</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>002697806</t>
-  </si>
-  <si>
-    <t>004915243</t>
-  </si>
-  <si>
-    <t>POLO</t>
-  </si>
-  <si>
-    <t>004482439</t>
-  </si>
-  <si>
-    <t>004526450</t>
-  </si>
-  <si>
-    <t>MSD</t>
-  </si>
-  <si>
-    <t>004996634</t>
-  </si>
-  <si>
-    <t>HIROKO</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
     <t>004224284</t>
   </si>
   <si>
@@ -694,45 +694,45 @@
     <t>BLOCO</t>
   </si>
   <si>
+    <t>004335144</t>
+  </si>
+  <si>
     <t>005103059</t>
   </si>
   <si>
     <t>WALQUIRIA</t>
   </si>
   <si>
-    <t>004335144</t>
-  </si>
-  <si>
     <t>004376853</t>
   </si>
   <si>
     <t>ALBERTO</t>
   </si>
   <si>
+    <t>004497875</t>
+  </si>
+  <si>
     <t>004515341</t>
   </si>
   <si>
-    <t>004497875</t>
-  </si>
-  <si>
     <t>004935287</t>
   </si>
   <si>
     <t>ODILON</t>
   </si>
   <si>
+    <t>005101676</t>
+  </si>
+  <si>
+    <t>ELENI</t>
+  </si>
+  <si>
     <t>004556853</t>
   </si>
   <si>
     <t>MARCEL</t>
   </si>
   <si>
-    <t>005101676</t>
-  </si>
-  <si>
-    <t>ELENI</t>
-  </si>
-  <si>
     <t>004355790</t>
   </si>
   <si>
@@ -805,46 +805,52 @@
     <t>CINTIA</t>
   </si>
   <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>005105172</t>
+  </si>
+  <si>
+    <t>VALDIVINO</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004588677</t>
+  </si>
+  <si>
+    <t>RACHEL</t>
+  </si>
+  <si>
+    <t>004419765</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
     <t>004690692</t>
   </si>
   <si>
     <t>PHYLIA</t>
   </si>
   <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>005105172</t>
-  </si>
-  <si>
-    <t>VALDIVINO</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004588677</t>
-  </si>
-  <si>
-    <t>RACHEL</t>
-  </si>
-  <si>
-    <t>004419765</t>
-  </si>
-  <si>
-    <t>WALTER</t>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>BENTO</t>
   </si>
   <si>
     <t>005009947</t>
@@ -853,18 +859,12 @@
     <t>VERANICE</t>
   </si>
   <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>BENTO</t>
+    <t>004751770</t>
   </si>
   <si>
     <t>004956636</t>
   </si>
   <si>
-    <t>004751770</t>
-  </si>
-  <si>
     <t>004315417</t>
   </si>
   <si>
@@ -892,6 +892,9 @@
     <t>004748761</t>
   </si>
   <si>
+    <t>004811224</t>
+  </si>
+  <si>
     <t>004472431</t>
   </si>
   <si>
@@ -904,9 +907,6 @@
     <t>PATRICIA</t>
   </si>
   <si>
-    <t>004811224</t>
-  </si>
-  <si>
     <t>004508526</t>
   </si>
   <si>
@@ -934,105 +934,105 @@
     <t>004958539</t>
   </si>
   <si>
+    <t>004971448</t>
+  </si>
+  <si>
+    <t>CLOVIS</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>004805133</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>002694089</t>
+  </si>
+  <si>
+    <t>VITOR</t>
+  </si>
+  <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004482262</t>
+  </si>
+  <si>
+    <t>RITA</t>
+  </si>
+  <si>
+    <t>004460487</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>004827315</t>
+  </si>
+  <si>
+    <t>GILTON</t>
+  </si>
+  <si>
+    <t>004805333</t>
+  </si>
+  <si>
+    <t>ROSANA</t>
+  </si>
+  <si>
+    <t>004563237</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
     <t>004587525</t>
   </si>
   <si>
     <t>JADER</t>
   </si>
   <si>
-    <t>004971448</t>
-  </si>
-  <si>
-    <t>CLOVIS</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>004805133</t>
-  </si>
-  <si>
-    <t>002694089</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>004482262</t>
-  </si>
-  <si>
-    <t>RITA</t>
-  </si>
-  <si>
-    <t>004460487</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>004827315</t>
-  </si>
-  <si>
-    <t>GILTON</t>
-  </si>
-  <si>
-    <t>004805333</t>
-  </si>
-  <si>
-    <t>ROSANA</t>
-  </si>
-  <si>
-    <t>004563237</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
     <t>004276856</t>
   </si>
   <si>
@@ -1069,15 +1069,15 @@
     <t>ADELE</t>
   </si>
   <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
     <t>005135532</t>
   </si>
   <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
     <t>003921139</t>
   </si>
   <si>
@@ -1147,15 +1147,15 @@
     <t>004756981</t>
   </si>
   <si>
+    <t>004813134</t>
+  </si>
+  <si>
     <t>004567880</t>
   </si>
   <si>
     <t>LUANA</t>
   </si>
   <si>
-    <t>004813134</t>
-  </si>
-  <si>
     <t>004240292</t>
   </si>
   <si>
@@ -1171,24 +1171,24 @@
     <t>004870976</t>
   </si>
   <si>
+    <t>004999410</t>
+  </si>
+  <si>
     <t>004803348</t>
   </si>
   <si>
-    <t>004999410</t>
-  </si>
-  <si>
     <t>004368994</t>
   </si>
   <si>
+    <t>004515548</t>
+  </si>
+  <si>
     <t>004550605</t>
   </si>
   <si>
     <t>REJANE</t>
   </si>
   <si>
-    <t>004515548</t>
-  </si>
-  <si>
     <t>004493324</t>
   </si>
   <si>
@@ -1246,36 +1246,39 @@
     <t>CESAR</t>
   </si>
   <si>
+    <t>004550750</t>
+  </si>
+  <si>
+    <t>THEO</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
     <t>004473829</t>
   </si>
   <si>
     <t>LUCAS</t>
   </si>
   <si>
-    <t>004550750</t>
-  </si>
-  <si>
-    <t>THEO</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
     <t>004472076</t>
   </si>
   <si>
     <t>RUBENS</t>
   </si>
   <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
     <t>004580355</t>
   </si>
   <si>
-    <t>004914070</t>
-  </si>
-  <si>
     <t>005147664</t>
   </si>
   <si>
@@ -1342,18 +1345,18 @@
     <t>004472386</t>
   </si>
   <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
     <t>004552944</t>
   </si>
   <si>
     <t>YURI</t>
   </si>
   <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
     <t>004482163</t>
   </si>
   <si>
@@ -1381,9 +1384,6 @@
     <t>KARINA</t>
   </si>
   <si>
-    <t>004948033</t>
-  </si>
-  <si>
     <t>004908680</t>
   </si>
   <si>
@@ -1438,6 +1438,9 @@
     <t>004512434</t>
   </si>
   <si>
+    <t>004462930</t>
+  </si>
+  <si>
     <t>004230529</t>
   </si>
   <si>
@@ -1447,9 +1450,6 @@
     <t>004216657</t>
   </si>
   <si>
-    <t>004462930</t>
-  </si>
-  <si>
     <t>004216434</t>
   </si>
   <si>
@@ -1483,12 +1483,12 @@
     <t>TATIANA</t>
   </si>
   <si>
+    <t>004436055</t>
+  </si>
+  <si>
     <t>004713953</t>
   </si>
   <si>
-    <t>004436055</t>
-  </si>
-  <si>
     <t>005046790</t>
   </si>
   <si>
@@ -1531,15 +1531,15 @@
     <t>004273239</t>
   </si>
   <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
     <t>004289402</t>
   </si>
   <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
     <t>004481463</t>
   </si>
   <si>
@@ -1633,12 +1633,12 @@
     <t>MARILIA</t>
   </si>
   <si>
+    <t>004754920</t>
+  </si>
+  <si>
     <t>005076418</t>
   </si>
   <si>
-    <t>004754920</t>
-  </si>
-  <si>
     <t>004332544</t>
   </si>
   <si>
@@ -1675,6 +1675,9 @@
     <t>NADY</t>
   </si>
   <si>
+    <t>004278212</t>
+  </si>
+  <si>
     <t>005247042</t>
   </si>
   <si>
@@ -1684,9 +1687,6 @@
     <t>005169333</t>
   </si>
   <si>
-    <t>004278212</t>
-  </si>
-  <si>
     <t>004382902</t>
   </si>
   <si>
@@ -1720,15 +1720,21 @@
     <t>005024046</t>
   </si>
   <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
     <t>004975924</t>
   </si>
   <si>
     <t>SERGIO</t>
   </si>
   <si>
-    <t>004405234</t>
-  </si>
-  <si>
     <t>004487140</t>
   </si>
   <si>
@@ -1738,12 +1744,6 @@
     <t>004587511</t>
   </si>
   <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
     <t>004238164</t>
   </si>
   <si>
@@ -1801,15 +1801,15 @@
     <t>004452790</t>
   </si>
   <si>
+    <t>004514241</t>
+  </si>
+  <si>
     <t>004350197</t>
   </si>
   <si>
     <t>GISELA</t>
   </si>
   <si>
-    <t>004514241</t>
-  </si>
-  <si>
     <t>004643153</t>
   </si>
   <si>
@@ -1819,12 +1819,12 @@
     <t>004854514</t>
   </si>
   <si>
+    <t>004313254</t>
+  </si>
+  <si>
     <t>000834301</t>
   </si>
   <si>
-    <t>004313254</t>
-  </si>
-  <si>
     <t>004848279</t>
   </si>
   <si>
@@ -1840,42 +1840,42 @@
     <t>004527606</t>
   </si>
   <si>
+    <t>004444164</t>
+  </si>
+  <si>
+    <t>005079458</t>
+  </si>
+  <si>
+    <t>JONAS</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>005245032</t>
+  </si>
+  <si>
+    <t>ROSA</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
     <t>000827730</t>
   </si>
   <si>
-    <t>004444164</t>
-  </si>
-  <si>
-    <t>005079458</t>
-  </si>
-  <si>
-    <t>JONAS</t>
-  </si>
-  <si>
-    <t>005245032</t>
-  </si>
-  <si>
-    <t>ROSA</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
     <t>004278033</t>
   </si>
   <si>
@@ -1891,12 +1891,12 @@
     <t>004508516</t>
   </si>
   <si>
+    <t>005170415</t>
+  </si>
+  <si>
     <t>004508504</t>
   </si>
   <si>
-    <t>005170415</t>
-  </si>
-  <si>
     <t>004500804</t>
   </si>
   <si>
@@ -1945,291 +1945,291 @@
     <t>MAURO</t>
   </si>
   <si>
+    <t>005146441</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004265173</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>000772433</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>004767746</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>004854496</t>
+  </si>
+  <si>
+    <t>004972070</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004381194</t>
+  </si>
+  <si>
+    <t>ALINNE</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>004477812</t>
+  </si>
+  <si>
+    <t>005228239</t>
+  </si>
+  <si>
+    <t>DEBORA</t>
+  </si>
+  <si>
+    <t>004267044</t>
+  </si>
+  <si>
+    <t>005035754</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>004388077</t>
+  </si>
+  <si>
+    <t>WLADMIR</t>
+  </si>
+  <si>
+    <t>003497496</t>
+  </si>
+  <si>
+    <t>ELISANDRA</t>
+  </si>
+  <si>
+    <t>004973881</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>004643880</t>
+  </si>
+  <si>
+    <t>004243043</t>
+  </si>
+  <si>
+    <t>SUELI</t>
+  </si>
+  <si>
+    <t>001294033</t>
+  </si>
+  <si>
+    <t>VIVIANE</t>
+  </si>
+  <si>
+    <t>004877741</t>
+  </si>
+  <si>
+    <t>005022526</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>004207374</t>
+  </si>
+  <si>
+    <t>ANGELICA</t>
+  </si>
+  <si>
+    <t>004452507</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>004290978</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>004242237</t>
+  </si>
+  <si>
+    <t>MARIAH</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>004497825</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004752494</t>
+  </si>
+  <si>
+    <t>004749928</t>
+  </si>
+  <si>
+    <t>004259659</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>004508159</t>
+  </si>
+  <si>
+    <t>004752519</t>
+  </si>
+  <si>
+    <t>005140667</t>
+  </si>
+  <si>
+    <t>004215217</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>004426743</t>
+  </si>
+  <si>
+    <t>GABRIELLE</t>
+  </si>
+  <si>
+    <t>004369172</t>
+  </si>
+  <si>
+    <t>LUIZA</t>
+  </si>
+  <si>
+    <t>005133039</t>
+  </si>
+  <si>
+    <t>005242683</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>005135281</t>
+  </si>
+  <si>
+    <t>004479734</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>005018038</t>
+  </si>
+  <si>
+    <t>004459461</t>
+  </si>
+  <si>
+    <t>INTERLAGOS</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>004228456</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>004308815</t>
+  </si>
+  <si>
+    <t>ZELI</t>
+  </si>
+  <si>
+    <t>003836362</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>004756968</t>
+  </si>
+  <si>
+    <t>DANIELY</t>
+  </si>
+  <si>
+    <t>004809902</t>
+  </si>
+  <si>
+    <t>004504449</t>
+  </si>
+  <si>
+    <t>KELMA</t>
+  </si>
+  <si>
+    <t>004470679</t>
+  </si>
+  <si>
     <t>004255049</t>
   </si>
   <si>
     <t>MATHEUS</t>
   </si>
   <si>
-    <t>005146441</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004265173</t>
-  </si>
-  <si>
-    <t>JULIA</t>
-  </si>
-  <si>
-    <t>000772433</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>004767746</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>004854496</t>
-  </si>
-  <si>
-    <t>004972070</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004381194</t>
-  </si>
-  <si>
-    <t>ALINNE</t>
-  </si>
-  <si>
-    <t>004477812</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>005228239</t>
-  </si>
-  <si>
-    <t>DEBORA</t>
-  </si>
-  <si>
-    <t>004267044</t>
-  </si>
-  <si>
-    <t>005035754</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>004388077</t>
-  </si>
-  <si>
-    <t>WLADMIR</t>
-  </si>
-  <si>
-    <t>003497496</t>
-  </si>
-  <si>
-    <t>ELISANDRA</t>
-  </si>
-  <si>
-    <t>004973881</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>004643880</t>
-  </si>
-  <si>
-    <t>004243043</t>
-  </si>
-  <si>
-    <t>SUELI</t>
-  </si>
-  <si>
-    <t>001294033</t>
-  </si>
-  <si>
-    <t>VIVIANE</t>
-  </si>
-  <si>
-    <t>004877741</t>
-  </si>
-  <si>
-    <t>005022526</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>004207374</t>
-  </si>
-  <si>
-    <t>ANGELICA</t>
-  </si>
-  <si>
-    <t>004452507</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>004242237</t>
-  </si>
-  <si>
-    <t>MARIAH</t>
-  </si>
-  <si>
-    <t>004290978</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>004497825</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004752494</t>
-  </si>
-  <si>
-    <t>004749928</t>
-  </si>
-  <si>
-    <t>004259659</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>004508159</t>
-  </si>
-  <si>
-    <t>004752519</t>
-  </si>
-  <si>
-    <t>005140667</t>
-  </si>
-  <si>
-    <t>004215217</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>004426743</t>
-  </si>
-  <si>
-    <t>GABRIELLE</t>
-  </si>
-  <si>
-    <t>004369172</t>
-  </si>
-  <si>
-    <t>LUIZA</t>
-  </si>
-  <si>
-    <t>005133039</t>
-  </si>
-  <si>
-    <t>005242683</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>005135281</t>
-  </si>
-  <si>
-    <t>004479734</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>005018038</t>
-  </si>
-  <si>
-    <t>004459461</t>
-  </si>
-  <si>
-    <t>INTERLAGOS</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>004228456</t>
-  </si>
-  <si>
-    <t>FLASH</t>
-  </si>
-  <si>
-    <t>004308815</t>
-  </si>
-  <si>
-    <t>ZELI</t>
-  </si>
-  <si>
-    <t>003836362</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>004756968</t>
-  </si>
-  <si>
-    <t>DANIELY</t>
-  </si>
-  <si>
-    <t>004809902</t>
-  </si>
-  <si>
-    <t>004504449</t>
-  </si>
-  <si>
-    <t>KELMA</t>
-  </si>
-  <si>
-    <t>004470679</t>
-  </si>
-  <si>
     <t>004693308</t>
   </si>
   <si>
@@ -2266,10 +2266,10 @@
     <t>005186167</t>
   </si>
   <si>
+    <t>004563252</t>
+  </si>
+  <si>
     <t>004517506</t>
-  </si>
-  <si>
-    <t>004563252</t>
   </si>
   <si>
     <t>003249855</t>
@@ -2897,7 +2897,7 @@
   <dimension ref="A1:C529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2921,7 +2921,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>16400104.229999999</v>
+        <v>16412926.479999999</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2932,7 +2932,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>8242659.2599999988</v>
+        <v>8247038.8200000003</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2943,7 +2943,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7413729.7200000007</v>
+        <v>7419791.46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2954,7 +2954,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6198615.5799999991</v>
+        <v>6203705.5900000008</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2965,7 +2965,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>5864014.5</v>
+        <v>5868972.9499999993</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2976,7 +2976,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>4575284.7200000007</v>
+        <v>4577634.1700000009</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2987,7 +2987,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>4335119.0599999996</v>
+        <v>4357615.7399999993</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2998,7 +2998,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>4237314.25</v>
+        <v>4246175.41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3009,7 +3009,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>4236073.66</v>
+        <v>4238479.08</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3020,7 +3020,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>4216926.8599999994</v>
+        <v>4233000.3199999994</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3031,7 +3031,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>3980973.2100000009</v>
+        <v>3980975.2199999997</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3042,7 +3042,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>3757951.8699999996</v>
+        <v>3762790.51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3053,7 +3053,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>3752065.5800000005</v>
+        <v>3752859.3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3064,7 +3064,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>3590233.98</v>
+        <v>3592777.9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3072,10 +3072,10 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>3402475.1</v>
+        <v>3407431.8200000003</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3086,7 +3086,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>3310285.9699999993</v>
+        <v>3311672.4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3097,7 +3097,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>3193383.59</v>
+        <v>3194879.78</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3108,7 +3108,7 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3103543.9</v>
+        <v>3104866.4600000004</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3119,7 +3119,7 @@
         <v>39</v>
       </c>
       <c r="C20">
-        <v>3040655.1999999993</v>
+        <v>3042042.4799999991</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3130,7 +3130,7 @@
         <v>41</v>
       </c>
       <c r="C21">
-        <v>2957681.3400000003</v>
+        <v>2960404.78</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3141,7 +3141,7 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>2819076.1199999996</v>
+        <v>2820525.02</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3152,7 +3152,7 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>2802739.0099999988</v>
+        <v>2803419</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3163,7 +3163,7 @@
         <v>47</v>
       </c>
       <c r="C24">
-        <v>2552156.7900000005</v>
+        <v>2553474.2500000005</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3174,7 +3174,7 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>2511709.88</v>
+        <v>2512820.0799999991</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3185,7 +3185,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <v>2380083.5</v>
+        <v>2386131.1599999997</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3196,7 +3196,7 @@
         <v>53</v>
       </c>
       <c r="C27">
-        <v>2215503.12</v>
+        <v>2216098.9099999997</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3207,7 +3207,7 @@
         <v>55</v>
       </c>
       <c r="C28">
-        <v>2214742.0199999996</v>
+        <v>2214327.0199999996</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3218,7 +3218,7 @@
         <v>57</v>
       </c>
       <c r="C29">
-        <v>2093265.0499999998</v>
+        <v>2096324.1999999997</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3229,7 +3229,7 @@
         <v>59</v>
       </c>
       <c r="C30">
-        <v>2055916.6099999999</v>
+        <v>2057451.1599999997</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3240,7 +3240,7 @@
         <v>61</v>
       </c>
       <c r="C31">
-        <v>1977750.94</v>
+        <v>1979479.35</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3251,7 +3251,7 @@
         <v>63</v>
       </c>
       <c r="C32">
-        <v>1961678.8599999999</v>
+        <v>1966837.2500000002</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3262,7 +3262,7 @@
         <v>65</v>
       </c>
       <c r="C33">
-        <v>1898435.71</v>
+        <v>1899250.16</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3273,7 +3273,7 @@
         <v>67</v>
       </c>
       <c r="C34">
-        <v>1865898.9900000005</v>
+        <v>1868109.8300000005</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3281,10 +3281,10 @@
         <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C35">
-        <v>1849473.3299999996</v>
+        <v>1852247.0000000002</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3295,7 +3295,7 @@
         <v>70</v>
       </c>
       <c r="C36">
-        <v>1824432.1700000006</v>
+        <v>1825541.5100000002</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3306,7 +3306,7 @@
         <v>72</v>
       </c>
       <c r="C37">
-        <v>1810866.87</v>
+        <v>1801505.6400000001</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3317,7 +3317,7 @@
         <v>74</v>
       </c>
       <c r="C38">
-        <v>1777927.9899999998</v>
+        <v>1778622.14</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3328,7 +3328,7 @@
         <v>74</v>
       </c>
       <c r="C39">
-        <v>1774661.3800000004</v>
+        <v>1775459.73</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3339,7 +3339,7 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>1696339.8</v>
+        <v>1697198.8199999998</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3350,7 +3350,7 @@
         <v>78</v>
       </c>
       <c r="C41">
-        <v>1626554.4500000002</v>
+        <v>1626573.53</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3361,7 +3361,7 @@
         <v>80</v>
       </c>
       <c r="C42">
-        <v>1609640.24</v>
+        <v>1609703.2000000002</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3372,7 +3372,7 @@
         <v>82</v>
       </c>
       <c r="C43">
-        <v>1549608.1000000003</v>
+        <v>1549981.63</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3383,7 +3383,7 @@
         <v>84</v>
       </c>
       <c r="C44">
-        <v>1524032.63</v>
+        <v>1524932.68</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3394,7 +3394,7 @@
         <v>86</v>
       </c>
       <c r="C45">
-        <v>1503523.17</v>
+        <v>1504169.43</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3405,7 +3405,7 @@
         <v>88</v>
       </c>
       <c r="C46">
-        <v>1440112.16</v>
+        <v>1441944.3599999999</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3416,7 +3416,7 @@
         <v>90</v>
       </c>
       <c r="C47">
-        <v>1405653.0200000003</v>
+        <v>1405366.7700000005</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3427,7 +3427,7 @@
         <v>92</v>
       </c>
       <c r="C48">
-        <v>1369914.1700000002</v>
+        <v>1370698.3900000001</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3438,7 +3438,7 @@
         <v>94</v>
       </c>
       <c r="C49">
-        <v>1367539.1500000001</v>
+        <v>1368094.45</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3449,7 +3449,7 @@
         <v>96</v>
       </c>
       <c r="C50">
-        <v>1334986.8399999999</v>
+        <v>1340089.83</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3460,7 +3460,7 @@
         <v>88</v>
       </c>
       <c r="C51">
-        <v>1290905.2000000002</v>
+        <v>1298950.6200000001</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3471,7 +3471,7 @@
         <v>99</v>
       </c>
       <c r="C52">
-        <v>1286039.5699999998</v>
+        <v>1286533.8299999996</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3482,7 +3482,7 @@
         <v>101</v>
       </c>
       <c r="C53">
-        <v>1281469.21</v>
+        <v>1281954.8899999999</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3493,7 +3493,7 @@
         <v>103</v>
       </c>
       <c r="C54">
-        <v>1274069.28</v>
+        <v>1274677.96</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3501,10 +3501,10 @@
         <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>1269525.6599999999</v>
+        <v>1270310.58</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3512,10 +3512,10 @@
         <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C56">
-        <v>1256600.53</v>
+        <v>1256600.6100000001</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3526,7 +3526,7 @@
         <v>107</v>
       </c>
       <c r="C57">
-        <v>1238897.2000000002</v>
+        <v>1239452.9300000002</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3537,7 +3537,7 @@
         <v>109</v>
       </c>
       <c r="C58">
-        <v>1227245.8900000001</v>
+        <v>1227963.1299999999</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3548,7 +3548,7 @@
         <v>111</v>
       </c>
       <c r="C59">
-        <v>1221543.4200000002</v>
+        <v>1222083.9000000001</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3559,7 +3559,7 @@
         <v>113</v>
       </c>
       <c r="C60">
-        <v>1186199.2600000002</v>
+        <v>1186387.3900000001</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3570,7 +3570,7 @@
         <v>115</v>
       </c>
       <c r="C61">
-        <v>1163783.4400000002</v>
+        <v>1164323.4799999997</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3581,7 +3581,7 @@
         <v>117</v>
       </c>
       <c r="C62">
-        <v>1151981.1500000001</v>
+        <v>1157144.44</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3592,7 +3592,7 @@
         <v>119</v>
       </c>
       <c r="C63">
-        <v>1147587.51</v>
+        <v>1152500.1199999999</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3603,7 +3603,7 @@
         <v>121</v>
       </c>
       <c r="C64">
-        <v>1136895.3700000001</v>
+        <v>1137453.4799999997</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3614,7 +3614,7 @@
         <v>123</v>
       </c>
       <c r="C65">
-        <v>1105343.2600000002</v>
+        <v>1115021.6099999999</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3625,7 +3625,7 @@
         <v>125</v>
       </c>
       <c r="C66">
-        <v>1098967.3800000001</v>
+        <v>1105741.9400000002</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3636,7 +3636,7 @@
         <v>127</v>
       </c>
       <c r="C67">
-        <v>1080923.92</v>
+        <v>1082476.98</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3647,7 +3647,7 @@
         <v>129</v>
       </c>
       <c r="C68">
-        <v>1069122.6599999999</v>
+        <v>1070179.4600000002</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3658,7 +3658,7 @@
         <v>57</v>
       </c>
       <c r="C69">
-        <v>1062138.3199999998</v>
+        <v>1066609.6599999999</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3669,7 +3669,7 @@
         <v>132</v>
       </c>
       <c r="C70">
-        <v>1053628.45</v>
+        <v>1054055.7299999997</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3680,7 +3680,7 @@
         <v>134</v>
       </c>
       <c r="C71">
-        <v>1051470.2000000002</v>
+        <v>1051916.19</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3691,7 +3691,7 @@
         <v>136</v>
       </c>
       <c r="C72">
-        <v>1042934.56</v>
+        <v>1045598.0699999998</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3702,7 +3702,7 @@
         <v>138</v>
       </c>
       <c r="C73">
-        <v>1040305.6599999999</v>
+        <v>1040738.04</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3713,7 +3713,7 @@
         <v>140</v>
       </c>
       <c r="C74">
-        <v>1038344.74</v>
+        <v>1003405.76</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3721,10 +3721,10 @@
         <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>1033876</v>
+        <v>993108.9700000002</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3732,21 +3732,21 @@
         <v>142</v>
       </c>
       <c r="B76" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="C76">
-        <v>1002113.31</v>
+        <v>981332.93999999983</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" t="s">
         <v>144</v>
       </c>
-      <c r="B77" t="s">
-        <v>4</v>
-      </c>
       <c r="C77">
-        <v>992659.89999999991</v>
+        <v>976627.01</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3754,10 +3754,10 @@
         <v>145</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="C78">
-        <v>980915.80999999994</v>
+        <v>975225.24</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3768,7 +3768,7 @@
         <v>147</v>
       </c>
       <c r="C79">
-        <v>976199.7100000002</v>
+        <v>968366.3600000001</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3776,54 +3776,54 @@
         <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="C80">
-        <v>972068.03000000014</v>
+        <v>964064.06000000017</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C81">
-        <v>967956.76</v>
+        <v>938977.22000000009</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C82">
-        <v>963106.97000000009</v>
+        <v>938122.32</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C83">
-        <v>938622.55999999982</v>
+        <v>905883.19</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="C84">
-        <v>934800.6</v>
+        <v>904007.88</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3834,7 +3834,7 @@
         <v>158</v>
       </c>
       <c r="C85">
-        <v>896737.2100000002</v>
+        <v>896899.29</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3845,7 +3845,7 @@
         <v>160</v>
       </c>
       <c r="C86">
-        <v>885007.77</v>
+        <v>888509.08000000007</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3856,7 +3856,7 @@
         <v>162</v>
       </c>
       <c r="C87">
-        <v>883895.04999999993</v>
+        <v>884255.29999999993</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3867,7 +3867,7 @@
         <v>164</v>
       </c>
       <c r="C88">
-        <v>877294.2799999998</v>
+        <v>877545.37000000011</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3878,7 +3878,7 @@
         <v>166</v>
       </c>
       <c r="C89">
-        <v>867598.39000000013</v>
+        <v>867965.46000000008</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3889,7 +3889,7 @@
         <v>168</v>
       </c>
       <c r="C90">
-        <v>863452.47</v>
+        <v>863849.66</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3900,7 +3900,7 @@
         <v>170</v>
       </c>
       <c r="C91">
-        <v>856373.21000000008</v>
+        <v>856559.2300000001</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3911,7 +3911,7 @@
         <v>86</v>
       </c>
       <c r="C92">
-        <v>852626.12000000011</v>
+        <v>854156.69000000006</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3922,7 +3922,7 @@
         <v>173</v>
       </c>
       <c r="C93">
-        <v>824814.92999999993</v>
+        <v>825095.46</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3933,7 +3933,7 @@
         <v>175</v>
       </c>
       <c r="C94">
-        <v>822631.34000000008</v>
+        <v>824765.48</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3944,7 +3944,7 @@
         <v>111</v>
       </c>
       <c r="C95">
-        <v>817110.76000000013</v>
+        <v>817992.75999999989</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3955,7 +3955,7 @@
         <v>26</v>
       </c>
       <c r="C96">
-        <v>812339.8</v>
+        <v>813334.82000000018</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3966,7 +3966,7 @@
         <v>179</v>
       </c>
       <c r="C97">
-        <v>807022.74</v>
+        <v>807363.2</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3977,7 +3977,7 @@
         <v>181</v>
       </c>
       <c r="C98">
-        <v>802044.36</v>
+        <v>804002.60999999987</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3988,7 +3988,7 @@
         <v>183</v>
       </c>
       <c r="C99">
-        <v>800469.69</v>
+        <v>800839.44</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3999,7 +3999,7 @@
         <v>111</v>
       </c>
       <c r="C100">
-        <v>791131.67000000016</v>
+        <v>791903.63</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4010,7 +4010,7 @@
         <v>86</v>
       </c>
       <c r="C101">
-        <v>789925.19</v>
+        <v>790087.86</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4021,7 +4021,7 @@
         <v>6</v>
       </c>
       <c r="C102">
-        <v>777439.74</v>
+        <v>783636.5299999998</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4032,7 +4032,7 @@
         <v>188</v>
       </c>
       <c r="C103">
-        <v>766107.58000000007</v>
+        <v>766449</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4043,7 +4043,7 @@
         <v>113</v>
       </c>
       <c r="C104">
-        <v>751621.79</v>
+        <v>753440.74</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4054,7 +4054,7 @@
         <v>191</v>
       </c>
       <c r="C105">
-        <v>750470.10999999987</v>
+        <v>752156.7899999998</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4065,7 +4065,7 @@
         <v>193</v>
       </c>
       <c r="C106">
-        <v>739928.29999999981</v>
+        <v>740251.04</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4076,7 +4076,7 @@
         <v>195</v>
       </c>
       <c r="C107">
-        <v>724865.03</v>
+        <v>725187.55999999994</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4087,7 +4087,7 @@
         <v>111</v>
       </c>
       <c r="C108">
-        <v>718795.00999999989</v>
+        <v>720560.3600000001</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4098,7 +4098,7 @@
         <v>10</v>
       </c>
       <c r="C109">
-        <v>707312.54999999993</v>
+        <v>707627.67</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4109,7 +4109,7 @@
         <v>199</v>
       </c>
       <c r="C110">
-        <v>691257.53000000014</v>
+        <v>691548.53</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4120,7 +4120,7 @@
         <v>59</v>
       </c>
       <c r="C111">
-        <v>687825.3600000001</v>
+        <v>690559.42</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4131,7 +4131,7 @@
         <v>202</v>
       </c>
       <c r="C112">
-        <v>677897.18</v>
+        <v>680066.30999999994</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4142,7 +4142,7 @@
         <v>204</v>
       </c>
       <c r="C113">
-        <v>672174.0299999998</v>
+        <v>673272.37000000011</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4153,7 +4153,7 @@
         <v>111</v>
       </c>
       <c r="C114">
-        <v>668833.43999999994</v>
+        <v>669440.6399999999</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4164,7 +4164,7 @@
         <v>207</v>
       </c>
       <c r="C115">
-        <v>664383.23</v>
+        <v>665157.60000000009</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4175,7 +4175,7 @@
         <v>209</v>
       </c>
       <c r="C116">
-        <v>656774.73</v>
+        <v>659328.81000000006</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4186,7 +4186,7 @@
         <v>47</v>
       </c>
       <c r="C117">
-        <v>650975.61</v>
+        <v>653502.74999999977</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4197,7 +4197,7 @@
         <v>136</v>
       </c>
       <c r="C118">
-        <v>649877.20000000007</v>
+        <v>650159.25000000012</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4208,7 +4208,7 @@
         <v>70</v>
       </c>
       <c r="C119">
-        <v>646541.67999999993</v>
+        <v>647682.84000000008</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4219,7 +4219,7 @@
         <v>39</v>
       </c>
       <c r="C120">
-        <v>643182.26</v>
+        <v>644195.44000000006</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4230,7 +4230,7 @@
         <v>51</v>
       </c>
       <c r="C121">
-        <v>636520.74</v>
+        <v>641529.89000000013</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4241,7 +4241,7 @@
         <v>216</v>
       </c>
       <c r="C122">
-        <v>633740.96</v>
+        <v>634008.88000000012</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4252,7 +4252,7 @@
         <v>218</v>
       </c>
       <c r="C123">
-        <v>625594.94000000006</v>
+        <v>625842.53</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4263,7 +4263,7 @@
         <v>220</v>
       </c>
       <c r="C124">
-        <v>619086.06999999995</v>
+        <v>619417</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4274,7 +4274,7 @@
         <v>51</v>
       </c>
       <c r="C125">
-        <v>616012.78</v>
+        <v>617595.52</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4285,7 +4285,7 @@
         <v>223</v>
       </c>
       <c r="C126">
-        <v>613737.64999999991</v>
+        <v>614984.56000000006</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4293,21 +4293,21 @@
         <v>224</v>
       </c>
       <c r="B127" t="s">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="C127">
-        <v>607799.67999999993</v>
+        <v>609464.16</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
+        <v>225</v>
+      </c>
+      <c r="B128" t="s">
         <v>226</v>
       </c>
-      <c r="B128" t="s">
-        <v>33</v>
-      </c>
       <c r="C128">
-        <v>604655.74999999988</v>
+        <v>608487.06000000006</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4318,7 +4318,7 @@
         <v>228</v>
       </c>
       <c r="C129">
-        <v>599606.27</v>
+        <v>601037.23</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4326,10 +4326,10 @@
         <v>229</v>
       </c>
       <c r="B130" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="C130">
-        <v>593905.73999999987</v>
+        <v>597624.79</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4337,10 +4337,10 @@
         <v>230</v>
       </c>
       <c r="B131" t="s">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="C131">
-        <v>592763.29999999993</v>
+        <v>594249.14999999991</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4351,7 +4351,7 @@
         <v>232</v>
       </c>
       <c r="C132">
-        <v>590163.27999999991</v>
+        <v>591135.54999999993</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4362,7 +4362,7 @@
         <v>234</v>
       </c>
       <c r="C133">
-        <v>585080.91999999993</v>
+        <v>585129.16999999993</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4373,7 +4373,7 @@
         <v>236</v>
       </c>
       <c r="C134">
-        <v>584838.62000000011</v>
+        <v>580430.83000000019</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4384,7 +4384,7 @@
         <v>238</v>
       </c>
       <c r="C135">
-        <v>578905.86</v>
+        <v>579165.66</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4395,7 +4395,7 @@
         <v>240</v>
       </c>
       <c r="C136">
-        <v>573768.27999999991</v>
+        <v>574688.19999999995</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4406,7 +4406,7 @@
         <v>39</v>
       </c>
       <c r="C137">
-        <v>572941.04999999993</v>
+        <v>573183.92999999993</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4417,7 +4417,7 @@
         <v>243</v>
       </c>
       <c r="C138">
-        <v>566656.41000000015</v>
+        <v>566903.85000000009</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4428,7 +4428,7 @@
         <v>245</v>
       </c>
       <c r="C139">
-        <v>560808.1399999999</v>
+        <v>561011.18999999994</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4439,7 +4439,7 @@
         <v>247</v>
       </c>
       <c r="C140">
-        <v>557457.75</v>
+        <v>559894.73</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4450,7 +4450,7 @@
         <v>249</v>
       </c>
       <c r="C141">
-        <v>551374.01</v>
+        <v>551647.21000000008</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4461,7 +4461,7 @@
         <v>251</v>
       </c>
       <c r="C142">
-        <v>549534.92999999993</v>
+        <v>550094.59000000008</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4472,7 +4472,7 @@
         <v>253</v>
       </c>
       <c r="C143">
-        <v>544153.83000000007</v>
+        <v>544392.19999999995</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4483,7 +4483,7 @@
         <v>255</v>
       </c>
       <c r="C144">
-        <v>538001.72</v>
+        <v>538011.84000000008</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4494,7 +4494,7 @@
         <v>136</v>
       </c>
       <c r="C145">
-        <v>533797.14999999991</v>
+        <v>534025.54</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4505,7 +4505,7 @@
         <v>258</v>
       </c>
       <c r="C146">
-        <v>520941.03999999992</v>
+        <v>521241.11</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4516,7 +4516,7 @@
         <v>260</v>
       </c>
       <c r="C147">
-        <v>510878.98</v>
+        <v>511630.65999999992</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4527,7 +4527,7 @@
         <v>262</v>
       </c>
       <c r="C148">
-        <v>505228.50000000006</v>
+        <v>505934.87999999995</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4538,7 +4538,7 @@
         <v>264</v>
       </c>
       <c r="C149">
-        <v>504659.08999999997</v>
+        <v>489709.12000000005</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4549,7 +4549,7 @@
         <v>266</v>
       </c>
       <c r="C150">
-        <v>488999.57999999996</v>
+        <v>488429.54</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4560,7 +4560,7 @@
         <v>268</v>
       </c>
       <c r="C151">
-        <v>488237.01</v>
+        <v>480563.19000000006</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4571,7 +4571,7 @@
         <v>270</v>
       </c>
       <c r="C152">
-        <v>476778.92999999993</v>
+        <v>467823.75999999995</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4582,7 +4582,7 @@
         <v>272</v>
       </c>
       <c r="C153">
-        <v>467517.18000000005</v>
+        <v>457902.06000000006</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4593,7 +4593,7 @@
         <v>274</v>
       </c>
       <c r="C154">
-        <v>457680.54999999993</v>
+        <v>456442.77</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4604,7 +4604,7 @@
         <v>276</v>
       </c>
       <c r="C155">
-        <v>452931.98000000004</v>
+        <v>455000.19</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4615,7 +4615,7 @@
         <v>278</v>
       </c>
       <c r="C156">
-        <v>451378.19</v>
+        <v>453131.22000000003</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4623,10 +4623,10 @@
         <v>279</v>
       </c>
       <c r="B157" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="C157">
-        <v>448153.38</v>
+        <v>451073.02999999997</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4634,10 +4634,10 @@
         <v>280</v>
       </c>
       <c r="B158" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="C158">
-        <v>447484.19</v>
+        <v>448374.46999999991</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4648,7 +4648,7 @@
         <v>282</v>
       </c>
       <c r="C159">
-        <v>434049.70999999996</v>
+        <v>435773.29000000004</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4659,7 +4659,7 @@
         <v>59</v>
       </c>
       <c r="C160">
-        <v>430306.41</v>
+        <v>430499.99000000005</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4670,7 +4670,7 @@
         <v>10</v>
       </c>
       <c r="C161">
-        <v>429438.58</v>
+        <v>429620.83</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4681,7 +4681,7 @@
         <v>286</v>
       </c>
       <c r="C162">
-        <v>424712.62999999995</v>
+        <v>424715.24</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4692,7 +4692,7 @@
         <v>288</v>
       </c>
       <c r="C163">
-        <v>424408.21000000008</v>
+        <v>424565.55</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4700,10 +4700,10 @@
         <v>289</v>
       </c>
       <c r="B164" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C164">
-        <v>421972.69999999995</v>
+        <v>422349.24</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4711,32 +4711,32 @@
         <v>290</v>
       </c>
       <c r="B165" t="s">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="C165">
-        <v>420172.60000000009</v>
+        <v>420530.56</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
+        <v>291</v>
+      </c>
+      <c r="B166" t="s">
         <v>292</v>
       </c>
-      <c r="B166" t="s">
-        <v>293</v>
-      </c>
       <c r="C166">
-        <v>420000</v>
+        <v>420373.69000000006</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
+        <v>293</v>
+      </c>
+      <c r="B167" t="s">
         <v>294</v>
       </c>
-      <c r="B167" t="s">
-        <v>18</v>
-      </c>
       <c r="C167">
-        <v>418967.25</v>
+        <v>420177.66</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4747,7 +4747,7 @@
         <v>296</v>
       </c>
       <c r="C168">
-        <v>418875.9</v>
+        <v>419976.37000000005</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4758,7 +4758,7 @@
         <v>298</v>
       </c>
       <c r="C169">
-        <v>417066.31</v>
+        <v>418011.1399999999</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4769,7 +4769,7 @@
         <v>300</v>
       </c>
       <c r="C170">
-        <v>415495.12</v>
+        <v>415674.37</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4780,7 +4780,7 @@
         <v>302</v>
       </c>
       <c r="C171">
-        <v>414395.88</v>
+        <v>414949.72000000003</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4791,7 +4791,7 @@
         <v>127</v>
       </c>
       <c r="C172">
-        <v>408828.24000000005</v>
+        <v>412263.08</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4802,7 +4802,7 @@
         <v>305</v>
       </c>
       <c r="C173">
-        <v>406090.11</v>
+        <v>402346.03</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4813,7 +4813,7 @@
         <v>307</v>
       </c>
       <c r="C174">
-        <v>401655.77000000008</v>
+        <v>388287.78</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4824,7 +4824,7 @@
         <v>309</v>
       </c>
       <c r="C175">
-        <v>387936.89</v>
+        <v>387511.55000000005</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4835,7 +4835,7 @@
         <v>311</v>
       </c>
       <c r="C176">
-        <v>386535.46999999991</v>
+        <v>385282.29999999993</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4846,7 +4846,7 @@
         <v>313</v>
       </c>
       <c r="C177">
-        <v>384695.65999999992</v>
+        <v>376889.95000000007</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4854,32 +4854,32 @@
         <v>314</v>
       </c>
       <c r="B178" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C178">
-        <v>375920.47</v>
+        <v>372659.68</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B179" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="C179">
-        <v>371678.23</v>
+        <v>370460.26000000007</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
+        <v>316</v>
+      </c>
+      <c r="B180" t="s">
         <v>317</v>
       </c>
-      <c r="B180" t="s">
-        <v>293</v>
-      </c>
       <c r="C180">
-        <v>370330.56</v>
+        <v>369290.76000000007</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4890,7 +4890,7 @@
         <v>319</v>
       </c>
       <c r="C181">
-        <v>368289.58</v>
+        <v>368750.42000000004</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4901,7 +4901,7 @@
         <v>321</v>
       </c>
       <c r="C182">
-        <v>367827.11</v>
+        <v>368530.57000000007</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4909,76 +4909,76 @@
         <v>322</v>
       </c>
       <c r="B183" t="s">
-        <v>323</v>
+        <v>88</v>
       </c>
       <c r="C183">
-        <v>366751.43999999994</v>
+        <v>367056.07</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B184" t="s">
         <v>258</v>
       </c>
       <c r="C184">
-        <v>365444.67999999993</v>
+        <v>366020.00999999995</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B185" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C185">
-        <v>364165.79999999993</v>
+        <v>363106.75</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
+        <v>325</v>
+      </c>
+      <c r="B186" t="s">
         <v>326</v>
       </c>
-      <c r="B186" t="s">
-        <v>327</v>
-      </c>
       <c r="C186">
-        <v>362932.82</v>
+        <v>363086.73</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B187" t="s">
         <v>39</v>
       </c>
       <c r="C187">
-        <v>362841.93</v>
+        <v>362997.19000000006</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B188" t="s">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c r="C188">
-        <v>362590.47</v>
+        <v>361965.23000000004</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
+        <v>329</v>
+      </c>
+      <c r="B189" t="s">
         <v>330</v>
       </c>
-      <c r="B189" t="s">
-        <v>293</v>
-      </c>
       <c r="C189">
-        <v>361846.64999999997</v>
+        <v>360582.46999999974</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4989,7 +4989,7 @@
         <v>332</v>
       </c>
       <c r="C190">
-        <v>360495.97000000003</v>
+        <v>359708.75</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -5000,7 +5000,7 @@
         <v>334</v>
       </c>
       <c r="C191">
-        <v>359566.78</v>
+        <v>359212.56</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -5011,7 +5011,7 @@
         <v>336</v>
       </c>
       <c r="C192">
-        <v>359008.04000000004</v>
+        <v>355198.44</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -5022,7 +5022,7 @@
         <v>338</v>
       </c>
       <c r="C193">
-        <v>354528.12</v>
+        <v>354686.11999999994</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -5033,7 +5033,7 @@
         <v>340</v>
       </c>
       <c r="C194">
-        <v>352184.23</v>
+        <v>352339.38999999996</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -5044,7 +5044,7 @@
         <v>342</v>
       </c>
       <c r="C195">
-        <v>351915.76</v>
+        <v>352072.58999999997</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -5055,7 +5055,7 @@
         <v>344</v>
       </c>
       <c r="C196">
-        <v>351028.38000000006</v>
+        <v>351170.88</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -5066,7 +5066,7 @@
         <v>346</v>
       </c>
       <c r="C197">
-        <v>349313.15</v>
+        <v>349868.90999999992</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -5077,7 +5077,7 @@
         <v>348</v>
       </c>
       <c r="C198">
-        <v>346359.41000000003</v>
+        <v>346838.10000000003</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -5085,21 +5085,21 @@
         <v>349</v>
       </c>
       <c r="B199" t="s">
-        <v>247</v>
+        <v>350</v>
       </c>
       <c r="C199">
-        <v>343581.52</v>
+        <v>343719.11</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B200" t="s">
-        <v>351</v>
+        <v>247</v>
       </c>
       <c r="C200">
-        <v>343402.07999999996</v>
+        <v>343707.55</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -5110,7 +5110,7 @@
         <v>353</v>
       </c>
       <c r="C201">
-        <v>341801.23</v>
+        <v>342218.5</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -5121,7 +5121,7 @@
         <v>355</v>
       </c>
       <c r="C202">
-        <v>340541.69999999995</v>
+        <v>341404.47000000003</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -5132,7 +5132,7 @@
         <v>357</v>
       </c>
       <c r="C203">
-        <v>337185.13</v>
+        <v>337331.13</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -5143,7 +5143,7 @@
         <v>359</v>
       </c>
       <c r="C204">
-        <v>336972.94</v>
+        <v>337071.11</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -5154,7 +5154,7 @@
         <v>361</v>
       </c>
       <c r="C205">
-        <v>336569.79</v>
+        <v>336718.80000000005</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5165,7 +5165,7 @@
         <v>363</v>
       </c>
       <c r="C206">
-        <v>330614.46000000002</v>
+        <v>330794.74</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5176,7 +5176,7 @@
         <v>365</v>
       </c>
       <c r="C207">
-        <v>328856.7</v>
+        <v>329704.34999999992</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -5187,7 +5187,7 @@
         <v>367</v>
       </c>
       <c r="C208">
-        <v>326283.13999999996</v>
+        <v>326411.36</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5198,7 +5198,7 @@
         <v>369</v>
       </c>
       <c r="C209">
-        <v>320468.39</v>
+        <v>321277.05000000005</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5209,7 +5209,7 @@
         <v>371</v>
       </c>
       <c r="C210">
-        <v>319807.58</v>
+        <v>319944.30000000005</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5220,7 +5220,7 @@
         <v>373</v>
       </c>
       <c r="C211">
-        <v>316301.51</v>
+        <v>318697.57</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5228,10 +5228,10 @@
         <v>374</v>
       </c>
       <c r="B212" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C212">
-        <v>315485.64</v>
+        <v>315613.87</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5239,21 +5239,21 @@
         <v>375</v>
       </c>
       <c r="B213" t="s">
-        <v>376</v>
+        <v>101</v>
       </c>
       <c r="C213">
-        <v>310466.93</v>
+        <v>312602.69999999995</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
+        <v>376</v>
+      </c>
+      <c r="B214" t="s">
         <v>377</v>
       </c>
-      <c r="B214" t="s">
-        <v>101</v>
-      </c>
       <c r="C214">
-        <v>310129.44000000006</v>
+        <v>310600.07999999996</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5264,7 +5264,7 @@
         <v>88</v>
       </c>
       <c r="C215">
-        <v>309536.59000000003</v>
+        <v>309753.15999999997</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5275,7 +5275,7 @@
         <v>111</v>
       </c>
       <c r="C216">
-        <v>309351.36</v>
+        <v>309484.92999999993</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5286,7 +5286,7 @@
         <v>373</v>
       </c>
       <c r="C217">
-        <v>309327.82</v>
+        <v>309475.03999999998</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5297,7 +5297,7 @@
         <v>99</v>
       </c>
       <c r="C218">
-        <v>302926</v>
+        <v>305440.17</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5308,7 +5308,7 @@
         <v>4</v>
       </c>
       <c r="C219">
-        <v>302715.46999999997</v>
+        <v>302843.88</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5316,10 +5316,10 @@
         <v>383</v>
       </c>
       <c r="B220" t="s">
-        <v>61</v>
+        <v>373</v>
       </c>
       <c r="C220">
-        <v>297919.98</v>
+        <v>298842.62</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5327,10 +5327,10 @@
         <v>384</v>
       </c>
       <c r="B221" t="s">
-        <v>373</v>
+        <v>61</v>
       </c>
       <c r="C221">
-        <v>297870.87</v>
+        <v>298195.59999999998</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5338,10 +5338,10 @@
         <v>385</v>
       </c>
       <c r="B222" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C222">
-        <v>294390.58999999997</v>
+        <v>294524.06</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5349,21 +5349,21 @@
         <v>386</v>
       </c>
       <c r="B223" t="s">
-        <v>387</v>
+        <v>309</v>
       </c>
       <c r="C223">
-        <v>292154.82999999996</v>
+        <v>292319.74</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
+        <v>387</v>
+      </c>
+      <c r="B224" t="s">
         <v>388</v>
       </c>
-      <c r="B224" t="s">
-        <v>311</v>
-      </c>
       <c r="C224">
-        <v>291472.45999999996</v>
+        <v>292315.38999999996</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5374,7 +5374,7 @@
         <v>390</v>
       </c>
       <c r="C225">
-        <v>291338.34000000003</v>
+        <v>291466.05999999994</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5385,7 +5385,7 @@
         <v>392</v>
       </c>
       <c r="C226">
-        <v>284838.2</v>
+        <v>284973.61</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5396,7 +5396,7 @@
         <v>86</v>
       </c>
       <c r="C227">
-        <v>283620.86</v>
+        <v>284334.49</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5404,10 +5404,10 @@
         <v>394</v>
       </c>
       <c r="B228" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C228">
-        <v>282799.37</v>
+        <v>283281.90000000002</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5418,7 +5418,7 @@
         <v>51</v>
       </c>
       <c r="C229">
-        <v>278173.90000000002</v>
+        <v>279180.59999999998</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5429,7 +5429,7 @@
         <v>397</v>
       </c>
       <c r="C230">
-        <v>274783.48</v>
+        <v>274906.99</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5440,7 +5440,7 @@
         <v>399</v>
       </c>
       <c r="C231">
-        <v>273609.40999999997</v>
+        <v>274315.71999999997</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5451,7 +5451,7 @@
         <v>401</v>
       </c>
       <c r="C232">
-        <v>273583.00000000006</v>
+        <v>273709.58999999997</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5462,7 +5462,7 @@
         <v>403</v>
       </c>
       <c r="C233">
-        <v>271783.43</v>
+        <v>271948.87</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5473,7 +5473,7 @@
         <v>218</v>
       </c>
       <c r="C234">
-        <v>267300.37</v>
+        <v>267849.56999999995</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5484,7 +5484,7 @@
         <v>302</v>
       </c>
       <c r="C235">
-        <v>266221.49</v>
+        <v>266630.16000000003</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5495,7 +5495,7 @@
         <v>407</v>
       </c>
       <c r="C236">
-        <v>262510.3</v>
+        <v>263184.07</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5506,7 +5506,7 @@
         <v>409</v>
       </c>
       <c r="C237">
-        <v>261876.54000000004</v>
+        <v>262330.13</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5517,7 +5517,7 @@
         <v>411</v>
       </c>
       <c r="C238">
-        <v>261746.3</v>
+        <v>262015.81</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5528,7 +5528,7 @@
         <v>413</v>
       </c>
       <c r="C239">
-        <v>261629.05999999997</v>
+        <v>261657.06</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5539,7 +5539,7 @@
         <v>415</v>
       </c>
       <c r="C240">
-        <v>260971.97</v>
+        <v>261631.34</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5547,10 +5547,10 @@
         <v>416</v>
       </c>
       <c r="B241" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="C241">
-        <v>258339.41999999998</v>
+        <v>260173.53000000003</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5558,10 +5558,10 @@
         <v>417</v>
       </c>
       <c r="B242" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C242">
-        <v>258015.22999999998</v>
+        <v>258405.34999999998</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5569,54 +5569,54 @@
         <v>418</v>
       </c>
       <c r="B243" t="s">
-        <v>419</v>
+        <v>113</v>
       </c>
       <c r="C243">
-        <v>252745.55</v>
+        <v>258288.91000000003</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
+        <v>419</v>
+      </c>
+      <c r="B244" t="s">
         <v>420</v>
       </c>
-      <c r="B244" t="s">
-        <v>421</v>
-      </c>
       <c r="C244">
-        <v>249688.11999999997</v>
+        <v>252849.26</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
+        <v>421</v>
+      </c>
+      <c r="B245" t="s">
         <v>422</v>
       </c>
-      <c r="B245" t="s">
-        <v>423</v>
-      </c>
       <c r="C245">
-        <v>249198.14000000004</v>
+        <v>250266.72999999998</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
+        <v>423</v>
+      </c>
+      <c r="B246" t="s">
         <v>424</v>
       </c>
-      <c r="B246" t="s">
-        <v>425</v>
-      </c>
       <c r="C246">
-        <v>248164.92000000004</v>
+        <v>249389.27</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
+        <v>425</v>
+      </c>
+      <c r="B247" t="s">
         <v>426</v>
       </c>
-      <c r="B247" t="s">
-        <v>154</v>
-      </c>
       <c r="C247">
-        <v>246233.96000000002</v>
+        <v>248749.76</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5624,76 +5624,76 @@
         <v>427</v>
       </c>
       <c r="B248" t="s">
-        <v>428</v>
+        <v>151</v>
       </c>
       <c r="C248">
-        <v>244042.34999999995</v>
+        <v>246818.34</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
+        <v>428</v>
+      </c>
+      <c r="B249" t="s">
         <v>429</v>
       </c>
-      <c r="B249" t="s">
-        <v>430</v>
-      </c>
       <c r="C249">
-        <v>243801.78000000003</v>
+        <v>244659.46999999997</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
+        <v>430</v>
+      </c>
+      <c r="B250" t="s">
         <v>431</v>
       </c>
-      <c r="B250" t="s">
-        <v>432</v>
-      </c>
       <c r="C250">
-        <v>243532.31</v>
+        <v>244430.52000000002</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
+        <v>432</v>
+      </c>
+      <c r="B251" t="s">
         <v>433</v>
       </c>
-      <c r="B251" t="s">
-        <v>434</v>
-      </c>
       <c r="C251">
-        <v>242659.41999999998</v>
+        <v>243532.78999999998</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
+        <v>434</v>
+      </c>
+      <c r="B252" t="s">
         <v>435</v>
       </c>
-      <c r="B252" t="s">
-        <v>436</v>
-      </c>
       <c r="C252">
-        <v>241598.73</v>
+        <v>242764.66999999998</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
+        <v>436</v>
+      </c>
+      <c r="B253" t="s">
         <v>437</v>
       </c>
-      <c r="B253" t="s">
-        <v>438</v>
-      </c>
       <c r="C253">
-        <v>240977.85</v>
+        <v>241693.58999999994</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
+        <v>438</v>
+      </c>
+      <c r="B254" t="s">
         <v>439</v>
       </c>
-      <c r="B254" t="s">
-        <v>298</v>
-      </c>
       <c r="C254">
-        <v>239207.39</v>
+        <v>241296.11000000002</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5701,65 +5701,65 @@
         <v>440</v>
       </c>
       <c r="B255" t="s">
-        <v>441</v>
+        <v>298</v>
       </c>
       <c r="C255">
-        <v>237007.49000000002</v>
+        <v>239787.17000000004</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
+        <v>441</v>
+      </c>
+      <c r="B256" t="s">
         <v>442</v>
       </c>
-      <c r="B256" t="s">
-        <v>443</v>
-      </c>
       <c r="C256">
-        <v>236827.22999999998</v>
+        <v>237427.09999999998</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
+        <v>443</v>
+      </c>
+      <c r="B257" t="s">
         <v>444</v>
       </c>
-      <c r="B257" t="s">
-        <v>445</v>
-      </c>
       <c r="C257">
-        <v>234099.06</v>
+        <v>237126.47999999998</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
+        <v>445</v>
+      </c>
+      <c r="B258" t="s">
         <v>446</v>
       </c>
-      <c r="B258" t="s">
-        <v>447</v>
-      </c>
       <c r="C258">
-        <v>233566.64</v>
+        <v>234889.77000000002</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
+        <v>447</v>
+      </c>
+      <c r="B259" t="s">
         <v>448</v>
       </c>
-      <c r="B259" t="s">
-        <v>449</v>
-      </c>
       <c r="C259">
-        <v>231978.79</v>
+        <v>233917.71999999997</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
+        <v>449</v>
+      </c>
+      <c r="B260" t="s">
         <v>450</v>
       </c>
-      <c r="B260" t="s">
-        <v>432</v>
-      </c>
       <c r="C260">
-        <v>231663.46</v>
+        <v>232468.24999999997</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5767,21 +5767,21 @@
         <v>451</v>
       </c>
       <c r="B261" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="C261">
-        <v>226673.63999999998</v>
+        <v>231693.02</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
+        <v>452</v>
+      </c>
+      <c r="B262" t="s">
         <v>453</v>
       </c>
-      <c r="B262" t="s">
-        <v>41</v>
-      </c>
       <c r="C262">
-        <v>226645.00999999998</v>
+        <v>226768.23</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5792,7 +5792,7 @@
         <v>455</v>
       </c>
       <c r="C263">
-        <v>226246.09000000003</v>
+        <v>226340.27</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5803,7 +5803,7 @@
         <v>457</v>
       </c>
       <c r="C264">
-        <v>219914.99999999997</v>
+        <v>220009.88</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5814,7 +5814,7 @@
         <v>459</v>
       </c>
       <c r="C265">
-        <v>218430.56</v>
+        <v>218534.38</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5825,7 +5825,7 @@
         <v>461</v>
       </c>
       <c r="C266">
-        <v>216490.40000000002</v>
+        <v>216585.64999999997</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5833,10 +5833,10 @@
         <v>462</v>
       </c>
       <c r="B267" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C267">
-        <v>212663.55</v>
+        <v>213971.14999999997</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5847,7 +5847,7 @@
         <v>464</v>
       </c>
       <c r="C268">
-        <v>210108.24</v>
+        <v>210198.1</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5858,7 +5858,7 @@
         <v>466</v>
       </c>
       <c r="C269">
-        <v>209566.57999999996</v>
+        <v>209900.10000000003</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5869,7 +5869,7 @@
         <v>70</v>
       </c>
       <c r="C270">
-        <v>206949.88999999998</v>
+        <v>207469.11999999997</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5880,7 +5880,7 @@
         <v>245</v>
       </c>
       <c r="C271">
-        <v>204227.29</v>
+        <v>204557.43000000002</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5891,7 +5891,7 @@
         <v>470</v>
       </c>
       <c r="C272">
-        <v>203853.38</v>
+        <v>203937.02000000005</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5902,7 +5902,7 @@
         <v>302</v>
       </c>
       <c r="C273">
-        <v>202452.27000000002</v>
+        <v>202778.52</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5910,21 +5910,21 @@
         <v>472</v>
       </c>
       <c r="B274" t="s">
-        <v>473</v>
+        <v>272</v>
       </c>
       <c r="C274">
-        <v>200442.46999999997</v>
+        <v>201687.32</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
+        <v>473</v>
+      </c>
+      <c r="B275" t="s">
         <v>474</v>
       </c>
-      <c r="B275" t="s">
-        <v>264</v>
-      </c>
       <c r="C275">
-        <v>200177.94999999998</v>
+        <v>200720.77000000002</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5932,10 +5932,10 @@
         <v>475</v>
       </c>
       <c r="B276" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C276">
-        <v>200097.27000000002</v>
+        <v>200224.47000000003</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5946,7 +5946,7 @@
         <v>477</v>
       </c>
       <c r="C277">
-        <v>199690.08000000002</v>
+        <v>199989.01999999996</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5957,7 +5957,7 @@
         <v>47</v>
       </c>
       <c r="C278">
-        <v>197680.91999999998</v>
+        <v>198435.73</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5968,7 +5968,7 @@
         <v>480</v>
       </c>
       <c r="C279">
-        <v>197224.16</v>
+        <v>197307.38</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5979,7 +5979,7 @@
         <v>51</v>
       </c>
       <c r="C280">
-        <v>195067.49000000011</v>
+        <v>195534.37</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5990,7 +5990,7 @@
         <v>483</v>
       </c>
       <c r="C281">
-        <v>194162.6</v>
+        <v>194270.28</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5998,10 +5998,10 @@
         <v>484</v>
       </c>
       <c r="B282" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C282">
-        <v>192177.79</v>
+        <v>192252.98</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -6012,7 +6012,7 @@
         <v>486</v>
       </c>
       <c r="C283">
-        <v>191424.36999999997</v>
+        <v>191501.63</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -6020,10 +6020,10 @@
         <v>487</v>
       </c>
       <c r="B284" t="s">
-        <v>218</v>
+        <v>88</v>
       </c>
       <c r="C284">
-        <v>190709.16</v>
+        <v>191462.36999999997</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -6031,10 +6031,10 @@
         <v>488</v>
       </c>
       <c r="B285" t="s">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c r="C285">
-        <v>187989.33</v>
+        <v>190788.27000000002</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -6045,7 +6045,7 @@
         <v>127</v>
       </c>
       <c r="C286">
-        <v>184060.78</v>
+        <v>184341.80000000002</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -6056,7 +6056,7 @@
         <v>39</v>
       </c>
       <c r="C287">
-        <v>183312.63</v>
+        <v>183791.27000000002</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -6067,7 +6067,7 @@
         <v>492</v>
       </c>
       <c r="C288">
-        <v>183160.99999999997</v>
+        <v>183581.76999999996</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -6078,7 +6078,7 @@
         <v>494</v>
       </c>
       <c r="C289">
-        <v>180152.58000000002</v>
+        <v>180155.44999999998</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6089,7 +6089,7 @@
         <v>67</v>
       </c>
       <c r="C290">
-        <v>179365.88</v>
+        <v>179442.32</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -6100,7 +6100,7 @@
         <v>497</v>
       </c>
       <c r="C291">
-        <v>176689.83999999997</v>
+        <v>177131.42</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -6111,7 +6111,7 @@
         <v>70</v>
       </c>
       <c r="C292">
-        <v>175086.04</v>
+        <v>175154.31000000003</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -6122,7 +6122,7 @@
         <v>99</v>
       </c>
       <c r="C293">
-        <v>172899.11</v>
+        <v>172957.96000000002</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6133,7 +6133,7 @@
         <v>501</v>
       </c>
       <c r="C294">
-        <v>169550.81</v>
+        <v>169981.09</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -6144,7 +6144,7 @@
         <v>390</v>
       </c>
       <c r="C295">
-        <v>168888.81000000003</v>
+        <v>169671.42</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -6152,21 +6152,21 @@
         <v>503</v>
       </c>
       <c r="B296" t="s">
-        <v>113</v>
+        <v>504</v>
       </c>
       <c r="C296">
-        <v>166258.69</v>
+        <v>166781.07999999999</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B297" t="s">
-        <v>505</v>
+        <v>113</v>
       </c>
       <c r="C297">
-        <v>165428.12</v>
+        <v>166326.46000000002</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -6177,7 +6177,7 @@
         <v>507</v>
       </c>
       <c r="C298">
-        <v>165395.88999999998</v>
+        <v>165452.08000000002</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -6188,7 +6188,7 @@
         <v>509</v>
       </c>
       <c r="C299">
-        <v>162332.33000000002</v>
+        <v>162353.13999999998</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6199,7 +6199,7 @@
         <v>511</v>
       </c>
       <c r="C300">
-        <v>160973.30000000002</v>
+        <v>160992.53</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -6210,7 +6210,7 @@
         <v>513</v>
       </c>
       <c r="C301">
-        <v>160715.42000000004</v>
+        <v>160782.71</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -6218,10 +6218,10 @@
         <v>514</v>
       </c>
       <c r="B302" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C302">
-        <v>160193.56</v>
+        <v>160593.77000000002</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6229,10 +6229,10 @@
         <v>515</v>
       </c>
       <c r="B303" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C303">
-        <v>158525.50999999998</v>
+        <v>159357.91999999998</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6243,7 +6243,7 @@
         <v>86</v>
       </c>
       <c r="C304">
-        <v>158251.36000000002</v>
+        <v>158318.43000000002</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6251,10 +6251,10 @@
         <v>517</v>
       </c>
       <c r="B305" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C305">
-        <v>158101.75</v>
+        <v>158200.95999999999</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6265,7 +6265,7 @@
         <v>82</v>
       </c>
       <c r="C306">
-        <v>157423.37</v>
+        <v>157491.63</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6276,7 +6276,7 @@
         <v>86</v>
       </c>
       <c r="C307">
-        <v>157190.76</v>
+        <v>157275.24999999997</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6287,7 +6287,7 @@
         <v>86</v>
       </c>
       <c r="C308">
-        <v>156858.6</v>
+        <v>156921.43</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6298,7 +6298,7 @@
         <v>33</v>
       </c>
       <c r="C309">
-        <v>155078</v>
+        <v>155078.08000000002</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6309,7 +6309,7 @@
         <v>41</v>
       </c>
       <c r="C310">
-        <v>154011.33000000002</v>
+        <v>154074.51</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6320,7 +6320,7 @@
         <v>524</v>
       </c>
       <c r="C311">
-        <v>152769.17000000001</v>
+        <v>152856.14000000001</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6331,7 +6331,7 @@
         <v>526</v>
       </c>
       <c r="C312">
-        <v>149858.5</v>
+        <v>149921.47</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6342,7 +6342,7 @@
         <v>251</v>
       </c>
       <c r="C313">
-        <v>148121.19</v>
+        <v>148494.09999999998</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6353,7 +6353,7 @@
         <v>529</v>
       </c>
       <c r="C314">
-        <v>147627.39000000001</v>
+        <v>147702.52000000002</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6364,7 +6364,7 @@
         <v>531</v>
       </c>
       <c r="C315">
-        <v>147352.41999999998</v>
+        <v>147404.85999999999</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -6375,7 +6375,7 @@
         <v>533</v>
       </c>
       <c r="C316">
-        <v>146504.85000000003</v>
+        <v>146582.85</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6386,7 +6386,7 @@
         <v>59</v>
       </c>
       <c r="C317">
-        <v>144876.67000000001</v>
+        <v>144947.47</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6397,7 +6397,7 @@
         <v>536</v>
       </c>
       <c r="C318">
-        <v>140979.27000000002</v>
+        <v>141036.35999999999</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6405,10 +6405,10 @@
         <v>537</v>
       </c>
       <c r="B319" t="s">
-        <v>533</v>
+        <v>292</v>
       </c>
       <c r="C319">
-        <v>139703.19</v>
+        <v>140629.79999999999</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6416,10 +6416,10 @@
         <v>538</v>
       </c>
       <c r="B320" t="s">
-        <v>291</v>
+        <v>533</v>
       </c>
       <c r="C320">
-        <v>139472.04000000004</v>
+        <v>139811.84</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6430,7 +6430,7 @@
         <v>540</v>
       </c>
       <c r="C321">
-        <v>138769.98000000001</v>
+        <v>139145.77999999997</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6441,7 +6441,7 @@
         <v>542</v>
       </c>
       <c r="C322">
-        <v>138511.87</v>
+        <v>138838.12999999998</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6452,7 +6452,7 @@
         <v>544</v>
       </c>
       <c r="C323">
-        <v>138321.94</v>
+        <v>138381.74999999997</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6463,7 +6463,7 @@
         <v>546</v>
       </c>
       <c r="C324">
-        <v>137772.42000000001</v>
+        <v>137645.78999999998</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6474,7 +6474,7 @@
         <v>548</v>
       </c>
       <c r="C325">
-        <v>136561.21</v>
+        <v>136702.82999999999</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -6485,7 +6485,7 @@
         <v>550</v>
       </c>
       <c r="C326">
-        <v>135862.91</v>
+        <v>136072.07</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6493,21 +6493,21 @@
         <v>551</v>
       </c>
       <c r="B327" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="C327">
-        <v>134327.51999999999</v>
+        <v>134461.07999999999</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
+        <v>552</v>
+      </c>
+      <c r="B328" t="s">
         <v>553</v>
       </c>
-      <c r="B328" t="s">
-        <v>57</v>
-      </c>
       <c r="C328">
-        <v>134209.65</v>
+        <v>134352.01999999999</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6515,10 +6515,10 @@
         <v>554</v>
       </c>
       <c r="B329" t="s">
-        <v>533</v>
+        <v>57</v>
       </c>
       <c r="C329">
-        <v>134136.51999999999</v>
+        <v>134281.25</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6529,7 +6529,7 @@
         <v>556</v>
       </c>
       <c r="C330">
-        <v>130115.46</v>
+        <v>130171.08</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6540,7 +6540,7 @@
         <v>191</v>
       </c>
       <c r="C331">
-        <v>129881.32999999999</v>
+        <v>130080.35999999999</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6551,7 +6551,7 @@
         <v>559</v>
       </c>
       <c r="C332">
-        <v>129276.49999999999</v>
+        <v>129334.94</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6562,7 +6562,7 @@
         <v>228</v>
       </c>
       <c r="C333">
-        <v>128313.09999999999</v>
+        <v>128364.97000000002</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6570,10 +6570,10 @@
         <v>561</v>
       </c>
       <c r="B334" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C334">
-        <v>128005</v>
+        <v>128060.83</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6584,7 +6584,7 @@
         <v>563</v>
       </c>
       <c r="C335">
-        <v>127570.14999999998</v>
+        <v>127628.39000000001</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6595,7 +6595,7 @@
         <v>342</v>
       </c>
       <c r="C336">
-        <v>127166.39</v>
+        <v>127109.93</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6603,10 +6603,10 @@
         <v>565</v>
       </c>
       <c r="B337" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C337">
-        <v>126822.45</v>
+        <v>127008.78999999998</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6617,7 +6617,7 @@
         <v>567</v>
       </c>
       <c r="C338">
-        <v>124333.99999999999</v>
+        <v>126468.47</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6628,7 +6628,7 @@
         <v>529</v>
       </c>
       <c r="C339">
-        <v>122549.34000000001</v>
+        <v>123523.23000000001</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6639,7 +6639,7 @@
         <v>570</v>
       </c>
       <c r="C340">
-        <v>122314.29999999999</v>
+        <v>123461.60999999999</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6647,21 +6647,21 @@
         <v>571</v>
       </c>
       <c r="B341" t="s">
-        <v>70</v>
+        <v>572</v>
       </c>
       <c r="C341">
-        <v>120269.01</v>
+        <v>122372.20999999999</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B342" t="s">
-        <v>573</v>
+        <v>70</v>
       </c>
       <c r="C342">
-        <v>120122.41999999998</v>
+        <v>120321.13999999998</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6672,7 +6672,7 @@
         <v>26</v>
       </c>
       <c r="C343">
-        <v>119209.70000000001</v>
+        <v>119262.6</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6683,7 +6683,7 @@
         <v>576</v>
       </c>
       <c r="C344">
-        <v>118175.3</v>
+        <v>118227.36</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6694,7 +6694,7 @@
         <v>540</v>
       </c>
       <c r="C345">
-        <v>117935.59999999999</v>
+        <v>118095.12000000001</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6705,7 +6705,7 @@
         <v>579</v>
       </c>
       <c r="C346">
-        <v>117583.97</v>
+        <v>117888.13999999998</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6716,7 +6716,7 @@
         <v>258</v>
       </c>
       <c r="C347">
-        <v>117549.04</v>
+        <v>117604.61000000002</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6724,10 +6724,10 @@
         <v>581</v>
       </c>
       <c r="B348" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C348">
-        <v>115565.51000000001</v>
+        <v>115613.93000000001</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6738,7 +6738,7 @@
         <v>583</v>
       </c>
       <c r="C349">
-        <v>115365.38</v>
+        <v>115359.34</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6749,7 +6749,7 @@
         <v>585</v>
       </c>
       <c r="C350">
-        <v>113345.46</v>
+        <v>113393.48</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6760,7 +6760,7 @@
         <v>587</v>
       </c>
       <c r="C351">
-        <v>113298.74</v>
+        <v>113347.43</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6771,7 +6771,7 @@
         <v>59</v>
       </c>
       <c r="C352">
-        <v>113146.29</v>
+        <v>113212.43</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6782,7 +6782,7 @@
         <v>590</v>
       </c>
       <c r="C353">
-        <v>111631.46</v>
+        <v>112536.17</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6793,7 +6793,7 @@
         <v>361</v>
       </c>
       <c r="C354">
-        <v>109848.70000000001</v>
+        <v>110122.21</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6801,10 +6801,10 @@
         <v>592</v>
       </c>
       <c r="B355" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C355">
-        <v>109632.02999999998</v>
+        <v>109907.53</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6812,21 +6812,21 @@
         <v>593</v>
       </c>
       <c r="B356" t="s">
-        <v>594</v>
+        <v>99</v>
       </c>
       <c r="C356">
-        <v>106336.78</v>
+        <v>106483.23000000001</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
+        <v>594</v>
+      </c>
+      <c r="B357" t="s">
         <v>595</v>
       </c>
-      <c r="B357" t="s">
-        <v>99</v>
-      </c>
       <c r="C357">
-        <v>106215.92999999998</v>
+        <v>106382.33</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6837,7 +6837,7 @@
         <v>255</v>
       </c>
       <c r="C358">
-        <v>105970.4</v>
+        <v>106015.51</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6848,7 +6848,7 @@
         <v>107</v>
       </c>
       <c r="C359">
-        <v>104217.5</v>
+        <v>104262.13999999998</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6856,10 +6856,10 @@
         <v>598</v>
       </c>
       <c r="B360" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C360">
-        <v>103452.46</v>
+        <v>103647.14</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6867,10 +6867,10 @@
         <v>599</v>
       </c>
       <c r="B361" t="s">
-        <v>425</v>
+        <v>311</v>
       </c>
       <c r="C361">
-        <v>102974.29999999999</v>
+        <v>103051</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6878,10 +6878,10 @@
         <v>600</v>
       </c>
       <c r="B362" t="s">
-        <v>313</v>
+        <v>426</v>
       </c>
       <c r="C362">
-        <v>102942.65999999999</v>
+        <v>103021</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6892,7 +6892,7 @@
         <v>533</v>
       </c>
       <c r="C363">
-        <v>102224.32000000002</v>
+        <v>102249.16</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6903,7 +6903,7 @@
         <v>459</v>
       </c>
       <c r="C364">
-        <v>101606.33</v>
+        <v>101861.45999999999</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6914,7 +6914,7 @@
         <v>80</v>
       </c>
       <c r="C365">
-        <v>101490.99999999999</v>
+        <v>101643.09000000001</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6925,7 +6925,7 @@
         <v>72</v>
       </c>
       <c r="C366">
-        <v>101214.95000000001</v>
+        <v>101269.62</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6933,10 +6933,10 @@
         <v>605</v>
       </c>
       <c r="B367" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C367">
-        <v>100922.74999999999</v>
+        <v>100965.48000000001</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6944,10 +6944,10 @@
         <v>606</v>
       </c>
       <c r="B368" t="s">
-        <v>573</v>
+        <v>86</v>
       </c>
       <c r="C368">
-        <v>100872.2</v>
+        <v>100867.28</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6955,21 +6955,21 @@
         <v>607</v>
       </c>
       <c r="B369" t="s">
-        <v>86</v>
+        <v>608</v>
       </c>
       <c r="C369">
-        <v>100818.80999999998</v>
+        <v>100691.7</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B370" t="s">
-        <v>609</v>
+        <v>342</v>
       </c>
       <c r="C370">
-        <v>100662.7</v>
+        <v>100380.54</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6988,10 +6988,10 @@
         <v>612</v>
       </c>
       <c r="B372" t="s">
-        <v>342</v>
+        <v>262</v>
       </c>
       <c r="C372">
-        <v>99546.96</v>
+        <v>98207.06</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6999,32 +6999,32 @@
         <v>613</v>
       </c>
       <c r="B373" t="s">
-        <v>264</v>
+        <v>614</v>
       </c>
       <c r="C373">
-        <v>97975.039999999994</v>
+        <v>97883.079999999987</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B374" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C374">
-        <v>97827.099999999991</v>
+        <v>97346.210000000021</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B375" t="s">
-        <v>617</v>
+        <v>567</v>
       </c>
       <c r="C375">
-        <v>97208.19</v>
+        <v>94800.59</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -7035,7 +7035,7 @@
         <v>619</v>
       </c>
       <c r="C376">
-        <v>94346.18</v>
+        <v>94388.76999999999</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -7046,7 +7046,7 @@
         <v>621</v>
       </c>
       <c r="C377">
-        <v>94318.7</v>
+        <v>94358.62</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -7057,7 +7057,7 @@
         <v>57</v>
       </c>
       <c r="C378">
-        <v>93650.26999999999</v>
+        <v>93772.84</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -7065,10 +7065,10 @@
         <v>623</v>
       </c>
       <c r="B379" t="s">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="C379">
-        <v>93622.99</v>
+        <v>93772.43</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -7076,10 +7076,10 @@
         <v>624</v>
       </c>
       <c r="B380" t="s">
-        <v>101</v>
+        <v>334</v>
       </c>
       <c r="C380">
-        <v>93581.83</v>
+        <v>93745.340000000026</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -7090,7 +7090,7 @@
         <v>47</v>
       </c>
       <c r="C381">
-        <v>93577.520000000019</v>
+        <v>93699.94</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -7101,7 +7101,7 @@
         <v>627</v>
       </c>
       <c r="C382">
-        <v>91640.790000000008</v>
+        <v>91667.380000000019</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -7112,7 +7112,7 @@
         <v>629</v>
       </c>
       <c r="C383">
-        <v>91466.22</v>
+        <v>91497.31</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -7123,7 +7123,7 @@
         <v>631</v>
       </c>
       <c r="C384">
-        <v>90273.200000000012</v>
+        <v>90324.1</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -7134,7 +7134,7 @@
         <v>486</v>
       </c>
       <c r="C385">
-        <v>88744.349999999991</v>
+        <v>88781.829999999987</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7145,7 +7145,7 @@
         <v>251</v>
       </c>
       <c r="C386">
-        <v>86659.6</v>
+        <v>87305.79</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7156,7 +7156,7 @@
         <v>57</v>
       </c>
       <c r="C387">
-        <v>86591.65</v>
+        <v>86707.200000000012</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7164,10 +7164,10 @@
         <v>635</v>
       </c>
       <c r="B388" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C388">
-        <v>85325.170000000013</v>
+        <v>86002.19</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7178,7 +7178,7 @@
         <v>637</v>
       </c>
       <c r="C389">
-        <v>83943.35</v>
+        <v>83981.73000000001</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7186,10 +7186,10 @@
         <v>638</v>
       </c>
       <c r="B390" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C390">
-        <v>82466.969999999987</v>
+        <v>82504.420000000013</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -7200,7 +7200,7 @@
         <v>640</v>
       </c>
       <c r="C391">
-        <v>81733.08</v>
+        <v>82384.720000000016</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7208,21 +7208,21 @@
         <v>641</v>
       </c>
       <c r="B392" t="s">
-        <v>642</v>
+        <v>111</v>
       </c>
       <c r="C392">
-        <v>80228.400000000009</v>
+        <v>80208.38</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
+        <v>642</v>
+      </c>
+      <c r="B393" t="s">
         <v>643</v>
       </c>
-      <c r="B393" t="s">
-        <v>111</v>
-      </c>
       <c r="C393">
-        <v>80198.89</v>
+        <v>79861.179999999993</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -7233,7 +7233,7 @@
         <v>645</v>
       </c>
       <c r="C394">
-        <v>79583.899999999994</v>
+        <v>78397.449999999983</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7241,65 +7241,65 @@
         <v>646</v>
       </c>
       <c r="B395" t="s">
-        <v>647</v>
+        <v>125</v>
       </c>
       <c r="C395">
-        <v>78365.83</v>
+        <v>77381.179999999993</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B396" t="s">
-        <v>123</v>
+        <v>501</v>
       </c>
       <c r="C396">
-        <v>77314.700000000012</v>
+        <v>75960.39</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B397" t="s">
-        <v>501</v>
+        <v>202</v>
       </c>
       <c r="C397">
-        <v>75769.210000000006</v>
+        <v>75607.76999999999</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B398" t="s">
-        <v>202</v>
+        <v>435</v>
       </c>
       <c r="C398">
-        <v>75566.629999999976</v>
+        <v>75545.60000000002</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B399" t="s">
         <v>86</v>
       </c>
       <c r="C399">
-        <v>75393.67</v>
+        <v>75439.550000000017</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
+        <v>651</v>
+      </c>
+      <c r="B400" t="s">
         <v>652</v>
       </c>
-      <c r="B400" t="s">
-        <v>434</v>
-      </c>
       <c r="C400">
-        <v>74959.09</v>
+        <v>73673.709999999992</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7307,32 +7307,32 @@
         <v>653</v>
       </c>
       <c r="B401" t="s">
-        <v>654</v>
+        <v>111</v>
       </c>
       <c r="C401">
-        <v>73643.09</v>
+        <v>73391.8</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B402" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="C402">
-        <v>73372.960000000006</v>
+        <v>72794.91</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
+        <v>655</v>
+      </c>
+      <c r="B403" t="s">
         <v>656</v>
       </c>
-      <c r="B403" t="s">
-        <v>18</v>
-      </c>
       <c r="C403">
-        <v>72764.86</v>
+        <v>69944.449999999983</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7343,7 +7343,7 @@
         <v>658</v>
       </c>
       <c r="C404">
-        <v>69786.880000000019</v>
+        <v>68052.010000000009</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7351,32 +7351,32 @@
         <v>659</v>
       </c>
       <c r="B405" t="s">
-        <v>660</v>
+        <v>268</v>
       </c>
       <c r="C405">
-        <v>68020.17</v>
+        <v>67985.03</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B406" t="s">
         <v>342</v>
       </c>
       <c r="C406">
-        <v>67908.34</v>
+        <v>67931.920000000013</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
+        <v>661</v>
+      </c>
+      <c r="B407" t="s">
         <v>662</v>
       </c>
-      <c r="B407" t="s">
-        <v>270</v>
-      </c>
       <c r="C407">
-        <v>67897.33</v>
+        <v>67871.099999999991</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7384,43 +7384,43 @@
         <v>663</v>
       </c>
       <c r="B408" t="s">
-        <v>664</v>
+        <v>294</v>
       </c>
       <c r="C408">
-        <v>67761.009999999995</v>
+        <v>67066.98</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B409" t="s">
-        <v>293</v>
+        <v>111</v>
       </c>
       <c r="C409">
-        <v>67034.28</v>
+        <v>65514.78</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B410" t="s">
-        <v>111</v>
+        <v>439</v>
       </c>
       <c r="C410">
-        <v>65491.45</v>
+        <v>65256.21</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
+        <v>666</v>
+      </c>
+      <c r="B411" t="s">
         <v>667</v>
       </c>
-      <c r="B411" t="s">
-        <v>438</v>
-      </c>
       <c r="C411">
-        <v>65126.080000000002</v>
+        <v>64817.49</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7431,7 +7431,7 @@
         <v>669</v>
       </c>
       <c r="C412">
-        <v>64791.66</v>
+        <v>64541.369999999995</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7442,7 +7442,7 @@
         <v>671</v>
       </c>
       <c r="C413">
-        <v>64514.490000000005</v>
+        <v>62783.009999999995</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7453,7 +7453,7 @@
         <v>673</v>
       </c>
       <c r="C414">
-        <v>62728.02</v>
+        <v>62525.32</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7461,21 +7461,21 @@
         <v>674</v>
       </c>
       <c r="B415" t="s">
-        <v>675</v>
+        <v>298</v>
       </c>
       <c r="C415">
-        <v>62497.079999999994</v>
+        <v>62461.91</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" t="s">
+        <v>675</v>
+      </c>
+      <c r="B416" t="s">
         <v>676</v>
       </c>
-      <c r="B416" t="s">
-        <v>298</v>
-      </c>
       <c r="C416">
-        <v>62435.06</v>
+        <v>60242.900000000009</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7486,7 +7486,7 @@
         <v>678</v>
       </c>
       <c r="C417">
-        <v>60217.18</v>
+        <v>59936.220000000008</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7494,43 +7494,43 @@
         <v>679</v>
       </c>
       <c r="B418" t="s">
-        <v>680</v>
+        <v>136</v>
       </c>
       <c r="C418">
-        <v>59907.340000000004</v>
+        <v>58907.64</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B419" t="s">
-        <v>136</v>
+        <v>431</v>
       </c>
       <c r="C419">
-        <v>58774.479999999996</v>
+        <v>57183.41</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B420" t="s">
-        <v>430</v>
+        <v>57</v>
       </c>
       <c r="C420">
-        <v>57161.59</v>
+        <v>56782.749999999993</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
+        <v>682</v>
+      </c>
+      <c r="B421" t="s">
         <v>683</v>
       </c>
-      <c r="B421" t="s">
-        <v>57</v>
-      </c>
       <c r="C421">
-        <v>56653.159999999996</v>
+        <v>56546.12</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7538,65 +7538,65 @@
         <v>684</v>
       </c>
       <c r="B422" t="s">
-        <v>685</v>
+        <v>26</v>
       </c>
       <c r="C422">
-        <v>56525.22</v>
+        <v>56194.640000000007</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B423" t="s">
-        <v>26</v>
+        <v>627</v>
       </c>
       <c r="C423">
-        <v>56148.67</v>
+        <v>55976.429999999993</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B424" t="s">
-        <v>627</v>
+        <v>113</v>
       </c>
       <c r="C424">
-        <v>55952.340000000004</v>
+        <v>55901.46</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B425" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C425">
-        <v>55798.43</v>
+        <v>55805.729999999996</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" t="s">
+        <v>688</v>
+      </c>
+      <c r="B426" t="s">
         <v>689</v>
       </c>
-      <c r="B426" t="s">
-        <v>690</v>
-      </c>
       <c r="C426">
-        <v>55687.66</v>
+        <v>55728.15</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="s">
+        <v>690</v>
+      </c>
+      <c r="B427" t="s">
         <v>691</v>
       </c>
-      <c r="B427" t="s">
-        <v>113</v>
-      </c>
       <c r="C427">
-        <v>55461.340000000004</v>
+        <v>54496.600000000006</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7604,120 +7604,120 @@
         <v>692</v>
       </c>
       <c r="B428" t="s">
-        <v>693</v>
+        <v>158</v>
       </c>
       <c r="C428">
-        <v>54473.21</v>
+        <v>53624.19000000001</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B429" t="s">
-        <v>158</v>
+        <v>340</v>
       </c>
       <c r="C429">
-        <v>53601.51</v>
+        <v>52453.520000000004</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B430" t="s">
-        <v>340</v>
+        <v>51</v>
       </c>
       <c r="C430">
-        <v>52040.42</v>
+        <v>50130.69</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B431" t="s">
-        <v>51</v>
+        <v>570</v>
       </c>
       <c r="C431">
-        <v>49734.350000000006</v>
+        <v>50047.74</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B432" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="C432">
-        <v>49651.479999999996</v>
+        <v>49730.229999999996</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B433" t="s">
-        <v>550</v>
+        <v>276</v>
       </c>
       <c r="C433">
-        <v>49337.7</v>
+        <v>49630.68</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B434" t="s">
-        <v>278</v>
+        <v>533</v>
       </c>
       <c r="C434">
-        <v>48782.670000000006</v>
+        <v>47992.069999999992</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B435" t="s">
-        <v>533</v>
+        <v>247</v>
       </c>
       <c r="C435">
-        <v>47879.06</v>
+        <v>47958.850000000006</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B436" t="s">
-        <v>247</v>
+        <v>426</v>
       </c>
       <c r="C436">
-        <v>47787.100000000006</v>
+        <v>47540.57</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B437" t="s">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="C437">
-        <v>47140.21</v>
+        <v>47254</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
+        <v>702</v>
+      </c>
+      <c r="B438" t="s">
         <v>703</v>
       </c>
-      <c r="B438" t="s">
-        <v>351</v>
-      </c>
       <c r="C438">
-        <v>46886.39</v>
+        <v>45916.740000000005</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7725,32 +7725,32 @@
         <v>704</v>
       </c>
       <c r="B439" t="s">
-        <v>705</v>
+        <v>12</v>
       </c>
       <c r="C439">
-        <v>45911.320000000007</v>
+        <v>45023.140000000007</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B440" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C440">
-        <v>45004.24</v>
+        <v>42344.03</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
+        <v>706</v>
+      </c>
+      <c r="B441" t="s">
         <v>707</v>
       </c>
-      <c r="B441" t="s">
-        <v>80</v>
-      </c>
       <c r="C441">
-        <v>42238.7</v>
+        <v>42245</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7761,7 +7761,7 @@
         <v>709</v>
       </c>
       <c r="C442">
-        <v>42228.090000000004</v>
+        <v>41381.300000000003</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7769,32 +7769,32 @@
         <v>710</v>
       </c>
       <c r="B443" t="s">
-        <v>711</v>
+        <v>59</v>
       </c>
       <c r="C443">
-        <v>41283.600000000013</v>
+        <v>40722.089999999997</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B444" t="s">
-        <v>59</v>
+        <v>413</v>
       </c>
       <c r="C444">
-        <v>40704.469999999994</v>
+        <v>40200.499999999993</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
+        <v>712</v>
+      </c>
+      <c r="B445" t="s">
         <v>713</v>
       </c>
-      <c r="B445" t="s">
-        <v>409</v>
-      </c>
       <c r="C445">
-        <v>40105.11</v>
+        <v>36609.82</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7802,54 +7802,54 @@
         <v>714</v>
       </c>
       <c r="B446" t="s">
-        <v>715</v>
+        <v>47</v>
       </c>
       <c r="C446">
-        <v>36593.679999999993</v>
+        <v>36210.379999999997</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B447" t="s">
-        <v>47</v>
+        <v>439</v>
       </c>
       <c r="C447">
-        <v>35960.660000000003</v>
+        <v>35909.82</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B448" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="C448">
-        <v>35895.360000000001</v>
+        <v>35739.65</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B449" t="s">
-        <v>403</v>
+        <v>134</v>
       </c>
       <c r="C449">
-        <v>35562.71</v>
+        <v>35278.79</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" t="s">
+        <v>718</v>
+      </c>
+      <c r="B450" t="s">
         <v>719</v>
       </c>
-      <c r="B450" t="s">
-        <v>134</v>
-      </c>
       <c r="C450">
-        <v>35263.040000000001</v>
+        <v>35171.25</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7857,21 +7857,21 @@
         <v>720</v>
       </c>
       <c r="B451" t="s">
-        <v>721</v>
+        <v>47</v>
       </c>
       <c r="C451">
-        <v>35154.659999999996</v>
+        <v>34860.93</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
+        <v>721</v>
+      </c>
+      <c r="B452" t="s">
         <v>722</v>
       </c>
-      <c r="B452" t="s">
-        <v>47</v>
-      </c>
       <c r="C452">
-        <v>34858.42</v>
+        <v>34720.78</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7882,7 +7882,7 @@
         <v>724</v>
       </c>
       <c r="C453">
-        <v>34704.770000000004</v>
+        <v>34393.199999999997</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7890,21 +7890,21 @@
         <v>725</v>
       </c>
       <c r="B454" t="s">
-        <v>726</v>
+        <v>671</v>
       </c>
       <c r="C454">
-        <v>34377.049999999996</v>
+        <v>33456.85</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
+        <v>726</v>
+      </c>
+      <c r="B455" t="s">
         <v>727</v>
       </c>
-      <c r="B455" t="s">
-        <v>673</v>
-      </c>
       <c r="C455">
-        <v>33442.65</v>
+        <v>33041.53</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7915,7 +7915,7 @@
         <v>729</v>
       </c>
       <c r="C456">
-        <v>33027.56</v>
+        <v>32593.29</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7923,21 +7923,21 @@
         <v>730</v>
       </c>
       <c r="B457" t="s">
-        <v>731</v>
+        <v>39</v>
       </c>
       <c r="C457">
-        <v>32580.45</v>
+        <v>31838.65</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" t="s">
+        <v>731</v>
+      </c>
+      <c r="B458" t="s">
         <v>732</v>
       </c>
-      <c r="B458" t="s">
-        <v>39</v>
-      </c>
       <c r="C458">
-        <v>31825.78</v>
+        <v>31437.980000000003</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7945,21 +7945,21 @@
         <v>733</v>
       </c>
       <c r="B459" t="s">
-        <v>734</v>
+        <v>501</v>
       </c>
       <c r="C459">
-        <v>31425.25</v>
+        <v>30920.979999999996</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
+        <v>734</v>
+      </c>
+      <c r="B460" t="s">
         <v>735</v>
       </c>
-      <c r="B460" t="s">
-        <v>501</v>
-      </c>
       <c r="C460">
-        <v>30906.5</v>
+        <v>29590.449999999997</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7970,7 +7970,7 @@
         <v>737</v>
       </c>
       <c r="C461">
-        <v>28426.33</v>
+        <v>28485.74</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7981,7 +7981,7 @@
         <v>739</v>
       </c>
       <c r="C462">
-        <v>26521.35</v>
+        <v>26532.21</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7992,7 +7992,7 @@
         <v>298</v>
       </c>
       <c r="C463">
-        <v>26242.16</v>
+        <v>26248.74</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -8003,7 +8003,7 @@
         <v>407</v>
       </c>
       <c r="C464">
-        <v>24289.67</v>
+        <v>24300.74</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -8014,7 +8014,7 @@
         <v>743</v>
       </c>
       <c r="C465">
-        <v>23784.25</v>
+        <v>23803.46</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -8025,7 +8025,7 @@
         <v>111</v>
       </c>
       <c r="C466">
-        <v>23157.84</v>
+        <v>23167.32</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -8036,7 +8036,7 @@
         <v>220</v>
       </c>
       <c r="C467">
-        <v>20764.390000000003</v>
+        <v>20773.210000000003</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -8047,7 +8047,7 @@
         <v>86</v>
       </c>
       <c r="C468">
-        <v>20339.289999999997</v>
+        <v>20347.400000000001</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -8058,7 +8058,7 @@
         <v>202</v>
       </c>
       <c r="C469">
-        <v>16291.62</v>
+        <v>16295.98</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -8066,10 +8066,10 @@
         <v>748</v>
       </c>
       <c r="B470" t="s">
-        <v>136</v>
+        <v>334</v>
       </c>
       <c r="C470">
-        <v>16098.46</v>
+        <v>16138</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -8077,10 +8077,10 @@
         <v>749</v>
       </c>
       <c r="B471" t="s">
-        <v>336</v>
+        <v>136</v>
       </c>
       <c r="C471">
-        <v>16045.760000000002</v>
+        <v>16105.019999999999</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -8091,7 +8091,7 @@
         <v>401</v>
       </c>
       <c r="C472">
-        <v>14517.23</v>
+        <v>14522.54</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8102,7 +8102,7 @@
         <v>752</v>
       </c>
       <c r="C473">
-        <v>14172.5</v>
+        <v>14178.559999999998</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8113,7 +8113,7 @@
         <v>754</v>
       </c>
       <c r="C474">
-        <v>14010.210000000001</v>
+        <v>14016.160000000002</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8124,7 +8124,7 @@
         <v>756</v>
       </c>
       <c r="C475">
-        <v>13521.789999999999</v>
+        <v>13527.48</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -8135,7 +8135,7 @@
         <v>6</v>
       </c>
       <c r="C476">
-        <v>13209.36</v>
+        <v>13123.04</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8143,10 +8143,10 @@
         <v>758</v>
       </c>
       <c r="B477" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C477">
-        <v>12843.9</v>
+        <v>12849.119999999999</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8157,7 +8157,7 @@
         <v>760</v>
       </c>
       <c r="C478">
-        <v>11353.42</v>
+        <v>11358.189999999999</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8168,7 +8168,7 @@
         <v>41</v>
       </c>
       <c r="C479">
-        <v>11089.75</v>
+        <v>11094.39</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -8179,7 +8179,7 @@
         <v>763</v>
       </c>
       <c r="C480">
-        <v>10559.88</v>
+        <v>10564.56</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -8190,7 +8190,7 @@
         <v>765</v>
       </c>
       <c r="C481">
-        <v>10295.719999999999</v>
+        <v>10298.49</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -8198,10 +8198,10 @@
         <v>766</v>
       </c>
       <c r="B482" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C482">
-        <v>10179.219999999999</v>
+        <v>10180.42</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -8212,7 +8212,7 @@
         <v>8</v>
       </c>
       <c r="C483">
-        <v>10037.959999999999</v>
+        <v>10042.209999999999</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -8223,7 +8223,7 @@
         <v>298</v>
       </c>
       <c r="C484">
-        <v>8924.6999999999989</v>
+        <v>8929.4600000000009</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -8234,7 +8234,7 @@
         <v>770</v>
       </c>
       <c r="C485">
-        <v>7184.95</v>
+        <v>7187.53</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -8245,7 +8245,7 @@
         <v>772</v>
       </c>
       <c r="C486">
-        <v>6763.33</v>
+        <v>6766.07</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -8256,7 +8256,7 @@
         <v>774</v>
       </c>
       <c r="C487">
-        <v>5671.78</v>
+        <v>5673.1500000000005</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -8286,7 +8286,7 @@
         <v>778</v>
       </c>
       <c r="B490" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C490">
         <v>2463.83</v>
@@ -8300,7 +8300,7 @@
         <v>780</v>
       </c>
       <c r="C491">
-        <v>2300.9299999999998</v>
+        <v>2301.1999999999998</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -8322,7 +8322,7 @@
         <v>783</v>
       </c>
       <c r="C493">
-        <v>1526.37</v>
+        <v>1527.01</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -8333,7 +8333,7 @@
         <v>33</v>
       </c>
       <c r="C494">
-        <v>1439.85</v>
+        <v>1440.4099999999999</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -8344,7 +8344,7 @@
         <v>763</v>
       </c>
       <c r="C495">
-        <v>1303.3699999999999</v>
+        <v>1303.9000000000001</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -8355,7 +8355,7 @@
         <v>787</v>
       </c>
       <c r="C496">
-        <v>1109.48</v>
+        <v>1109.96</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -8366,7 +8366,7 @@
         <v>390</v>
       </c>
       <c r="C497">
-        <v>1094.78</v>
+        <v>1095.25</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -8377,7 +8377,7 @@
         <v>590</v>
       </c>
       <c r="C498">
-        <v>998.33</v>
+        <v>999.11</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -8388,7 +8388,7 @@
         <v>590</v>
       </c>
       <c r="C499">
-        <v>749.57</v>
+        <v>749.83</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -8418,10 +8418,10 @@
         <v>794</v>
       </c>
       <c r="B502" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C502">
-        <v>501.96000000000004</v>
+        <v>501.69</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -8443,7 +8443,7 @@
         <v>82</v>
       </c>
       <c r="C504">
-        <v>280.77999999999997</v>
+        <v>280.89999999999998</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -8465,7 +8465,7 @@
         <v>207</v>
       </c>
       <c r="C506">
-        <v>150.26999999999998</v>
+        <v>150.31</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -8476,7 +8476,7 @@
         <v>207</v>
       </c>
       <c r="C507">
-        <v>150.26999999999998</v>
+        <v>150.31</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8498,7 +8498,7 @@
         <v>41</v>
       </c>
       <c r="C509">
-        <v>100.68</v>
+        <v>100.72</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8506,7 +8506,7 @@
         <v>803</v>
       </c>
       <c r="B510" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C510">
         <v>86.38</v>
@@ -8528,7 +8528,7 @@
         <v>806</v>
       </c>
       <c r="B512" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C512">
         <v>50.26</v>
@@ -8550,10 +8550,10 @@
         <v>808</v>
       </c>
       <c r="B514" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C514">
-        <v>35.26</v>
+        <v>35.260000000000005</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -8561,7 +8561,7 @@
         <v>809</v>
       </c>
       <c r="B515" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C515">
         <v>33.049999999999997</v>
@@ -8575,7 +8575,7 @@
         <v>811</v>
       </c>
       <c r="C516">
-        <v>29.770000000000003</v>
+        <v>29.77</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -8594,7 +8594,7 @@
         <v>814</v>
       </c>
       <c r="B518" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C518">
         <v>19.079999999999998</v>
@@ -8605,7 +8605,7 @@
         <v>815</v>
       </c>
       <c r="B519" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C519">
         <v>18.32</v>
@@ -8649,7 +8649,7 @@
         <v>822</v>
       </c>
       <c r="B523" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C523">
         <v>5.55</v>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R7264402e573241d9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Ra748303cae2341a3"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -81,7 +81,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>16436634.960000006</x:v>
+        <x:v>16436634.96</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -96,7 +96,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>8264534.2300000051</x:v>
+        <x:v>8264534.2300000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -111,7 +111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>7325843.7500000009</x:v>
+        <x:v>7325843.7500000019</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -141,7 +141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>5854638.6499999985</x:v>
+        <x:v>5854638.6500000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -156,7 +156,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4587734.4</x:v>
+        <x:v>4587734.3999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -201,7 +201,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4250776.13</x:v>
+        <x:v>4250776.129999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -246,7 +246,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3772341.5299999989</x:v>
+        <x:v>3772341.5299999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -261,7 +261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3760380.9199999995</x:v>
+        <x:v>3760380.9200000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -291,7 +291,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3410890.7100000009</x:v>
+        <x:v>3410890.71</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -306,7 +306,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3319181.6799999997</x:v>
+        <x:v>3319181.6800000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -336,7 +336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3112067.99</x:v>
+        <x:v>3112067.9899999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -351,7 +351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3049921.47</x:v>
+        <x:v>3049921.4700000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -366,7 +366,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2971602.0299999993</x:v>
+        <x:v>2971602.03</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -396,7 +396,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2810113.25</x:v>
+        <x:v>2810113.2500000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -411,7 +411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2558886.0500000003</x:v>
+        <x:v>2558886.05</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -471,7 +471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2221361.0900000003</x:v>
+        <x:v>2221361.09</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -501,7 +501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2099547.8399999994</x:v>
+        <x:v>2099547.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -516,7 +516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2063003.0899999996</x:v>
+        <x:v>2063003.09</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -531,7 +531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1982876.4800000002</x:v>
+        <x:v>1982876.48</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -546,7 +546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1967088.5200000007</x:v>
+        <x:v>1967088.5199999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -561,7 +561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1870644.2400000005</x:v>
+        <x:v>1870644.2400000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -576,7 +576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1853359.2699999996</x:v>
+        <x:v>1853359.2699999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -591,7 +591,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1829935.2399999998</x:v>
+        <x:v>1829935.2400000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -606,7 +606,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1806075.7299999997</x:v>
+        <x:v>1806075.73</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -621,7 +621,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1782886.8900000001</x:v>
+        <x:v>1782886.8900000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -696,7 +696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1551124.09</x:v>
+        <x:v>1551124.0899999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -726,7 +726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1507546.8</x:v>
+        <x:v>1507546.7999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -756,7 +756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1408383.2099999997</x:v>
+        <x:v>1408383.21</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -786,7 +786,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1370713.1300000001</x:v>
+        <x:v>1370713.13</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -801,7 +801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1363706.7799999998</x:v>
+        <x:v>1363706.78</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -876,7 +876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1273090.24</x:v>
+        <x:v>1273090.2400000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -906,7 +906,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1240891.7800000003</x:v>
+        <x:v>1240891.7799999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -936,7 +936,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1229868.51</x:v>
+        <x:v>1229868.5100000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -951,7 +951,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1225115.9799999997</x:v>
+        <x:v>1225115.9800000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -966,7 +966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1187836.5200000003</x:v>
+        <x:v>1187836.52</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -981,7 +981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1167222.7800000003</x:v>
+        <x:v>1167222.78</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1011,7 +1011,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1140664.2300000004</x:v>
+        <x:v>1140664.2300000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1026,7 +1026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1107492.0600000003</x:v>
+        <x:v>1107492.06</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1041,7 +1041,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1079009.0299999998</x:v>
+        <x:v>1079009.0300000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1071,7 +1071,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1064053.84</x:v>
+        <x:v>1064053.8400000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1116,7 +1116,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1045887.6</x:v>
+        <x:v>1045887.6000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1161,7 +1161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>983962.2899999998</x:v>
+        <x:v>983962.28999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1191,7 +1191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>974059.1100000001</x:v>
+        <x:v>974059.10999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1206,7 +1206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>969543.8600000001</x:v>
+        <x:v>969543.85999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1251,7 +1251,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>940936.14999999991</x:v>
+        <x:v>940936.15000000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1266,7 +1266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>935683.64999999991</x:v>
+        <x:v>935683.65</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1326,7 +1326,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>886903.12000000011</x:v>
+        <x:v>886903.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1356,7 +1356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>879899.20999999985</x:v>
+        <x:v>879899.21</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1371,7 +1371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>870030.98</x:v>
+        <x:v>870030.9800000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1401,7 +1401,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>858780.81</x:v>
+        <x:v>858780.80999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1416,7 +1416,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>858048.03000000014</x:v>
+        <x:v>858048.03</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1446,7 +1446,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>824828.04000000015</x:v>
+        <x:v>824828.04</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1476,7 +1476,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>815342.64</x:v>
+        <x:v>815342.6399999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1491,7 +1491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>808883.25999999989</x:v>
+        <x:v>808883.25999999978</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1521,7 +1521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>802851.81</x:v>
+        <x:v>802851.80999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1536,7 +1536,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>792042.17999999993</x:v>
+        <x:v>792042.18</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1581,7 +1581,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>779173.63</x:v>
+        <x:v>779173.62999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1596,7 +1596,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>768432.46</x:v>
+        <x:v>768432.46000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1611,7 +1611,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>755156.9099999998</x:v>
+        <x:v>755156.90999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1626,7 +1626,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>742133.75</x:v>
+        <x:v>742133.75000000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1641,7 +1641,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>725996.27999999991</x:v>
+        <x:v>725996.28000000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1656,7 +1656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>720793.05999999994</x:v>
+        <x:v>720793.06</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1671,7 +1671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>709183.65</x:v>
+        <x:v>709183.64999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1686,7 +1686,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>692998.4800000001</x:v>
+        <x:v>692998.47999999975</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1701,7 +1701,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>689584.1100000001</x:v>
+        <x:v>689584.11</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1746,7 +1746,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>670790.39000000025</x:v>
+        <x:v>670790.39000000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1761,7 +1761,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>666357.97000000009</x:v>
+        <x:v>666357.97</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1776,7 +1776,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>658134.62</x:v>
+        <x:v>658134.61999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1836,7 +1836,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>647475.45</x:v>
+        <x:v>647475.45000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1866,7 +1866,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>635604.59000000008</x:v>
+        <x:v>635604.59</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1881,7 +1881,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>627358.59999999986</x:v>
+        <x:v>627358.6</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1956,7 +1956,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>606844.25</x:v>
+        <x:v>606844.24999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1971,7 +1971,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>605809.3600000001</x:v>
+        <x:v>605809.36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1986,7 +1986,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>601559.26</x:v>
+        <x:v>601559.26000000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2031,7 +2031,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>593978.89999999991</x:v>
+        <x:v>593978.9</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2076,7 +2076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>580639.97000000009</x:v>
+        <x:v>580639.97</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2091,7 +2091,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>575386.34000000008</x:v>
+        <x:v>575386.34</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2136,7 +2136,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>564430.89999999991</x:v>
+        <x:v>564430.9</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2166,7 +2166,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>557541.60000000009</x:v>
+        <x:v>557541.6</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2196,7 +2196,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>551093.53000000014</x:v>
+        <x:v>551093.53</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2241,7 +2241,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>535384.93</x:v>
+        <x:v>535384.92999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2256,7 +2256,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>522211.64999999997</x:v>
+        <x:v>522211.65</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2271,7 +2271,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>512415.63000000006</x:v>
+        <x:v>512415.63</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2286,7 +2286,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>504202.51999999996</x:v>
+        <x:v>504202.52</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2301,7 +2301,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>490399.49999999994</x:v>
+        <x:v>490399.5</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2316,7 +2316,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>489581.24000000005</x:v>
+        <x:v>489581.24</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2346,7 +2346,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>468782.60999999993</x:v>
+        <x:v>468782.61000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2376,7 +2376,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>455968.44</x:v>
+        <x:v>455968.44000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2406,7 +2406,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>452317.9</x:v>
+        <x:v>452317.89999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2421,7 +2421,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>449509.66000000003</x:v>
+        <x:v>449509.66000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2451,7 +2451,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>434369.02999999997</x:v>
+        <x:v>434369.02999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2466,7 +2466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>431565.46000000008</x:v>
+        <x:v>431565.45999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2511,7 +2511,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>422887.43</x:v>
+        <x:v>422887.43000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2571,7 +2571,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>418227.46</x:v>
+        <x:v>418227.45999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2586,7 +2586,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>416724.42999999988</x:v>
+        <x:v>416724.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2601,7 +2601,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>415682.53999999992</x:v>
+        <x:v>415682.54000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2616,7 +2616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>409294.21</x:v>
+        <x:v>409294.20999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2631,7 +2631,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>408952.83</x:v>
+        <x:v>408952.82999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2646,7 +2646,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>402771.67000000004</x:v>
+        <x:v>402771.67</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2691,7 +2691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>387559.84</x:v>
+        <x:v>387559.84000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2736,7 +2736,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>372651.27</x:v>
+        <x:v>372651.26999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2766,7 +2766,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>369272.62</x:v>
+        <x:v>369272.62000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2781,7 +2781,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>368597.98000000004</x:v>
+        <x:v>368597.98</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2796,7 +2796,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>367879.23</x:v>
+        <x:v>367879.23000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2826,7 +2826,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>364954.64</x:v>
+        <x:v>364954.63999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2841,7 +2841,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>363983.75</x:v>
+        <x:v>363983.75000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2871,7 +2871,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>363438.74000000005</x:v>
+        <x:v>363438.74</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2886,7 +2886,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>361949.95999999996</x:v>
+        <x:v>361949.96</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2901,7 +2901,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>361483.19</x:v>
+        <x:v>361483.19000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2916,7 +2916,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>360628.24000000005</x:v>
+        <x:v>360628.23999999982</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2931,7 +2931,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>360045.42999999993</x:v>
+        <x:v>360045.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3006,7 +3006,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>352056.45000000007</x:v>
+        <x:v>352056.45</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3036,7 +3036,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>347335.18</x:v>
+        <x:v>347335.17999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3051,7 +3051,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>344761.76999999996</x:v>
+        <x:v>344761.77000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3081,7 +3081,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>342470.17</x:v>
+        <x:v>342470.17000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3141,7 +3141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>337628.77000000008</x:v>
+        <x:v>337628.77</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3156,7 +3156,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>331381.17000000004</x:v>
+        <x:v>331381.17</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3171,7 +3171,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>329663.99000000005</x:v>
+        <x:v>329663.99</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3231,7 +3231,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>316416.64999999997</x:v>
+        <x:v>316416.64999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3261,7 +3261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>311381.2</x:v>
+        <x:v>311381.19999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3306,7 +3306,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>310219.37999999995</x:v>
+        <x:v>310219.38</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3351,7 +3351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>303380.15</x:v>
+        <x:v>303380.14999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3366,7 +3366,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>295195.42000000004</x:v>
+        <x:v>295195.42</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3396,7 +3396,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>292290.07999999996</x:v>
+        <x:v>292290.08</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3411,7 +3411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>292003.27</x:v>
+        <x:v>292003.27000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3441,7 +3441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>285605.58999999997</x:v>
+        <x:v>285605.59</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3501,7 +3501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>278859.58000000007</x:v>
+        <x:v>278859.57999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3516,7 +3516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>275654.89</x:v>
+        <x:v>275654.88999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3576,7 +3576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>269236.75</x:v>
+        <x:v>269236.74999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3591,7 +3591,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>266881.78</x:v>
+        <x:v>266881.77999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3621,7 +3621,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>264421.39</x:v>
+        <x:v>264421.38999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3651,7 +3651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>262330.4</x:v>
+        <x:v>262330.39999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3666,7 +3666,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>262004.42000000004</x:v>
+        <x:v>262004.42</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3681,7 +3681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>260311.73</x:v>
+        <x:v>260311.72999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3726,7 +3726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>250421.63</x:v>
+        <x:v>250421.63000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3741,7 +3741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>250077.29</x:v>
+        <x:v>250077.29000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3771,7 +3771,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>247124.84999999998</x:v>
+        <x:v>247124.84999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3786,7 +3786,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>244702.67</x:v>
+        <x:v>244702.67000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3801,7 +3801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>244439.69999999995</x:v>
+        <x:v>244439.69999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3831,7 +3831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>243265.97000000006</x:v>
+        <x:v>243265.97</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3846,7 +3846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>242140.82</x:v>
+        <x:v>242140.82000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3861,7 +3861,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>241550.79999999996</x:v>
+        <x:v>241550.8</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3891,7 +3891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>237716.38</x:v>
+        <x:v>237716.38000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3936,7 +3936,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>232836.84999999995</x:v>
+        <x:v>232836.85</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3981,7 +3981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>226929.2</x:v>
+        <x:v>226929.19999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4041,7 +4041,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>217152.85000000003</x:v>
+        <x:v>217152.84999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4056,7 +4056,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>214012.64</x:v>
+        <x:v>214012.63999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4101,7 +4101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>205573.63999999998</x:v>
+        <x:v>205573.64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4116,7 +4116,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>204606.84000000005</x:v>
+        <x:v>204606.84000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4131,7 +4131,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>204469.55999999997</x:v>
+        <x:v>204469.56</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4146,7 +4146,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>203564.83</x:v>
+        <x:v>203564.83000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4161,7 +4161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>200639.99000000002</x:v>
+        <x:v>200639.99</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4176,7 +4176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>200372.20999999996</x:v>
+        <x:v>200372.21000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4191,7 +4191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>200280.74</x:v>
+        <x:v>200280.74000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4266,7 +4266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>192711.13</x:v>
+        <x:v>192711.13000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4281,7 +4281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>191791.75</x:v>
+        <x:v>191791.74999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4296,7 +4296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>191266.03999999998</x:v>
+        <x:v>191266.04</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4311,7 +4311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>187071.41000000003</x:v>
+        <x:v>187071.41</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4326,7 +4326,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>185325.50999999998</x:v>
+        <x:v>185325.51</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4341,7 +4341,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>184608.94000000003</x:v>
+        <x:v>184608.93999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4371,7 +4371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>183647.94999999995</x:v>
+        <x:v>183647.94999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4386,7 +4386,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>178550.39999999997</x:v>
+        <x:v>178550.4</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4401,7 +4401,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>177002.18999999997</x:v>
+        <x:v>177002.19</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4416,7 +4416,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>175570.20000000004</x:v>
+        <x:v>175570.19999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4476,7 +4476,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>168694.67</x:v>
+        <x:v>168694.66999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4506,7 +4506,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>166755.12</x:v>
+        <x:v>166755.11999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4521,7 +4521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>166038.69000000003</x:v>
+        <x:v>166038.69</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4566,7 +4566,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>161181.56</x:v>
+        <x:v>161181.55999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4581,7 +4581,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>160585.21999999997</x:v>
+        <x:v>160585.22</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4611,7 +4611,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158527.96000000002</x:v>
+        <x:v>158527.96</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4641,7 +4641,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>157911.11</x:v>
+        <x:v>157911.10999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4656,7 +4656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>157620.29</x:v>
+        <x:v>157620.28999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4671,7 +4671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>155479.14999999997</x:v>
+        <x:v>155479.15</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4716,7 +4716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>150282.96999999997</x:v>
+        <x:v>150282.97</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4746,7 +4746,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>148029.29000000004</x:v>
+        <x:v>148029.29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4761,7 +4761,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>147783.34</x:v>
+        <x:v>147783.34000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4776,7 +4776,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>147004.46000000002</x:v>
+        <x:v>147004.46</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4791,7 +4791,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>145230.42999999996</x:v>
+        <x:v>145230.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4836,7 +4836,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139662.47</x:v>
+        <x:v>139662.47000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4851,7 +4851,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139209.13000000003</x:v>
+        <x:v>139209.13</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4866,7 +4866,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>138804.25</x:v>
+        <x:v>138804.24999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4896,7 +4896,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>137980.86</x:v>
+        <x:v>137980.86000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4911,7 +4911,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>136967.44</x:v>
+        <x:v>136967.44000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5001,7 +5001,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>130259.10000000003</x:v>
+        <x:v>130259.10000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5016,7 +5016,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>129503.01</x:v>
+        <x:v>129503.00999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5031,7 +5031,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>128698.59000000001</x:v>
+        <x:v>128698.59000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5046,7 +5046,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>128380.4</x:v>
+        <x:v>128380.40000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5061,7 +5061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>127909.41</x:v>
+        <x:v>127909.40999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5076,7 +5076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>127171.34</x:v>
+        <x:v>127171.34000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5106,7 +5106,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>124131.74</x:v>
+        <x:v>124131.73999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5121,7 +5121,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>122698.70999999999</x:v>
+        <x:v>122698.71000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5166,7 +5166,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>120293.41</x:v>
+        <x:v>120293.40999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5181,7 +5181,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>119567.91</x:v>
+        <x:v>119567.91000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5196,7 +5196,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>118539.94</x:v>
+        <x:v>118539.94000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5211,7 +5211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>118311.17000000001</x:v>
+        <x:v>118311.17</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5256,7 +5256,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>116421.07</x:v>
+        <x:v>116421.06999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5286,7 +5286,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>113655.32</x:v>
+        <x:v>113655.31999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5301,7 +5301,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>113619.74999999999</x:v>
+        <x:v>113619.75</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5331,7 +5331,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>110111.08</x:v>
+        <x:v>110111.08000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5346,7 +5346,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>109813.22000000002</x:v>
+        <x:v>109813.22</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5451,7 +5451,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>103662.65999999999</x:v>
+        <x:v>103662.66</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5466,7 +5466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>103382.36000000002</x:v>
+        <x:v>103382.35999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5496,7 +5496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102174.00000000001</x:v>
+        <x:v>102173.99999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5511,7 +5511,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>101862.64</x:v>
+        <x:v>101862.64000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5556,7 +5556,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>101010.04</x:v>
+        <x:v>101010.04000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5616,7 +5616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>98141.299999999988</x:v>
+        <x:v>98141.300000000017</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5631,7 +5631,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>97355.84</x:v>
+        <x:v>97355.840000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5691,7 +5691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>93921.25</x:v>
+        <x:v>93921.250000000015</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5706,7 +5706,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>93916.7</x:v>
+        <x:v>93916.700000000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5721,7 +5721,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>93891.929999999964</x:v>
+        <x:v>93891.930000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5751,7 +5751,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>93846.97</x:v>
+        <x:v>93846.969999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5781,7 +5781,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>90571.590000000011</x:v>
+        <x:v>90571.59</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5796,7 +5796,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>88995.220000000016</x:v>
+        <x:v>88995.22</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5811,7 +5811,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>87209.46</x:v>
+        <x:v>87209.459999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5856,7 +5856,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>85441.12</x:v>
+        <x:v>85441.120000000024</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5886,7 +5886,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>82780.47</x:v>
+        <x:v>82780.469999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5901,7 +5901,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>82712.280000000028</x:v>
+        <x:v>82712.280000000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5916,7 +5916,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>81848.44</x:v>
+        <x:v>81848.440000000017</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5946,7 +5946,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>79608.16</x:v>
+        <x:v>79608.160000000018</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5976,7 +5976,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>77377.91</x:v>
+        <x:v>77377.909999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6006,7 +6006,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>75600.63</x:v>
+        <x:v>75600.62999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6036,7 +6036,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>73851.680000000008</x:v>
+        <x:v>73851.68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6096,7 +6096,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>71833.390000000014</x:v>
+        <x:v>71833.39</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6171,7 +6171,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>68092.540000000008</x:v>
+        <x:v>68092.54</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6276,7 +6276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>64700.159999999996</x:v>
+        <x:v>64700.160000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6291,7 +6291,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>62964.03</x:v>
+        <x:v>62964.030000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6336,7 +6336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>61794.900000000009</x:v>
+        <x:v>61794.9</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6441,7 +6441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>55525.759999999995</x:v>
+        <x:v>55525.76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6456,7 +6456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>54634.020000000004</x:v>
+        <x:v>54634.02</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6486,7 +6486,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>52099.429999999993</x:v>
+        <x:v>52099.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6546,7 +6546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48478.73</x:v>
+        <x:v>48478.73000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6561,7 +6561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48004.41</x:v>
+        <x:v>48004.409999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6651,7 +6651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>42366.490000000005</x:v>
+        <x:v>42366.49</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6666,7 +6666,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>42340.659999999996</x:v>
+        <x:v>42340.66</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6696,7 +6696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>40832.720000000008</x:v>
+        <x:v>40832.72</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6741,7 +6741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>36075.04</x:v>
+        <x:v>36075.039999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6756,7 +6756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35999.450000000004</x:v>
+        <x:v>35999.45</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6771,7 +6771,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35754.6</x:v>
+        <x:v>35754.600000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6876,7 +6876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>32016.719999999994</x:v>
+        <x:v>32016.719999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6891,7 +6891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>31914.319999999996</x:v>
+        <x:v>31914.32</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6951,7 +6951,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>29696.420000000006</x:v>
+        <x:v>29696.42</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7146,7 +7146,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>15341.960000000003</x:v>
+        <x:v>15341.96</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7161,7 +7161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>15332.109999999999</x:v>
+        <x:v>15332.11</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7191,7 +7191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14576.549999999997</x:v>
+        <x:v>14576.55</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7296,7 +7296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>10599.099999999999</x:v>
+        <x:v>10599.1</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7401,7 +7401,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6783.4400000000005</x:v>
+        <x:v>6783.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7446,7 +7446,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4872.65</x:v>
+        <x:v>4872.6500000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7506,7 +7506,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1782.3400000000001</x:v>
+        <x:v>1782.34</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7566,7 +7566,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1098.3600000000001</x:v>
+        <x:v>1098.36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7596,7 +7596,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>751.24</x:v>
+        <x:v>751.2399999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7896,7 +7896,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30.020000000000003</x:v>
+        <x:v>30.02</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rcfb90f9c19ad480c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Re351db2d8a10446b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>8294948.26</x:v>
+        <x:v>8294948.2600000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -111,7 +111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>7282505.98</x:v>
+        <x:v>7282505.9799999986</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -126,7 +126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6242860.74</x:v>
+        <x:v>6242860.7399999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -141,7 +141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>5852482.08</x:v>
+        <x:v>5852482.0799999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -156,7 +156,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4522329.6000000024</x:v>
+        <x:v>4522329.6000000015</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -201,7 +201,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4329786.1899999995</x:v>
+        <x:v>4329786.19</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -246,7 +246,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4004896.65</x:v>
+        <x:v>4004896.6499999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -261,7 +261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3791308.5</x:v>
+        <x:v>3791308.4999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -276,7 +276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3780231.6199999996</x:v>
+        <x:v>3780231.6199999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -336,7 +336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3208384.3400000003</x:v>
+        <x:v>3208384.3400000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -351,7 +351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3124030.2900000005</x:v>
+        <x:v>3124030.29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -381,7 +381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2988057.5199999996</x:v>
+        <x:v>2988057.52</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -411,7 +411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2815410.0099999993</x:v>
+        <x:v>2815410.01</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -441,7 +441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2571543.79</x:v>
+        <x:v>2571543.7900000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -456,7 +456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2561451.8099999996</x:v>
+        <x:v>2561451.81</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -516,7 +516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2110226.6100000003</x:v>
+        <x:v>2110226.6099999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -531,7 +531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2089150.94</x:v>
+        <x:v>2089150.9400000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -546,7 +546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1992127.3800000004</x:v>
+        <x:v>1992127.3800000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -561,7 +561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1976819.2099999997</x:v>
+        <x:v>1976819.2100000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -591,7 +591,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1862905.5799999998</x:v>
+        <x:v>1862905.58</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -711,7 +711,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1563944.12</x:v>
+        <x:v>1563944.1199999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -756,7 +756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1521862.7200000002</x:v>
+        <x:v>1521862.7199999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -771,7 +771,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1513471.0199999998</x:v>
+        <x:v>1513471.02</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -816,7 +816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1415066.3200000003</x:v>
+        <x:v>1415066.32</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -831,7 +831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1376805.8399999999</x:v>
+        <x:v>1376805.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -861,7 +861,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1346585.4600000002</x:v>
+        <x:v>1346585.46</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -876,7 +876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1307211.23</x:v>
+        <x:v>1307211.2300000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -891,7 +891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1295132.71</x:v>
+        <x:v>1295132.7099999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -996,7 +996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1236519.3499999999</x:v>
+        <x:v>1236519.35</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1056,7 +1056,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1146195.5499999998</x:v>
+        <x:v>1146195.55</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1071,7 +1071,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1111761.26</x:v>
+        <x:v>1111761.2599999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1191,7 +1191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1000404.9799999996</x:v>
+        <x:v>1000404.9799999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1206,7 +1206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>988192.13000000012</x:v>
+        <x:v>988192.13000000035</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1221,7 +1221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>983112.91</x:v>
+        <x:v>983112.91000000015</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1236,7 +1236,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>981430.06</x:v>
+        <x:v>981430.05999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1281,7 +1281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>967761.19000000006</x:v>
+        <x:v>967761.19000000018</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1296,7 +1296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>939767.1399999999</x:v>
+        <x:v>939767.14</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1311,7 +1311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>939249.22999999986</x:v>
+        <x:v>939249.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1341,7 +1341,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>896369.05999999994</x:v>
+        <x:v>896369.06</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1371,7 +1371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>890559.72</x:v>
+        <x:v>890559.71999999986</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1491,7 +1491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>828215.07999999984</x:v>
+        <x:v>828215.08000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1521,7 +1521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>821869.41</x:v>
+        <x:v>821869.40999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1536,7 +1536,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>815236.74</x:v>
+        <x:v>815236.74000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1551,7 +1551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>806356.23999999987</x:v>
+        <x:v>806356.24000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1566,7 +1566,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>802850.76</x:v>
+        <x:v>802850.75999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1596,7 +1596,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>795557.28</x:v>
+        <x:v>795557.27999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1656,7 +1656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>765438.4800000001</x:v>
+        <x:v>765438.47999999986</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1686,7 +1686,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>729024.96999999986</x:v>
+        <x:v>729024.97</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1716,7 +1716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>723223.94</x:v>
+        <x:v>723223.94000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1746,7 +1746,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>695825.83000000007</x:v>
+        <x:v>695825.83</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1761,7 +1761,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>695565.06999999983</x:v>
+        <x:v>695565.07</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1791,7 +1791,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>675253.15</x:v>
+        <x:v>675253.15000000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1851,7 +1851,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>658727.99000000011</x:v>
+        <x:v>658727.99</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1881,7 +1881,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>650998.97</x:v>
+        <x:v>650998.97000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1971,7 +1971,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>620014.59</x:v>
+        <x:v>620014.59000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2016,7 +2016,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>614550.63000000012</x:v>
+        <x:v>614550.62999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2046,7 +2046,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>603676.80999999994</x:v>
+        <x:v>603676.80999999982</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2151,7 +2151,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>575384.85000000009</x:v>
+        <x:v>575384.85</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2166,7 +2166,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>575238.78</x:v>
+        <x:v>575238.77999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2181,7 +2181,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>570317.22</x:v>
+        <x:v>570317.21999999986</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2226,7 +2226,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>563498.62000000011</x:v>
+        <x:v>563498.62</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2256,7 +2256,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>548219.32</x:v>
+        <x:v>548219.32000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2316,7 +2316,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>523896.73</x:v>
+        <x:v>523896.73000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2346,7 +2346,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>504794.78999999992</x:v>
+        <x:v>504794.79</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2361,7 +2361,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>492682.44000000006</x:v>
+        <x:v>492682.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2391,7 +2391,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>484364.28000000014</x:v>
+        <x:v>484364.28</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2421,7 +2421,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>469765.42</x:v>
+        <x:v>469765.41999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2436,7 +2436,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>459026.09</x:v>
+        <x:v>459026.08999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2451,7 +2451,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>458425.63000000006</x:v>
+        <x:v>458425.62999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2481,7 +2481,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>454500.03</x:v>
+        <x:v>454500.02999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2511,7 +2511,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>446964.19</x:v>
+        <x:v>446964.18999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2526,7 +2526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>445108.26999999996</x:v>
+        <x:v>445108.27</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2556,7 +2556,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>433344.55</x:v>
+        <x:v>433344.55000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2571,7 +2571,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>427282.64</x:v>
+        <x:v>427282.63999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2601,7 +2601,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>424971.39</x:v>
+        <x:v>424971.38999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2646,7 +2646,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>422670.40999999992</x:v>
+        <x:v>422670.41</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2661,7 +2661,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>422660.17000000004</x:v>
+        <x:v>422660.17</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2676,7 +2676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>421109.72</x:v>
+        <x:v>421109.72000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2691,7 +2691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>418571.1</x:v>
+        <x:v>418571.09999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2721,7 +2721,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>404749.58</x:v>
+        <x:v>404749.57999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2751,7 +2751,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>397851.93</x:v>
+        <x:v>397851.92999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2856,7 +2856,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>374204.45000000007</x:v>
+        <x:v>374204.45</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2901,7 +2901,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>372718.31</x:v>
+        <x:v>372718.30999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2916,7 +2916,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>370831.17</x:v>
+        <x:v>370831.17000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2931,7 +2931,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>369881.44999999995</x:v>
+        <x:v>369881.45</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2961,7 +2961,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>365407.73</x:v>
+        <x:v>365407.72999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3006,7 +3006,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>362928.00999999972</x:v>
+        <x:v>362928.00999999978</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3066,7 +3066,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>357453.31</x:v>
+        <x:v>357453.31000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3096,7 +3096,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>356135.22000000003</x:v>
+        <x:v>356135.22</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3111,7 +3111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>354440.95999999996</x:v>
+        <x:v>354440.96</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3141,7 +3141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>344322.62999999995</x:v>
+        <x:v>344322.63</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3156,7 +3156,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>343818.50000000006</x:v>
+        <x:v>343818.49999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3276,7 +3276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>325808.13</x:v>
+        <x:v>325808.12999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3321,7 +3321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>322944.63</x:v>
+        <x:v>322944.63000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3411,7 +3411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>307694.41000000003</x:v>
+        <x:v>307694.41</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3486,7 +3486,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>293881.76999999996</x:v>
+        <x:v>293881.77</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3531,7 +3531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>290707.79</x:v>
+        <x:v>290707.78999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3576,7 +3576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>284642.17</x:v>
+        <x:v>284642.16999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3636,7 +3636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>276015.91</x:v>
+        <x:v>276015.91000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3651,7 +3651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>275768.05</x:v>
+        <x:v>275768.05000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3756,7 +3756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>263682.22</x:v>
+        <x:v>263682.22000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3786,7 +3786,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>261942.38999999996</x:v>
+        <x:v>261942.39</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3801,7 +3801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>261909.58000000002</x:v>
+        <x:v>261909.58</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3816,7 +3816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>260032.22000000003</x:v>
+        <x:v>260032.21999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3831,7 +3831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>252033.87</x:v>
+        <x:v>252033.87000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3876,7 +3876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>249479.84999999998</x:v>
+        <x:v>249479.85</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3891,7 +3891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>248711.33</x:v>
+        <x:v>248711.33000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3966,7 +3966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>241182.41</x:v>
+        <x:v>241182.41000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4011,7 +4011,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>235521.53000000003</x:v>
+        <x:v>235521.53000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4026,7 +4026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>234568.96</x:v>
+        <x:v>234568.96000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4056,7 +4056,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>225320.90000000002</x:v>
+        <x:v>225320.89999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4176,7 +4176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>205524.11</x:v>
+        <x:v>205524.11000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4191,7 +4191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>205457.16000000009</x:v>
+        <x:v>205457.15999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4251,7 +4251,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>201657.72999999998</x:v>
+        <x:v>201657.73</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4266,7 +4266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>201508.77</x:v>
+        <x:v>201508.77000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4281,7 +4281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>201296.68</x:v>
+        <x:v>201296.68000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4371,7 +4371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>191999.89999999997</x:v>
+        <x:v>191999.90000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4401,7 +4401,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>186923.96999999997</x:v>
+        <x:v>186923.96999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4431,7 +4431,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>184894.13</x:v>
+        <x:v>184894.12999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4446,7 +4446,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>181530.14</x:v>
+        <x:v>181530.13999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4461,7 +4461,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>178110.95000000004</x:v>
+        <x:v>178110.94999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4476,7 +4476,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>177833.16000000003</x:v>
+        <x:v>177833.15999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4506,7 +4506,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>170394.90000000002</x:v>
+        <x:v>170394.9</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4551,7 +4551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>167467.49000000002</x:v>
+        <x:v>167467.49</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4581,7 +4581,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>166549.19</x:v>
+        <x:v>166549.18999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4656,7 +4656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>160547.05999999997</x:v>
+        <x:v>160547.06</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4671,7 +4671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>159430.74</x:v>
+        <x:v>159430.73999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4701,7 +4701,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158558.25</x:v>
+        <x:v>158558.24999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4791,7 +4791,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>150850.99000000002</x:v>
+        <x:v>150850.99</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4836,7 +4836,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>148387.2</x:v>
+        <x:v>148387.19999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4881,7 +4881,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>141885.55000000002</x:v>
+        <x:v>141885.55</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5076,7 +5076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>135178.23</x:v>
+        <x:v>135178.22999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5121,7 +5121,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>130948.12000000001</x:v>
+        <x:v>130948.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5166,7 +5166,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>128815.46</x:v>
+        <x:v>128815.45999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5181,7 +5181,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>128381.84999999999</x:v>
+        <x:v>128381.85</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5196,7 +5196,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>127792.29000000002</x:v>
+        <x:v>127792.28999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5226,7 +5226,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>124471.72</x:v>
+        <x:v>124471.72000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5301,7 +5301,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>117061.56</x:v>
+        <x:v>117061.56000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5316,7 +5316,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>116711.03</x:v>
+        <x:v>116711.02999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5331,7 +5331,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>116081.77000000002</x:v>
+        <x:v>116081.76999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5346,7 +5346,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>114113.35999999999</x:v>
+        <x:v>114113.36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5391,7 +5391,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>110817.33</x:v>
+        <x:v>110817.32999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5421,7 +5421,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107765.72999999998</x:v>
+        <x:v>107765.73</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5466,7 +5466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107072.08</x:v>
+        <x:v>107072.08000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5541,7 +5541,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>103738.25</x:v>
+        <x:v>103738.25000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5571,7 +5571,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102726.79</x:v>
+        <x:v>102726.79000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5586,7 +5586,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102512.45999999998</x:v>
+        <x:v>102512.45999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5631,7 +5631,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>101436.11</x:v>
+        <x:v>101436.10999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5661,7 +5661,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>101107.27</x:v>
+        <x:v>101107.26999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5691,7 +5691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>100044.69</x:v>
+        <x:v>100044.68999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5706,7 +5706,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>99800.430000000008</x:v>
+        <x:v>99800.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5721,7 +5721,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>99231.470000000016</x:v>
+        <x:v>99231.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5736,7 +5736,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>98900.44</x:v>
+        <x:v>98900.440000000031</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5796,7 +5796,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>97848.959999999992</x:v>
+        <x:v>97848.96</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5871,7 +5871,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>91325.16</x:v>
+        <x:v>91325.159999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5916,7 +5916,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>87808.37999999999</x:v>
+        <x:v>87808.38</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6051,7 +6051,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>77705.23000000001</x:v>
+        <x:v>77705.229999999981</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6066,7 +6066,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>76380.91</x:v>
+        <x:v>76380.909999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6081,7 +6081,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>76155.459999999992</x:v>
+        <x:v>76155.46</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6096,7 +6096,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>75875.32</x:v>
+        <x:v>75875.319999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6141,7 +6141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>73256.819999999992</x:v>
+        <x:v>73256.82</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6171,7 +6171,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>72113.04</x:v>
+        <x:v>72113.040000000023</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6336,7 +6336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>64947.6</x:v>
+        <x:v>64947.599999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6396,7 +6396,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>62158.75</x:v>
+        <x:v>62158.750000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6411,7 +6411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>61072.64</x:v>
+        <x:v>61072.640000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6456,7 +6456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>56356.829999999994</x:v>
+        <x:v>56356.83</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6471,7 +6471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>56330.839999999982</x:v>
+        <x:v>56330.839999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6531,7 +6531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>53987.41</x:v>
+        <x:v>53987.409999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6561,7 +6561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50435.539999999994</x:v>
+        <x:v>50435.540000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6591,7 +6591,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>49063.179999999993</x:v>
+        <x:v>49063.180000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6606,7 +6606,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48344.890000000007</x:v>
+        <x:v>48344.89</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6621,7 +6621,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48284.920000000006</x:v>
+        <x:v>48284.92</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6651,7 +6651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>47487.640000000007</x:v>
+        <x:v>47487.64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6681,7 +6681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>45312.38</x:v>
+        <x:v>45312.380000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6711,7 +6711,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>42592.390000000007</x:v>
+        <x:v>42592.39</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6741,7 +6741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>41549.159999999996</x:v>
+        <x:v>41549.159999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6771,7 +6771,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>38109.64</x:v>
+        <x:v>38109.640000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6816,7 +6816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35524.28</x:v>
+        <x:v>35524.279999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6846,7 +6846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35092.04</x:v>
+        <x:v>35092.039999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7086,7 +7086,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>24993.26</x:v>
+        <x:v>24993.260000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7161,7 +7161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>21365.670000000002</x:v>
+        <x:v>21365.67</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7251,7 +7251,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>15802.560000000001</x:v>
+        <x:v>15802.56</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7326,7 +7326,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14124.45</x:v>
+        <x:v>14124.449999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7401,7 +7401,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>10352.1</x:v>
+        <x:v>10352.099999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7491,7 +7491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6808.05</x:v>
+        <x:v>6808.0499999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7716,7 +7716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1104.97</x:v>
+        <x:v>1104.9700000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7851,7 +7851,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>225.73</x:v>
+        <x:v>225.73000000000002</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rd6ef4c9fc0114c57"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rc647d10c21a84b18"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>8169356.8699999992</x:v>
+        <x:v>8169356.870000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -141,7 +141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>5808797.919999999</x:v>
+        <x:v>5808797.9200000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -156,7 +156,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4834242.3900000015</x:v>
+        <x:v>4834242.3900000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -186,7 +186,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4433215.67</x:v>
+        <x:v>4433215.6700000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -261,7 +261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4017316.58</x:v>
+        <x:v>4017316.5799999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -276,7 +276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3815881.4</x:v>
+        <x:v>3815881.3999999985</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -366,7 +366,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3000406.9099999997</x:v>
+        <x:v>3000406.9099999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -411,7 +411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2740245.3800000004</x:v>
+        <x:v>2740245.3800000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -426,7 +426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2580582.9099999992</x:v>
+        <x:v>2580582.91</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -516,7 +516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2114539.54</x:v>
+        <x:v>2114539.5399999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -546,7 +546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1997056.73</x:v>
+        <x:v>1997056.7300000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -561,7 +561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1985152.8499999999</x:v>
+        <x:v>1985152.8499999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -576,7 +576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1878715.28</x:v>
+        <x:v>1878715.2800000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -651,7 +651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1790562.8500000003</x:v>
+        <x:v>1790562.85</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -666,7 +666,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1672516.01</x:v>
+        <x:v>1672516.0099999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -741,7 +741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1477708.16</x:v>
+        <x:v>1477708.1600000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -801,7 +801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1414897.05</x:v>
+        <x:v>1414897.0499999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -846,7 +846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1305014.4400000002</x:v>
+        <x:v>1305014.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -861,7 +861,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1298878.7499999998</x:v>
+        <x:v>1298878.7499999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -876,7 +876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1288994.19</x:v>
+        <x:v>1288994.1900000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -936,7 +936,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1265864.9300000002</x:v>
+        <x:v>1265864.9299999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -966,7 +966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1253372.5699999998</x:v>
+        <x:v>1253372.57</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -981,7 +981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1249812.84</x:v>
+        <x:v>1249812.8400000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -996,7 +996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1237809.28</x:v>
+        <x:v>1237809.2800000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1041,7 +1041,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1152181.5400000003</x:v>
+        <x:v>1152181.54</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1056,7 +1056,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1150750.8999999997</x:v>
+        <x:v>1150750.8999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1086,7 +1086,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1076599.9000000001</x:v>
+        <x:v>1076599.9</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1101,7 +1101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1073934.5200000003</x:v>
+        <x:v>1073934.52</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1131,7 +1131,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1063759.62</x:v>
+        <x:v>1063759.6199999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1191,7 +1191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1013575.8700000001</x:v>
+        <x:v>1013575.87</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1281,7 +1281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>969767.61</x:v>
+        <x:v>969767.6100000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1356,7 +1356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>893616.05999999982</x:v>
+        <x:v>893616.05999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1416,7 +1416,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>864568.66999999993</x:v>
+        <x:v>864568.67</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1491,7 +1491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>831698.78999999992</x:v>
+        <x:v>831698.79</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1551,7 +1551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>822808.43</x:v>
+        <x:v>822808.42999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1581,7 +1581,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>809304.7300000001</x:v>
+        <x:v>809304.73</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1626,7 +1626,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>797985.65999999992</x:v>
+        <x:v>797985.66</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1656,7 +1656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>792856.60000000009</x:v>
+        <x:v>792856.59999999986</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1686,7 +1686,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>773999.53</x:v>
+        <x:v>773999.52999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1701,7 +1701,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>768742.34</x:v>
+        <x:v>768742.34000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1716,7 +1716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>762249.91</x:v>
+        <x:v>762249.90999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1821,7 +1821,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>680288.4</x:v>
+        <x:v>680288.39999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1851,7 +1851,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>677325.1100000001</x:v>
+        <x:v>677325.11</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1866,7 +1866,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>663535.99000000022</x:v>
+        <x:v>663535.99</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1881,7 +1881,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>657341.74000000011</x:v>
+        <x:v>657341.74</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1896,7 +1896,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>655019.35999999987</x:v>
+        <x:v>655019.36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1926,7 +1926,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>649496.66000000015</x:v>
+        <x:v>649496.66</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2001,7 +2001,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>621944.57000000007</x:v>
+        <x:v>621944.56999999983</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2016,7 +2016,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>617709.02999999991</x:v>
+        <x:v>617709.03</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2061,7 +2061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>606788.05</x:v>
+        <x:v>606788.04999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2091,7 +2091,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>598434.24000000011</x:v>
+        <x:v>598434.24</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2166,7 +2166,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>573113.79999999993</x:v>
+        <x:v>573113.8</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2196,7 +2196,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>568405.2</x:v>
+        <x:v>568405.20000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2301,7 +2301,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>542942.53</x:v>
+        <x:v>542942.52999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2391,7 +2391,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>506747.06000000006</x:v>
+        <x:v>506747.05999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2406,7 +2406,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>501453.34000000014</x:v>
+        <x:v>501453.34000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2571,7 +2571,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>448649.93000000005</x:v>
+        <x:v>448649.93000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2586,7 +2586,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>439845.82000000007</x:v>
+        <x:v>439845.82</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2616,7 +2616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>434478.69999999995</x:v>
+        <x:v>434478.7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2691,7 +2691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>424433.95000000007</x:v>
+        <x:v>424433.95000000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2751,7 +2751,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>417303.71</x:v>
+        <x:v>417303.71000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2766,7 +2766,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>416590.45</x:v>
+        <x:v>416590.44999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2826,7 +2826,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>389598.05999999994</x:v>
+        <x:v>389598.06000000017</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2916,7 +2916,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>373456.79999999993</x:v>
+        <x:v>373456.8</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2961,7 +2961,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>368526.84999999992</x:v>
+        <x:v>368526.85000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3006,7 +3006,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>364303.98</x:v>
+        <x:v>364303.98000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3021,7 +3021,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>363781.92</x:v>
+        <x:v>363781.92000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3081,7 +3081,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>352600.09</x:v>
+        <x:v>352600.08999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3126,7 +3126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>345104.56</x:v>
+        <x:v>345104.56000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3186,7 +3186,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>340172.12000000011</x:v>
+        <x:v>340172.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3246,7 +3246,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>329121.76000000007</x:v>
+        <x:v>329121.75999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3336,7 +3336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>323246.75999999995</x:v>
+        <x:v>323246.76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3441,7 +3441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>306576.13999999996</x:v>
+        <x:v>306576.14</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3501,7 +3501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>296792.19000000006</x:v>
+        <x:v>296792.19</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3561,7 +3561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>292847.46</x:v>
+        <x:v>292847.45999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3591,7 +3591,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>287609.16999999993</x:v>
+        <x:v>287609.17</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3741,7 +3741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>267106.49</x:v>
+        <x:v>267106.49000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3816,7 +3816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>260692.53999999989</x:v>
+        <x:v>260692.53999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3846,7 +3846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>251639.57999999996</x:v>
+        <x:v>251639.58000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3891,7 +3891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>247720.97000000003</x:v>
+        <x:v>247720.97000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3921,7 +3921,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>244844.80000000002</x:v>
+        <x:v>244844.8</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3936,7 +3936,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>244660.72000000003</x:v>
+        <x:v>244660.72</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3996,7 +3996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>239422.03000000003</x:v>
+        <x:v>239422.02999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4011,7 +4011,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>236296.43</x:v>
+        <x:v>236296.43000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4026,7 +4026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>235358.24</x:v>
+        <x:v>235358.24000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4161,7 +4161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>209405.50999999995</x:v>
+        <x:v>209405.50999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4191,7 +4191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>208166.23000000007</x:v>
+        <x:v>208166.22999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4281,7 +4281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>202323.13999999998</x:v>
+        <x:v>202323.14</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4311,7 +4311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>201718.44999999998</x:v>
+        <x:v>201718.45</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4431,7 +4431,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>189689.75000000003</x:v>
+        <x:v>189689.75</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4446,7 +4446,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>186565.59000000003</x:v>
+        <x:v>186565.59</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4596,7 +4596,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>167351.06999999998</x:v>
+        <x:v>167351.07</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4611,7 +4611,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>166723.00000000003</x:v>
+        <x:v>166723</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4626,7 +4626,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>163638.30000000002</x:v>
+        <x:v>163638.3</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4671,7 +4671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>160223.7</x:v>
+        <x:v>160223.69999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4746,7 +4746,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158336.21</x:v>
+        <x:v>158336.21000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4851,7 +4851,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>149672</x:v>
+        <x:v>149672.00000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4881,7 +4881,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>146197.90999999997</x:v>
+        <x:v>146197.91</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4896,7 +4896,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>143459.42</x:v>
+        <x:v>143459.41999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4956,7 +4956,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>140907.51</x:v>
+        <x:v>140907.50999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4971,7 +4971,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>140358.47</x:v>
+        <x:v>140358.46999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4986,7 +4986,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139976.6</x:v>
+        <x:v>139976.60000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5001,7 +5001,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139569.24000000002</x:v>
+        <x:v>139569.24</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5061,7 +5061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>138115.46</x:v>
+        <x:v>138115.46000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5076,7 +5076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>137262.03000000003</x:v>
+        <x:v>137262.03</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5226,7 +5226,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>129166.09000000001</x:v>
+        <x:v>129166.09000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5271,7 +5271,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>124960.5</x:v>
+        <x:v>124960.49999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5361,7 +5361,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>117004.73</x:v>
+        <x:v>117004.72999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5391,7 +5391,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>114011.17999999998</x:v>
+        <x:v>114011.18</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5406,7 +5406,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>113950.02000000002</x:v>
+        <x:v>113950.02</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5421,7 +5421,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>113878.97000000002</x:v>
+        <x:v>113878.97</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5466,7 +5466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107924.88999999998</x:v>
+        <x:v>107924.88999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5526,7 +5526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>105258.98000000001</x:v>
+        <x:v>105258.98</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5586,7 +5586,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>103334.85000000002</x:v>
+        <x:v>103334.85</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5646,7 +5646,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>101747.27</x:v>
+        <x:v>101747.26999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5781,7 +5781,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>99198.639999999985</x:v>
+        <x:v>99198.64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5856,7 +5856,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>95468.589999999982</x:v>
+        <x:v>95468.59</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5916,7 +5916,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>91203.790000000008</x:v>
+        <x:v>91203.79</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5946,7 +5946,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>88491.119999999981</x:v>
+        <x:v>88491.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5961,7 +5961,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>88302.170000000013</x:v>
+        <x:v>88302.169999999984</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6021,7 +6021,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>80647.180000000008</x:v>
+        <x:v>80647.18</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6261,7 +6261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>68692.689999999988</x:v>
+        <x:v>68692.69</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6351,7 +6351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>65949.79</x:v>
+        <x:v>65949.790000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6381,7 +6381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>63639.619999999995</x:v>
+        <x:v>63639.62</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6456,7 +6456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>57695.000000000015</x:v>
+        <x:v>57695</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6486,7 +6486,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>56527.4</x:v>
+        <x:v>56527.399999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6531,7 +6531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>54126.929999999986</x:v>
+        <x:v>54126.93</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6651,7 +6651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48527.979999999989</x:v>
+        <x:v>48527.98000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6711,7 +6711,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>45426.770000000004</x:v>
+        <x:v>45426.77</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6756,7 +6756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>42669.509999999995</x:v>
+        <x:v>42669.51</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6816,7 +6816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>37214.530000000006</x:v>
+        <x:v>37214.53</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6951,7 +6951,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>31259.699999999997</x:v>
+        <x:v>31259.7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6966,7 +6966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30801.499999999996</x:v>
+        <x:v>30801.5</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6981,7 +6981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30572.930000000008</x:v>
+        <x:v>30572.93</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7101,7 +7101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>25029.11</x:v>
+        <x:v>25029.109999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7161,7 +7161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>21829.74</x:v>
+        <x:v>21829.739999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7206,7 +7206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>20551.270000000004</x:v>
+        <x:v>20551.27</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7296,7 +7296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14629.78</x:v>
+        <x:v>14629.779999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7506,7 +7506,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6824.1900000000005</x:v>
+        <x:v>6824.19</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -8091,7 +8091,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35.29</x:v>
+        <x:v>35.290000000000006</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R4be72a2fd8684476"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R163b8c2b3b6843ef"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -216,7 +216,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4273424.6</x:v>
+        <x:v>4273424.6000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -231,7 +231,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4242984.43</x:v>
+        <x:v>4242984.4300000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -261,7 +261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3884273.3499999996</x:v>
+        <x:v>3884273.35</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -321,7 +321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3411428.8199999994</x:v>
+        <x:v>3411428.82</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -381,7 +381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2855190.8</x:v>
+        <x:v>2855190.8000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -411,7 +411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2741782.1200000006</x:v>
+        <x:v>2741782.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -606,7 +606,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1844415.5399999998</x:v>
+        <x:v>1844415.5399999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -726,7 +726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1571790.79</x:v>
+        <x:v>1571790.7899999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1056,7 +1056,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1114983.7600000002</x:v>
+        <x:v>1114983.7600000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1071,7 +1071,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1084421.4900000002</x:v>
+        <x:v>1084421.49</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1086,7 +1086,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1076063.7099999997</x:v>
+        <x:v>1076063.71</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1176,7 +1176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1014078.5199999999</x:v>
+        <x:v>1014078.52</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1191,7 +1191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>991839.14999999991</x:v>
+        <x:v>991839.15</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1206,7 +1206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>989975.85000000033</x:v>
+        <x:v>989975.85000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1326,7 +1326,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>942997.88</x:v>
+        <x:v>942997.88000000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1416,7 +1416,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>865335.84999999986</x:v>
+        <x:v>865335.85</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1431,7 +1431,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>865021.93</x:v>
+        <x:v>865021.93000000017</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1581,7 +1581,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>813625.13999999978</x:v>
+        <x:v>813625.1399999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1911,7 +1911,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>653431.56000000017</x:v>
+        <x:v>653431.56</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1956,7 +1956,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>634050.34</x:v>
+        <x:v>634050.34000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2061,7 +2061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>606821.97</x:v>
+        <x:v>606821.97000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2076,7 +2076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>604987.82000000007</x:v>
+        <x:v>604987.82</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2301,7 +2301,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>543168.15999999992</x:v>
+        <x:v>543168.16</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2466,7 +2466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>487149.09</x:v>
+        <x:v>487149.09000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2526,7 +2526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>460161.41</x:v>
+        <x:v>460161.41000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2556,7 +2556,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>457228.11000000004</x:v>
+        <x:v>457228.11000000016</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2571,7 +2571,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>454316.2</x:v>
+        <x:v>454316.19999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2781,7 +2781,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>414914.31999999995</x:v>
+        <x:v>414914.32</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2841,7 +2841,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>389796.55999999994</x:v>
+        <x:v>389796.55999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2931,7 +2931,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>372996.45000000007</x:v>
+        <x:v>372996.45</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3006,7 +3006,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>366533.46</x:v>
+        <x:v>366533.46000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3021,7 +3021,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>364474.80999999994</x:v>
+        <x:v>364474.80999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3246,7 +3246,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>332205.94000000006</x:v>
+        <x:v>332205.94</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3366,7 +3366,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>316806.49</x:v>
+        <x:v>316806.48999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3486,7 +3486,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>299890.01</x:v>
+        <x:v>299890.01000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3636,7 +3636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>279223.02999999997</x:v>
+        <x:v>279223.03</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3651,7 +3651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>276455.47</x:v>
+        <x:v>276455.47000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3681,7 +3681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>272564.58000000007</x:v>
+        <x:v>272564.58</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3726,7 +3726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>265321</x:v>
+        <x:v>265321.00000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3876,7 +3876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>247847.72000000003</x:v>
+        <x:v>247847.72</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3921,7 +3921,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>244778.2</x:v>
+        <x:v>244778.19999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4011,7 +4011,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>235452.34</x:v>
+        <x:v>235452.33999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4281,7 +4281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>201976.69999999998</x:v>
+        <x:v>201976.7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4371,7 +4371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>193058.95</x:v>
+        <x:v>193058.94999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4476,7 +4476,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>179082.16999999998</x:v>
+        <x:v>179082.17</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4521,7 +4521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>171073.86000000002</x:v>
+        <x:v>171073.86</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4536,7 +4536,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>170475.51</x:v>
+        <x:v>170475.51000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4791,7 +4791,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>156535.91</x:v>
+        <x:v>156535.90999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4836,7 +4836,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>149737.54</x:v>
+        <x:v>149737.53999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4986,7 +4986,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139693.29000000004</x:v>
+        <x:v>139693.29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5061,7 +5061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>137323.84000000003</x:v>
+        <x:v>137323.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5196,7 +5196,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>129624.85999999999</x:v>
+        <x:v>129624.86000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5496,7 +5496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107415.56</x:v>
+        <x:v>107415.56000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5541,7 +5541,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104603.04</x:v>
+        <x:v>104603.04000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5631,7 +5631,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102049.29000000001</x:v>
+        <x:v>102049.29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5826,7 +5826,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>96178.49</x:v>
+        <x:v>96178.489999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5916,7 +5916,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>89638.44</x:v>
+        <x:v>89638.440000000017</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6096,7 +6096,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>76627.699999999983</x:v>
+        <x:v>76627.699999999968</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6426,7 +6426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>59422.87</x:v>
+        <x:v>59422.869999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6486,7 +6486,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>56537.77</x:v>
+        <x:v>56537.770000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6546,7 +6546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>53605.909999999996</x:v>
+        <x:v>53605.91</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6666,7 +6666,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48109.459999999992</x:v>
+        <x:v>48109.46</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7131,7 +7131,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>22496.67</x:v>
+        <x:v>22496.670000000002</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R163b8c2b3b6843ef"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rf89c5de5e6f54325"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>8173001.0799999991</x:v>
+        <x:v>8173001.0800000019</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -111,7 +111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>7266867.9799999995</x:v>
+        <x:v>7266867.98</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -186,7 +186,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4436532.1199999992</x:v>
+        <x:v>4436532.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -201,7 +201,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4382663.8699999992</x:v>
+        <x:v>4382663.87</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -216,7 +216,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4273424.6000000006</x:v>
+        <x:v>4273424.6</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -231,7 +231,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4242984.4300000006</x:v>
+        <x:v>4242984.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -261,7 +261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3884273.35</x:v>
+        <x:v>3884273.3500000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -321,7 +321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3411428.82</x:v>
+        <x:v>3411428.8199999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -351,7 +351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3219825.5899999989</x:v>
+        <x:v>3219825.5899999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -366,7 +366,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3003724.86</x:v>
+        <x:v>3003724.8600000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -381,7 +381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2855190.8000000003</x:v>
+        <x:v>2855190.8</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -396,7 +396,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2825797.7400000007</x:v>
+        <x:v>2825797.7400000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -471,7 +471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2235926.2299999995</x:v>
+        <x:v>2235926.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -516,7 +516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2116420.4299999992</x:v>
+        <x:v>2116420.4299999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -531,7 +531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2095590.4399999995</x:v>
+        <x:v>2095590.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -561,7 +561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1986034.9999999998</x:v>
+        <x:v>1986035</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -606,7 +606,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1844415.5399999996</x:v>
+        <x:v>1844415.5399999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -666,7 +666,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1673768.3800000001</x:v>
+        <x:v>1673768.38</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -726,7 +726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1571790.7899999998</x:v>
+        <x:v>1571790.79</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -771,7 +771,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1435355.0500000003</x:v>
+        <x:v>1435355.05</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -801,7 +801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1415725.4300000002</x:v>
+        <x:v>1415725.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -831,7 +831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1352889.0599999998</x:v>
+        <x:v>1352889.06</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -846,7 +846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1305633.2299999997</x:v>
+        <x:v>1305633.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -906,7 +906,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1277112.5300000003</x:v>
+        <x:v>1277112.5300000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -951,7 +951,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1260053.1400000001</x:v>
+        <x:v>1260053.14</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1041,7 +1041,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1151432.1199999999</x:v>
+        <x:v>1151432.1199999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1056,7 +1056,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1114983.7600000005</x:v>
+        <x:v>1114983.7600000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1071,7 +1071,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1084421.49</x:v>
+        <x:v>1084421.4900000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1176,7 +1176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1014078.52</x:v>
+        <x:v>1014078.5199999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1191,7 +1191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>991839.15</x:v>
+        <x:v>991839.14999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1206,7 +1206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>989975.85000000009</x:v>
+        <x:v>989975.85000000033</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1326,7 +1326,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>942997.88000000012</x:v>
+        <x:v>942997.88</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1341,7 +1341,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>897801.28999999992</x:v>
+        <x:v>897801.29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1356,7 +1356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>894066.01000000024</x:v>
+        <x:v>894066.01000000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1371,7 +1371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>885042.20999999961</x:v>
+        <x:v>885042.2099999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1401,7 +1401,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>876201.30999999994</x:v>
+        <x:v>876201.30999999982</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1431,7 +1431,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>865021.93000000017</x:v>
+        <x:v>865021.93</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1566,7 +1566,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>815519.72</x:v>
+        <x:v>815519.72000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1626,7 +1626,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>798358.48999999976</x:v>
+        <x:v>798358.49000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1671,7 +1671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>792839.76000000013</x:v>
+        <x:v>792839.76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1851,7 +1851,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>677810.3600000001</x:v>
+        <x:v>677810.36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1881,7 +1881,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>655857.12</x:v>
+        <x:v>655857.12000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1896,7 +1896,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>655513.89</x:v>
+        <x:v>655513.8899999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1911,7 +1911,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>653431.56</x:v>
+        <x:v>653431.56000000017</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1941,7 +1941,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>645235.44000000006</x:v>
+        <x:v>645235.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1986,7 +1986,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>622602.74</x:v>
+        <x:v>622602.74000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2031,7 +2031,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>618008.5</x:v>
+        <x:v>618008.50000000023</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2061,7 +2061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>606821.97000000009</x:v>
+        <x:v>606821.97</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2076,7 +2076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>604987.82</x:v>
+        <x:v>604987.82000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2106,7 +2106,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>592176.08</x:v>
+        <x:v>592176.08000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2136,7 +2136,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>580022.12</x:v>
+        <x:v>580022.12000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2211,7 +2211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>567136.13</x:v>
+        <x:v>567136.13000000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2256,7 +2256,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>556331.26</x:v>
+        <x:v>556331.25999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2286,7 +2286,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>548264.1100000001</x:v>
+        <x:v>548264.11</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2301,7 +2301,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>543168.16</x:v>
+        <x:v>543168.15999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2316,7 +2316,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>539716.4</x:v>
+        <x:v>539716.39999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2406,7 +2406,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>506993.09</x:v>
+        <x:v>506993.08999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2496,7 +2496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>465244.95000000007</x:v>
+        <x:v>465244.95</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2556,7 +2556,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>457228.11000000016</x:v>
+        <x:v>457228.11000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2571,7 +2571,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>454316.19999999995</x:v>
+        <x:v>454316.2</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2586,7 +2586,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>448861.58999999991</x:v>
+        <x:v>448861.58999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2601,7 +2601,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>440069.32999999996</x:v>
+        <x:v>440069.33</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2616,7 +2616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>439543.82</x:v>
+        <x:v>439543.81999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2676,7 +2676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>426181.10000000003</x:v>
+        <x:v>426181.10000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2691,7 +2691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>424656.40000000008</x:v>
+        <x:v>424656.4</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2736,7 +2736,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>422595.44999999995</x:v>
+        <x:v>422595.45</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2766,7 +2766,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>417510.91999999993</x:v>
+        <x:v>417510.92</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2781,7 +2781,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>414914.32</x:v>
+        <x:v>414914.31999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2841,7 +2841,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>389796.55999999988</x:v>
+        <x:v>389796.55999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2886,7 +2886,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>380520.47000000003</x:v>
+        <x:v>380520.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2901,7 +2901,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>374745.24000000005</x:v>
+        <x:v>374745.24</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3006,7 +3006,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>366533.46000000008</x:v>
+        <x:v>366533.46</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3126,7 +3126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>346801.82</x:v>
+        <x:v>346801.82000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3141,7 +3141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>345252.43999999994</x:v>
+        <x:v>345252.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3156,7 +3156,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>343697.14</x:v>
+        <x:v>343697.13999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3171,7 +3171,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>342231.74</x:v>
+        <x:v>342231.73999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3246,7 +3246,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>332205.94</x:v>
+        <x:v>332205.94000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3276,7 +3276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>326787.10000000003</x:v>
+        <x:v>326787.1</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3306,7 +3306,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>323906.89</x:v>
+        <x:v>323906.89000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3336,7 +3336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>323447.63999999996</x:v>
+        <x:v>323447.64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3366,7 +3366,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>316806.48999999993</x:v>
+        <x:v>316806.49</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3396,7 +3396,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>312458.17999999993</x:v>
+        <x:v>312458.18000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3441,7 +3441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>306737.23000000004</x:v>
+        <x:v>306737.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3456,7 +3456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>304880.04999999993</x:v>
+        <x:v>304880.05</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3486,7 +3486,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>299890.01000000007</x:v>
+        <x:v>299890.01</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3621,7 +3621,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>281991.97</x:v>
+        <x:v>281991.97000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3636,7 +3636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>279223.03</x:v>
+        <x:v>279223.02999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3651,7 +3651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>276455.47000000003</x:v>
+        <x:v>276455.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3711,7 +3711,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>267238.44999999995</x:v>
+        <x:v>267238.45</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3726,7 +3726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>265321.00000000006</x:v>
+        <x:v>265321</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3936,7 +3936,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>243793.18</x:v>
+        <x:v>243793.17999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3951,7 +3951,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>239558.96</x:v>
+        <x:v>239558.96000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3981,7 +3981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>239519.78</x:v>
+        <x:v>239519.77999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4011,7 +4011,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>235452.33999999997</x:v>
+        <x:v>235452.34</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4206,7 +4206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206111.50999999998</x:v>
+        <x:v>206111.51</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4371,7 +4371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>193058.94999999998</x:v>
+        <x:v>193058.95000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4386,7 +4386,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>192677.39</x:v>
+        <x:v>192677.38999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4461,7 +4461,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>182032.99</x:v>
+        <x:v>182032.98999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4521,7 +4521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>171073.86</x:v>
+        <x:v>171073.86000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4536,7 +4536,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>170475.51000000004</x:v>
+        <x:v>170475.51</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4656,7 +4656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>160280.88999999998</x:v>
+        <x:v>160280.89</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4716,7 +4716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158692.02999999997</x:v>
+        <x:v>158692.03</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4791,7 +4791,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>156535.90999999997</x:v>
+        <x:v>156535.91</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4836,7 +4836,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>149737.53999999998</x:v>
+        <x:v>149737.54</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4971,7 +4971,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>140036.77999999997</x:v>
+        <x:v>140036.78</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4986,7 +4986,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139693.29</x:v>
+        <x:v>139693.29000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5016,7 +5016,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139196.98</x:v>
+        <x:v>139196.97999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5061,7 +5061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>137323.84</x:v>
+        <x:v>137323.84000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5076,7 +5076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>136348.3</x:v>
+        <x:v>136348.30000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5211,7 +5211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>129212.06000000003</x:v>
+        <x:v>129212.05999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5226,7 +5226,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>128804.64999999998</x:v>
+        <x:v>128804.65</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5316,7 +5316,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>121171.71</x:v>
+        <x:v>121171.70999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5361,7 +5361,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>117054.45</x:v>
+        <x:v>117054.45000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5391,7 +5391,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>114087.56999999999</x:v>
+        <x:v>114087.57</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5436,7 +5436,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>111242.83000000002</x:v>
+        <x:v>111242.83</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5496,7 +5496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107415.56000000001</x:v>
+        <x:v>107415.56</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5661,7 +5661,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>101807.38999999998</x:v>
+        <x:v>101807.39000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5676,7 +5676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>101726.35</x:v>
+        <x:v>101726.35000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5766,7 +5766,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>99279.700000000026</x:v>
+        <x:v>99279.7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5781,7 +5781,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>99248.3</x:v>
+        <x:v>99248.299999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5826,7 +5826,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>96178.489999999991</x:v>
+        <x:v>96178.49</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5916,7 +5916,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>89638.440000000017</x:v>
+        <x:v>89638.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5946,7 +5946,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>88338.260000000009</x:v>
+        <x:v>88338.26</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5976,7 +5976,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>84434.689999999988</x:v>
+        <x:v>84434.69</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6066,7 +6066,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>77229.549999999988</x:v>
+        <x:v>77229.55</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6096,7 +6096,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>76627.699999999968</x:v>
+        <x:v>76627.699999999983</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6126,7 +6126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>76181.999999999985</x:v>
+        <x:v>76182</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6231,7 +6231,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>71312.7</x:v>
+        <x:v>71312.700000000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6276,7 +6276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>68653.470000000016</x:v>
+        <x:v>68653.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6411,7 +6411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>62390.520000000004</x:v>
+        <x:v>62390.52</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6456,7 +6456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>57753.909999999996</x:v>
+        <x:v>57753.91</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6471,7 +6471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>57639.16</x:v>
+        <x:v>57639.159999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6486,7 +6486,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>56537.770000000004</x:v>
+        <x:v>56537.77</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6501,7 +6501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>56532.469999999994</x:v>
+        <x:v>56532.469999999979</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6636,7 +6636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>49771.439999999995</x:v>
+        <x:v>49771.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6651,7 +6651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48539.63</x:v>
+        <x:v>48539.630000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6756,7 +6756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>42692.64</x:v>
+        <x:v>42692.639999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6816,7 +6816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>37234.009999999995</x:v>
+        <x:v>37234.01</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6981,7 +6981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30582.91</x:v>
+        <x:v>30582.910000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7056,7 +7056,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>26480.15</x:v>
+        <x:v>26480.149999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7071,7 +7071,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>25933.63</x:v>
+        <x:v>25933.629999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7101,7 +7101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>25033.899999999998</x:v>
+        <x:v>25033.9</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7506,7 +7506,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6825.6</x:v>
+        <x:v>6825.5999999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7881,7 +7881,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>225.56999999999996</x:v>
+        <x:v>225.57</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -8106,7 +8106,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35.290000000000006</x:v>
+        <x:v>35.29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -8136,7 +8136,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30.020000000000003</x:v>
+        <x:v>30.02</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rfcf32e24496846c3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Re8285bab90a54e2a"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -81,7 +81,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>16539516.639999999</x:v>
+        <x:v>16539516.64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -96,7 +96,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>8175440.9200000009</x:v>
+        <x:v>8175440.92</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -111,7 +111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>7269196.6</x:v>
+        <x:v>7269196.5999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -126,7 +126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6270056.2299999995</x:v>
+        <x:v>6270056.2300000023</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -291,7 +291,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3799174.7600000002</x:v>
+        <x:v>3799174.76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -336,7 +336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3346244.74</x:v>
+        <x:v>3346244.7400000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -351,7 +351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3221357.02</x:v>
+        <x:v>3221357.0200000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -381,7 +381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2855784.31</x:v>
+        <x:v>2855784.3099999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -396,7 +396,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2827232.2499999991</x:v>
+        <x:v>2827232.2499999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -411,7 +411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2743189.66</x:v>
+        <x:v>2743189.6600000015</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -426,7 +426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2581431.3199999989</x:v>
+        <x:v>2581431.32</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -471,7 +471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2236884.8099999996</x:v>
+        <x:v>2236884.81</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -486,7 +486,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2231422.94</x:v>
+        <x:v>2231422.9400000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -501,7 +501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2121755.6300000004</x:v>
+        <x:v>2121755.63</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -516,7 +516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2117392.9299999997</x:v>
+        <x:v>2117392.93</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -561,7 +561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1983752.7900000005</x:v>
+        <x:v>1983752.7899999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -576,7 +576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1879667.58</x:v>
+        <x:v>1879667.5799999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -606,7 +606,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1844934.0699999998</x:v>
+        <x:v>1844934.0699999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -636,7 +636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1797450.0800000003</x:v>
+        <x:v>1797450.08</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -651,7 +651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1791643.41</x:v>
+        <x:v>1791643.4099999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -711,7 +711,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1626615.0899999999</x:v>
+        <x:v>1626615.09</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -786,7 +786,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1422772.52</x:v>
+        <x:v>1422772.5200000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -801,7 +801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1419600.76</x:v>
+        <x:v>1419600.7599999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -816,7 +816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1378132.46</x:v>
+        <x:v>1378132.4599999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -846,7 +846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1306126.2600000002</x:v>
+        <x:v>1306126.26</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -876,7 +876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1290059.3700000003</x:v>
+        <x:v>1290059.37</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -906,7 +906,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1277498.7300000002</x:v>
+        <x:v>1277498.7300000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -966,7 +966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1250991.8400000005</x:v>
+        <x:v>1250991.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -981,7 +981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1238484.5700000003</x:v>
+        <x:v>1238484.57</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -996,7 +996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1200255.5699999998</x:v>
+        <x:v>1200255.57</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1011,7 +1011,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1175651.2899999998</x:v>
+        <x:v>1175651.29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1071,7 +1071,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1084969.5899999999</x:v>
+        <x:v>1084969.5900000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1101,7 +1101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1064630.72</x:v>
+        <x:v>1064630.7200000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1131,7 +1131,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1051148.3000000003</x:v>
+        <x:v>1051148.3</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1161,7 +1161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1037677.5000000002</x:v>
+        <x:v>1037677.5000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1176,7 +1176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1013802.39</x:v>
+        <x:v>1013802.3899999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1206,7 +1206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>987662.96000000008</x:v>
+        <x:v>987662.96</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1251,7 +1251,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>978587.30999999982</x:v>
+        <x:v>978587.30999999971</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1281,7 +1281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>973804.57</x:v>
+        <x:v>973804.56999999983</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1311,7 +1311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>966536.16999999981</x:v>
+        <x:v>966536.17000000016</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1326,7 +1326,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>943129.32000000007</x:v>
+        <x:v>943129.32</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1341,7 +1341,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>942887.61</x:v>
+        <x:v>942887.60999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1356,7 +1356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>896242.30999999994</x:v>
+        <x:v>896242.31</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1371,7 +1371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>894302.22000000032</x:v>
+        <x:v>894302.22000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1401,7 +1401,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>876630.2300000001</x:v>
+        <x:v>876630.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1416,7 +1416,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>875299.66999999981</x:v>
+        <x:v>875299.67</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1491,7 +1491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>832725.69000000006</x:v>
+        <x:v>832725.69</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1551,7 +1551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>824580.44000000006</x:v>
+        <x:v>824580.44000000018</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1566,7 +1566,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>824331.17999999993</x:v>
+        <x:v>824331.18</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1581,7 +1581,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>813498.65</x:v>
+        <x:v>813498.64999999979</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1596,7 +1596,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>808867.09000000008</x:v>
+        <x:v>808867.09</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1626,7 +1626,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>798774.7</x:v>
+        <x:v>798774.70000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1641,7 +1641,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>793496.49</x:v>
+        <x:v>793496.48999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1656,7 +1656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>792370.5299999998</x:v>
+        <x:v>792370.53000000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1701,7 +1701,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>768699.3400000002</x:v>
+        <x:v>768699.34</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1716,7 +1716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>762102.01</x:v>
+        <x:v>762102.00999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1731,7 +1731,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>761976.66000000015</x:v>
+        <x:v>761976.6599999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1746,7 +1746,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>725719.94000000018</x:v>
+        <x:v>725719.94</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1836,7 +1836,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>677814.43000000028</x:v>
+        <x:v>677814.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1866,7 +1866,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>662386.16</x:v>
+        <x:v>662386.15999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1926,7 +1926,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>647237.43</x:v>
+        <x:v>647237.42999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1986,7 +1986,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>621923.14000000013</x:v>
+        <x:v>621923.14</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2001,7 +2001,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>621691.55</x:v>
+        <x:v>621691.54999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2016,7 +2016,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>619600.28</x:v>
+        <x:v>619600.27999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2046,7 +2046,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>615289.30999999994</x:v>
+        <x:v>615289.31</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2061,7 +2061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>607208.45000000007</x:v>
+        <x:v>607208.45000000019</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2076,7 +2076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>605226.23</x:v>
+        <x:v>605226.2300000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2106,7 +2106,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>592488.44</x:v>
+        <x:v>592488.44000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2166,7 +2166,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>572856.28000000014</x:v>
+        <x:v>572856.28</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2181,7 +2181,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>571563.5</x:v>
+        <x:v>571563.49999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2226,7 +2226,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>563577.6399999999</x:v>
+        <x:v>563577.64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2286,7 +2286,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>548399.37999999989</x:v>
+        <x:v>548399.38000000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2316,7 +2316,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>539995.67000000016</x:v>
+        <x:v>539995.67</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2331,7 +2331,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>539041.77</x:v>
+        <x:v>539041.7699999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2391,7 +2391,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>516337.60000000003</x:v>
+        <x:v>516337.6</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2496,7 +2496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>472283.47</x:v>
+        <x:v>472283.47000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2511,7 +2511,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>459594.23999999993</x:v>
+        <x:v>459594.24</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2541,7 +2541,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>458474.57999999996</x:v>
+        <x:v>458474.58000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2571,7 +2571,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>454561.59</x:v>
+        <x:v>454561.58999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2616,7 +2616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>438585.02</x:v>
+        <x:v>438585.01999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2631,7 +2631,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>434941.70999999996</x:v>
+        <x:v>434941.71</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2691,7 +2691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>424846.83999999997</x:v>
+        <x:v>424846.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2706,7 +2706,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>424222.55000000005</x:v>
+        <x:v>424222.55</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2736,7 +2736,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>422220.68</x:v>
+        <x:v>422220.68000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2796,7 +2796,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>405637.91</x:v>
+        <x:v>405637.90999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2856,7 +2856,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>389397.67000000004</x:v>
+        <x:v>389397.66999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2886,7 +2886,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>384240.35000000003</x:v>
+        <x:v>384240.35</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2901,7 +2901,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>380103.20000000007</x:v>
+        <x:v>380103.2</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2916,7 +2916,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>373359.24</x:v>
+        <x:v>373359.23999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2931,7 +2931,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>373340.74</x:v>
+        <x:v>373340.74000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2946,7 +2946,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>372030.88999999996</x:v>
+        <x:v>372030.89</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2961,7 +2961,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>370617.52</x:v>
+        <x:v>370617.51999999984</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2991,7 +2991,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>366913.07999999996</x:v>
+        <x:v>366913.08</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3006,7 +3006,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>366443.55</x:v>
+        <x:v>366443.55000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3036,7 +3036,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>364130.18</x:v>
+        <x:v>364130.17999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3066,7 +3066,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>361688.82</x:v>
+        <x:v>361688.81999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3081,7 +3081,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>355448.77</x:v>
+        <x:v>355448.76999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3156,7 +3156,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>343695.47</x:v>
+        <x:v>343695.47000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3201,7 +3201,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>340467.77999999997</x:v>
+        <x:v>340467.78</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3246,7 +3246,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>331852.79</x:v>
+        <x:v>331852.78999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3276,7 +3276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>326615.58999999991</x:v>
+        <x:v>326615.58999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3291,7 +3291,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>325467.88000000006</x:v>
+        <x:v>325467.87999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3321,7 +3321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>323252.49999999994</x:v>
+        <x:v>323252.5</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3336,7 +3336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>323198.88999999996</x:v>
+        <x:v>323198.89</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3366,7 +3366,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>315927.93999999994</x:v>
+        <x:v>315927.94</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3441,7 +3441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>306888.89999999997</x:v>
+        <x:v>306888.9</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3456,7 +3456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>305028.53999999992</x:v>
+        <x:v>305028.54</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3501,7 +3501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>296456.76</x:v>
+        <x:v>296456.75999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3531,7 +3531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>292780.91000000003</x:v>
+        <x:v>292780.91</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3546,7 +3546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>292620.65000000008</x:v>
+        <x:v>292620.64999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3636,7 +3636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>279352.56</x:v>
+        <x:v>279352.56000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3666,7 +3666,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>274989.55</x:v>
+        <x:v>274989.55000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3696,7 +3696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>267749.28</x:v>
+        <x:v>267749.27999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3801,7 +3801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>260795.87999999998</x:v>
+        <x:v>260795.88</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3846,7 +3846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>251572.05999999997</x:v>
+        <x:v>251572.06</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3906,7 +3906,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>244709.32000000004</x:v>
+        <x:v>244709.32</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3951,7 +3951,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>239403.47</x:v>
+        <x:v>239403.47000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3981,7 +3981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>239271.27</x:v>
+        <x:v>239271.26999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4011,7 +4011,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>235487.83</x:v>
+        <x:v>235487.83000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4041,7 +4041,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>224516.31000000003</x:v>
+        <x:v>224516.31</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4101,7 +4101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>215957.58000000002</x:v>
+        <x:v>215957.58</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4131,7 +4131,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>214400.61000000002</x:v>
+        <x:v>214400.61000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4191,7 +4191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206290.11000000002</x:v>
+        <x:v>206290.11</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4206,7 +4206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206139.31</x:v>
+        <x:v>206139.30999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4251,7 +4251,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>203809.79</x:v>
+        <x:v>203809.78999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4281,7 +4281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>201771.80000000005</x:v>
+        <x:v>201771.8</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4296,7 +4296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>201756.40999999997</x:v>
+        <x:v>201756.40999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4311,7 +4311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>199629.68</x:v>
+        <x:v>199629.68000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4341,7 +4341,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>194081.49</x:v>
+        <x:v>194081.49000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4386,7 +4386,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>192766.18</x:v>
+        <x:v>192766.17999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4416,7 +4416,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>189632.77</x:v>
+        <x:v>189632.76999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4476,7 +4476,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>178547.84000000003</x:v>
+        <x:v>178547.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4491,7 +4491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>178336.9</x:v>
+        <x:v>178336.90000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4536,7 +4536,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>170325.49000000002</x:v>
+        <x:v>170325.49</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4566,7 +4566,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>167961.37</x:v>
+        <x:v>167961.36999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4581,7 +4581,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>167432.37999999998</x:v>
+        <x:v>167432.38</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4596,7 +4596,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>166884.97999999998</x:v>
+        <x:v>166884.97999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4611,7 +4611,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>163773.82000000004</x:v>
+        <x:v>163773.82</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4641,7 +4641,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>160769.43000000008</x:v>
+        <x:v>160769.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4686,7 +4686,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>159711.24000000002</x:v>
+        <x:v>159711.24</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4746,7 +4746,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158424.58</x:v>
+        <x:v>158424.58000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4791,7 +4791,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>156601.92</x:v>
+        <x:v>156601.91999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4956,7 +4956,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>140294.43</x:v>
+        <x:v>140294.43000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5016,7 +5016,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139124.08000000002</x:v>
+        <x:v>139124.08000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5046,7 +5046,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>138223.13000000003</x:v>
+        <x:v>138223.13</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5061,7 +5061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>137271.72999999998</x:v>
+        <x:v>137271.73</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5106,7 +5106,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>133701.02999999997</x:v>
+        <x:v>133701.03</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5196,7 +5196,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>129632.08</x:v>
+        <x:v>129632.07999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5226,7 +5226,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>128852.09</x:v>
+        <x:v>128852.08999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5241,7 +5241,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>128309.35</x:v>
+        <x:v>128309.35000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5256,7 +5256,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>125076.38</x:v>
+        <x:v>125076.37999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5331,7 +5331,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>119409.94</x:v>
+        <x:v>119409.93999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5346,7 +5346,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>118937.70000000001</x:v>
+        <x:v>118937.69999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5361,7 +5361,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>116577.84999999999</x:v>
+        <x:v>116577.85</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5406,7 +5406,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>114083.47</x:v>
+        <x:v>114083.47000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5466,7 +5466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107535.33000000002</x:v>
+        <x:v>107535.33000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5481,7 +5481,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107468.37000000001</x:v>
+        <x:v>107468.37</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5511,7 +5511,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>106916.91999999998</x:v>
+        <x:v>106916.92000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5541,7 +5541,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104302.34</x:v>
+        <x:v>104302.34000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5586,7 +5586,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102973.28999999998</x:v>
+        <x:v>102973.29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5676,7 +5676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>101613.6</x:v>
+        <x:v>101613.59999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5691,7 +5691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>101070.34</x:v>
+        <x:v>101070.33999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5751,7 +5751,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>99267.839999999982</x:v>
+        <x:v>99267.840000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5781,7 +5781,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>99224.800000000017</x:v>
+        <x:v>99224.8</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5796,7 +5796,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>98559.050000000017</x:v>
+        <x:v>98559.05</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5811,7 +5811,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>98121.23000000001</x:v>
+        <x:v>98121.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5826,7 +5826,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>96509.549999999988</x:v>
+        <x:v>96509.55</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5856,7 +5856,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>95585.38</x:v>
+        <x:v>95585.380000000019</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5931,7 +5931,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>88113.659999999989</x:v>
+        <x:v>88113.66</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5946,7 +5946,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>87968.92</x:v>
+        <x:v>87968.920000000027</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5976,7 +5976,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>84434.55</x:v>
+        <x:v>84434.549999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5991,7 +5991,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>82868.699999999983</x:v>
+        <x:v>82868.7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6021,7 +6021,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>80531.24</x:v>
+        <x:v>80531.239999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6051,7 +6051,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>78900.01</x:v>
+        <x:v>78900.010000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6066,7 +6066,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>77170.14</x:v>
+        <x:v>77170.140000000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6081,7 +6081,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>76613.109999999986</x:v>
+        <x:v>76613.11</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6141,7 +6141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>74580.590000000011</x:v>
+        <x:v>74580.59</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6216,7 +6216,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>72421.790000000008</x:v>
+        <x:v>72421.79</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6351,7 +6351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>65934.939999999988</x:v>
+        <x:v>65934.94</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6471,7 +6471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>57513.59</x:v>
+        <x:v>57513.590000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6501,7 +6501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>56529.239999999991</x:v>
+        <x:v>56529.24</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6516,7 +6516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>56326.460000000006</x:v>
+        <x:v>56326.46</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6546,7 +6546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>53511.799999999988</x:v>
+        <x:v>53511.799999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6576,7 +6576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50196.82</x:v>
+        <x:v>50196.820000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6591,7 +6591,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50182.03</x:v>
+        <x:v>50182.030000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6621,7 +6621,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50070.649999999994</x:v>
+        <x:v>50070.650000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6651,7 +6651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48504.21</x:v>
+        <x:v>48504.209999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6786,7 +6786,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>40535.68</x:v>
+        <x:v>40535.680000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6861,7 +6861,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35108.97</x:v>
+        <x:v>35108.969999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6906,7 +6906,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>33832.34</x:v>
+        <x:v>33832.340000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6951,7 +6951,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>31296.070000000003</x:v>
+        <x:v>31296.07</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6996,7 +6996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30220.7</x:v>
+        <x:v>30220.699999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7101,7 +7101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>25039.549999999996</x:v>
+        <x:v>25039.55</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7131,7 +7131,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>22504.550000000003</x:v>
+        <x:v>22504.55</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7161,7 +7161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>21897.370000000003</x:v>
+        <x:v>21897.37</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7176,7 +7176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>21520.89</x:v>
+        <x:v>21520.890000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7206,7 +7206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>20572.749999999996</x:v>
+        <x:v>20572.75</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7281,7 +7281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>15777.8</x:v>
+        <x:v>15777.799999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7311,7 +7311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14313.2</x:v>
+        <x:v>14313.199999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7326,7 +7326,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14171.75</x:v>
+        <x:v>14171.749999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7566,7 +7566,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4907.9700000000012</x:v>
+        <x:v>4907.97</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -8106,7 +8106,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35.29</x:v>
+        <x:v>35.290000000000006</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Re8285bab90a54e2a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R14b0e4155be94366"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>8175440.92</x:v>
+        <x:v>8175440.9200000018</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -111,7 +111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>7269196.5999999987</x:v>
+        <x:v>7269196.6</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -126,7 +126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6270056.2300000023</x:v>
+        <x:v>6270056.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -171,7 +171,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4489976.55</x:v>
+        <x:v>4489976.5500000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -276,7 +276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3819302.2399999998</x:v>
+        <x:v>3819302.24</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -291,7 +291,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3799174.76</x:v>
+        <x:v>3799174.7599999984</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -321,7 +321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3410708.18</x:v>
+        <x:v>3410708.1799999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -366,7 +366,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3003289.12</x:v>
+        <x:v>3003289.1199999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -381,7 +381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2855784.3099999991</x:v>
+        <x:v>2855784.3099999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -411,7 +411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2743189.6600000015</x:v>
+        <x:v>2743189.66</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -456,7 +456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2408072.83</x:v>
+        <x:v>2408072.8299999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -471,7 +471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2236884.81</x:v>
+        <x:v>2236884.8099999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -486,7 +486,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2231422.9400000004</x:v>
+        <x:v>2231422.9399999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -501,7 +501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2121755.63</x:v>
+        <x:v>2121755.6300000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -531,7 +531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2095465.92</x:v>
+        <x:v>2095465.9200000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -546,7 +546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1998794.29</x:v>
+        <x:v>1998794.2899999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -576,7 +576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1879667.5799999998</x:v>
+        <x:v>1879667.5800000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -591,7 +591,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1869880.8000000003</x:v>
+        <x:v>1869880.8</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -606,7 +606,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1844934.0699999996</x:v>
+        <x:v>1844934.07</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -621,7 +621,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1815652.1500000001</x:v>
+        <x:v>1815652.15</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -636,7 +636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1797450.08</x:v>
+        <x:v>1797450.0800000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -651,7 +651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1791643.4099999997</x:v>
+        <x:v>1791643.41</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -681,7 +681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1668649.9900000002</x:v>
+        <x:v>1668649.99</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -696,7 +696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1642481.06</x:v>
+        <x:v>1642481.0599999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -711,7 +711,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1626615.09</x:v>
+        <x:v>1626615.0899999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -726,7 +726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1572225.5999999999</x:v>
+        <x:v>1572225.6</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -756,7 +756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1452413.06</x:v>
+        <x:v>1452413.0599999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -771,7 +771,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1436364.2799999998</x:v>
+        <x:v>1436364.2799999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -786,7 +786,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1422772.5200000003</x:v>
+        <x:v>1422772.52</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -801,7 +801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1419600.7599999998</x:v>
+        <x:v>1419600.76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -816,7 +816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1378132.4599999997</x:v>
+        <x:v>1378132.4600000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -831,7 +831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1350158.5399999998</x:v>
+        <x:v>1350158.54</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -891,7 +891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1289642.17</x:v>
+        <x:v>1289642.1699999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -906,7 +906,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1277498.7300000004</x:v>
+        <x:v>1277498.73</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -921,7 +921,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1270692.2800000003</x:v>
+        <x:v>1270692.28</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -936,7 +936,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1267153.2599999998</x:v>
+        <x:v>1267153.26</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -966,7 +966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1250991.84</x:v>
+        <x:v>1250991.8400000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1026,7 +1026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1153199.38</x:v>
+        <x:v>1153199.3800000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1071,7 +1071,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1084969.5900000003</x:v>
+        <x:v>1084969.5899999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1101,7 +1101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1064630.7200000002</x:v>
+        <x:v>1064630.72</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1131,7 +1131,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1051148.3</x:v>
+        <x:v>1051148.3000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1161,7 +1161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1037677.5000000003</x:v>
+        <x:v>1037677.5</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1176,7 +1176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1013802.3899999999</x:v>
+        <x:v>1013802.39</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1191,7 +1191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>992330.1</x:v>
+        <x:v>992330.10000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1251,7 +1251,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>978587.30999999971</x:v>
+        <x:v>978587.30999999982</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1266,7 +1266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>976714.2</x:v>
+        <x:v>976714.20000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1296,7 +1296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>970313.85000000009</x:v>
+        <x:v>970313.85</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1311,7 +1311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>966536.17000000016</x:v>
+        <x:v>966536.16999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1326,7 +1326,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>943129.32</x:v>
+        <x:v>943129.32000000018</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1356,7 +1356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>896242.31</x:v>
+        <x:v>896242.30999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1371,7 +1371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>894302.22000000009</x:v>
+        <x:v>894302.21999999986</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1491,7 +1491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>832725.69</x:v>
+        <x:v>832725.69000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1506,7 +1506,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>831164.08</x:v>
+        <x:v>831164.07999999984</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1521,7 +1521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>829350.28999999992</x:v>
+        <x:v>829350.29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1551,7 +1551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>824580.44000000018</x:v>
+        <x:v>824580.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1566,7 +1566,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>824331.18</x:v>
+        <x:v>824331.17999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1611,7 +1611,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>805852.29000000027</x:v>
+        <x:v>805852.29000000015</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1641,7 +1641,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>793496.48999999987</x:v>
+        <x:v>793496.49</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1656,7 +1656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>792370.53000000014</x:v>
+        <x:v>792370.5299999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1671,7 +1671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>792320.21000000008</x:v>
+        <x:v>792320.2100000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1716,7 +1716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>762102.00999999989</x:v>
+        <x:v>762102.00999999978</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1731,7 +1731,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>761976.6599999998</x:v>
+        <x:v>761976.66000000015</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1806,7 +1806,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>685673.88</x:v>
+        <x:v>685673.87999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1821,7 +1821,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>685539.18</x:v>
+        <x:v>685539.17999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1866,7 +1866,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>662386.15999999992</x:v>
+        <x:v>662386.16</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1926,7 +1926,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>647237.42999999993</x:v>
+        <x:v>647237.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1941,7 +1941,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>645576.30999999994</x:v>
+        <x:v>645576.31</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1956,7 +1956,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>632455.78</x:v>
+        <x:v>632455.77999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1971,7 +1971,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>631300.29</x:v>
+        <x:v>631300.2899999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2016,7 +2016,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>619600.27999999991</x:v>
+        <x:v>619600.28</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2046,7 +2046,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>615289.31</x:v>
+        <x:v>615289.30999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2076,7 +2076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>605226.2300000001</x:v>
+        <x:v>605226.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2091,7 +2091,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>598396.87000000011</x:v>
+        <x:v>598396.87</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2106,7 +2106,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>592488.44000000006</x:v>
+        <x:v>592488.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2166,7 +2166,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>572856.28</x:v>
+        <x:v>572856.27999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2181,7 +2181,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>571563.49999999988</x:v>
+        <x:v>571563.5</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2211,7 +2211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>567377.60000000009</x:v>
+        <x:v>567377.6</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2241,7 +2241,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>557320.41</x:v>
+        <x:v>557320.40999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2256,7 +2256,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>556607.2300000001</x:v>
+        <x:v>556607.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2271,7 +2271,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>550504.98</x:v>
+        <x:v>550504.9800000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2286,7 +2286,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>548399.38000000012</x:v>
+        <x:v>548399.38</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2361,7 +2361,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>524953.79</x:v>
+        <x:v>524953.78999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2391,7 +2391,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>516337.6</x:v>
+        <x:v>516337.60000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2421,7 +2421,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>506488.57000000007</x:v>
+        <x:v>506488.56999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2436,7 +2436,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>501630.95</x:v>
+        <x:v>501630.94999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2466,7 +2466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>493209.85</x:v>
+        <x:v>493209.85000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2481,7 +2481,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>485265.04000000004</x:v>
+        <x:v>485265.0400000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2496,7 +2496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>472283.47000000003</x:v>
+        <x:v>472283.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2541,7 +2541,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>458474.58000000007</x:v>
+        <x:v>458474.58</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2556,7 +2556,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>455446.76</x:v>
+        <x:v>455446.76000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2586,7 +2586,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>449009.21</x:v>
+        <x:v>449009.20999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2616,7 +2616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>438585.01999999996</x:v>
+        <x:v>438585.02</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2676,7 +2676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>426276.70000000007</x:v>
+        <x:v>426276.69999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2691,7 +2691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>424846.84</x:v>
+        <x:v>424846.83999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2721,7 +2721,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>424143.69999999995</x:v>
+        <x:v>424143.7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2766,7 +2766,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>417617.5</x:v>
+        <x:v>417617.50000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2781,7 +2781,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>415888.37</x:v>
+        <x:v>415888.37000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2856,7 +2856,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>389397.66999999993</x:v>
+        <x:v>389397.67000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2931,7 +2931,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>373340.74000000005</x:v>
+        <x:v>373340.74</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2946,7 +2946,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>372030.89</x:v>
+        <x:v>372030.88999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2961,7 +2961,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>370617.51999999984</x:v>
+        <x:v>370617.51999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2976,7 +2976,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>368914.37999999989</x:v>
+        <x:v>368914.37999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2991,7 +2991,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>366913.08</x:v>
+        <x:v>366913.07999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3021,7 +3021,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>364639.97999999986</x:v>
+        <x:v>364639.98000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3066,7 +3066,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>361688.81999999995</x:v>
+        <x:v>361688.82</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3081,7 +3081,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>355448.76999999996</x:v>
+        <x:v>355448.77</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3126,7 +3126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>346953.52</x:v>
+        <x:v>346953.51999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3156,7 +3156,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>343695.47000000003</x:v>
+        <x:v>343695.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3246,7 +3246,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>331852.78999999992</x:v>
+        <x:v>331852.7900000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3261,7 +3261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>329405.64000000007</x:v>
+        <x:v>329405.64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3276,7 +3276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>326615.58999999997</x:v>
+        <x:v>326615.59</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3291,7 +3291,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>325467.87999999995</x:v>
+        <x:v>325467.88</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3336,7 +3336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>323198.89</x:v>
+        <x:v>323198.88999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3351,7 +3351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>322539.33</x:v>
+        <x:v>322539.32999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3426,7 +3426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>308542.86000000004</x:v>
+        <x:v>308542.8600000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3456,7 +3456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>305028.54</x:v>
+        <x:v>305028.53999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3531,7 +3531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>292780.91</x:v>
+        <x:v>292780.91000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3546,7 +3546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>292620.64999999991</x:v>
+        <x:v>292620.64999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3561,7 +3561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>288191.83</x:v>
+        <x:v>288191.82999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3636,7 +3636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>279352.56000000006</x:v>
+        <x:v>279352.56</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3651,7 +3651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>276163.58999999997</x:v>
+        <x:v>276163.59</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3696,7 +3696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>267749.27999999997</x:v>
+        <x:v>267749.28</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3726,7 +3726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>265040.42</x:v>
+        <x:v>265040.42000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3801,7 +3801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>260795.88</x:v>
+        <x:v>260795.87999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3846,7 +3846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>251572.06</x:v>
+        <x:v>251572.06000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3876,7 +3876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>247892.8</x:v>
+        <x:v>247892.80000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3966,7 +3966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>239294.16000000003</x:v>
+        <x:v>239294.16</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3981,7 +3981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>239271.26999999996</x:v>
+        <x:v>239271.27000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4041,7 +4041,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>224516.31</x:v>
+        <x:v>224516.31000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4056,7 +4056,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>221384</x:v>
+        <x:v>221383.99999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4101,7 +4101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>215957.58</x:v>
+        <x:v>215957.57999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4116,7 +4116,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>215219.12</x:v>
+        <x:v>215219.11999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4131,7 +4131,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>214400.61000000004</x:v>
+        <x:v>214400.61000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4146,7 +4146,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>209298.37000000002</x:v>
+        <x:v>209298.37000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4161,7 +4161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>208953.88</x:v>
+        <x:v>208953.88000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4176,7 +4176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>208565.67000000007</x:v>
+        <x:v>208565.66999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4191,7 +4191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206290.11</x:v>
+        <x:v>206290.11000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4206,7 +4206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206139.30999999997</x:v>
+        <x:v>206139.31</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4221,7 +4221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206055.02000000002</x:v>
+        <x:v>206055.02</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4236,7 +4236,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>204606.22</x:v>
+        <x:v>204606.21999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4251,7 +4251,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>203809.78999999998</x:v>
+        <x:v>203809.78999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4266,7 +4266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>202317.58</x:v>
+        <x:v>202317.58000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4296,7 +4296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>201756.40999999995</x:v>
+        <x:v>201756.41000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4311,7 +4311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>199629.68000000002</x:v>
+        <x:v>199629.68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4371,7 +4371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>193228.19999999998</x:v>
+        <x:v>193228.2</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4401,7 +4401,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>192715.85</x:v>
+        <x:v>192715.84999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4431,7 +4431,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>186733.35</x:v>
+        <x:v>186733.35000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4461,7 +4461,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>181769.58</x:v>
+        <x:v>181769.58000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4476,7 +4476,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>178547.84</x:v>
+        <x:v>178547.84000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4491,7 +4491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>178336.90000000002</x:v>
+        <x:v>178336.9</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4566,7 +4566,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>167961.36999999997</x:v>
+        <x:v>167961.37</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4596,7 +4596,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>166884.97999999995</x:v>
+        <x:v>166884.97999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4626,7 +4626,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>162018.64</x:v>
+        <x:v>162018.64000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4641,7 +4641,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>160769.43</x:v>
+        <x:v>160769.43000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4656,7 +4656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>160350.52</x:v>
+        <x:v>160350.52000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4671,7 +4671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>160072.75</x:v>
+        <x:v>160072.75000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4746,7 +4746,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158424.58000000002</x:v>
+        <x:v>158424.58</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4761,7 +4761,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158331.73</x:v>
+        <x:v>158331.72999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4776,7 +4776,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158267.79</x:v>
+        <x:v>158267.79000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4791,7 +4791,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>156601.91999999998</x:v>
+        <x:v>156601.92</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4836,7 +4836,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>149542.59000000003</x:v>
+        <x:v>149542.59</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4866,7 +4866,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>146313.21</x:v>
+        <x:v>146313.21000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4881,7 +4881,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>143363.86</x:v>
+        <x:v>143363.85999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4896,7 +4896,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>142066.2</x:v>
+        <x:v>142066.20000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4926,7 +4926,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>140897.42</x:v>
+        <x:v>140897.41999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4956,7 +4956,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>140294.43000000002</x:v>
+        <x:v>140294.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4971,7 +4971,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139869.23</x:v>
+        <x:v>139869.22999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5121,7 +5121,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>133221.90000000002</x:v>
+        <x:v>133221.9</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5151,7 +5151,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>131178.96000000002</x:v>
+        <x:v>131178.96</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5211,7 +5211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>129253.11</x:v>
+        <x:v>129253.10999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5226,7 +5226,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>128852.08999999998</x:v>
+        <x:v>128852.09</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5241,7 +5241,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>128309.35000000002</x:v>
+        <x:v>128309.34999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5256,7 +5256,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>125076.37999999999</x:v>
+        <x:v>125076.38</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5271,7 +5271,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>124760.45999999999</x:v>
+        <x:v>124760.46</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5316,7 +5316,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>121090.6</x:v>
+        <x:v>121090.60000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5331,7 +5331,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>119409.93999999999</x:v>
+        <x:v>119409.94000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5346,7 +5346,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>118937.69999999998</x:v>
+        <x:v>118937.7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5361,7 +5361,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>116577.85</x:v>
+        <x:v>116577.84999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5406,7 +5406,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>114083.47000000002</x:v>
+        <x:v>114083.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5466,7 +5466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107535.33000000003</x:v>
+        <x:v>107535.33</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5496,7 +5496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107460.35</x:v>
+        <x:v>107460.34999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5511,7 +5511,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>106916.92000000001</x:v>
+        <x:v>106916.92</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5541,7 +5541,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104302.34000000001</x:v>
+        <x:v>104302.34</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5556,7 +5556,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104164.03000000001</x:v>
+        <x:v>104164.03</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5586,7 +5586,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102973.29</x:v>
+        <x:v>102973.29000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5646,7 +5646,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>101788.87</x:v>
+        <x:v>101788.87000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5661,7 +5661,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>101648.41</x:v>
+        <x:v>101648.40999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5676,7 +5676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>101613.59999999998</x:v>
+        <x:v>101613.6</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5706,7 +5706,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>100740.76</x:v>
+        <x:v>100740.76000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5736,7 +5736,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>100038.69000000003</x:v>
+        <x:v>100038.69000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5781,7 +5781,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>99224.8</x:v>
+        <x:v>99224.800000000017</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5796,7 +5796,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>98559.05</x:v>
+        <x:v>98559.049999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5811,7 +5811,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>98121.23</x:v>
+        <x:v>98121.229999999981</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5871,7 +5871,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>94530.98000000001</x:v>
+        <x:v>94530.979999999981</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5901,7 +5901,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>91282.949999999968</x:v>
+        <x:v>91282.95</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5931,7 +5931,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>88113.66</x:v>
+        <x:v>88113.659999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5946,7 +5946,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>87968.920000000027</x:v>
+        <x:v>87968.92</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5961,7 +5961,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>85983.32</x:v>
+        <x:v>85983.319999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5976,7 +5976,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>84434.549999999988</x:v>
+        <x:v>84434.550000000017</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6021,7 +6021,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>80531.239999999991</x:v>
+        <x:v>80531.24</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6066,7 +6066,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>77170.140000000014</x:v>
+        <x:v>77170.14</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6096,7 +6096,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>76307.24</x:v>
+        <x:v>76307.239999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6141,7 +6141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>74580.59</x:v>
+        <x:v>74580.590000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6216,7 +6216,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>72421.79</x:v>
+        <x:v>72421.790000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6276,7 +6276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>68686.41</x:v>
+        <x:v>68686.409999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6321,7 +6321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>67364.31</x:v>
+        <x:v>67364.310000000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6396,7 +6396,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>62935.92</x:v>
+        <x:v>62935.919999999984</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6426,7 +6426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>59345.95</x:v>
+        <x:v>59345.950000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6471,7 +6471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>57513.590000000004</x:v>
+        <x:v>57513.59</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6486,7 +6486,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>56563.739999999991</x:v>
+        <x:v>56563.740000000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6681,7 +6681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>47567.02</x:v>
+        <x:v>47567.020000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6741,7 +6741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>42712.500000000007</x:v>
+        <x:v>42712.5</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6786,7 +6786,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>40535.680000000008</x:v>
+        <x:v>40535.68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6816,7 +6816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>37251.62999999999</x:v>
+        <x:v>37251.63</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6906,7 +6906,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>33832.340000000004</x:v>
+        <x:v>33832.34</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6966,7 +6966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30834.25</x:v>
+        <x:v>30834.249999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6981,7 +6981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30589.24</x:v>
+        <x:v>30589.239999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6996,7 +6996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30220.699999999997</x:v>
+        <x:v>30220.7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7026,7 +7026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30001.19</x:v>
+        <x:v>30001.189999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7101,7 +7101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>25039.55</x:v>
+        <x:v>25039.549999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7131,7 +7131,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>22504.55</x:v>
+        <x:v>22504.550000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7161,7 +7161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>21897.37</x:v>
+        <x:v>21897.370000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7281,7 +7281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>15777.799999999997</x:v>
+        <x:v>15777.8</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7296,7 +7296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14651.57</x:v>
+        <x:v>14651.570000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7311,7 +7311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14313.199999999999</x:v>
+        <x:v>14313.2</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7671,7 +7671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1761.38</x:v>
+        <x:v>1761.3799999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -8136,7 +8136,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30.020000000000003</x:v>
+        <x:v>30.02</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rdbfe944a3da44d5a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R388d1285893d4ad0"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -81,7 +81,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>16541569.759999996</x:v>
+        <x:v>16541569.760000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -126,7 +126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6260890.9600000009</x:v>
+        <x:v>6260890.959999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -156,7 +156,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4876452.5700000012</x:v>
+        <x:v>4876452.5699999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -171,7 +171,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4491526.36</x:v>
+        <x:v>4491526.3599999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -186,7 +186,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4440501.84</x:v>
+        <x:v>4440501.8400000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -216,7 +216,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4259884.3600000013</x:v>
+        <x:v>4259884.36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -261,7 +261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3886611.1200000006</x:v>
+        <x:v>3886611.120000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -321,7 +321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3410595.0000000005</x:v>
+        <x:v>3410595</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -336,7 +336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3348053.08</x:v>
+        <x:v>3348053.0799999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -396,7 +396,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2828641.52</x:v>
+        <x:v>2828641.5200000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -426,7 +426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2583719</x:v>
+        <x:v>2583718.9999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -441,7 +441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2574809.9699999997</x:v>
+        <x:v>2574809.97</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -456,7 +456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2406433.6899999995</x:v>
+        <x:v>2406433.6900000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -516,7 +516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2115963.6200000006</x:v>
+        <x:v>2115963.62</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -546,7 +546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1998763.5799999998</x:v>
+        <x:v>1998763.5799999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -561,7 +561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1982299.57</x:v>
+        <x:v>1982299.5699999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -576,7 +576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1879955.7799999998</x:v>
+        <x:v>1879955.7799999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -591,7 +591,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1869771.04</x:v>
+        <x:v>1869771.0399999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -606,7 +606,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1845394.4599999997</x:v>
+        <x:v>1845394.46</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -621,7 +621,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1816459.91</x:v>
+        <x:v>1816459.9100000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -666,7 +666,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1674697.5</x:v>
+        <x:v>1674697.5000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -681,7 +681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1669547.21</x:v>
+        <x:v>1669547.2100000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -696,7 +696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1643867.29</x:v>
+        <x:v>1643867.2900000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -726,7 +726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1566784.78</x:v>
+        <x:v>1566784.7799999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -756,7 +756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1452054.9400000004</x:v>
+        <x:v>1452054.94</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -786,7 +786,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1423814.3699999999</x:v>
+        <x:v>1423814.3699999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -831,7 +831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1348402.2500000002</x:v>
+        <x:v>1348402.2499999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -846,7 +846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1306844.3900000001</x:v>
+        <x:v>1306844.39</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -876,7 +876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1290469.9299999997</x:v>
+        <x:v>1290469.93</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -951,7 +951,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1260598.28</x:v>
+        <x:v>1260598.2799999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -996,7 +996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1201122.67</x:v>
+        <x:v>1201122.6700000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1011,7 +1011,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1176363.94</x:v>
+        <x:v>1176363.9400000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1056,7 +1056,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1115470.61</x:v>
+        <x:v>1115470.6099999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1086,7 +1086,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1074732.1700000002</x:v>
+        <x:v>1074732.17</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1161,7 +1161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1037801.1</x:v>
+        <x:v>1037801.1000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1176,7 +1176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1013773.2499999999</x:v>
+        <x:v>1013773.2500000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1191,7 +1191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>992862.05</x:v>
+        <x:v>992862.04999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1236,7 +1236,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>986560.30999999994</x:v>
+        <x:v>986560.31</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1356,7 +1356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>894954.72</x:v>
+        <x:v>894954.72000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1386,7 +1386,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>885759.99</x:v>
+        <x:v>885759.99000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1401,7 +1401,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>877005.24999999988</x:v>
+        <x:v>877005.25</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1446,7 +1446,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>863482.57000000007</x:v>
+        <x:v>863482.56999999983</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1491,7 +1491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>832948.55000000016</x:v>
+        <x:v>832948.54999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1566,7 +1566,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>823277.27000000025</x:v>
+        <x:v>823277.27</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1611,7 +1611,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>805788.74000000022</x:v>
+        <x:v>805788.74000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1656,7 +1656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>790145.47999999986</x:v>
+        <x:v>790145.48</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1671,7 +1671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>788365.84999999986</x:v>
+        <x:v>788365.85</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1686,7 +1686,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>775208.42999999993</x:v>
+        <x:v>775208.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1701,7 +1701,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>768493.56999999983</x:v>
+        <x:v>768493.57</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1716,7 +1716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>762355.53999999992</x:v>
+        <x:v>762355.54</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1776,7 +1776,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>698216.47</x:v>
+        <x:v>698216.47000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1806,7 +1806,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>685999.71</x:v>
+        <x:v>685999.70999999985</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1836,7 +1836,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>677821.83999999985</x:v>
+        <x:v>677821.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1851,7 +1851,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>677326.95</x:v>
+        <x:v>677326.94999999984</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1866,7 +1866,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>661253.41999999993</x:v>
+        <x:v>661253.42</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1911,7 +1911,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>652254.36</x:v>
+        <x:v>652254.3600000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1986,7 +1986,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>621529.92</x:v>
+        <x:v>621529.91999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2061,7 +2061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>607190.72</x:v>
+        <x:v>607190.7200000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2106,7 +2106,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>592807.11</x:v>
+        <x:v>592807.11000000022</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2151,7 +2151,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>575833.3600000001</x:v>
+        <x:v>575833.36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2166,7 +2166,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>572717.96000000008</x:v>
+        <x:v>572717.96</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2196,7 +2196,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>567761.1100000001</x:v>
+        <x:v>567761.11</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2241,7 +2241,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>556904.54999999993</x:v>
+        <x:v>556904.55</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2271,7 +2271,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>550782.94000000018</x:v>
+        <x:v>550782.94000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2376,7 +2376,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>523403.78</x:v>
+        <x:v>523403.77999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2391,7 +2391,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>516325.02</x:v>
+        <x:v>516325.01999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2406,7 +2406,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>515737.35000000003</x:v>
+        <x:v>515737.34999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2421,7 +2421,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>506250.01</x:v>
+        <x:v>506250.00999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2451,7 +2451,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>494391.99</x:v>
+        <x:v>494391.99000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2481,7 +2481,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>483857.37000000005</x:v>
+        <x:v>483857.37</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2511,7 +2511,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>459306.70999999996</x:v>
+        <x:v>459306.71</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2526,7 +2526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>458821.94</x:v>
+        <x:v>458821.94000000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2541,7 +2541,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>458005.94000000006</x:v>
+        <x:v>458005.94</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2571,7 +2571,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>454194.46</x:v>
+        <x:v>454194.45999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2616,7 +2616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>437790.19</x:v>
+        <x:v>437790.18999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2661,7 +2661,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>429179.4</x:v>
+        <x:v>429179.39999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2676,7 +2676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>426490.01999999996</x:v>
+        <x:v>426490.02</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2706,7 +2706,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>424211.39</x:v>
+        <x:v>424211.39000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2841,7 +2841,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>389223.10000000003</x:v>
+        <x:v>389223.1</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2856,7 +2856,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>387989.11999999994</x:v>
+        <x:v>387989.12000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2886,7 +2886,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>379870.64000000013</x:v>
+        <x:v>379870.64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2931,7 +2931,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>371591.50000000006</x:v>
+        <x:v>371591.49999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3021,7 +3021,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>364317.47000000003</x:v>
+        <x:v>364317.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3096,7 +3096,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>349067.68999999994</x:v>
+        <x:v>349067.69000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3261,7 +3261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>326492.05</x:v>
+        <x:v>326492.04999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3336,7 +3336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>316083.91999999993</x:v>
+        <x:v>316083.92</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3486,7 +3486,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>294299.39</x:v>
+        <x:v>294299.38999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3531,7 +3531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>288009.32</x:v>
+        <x:v>288009.32000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3546,7 +3546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>287924.34</x:v>
+        <x:v>287924.33999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3636,7 +3636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>275349.39</x:v>
+        <x:v>275349.39000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3651,7 +3651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>274752.92000000004</x:v>
+        <x:v>274752.92</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3681,7 +3681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>267706.91</x:v>
+        <x:v>267706.91000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3696,7 +3696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>266291.65</x:v>
+        <x:v>266291.65000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3726,7 +3726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>264476.36</x:v>
+        <x:v>264476.35999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3771,7 +3771,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>262570.17999999993</x:v>
+        <x:v>262570.18</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3801,7 +3801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>252478.16</x:v>
+        <x:v>252478.16000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3816,7 +3816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>251721.94999999998</x:v>
+        <x:v>251721.95000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3846,7 +3846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>249063.50000000003</x:v>
+        <x:v>249063.5</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3861,7 +3861,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>247933.85000000003</x:v>
+        <x:v>247933.85</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3891,7 +3891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>244827.84</x:v>
+        <x:v>244827.83999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3951,7 +3951,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>239152.71</x:v>
+        <x:v>239152.71000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3966,7 +3966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>239131.09000000003</x:v>
+        <x:v>239131.09</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3981,7 +3981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>237688.17999999993</x:v>
+        <x:v>237688.18</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3996,7 +3996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>236329.01</x:v>
+        <x:v>236329.01000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4011,7 +4011,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>235307.27</x:v>
+        <x:v>235307.27000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4026,7 +4026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>228957.31</x:v>
+        <x:v>228957.31000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4131,7 +4131,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>214141.55000000002</x:v>
+        <x:v>214141.55000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4161,7 +4161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>208523.39999999997</x:v>
+        <x:v>208523.4</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4176,7 +4176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>207793.18000000002</x:v>
+        <x:v>207793.18</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4206,7 +4206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206227.36</x:v>
+        <x:v>206227.36000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4221,7 +4221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206159.53999999995</x:v>
+        <x:v>206159.53999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4236,7 +4236,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>204519.76000000004</x:v>
+        <x:v>204519.76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4296,7 +4296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>201662.62000000002</x:v>
+        <x:v>201662.61999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4356,7 +4356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>193205.21000000002</x:v>
+        <x:v>193205.21</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4446,7 +4446,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>185304.00999999998</x:v>
+        <x:v>185304.01</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4461,7 +4461,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>181670.73000000004</x:v>
+        <x:v>181670.72999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4536,7 +4536,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>170827.47</x:v>
+        <x:v>170827.47000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4551,7 +4551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>170266.34999999998</x:v>
+        <x:v>170266.35</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4581,7 +4581,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>168051.79000000004</x:v>
+        <x:v>168051.79</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4611,7 +4611,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>166963.34</x:v>
+        <x:v>166963.33999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4671,7 +4671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>160285.13999999998</x:v>
+        <x:v>160285.14</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4686,7 +4686,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>160155.8</x:v>
+        <x:v>160155.79999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4716,7 +4716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>159204.61</x:v>
+        <x:v>159204.61000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4761,7 +4761,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158464.49000000002</x:v>
+        <x:v>158464.49</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4866,7 +4866,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>149419.72</x:v>
+        <x:v>149419.71999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4986,7 +4986,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>140188.40000000002</x:v>
+        <x:v>140188.4</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5046,7 +5046,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139197.03999999998</x:v>
+        <x:v>139197.04</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5106,7 +5106,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>136521.88999999998</x:v>
+        <x:v>136521.89</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5211,7 +5211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>129302.77000000003</x:v>
+        <x:v>129302.77</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5256,7 +5256,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>128326.79999999997</x:v>
+        <x:v>128326.79999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5316,7 +5316,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>121300.27</x:v>
+        <x:v>121300.26999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5346,7 +5346,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>119410.65</x:v>
+        <x:v>119410.64999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5436,7 +5436,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>113887.09</x:v>
+        <x:v>113887.09000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5466,7 +5466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>108219.02999999998</x:v>
+        <x:v>108219.03</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5511,7 +5511,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107214.13</x:v>
+        <x:v>107214.12999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5526,7 +5526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>106938.37999999999</x:v>
+        <x:v>106938.38</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5601,7 +5601,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102679.45999999998</x:v>
+        <x:v>102679.45999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5616,7 +5616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102440.35</x:v>
+        <x:v>102440.34999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5631,7 +5631,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102166.45999999998</x:v>
+        <x:v>102166.45999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5676,7 +5676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>101614.93999999999</x:v>
+        <x:v>101614.94</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5721,7 +5721,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>100773.67999999998</x:v>
+        <x:v>100773.68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5781,7 +5781,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>99255.329999999973</x:v>
+        <x:v>99255.329999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5796,7 +5796,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>99225.02</x:v>
+        <x:v>99225.020000000019</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5871,7 +5871,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>94580.72</x:v>
+        <x:v>94580.719999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5901,7 +5901,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>91320.430000000008</x:v>
+        <x:v>91320.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5946,7 +5946,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>87737.02</x:v>
+        <x:v>87737.020000000019</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5961,7 +5961,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>85990.510000000009</x:v>
+        <x:v>85990.50999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5991,7 +5991,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>82901.62999999999</x:v>
+        <x:v>82901.63</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6021,7 +6021,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>80431.51</x:v>
+        <x:v>80431.510000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6066,7 +6066,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>77137.87999999999</x:v>
+        <x:v>77137.88</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6081,7 +6081,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>76572.709999999992</x:v>
+        <x:v>76572.71</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6111,7 +6111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>76216.279999999984</x:v>
+        <x:v>76216.280000000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6141,7 +6141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>74544.959999999992</x:v>
+        <x:v>74544.96</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6186,7 +6186,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>73545.890000000014</x:v>
+        <x:v>73545.89</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6201,7 +6201,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>72869.989999999991</x:v>
+        <x:v>72869.989999999976</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6426,7 +6426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>59467.639999999992</x:v>
+        <x:v>59467.64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6441,7 +6441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>59330.11</x:v>
+        <x:v>59330.109999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6501,7 +6501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>56593.369999999995</x:v>
+        <x:v>56593.37</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6546,7 +6546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>54215.049999999996</x:v>
+        <x:v>54215.049999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6606,7 +6606,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50518.69</x:v>
+        <x:v>50518.689999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6801,7 +6801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>38059.389999999992</x:v>
+        <x:v>38059.39</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6861,7 +6861,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35321.47</x:v>
+        <x:v>35321.470000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6876,7 +6876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35128.87</x:v>
+        <x:v>35128.869999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7101,7 +7101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>22512.44</x:v>
+        <x:v>22512.440000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7221,7 +7221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>16721.74</x:v>
+        <x:v>16721.739999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7266,7 +7266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14660.1</x:v>
+        <x:v>14660.099999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7281,7 +7281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14320.139999999998</x:v>
+        <x:v>14320.140000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7326,7 +7326,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>13661.519999999999</x:v>
+        <x:v>13661.52</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7521,7 +7521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>5879.33</x:v>
+        <x:v>5879.329999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7716,7 +7716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1112.3</x:v>
+        <x:v>1112.3000000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7866,7 +7866,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>225.57</x:v>
+        <x:v>225.57000000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -8121,7 +8121,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30.02</x:v>
+        <x:v>30.020000000000003</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R388d1285893d4ad0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R7a930bc26e1d44dc"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -81,7 +81,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>16541569.760000002</x:v>
+        <x:v>16541569.759999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -126,7 +126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6260890.959999999</x:v>
+        <x:v>6260890.9600000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -186,7 +186,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4440501.8400000008</x:v>
+        <x:v>4440501.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -216,7 +216,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4259884.36</x:v>
+        <x:v>4259884.3599999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -261,7 +261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3886611.120000001</x:v>
+        <x:v>3886611.1199999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -291,7 +291,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3800964.1500000004</x:v>
+        <x:v>3800964.1499999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -321,7 +321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3410595</x:v>
+        <x:v>3410595.0000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -336,7 +336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3348053.0799999996</x:v>
+        <x:v>3348053.0799999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -351,7 +351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3223017.6100000003</x:v>
+        <x:v>3223017.6100000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -366,7 +366,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3002998.29</x:v>
+        <x:v>3002998.2899999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -381,7 +381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2855670.4899999998</x:v>
+        <x:v>2855670.4900000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -396,7 +396,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2828641.5200000005</x:v>
+        <x:v>2828641.52</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -411,7 +411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2744693.2499999995</x:v>
+        <x:v>2744693.25</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -426,7 +426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2583718.9999999991</x:v>
+        <x:v>2583719</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -471,7 +471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2238586.81</x:v>
+        <x:v>2238586.8099999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -516,7 +516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2115963.62</x:v>
+        <x:v>2115963.6199999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -546,7 +546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1998763.5799999996</x:v>
+        <x:v>1998763.5799999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -591,7 +591,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1869771.0399999998</x:v>
+        <x:v>1869771.04</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -621,7 +621,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1816459.9100000004</x:v>
+        <x:v>1816459.9100000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -636,7 +636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1798381.6900000004</x:v>
+        <x:v>1798381.69</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -681,7 +681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1669547.2100000002</x:v>
+        <x:v>1669547.21</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -696,7 +696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1643867.2900000003</x:v>
+        <x:v>1643867.29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -711,7 +711,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1625653.4100000001</x:v>
+        <x:v>1625653.41</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -726,7 +726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1566784.7799999998</x:v>
+        <x:v>1566784.78</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -756,7 +756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1452054.94</x:v>
+        <x:v>1452054.9400000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -771,7 +771,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1435935.8299999996</x:v>
+        <x:v>1435935.83</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -831,7 +831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1348402.2499999998</x:v>
+        <x:v>1348402.2499999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -846,7 +846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1306844.39</x:v>
+        <x:v>1306844.3900000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -861,7 +861,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1300804.47</x:v>
+        <x:v>1300804.4700000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -876,7 +876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1290469.93</x:v>
+        <x:v>1290469.9299999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -891,7 +891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1290327.45</x:v>
+        <x:v>1290327.4499999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -951,7 +951,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1260598.2799999998</x:v>
+        <x:v>1260598.2800000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1011,7 +1011,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1176363.9400000002</x:v>
+        <x:v>1176363.94</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1056,7 +1056,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1115470.6099999999</x:v>
+        <x:v>1115470.61</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1116,7 +1116,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1055849.4200000002</x:v>
+        <x:v>1055849.4199999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1161,7 +1161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1037801.1000000001</x:v>
+        <x:v>1037801.0999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1176,7 +1176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1013773.2500000001</x:v>
+        <x:v>1013773.2499999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1206,7 +1206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>987836.22</x:v>
+        <x:v>987836.22000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1236,7 +1236,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>986560.31</x:v>
+        <x:v>986560.30999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1266,7 +1266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>977208.57000000007</x:v>
+        <x:v>977208.57</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1281,7 +1281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>974306.77000000014</x:v>
+        <x:v>974306.77000000025</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1296,7 +1296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>966239.37</x:v>
+        <x:v>966239.36999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1341,7 +1341,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>937442.55</x:v>
+        <x:v>937442.55000000016</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1356,7 +1356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>894954.72000000009</x:v>
+        <x:v>894954.72</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1386,7 +1386,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>885759.99000000011</x:v>
+        <x:v>885759.98999999976</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1446,7 +1446,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>863482.56999999983</x:v>
+        <x:v>863482.57000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1476,7 +1476,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>841621.14</x:v>
+        <x:v>841621.1399999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1491,7 +1491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>832948.54999999993</x:v>
+        <x:v>832948.55</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1581,7 +1581,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>813412.5199999999</x:v>
+        <x:v>813412.52</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1596,7 +1596,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>808389.65999999992</x:v>
+        <x:v>808389.66000000015</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1656,7 +1656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>790145.48</x:v>
+        <x:v>790145.47999999986</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1671,7 +1671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>788365.85</x:v>
+        <x:v>788365.84999999986</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1716,7 +1716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>762355.54</x:v>
+        <x:v>762355.53999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1776,7 +1776,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>698216.47000000009</x:v>
+        <x:v>698216.46999999986</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1791,7 +1791,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>695146.08000000007</x:v>
+        <x:v>695146.08</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1806,7 +1806,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>685999.70999999985</x:v>
+        <x:v>685999.71</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1821,7 +1821,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>685480.12000000011</x:v>
+        <x:v>685480.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1851,7 +1851,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>677326.94999999984</x:v>
+        <x:v>677326.95000000019</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1866,7 +1866,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>661253.42</x:v>
+        <x:v>661253.41999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1881,7 +1881,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>654213.13</x:v>
+        <x:v>654213.13000000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1896,7 +1896,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>653102.59</x:v>
+        <x:v>653102.58999999985</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1911,7 +1911,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>652254.3600000001</x:v>
+        <x:v>652254.36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1971,7 +1971,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>629417.88</x:v>
+        <x:v>629417.87999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2016,7 +2016,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>619297.38</x:v>
+        <x:v>619297.37999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2031,7 +2031,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>617067.52999999991</x:v>
+        <x:v>617067.53</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2061,7 +2061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>607190.7200000002</x:v>
+        <x:v>607190.72</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2106,7 +2106,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>592807.11000000022</x:v>
+        <x:v>592807.11</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2151,7 +2151,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>575833.36</x:v>
+        <x:v>575833.3600000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2166,7 +2166,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>572717.96</x:v>
+        <x:v>572717.96000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2196,7 +2196,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>567761.11</x:v>
+        <x:v>567761.1100000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2241,7 +2241,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>556904.55</x:v>
+        <x:v>556904.54999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2271,7 +2271,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>550782.94000000006</x:v>
+        <x:v>550782.94000000018</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2346,7 +2346,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>525014.45</x:v>
+        <x:v>525014.45000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2376,7 +2376,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>523403.77999999997</x:v>
+        <x:v>523403.78</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2406,7 +2406,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>515737.34999999992</x:v>
+        <x:v>515737.35</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2421,7 +2421,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>506250.00999999995</x:v>
+        <x:v>506250.01</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2436,7 +2436,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>501636.38999999996</x:v>
+        <x:v>501636.39</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2451,7 +2451,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>494391.99000000005</x:v>
+        <x:v>494391.99</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2496,7 +2496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>472369.54000000004</x:v>
+        <x:v>472369.54</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2511,7 +2511,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>459306.71</x:v>
+        <x:v>459306.70999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2526,7 +2526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>458821.94000000012</x:v>
+        <x:v>458821.94</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2541,7 +2541,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>458005.94</x:v>
+        <x:v>458005.94000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2571,7 +2571,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>454194.45999999996</x:v>
+        <x:v>454194.46000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2616,7 +2616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>437790.18999999994</x:v>
+        <x:v>437790.19000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2661,7 +2661,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>429179.39999999997</x:v>
+        <x:v>429179.39999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2676,7 +2676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>426490.02</x:v>
+        <x:v>426490.0199999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2751,7 +2751,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>418527.33</x:v>
+        <x:v>418527.32999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2781,7 +2781,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>405658.41999999993</x:v>
+        <x:v>405658.42</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2811,7 +2811,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>398285.27</x:v>
+        <x:v>398285.27000000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2841,7 +2841,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>389223.1</x:v>
+        <x:v>389223.10000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2961,7 +2961,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>369087.68</x:v>
+        <x:v>369087.67999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3006,7 +3006,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>364859.05999999988</x:v>
+        <x:v>364859.06</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3096,7 +3096,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>349067.69000000006</x:v>
+        <x:v>349067.69</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3171,7 +3171,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>341237.94</x:v>
+        <x:v>341237.93999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3216,7 +3216,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>333653.30000000005</x:v>
+        <x:v>333653.3000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3246,7 +3246,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>329547.03</x:v>
+        <x:v>329547.02999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3276,7 +3276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>325244.49999999994</x:v>
+        <x:v>325244.5</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3306,7 +3306,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>323033.04000000004</x:v>
+        <x:v>323033.04</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3336,7 +3336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>316083.92</x:v>
+        <x:v>316083.91999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3441,7 +3441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>301748.94</x:v>
+        <x:v>301748.93999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3486,7 +3486,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>294299.38999999996</x:v>
+        <x:v>294299.39</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3516,7 +3516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>292467.32999999996</x:v>
+        <x:v>292467.33</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3546,7 +3546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>287924.33999999997</x:v>
+        <x:v>287924.34</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3561,7 +3561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>286740.78</x:v>
+        <x:v>286740.77999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3606,7 +3606,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>279495.59</x:v>
+        <x:v>279495.58999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3621,7 +3621,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>275992.44</x:v>
+        <x:v>275992.43999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3636,7 +3636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>275349.39000000007</x:v>
+        <x:v>275349.39</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3681,7 +3681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>267706.91000000003</x:v>
+        <x:v>267706.91</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3696,7 +3696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>266291.65000000008</x:v>
+        <x:v>266291.65</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3726,7 +3726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>264476.35999999993</x:v>
+        <x:v>264476.36000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3741,7 +3741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>264014.33999999997</x:v>
+        <x:v>264014.34</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3756,7 +3756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>263731.98</x:v>
+        <x:v>263731.97999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3786,7 +3786,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>260803.80000000002</x:v>
+        <x:v>260803.80000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3801,7 +3801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>252478.16000000003</x:v>
+        <x:v>252478.16</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3831,7 +3831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>251481.55999999997</x:v>
+        <x:v>251481.56000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3846,7 +3846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>249063.5</x:v>
+        <x:v>249063.50000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4041,7 +4041,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>224013.04</x:v>
+        <x:v>224013.03999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4116,7 +4116,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>214676.11000000002</x:v>
+        <x:v>214676.11</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4131,7 +4131,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>214141.55000000005</x:v>
+        <x:v>214141.55</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4161,7 +4161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>208523.4</x:v>
+        <x:v>208523.40000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4191,7 +4191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206281.56</x:v>
+        <x:v>206281.55999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4206,7 +4206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206227.36000000002</x:v>
+        <x:v>206227.36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4221,7 +4221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206159.53999999998</x:v>
+        <x:v>206159.54</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4266,7 +4266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>202324.26</x:v>
+        <x:v>202324.25999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4281,7 +4281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>201776.27000000002</x:v>
+        <x:v>201776.27</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4356,7 +4356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>193205.21</x:v>
+        <x:v>193205.20999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4371,7 +4371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>192863.62999999995</x:v>
+        <x:v>192863.63</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4386,7 +4386,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>192813.85</x:v>
+        <x:v>192813.85000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4416,7 +4416,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>189595.2</x:v>
+        <x:v>189595.20000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4446,7 +4446,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>185304.01</x:v>
+        <x:v>185304.00999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4461,7 +4461,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>181670.72999999998</x:v>
+        <x:v>181670.73000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4506,7 +4506,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>176745.09999999998</x:v>
+        <x:v>176745.1</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4551,7 +4551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>170266.35</x:v>
+        <x:v>170266.34999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4611,7 +4611,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>166963.33999999997</x:v>
+        <x:v>166963.34</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4641,7 +4641,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>161928.84000000003</x:v>
+        <x:v>161928.83999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4671,7 +4671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>160285.14</x:v>
+        <x:v>160285.13999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4716,7 +4716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>159204.61000000002</x:v>
+        <x:v>159204.61</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4731,7 +4731,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158747.91</x:v>
+        <x:v>158747.91000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4821,7 +4821,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>152861.50999999998</x:v>
+        <x:v>152861.51</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5016,7 +5016,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139689.81</x:v>
+        <x:v>139689.80999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5076,7 +5076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>138200.34999999998</x:v>
+        <x:v>138200.35</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5106,7 +5106,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>136521.89</x:v>
+        <x:v>136521.88999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5211,7 +5211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>129302.77</x:v>
+        <x:v>129302.77000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5226,7 +5226,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>129177.11</x:v>
+        <x:v>129177.10999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5256,7 +5256,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>128326.79999999999</x:v>
+        <x:v>128326.8</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5421,7 +5421,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>113968.29000000001</x:v>
+        <x:v>113968.29000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5436,7 +5436,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>113887.09000000003</x:v>
+        <x:v>113887.09000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5466,7 +5466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>108219.03</x:v>
+        <x:v>108219.02999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5526,7 +5526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>106938.38</x:v>
+        <x:v>106938.37999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5556,7 +5556,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104234.73</x:v>
+        <x:v>104234.73000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5616,7 +5616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102440.34999999999</x:v>
+        <x:v>102440.35</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5721,7 +5721,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>100773.68</x:v>
+        <x:v>100773.67999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5781,7 +5781,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>99255.329999999987</x:v>
+        <x:v>99255.33</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5856,7 +5856,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>95643.890000000014</x:v>
+        <x:v>95643.89</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5946,7 +5946,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>87737.020000000019</x:v>
+        <x:v>87737.02</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6021,7 +6021,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>80431.510000000009</x:v>
+        <x:v>80431.51</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6051,7 +6051,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>78936.48000000001</x:v>
+        <x:v>78936.48</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6111,7 +6111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>76216.280000000013</x:v>
+        <x:v>76216.28</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6186,7 +6186,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>73545.89</x:v>
+        <x:v>73545.890000000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6276,7 +6276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>68713.489999999991</x:v>
+        <x:v>68713.49</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6291,7 +6291,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>68556.45</x:v>
+        <x:v>68556.449999999983</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6321,7 +6321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>67379.299999999988</x:v>
+        <x:v>67379.3</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6441,7 +6441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>59330.109999999993</x:v>
+        <x:v>59330.11</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6456,7 +6456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>57877.450000000004</x:v>
+        <x:v>57877.45</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6711,7 +6711,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>47447.91</x:v>
+        <x:v>47447.909999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6741,7 +6741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>44340.409999999996</x:v>
+        <x:v>44340.41</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6861,7 +6861,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35321.470000000008</x:v>
+        <x:v>35321.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6906,7 +6906,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>33850.17</x:v>
+        <x:v>33850.170000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6966,7 +6966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>31314.790000000005</x:v>
+        <x:v>31314.79</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7101,7 +7101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>22512.440000000002</x:v>
+        <x:v>22512.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7146,7 +7146,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>21532.39</x:v>
+        <x:v>21532.390000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7221,7 +7221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>16721.739999999998</x:v>
+        <x:v>16721.74</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7266,7 +7266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14660.099999999999</x:v>
+        <x:v>14660.1</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7281,7 +7281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14320.140000000001</x:v>
+        <x:v>14320.139999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7326,7 +7326,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>13661.52</x:v>
+        <x:v>13661.519999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7491,7 +7491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6833.01</x:v>
+        <x:v>6833.0099999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7521,7 +7521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>5879.329999999999</x:v>
+        <x:v>5879.33</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7716,7 +7716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1112.3000000000002</x:v>
+        <x:v>1112.3</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Re6ba03431db24a00"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rb608bc088a16443c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -81,7 +81,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>16546598.59</x:v>
+        <x:v>16546599.350000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -96,7 +96,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>8180773.5200000005</x:v>
+        <x:v>8180773.5200000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -111,7 +111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>7256342.9600000009</x:v>
+        <x:v>7256403.709999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -126,7 +126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6257819.71</x:v>
+        <x:v>6256455.9700000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -141,7 +141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>5785319.67</x:v>
+        <x:v>5785319.669999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -171,7 +171,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4493198.2700000005</x:v>
+        <x:v>4493198.27</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -186,7 +186,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4440726.0600000005</x:v>
+        <x:v>4441619.83</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -201,7 +201,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4377969.41</x:v>
+        <x:v>4371688.29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -216,7 +216,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4257240.8299999991</x:v>
+        <x:v>4257240.83</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -231,7 +231,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4207094.2</x:v>
+        <x:v>4207098</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -246,7 +246,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4024026.0900000003</x:v>
+        <x:v>4025730.8499999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -261,7 +261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3871887.8800000008</x:v>
+        <x:v>3871846.6399999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -276,7 +276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3821968.7299999995</x:v>
+        <x:v>3823214.91</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -291,7 +291,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3801632.1300000008</x:v>
+        <x:v>3802139.1900000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -321,7 +321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3410981.17</x:v>
+        <x:v>3410981.5</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -336,7 +336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3349597.8000000017</x:v>
+        <x:v>3349597.8000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -351,7 +351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3224593.4800000004</x:v>
+        <x:v>3224593.48</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -366,7 +366,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3002735.82</x:v>
+        <x:v>3002990.3200000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -396,7 +396,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2829696.6699999995</x:v>
+        <x:v>2829740.7199999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -426,7 +426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2585828.7799999993</x:v>
+        <x:v>2585828.7799999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -441,7 +441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2575026.1199999992</x:v>
+        <x:v>2575484.46</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -456,7 +456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2406210.2399999998</x:v>
+        <x:v>2406210.2399999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -471,7 +471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2239546.19</x:v>
+        <x:v>2239663.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -486,7 +486,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2233532.94</x:v>
+        <x:v>2233532.9399999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -501,7 +501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2123590.2600000002</x:v>
+        <x:v>2123590.26</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -516,7 +516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2116173.97</x:v>
+        <x:v>2115397.79</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -531,7 +531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1998784.2299999995</x:v>
+        <x:v>1998455.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -546,7 +546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1982034.3499999999</x:v>
+        <x:v>1982034.35</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -561,7 +561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1880105.9900000002</x:v>
+        <x:v>1880130.8399999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -576,7 +576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1870151.9499999997</x:v>
+        <x:v>1870151.95</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -621,7 +621,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1799290.6199999994</x:v>
+        <x:v>1799290.6199999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -636,7 +636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1793421.29</x:v>
+        <x:v>1793421.2899999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -651,7 +651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1675157.48</x:v>
+        <x:v>1675157.4799999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -666,7 +666,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1670563.1799999997</x:v>
+        <x:v>1670563.18</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -681,7 +681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1643886.1300000001</x:v>
+        <x:v>1644562.87</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -696,7 +696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1626031.7</x:v>
+        <x:v>1625067</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -711,7 +711,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1571382.4699999997</x:v>
+        <x:v>1571434.0499999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -741,7 +741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1452116.75</x:v>
+        <x:v>1452090.77</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -756,7 +756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1437503.59</x:v>
+        <x:v>1437503.5900000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -786,7 +786,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1411383.62</x:v>
+        <x:v>1411383.6199999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -831,7 +831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1307270.81</x:v>
+        <x:v>1307466.4400000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -876,7 +876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1290929.9900000002</x:v>
+        <x:v>1290929.99</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -891,7 +891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1271003.61</x:v>
+        <x:v>1271043.9100000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -906,7 +906,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1268485.7799999998</x:v>
+        <x:v>1268485.78</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -936,7 +936,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1237981.8</x:v>
+        <x:v>1238126.96</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -966,7 +966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1213884.3700000003</x:v>
+        <x:v>1213884.37</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -981,7 +981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1201397.4100000001</x:v>
+        <x:v>1201397.41</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1011,7 +1011,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1153732.3600000003</x:v>
+        <x:v>1153732.3599999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1026,7 +1026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1153435.92</x:v>
+        <x:v>1153435.9200000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1056,7 +1056,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1096039.7700000003</x:v>
+        <x:v>1096039.7699999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1116,7 +1116,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1055987.39</x:v>
+        <x:v>1055987.3900000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1236,7 +1236,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>986141.20999999985</x:v>
+        <x:v>986141.20999999973</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1251,7 +1251,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>979623.55</x:v>
+        <x:v>979623.55000000016</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1281,7 +1281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>974781.47999999986</x:v>
+        <x:v>974781.48</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1326,7 +1326,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>942768.36</x:v>
+        <x:v>942516.38</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1431,7 +1431,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>866040.86</x:v>
+        <x:v>866097.26</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1521,7 +1521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>830570.03999999992</x:v>
+        <x:v>830570.04</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1551,7 +1551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>828578.38000000035</x:v>
+        <x:v>828578.38000000024</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1581,7 +1581,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>813817.79999999981</x:v>
+        <x:v>813817.8</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1611,7 +1611,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>806224.6100000001</x:v>
+        <x:v>806224.60999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1641,7 +1641,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>791977.99</x:v>
+        <x:v>791977.99000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1656,7 +1656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>789394.17999999993</x:v>
+        <x:v>789394.18</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1671,7 +1671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>788272.20000000007</x:v>
+        <x:v>788279.5199999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1701,7 +1701,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>768598.08000000007</x:v>
+        <x:v>768598.08</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1716,7 +1716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>762736.13</x:v>
+        <x:v>762736.12999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1761,7 +1761,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>725378.52000000014</x:v>
+        <x:v>725378.52</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1776,7 +1776,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>715984.21000000008</x:v>
+        <x:v>715984.21</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1806,7 +1806,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>694989.46000000008</x:v>
+        <x:v>694922</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1851,7 +1851,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>677846.7</x:v>
+        <x:v>677838.32</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1881,7 +1881,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>660700.92999999993</x:v>
+        <x:v>660701.1399999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1911,7 +1911,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>652954</x:v>
+        <x:v>652569.58000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1926,7 +1926,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>651707.04</x:v>
+        <x:v>651707.03999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1971,7 +1971,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>633021.51</x:v>
+        <x:v>633021.51000000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1986,7 +1986,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>627432.04000000015</x:v>
+        <x:v>627432.04</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2001,7 +2001,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>621484.2</x:v>
+        <x:v>621484.20000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2016,7 +2016,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>621424.66000000015</x:v>
+        <x:v>621424.65999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2061,7 +2061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>612621.77999999991</x:v>
+        <x:v>612622.35</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2091,7 +2091,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>605611.49000000011</x:v>
+        <x:v>605611.49</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2121,7 +2121,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>593173.42999999993</x:v>
+        <x:v>593173.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2136,7 +2136,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>584512.15</x:v>
+        <x:v>584512.14999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2181,7 +2181,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>575588.70999999985</x:v>
+        <x:v>575588.71000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2211,7 +2211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>569028.33</x:v>
+        <x:v>569028.32999999984</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2301,7 +2301,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>551059.24999999988</x:v>
+        <x:v>551059.24999999977</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2331,7 +2331,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>543864.46</x:v>
+        <x:v>544085.6</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2376,7 +2376,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>525157.16</x:v>
+        <x:v>525157.15999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2421,7 +2421,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>516459.64</x:v>
+        <x:v>516459.64000000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2451,7 +2451,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>506274.63</x:v>
+        <x:v>506274.63000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2481,7 +2481,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>498474.56999999995</x:v>
+        <x:v>498474.57</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2496,7 +2496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>494448.10000000015</x:v>
+        <x:v>494448.10000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2526,7 +2526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>483027.60000000003</x:v>
+        <x:v>483027.82</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2541,7 +2541,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>472444.73999999993</x:v>
+        <x:v>472444.74000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2556,7 +2556,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>459169.35999999993</x:v>
+        <x:v>459169.36000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2586,7 +2586,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>457357.49000000011</x:v>
+        <x:v>457357.70000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2601,7 +2601,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>454963.75</x:v>
+        <x:v>454963.75000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2616,7 +2616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>453761.08</x:v>
+        <x:v>453761.08000000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2631,7 +2631,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>449375.47</x:v>
+        <x:v>449375.47000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2646,7 +2646,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>440706.05999999994</x:v>
+        <x:v>440706.06000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2661,7 +2661,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>437558.28</x:v>
+        <x:v>437558.27999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2691,7 +2691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>429367.26000000007</x:v>
+        <x:v>429388.7099999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2706,7 +2706,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>429193.62000000005</x:v>
+        <x:v>429373.02</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2721,7 +2721,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>426555.53</x:v>
+        <x:v>426580.22</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2736,7 +2736,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>425235.95000000007</x:v>
+        <x:v>425235.95</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2766,7 +2766,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>423751.96000000008</x:v>
+        <x:v>423751.96000000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2781,7 +2781,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>422006.56</x:v>
+        <x:v>422006.56000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2796,7 +2796,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>418463.2900000001</x:v>
+        <x:v>418463.29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2871,7 +2871,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>389239.32000000012</x:v>
+        <x:v>389239.32000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2901,7 +2901,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>384639.64999999997</x:v>
+        <x:v>384710.76999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2916,7 +2916,22 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>373375.74999999994</x:v>
+        <x:v>373375.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004376145</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCYENE</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>371828.83000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2931,22 +2946,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>371929.74000000005</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004376145</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCYENE</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>371828.83000000007</x:v>
+        <x:v>371776.80000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2991,7 +2991,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>367286.24</x:v>
+        <x:v>367286.24000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3111,7 +3111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>350800.16000000003</x:v>
+        <x:v>350800.16</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3141,7 +3141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>344891.23999999993</x:v>
+        <x:v>344891.24</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3171,7 +3171,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>342722.36</x:v>
+        <x:v>342722.35999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3186,7 +3186,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>341415.72000000003</x:v>
+        <x:v>341415.72</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3216,7 +3216,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>336849.05</x:v>
+        <x:v>336849.04999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3231,7 +3231,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>333784.83999999997</x:v>
+        <x:v>333784.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3261,7 +3261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>329686.43000000005</x:v>
+        <x:v>329686.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3276,7 +3276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>326321.86000000004</x:v>
+        <x:v>326321.86</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3291,7 +3291,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>325206.87999999995</x:v>
+        <x:v>325206.88</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3306,7 +3306,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>323268.40000000008</x:v>
+        <x:v>323268.4</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3321,7 +3321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>323033.78</x:v>
+        <x:v>323033.77999999985</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3336,7 +3336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>321284.52999999997</x:v>
+        <x:v>321284.52999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3366,7 +3366,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>314165.93</x:v>
+        <x:v>314165.92999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3381,7 +3381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>312930.24999999988</x:v>
+        <x:v>312930.25</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3426,7 +3426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>307208.73000000004</x:v>
+        <x:v>307208.7300000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3441,7 +3441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>305400.45000000007</x:v>
+        <x:v>305400.44999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3501,7 +3501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>293313.82000000007</x:v>
+        <x:v>293313.82</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3531,7 +3531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>288006.16</x:v>
+        <x:v>288006.16000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3576,7 +3576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>285729.69999999995</x:v>
+        <x:v>285727.56</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3591,7 +3591,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>282003.35000000003</x:v>
+        <x:v>282014.53</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3606,7 +3606,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>281629.53</x:v>
+        <x:v>281629.52999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3666,7 +3666,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>274229.96</x:v>
+        <x:v>274209.77</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3696,7 +3696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>267746.23000000004</x:v>
+        <x:v>267746.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3741,7 +3741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>264537.23999999993</x:v>
+        <x:v>264537.24</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3756,7 +3756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>264095.00999999995</x:v>
+        <x:v>264095.01</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3771,7 +3771,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>263793.89999999991</x:v>
+        <x:v>263793.9</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3786,7 +3786,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>262580.35000000003</x:v>
+        <x:v>262580.35</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3816,7 +3816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>252445.61999999997</x:v>
+        <x:v>252445.62000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3891,7 +3891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>246128.71</x:v>
+        <x:v>246232.65</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3936,7 +3936,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>243445.75000000003</x:v>
+        <x:v>243445.75</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3966,7 +3966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>239154.89</x:v>
+        <x:v>239154.89000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3981,7 +3981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>238756.61000000002</x:v>
+        <x:v>238756.61</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4011,7 +4011,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>236396.99000000002</x:v>
+        <x:v>236396.99</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4026,7 +4026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>235286.84</x:v>
+        <x:v>235286.84000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4056,7 +4056,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>223827.09000000003</x:v>
+        <x:v>223827.09</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4071,7 +4071,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>221065.22000000003</x:v>
+        <x:v>221065.21999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4116,7 +4116,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>216164.42999999996</x:v>
+        <x:v>216164.43000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4131,7 +4131,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>215533.98</x:v>
+        <x:v>215533.97999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4191,7 +4191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>208544.86</x:v>
+        <x:v>208544.86000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4206,7 +4206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206330.31999999998</x:v>
+        <x:v>206330.32</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4221,7 +4221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206274.44</x:v>
+        <x:v>206327.69999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4236,7 +4236,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206258.62999999998</x:v>
+        <x:v>206258.63</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4251,7 +4251,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>204545.23</x:v>
+        <x:v>204545.22999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4296,7 +4296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>201836.43000000002</x:v>
+        <x:v>201836.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4341,7 +4341,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>194248.32</x:v>
+        <x:v>194248.31999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4356,7 +4356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>193236.74000000005</x:v>
+        <x:v>193236.74000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4431,7 +4431,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>186910.83000000005</x:v>
+        <x:v>186910.83000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4461,7 +4461,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>183861.14999999997</x:v>
+        <x:v>183861.15000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4476,7 +4476,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>181675.32</x:v>
+        <x:v>181675.31999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4491,7 +4491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>178402.09000000008</x:v>
+        <x:v>178402.09000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4506,7 +4506,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>177647.18</x:v>
+        <x:v>177647.18000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4521,7 +4521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>176732.07</x:v>
+        <x:v>176732.06999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4536,7 +4536,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>171669.92</x:v>
+        <x:v>171669.91999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4551,7 +4551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>170836.18000000002</x:v>
+        <x:v>170836.18</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4566,7 +4566,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>170210.91999999998</x:v>
+        <x:v>170210.92000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4626,7 +4626,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>167041.33</x:v>
+        <x:v>167041.33000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4641,7 +4641,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>163909.34999999998</x:v>
+        <x:v>163956.26</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4656,7 +4656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>161563.06000000003</x:v>
+        <x:v>161563.06</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4701,7 +4701,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>160235.15000000002</x:v>
+        <x:v>160235.15</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4761,7 +4761,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>159266.00000000003</x:v>
+        <x:v>159266</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4791,7 +4791,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158541.02</x:v>
+        <x:v>158541.02000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4836,7 +4836,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>156733.65000000002</x:v>
+        <x:v>156800.05999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4851,7 +4851,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>152904.65</x:v>
+        <x:v>152904.65000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4896,7 +4896,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>149122.34000000003</x:v>
+        <x:v>149122.34</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4911,7 +4911,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>148786.9</x:v>
+        <x:v>148796.56999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4941,7 +4941,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>143761.59000000003</x:v>
+        <x:v>143761.59</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4977,6 +4977,21 @@
     <x:row>
       <x:c t="inlineStr">
         <x:is>
+          <x:t>004425965</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CAROLLINA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>140890.53</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
           <x:t>005076418</x:t>
         </x:is>
       </x:c>
@@ -4992,21 +5007,6 @@
     <x:row>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>004425965</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CAROLLINA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>140811.62</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
           <x:t>004332544</x:t>
         </x:is>
       </x:c>
@@ -5016,7 +5016,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>140165.25999999998</x:v>
+        <x:v>140165.26</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5121,7 +5121,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>137320.62</x:v>
+        <x:v>137320.62000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5181,7 +5181,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>132968.41</x:v>
+        <x:v>132968.40999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5196,7 +5196,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>131331.59</x:v>
+        <x:v>131331.59000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5301,7 +5301,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>123662.56999999998</x:v>
+        <x:v>123662.56999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5331,7 +5331,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>121189.76999999999</x:v>
+        <x:v>121189.77</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5346,7 +5346,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>119443.13</x:v>
+        <x:v>119443.12999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5361,7 +5361,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>118884.46999999999</x:v>
+        <x:v>118884.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5376,7 +5376,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>116683.95999999999</x:v>
+        <x:v>116689.47999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5406,7 +5406,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>114082.81</x:v>
+        <x:v>114082.81000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5436,7 +5436,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>113943.47</x:v>
+        <x:v>113943.46999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5481,7 +5481,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>108273.28</x:v>
+        <x:v>108273.27999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5496,7 +5496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107571.25999999998</x:v>
+        <x:v>107571.26</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5511,7 +5511,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107404.65999999999</x:v>
+        <x:v>107404.66</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5526,7 +5526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107116.48</x:v>
+        <x:v>107116.48000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5541,7 +5541,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>106964.91</x:v>
+        <x:v>106964.90999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5616,7 +5616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102580.56</x:v>
+        <x:v>102580.55999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5631,7 +5631,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102442.35</x:v>
+        <x:v>102491.39</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5646,7 +5646,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102172.45999999998</x:v>
+        <x:v>102172.45999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5691,7 +5691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>101220.19</x:v>
+        <x:v>101220.18999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5781,7 +5781,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>99756.780000000013</x:v>
+        <x:v>99756.78</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5796,7 +5796,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>99298.069999999992</x:v>
+        <x:v>99298.07</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5826,7 +5826,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>99253.340000000011</x:v>
+        <x:v>99253.34</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5856,7 +5856,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>98078.700000000012</x:v>
+        <x:v>98078.7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5871,7 +5871,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>95975.34</x:v>
+        <x:v>96015.98</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5931,7 +5931,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>89212.49</x:v>
+        <x:v>89212.49000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5976,7 +5976,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>86014.62000000001</x:v>
+        <x:v>86014.62</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5991,7 +5991,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>84472.569999999992</x:v>
+        <x:v>84472.57</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6006,7 +6006,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>82929.290000000008</x:v>
+        <x:v>82929.29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6036,7 +6036,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>79315.46</x:v>
+        <x:v>79315.459999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6051,7 +6051,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>78977.03</x:v>
+        <x:v>78977.030000000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6126,7 +6126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>76001.06</x:v>
+        <x:v>76001.060000000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6201,7 +6201,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>72905.34</x:v>
+        <x:v>72905.340000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6246,7 +6246,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>68759.12000000001</x:v>
+        <x:v>68759.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6261,7 +6261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>68732.360000000015</x:v>
+        <x:v>68732.359999999986</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6306,7 +6306,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>67442.85</x:v>
+        <x:v>67442.849999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6366,7 +6366,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>63539.94000000001</x:v>
+        <x:v>63539.94</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6411,7 +6411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>59221.029999999992</x:v>
+        <x:v>59221.030000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6471,7 +6471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>57282.43</x:v>
+        <x:v>57282.429999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6501,7 +6501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>56589.239999999991</x:v>
+        <x:v>56589.24</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6531,7 +6531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>54242.029999999992</x:v>
+        <x:v>54242.030000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6561,7 +6561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>53456.12</x:v>
+        <x:v>53456.12000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6576,7 +6576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>52452.69</x:v>
+        <x:v>52452.689999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6651,7 +6651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>49984.62000000001</x:v>
+        <x:v>49984.619999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6681,7 +6681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>49753.219999999994</x:v>
+        <x:v>49753.22</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6711,7 +6711,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>47721.189999999988</x:v>
+        <x:v>47721.19</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6756,7 +6756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>44343.56</x:v>
+        <x:v>44343.560000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6771,7 +6771,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>43340.549999999996</x:v>
+        <x:v>43340.55</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6801,7 +6801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>42688.989999999991</x:v>
+        <x:v>42688.990000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6831,7 +6831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>38024.69000000001</x:v>
+        <x:v>38024.69</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6846,7 +6846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>37294.409999999996</x:v>
+        <x:v>37294.41</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6951,7 +6951,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>32938.710000000006</x:v>
+        <x:v>32938.71</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6981,7 +6981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>32178</x:v>
+        <x:v>32178.000000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6996,7 +6996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>31332.79</x:v>
+        <x:v>31332.789999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7071,7 +7071,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>29992.039999999994</x:v>
+        <x:v>29992.04</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7146,7 +7146,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>22520.320000000003</x:v>
+        <x:v>22520.32</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7176,7 +7176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>21535.769999999997</x:v>
+        <x:v>21535.77</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7251,7 +7251,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>17616.69</x:v>
+        <x:v>17616.690000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7326,7 +7326,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14326.259999999998</x:v>
+        <x:v>14326.260000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7341,7 +7341,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14183.89</x:v>
+        <x:v>14183.890000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7371,7 +7371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>13668.500000000002</x:v>
+        <x:v>13668.5</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7386,7 +7386,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>12026.570000000002</x:v>
+        <x:v>12030.1</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7521,7 +7521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6835.9199999999992</x:v>
+        <x:v>6835.92</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7596,7 +7596,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4911.8200000000006</x:v>
+        <x:v>4913.77</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7806,7 +7806,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>567.69999999999993</x:v>
+        <x:v>567.7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7926,7 +7926,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>225.57000000000002</x:v>
+        <x:v>225.57</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R861a9eeb23354a03"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rac8d833c7fb442d1"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>8181536.0900000026</x:v>
+        <x:v>8181536.0900000017</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -111,7 +111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>7259720.0299999984</x:v>
+        <x:v>7259720.03</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -126,7 +126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6259204.2</x:v>
+        <x:v>6259204.1999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -171,7 +171,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4493901.68</x:v>
+        <x:v>4493901.6799999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -261,7 +261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3871867.3900000011</x:v>
+        <x:v>3871867.3900000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -276,7 +276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3823899.2700000005</x:v>
+        <x:v>3823899.2699999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -291,7 +291,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3802275.5700000003</x:v>
+        <x:v>3802275.57</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -321,7 +321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3415846.7399999993</x:v>
+        <x:v>3415846.7399999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -396,7 +396,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2830245.9200000004</x:v>
+        <x:v>2830245.9200000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -426,7 +426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2587134.9499999988</x:v>
+        <x:v>2587134.9499999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -441,7 +441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2576187.06</x:v>
+        <x:v>2576187.0600000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -456,7 +456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2411184.4699999997</x:v>
+        <x:v>2411184.4700000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -546,7 +546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1986233.9200000004</x:v>
+        <x:v>1986233.9200000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -576,7 +576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1873033.2200000004</x:v>
+        <x:v>1873033.22</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -651,7 +651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1671286.5700000005</x:v>
+        <x:v>1671286.5700000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -681,7 +681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1635405.1499999997</x:v>
+        <x:v>1635405.1500000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -696,7 +696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1625151.74</x:v>
+        <x:v>1625151.7399999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -756,7 +756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1437951.2100000002</x:v>
+        <x:v>1437951.21</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -771,7 +771,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1426329.8400000003</x:v>
+        <x:v>1426329.8399999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -816,7 +816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1352706.2599999998</x:v>
+        <x:v>1352706.26</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -876,7 +876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1291412.9200000004</x:v>
+        <x:v>1291412.9200000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -906,7 +906,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1269008.11</x:v>
+        <x:v>1269008.1099999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -921,7 +921,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1250729.2000000002</x:v>
+        <x:v>1250729.2</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -951,7 +951,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1236494.11</x:v>
+        <x:v>1236494.1099999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -966,7 +966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1213996.84</x:v>
+        <x:v>1213996.8400000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -981,7 +981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1201323.4999999998</x:v>
+        <x:v>1201323.5</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1011,7 +1011,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1154253.57</x:v>
+        <x:v>1154253.5699999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1041,7 +1041,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1116383.1699999997</x:v>
+        <x:v>1116383.17</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1101,7 +1101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1059166.85</x:v>
+        <x:v>1059166.8499999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1161,7 +1161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1038914.72</x:v>
+        <x:v>1038914.7200000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1236,7 +1236,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>988146.98</x:v>
+        <x:v>988146.97999999986</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1296,7 +1296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>968066.1100000001</x:v>
+        <x:v>968066.11</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1341,7 +1341,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>938714.46</x:v>
+        <x:v>938714.45999999985</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1356,7 +1356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>897980.92</x:v>
+        <x:v>897980.92000000016</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1371,7 +1371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>895641.85999999987</x:v>
+        <x:v>895641.86</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1386,7 +1386,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>885095.49999999988</x:v>
+        <x:v>885095.49999999977</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1446,7 +1446,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>864789.09999999986</x:v>
+        <x:v>864789.1</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1491,7 +1491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>842313.24000000011</x:v>
+        <x:v>842313.23999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1521,7 +1521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>832387.78000000014</x:v>
+        <x:v>832387.78</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1536,7 +1536,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>830103.75999999989</x:v>
+        <x:v>830103.76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1566,7 +1566,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>825613.83000000007</x:v>
+        <x:v>825613.83000000019</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1581,7 +1581,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>815151.76000000024</x:v>
+        <x:v>815151.76000000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1596,7 +1596,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>810234.75999999989</x:v>
+        <x:v>810234.76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1626,7 +1626,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>799750.29</x:v>
+        <x:v>799750.28999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1641,7 +1641,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>794449.2100000002</x:v>
+        <x:v>794449.21</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1656,7 +1656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>794161.3</x:v>
+        <x:v>794161.29999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1731,7 +1731,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>763037.49999999988</x:v>
+        <x:v>763037.5</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1761,7 +1761,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>727216.46999999986</x:v>
+        <x:v>727216.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1776,7 +1776,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>716255.15000000014</x:v>
+        <x:v>716255.15</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1821,7 +1821,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>685897.14</x:v>
+        <x:v>685897.14000000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1896,7 +1896,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>657482.3600000001</x:v>
+        <x:v>657482.36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1941,7 +1941,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>648801.05000000016</x:v>
+        <x:v>648801.05</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1971,7 +1971,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>633259.69</x:v>
+        <x:v>633259.69000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2016,7 +2016,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>622852.65</x:v>
+        <x:v>622852.64999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2046,7 +2046,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>618590.24000000011</x:v>
+        <x:v>618590.24</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2061,7 +2061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>616508.23999999987</x:v>
+        <x:v>616508.24</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2121,7 +2121,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>593488.88</x:v>
+        <x:v>593488.87999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2151,7 +2151,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>581056.45</x:v>
+        <x:v>581056.45000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2196,7 +2196,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>572431.77</x:v>
+        <x:v>572431.77000000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2226,7 +2226,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>568296.47</x:v>
+        <x:v>568296.47000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2331,7 +2331,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>544094.1</x:v>
+        <x:v>544094.10000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2466,7 +2466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>502455.96000000008</x:v>
+        <x:v>502455.95999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2511,7 +2511,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>493864.07</x:v>
+        <x:v>493864.06999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2631,7 +2631,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>449498.75000000006</x:v>
+        <x:v>449498.75000000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2646,7 +2646,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>440109.23000000004</x:v>
+        <x:v>440109.22999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2661,7 +2661,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>439266.72</x:v>
+        <x:v>439266.71999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2676,7 +2676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>435188.79</x:v>
+        <x:v>435188.79000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2721,7 +2721,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>426903.77999999997</x:v>
+        <x:v>426903.78</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2751,7 +2751,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>424980.23999999993</x:v>
+        <x:v>424980.24</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3006,7 +3006,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>366997.95</x:v>
+        <x:v>366997.94999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3021,7 +3021,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>365233.39</x:v>
+        <x:v>365233.38999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3051,7 +3051,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>361728.89999999991</x:v>
+        <x:v>361728.9</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3066,7 +3066,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>359782.17999999993</x:v>
+        <x:v>359782.18</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3141,7 +3141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>344967.0400000001</x:v>
+        <x:v>344967.04000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3291,7 +3291,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>325965.87</x:v>
+        <x:v>325965.86999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3351,7 +3351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>316371.21000000008</x:v>
+        <x:v>316371.21</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3381,7 +3381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>313052.48</x:v>
+        <x:v>313052.48000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3396,7 +3396,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>312143.79000000004</x:v>
+        <x:v>312143.79</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3441,7 +3441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>305518.25999999995</x:v>
+        <x:v>305518.26000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3471,7 +3471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>296753.87999999995</x:v>
+        <x:v>296753.88</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3561,7 +3561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>286812.31999999995</x:v>
+        <x:v>286812.32</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3606,7 +3606,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>281737.67999999993</x:v>
+        <x:v>281737.68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3636,7 +3636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>276602.11</x:v>
+        <x:v>276602.10999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3726,7 +3726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>265567.32</x:v>
+        <x:v>265567.32000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3741,7 +3741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>264880.91</x:v>
+        <x:v>264880.91000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3831,7 +3831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>251932.86999999997</x:v>
+        <x:v>251932.87</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3861,7 +3861,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>249642.40000000002</x:v>
+        <x:v>249642.39999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3906,7 +3906,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>245061.61000000002</x:v>
+        <x:v>245061.61000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3921,7 +3921,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>243567.76</x:v>
+        <x:v>243567.75999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3951,7 +3951,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>239757.85</x:v>
+        <x:v>239757.85000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4056,7 +4056,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>223841.96</x:v>
+        <x:v>223841.95999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4101,7 +4101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>219308.38</x:v>
+        <x:v>219308.38000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4116,7 +4116,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>216235.18</x:v>
+        <x:v>216235.17999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4146,7 +4146,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>214830.06999999992</x:v>
+        <x:v>214830.06999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4161,7 +4161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>209713.49999999997</x:v>
+        <x:v>209713.5</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4251,7 +4251,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>204946.85</x:v>
+        <x:v>204946.84999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4386,7 +4386,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>193018.39000000004</x:v>
+        <x:v>193018.39</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4431,7 +4431,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>186953.88999999998</x:v>
+        <x:v>186953.89</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4671,7 +4671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>161251.22999999998</x:v>
+        <x:v>161251.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4716,7 +4716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>159731.45000000004</x:v>
+        <x:v>159731.45</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4731,7 +4731,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>159613.03999999998</x:v>
+        <x:v>159613.04</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4761,7 +4761,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158714.56999999998</x:v>
+        <x:v>158714.57</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4836,7 +4836,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>152913.47999999995</x:v>
+        <x:v>152913.48</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4881,7 +4881,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>149455.43000000005</x:v>
+        <x:v>149455.43000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4926,7 +4926,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>143796.1</x:v>
+        <x:v>143796.09999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5031,7 +5031,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139883.12000000002</x:v>
+        <x:v>139883.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5061,7 +5061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139434.55</x:v>
+        <x:v>139434.54999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5076,7 +5076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139309.9</x:v>
+        <x:v>139309.90000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5106,7 +5106,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>138417.68999999997</x:v>
+        <x:v>138417.69</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5151,7 +5151,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>134819.28000000003</x:v>
+        <x:v>134819.28</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5166,7 +5166,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>133906.15</x:v>
+        <x:v>133906.15000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5181,7 +5181,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>133014.15</x:v>
+        <x:v>133014.15000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5256,7 +5256,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>128535.07999999999</x:v>
+        <x:v>128535.07999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5271,7 +5271,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>125036.79</x:v>
+        <x:v>125036.79000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5346,7 +5346,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>119619.88000000002</x:v>
+        <x:v>119619.87999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5376,7 +5376,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>116666.43000000001</x:v>
+        <x:v>116666.43000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5406,7 +5406,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>114122.83000000002</x:v>
+        <x:v>114122.83</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5421,7 +5421,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>114069.98999999999</x:v>
+        <x:v>114069.99</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5466,7 +5466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>110680.43000000002</x:v>
+        <x:v>110680.43000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5481,7 +5481,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>108316.63999999998</x:v>
+        <x:v>108316.64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5496,7 +5496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107853.52</x:v>
+        <x:v>107853.51999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5511,7 +5511,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107656.72</x:v>
+        <x:v>107656.71999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5526,7 +5526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107615.7</x:v>
+        <x:v>107615.69999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5571,7 +5571,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104382.36</x:v>
+        <x:v>104382.35999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5691,7 +5691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>101870.57999999999</x:v>
+        <x:v>101870.58</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5781,7 +5781,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>100329.00000000001</x:v>
+        <x:v>100329</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5826,7 +5826,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>99391.51</x:v>
+        <x:v>99391.510000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5841,7 +5841,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>98616.55</x:v>
+        <x:v>98616.549999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5946,7 +5946,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>88361.069999999978</x:v>
+        <x:v>88361.069999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6051,7 +6051,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>79353.86</x:v>
+        <x:v>79353.860000000015</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6066,7 +6066,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>78983.09</x:v>
+        <x:v>78983.090000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6096,7 +6096,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>76721.12999999999</x:v>
+        <x:v>76721.13</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6231,7 +6231,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>71465.15</x:v>
+        <x:v>71465.150000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6261,7 +6261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>68768.37</x:v>
+        <x:v>68768.37000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6321,7 +6321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>66820.12</x:v>
+        <x:v>66820.12000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6411,7 +6411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>62457.600000000006</x:v>
+        <x:v>62457.6</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6501,7 +6501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>56644.380000000005</x:v>
+        <x:v>56644.38</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6681,7 +6681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50035.47</x:v>
+        <x:v>50035.469999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6711,7 +6711,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48590.69</x:v>
+        <x:v>48590.689999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6726,7 +6726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>47732.229999999996</x:v>
+        <x:v>47732.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6741,7 +6741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>47714.709999999992</x:v>
+        <x:v>47714.71</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6771,7 +6771,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>44338.719999999994</x:v>
+        <x:v>44338.72</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6831,7 +6831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>41729.94</x:v>
+        <x:v>41729.939999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6846,7 +6846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>38285.79</x:v>
+        <x:v>38285.789999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6876,7 +6876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35712.710000000006</x:v>
+        <x:v>35712.71</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6891,7 +6891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35352.939999999995</x:v>
+        <x:v>35352.94</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7221,7 +7221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>20600.120000000003</x:v>
+        <x:v>20600.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7311,7 +7311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14667.53</x:v>
+        <x:v>14667.529999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7326,7 +7326,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14332.420000000002</x:v>
+        <x:v>14332.419999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7401,7 +7401,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>12029.67</x:v>
+        <x:v>12029.669999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7686,7 +7686,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2124.0399999999995</x:v>
+        <x:v>2124.04</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7716,7 +7716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1298.8700000000001</x:v>
+        <x:v>1298.87</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7776,7 +7776,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>757.17000000000007</x:v>
+        <x:v>757.17</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7806,7 +7806,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>567.7</x:v>
+        <x:v>567.70000000000016</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7926,7 +7926,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>225.57</x:v>
+        <x:v>225.56999999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -8151,7 +8151,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35.290000000000006</x:v>
+        <x:v>35.29</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rac8d833c7fb442d1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R97d6bca0dccc4047"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -81,7 +81,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>16558324.88</x:v>
+        <x:v>16558324.880000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -96,7 +96,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>8181536.0900000017</x:v>
+        <x:v>8181536.0900000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -111,7 +111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>7259720.03</x:v>
+        <x:v>7259720.0300000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -126,7 +126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6259204.1999999993</x:v>
+        <x:v>6259204.2</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -171,7 +171,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4493901.6799999988</x:v>
+        <x:v>4493901.68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -231,7 +231,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4234005.44</x:v>
+        <x:v>4234005.4399999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -276,7 +276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3823899.2699999996</x:v>
+        <x:v>3823899.2700000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -321,7 +321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3415846.7399999998</x:v>
+        <x:v>3415846.74</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -336,7 +336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3350691.16</x:v>
+        <x:v>3350691.1600000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -366,7 +366,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3004288.1100000003</x:v>
+        <x:v>3004288.11</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -456,7 +456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2411184.4700000007</x:v>
+        <x:v>2411184.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -531,7 +531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1999150.7799999998</x:v>
+        <x:v>1999150.78</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -546,7 +546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1986233.9200000006</x:v>
+        <x:v>1986233.9200000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -561,7 +561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1882163.79</x:v>
+        <x:v>1882163.7899999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -666,7 +666,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1644582.48</x:v>
+        <x:v>1644582.4800000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -681,7 +681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1635405.1500000001</x:v>
+        <x:v>1635405.1499999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -696,7 +696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1625151.7399999998</x:v>
+        <x:v>1625151.74</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -711,7 +711,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1572465.6600000001</x:v>
+        <x:v>1572465.6599999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -741,7 +741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1453250.8399999999</x:v>
+        <x:v>1453250.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -771,7 +771,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1426329.8399999999</x:v>
+        <x:v>1426329.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -816,7 +816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1352706.26</x:v>
+        <x:v>1352706.2599999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -846,7 +846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1299766.5399999998</x:v>
+        <x:v>1299766.54</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -876,7 +876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1291412.9200000002</x:v>
+        <x:v>1291412.9200000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -906,7 +906,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1269008.1099999999</x:v>
+        <x:v>1269008.11</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -966,7 +966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1213996.8400000003</x:v>
+        <x:v>1213996.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -981,7 +981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1201323.5</x:v>
+        <x:v>1201323.4999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1101,7 +1101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1059166.8499999999</x:v>
+        <x:v>1059166.85</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1161,7 +1161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1038914.7200000001</x:v>
+        <x:v>1038914.72</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1176,7 +1176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1014380.64</x:v>
+        <x:v>1014380.6400000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1191,7 +1191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>993654.46000000008</x:v>
+        <x:v>993654.45999999985</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1206,7 +1206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>989456.16000000015</x:v>
+        <x:v>989456.16</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1236,7 +1236,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>988146.97999999986</x:v>
+        <x:v>988146.98</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1266,7 +1266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>977953.12</x:v>
+        <x:v>977953.12000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1281,7 +1281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>975170.83</x:v>
+        <x:v>975170.82999999984</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1296,7 +1296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>968066.11</x:v>
+        <x:v>968066.10999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1356,7 +1356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>897980.92000000016</x:v>
+        <x:v>897980.92</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1371,7 +1371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>895641.86</x:v>
+        <x:v>895641.85999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1386,7 +1386,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>885095.49999999977</x:v>
+        <x:v>885095.49999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1476,7 +1476,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>855885.73999999987</x:v>
+        <x:v>855885.74</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1521,7 +1521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>832387.78</x:v>
+        <x:v>832387.78000000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1566,7 +1566,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>825613.83000000019</x:v>
+        <x:v>825613.82999999984</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1626,7 +1626,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>799750.28999999992</x:v>
+        <x:v>799750.29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1776,7 +1776,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>716255.15</x:v>
+        <x:v>716255.15000000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1821,7 +1821,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>685897.14000000013</x:v>
+        <x:v>685897.14</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1851,7 +1851,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>678791.16999999993</x:v>
+        <x:v>678791.17</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1866,7 +1866,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>677621.78999999992</x:v>
+        <x:v>677621.7899999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1896,7 +1896,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>657482.36</x:v>
+        <x:v>657482.3600000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1911,7 +1911,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>652694.42999999993</x:v>
+        <x:v>652694.42999999982</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1956,7 +1956,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>646558.65999999992</x:v>
+        <x:v>646558.66</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1986,7 +1986,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>627395.51</x:v>
+        <x:v>627395.50999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2016,7 +2016,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>622852.64999999991</x:v>
+        <x:v>622852.65000000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2121,7 +2121,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>593488.87999999989</x:v>
+        <x:v>593488.88</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2151,7 +2151,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>581056.45000000007</x:v>
+        <x:v>581056.45</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2166,7 +2166,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>580147.89</x:v>
+        <x:v>580147.8899999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2196,7 +2196,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>572431.77000000014</x:v>
+        <x:v>572431.77</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2211,7 +2211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>569701.53000000014</x:v>
+        <x:v>569701.52999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2226,7 +2226,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>568296.47000000009</x:v>
+        <x:v>568296.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2241,7 +2241,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>563690.44</x:v>
+        <x:v>563690.44000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2256,7 +2256,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>557995.27</x:v>
+        <x:v>557995.2699999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2316,7 +2316,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>548547.95</x:v>
+        <x:v>548547.94999999984</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2331,7 +2331,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>544094.10000000009</x:v>
+        <x:v>544094.1</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2451,7 +2451,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>507538.91999999993</x:v>
+        <x:v>507538.92</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2481,7 +2481,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>498999.00999999995</x:v>
+        <x:v>498999.01</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2511,7 +2511,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>493864.06999999995</x:v>
+        <x:v>493864.07</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2556,7 +2556,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>460298.89</x:v>
+        <x:v>460298.89000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2601,7 +2601,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>456504.12000000005</x:v>
+        <x:v>456504.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2616,7 +2616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>455159.18999999994</x:v>
+        <x:v>455159.19000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2631,7 +2631,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>449498.75000000012</x:v>
+        <x:v>449498.75000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2646,7 +2646,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>440109.22999999992</x:v>
+        <x:v>440109.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2661,7 +2661,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>439266.71999999991</x:v>
+        <x:v>439266.72</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2676,7 +2676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>435188.79000000004</x:v>
+        <x:v>435188.79</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2721,7 +2721,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>426903.78</x:v>
+        <x:v>426903.77999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2736,7 +2736,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>425429.03</x:v>
+        <x:v>425429.02999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2751,7 +2751,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>424980.24</x:v>
+        <x:v>424980.23999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2856,7 +2856,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>394222.42000000004</x:v>
+        <x:v>394222.42</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2916,7 +2916,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>373964.84000000008</x:v>
+        <x:v>373964.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2961,7 +2961,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>371467.20000000007</x:v>
+        <x:v>371467.2</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3006,7 +3006,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>366997.94999999995</x:v>
+        <x:v>366997.9499999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3021,7 +3021,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>365233.38999999996</x:v>
+        <x:v>365233.38999999984</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3036,7 +3036,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>364606.85999999993</x:v>
+        <x:v>364606.86</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3051,7 +3051,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>361728.9</x:v>
+        <x:v>361728.89999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3141,7 +3141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>344967.04000000004</x:v>
+        <x:v>344967.03999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3171,7 +3171,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>342880.59</x:v>
+        <x:v>342880.58999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3231,7 +3231,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>333861.21</x:v>
+        <x:v>333861.20999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3246,7 +3246,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>332372.44</x:v>
+        <x:v>332372.43999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3261,7 +3261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>329825.91000000009</x:v>
+        <x:v>329825.91000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3291,7 +3291,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>325965.86999999994</x:v>
+        <x:v>325965.87</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3366,7 +3366,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>316187.63999999996</x:v>
+        <x:v>316187.64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3381,7 +3381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>313052.48000000004</x:v>
+        <x:v>313052.48</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3501,7 +3501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>293419.67000000004</x:v>
+        <x:v>293419.67</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3546,7 +3546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>288050.36999999994</x:v>
+        <x:v>288050.37</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3591,7 +3591,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>281762.14</x:v>
+        <x:v>281762.13999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3606,7 +3606,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>281737.68</x:v>
+        <x:v>281737.67999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3636,7 +3636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>276602.10999999993</x:v>
+        <x:v>276602.11000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3666,7 +3666,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>273983.3</x:v>
+        <x:v>273983.30000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3696,7 +3696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>268070.30000000005</x:v>
+        <x:v>268070.29999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3726,7 +3726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>265567.32000000007</x:v>
+        <x:v>265567.31999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3801,7 +3801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>261254.31</x:v>
+        <x:v>261254.30999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3861,7 +3861,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>249642.39999999997</x:v>
+        <x:v>249642.40000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3906,7 +3906,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>245061.61000000004</x:v>
+        <x:v>245061.61000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3921,7 +3921,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>243567.75999999998</x:v>
+        <x:v>243567.76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4026,7 +4026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>235227.5</x:v>
+        <x:v>235227.49999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4071,7 +4071,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>221870.78000000003</x:v>
+        <x:v>221870.78</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4101,7 +4101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>219308.38000000003</x:v>
+        <x:v>219308.38</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4116,7 +4116,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>216235.17999999996</x:v>
+        <x:v>216235.18000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4176,7 +4176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>208816.29</x:v>
+        <x:v>208816.28999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4206,7 +4206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206534.09000000003</x:v>
+        <x:v>206534.09</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4221,7 +4221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206415.84</x:v>
+        <x:v>206415.84000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4236,7 +4236,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206340.93</x:v>
+        <x:v>206340.93000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4251,7 +4251,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>204946.84999999995</x:v>
+        <x:v>204946.84999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4266,7 +4266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>204136.47</x:v>
+        <x:v>204136.46999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4311,7 +4311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>202109.64</x:v>
+        <x:v>202109.63999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4341,7 +4341,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>195267.48999999996</x:v>
+        <x:v>195267.49000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4386,7 +4386,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>193018.39</x:v>
+        <x:v>193018.39000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4506,7 +4506,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>178815.28</x:v>
+        <x:v>178815.28000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4521,7 +4521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>176843.82</x:v>
+        <x:v>176843.81999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4551,7 +4551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>171249.99</x:v>
+        <x:v>171249.99000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4611,7 +4611,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>167335.39</x:v>
+        <x:v>167335.38999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4716,7 +4716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>159731.45</x:v>
+        <x:v>159731.45000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4791,7 +4791,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158313.01</x:v>
+        <x:v>158313.01000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4836,7 +4836,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>152913.48</x:v>
+        <x:v>152913.47999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4911,7 +4911,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>146346.34999999998</x:v>
+        <x:v>146346.35</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4941,7 +4941,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>143634.74</x:v>
+        <x:v>143634.74000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4986,7 +4986,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>140943.03</x:v>
+        <x:v>140943.02999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5061,7 +5061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139434.54999999996</x:v>
+        <x:v>139434.55</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5076,7 +5076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139309.90000000002</x:v>
+        <x:v>139309.9</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5121,7 +5121,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>137062.21</x:v>
+        <x:v>137062.21000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5151,7 +5151,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>134819.28</x:v>
+        <x:v>134819.28000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5241,7 +5241,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>128694.49</x:v>
+        <x:v>128694.49000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5256,7 +5256,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>128535.07999999997</x:v>
+        <x:v>128535.08000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5301,7 +5301,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>123711.1</x:v>
+        <x:v>123711.10000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5316,7 +5316,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>121423.11000000002</x:v>
+        <x:v>121423.11</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5331,7 +5331,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>121236.27999999998</x:v>
+        <x:v>121236.28</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5376,7 +5376,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>116666.43000000002</x:v>
+        <x:v>116666.43000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5466,7 +5466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>110680.43000000001</x:v>
+        <x:v>110680.43000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5511,7 +5511,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107656.71999999999</x:v>
+        <x:v>107656.72</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5526,7 +5526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107615.69999999998</x:v>
+        <x:v>107615.7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5571,7 +5571,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104382.35999999999</x:v>
+        <x:v>104382.36000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5616,7 +5616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>103277.52999999998</x:v>
+        <x:v>103277.53</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5661,7 +5661,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>101923.46999999999</x:v>
+        <x:v>101923.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5691,7 +5691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>101870.58</x:v>
+        <x:v>101870.58000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5811,7 +5811,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>99419.69</x:v>
+        <x:v>99419.690000000017</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5826,7 +5826,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>99391.510000000009</x:v>
+        <x:v>99391.51</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5856,7 +5856,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>98264.23</x:v>
+        <x:v>98264.23000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5976,7 +5976,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>86131.68</x:v>
+        <x:v>86131.680000000022</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6021,7 +6021,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>82941.37000000001</x:v>
+        <x:v>82941.37</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6051,7 +6051,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>79353.860000000015</x:v>
+        <x:v>79353.86</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6066,7 +6066,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>78983.090000000011</x:v>
+        <x:v>78983.09</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6081,7 +6081,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>77261.81</x:v>
+        <x:v>77261.810000000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6141,7 +6141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>76224.89999999998</x:v>
+        <x:v>76224.9</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6186,7 +6186,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>74021.74</x:v>
+        <x:v>74021.739999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6231,7 +6231,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>71465.150000000009</x:v>
+        <x:v>71465.15</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6261,7 +6261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>68768.37000000001</x:v>
+        <x:v>68768.37</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6396,7 +6396,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>63020.23000000001</x:v>
+        <x:v>63020.229999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6426,7 +6426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>59358.43</x:v>
+        <x:v>59358.429999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6441,7 +6441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>59290.170000000006</x:v>
+        <x:v>59290.17</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6501,7 +6501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>56644.38</x:v>
+        <x:v>56644.380000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6576,7 +6576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>53635.6</x:v>
+        <x:v>53635.600000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6621,7 +6621,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50618.13</x:v>
+        <x:v>50618.12999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6636,7 +6636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50343.840000000004</x:v>
+        <x:v>50343.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6651,7 +6651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50325.819999999992</x:v>
+        <x:v>50325.82</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6681,7 +6681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50035.469999999994</x:v>
+        <x:v>50035.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6726,7 +6726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>47732.23</x:v>
+        <x:v>47732.23000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6771,7 +6771,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>44338.72</x:v>
+        <x:v>44338.719999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6921,7 +6921,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35047.23</x:v>
+        <x:v>35047.229999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7026,7 +7026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30879.29</x:v>
+        <x:v>30879.289999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7221,7 +7221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>20600.12</x:v>
+        <x:v>20600.120000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7266,7 +7266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>16723.989999999998</x:v>
+        <x:v>16723.99</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7326,7 +7326,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14332.419999999998</x:v>
+        <x:v>14332.42</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7401,7 +7401,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>12029.669999999998</x:v>
+        <x:v>12029.67</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7596,7 +7596,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4913.77</x:v>
+        <x:v>4913.7699999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7686,7 +7686,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2124.04</x:v>
+        <x:v>2124.0399999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7776,7 +7776,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>757.17</x:v>
+        <x:v>757.17000000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7806,7 +7806,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>567.70000000000016</x:v>
+        <x:v>567.7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7926,7 +7926,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>225.56999999999996</x:v>
+        <x:v>225.57</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -8151,7 +8151,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35.29</x:v>
+        <x:v>35.290000000000006</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R97d6bca0dccc4047"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Re90242209f3e4145"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -111,7 +111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>7259720.0300000012</x:v>
+        <x:v>7259720.03</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -126,7 +126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6259204.2</x:v>
+        <x:v>6259204.1999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -171,7 +171,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4493901.68</x:v>
+        <x:v>4493901.6800000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -276,7 +276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3823899.2700000009</x:v>
+        <x:v>3823899.27</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -291,7 +291,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3802275.57</x:v>
+        <x:v>3802275.5700000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -321,7 +321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3415846.74</x:v>
+        <x:v>3415846.7399999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -336,7 +336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3350691.1600000011</x:v>
+        <x:v>3350691.16</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -366,7 +366,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3004288.11</x:v>
+        <x:v>3004288.1100000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -396,7 +396,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2830245.9200000009</x:v>
+        <x:v>2830245.92</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -426,7 +426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2587134.9499999993</x:v>
+        <x:v>2587134.9500000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -456,7 +456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2411184.47</x:v>
+        <x:v>2411184.4700000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -516,7 +516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2115275.93</x:v>
+        <x:v>2115275.9299999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -531,7 +531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1999150.78</x:v>
+        <x:v>1999150.7800000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -546,7 +546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1986233.9200000002</x:v>
+        <x:v>1986233.9200000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -576,7 +576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1873033.22</x:v>
+        <x:v>1873033.2199999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -591,7 +591,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1845064.9699999995</x:v>
+        <x:v>1845064.9699999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -621,7 +621,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1800068.5099999995</x:v>
+        <x:v>1800068.51</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -681,7 +681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1635405.1499999997</x:v>
+        <x:v>1635405.15</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -726,7 +726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1480940.4299999997</x:v>
+        <x:v>1480940.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -756,7 +756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1437951.21</x:v>
+        <x:v>1437951.2100000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -771,7 +771,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1426329.84</x:v>
+        <x:v>1426329.8400000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -786,7 +786,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1415061.8000000003</x:v>
+        <x:v>1415061.8</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -816,7 +816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1352706.2599999998</x:v>
+        <x:v>1352706.2600000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -846,7 +846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1299766.54</x:v>
+        <x:v>1299766.5399999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -891,7 +891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1271044.1700000002</x:v>
+        <x:v>1271044.17</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -981,7 +981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1201323.4999999998</x:v>
+        <x:v>1201323.5</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -996,7 +996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1177328.3599999999</x:v>
+        <x:v>1177328.36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1026,7 +1026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1153893.8</x:v>
+        <x:v>1153893.8000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1041,7 +1041,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1116383.17</x:v>
+        <x:v>1116383.1699999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1056,7 +1056,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1096456.95</x:v>
+        <x:v>1096456.9500000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1161,7 +1161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1038914.72</x:v>
+        <x:v>1038914.7199999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1176,7 +1176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1014380.6400000001</x:v>
+        <x:v>1014380.6399999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1191,7 +1191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>993654.45999999985</x:v>
+        <x:v>993654.46000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1221,7 +1221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>988821.10000000009</x:v>
+        <x:v>988821.1</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1236,7 +1236,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>988146.98</x:v>
+        <x:v>988146.9800000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1251,7 +1251,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>979985.99999999988</x:v>
+        <x:v>979986</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1266,7 +1266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>977953.12000000011</x:v>
+        <x:v>977953.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1281,7 +1281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>975170.82999999984</x:v>
+        <x:v>975170.83000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1296,7 +1296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>968066.10999999987</x:v>
+        <x:v>968066.1100000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1371,7 +1371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>895641.85999999987</x:v>
+        <x:v>895641.86</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1446,7 +1446,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>864789.1</x:v>
+        <x:v>864789.09999999986</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1506,7 +1506,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>833854.2899999998</x:v>
+        <x:v>833854.28999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1581,7 +1581,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>815151.76000000013</x:v>
+        <x:v>815151.76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1596,7 +1596,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>810234.76</x:v>
+        <x:v>810234.75999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1611,7 +1611,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>806611.27999999956</x:v>
+        <x:v>806611.28000000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1626,7 +1626,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>799750.29</x:v>
+        <x:v>799750.28999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1641,7 +1641,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>794449.21</x:v>
+        <x:v>794449.20999999985</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1671,7 +1671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>793643.55999999994</x:v>
+        <x:v>793643.56000000017</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1776,7 +1776,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>716255.15000000014</x:v>
+        <x:v>716255.15</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1791,7 +1791,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>698788.65000000014</x:v>
+        <x:v>698788.64999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1851,7 +1851,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>678791.17</x:v>
+        <x:v>678791.16999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1866,7 +1866,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>677621.7899999998</x:v>
+        <x:v>677621.78999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1911,7 +1911,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>652694.42999999982</x:v>
+        <x:v>652694.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1941,7 +1941,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>648801.05</x:v>
+        <x:v>648801.05000000016</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1956,7 +1956,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>646558.66</x:v>
+        <x:v>646558.65999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1971,7 +1971,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>633259.69000000006</x:v>
+        <x:v>633259.69</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2016,7 +2016,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>622852.65000000014</x:v>
+        <x:v>622852.64999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2061,7 +2061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>616508.24</x:v>
+        <x:v>616508.24000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2076,7 +2076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>607964.16000000015</x:v>
+        <x:v>607964.16</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2121,7 +2121,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>593488.88</x:v>
+        <x:v>593488.87999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2136,7 +2136,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>584737.16999999981</x:v>
+        <x:v>584737.16999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2166,7 +2166,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>580147.8899999999</x:v>
+        <x:v>580147.89</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2211,7 +2211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>569701.52999999991</x:v>
+        <x:v>569701.53</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2241,7 +2241,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>563690.44000000006</x:v>
+        <x:v>563690.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2301,7 +2301,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>551255.48999999987</x:v>
+        <x:v>551255.49</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2316,7 +2316,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>548547.94999999984</x:v>
+        <x:v>548547.95</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2436,7 +2436,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>516248.1999999999</x:v>
+        <x:v>516248.2</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2451,7 +2451,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>507538.92</x:v>
+        <x:v>507538.91999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2526,7 +2526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>486328.29</x:v>
+        <x:v>486328.29000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2556,7 +2556,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>460298.89000000007</x:v>
+        <x:v>460298.89</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2601,7 +2601,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>456504.12</x:v>
+        <x:v>456504.12000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2676,7 +2676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>435188.79</x:v>
+        <x:v>435188.79000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2721,7 +2721,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>426903.77999999997</x:v>
+        <x:v>426903.77999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2751,7 +2751,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>424980.23999999987</x:v>
+        <x:v>424980.23999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2766,7 +2766,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>424631.68000000005</x:v>
+        <x:v>424631.68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2826,7 +2826,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>406364.28</x:v>
+        <x:v>406364.27999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2916,7 +2916,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>373964.84</x:v>
+        <x:v>373964.83999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2931,7 +2931,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>373434.95999999996</x:v>
+        <x:v>373434.96</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2946,7 +2946,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>372694.19000000006</x:v>
+        <x:v>372694.19</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3006,7 +3006,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>366997.9499999999</x:v>
+        <x:v>366997.95</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3021,7 +3021,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>365233.38999999984</x:v>
+        <x:v>365233.39000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3036,7 +3036,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>364606.86</x:v>
+        <x:v>364606.85999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3066,7 +3066,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>359782.18</x:v>
+        <x:v>359782.18000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3141,7 +3141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>344967.03999999992</x:v>
+        <x:v>344967.04</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3156,7 +3156,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>344137.94</x:v>
+        <x:v>344137.94000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3231,7 +3231,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>333861.20999999996</x:v>
+        <x:v>333861.21</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3246,7 +3246,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>332372.43999999994</x:v>
+        <x:v>332372.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3276,7 +3276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>326444.66000000003</x:v>
+        <x:v>326444.66000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3306,7 +3306,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>323868.63999999996</x:v>
+        <x:v>323868.64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3366,7 +3366,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>316187.64</x:v>
+        <x:v>316187.63999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3381,7 +3381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>313052.48</x:v>
+        <x:v>313052.48000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3411,7 +3411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>309277.8</x:v>
+        <x:v>309277.80000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3516,7 +3516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>293170.54</x:v>
+        <x:v>293170.54000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3561,7 +3561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>286812.32</x:v>
+        <x:v>286812.32000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3606,7 +3606,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>281737.67999999993</x:v>
+        <x:v>281737.68000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3636,7 +3636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>276602.11000000004</x:v>
+        <x:v>276602.11</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3651,7 +3651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>275631.98000000004</x:v>
+        <x:v>275631.97999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3696,7 +3696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>268070.29999999993</x:v>
+        <x:v>268070.3</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3711,7 +3711,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>266940.91999999993</x:v>
+        <x:v>266940.92</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3726,7 +3726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>265567.31999999995</x:v>
+        <x:v>265567.32</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3861,7 +3861,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>249642.40000000002</x:v>
+        <x:v>249642.4</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3876,7 +3876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>247915.13999999998</x:v>
+        <x:v>247915.14</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3936,7 +3936,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>243546.03</x:v>
+        <x:v>243546.03000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3996,7 +3996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>237895.78</x:v>
+        <x:v>237895.78000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4026,7 +4026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>235227.49999999997</x:v>
+        <x:v>235227.5</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4116,7 +4116,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>216235.18000000002</x:v>
+        <x:v>216235.18</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4146,7 +4146,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>214830.06999999998</x:v>
+        <x:v>214830.07</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4176,7 +4176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>208816.28999999998</x:v>
+        <x:v>208816.29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4206,7 +4206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206534.09</x:v>
+        <x:v>206534.09000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4221,7 +4221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206415.84000000003</x:v>
+        <x:v>206415.83999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4236,7 +4236,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206340.93000000002</x:v>
+        <x:v>206340.93</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4266,7 +4266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>204136.46999999997</x:v>
+        <x:v>204136.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4296,7 +4296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>202669.63</x:v>
+        <x:v>202669.62999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4311,7 +4311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>202109.63999999998</x:v>
+        <x:v>202109.64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4341,7 +4341,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>195267.49000000002</x:v>
+        <x:v>195267.49</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4356,7 +4356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>194331.54</x:v>
+        <x:v>194331.53999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4416,7 +4416,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>189978.62</x:v>
+        <x:v>189978.61999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4431,7 +4431,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>186953.89</x:v>
+        <x:v>186953.88999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4446,7 +4446,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>184846.58999999997</x:v>
+        <x:v>184846.59</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4506,7 +4506,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>178815.28000000003</x:v>
+        <x:v>178815.28</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4521,7 +4521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>176843.81999999998</x:v>
+        <x:v>176843.82</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4551,7 +4551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>171249.99000000002</x:v>
+        <x:v>171249.99</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4596,7 +4596,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>168221.83999999997</x:v>
+        <x:v>168221.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4611,7 +4611,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>167335.38999999998</x:v>
+        <x:v>167335.39</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4641,7 +4641,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>163970.99</x:v>
+        <x:v>163970.99000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4656,7 +4656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>161941.69999999998</x:v>
+        <x:v>161941.7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4671,7 +4671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>161251.23</x:v>
+        <x:v>161251.23000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4701,7 +4701,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>160313.15</x:v>
+        <x:v>160313.14999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4716,7 +4716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>159731.45000000004</x:v>
+        <x:v>159731.45</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4746,7 +4746,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>159348.82000000004</x:v>
+        <x:v>159348.82</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4791,7 +4791,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158313.01000000004</x:v>
+        <x:v>158313.00999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4806,7 +4806,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158187.12</x:v>
+        <x:v>158187.12000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4881,7 +4881,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>149455.43000000002</x:v>
+        <x:v>149455.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4911,7 +4911,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>146346.35</x:v>
+        <x:v>146346.34999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4926,7 +4926,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>143796.09999999998</x:v>
+        <x:v>143796.1</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4941,7 +4941,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>143634.74000000002</x:v>
+        <x:v>143634.74</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4986,7 +4986,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>140943.02999999997</x:v>
+        <x:v>140943.03000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5016,7 +5016,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>140501.13</x:v>
+        <x:v>140501.13000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5076,7 +5076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139309.9</x:v>
+        <x:v>139309.90000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5121,7 +5121,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>137062.21000000002</x:v>
+        <x:v>137062.20999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5136,7 +5136,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>136717.77000000002</x:v>
+        <x:v>136717.77</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5181,7 +5181,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>133014.15000000002</x:v>
+        <x:v>133014.15</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5226,7 +5226,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>129829.43000000001</x:v>
+        <x:v>129829.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5241,7 +5241,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>128694.49000000002</x:v>
+        <x:v>128694.49</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5301,7 +5301,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>123711.10000000002</x:v>
+        <x:v>123711.09999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5346,7 +5346,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>119619.87999999999</x:v>
+        <x:v>119619.88</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5391,7 +5391,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>115721.76000000001</x:v>
+        <x:v>115721.76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5436,7 +5436,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>113997.89000000001</x:v>
+        <x:v>113997.88999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5451,7 +5451,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>111293.34</x:v>
+        <x:v>111293.33999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5466,7 +5466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>110680.43000000002</x:v>
+        <x:v>110680.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5481,7 +5481,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>108316.64</x:v>
+        <x:v>108316.64000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5496,7 +5496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107853.51999999999</x:v>
+        <x:v>107853.52000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5526,7 +5526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107615.7</x:v>
+        <x:v>107615.69999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5541,7 +5541,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>106896.20000000001</x:v>
+        <x:v>106896.2</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5556,7 +5556,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104842.99</x:v>
+        <x:v>104842.98999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5586,7 +5586,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104328.6</x:v>
+        <x:v>104328.59999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5616,7 +5616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>103277.53</x:v>
+        <x:v>103277.52999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5646,7 +5646,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102428.22</x:v>
+        <x:v>102428.21999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5661,7 +5661,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>101923.47</x:v>
+        <x:v>101923.47000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5781,7 +5781,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>100329</x:v>
+        <x:v>100328.99999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5796,7 +5796,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>99435.32</x:v>
+        <x:v>99435.320000000022</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5811,7 +5811,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>99419.690000000017</x:v>
+        <x:v>99419.689999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5826,7 +5826,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>99391.51</x:v>
+        <x:v>99391.510000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5931,7 +5931,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>89252.26</x:v>
+        <x:v>89252.260000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5946,7 +5946,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>88361.069999999992</x:v>
+        <x:v>88361.069999999978</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5961,7 +5961,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>87640.15</x:v>
+        <x:v>87640.150000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5976,7 +5976,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>86131.680000000022</x:v>
+        <x:v>86131.68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6006,7 +6006,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>84491.62000000001</x:v>
+        <x:v>84491.62</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6081,7 +6081,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>77261.810000000012</x:v>
+        <x:v>77261.81</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6096,7 +6096,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>76721.13</x:v>
+        <x:v>76721.12999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6171,7 +6171,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>74507.77</x:v>
+        <x:v>74507.769999999975</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6201,7 +6201,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>73611.739999999991</x:v>
+        <x:v>73611.74</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6261,7 +6261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>68768.37</x:v>
+        <x:v>68768.37000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6321,7 +6321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>66820.12000000001</x:v>
+        <x:v>66820.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6396,7 +6396,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>63020.229999999996</x:v>
+        <x:v>63020.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6426,7 +6426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>59358.429999999993</x:v>
+        <x:v>59358.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6441,7 +6441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>59290.17</x:v>
+        <x:v>59290.170000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6501,7 +6501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>56644.380000000005</x:v>
+        <x:v>56644.380000000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6516,7 +6516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>56607.660000000011</x:v>
+        <x:v>56607.66</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6546,7 +6546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>54259.78</x:v>
+        <x:v>54259.780000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6561,7 +6561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>54195.94</x:v>
+        <x:v>54195.939999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6621,7 +6621,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50618.12999999999</x:v>
+        <x:v>50618.130000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6636,7 +6636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50343.84</x:v>
+        <x:v>50343.840000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6651,7 +6651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50325.82</x:v>
+        <x:v>50325.820000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6666,7 +6666,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50211.77</x:v>
+        <x:v>50211.770000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6711,7 +6711,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48590.689999999995</x:v>
+        <x:v>48590.69</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6726,7 +6726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>47732.23000000001</x:v>
+        <x:v>47732.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6831,7 +6831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>41729.939999999995</x:v>
+        <x:v>41729.94</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6861,7 +6861,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>37303.359999999993</x:v>
+        <x:v>37303.36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6891,7 +6891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35352.94</x:v>
+        <x:v>35352.939999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6906,7 +6906,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35153.35</x:v>
+        <x:v>35153.349999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7011,7 +7011,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30882.32</x:v>
+        <x:v>30882.319999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7026,7 +7026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30879.289999999997</x:v>
+        <x:v>30879.29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7056,7 +7056,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30271.31</x:v>
+        <x:v>30271.309999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7236,7 +7236,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>18557.09</x:v>
+        <x:v>18557.090000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7266,7 +7266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>16723.99</x:v>
+        <x:v>16723.989999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7311,7 +7311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14667.529999999999</x:v>
+        <x:v>14667.53</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7326,7 +7326,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14332.42</x:v>
+        <x:v>14332.420000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7521,7 +7521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6838.93</x:v>
+        <x:v>6838.9299999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7686,7 +7686,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2124.0399999999995</x:v>
+        <x:v>2124.04</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7806,7 +7806,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>567.7</x:v>
+        <x:v>567.69999999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -8181,7 +8181,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30.02</x:v>
+        <x:v>30.020000000000003</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R33321e8fce2343d1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R4d2ac8573e374616"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -81,7 +81,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>16581616.919999998</x:v>
+        <x:v>16581616.920000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -96,7 +96,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>8186996.6300000018</x:v>
+        <x:v>8186996.6300000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -126,7 +126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6267741.6</x:v>
+        <x:v>6267741.6000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -141,7 +141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>5815140.5800000019</x:v>
+        <x:v>5815140.580000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -156,7 +156,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4497129.86</x:v>
+        <x:v>4497129.8599999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -261,7 +261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3825396.93</x:v>
+        <x:v>3825396.9299999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -276,7 +276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3804366.56</x:v>
+        <x:v>3804366.5599999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -306,7 +306,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3424844.8899999992</x:v>
+        <x:v>3424844.89</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -351,7 +351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3013965.1199999992</x:v>
+        <x:v>3013965.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -381,7 +381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2831861.3000000003</x:v>
+        <x:v>2831861.3000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -396,7 +396,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2748992.95</x:v>
+        <x:v>2748992.9499999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -411,7 +411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2588194.8499999996</x:v>
+        <x:v>2588194.8500000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -501,7 +501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2116296.27</x:v>
+        <x:v>2116296.2700000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -516,7 +516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2001231.64</x:v>
+        <x:v>2001231.6400000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -531,7 +531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1994880.8600000003</x:v>
+        <x:v>1994880.86</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -546,7 +546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1885055.44</x:v>
+        <x:v>1885055.4400000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -636,7 +636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1672297.2100000002</x:v>
+        <x:v>1672297.2099999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -666,7 +666,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1636279.1300000001</x:v>
+        <x:v>1636279.13</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -681,7 +681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1625497.6999999997</x:v>
+        <x:v>1625497.7000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -696,7 +696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1574618.25</x:v>
+        <x:v>1574618.2499999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -726,7 +726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1456321.21</x:v>
+        <x:v>1456321.2099999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -741,7 +741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1439053.1800000002</x:v>
+        <x:v>1439053.1800000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -786,7 +786,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1380573.2200000002</x:v>
+        <x:v>1380573.22</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -831,7 +831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1300500.2200000002</x:v>
+        <x:v>1300500.22</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -846,7 +846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1292400.06</x:v>
+        <x:v>1292400.0599999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -876,7 +876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1271351.94</x:v>
+        <x:v>1271351.9400000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -996,7 +996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1155090.3</x:v>
+        <x:v>1155090.2999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1041,7 +1041,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1097011.23</x:v>
+        <x:v>1097011.2299999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1086,7 +1086,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1065355.4</x:v>
+        <x:v>1065355.4000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1101,7 +1101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1062240.73</x:v>
+        <x:v>1062240.7300000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1116,7 +1116,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1060844.8299999998</x:v>
+        <x:v>1060844.83</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1146,7 +1146,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1041020.87</x:v>
+        <x:v>1041020.8700000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1161,7 +1161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1019090.5699999998</x:v>
+        <x:v>1019090.57</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1191,7 +1191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>994201.4700000002</x:v>
+        <x:v>994201.47000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1221,7 +1221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>988605.20000000007</x:v>
+        <x:v>988605.2</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1341,7 +1341,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>903779.40000000014</x:v>
+        <x:v>903779.4</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1461,7 +1461,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>860005.60000000009</x:v>
+        <x:v>860005.6</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1476,7 +1476,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>843006.81</x:v>
+        <x:v>843006.80999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1506,7 +1506,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>834549.35</x:v>
+        <x:v>834549.35000000033</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1566,7 +1566,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>815311.38000000012</x:v>
+        <x:v>815311.37999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1581,7 +1581,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>813720.04999999993</x:v>
+        <x:v>813720.05000000016</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1626,7 +1626,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>801596.69999999984</x:v>
+        <x:v>801596.69999999972</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1656,7 +1656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>797221.34000000008</x:v>
+        <x:v>797221.34</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1686,7 +1686,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>771383.22000000009</x:v>
+        <x:v>771383.22</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1701,7 +1701,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>765899.1100000001</x:v>
+        <x:v>765899.11000000022</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1776,7 +1776,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>701298.65999999992</x:v>
+        <x:v>701298.66</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1806,7 +1806,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>686162.53999999992</x:v>
+        <x:v>686162.54</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1851,7 +1851,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>678732.8</x:v>
+        <x:v>678732.80000000016</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1926,7 +1926,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>653536.10000000009</x:v>
+        <x:v>653536.1</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1971,7 +1971,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>640448.67</x:v>
+        <x:v>640448.66999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2031,7 +2031,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>625367.51</x:v>
+        <x:v>625367.50999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2046,7 +2046,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>621145.56999999983</x:v>
+        <x:v>621145.57000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2076,7 +2076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>608558.33999999985</x:v>
+        <x:v>608558.34</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2091,7 +2091,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>606190.13</x:v>
+        <x:v>606190.12999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2181,7 +2181,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>581182.63000000012</x:v>
+        <x:v>581182.63</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2226,7 +2226,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>568685.07000000007</x:v>
+        <x:v>568685.07000000018</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2316,7 +2316,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>549285.96</x:v>
+        <x:v>549285.96000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2346,7 +2346,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>544322.91</x:v>
+        <x:v>544322.90999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2391,7 +2391,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>525614.83999999985</x:v>
+        <x:v>525614.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2436,7 +2436,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>518398.66000000003</x:v>
+        <x:v>518398.65999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2451,7 +2451,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>509655.24</x:v>
+        <x:v>509655.23999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2481,7 +2481,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>499956.93</x:v>
+        <x:v>499956.92999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2526,7 +2526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>492569.56999999995</x:v>
+        <x:v>492569.57</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2571,7 +2571,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>462201.19000000006</x:v>
+        <x:v>462201.19</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2586,7 +2586,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>462114.26000000007</x:v>
+        <x:v>462114.25999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2616,7 +2616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>455395.82999999996</x:v>
+        <x:v>455395.83</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2721,7 +2721,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>427474.42</x:v>
+        <x:v>427474.42000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2736,7 +2736,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>426448.05</x:v>
+        <x:v>426448.05000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2751,7 +2751,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>425997.92</x:v>
+        <x:v>425997.92000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2766,7 +2766,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>425646.41000000003</x:v>
+        <x:v>425646.40999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2841,7 +2841,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>403224.47</x:v>
+        <x:v>403224.47000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2856,7 +2856,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>394636.68000000005</x:v>
+        <x:v>394636.68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2871,7 +2871,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>391798.18999999994</x:v>
+        <x:v>391798.19</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2886,7 +2886,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>389474.72000000003</x:v>
+        <x:v>389474.72</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2901,7 +2901,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>378438.79</x:v>
+        <x:v>378438.79000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2931,7 +2931,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>374168.29000000004</x:v>
+        <x:v>374168.29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2961,7 +2961,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>369609.63</x:v>
+        <x:v>369609.63000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2976,7 +2976,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>367799.59</x:v>
+        <x:v>367799.58999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3006,7 +3006,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>365407.15000000008</x:v>
+        <x:v>365407.15000000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3036,7 +3036,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>362948.82</x:v>
+        <x:v>362948.81999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3111,7 +3111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>351409.68</x:v>
+        <x:v>351409.67999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3186,7 +3186,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>343045.56999999995</x:v>
+        <x:v>343045.57000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3261,7 +3261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>333771.93999999994</x:v>
+        <x:v>333771.94</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3321,7 +3321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>326855.44000000006</x:v>
+        <x:v>326855.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3441,7 +3441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>307509.48999999993</x:v>
+        <x:v>307509.49</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3471,7 +3471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>301979.86000000004</x:v>
+        <x:v>301979.86</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3516,7 +3516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>294402.17000000004</x:v>
+        <x:v>294402.17</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3531,7 +3531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>293668.16000000009</x:v>
+        <x:v>293668.16000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3546,7 +3546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>292060.54</x:v>
+        <x:v>292060.54000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3621,7 +3621,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>281894.69000000006</x:v>
+        <x:v>281894.69</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3636,7 +3636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>278776.44</x:v>
+        <x:v>278776.44000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3681,7 +3681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>274974.29</x:v>
+        <x:v>274974.29000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3741,7 +3741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>266680.43000000005</x:v>
+        <x:v>266680.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3756,7 +3756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>265516.23000000004</x:v>
+        <x:v>265516.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3801,7 +3801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>264176.97000000003</x:v>
+        <x:v>264176.97</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3816,7 +3816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>261874.3</x:v>
+        <x:v>261874.30000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3831,7 +3831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>254182.23000000004</x:v>
+        <x:v>254182.22999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3876,7 +3876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>250580.06999999998</x:v>
+        <x:v>250580.07</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3921,7 +3921,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>245183.64999999997</x:v>
+        <x:v>245183.65</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3936,7 +3936,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>245084.28</x:v>
+        <x:v>245084.27999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3996,7 +3996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>239566.97</x:v>
+        <x:v>239566.96999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4041,7 +4041,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>235692.81000000006</x:v>
+        <x:v>235692.80999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4071,7 +4071,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>225528.55999999997</x:v>
+        <x:v>225528.56</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4101,7 +4101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>220381.73</x:v>
+        <x:v>220381.72999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4131,7 +4131,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>216168.87</x:v>
+        <x:v>216168.86999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4206,7 +4206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>207024.04000000004</x:v>
+        <x:v>207024.04000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4236,7 +4236,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206451.35</x:v>
+        <x:v>206451.35000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4266,7 +4266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>205317.11000000002</x:v>
+        <x:v>205317.11000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4281,7 +4281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>204189.25</x:v>
+        <x:v>204189.25000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4296,7 +4296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>203128.86</x:v>
+        <x:v>203128.86000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4311,7 +4311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>202610.30999999994</x:v>
+        <x:v>202610.30999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4341,7 +4341,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>194414.8</x:v>
+        <x:v>194414.79999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4371,7 +4371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>194001.93</x:v>
+        <x:v>194001.92999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4401,7 +4401,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>193090.36000000004</x:v>
+        <x:v>193090.36000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4416,7 +4416,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>190645.48000000007</x:v>
+        <x:v>190645.48000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4536,7 +4536,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>171960.08</x:v>
+        <x:v>171960.08000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4581,7 +4581,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>168882.16999999998</x:v>
+        <x:v>168882.17000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4611,7 +4611,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>167639.10000000003</x:v>
+        <x:v>167639.1</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4626,7 +4626,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>167198.18999999997</x:v>
+        <x:v>167198.19</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4671,7 +4671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>162598.40000000002</x:v>
+        <x:v>162598.4</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4701,7 +4701,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>160310.81000000003</x:v>
+        <x:v>160310.80999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4731,7 +4731,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>159726.59999999995</x:v>
+        <x:v>159726.59999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4791,7 +4791,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158388.27</x:v>
+        <x:v>158388.27000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4806,7 +4806,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158335.78</x:v>
+        <x:v>158335.77999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4851,7 +4851,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>151692.64</x:v>
+        <x:v>151692.63999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4881,7 +4881,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>150141</x:v>
+        <x:v>150140.99999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4941,7 +4941,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>143887.87</x:v>
+        <x:v>143887.87000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5031,7 +5031,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>140224.55</x:v>
+        <x:v>140224.55000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5121,7 +5121,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>137375.67</x:v>
+        <x:v>137375.66999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5166,7 +5166,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>135348.68</x:v>
+        <x:v>135348.68000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5211,7 +5211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>131782.38</x:v>
+        <x:v>131782.38000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5286,7 +5286,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>125178.96999999999</x:v>
+        <x:v>125178.97</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5301,7 +5301,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>125030.68999999999</x:v>
+        <x:v>125030.68999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5361,7 +5361,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>119669.94</x:v>
+        <x:v>119669.93999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5421,7 +5421,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>114185.09999999998</x:v>
+        <x:v>114185.09999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5436,7 +5436,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>114118.51999999999</x:v>
+        <x:v>114118.52</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5466,7 +5466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>111749.21000000002</x:v>
+        <x:v>111749.21</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5496,7 +5496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>109165.69</x:v>
+        <x:v>109165.69000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5526,7 +5526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>108091.54000000001</x:v>
+        <x:v>108091.54000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5586,7 +5586,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104645.00000000001</x:v>
+        <x:v>104645</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5601,7 +5601,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104535.21000000002</x:v>
+        <x:v>104535.20999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5616,7 +5616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104387.86000000002</x:v>
+        <x:v>104387.86</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5631,7 +5631,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104136.39</x:v>
+        <x:v>104136.38999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5646,7 +5646,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104118.30000000002</x:v>
+        <x:v>104118.3</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5661,7 +5661,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104083.94000000002</x:v>
+        <x:v>104083.94</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5676,7 +5676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>103728.98</x:v>
+        <x:v>103728.98000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5721,7 +5721,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102638.98</x:v>
+        <x:v>102638.98000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5751,7 +5751,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102103.55</x:v>
+        <x:v>102103.54999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5766,7 +5766,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102080.79999999999</x:v>
+        <x:v>102080.80000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5811,7 +5811,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>100960.79999999999</x:v>
+        <x:v>100960.80000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5871,7 +5871,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>98543.299999999988</x:v>
+        <x:v>98543.300000000017</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5991,7 +5991,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>86339.780000000013</x:v>
+        <x:v>86339.78</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6021,7 +6021,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>84510.65</x:v>
+        <x:v>84510.650000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6096,7 +6096,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>77488.01</x:v>
+        <x:v>77488.010000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6111,7 +6111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>77485.579999999987</x:v>
+        <x:v>77485.580000000016</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6276,7 +6276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>68817.160000000018</x:v>
+        <x:v>68817.16</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6351,7 +6351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>66334.390000000014</x:v>
+        <x:v>66334.39</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6426,7 +6426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>62713.34</x:v>
+        <x:v>62713.340000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6441,7 +6441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>59592.079999999994</x:v>
+        <x:v>59592.08</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6456,7 +6456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>59578.270000000004</x:v>
+        <x:v>59578.27</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6471,7 +6471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>58368.87999999999</x:v>
+        <x:v>58368.88</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6516,7 +6516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>56680.159999999996</x:v>
+        <x:v>56680.16</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6576,7 +6576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>53961.28</x:v>
+        <x:v>53961.279999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6621,7 +6621,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50939.819999999992</x:v>
+        <x:v>50939.82</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6741,7 +6741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48660.46</x:v>
+        <x:v>48660.460000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6756,7 +6756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48273.82</x:v>
+        <x:v>48273.820000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6786,7 +6786,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>44376.22</x:v>
+        <x:v>44376.219999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6816,7 +6816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>42960.95</x:v>
+        <x:v>42960.950000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6861,7 +6861,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>40286.679999999993</x:v>
+        <x:v>40286.68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6891,7 +6891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35728.17</x:v>
+        <x:v>35728.170000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6966,7 +6966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>33900.139999999992</x:v>
+        <x:v>33900.14</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6981,7 +6981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>32969.17</x:v>
+        <x:v>32969.170000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7131,7 +7131,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>26990.739999999998</x:v>
+        <x:v>26990.74</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7251,7 +7251,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>20608.010000000002</x:v>
+        <x:v>20608.01</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7296,7 +7296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>16725.120000000003</x:v>
+        <x:v>16725.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7581,7 +7581,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>5744.6200000000008</x:v>
+        <x:v>5744.62</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7716,7 +7716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2155.2200000000003</x:v>
+        <x:v>2155.22</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7746,7 +7746,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1300.8</x:v>
+        <x:v>1300.8000000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7836,7 +7836,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>567.70000000000016</x:v>
+        <x:v>567.69999999999993</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R4d2ac8573e374616"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R4788640b9c934538"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -81,7 +81,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>16581616.920000004</x:v>
+        <x:v>16581616.919999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -96,7 +96,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>8186996.6300000008</x:v>
+        <x:v>8186996.6299999971</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -126,7 +126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6267741.6000000006</x:v>
+        <x:v>6267741.6</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -141,7 +141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>5815140.580000001</x:v>
+        <x:v>5815140.58</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -156,7 +156,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4497129.8599999994</x:v>
+        <x:v>4497129.8600000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -186,7 +186,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4371745.9700000007</x:v>
+        <x:v>4371745.97</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -261,7 +261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3825396.9299999997</x:v>
+        <x:v>3825396.9300000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -306,7 +306,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3424844.89</x:v>
+        <x:v>3424844.8900000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -336,7 +336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3227506.060000001</x:v>
+        <x:v>3227506.0599999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -351,7 +351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3013965.12</x:v>
+        <x:v>3013965.120000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -366,7 +366,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2857907.5799999996</x:v>
+        <x:v>2857907.58</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -381,7 +381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2831861.3000000007</x:v>
+        <x:v>2831861.2999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -411,7 +411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2588194.8500000006</x:v>
+        <x:v>2588194.85</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -441,7 +441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2421906.08</x:v>
+        <x:v>2421906.0799999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -501,7 +501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2116296.2700000005</x:v>
+        <x:v>2116296.27</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -531,7 +531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1994880.86</x:v>
+        <x:v>1994880.8599999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -546,7 +546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1885055.4400000004</x:v>
+        <x:v>1885055.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -561,7 +561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1878028.89</x:v>
+        <x:v>1878028.8900000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -576,7 +576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1846669.0200000005</x:v>
+        <x:v>1846669.0200000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -591,7 +591,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1818921.6899999997</x:v>
+        <x:v>1818921.69</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -621,7 +621,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1795550.0100000005</x:v>
+        <x:v>1795550.0099999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -636,7 +636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1672297.2099999997</x:v>
+        <x:v>1672297.2100000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -666,7 +666,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1636279.13</x:v>
+        <x:v>1636279.1300000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -681,7 +681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1625497.7000000002</x:v>
+        <x:v>1625497.6999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -696,7 +696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1574618.2499999998</x:v>
+        <x:v>1574618.2500000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -726,7 +726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1456321.2099999997</x:v>
+        <x:v>1456321.2100000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -741,7 +741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1439053.1800000004</x:v>
+        <x:v>1439053.18</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -771,7 +771,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1418288.89</x:v>
+        <x:v>1418288.8900000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -786,7 +786,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1380573.22</x:v>
+        <x:v>1380573.2199999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -801,7 +801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1362025.1599999997</x:v>
+        <x:v>1362025.1600000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -831,7 +831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1300500.22</x:v>
+        <x:v>1300500.2200000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -846,7 +846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1292400.0599999998</x:v>
+        <x:v>1292400.06</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -876,7 +876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1271351.9400000002</x:v>
+        <x:v>1271351.94</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -891,7 +891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1269702.59</x:v>
+        <x:v>1269702.5899999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -936,7 +936,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1237683.8399999999</x:v>
+        <x:v>1237683.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -951,7 +951,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1214895.15</x:v>
+        <x:v>1214895.1500000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -966,7 +966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1201483.76</x:v>
+        <x:v>1201483.7599999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1026,7 +1026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1117227.5300000003</x:v>
+        <x:v>1117227.5299999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1041,7 +1041,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1097011.2299999997</x:v>
+        <x:v>1097011.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1086,7 +1086,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1065355.4000000001</x:v>
+        <x:v>1065355.4</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1101,7 +1101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1062240.7300000002</x:v>
+        <x:v>1062240.73</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1116,7 +1116,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1060844.83</x:v>
+        <x:v>1060844.8299999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1146,7 +1146,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1041020.8700000001</x:v>
+        <x:v>1041020.8699999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1161,7 +1161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1019090.57</x:v>
+        <x:v>1019090.5700000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1176,7 +1176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>996742.75</x:v>
+        <x:v>996742.75000000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1191,7 +1191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>994201.47000000009</x:v>
+        <x:v>994201.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1206,7 +1206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>989362.62</x:v>
+        <x:v>989362.61999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1221,7 +1221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>988605.2</x:v>
+        <x:v>988605.20000000019</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1236,7 +1236,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>980641.7</x:v>
+        <x:v>980641.70000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1251,7 +1251,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>978407.1399999999</x:v>
+        <x:v>978407.14</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1266,7 +1266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>975778.98</x:v>
+        <x:v>975778.9800000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1281,7 +1281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>971585.08000000007</x:v>
+        <x:v>971585.08000000019</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1296,7 +1296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>956857.1100000001</x:v>
+        <x:v>956857.11000000022</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1311,7 +1311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>943823.26</x:v>
+        <x:v>943823.25999999978</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1326,7 +1326,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>943183.36999999976</x:v>
+        <x:v>943183.36999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1356,7 +1356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>896424.29999999993</x:v>
+        <x:v>896424.30000000016</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1371,7 +1371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>886315.18000000017</x:v>
+        <x:v>886315.18000000028</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1386,7 +1386,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>878163.6399999999</x:v>
+        <x:v>878163.64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1401,7 +1401,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>876654.27</x:v>
+        <x:v>876654.26999999979</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1431,7 +1431,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>866562.08</x:v>
+        <x:v>866562.08000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1476,7 +1476,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>843006.80999999994</x:v>
+        <x:v>843006.81</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1491,7 +1491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>835975.65</x:v>
+        <x:v>835975.65000000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1506,7 +1506,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>834549.35000000033</x:v>
+        <x:v>834549.35</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1521,7 +1521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>830999.84</x:v>
+        <x:v>830999.84000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1536,7 +1536,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>828693.78</x:v>
+        <x:v>828693.78000000026</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1551,7 +1551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>827723.13</x:v>
+        <x:v>827723.13000000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1581,7 +1581,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>813720.05000000016</x:v>
+        <x:v>813720.05</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1596,7 +1596,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>807088.07000000018</x:v>
+        <x:v>807088.07000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1626,7 +1626,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>801596.69999999972</x:v>
+        <x:v>801596.70000000019</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1656,7 +1656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>797221.34</x:v>
+        <x:v>797221.34000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1701,7 +1701,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>765899.11000000022</x:v>
+        <x:v>765899.1100000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1716,7 +1716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>763460.56999999983</x:v>
+        <x:v>763460.57</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1731,7 +1731,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>758103.90999999992</x:v>
+        <x:v>758103.91</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1746,7 +1746,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>730221.13000000012</x:v>
+        <x:v>730221.13</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1776,7 +1776,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>701298.66</x:v>
+        <x:v>701298.65999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1791,7 +1791,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>699155.71</x:v>
+        <x:v>699155.70999999985</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1806,7 +1806,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>686162.54</x:v>
+        <x:v>686162.53999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1836,7 +1836,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>680137.72000000009</x:v>
+        <x:v>680137.72</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1851,7 +1851,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>678732.80000000016</x:v>
+        <x:v>678732.79999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1866,7 +1866,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>668130.58999999985</x:v>
+        <x:v>668130.59</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1896,7 +1896,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>657713.46</x:v>
+        <x:v>657713.46000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2001,7 +2001,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>625544.87</x:v>
+        <x:v>625544.87000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2016,7 +2016,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>625374.54999999993</x:v>
+        <x:v>625374.55</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2031,7 +2031,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>625367.50999999989</x:v>
+        <x:v>625367.51</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2046,7 +2046,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>621145.57000000007</x:v>
+        <x:v>621145.57</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2076,7 +2076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>608558.34</x:v>
+        <x:v>608558.33999999985</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2121,7 +2121,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>593788.77999999991</x:v>
+        <x:v>593788.78</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2136,7 +2136,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>585071.74</x:v>
+        <x:v>585071.74000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2166,7 +2166,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>581508</x:v>
+        <x:v>581507.99999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2226,7 +2226,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>568685.07000000018</x:v>
+        <x:v>568685.07000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2271,7 +2271,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>558342.61999999988</x:v>
+        <x:v>558342.62</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2286,7 +2286,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>557739.47999999986</x:v>
+        <x:v>557739.48</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2316,7 +2316,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>549285.96000000008</x:v>
+        <x:v>549285.96</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2406,7 +2406,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>525081.23</x:v>
+        <x:v>525081.22999999986</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2436,7 +2436,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>518398.65999999992</x:v>
+        <x:v>518398.66000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2451,7 +2451,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>509655.23999999993</x:v>
+        <x:v>509655.24</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2466,7 +2466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>503606.60999999993</x:v>
+        <x:v>503606.61</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2481,7 +2481,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>499956.92999999993</x:v>
+        <x:v>499956.93</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2496,7 +2496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>496217.48999999993</x:v>
+        <x:v>496217.49</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2526,7 +2526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>492569.57</x:v>
+        <x:v>492569.56999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2556,7 +2556,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>466753.88</x:v>
+        <x:v>466753.87999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2616,7 +2616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>455395.83</x:v>
+        <x:v>455395.82999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2676,7 +2676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>435428.36</x:v>
+        <x:v>435428.36000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2691,7 +2691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>429746.2</x:v>
+        <x:v>429746.20000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2706,7 +2706,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>429556.98</x:v>
+        <x:v>429556.97999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2721,7 +2721,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>427474.42000000004</x:v>
+        <x:v>427474.42</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2751,7 +2751,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>425997.92000000004</x:v>
+        <x:v>425997.92</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2766,7 +2766,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>425646.40999999992</x:v>
+        <x:v>425646.41</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2811,7 +2811,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>420858.64999999997</x:v>
+        <x:v>420858.64999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2826,7 +2826,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>407326.44</x:v>
+        <x:v>407326.44000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2841,7 +2841,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>403224.47000000003</x:v>
+        <x:v>403224.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2856,7 +2856,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>394636.68</x:v>
+        <x:v>394636.68000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2871,7 +2871,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>391798.19</x:v>
+        <x:v>391798.18999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2886,7 +2886,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>389474.72</x:v>
+        <x:v>389474.72000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2901,7 +2901,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>378438.79000000004</x:v>
+        <x:v>378438.79</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2916,7 +2916,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>376022.47</x:v>
+        <x:v>376022.47000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2961,7 +2961,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>369609.63000000006</x:v>
+        <x:v>369609.63</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2991,7 +2991,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>367624.85</x:v>
+        <x:v>367624.85000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3006,7 +3006,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>365407.15000000014</x:v>
+        <x:v>365407.15000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3021,7 +3021,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>364775.24</x:v>
+        <x:v>364775.24000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3036,7 +3036,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>362948.81999999995</x:v>
+        <x:v>362948.82</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3066,7 +3066,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>360068.41</x:v>
+        <x:v>360068.41000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3096,7 +3096,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>351767.59</x:v>
+        <x:v>351767.58999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3111,7 +3111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>351409.67999999993</x:v>
+        <x:v>351409.68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3216,7 +3216,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>340864.9</x:v>
+        <x:v>340864.89999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3261,7 +3261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>333771.94</x:v>
+        <x:v>333771.93999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3276,7 +3276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>329965.41000000003</x:v>
+        <x:v>329965.41</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3321,7 +3321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>326855.44</x:v>
+        <x:v>326855.44000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3411,7 +3411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>313209.41000000003</x:v>
+        <x:v>313209.41000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3441,7 +3441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>307509.49</x:v>
+        <x:v>307509.49000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3456,7 +3456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>305703.30000000005</x:v>
+        <x:v>305703.3</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3546,7 +3546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>292060.54000000004</x:v>
+        <x:v>292060.54</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3576,7 +3576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>288243.01999999996</x:v>
+        <x:v>288243.02</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3636,7 +3636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>278776.44000000006</x:v>
+        <x:v>278776.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3666,7 +3666,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>275773.39</x:v>
+        <x:v>275773.38999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3696,7 +3696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>272951.24</x:v>
+        <x:v>272951.24000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3726,7 +3726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>268074.15</x:v>
+        <x:v>268074.14999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3771,7 +3771,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>264891.27999999997</x:v>
+        <x:v>264891.28</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3816,7 +3816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>261874.30000000002</x:v>
+        <x:v>261874.3</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3831,7 +3831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>254182.22999999998</x:v>
+        <x:v>254182.23000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3846,7 +3846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>252077.38999999996</x:v>
+        <x:v>252077.38999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3921,7 +3921,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>245183.65</x:v>
+        <x:v>245183.64999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3966,7 +3966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>240754.40000000002</x:v>
+        <x:v>240754.4</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3981,7 +3981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>240298.97999999998</x:v>
+        <x:v>240298.98</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3996,7 +3996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>239566.96999999997</x:v>
+        <x:v>239566.97000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4041,7 +4041,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>235692.80999999997</x:v>
+        <x:v>235692.81</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4056,7 +4056,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>229266.58000000002</x:v>
+        <x:v>229266.58</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4101,7 +4101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>220381.72999999998</x:v>
+        <x:v>220381.73</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4131,7 +4131,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>216168.86999999997</x:v>
+        <x:v>216168.87</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4176,7 +4176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>209278.27000000002</x:v>
+        <x:v>209278.27000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4206,7 +4206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>207024.04000000007</x:v>
+        <x:v>207024.04</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4221,7 +4221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206695.34000000003</x:v>
+        <x:v>206695.34</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4296,7 +4296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>203128.86000000004</x:v>
+        <x:v>203128.86000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4311,7 +4311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>202610.30999999997</x:v>
+        <x:v>202610.31</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4326,7 +4326,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>199615.86000000002</x:v>
+        <x:v>199615.86</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4356,7 +4356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>194067.65999999995</x:v>
+        <x:v>194067.66</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4371,7 +4371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>194001.92999999996</x:v>
+        <x:v>194001.93</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4386,7 +4386,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>193104.18000000005</x:v>
+        <x:v>193104.18</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4446,7 +4446,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>185020.68</x:v>
+        <x:v>185020.68000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4461,7 +4461,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>182861.40000000002</x:v>
+        <x:v>182861.4</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4536,7 +4536,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>171960.08000000005</x:v>
+        <x:v>171960.08</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4551,7 +4551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>171263.03999999998</x:v>
+        <x:v>171263.04</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4626,7 +4626,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>167198.19</x:v>
+        <x:v>167198.18999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4641,7 +4641,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>164044.84</x:v>
+        <x:v>164044.83999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4671,7 +4671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>162598.4</x:v>
+        <x:v>162598.40000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4701,7 +4701,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>160310.80999999997</x:v>
+        <x:v>160310.81000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4716,7 +4716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>159849.76</x:v>
+        <x:v>159849.76000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4731,7 +4731,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>159726.59999999998</x:v>
+        <x:v>159726.6</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4746,7 +4746,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>159432.15999999997</x:v>
+        <x:v>159432.16</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4791,7 +4791,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158388.27000000002</x:v>
+        <x:v>158388.27000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4806,7 +4806,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158335.77999999997</x:v>
+        <x:v>158335.78</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4881,7 +4881,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>150140.99999999997</x:v>
+        <x:v>150141</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4911,7 +4911,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>146438.66999999998</x:v>
+        <x:v>146438.67</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4941,7 +4941,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>143887.87000000002</x:v>
+        <x:v>143887.87</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5001,7 +5001,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>141114.56</x:v>
+        <x:v>141114.56000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5061,7 +5061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139915.41999999998</x:v>
+        <x:v>139915.42</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5076,7 +5076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139849.23</x:v>
+        <x:v>139849.22999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5106,7 +5106,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>138633.69999999998</x:v>
+        <x:v>138633.7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5151,7 +5151,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>136485.22999999998</x:v>
+        <x:v>136485.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5166,7 +5166,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>135348.68000000002</x:v>
+        <x:v>135348.68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5211,7 +5211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>131782.38000000003</x:v>
+        <x:v>131782.38</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5241,7 +5241,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>129894.22000000002</x:v>
+        <x:v>129894.22</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5256,7 +5256,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>128834.19999999998</x:v>
+        <x:v>128834.20000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5301,7 +5301,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>125030.68999999997</x:v>
+        <x:v>125030.69</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5361,7 +5361,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>119669.93999999999</x:v>
+        <x:v>119669.94</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5421,7 +5421,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>114185.09999999999</x:v>
+        <x:v>114185.09999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5436,7 +5436,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>114118.52</x:v>
+        <x:v>114118.51999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5481,7 +5481,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>111565.54</x:v>
+        <x:v>111565.54000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5496,7 +5496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>109165.69000000003</x:v>
+        <x:v>109165.69</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5511,7 +5511,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>108318.98000000001</x:v>
+        <x:v>108318.98</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5526,7 +5526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>108091.54000000004</x:v>
+        <x:v>108091.54</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5556,7 +5556,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>106981.08</x:v>
+        <x:v>106981.08000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5601,7 +5601,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104535.20999999999</x:v>
+        <x:v>104535.21</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5616,7 +5616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104387.86</x:v>
+        <x:v>104387.86000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5631,7 +5631,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104136.38999999998</x:v>
+        <x:v>104136.39</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5646,7 +5646,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104118.3</x:v>
+        <x:v>104118.30000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5661,7 +5661,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104083.94</x:v>
+        <x:v>104083.94000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5676,7 +5676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>103728.98000000001</x:v>
+        <x:v>103728.98</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5691,7 +5691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>103153.9</x:v>
+        <x:v>103153.90000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5706,7 +5706,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102851.96999999997</x:v>
+        <x:v>102851.97</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5766,7 +5766,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102080.80000000002</x:v>
+        <x:v>102080.79999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5811,7 +5811,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>100960.80000000002</x:v>
+        <x:v>100960.8</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5871,7 +5871,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>98543.300000000017</x:v>
+        <x:v>98543.299999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5901,7 +5901,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>95820.01</x:v>
+        <x:v>95820.010000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5916,7 +5916,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>94726.209999999992</x:v>
+        <x:v>94726.21</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5946,7 +5946,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>89387.97</x:v>
+        <x:v>89387.969999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5961,7 +5961,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>89298.75</x:v>
+        <x:v>89298.750000000015</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5991,7 +5991,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>86339.78</x:v>
+        <x:v>86339.780000000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6021,7 +6021,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>84510.650000000009</x:v>
+        <x:v>84510.65</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6036,7 +6036,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>82982.23</x:v>
+        <x:v>82982.23000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6111,7 +6111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>77485.580000000016</x:v>
+        <x:v>77485.58</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6126,7 +6126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>77032.6</x:v>
+        <x:v>77032.599999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6231,7 +6231,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>72970.47</x:v>
+        <x:v>72970.470000000016</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6381,7 +6381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>64945.010000000009</x:v>
+        <x:v>64945.01</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6426,7 +6426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>62713.340000000004</x:v>
+        <x:v>62713.34</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6456,7 +6456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>59578.27</x:v>
+        <x:v>59578.270000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6471,7 +6471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>58368.88</x:v>
+        <x:v>58368.880000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6516,7 +6516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>56680.16</x:v>
+        <x:v>56680.159999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6546,7 +6546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>54295.21</x:v>
+        <x:v>54295.209999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6561,7 +6561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>54234.88</x:v>
+        <x:v>54234.880000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6576,7 +6576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>53961.279999999992</x:v>
+        <x:v>53961.28</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6726,7 +6726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48770.16</x:v>
+        <x:v>48770.159999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6756,7 +6756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48273.820000000007</x:v>
+        <x:v>48273.819999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6801,7 +6801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>43362.079999999994</x:v>
+        <x:v>43362.08</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6816,7 +6816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>42960.950000000004</x:v>
+        <x:v>42960.95</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6861,7 +6861,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>40286.68</x:v>
+        <x:v>40286.679999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6876,7 +6876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>37331.35</x:v>
+        <x:v>37331.350000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6891,7 +6891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35728.170000000006</x:v>
+        <x:v>35728.17</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6936,7 +6936,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35187.270000000004</x:v>
+        <x:v>35187.27</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6951,7 +6951,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>34819.670000000006</x:v>
+        <x:v>34819.67</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6981,7 +6981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>32969.170000000006</x:v>
+        <x:v>32969.17</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6996,7 +6996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>32206.14</x:v>
+        <x:v>32206.139999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7221,7 +7221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>21545.600000000002</x:v>
+        <x:v>21545.6</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7251,7 +7251,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>20608.01</x:v>
+        <x:v>20608.010000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7296,7 +7296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>16725.12</x:v>
+        <x:v>16725.120000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7341,7 +7341,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14676.83</x:v>
+        <x:v>14676.830000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7581,7 +7581,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>5744.62</x:v>
+        <x:v>5744.619999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7776,7 +7776,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1118.19</x:v>
+        <x:v>1118.1899999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7806,7 +7806,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>757.43999999999994</x:v>
+        <x:v>757.44</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R4788640b9c934538"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rd11bbe2f0f574755"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -141,7 +141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>5815140.58</x:v>
+        <x:v>5815140.580000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -321,7 +321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3352567.0799999996</x:v>
+        <x:v>3352567.08</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -441,7 +441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2421906.0799999996</x:v>
+        <x:v>2421906.08</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -456,7 +456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2241043.05</x:v>
+        <x:v>2241043.0500000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -891,7 +891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1269702.5899999999</x:v>
+        <x:v>1269702.5899999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1416,7 +1416,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>868708.24</x:v>
+        <x:v>868708.23999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1491,7 +1491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>835975.65000000014</x:v>
+        <x:v>835975.65</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1851,7 +1851,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>678732.79999999993</x:v>
+        <x:v>678732.79999999981</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2016,7 +2016,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>625374.55</x:v>
+        <x:v>625374.54999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2151,7 +2151,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>581617.51</x:v>
+        <x:v>581617.50999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2196,7 +2196,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>574802.15</x:v>
+        <x:v>574802.14999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2556,7 +2556,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>466753.87999999995</x:v>
+        <x:v>466753.88</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2916,7 +2916,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>376022.47000000003</x:v>
+        <x:v>376022.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2931,7 +2931,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>374168.29</x:v>
+        <x:v>374168.28999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2946,7 +2946,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>374034.98</x:v>
+        <x:v>374034.98000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3111,7 +3111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>351409.68</x:v>
+        <x:v>351409.67999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3171,7 +3171,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>344949.01999999996</x:v>
+        <x:v>344949.02</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3726,7 +3726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>268074.14999999997</x:v>
+        <x:v>268074.15</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3966,7 +3966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>240754.4</x:v>
+        <x:v>240754.40000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3981,7 +3981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>240298.98</x:v>
+        <x:v>240298.97999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4041,7 +4041,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>235692.81</x:v>
+        <x:v>235692.81000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4071,7 +4071,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>225528.56</x:v>
+        <x:v>225528.55999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4206,7 +4206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>207024.04</x:v>
+        <x:v>207024.03999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4296,7 +4296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>203128.86000000002</x:v>
+        <x:v>203128.86</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4311,7 +4311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>202610.31</x:v>
+        <x:v>202610.30999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4536,7 +4536,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>171960.08</x:v>
+        <x:v>171960.08000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4551,7 +4551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>171263.04</x:v>
+        <x:v>171263.03999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4881,7 +4881,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>150141</x:v>
+        <x:v>150140.99999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5001,7 +5001,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>141114.56000000003</x:v>
+        <x:v>141114.56</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5031,7 +5031,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>140224.55000000002</x:v>
+        <x:v>140224.55</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5151,7 +5151,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>136485.23</x:v>
+        <x:v>136485.22999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5196,7 +5196,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>133105.14</x:v>
+        <x:v>133105.13999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5211,7 +5211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>131782.38</x:v>
+        <x:v>131782.38000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5721,7 +5721,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102638.98000000001</x:v>
+        <x:v>102638.97999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5766,7 +5766,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102080.79999999999</x:v>
+        <x:v>102080.8</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5946,7 +5946,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>89387.969999999987</x:v>
+        <x:v>89387.97</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5991,7 +5991,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>86339.780000000013</x:v>
+        <x:v>86339.78</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6066,7 +6066,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>79392.209999999992</x:v>
+        <x:v>79392.21</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6606,7 +6606,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>52588.42</x:v>
+        <x:v>52588.420000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6621,7 +6621,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50939.82</x:v>
+        <x:v>50939.820000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6651,7 +6651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50811.229999999996</x:v>
+        <x:v>50811.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6696,7 +6696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50221.19</x:v>
+        <x:v>50221.189999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6756,7 +6756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48273.819999999992</x:v>
+        <x:v>48273.82</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7026,7 +7026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>31368.88</x:v>
+        <x:v>31368.879999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7131,7 +7131,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>26990.74</x:v>
+        <x:v>26990.739999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7191,7 +7191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>22536.100000000002</x:v>
+        <x:v>22536.1</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7296,7 +7296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>16725.120000000003</x:v>
+        <x:v>16725.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7386,7 +7386,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14195.95</x:v>
+        <x:v>14195.949999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7746,7 +7746,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1300.8000000000002</x:v>
+        <x:v>1300.8</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7776,7 +7776,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1118.1899999999998</x:v>
+        <x:v>1118.19</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R7c5474065cf44d5a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R0f318d51cff44b0a"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -81,7 +81,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>16584185.379999999</x:v>
+        <x:v>16584185.380000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -96,7 +96,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>8192316.79</x:v>
+        <x:v>8192316.7899999982</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -111,7 +111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>7265508.0199999977</x:v>
+        <x:v>7265508.02</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -156,7 +156,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4499772.5100000016</x:v>
+        <x:v>4499772.51</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -201,7 +201,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4300552.8299999991</x:v>
+        <x:v>4300552.83</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -231,7 +231,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4029131.8899999997</x:v>
+        <x:v>4029131.89</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -246,7 +246,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3893309.0899999989</x:v>
+        <x:v>3893309.0899999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -261,7 +261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3829644.04</x:v>
+        <x:v>3829644.0400000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -276,7 +276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3806919.8199999994</x:v>
+        <x:v>3806919.82</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -336,7 +336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3228971.0700000008</x:v>
+        <x:v>3228971.0700000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -351,7 +351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3015640.4800000004</x:v>
+        <x:v>3015640.4799999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -381,7 +381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2833107.59</x:v>
+        <x:v>2833107.5899999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -471,7 +471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2236568.35</x:v>
+        <x:v>2236568.3499999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -516,7 +516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2001172.7699999996</x:v>
+        <x:v>2001172.7699999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -531,7 +531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1994256.5699999998</x:v>
+        <x:v>1994256.5700000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -546,7 +546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1885436.5999999996</x:v>
+        <x:v>1885436.6</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -561,7 +561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1877851.1300000001</x:v>
+        <x:v>1877851.1299999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -591,7 +591,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1819815.9600000002</x:v>
+        <x:v>1819815.96</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -621,7 +621,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1796173.81</x:v>
+        <x:v>1796173.8099999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -696,7 +696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1575777.4800000004</x:v>
+        <x:v>1575777.4800000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -711,7 +711,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1482197.07</x:v>
+        <x:v>1482197.0700000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -741,7 +741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1439745.0099999995</x:v>
+        <x:v>1439745.0099999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -756,7 +756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1428812.5899999999</x:v>
+        <x:v>1428812.59</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -801,7 +801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1360288.0999999999</x:v>
+        <x:v>1360288.0999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -816,7 +816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1309080.5099999998</x:v>
+        <x:v>1309080.51</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -831,7 +831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1301084.3900000001</x:v>
+        <x:v>1301084.39</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -846,7 +846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1292737.9500000004</x:v>
+        <x:v>1292737.9499999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -906,7 +906,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1252073.18</x:v>
+        <x:v>1252073.1800000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -951,7 +951,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1215632.1099999999</x:v>
+        <x:v>1215632.11</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -966,7 +966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1202418.15</x:v>
+        <x:v>1202418.1500000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -981,7 +981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1178636.4000000001</x:v>
+        <x:v>1178636.4</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -996,7 +996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1155506.7400000002</x:v>
+        <x:v>1155506.7400000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1011,7 +1011,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1155241.7199999997</x:v>
+        <x:v>1155241.7199999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1026,7 +1026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1117441</x:v>
+        <x:v>1117441.0000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1086,7 +1086,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1062515.7599999998</x:v>
+        <x:v>1062515.76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1131,7 +1131,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1053026.8199999998</x:v>
+        <x:v>1053026.82</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1146,7 +1146,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1041183.5699999998</x:v>
+        <x:v>1041183.5700000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1161,7 +1161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1018851.57</x:v>
+        <x:v>1018851.5699999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1191,7 +1191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>994633.29999999981</x:v>
+        <x:v>994633.2999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1206,7 +1206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>990148.18</x:v>
+        <x:v>990148.17999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1221,7 +1221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>989779.31</x:v>
+        <x:v>989779.30999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1266,7 +1266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>976259.7200000002</x:v>
+        <x:v>976259.72000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1281,7 +1281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>971347.03</x:v>
+        <x:v>971347.02999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1311,7 +1311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>944368.81999999983</x:v>
+        <x:v>944368.82</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1326,7 +1326,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>942780.77000000014</x:v>
+        <x:v>942780.77000000025</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1341,7 +1341,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>902448.16999999993</x:v>
+        <x:v>902448.17000000016</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1356,7 +1356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>896658.11</x:v>
+        <x:v>896658.10999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1386,7 +1386,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>886649.49999999988</x:v>
+        <x:v>886649.49999999977</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1401,7 +1401,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>878613.69000000006</x:v>
+        <x:v>878613.69000000018</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1431,7 +1431,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>867951.44000000006</x:v>
+        <x:v>867951.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1491,7 +1491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>843445.37999999989</x:v>
+        <x:v>843445.38000000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1521,7 +1521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>834633.67999999982</x:v>
+        <x:v>834633.68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1551,7 +1551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>827476.61999999988</x:v>
+        <x:v>827476.62000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1581,7 +1581,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>813268.99</x:v>
+        <x:v>813268.99000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1596,7 +1596,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>810710.65</x:v>
+        <x:v>810710.64999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1611,7 +1611,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>805303.09999999986</x:v>
+        <x:v>805303.10000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1641,7 +1641,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>799227.37999999989</x:v>
+        <x:v>799227.37999999977</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1656,7 +1656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>798894.68</x:v>
+        <x:v>798894.68000000017</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1686,7 +1686,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>771155.36</x:v>
+        <x:v>771155.35999999975</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1701,7 +1701,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>765661.73</x:v>
+        <x:v>765661.7300000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1731,7 +1731,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>757861.20000000007</x:v>
+        <x:v>757861.2</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1746,7 +1746,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>729888.65</x:v>
+        <x:v>729888.64999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1761,7 +1761,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>717067.50000000012</x:v>
+        <x:v>717067.5</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1821,7 +1821,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>687279.89</x:v>
+        <x:v>687279.8899999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1851,7 +1851,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>679029.50999999989</x:v>
+        <x:v>679029.51</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1911,7 +1911,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>653956.48</x:v>
+        <x:v>653956.47999999986</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2031,7 +2031,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>623679.64</x:v>
+        <x:v>623679.64000000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2091,7 +2091,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>606458.09</x:v>
+        <x:v>606458.09000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2106,7 +2106,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>601047.80999999994</x:v>
+        <x:v>601047.81</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2151,7 +2151,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>581477.72000000009</x:v>
+        <x:v>581477.72</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2166,7 +2166,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>580831.96000000008</x:v>
+        <x:v>580831.96</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2196,7 +2196,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>573154.32000000007</x:v>
+        <x:v>573154.31999999983</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2211,7 +2211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>571879.44000000006</x:v>
+        <x:v>571879.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2256,7 +2256,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>566661.7300000001</x:v>
+        <x:v>566661.73</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2271,7 +2271,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>558626.41</x:v>
+        <x:v>558626.41000000015</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2286,7 +2286,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>558018.09</x:v>
+        <x:v>558018.0900000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2331,7 +2331,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>549450.45</x:v>
+        <x:v>549450.44999999984</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2346,7 +2346,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>544551.58000000007</x:v>
+        <x:v>544551.58</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2361,7 +2361,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>541374.1399999999</x:v>
+        <x:v>541374.14</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2406,7 +2406,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>525891.01</x:v>
+        <x:v>525891.00999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2421,7 +2421,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>525602.71999999986</x:v>
+        <x:v>525602.72</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2436,7 +2436,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>518393.83999999991</x:v>
+        <x:v>518393.84000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2451,7 +2451,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>509406.39</x:v>
+        <x:v>509406.3899999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2586,7 +2586,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>465496.94999999995</x:v>
+        <x:v>465496.95</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2601,7 +2601,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>461703.43000000005</x:v>
+        <x:v>461703.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2616,7 +2616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>460911.80999999994</x:v>
+        <x:v>460911.81</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2646,7 +2646,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>455592.32999999996</x:v>
+        <x:v>455592.33000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2661,7 +2661,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>449905.78</x:v>
+        <x:v>449905.77999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2676,7 +2676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>441837.06</x:v>
+        <x:v>441837.05999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2721,7 +2721,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>429936.03000000009</x:v>
+        <x:v>429936.02999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2751,7 +2751,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>427609.27</x:v>
+        <x:v>427609.26999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2781,7 +2781,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>425998.14000000007</x:v>
+        <x:v>425998.14</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2796,7 +2796,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>425855.13</x:v>
+        <x:v>425855.13000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2811,7 +2811,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>424444.81000000006</x:v>
+        <x:v>424444.81</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2826,7 +2826,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>420818.83</x:v>
+        <x:v>420818.82999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2841,7 +2841,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>420769.27999999997</x:v>
+        <x:v>420769.28</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2901,7 +2901,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>391613.72</x:v>
+        <x:v>391613.72000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2931,7 +2931,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>377508.60000000003</x:v>
+        <x:v>377508.6</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2961,7 +2961,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>374363.6</x:v>
+        <x:v>374363.60000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3036,7 +3036,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>365496.9</x:v>
+        <x:v>365496.89999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3051,7 +3051,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>364927.7</x:v>
+        <x:v>364927.69999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3066,7 +3066,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>363129.73999999993</x:v>
+        <x:v>363129.74</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3081,7 +3081,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>362280.33999999991</x:v>
+        <x:v>362280.33999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3096,7 +3096,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>360338.47</x:v>
+        <x:v>360338.47000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3111,7 +3111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>356150.37999999995</x:v>
+        <x:v>356150.38</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3216,7 +3216,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>343207.3000000001</x:v>
+        <x:v>343207.30000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3246,7 +3246,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>340992.02999999997</x:v>
+        <x:v>340992.03</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3261,7 +3261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>337299.28</x:v>
+        <x:v>337299.27999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3351,7 +3351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>326527.84</x:v>
+        <x:v>326527.83999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3411,7 +3411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>316689.06999999995</x:v>
+        <x:v>316689.07</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3426,7 +3426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>313339.24000000005</x:v>
+        <x:v>313339.24</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3486,7 +3486,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>305855.97</x:v>
+        <x:v>305855.97000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3501,7 +3501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>301632.54000000004</x:v>
+        <x:v>301632.54</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3546,7 +3546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>294174.2</x:v>
+        <x:v>294174.19999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3576,7 +3576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>291133.19999999995</x:v>
+        <x:v>291133.2</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3666,7 +3666,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>278897.74</x:v>
+        <x:v>278897.74000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3711,7 +3711,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>275001.83999999997</x:v>
+        <x:v>275001.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3726,7 +3726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>273137.31999999995</x:v>
+        <x:v>273137.32</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3786,7 +3786,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>265517.04999999993</x:v>
+        <x:v>265517.05</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3801,7 +3801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>264876.06</x:v>
+        <x:v>264876.05999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3831,7 +3831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>264018.73</x:v>
+        <x:v>264018.73000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3846,7 +3846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>261871.94999999995</x:v>
+        <x:v>261871.95</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3891,7 +3891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>251495.92</x:v>
+        <x:v>251495.91999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3906,7 +3906,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>250503.08</x:v>
+        <x:v>250503.08000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3951,7 +3951,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>245301.84</x:v>
+        <x:v>245301.84000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3966,7 +3966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>244962.26</x:v>
+        <x:v>244962.25999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3981,7 +3981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>243718.27000000005</x:v>
+        <x:v>243718.27000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3996,7 +3996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>240639.25999999998</x:v>
+        <x:v>240639.26</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4026,7 +4026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>239688.73999999996</x:v>
+        <x:v>239688.73999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4131,7 +4131,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>220463.84000000005</x:v>
+        <x:v>220463.84000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4221,7 +4221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>208315.76000000004</x:v>
+        <x:v>208315.76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4236,7 +4236,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206952.14999999997</x:v>
+        <x:v>206952.15</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4266,7 +4266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206544.63999999998</x:v>
+        <x:v>206544.64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4281,7 +4281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206035.48000000004</x:v>
+        <x:v>206035.47999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4356,7 +4356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>200898.32999999996</x:v>
+        <x:v>200898.33000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4371,7 +4371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>199705.71000000002</x:v>
+        <x:v>199705.71</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4401,7 +4401,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>194028.30000000002</x:v>
+        <x:v>194028.30000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4431,7 +4431,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>193182.00999999998</x:v>
+        <x:v>193182.01000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4476,7 +4476,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>184920.76</x:v>
+        <x:v>184920.75999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4491,7 +4491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>182716.05</x:v>
+        <x:v>182716.05000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4506,7 +4506,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>180543.25</x:v>
+        <x:v>180543.24999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4521,7 +4521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>179485.74</x:v>
+        <x:v>179485.74000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4536,7 +4536,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>177032.25000000003</x:v>
+        <x:v>177032.25</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4566,7 +4566,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>171870.40999999997</x:v>
+        <x:v>171870.41</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4611,7 +4611,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>168953.58</x:v>
+        <x:v>168953.58000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4641,7 +4641,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>167576.50999999998</x:v>
+        <x:v>167576.51</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4656,7 +4656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>167279.2</x:v>
+        <x:v>167279.19999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4671,7 +4671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>164118.17</x:v>
+        <x:v>164118.16999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4701,7 +4701,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>162753.28000000003</x:v>
+        <x:v>162753.28</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4761,7 +4761,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>160386.65999999997</x:v>
+        <x:v>160386.66</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4776,7 +4776,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>159979.91</x:v>
+        <x:v>159979.90999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4791,7 +4791,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>159806.53000000006</x:v>
+        <x:v>159806.53</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4821,7 +4821,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158461.65</x:v>
+        <x:v>158461.65000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4866,7 +4866,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>153119.29000000004</x:v>
+        <x:v>153119.29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4881,7 +4881,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>151763.08000000002</x:v>
+        <x:v>151763.08</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4911,7 +4911,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>150011.4</x:v>
+        <x:v>150011.39999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4926,7 +4926,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>149005.72999999998</x:v>
+        <x:v>149005.73</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5001,7 +5001,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>142404.76</x:v>
+        <x:v>142404.75999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5031,7 +5031,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>141034.37000000002</x:v>
+        <x:v>141034.37</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5106,7 +5106,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139799.58</x:v>
+        <x:v>139799.58000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5121,7 +5121,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139435.76</x:v>
+        <x:v>139435.75999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5211,7 +5211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>134049.92999999996</x:v>
+        <x:v>134049.93</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5241,7 +5241,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>131777.84999999998</x:v>
+        <x:v>131777.85</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5271,7 +5271,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>129959.11</x:v>
+        <x:v>129959.11000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5346,7 +5346,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>124425.94999999998</x:v>
+        <x:v>124425.95</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5376,7 +5376,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>121367.55000000002</x:v>
+        <x:v>121367.54999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5436,7 +5436,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>115819.67999999998</x:v>
+        <x:v>115819.68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5466,7 +5466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>114165.15999999999</x:v>
+        <x:v>114165.16</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5496,7 +5496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>111692.12999999999</x:v>
+        <x:v>111692.13</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5526,7 +5526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>108884.05</x:v>
+        <x:v>108884.04999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5571,7 +5571,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>107729.04000000001</x:v>
+        <x:v>107729.04</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5616,7 +5616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104627.01</x:v>
+        <x:v>104627.00999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5631,7 +5631,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104443.89000000001</x:v>
+        <x:v>104443.89</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5646,7 +5646,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104273.98999999999</x:v>
+        <x:v>104273.99</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5676,7 +5676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104111.69000000002</x:v>
+        <x:v>104111.69</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5691,7 +5691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104077.98000000001</x:v>
+        <x:v>104077.98</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5706,7 +5706,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>103929.59000000001</x:v>
+        <x:v>103929.59</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5781,7 +5781,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102126.62000000001</x:v>
+        <x:v>102126.62</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5796,7 +5796,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102118.9</x:v>
+        <x:v>102118.90000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5841,7 +5841,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>100959.37</x:v>
+        <x:v>100959.36999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5886,7 +5886,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>98529.07</x:v>
+        <x:v>98529.069999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5991,7 +5991,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>89072.449999999983</x:v>
+        <x:v>89072.45</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6096,7 +6096,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>79094.51</x:v>
+        <x:v>79094.510000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6126,7 +6126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>77270.34</x:v>
+        <x:v>77270.340000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6141,7 +6141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>76989.98000000001</x:v>
+        <x:v>76989.98</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6171,7 +6171,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>76328.3</x:v>
+        <x:v>76328.299999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6186,7 +6186,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>74972.409999999989</x:v>
+        <x:v>74972.409999999974</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6276,7 +6276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>68935.589999999982</x:v>
+        <x:v>68935.59</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6306,7 +6306,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>68536.040000000008</x:v>
+        <x:v>68536.04</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6351,7 +6351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>66973.49</x:v>
+        <x:v>66973.489999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6366,7 +6366,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>66302.090000000011</x:v>
+        <x:v>66302.09</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6471,7 +6471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>58209.13</x:v>
+        <x:v>58209.12999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6486,7 +6486,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>58208.8</x:v>
+        <x:v>58208.799999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6576,7 +6576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>53907.570000000007</x:v>
+        <x:v>53907.57</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6606,7 +6606,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>52637.259999999995</x:v>
+        <x:v>52637.26</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6651,7 +6651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50813.1</x:v>
+        <x:v>50813.100000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6666,7 +6666,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50796.05</x:v>
+        <x:v>50796.049999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6741,7 +6741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48749.109999999993</x:v>
+        <x:v>48749.11</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6756,7 +6756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48534.049999999996</x:v>
+        <x:v>48534.05</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6801,7 +6801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>44406.340000000004</x:v>
+        <x:v>44406.34</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6861,7 +6861,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>42592.75</x:v>
+        <x:v>42592.750000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6891,7 +6891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>40186.909999999996</x:v>
+        <x:v>40186.91</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6906,7 +6906,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>38349.84</x:v>
+        <x:v>38349.840000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7221,7 +7221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>22544</x:v>
+        <x:v>22543.999999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7281,7 +7281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>20615.410000000003</x:v>
+        <x:v>20615.41</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7356,7 +7356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>15321.120000000003</x:v>
+        <x:v>15321.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7851,7 +7851,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>567.69999999999993</x:v>
+        <x:v>567.7</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R0f318d51cff44b0a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rba167d0710b8450c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -81,7 +81,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>16584185.380000003</x:v>
+        <x:v>16584185.379999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -111,7 +111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>7265508.02</x:v>
+        <x:v>7265508.0199999977</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -141,7 +141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>5798124.6</x:v>
+        <x:v>5798124.6000000015</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -156,7 +156,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4499772.51</x:v>
+        <x:v>4499772.5100000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -186,7 +186,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4378185.1899999995</x:v>
+        <x:v>4378185.19</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -246,7 +246,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3893309.0899999994</x:v>
+        <x:v>3893309.0899999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -261,7 +261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3829644.0400000005</x:v>
+        <x:v>3829644.04</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -276,7 +276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3806919.82</x:v>
+        <x:v>3806919.8200000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -306,7 +306,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3424762.5899999989</x:v>
+        <x:v>3424762.59</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -351,7 +351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3015640.4799999995</x:v>
+        <x:v>3015640.48</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -381,7 +381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2833107.5899999994</x:v>
+        <x:v>2833107.5900000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -396,7 +396,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2750309.95</x:v>
+        <x:v>2750309.9499999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -411,7 +411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2588399.7800000007</x:v>
+        <x:v>2588399.7800000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -456,7 +456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2241797.6999999997</x:v>
+        <x:v>2241797.7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -471,7 +471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2236568.3499999996</x:v>
+        <x:v>2236568.3500000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -531,7 +531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1994256.5700000003</x:v>
+        <x:v>1994256.5699999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -561,7 +561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1877851.1299999997</x:v>
+        <x:v>1877851.1300000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -621,7 +621,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1796173.8099999998</x:v>
+        <x:v>1796173.81</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -636,7 +636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1673157.76</x:v>
+        <x:v>1673157.7599999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -681,7 +681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1627231.6400000001</x:v>
+        <x:v>1627231.64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -696,7 +696,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1575777.4800000002</x:v>
+        <x:v>1575777.4800000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -711,7 +711,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1482197.0700000003</x:v>
+        <x:v>1482197.0699999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -741,7 +741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1439745.0099999998</x:v>
+        <x:v>1439745.01</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -771,7 +771,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1428040.8100000003</x:v>
+        <x:v>1428040.81</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -801,7 +801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1360288.0999999996</x:v>
+        <x:v>1360288.0999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -816,7 +816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1309080.51</x:v>
+        <x:v>1309080.5099999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -846,7 +846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1292737.9499999997</x:v>
+        <x:v>1292737.9499999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -861,7 +861,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1290932.88</x:v>
+        <x:v>1290932.8800000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -921,7 +921,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1239504.2</x:v>
+        <x:v>1239504.1999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -951,7 +951,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1215632.11</x:v>
+        <x:v>1215632.1099999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -966,7 +966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1202418.1500000001</x:v>
+        <x:v>1202418.15</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -981,7 +981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1178636.4</x:v>
+        <x:v>1178636.4000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -996,7 +996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1155506.7400000005</x:v>
+        <x:v>1155506.7400000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1011,7 +1011,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1155241.7199999995</x:v>
+        <x:v>1155241.72</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1026,7 +1026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1117441.0000000002</x:v>
+        <x:v>1117441</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1056,7 +1056,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1079955.3</x:v>
+        <x:v>1079955.3000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1086,7 +1086,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1062515.76</x:v>
+        <x:v>1062515.7600000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1131,7 +1131,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1053026.82</x:v>
+        <x:v>1053026.8199999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1161,7 +1161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1018851.5699999998</x:v>
+        <x:v>1018851.57</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1206,7 +1206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>990148.17999999993</x:v>
+        <x:v>990148.18</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1221,7 +1221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>989779.30999999994</x:v>
+        <x:v>989779.31</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1251,7 +1251,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>978806.98</x:v>
+        <x:v>978806.97999999975</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1266,7 +1266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>976259.72000000009</x:v>
+        <x:v>976259.72</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1281,7 +1281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>971347.02999999991</x:v>
+        <x:v>971347.03</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1311,7 +1311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>944368.82</x:v>
+        <x:v>944368.82000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1341,7 +1341,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>902448.17000000016</x:v>
+        <x:v>902448.16999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1401,7 +1401,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>878613.69000000018</x:v>
+        <x:v>878613.69000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1431,7 +1431,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>867951.44</x:v>
+        <x:v>867951.44000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1476,7 +1476,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>859951.71</x:v>
+        <x:v>859951.71000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1491,7 +1491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>843445.38000000012</x:v>
+        <x:v>843445.37999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1566,7 +1566,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>815850.17</x:v>
+        <x:v>815850.16999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1611,7 +1611,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>805303.10000000009</x:v>
+        <x:v>805303.1</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1626,7 +1626,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>801886.87000000011</x:v>
+        <x:v>801886.87</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1641,7 +1641,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>799227.37999999977</x:v>
+        <x:v>799227.37999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1656,7 +1656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>798894.68000000017</x:v>
+        <x:v>798894.67999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1686,7 +1686,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>771155.35999999975</x:v>
+        <x:v>771155.36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1746,7 +1746,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>729888.64999999991</x:v>
+        <x:v>729888.65</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1761,7 +1761,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>717067.5</x:v>
+        <x:v>717067.50000000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1791,7 +1791,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>699463.87000000011</x:v>
+        <x:v>699463.87</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1821,7 +1821,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>687279.8899999999</x:v>
+        <x:v>687279.89</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1836,7 +1836,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>680207.72999999986</x:v>
+        <x:v>680207.73</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1896,7 +1896,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>656085.20000000007</x:v>
+        <x:v>656085.2</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1911,7 +1911,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>653956.47999999986</x:v>
+        <x:v>653956.48</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1926,7 +1926,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>653372.55</x:v>
+        <x:v>653372.54999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2031,7 +2031,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>623679.64000000013</x:v>
+        <x:v>623679.64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2061,7 +2061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>620790.07000000007</x:v>
+        <x:v>620790.07</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2076,7 +2076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>608978.38</x:v>
+        <x:v>608978.38000000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2091,7 +2091,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>606458.09000000008</x:v>
+        <x:v>606458.09</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2106,7 +2106,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>601047.81</x:v>
+        <x:v>601047.80999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2151,7 +2151,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>581477.72</x:v>
+        <x:v>581477.72000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2196,7 +2196,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>573154.31999999983</x:v>
+        <x:v>573154.32000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2211,7 +2211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>571879.44</x:v>
+        <x:v>571879.44000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2271,7 +2271,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>558626.41000000015</x:v>
+        <x:v>558626.41</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2286,7 +2286,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>558018.0900000002</x:v>
+        <x:v>558018.09000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2316,7 +2316,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>549494.01000000013</x:v>
+        <x:v>549494.01</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2346,7 +2346,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>544551.58</x:v>
+        <x:v>544551.58000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2406,7 +2406,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>525891.00999999989</x:v>
+        <x:v>525891.01</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2436,7 +2436,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>518393.84000000008</x:v>
+        <x:v>518393.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2451,7 +2451,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>509406.3899999999</x:v>
+        <x:v>509406.39</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2466,7 +2466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>503604.85999999993</x:v>
+        <x:v>503604.86</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2481,7 +2481,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>500059.26999999996</x:v>
+        <x:v>500059.27</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2541,7 +2541,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>491725.44000000006</x:v>
+        <x:v>491725.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2616,7 +2616,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>460911.81</x:v>
+        <x:v>460911.80999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2646,7 +2646,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>455592.33000000007</x:v>
+        <x:v>455592.33</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2676,7 +2676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>441837.05999999994</x:v>
+        <x:v>441837.06000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2706,7 +2706,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>435648.21000000008</x:v>
+        <x:v>435648.21</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2721,7 +2721,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>429936.02999999997</x:v>
+        <x:v>429936.03</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2751,7 +2751,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>427609.26999999996</x:v>
+        <x:v>427609.27</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2766,7 +2766,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>426281.68000000005</x:v>
+        <x:v>426281.67999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2826,7 +2826,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>420818.82999999996</x:v>
+        <x:v>420818.83000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2856,7 +2856,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>407589.31999999995</x:v>
+        <x:v>407589.32</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2916,7 +2916,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>389506.15000000008</x:v>
+        <x:v>389506.15</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3021,7 +3021,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>367789.58</x:v>
+        <x:v>367789.57999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3051,7 +3051,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>364927.69999999995</x:v>
+        <x:v>364927.7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3066,7 +3066,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>363129.74</x:v>
+        <x:v>363129.73999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3081,7 +3081,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>362280.33999999997</x:v>
+        <x:v>362280.33999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3096,7 +3096,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>360338.47000000003</x:v>
+        <x:v>360338.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3111,7 +3111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>356150.38</x:v>
+        <x:v>356150.38000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3201,7 +3201,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>344922.47000000003</x:v>
+        <x:v>344922.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3216,7 +3216,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>343207.30000000005</x:v>
+        <x:v>343207.3000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3276,7 +3276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>334236.10000000003</x:v>
+        <x:v>334236.1</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3411,7 +3411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>316689.07</x:v>
+        <x:v>316689.06999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3426,7 +3426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>313339.24</x:v>
+        <x:v>313339.24000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3441,7 +3441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>312501.79</x:v>
+        <x:v>312501.79000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3456,7 +3456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>312315.99000000005</x:v>
+        <x:v>312315.99</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3471,7 +3471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>307655.61</x:v>
+        <x:v>307655.61000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3486,7 +3486,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>305855.97000000003</x:v>
+        <x:v>305855.97</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3531,7 +3531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>297074.79000000004</x:v>
+        <x:v>297074.79</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3561,7 +3561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>293760.30000000005</x:v>
+        <x:v>293760.3000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3741,7 +3741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>267930.79999999993</x:v>
+        <x:v>267930.8</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3786,7 +3786,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>265517.05</x:v>
+        <x:v>265517.04999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3801,7 +3801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>264876.05999999994</x:v>
+        <x:v>264876.06</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3816,7 +3816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>264506.32</x:v>
+        <x:v>264506.32000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3861,7 +3861,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>254065.39000000004</x:v>
+        <x:v>254065.39</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3891,7 +3891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>251495.91999999995</x:v>
+        <x:v>251495.91999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3921,7 +3921,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>248322.12999999998</x:v>
+        <x:v>248322.13</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3951,7 +3951,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>245301.84000000003</x:v>
+        <x:v>245301.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3966,7 +3966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>244962.25999999998</x:v>
+        <x:v>244962.26</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3981,7 +3981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>243718.27000000002</x:v>
+        <x:v>243718.27</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3996,7 +3996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>240639.26</x:v>
+        <x:v>240639.25999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4026,7 +4026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>239688.73999999993</x:v>
+        <x:v>239688.73999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4041,7 +4041,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>238119.86</x:v>
+        <x:v>238119.85999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4101,7 +4101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>225764.41000000003</x:v>
+        <x:v>225764.41</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4131,7 +4131,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>220463.84000000003</x:v>
+        <x:v>220463.84000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4191,7 +4191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>210372.50000000003</x:v>
+        <x:v>210372.49999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4236,7 +4236,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206952.15</x:v>
+        <x:v>206952.15000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4251,7 +4251,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206739.86</x:v>
+        <x:v>206739.86000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4266,7 +4266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206544.64</x:v>
+        <x:v>206544.63999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4281,7 +4281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206035.47999999998</x:v>
+        <x:v>206035.48000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4296,7 +4296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>205217.68000000002</x:v>
+        <x:v>205217.68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4356,7 +4356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>200898.33000000002</x:v>
+        <x:v>200898.32999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4416,7 +4416,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>193184.44000000003</x:v>
+        <x:v>193184.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4431,7 +4431,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>193182.01000000004</x:v>
+        <x:v>193182.00999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4461,7 +4461,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>187168.30000000002</x:v>
+        <x:v>187168.3</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4476,7 +4476,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>184920.75999999998</x:v>
+        <x:v>184920.76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4491,7 +4491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>182716.05000000002</x:v>
+        <x:v>182716.05</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4506,7 +4506,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>180543.24999999997</x:v>
+        <x:v>180543.25</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4521,7 +4521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>179485.74000000002</x:v>
+        <x:v>179485.74</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4536,7 +4536,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>177032.25</x:v>
+        <x:v>177032.24999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4566,7 +4566,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>171870.41</x:v>
+        <x:v>171870.40999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4581,7 +4581,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>171194.56</x:v>
+        <x:v>171194.56000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4641,7 +4641,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>167576.51</x:v>
+        <x:v>167576.50999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4671,7 +4671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>164118.16999999998</x:v>
+        <x:v>164118.17</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4701,7 +4701,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>162753.28</x:v>
+        <x:v>162753.28000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4761,7 +4761,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>160386.66</x:v>
+        <x:v>160386.65999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4776,7 +4776,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>159979.90999999997</x:v>
+        <x:v>159979.91</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4821,7 +4821,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158461.65000000002</x:v>
+        <x:v>158461.65</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4851,7 +4851,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>156932.46999999997</x:v>
+        <x:v>156932.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4866,7 +4866,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>153119.29</x:v>
+        <x:v>153119.29000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4911,7 +4911,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>150011.39999999997</x:v>
+        <x:v>150011.4</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4926,7 +4926,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>149005.73</x:v>
+        <x:v>149005.72999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4941,7 +4941,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>146525.49000000002</x:v>
+        <x:v>146525.49</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4956,7 +4956,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>144150.62</x:v>
+        <x:v>144150.62000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5001,7 +5001,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>142404.75999999998</x:v>
+        <x:v>142404.76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5016,7 +5016,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>141340.11</x:v>
+        <x:v>141340.11000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5061,7 +5061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>140209.41999999998</x:v>
+        <x:v>140209.42</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5106,7 +5106,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139799.58000000002</x:v>
+        <x:v>139799.58</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5121,7 +5121,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139435.75999999998</x:v>
+        <x:v>139435.76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5166,7 +5166,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>136900.04</x:v>
+        <x:v>136900.03999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5181,7 +5181,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>136131.65</x:v>
+        <x:v>136131.64999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5271,7 +5271,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>129959.11000000002</x:v>
+        <x:v>129959.10999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5301,7 +5301,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>128831.82</x:v>
+        <x:v>128831.82000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5346,7 +5346,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>124425.95</x:v>
+        <x:v>124425.95000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5361,7 +5361,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>121546.11</x:v>
+        <x:v>121546.11000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5376,7 +5376,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>121367.54999999999</x:v>
+        <x:v>121367.55000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5406,7 +5406,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>119612.70000000001</x:v>
+        <x:v>119612.69999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5421,7 +5421,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>116797.05</x:v>
+        <x:v>116797.04999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5451,7 +5451,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>114233.90000000001</x:v>
+        <x:v>114233.9</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5466,7 +5466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>114165.16</x:v>
+        <x:v>114165.15999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5511,7 +5511,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>111385.04999999999</x:v>
+        <x:v>111385.05000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5526,7 +5526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>108884.04999999999</x:v>
+        <x:v>108884.05000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5541,7 +5541,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>108373.09000000001</x:v>
+        <x:v>108373.09</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5661,7 +5661,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104133.17000000001</x:v>
+        <x:v>104133.17</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5676,7 +5676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104111.69</x:v>
+        <x:v>104111.69000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5766,7 +5766,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102337.76000000001</x:v>
+        <x:v>102337.76000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5796,7 +5796,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102118.90000000001</x:v>
+        <x:v>102118.9</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5841,7 +5841,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>100959.36999999998</x:v>
+        <x:v>100959.37</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5886,7 +5886,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>98529.069999999992</x:v>
+        <x:v>98529.07</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6006,7 +6006,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>86342.310000000012</x:v>
+        <x:v>86342.31</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6051,7 +6051,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>83030.790000000008</x:v>
+        <x:v>83030.79</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6096,7 +6096,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>79094.510000000009</x:v>
+        <x:v>79094.51</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6111,7 +6111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>77449.329999999987</x:v>
+        <x:v>77449.33</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6126,7 +6126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>77270.340000000011</x:v>
+        <x:v>77270.34</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6141,7 +6141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>76989.98</x:v>
+        <x:v>76989.98000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6171,7 +6171,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>76328.299999999988</x:v>
+        <x:v>76328.3</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6186,7 +6186,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>74972.409999999974</x:v>
+        <x:v>74972.41</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6276,7 +6276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>68935.59</x:v>
+        <x:v>68935.589999999982</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6306,7 +6306,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>68536.04</x:v>
+        <x:v>68536.040000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6411,7 +6411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>63623.32</x:v>
+        <x:v>63623.319999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6426,7 +6426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>62685.170000000013</x:v>
+        <x:v>62685.17</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6486,7 +6486,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>58208.799999999988</x:v>
+        <x:v>58208.8</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6576,7 +6576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>53907.57</x:v>
+        <x:v>53907.570000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6606,7 +6606,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>52637.26</x:v>
+        <x:v>52637.260000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6651,7 +6651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50813.100000000006</x:v>
+        <x:v>50813.1</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6666,7 +6666,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50796.049999999996</x:v>
+        <x:v>50796.05</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6711,7 +6711,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>50053.03</x:v>
+        <x:v>50053.030000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6756,7 +6756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48534.05</x:v>
+        <x:v>48534.049999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6801,7 +6801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>44406.34</x:v>
+        <x:v>44406.340000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6891,7 +6891,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>40186.91</x:v>
+        <x:v>40186.909999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6906,7 +6906,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>38349.840000000004</x:v>
+        <x:v>38349.839999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6936,7 +6936,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35384.44</x:v>
+        <x:v>35384.439999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6996,7 +6996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>33916.619999999995</x:v>
+        <x:v>33916.62</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7221,7 +7221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>22543.999999999996</x:v>
+        <x:v>22544</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7296,7 +7296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>18727.03</x:v>
+        <x:v>18727.030000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7356,7 +7356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>15321.12</x:v>
+        <x:v>15321.120000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7596,7 +7596,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>5744.62</x:v>
+        <x:v>5744.619999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7851,7 +7851,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>567.7</x:v>
+        <x:v>567.69999999999993</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rba167d0710b8450c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rd6b4d207284c433c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rd6b4d207284c433c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R7e514542646149fb"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -546,7 +546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1885436.6</x:v>
+        <x:v>1885436.6000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -756,7 +756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1428812.59</x:v>
+        <x:v>1428812.5899999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1086,7 +1086,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1062515.7600000002</x:v>
+        <x:v>1062515.76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1191,7 +1191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>994633.2999999997</x:v>
+        <x:v>994633.29999999958</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1281,7 +1281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>971347.03</x:v>
+        <x:v>971347.02999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1416,7 +1416,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>877073.98</x:v>
+        <x:v>877073.9800000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1431,7 +1431,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>867951.44000000006</x:v>
+        <x:v>867951.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1626,7 +1626,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>801886.87</x:v>
+        <x:v>801886.87000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1656,7 +1656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>798894.67999999993</x:v>
+        <x:v>798894.68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1686,7 +1686,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>771155.36</x:v>
+        <x:v>771155.35999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1896,7 +1896,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>656085.2</x:v>
+        <x:v>656085.20000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2046,7 +2046,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>622034.11</x:v>
+        <x:v>622034.1100000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2211,7 +2211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>571879.44000000006</x:v>
+        <x:v>571879.44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2436,7 +2436,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>518393.84</x:v>
+        <x:v>518393.84000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2466,7 +2466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>503604.86</x:v>
+        <x:v>503604.86000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2541,7 +2541,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>491725.44</x:v>
+        <x:v>491725.43999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2556,7 +2556,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>491252.64000000007</x:v>
+        <x:v>491252.64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2646,7 +2646,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>455592.33</x:v>
+        <x:v>455592.33000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2826,7 +2826,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>420818.83000000007</x:v>
+        <x:v>420818.83</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3231,7 +3231,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>341917.85</x:v>
+        <x:v>341917.85000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3381,7 +3381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>324734.91</x:v>
+        <x:v>324734.91000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3501,7 +3501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>301632.54</x:v>
+        <x:v>301632.54000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3786,7 +3786,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>265517.04999999993</x:v>
+        <x:v>265517.05</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4101,7 +4101,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>225764.41</x:v>
+        <x:v>225764.41000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4251,7 +4251,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206739.86000000002</x:v>
+        <x:v>206739.86</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4266,7 +4266,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206544.63999999998</x:v>
+        <x:v>206544.64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4281,7 +4281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206035.48000000004</x:v>
+        <x:v>206035.48</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4311,7 +4311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>204087.56</x:v>
+        <x:v>204087.55999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4671,7 +4671,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>164118.17</x:v>
+        <x:v>164118.16999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4716,7 +4716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>162504.99</x:v>
+        <x:v>162504.98999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4956,7 +4956,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>144150.62000000002</x:v>
+        <x:v>144150.62000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5391,7 +5391,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>119630.70000000001</x:v>
+        <x:v>119630.7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5901,7 +5901,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>95996.450000000012</x:v>
+        <x:v>95996.45</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5991,7 +5991,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>89072.45</x:v>
+        <x:v>89072.449999999983</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6006,7 +6006,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>86342.31</x:v>
+        <x:v>86342.309999999983</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6561,7 +6561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>54266</x:v>
+        <x:v>54266.000000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6606,7 +6606,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>52637.260000000009</x:v>
+        <x:v>52637.26</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6756,7 +6756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48534.049999999996</x:v>
+        <x:v>48534.05</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6831,7 +6831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>42936.83</x:v>
+        <x:v>42936.829999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7116,7 +7116,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30168.83</x:v>
+        <x:v>30168.829999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7221,7 +7221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>22544</x:v>
+        <x:v>22543.999999999996</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R37ccda21c5d64d03"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rab19318e49a34db7"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -81,7 +81,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>16584316.81</x:v>
+        <x:v>16584316.809999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -126,7 +126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6277167.8</x:v>
+        <x:v>6277167.7999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -261,7 +261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3808891.8</x:v>
+        <x:v>3808891.8000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -276,7 +276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3740795.1999999997</x:v>
+        <x:v>3740795.2</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -351,7 +351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3014867.4099999992</x:v>
+        <x:v>3014867.4100000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -411,7 +411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2589602.1400000006</x:v>
+        <x:v>2589602.14</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -456,7 +456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2242779.7799999993</x:v>
+        <x:v>2242779.7800000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -486,7 +486,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2134345.2699999996</x:v>
+        <x:v>2134345.27</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -531,7 +531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1989838.1200000003</x:v>
+        <x:v>1989838.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -546,7 +546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1885101.69</x:v>
+        <x:v>1885101.6899999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -726,7 +726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1455858.31</x:v>
+        <x:v>1455858.3099999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -786,7 +786,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1381719.48</x:v>
+        <x:v>1381719.4799999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -801,7 +801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1356622.7599999998</x:v>
+        <x:v>1356622.76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -981,7 +981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1179210.3699999999</x:v>
+        <x:v>1179210.37</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1161,7 +1161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1017356.8100000002</x:v>
+        <x:v>1017356.81</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1176,7 +1176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>995050.35000000009</x:v>
+        <x:v>995050.34999999986</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1386,7 +1386,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>887637.15</x:v>
+        <x:v>887637.14999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1416,7 +1416,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>877482.84999999986</x:v>
+        <x:v>877482.85000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1551,7 +1551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>826359.06000000017</x:v>
+        <x:v>826359.05999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1641,7 +1641,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>796191.69</x:v>
+        <x:v>796191.69000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1656,7 +1656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>792770.72</x:v>
+        <x:v>792770.72000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1686,7 +1686,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>770779.96</x:v>
+        <x:v>770779.96000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1806,7 +1806,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>687670.86999999988</x:v>
+        <x:v>687670.87000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1821,7 +1821,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>679876.84999999986</x:v>
+        <x:v>679876.85</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2046,7 +2046,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>619907.93</x:v>
+        <x:v>619907.92999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2106,7 +2106,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>600592.14</x:v>
+        <x:v>600592.14000000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2151,7 +2151,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>579561.78999999992</x:v>
+        <x:v>579561.79</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2256,7 +2256,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>566924.39999999991</x:v>
+        <x:v>566924.4</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2346,7 +2346,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>545008.1100000001</x:v>
+        <x:v>545008.11</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2421,7 +2421,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>525296.76</x:v>
+        <x:v>525296.76000000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2496,7 +2496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>499835.67</x:v>
+        <x:v>499835.67000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2556,7 +2556,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>488622.13000000018</x:v>
+        <x:v>488622.13000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2631,7 +2631,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>457593.30999999994</x:v>
+        <x:v>457593.31</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2661,7 +2661,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>450094.39999999997</x:v>
+        <x:v>450094.4</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2721,7 +2721,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>435851.3600000001</x:v>
+        <x:v>435851.36000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2766,7 +2766,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>427687.20000000007</x:v>
+        <x:v>427687.19999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2796,7 +2796,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>425796.08</x:v>
+        <x:v>425796.07999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2826,7 +2826,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>423570.64</x:v>
+        <x:v>423570.6399999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2916,7 +2916,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>389174.95000000007</x:v>
+        <x:v>389174.94999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2946,7 +2946,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>375083.93</x:v>
+        <x:v>375083.92999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2991,7 +2991,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>373068.17000000004</x:v>
+        <x:v>373068.16999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3051,7 +3051,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>365653.9699999998</x:v>
+        <x:v>365653.97</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3126,7 +3126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>355283.81</x:v>
+        <x:v>355283.80999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3186,7 +3186,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>347787.43</x:v>
+        <x:v>347787.43000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3291,7 +3291,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>334344.38</x:v>
+        <x:v>334344.38000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3381,7 +3381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>324439.34</x:v>
+        <x:v>324439.33999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3426,7 +3426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>316835.51999999996</x:v>
+        <x:v>316835.52</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3831,7 +3831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>263624.68</x:v>
+        <x:v>263624.68000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3846,7 +3846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>261751.50999999995</x:v>
+        <x:v>261751.50999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3906,7 +3906,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>250018.41999999998</x:v>
+        <x:v>250018.42</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3936,7 +3936,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>246652.02</x:v>
+        <x:v>246652.02000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4026,7 +4026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>239662.36000000002</x:v>
+        <x:v>239662.36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4236,7 +4236,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206843.31000000003</x:v>
+        <x:v>206843.31000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4326,7 +4326,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>203021.74999999997</x:v>
+        <x:v>203021.75</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4371,7 +4371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>199795.50999999998</x:v>
+        <x:v>199795.51</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4521,7 +4521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>179103.77000000002</x:v>
+        <x:v>179103.77</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4866,7 +4866,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>153151.34</x:v>
+        <x:v>153151.34000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5046,7 +5046,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>140747.44999999998</x:v>
+        <x:v>140747.45</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5421,7 +5421,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>116898.48999999999</x:v>
+        <x:v>116898.49000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5466,7 +5466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>114212.04999999999</x:v>
+        <x:v>114212.05000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5496,7 +5496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>111464.62999999999</x:v>
+        <x:v>111464.62999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5526,7 +5526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>108080.65999999999</x:v>
+        <x:v>108080.66</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5646,7 +5646,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104033</x:v>
+        <x:v>104033.00000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5661,7 +5661,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104001.50999999998</x:v>
+        <x:v>104001.51000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5691,7 +5691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>103507.51000000001</x:v>
+        <x:v>103507.50999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5706,7 +5706,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>103409.35999999999</x:v>
+        <x:v>103409.36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5751,7 +5751,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102124.36</x:v>
+        <x:v>102124.35999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5811,7 +5811,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>101042.70000000001</x:v>
+        <x:v>101042.7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5991,7 +5991,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>88430.62000000001</x:v>
+        <x:v>88430.62</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6111,7 +6111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>77381.220000000016</x:v>
+        <x:v>77381.22</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6471,7 +6471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>58238.62000000001</x:v>
+        <x:v>58238.62</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6516,7 +6516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>57834.48000000001</x:v>
+        <x:v>57834.479999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6846,7 +6846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>42825.55000000001</x:v>
+        <x:v>42825.549999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6996,7 +6996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>33933</x:v>
+        <x:v>33933.000000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7086,7 +7086,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30674.420000000002</x:v>
+        <x:v>30674.42</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7176,7 +7176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>26799.25</x:v>
+        <x:v>26799.249999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7281,7 +7281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>20622.76</x:v>
+        <x:v>20622.759999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7371,7 +7371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14693.660000000002</x:v>
+        <x:v>14693.66</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -8241,7 +8241,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30.020000000000003</x:v>
+        <x:v>30.02</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rab19318e49a34db7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R1656c34e544e4aad"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -81,7 +81,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>16584316.809999999</x:v>
+        <x:v>16584316.810000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -276,7 +276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3740795.2</x:v>
+        <x:v>3740795.1999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -336,7 +336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3230428.5300000003</x:v>
+        <x:v>3230428.5300000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -351,7 +351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3014867.4100000006</x:v>
+        <x:v>3014867.4099999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -411,7 +411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2589602.14</x:v>
+        <x:v>2589602.1400000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -441,7 +441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2415802.3400000003</x:v>
+        <x:v>2415802.34</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -456,7 +456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2242779.7800000003</x:v>
+        <x:v>2242779.78</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -531,7 +531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1989838.12</x:v>
+        <x:v>1989838.1199999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -726,7 +726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1455858.3099999998</x:v>
+        <x:v>1455858.31</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -816,7 +816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1310218.94</x:v>
+        <x:v>1310218.9400000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1041,7 +1041,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1117963.35</x:v>
+        <x:v>1117963.3500000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1086,7 +1086,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1060965.05</x:v>
+        <x:v>1060965.0499999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1161,7 +1161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1017356.81</x:v>
+        <x:v>1017356.8100000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1176,7 +1176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>995050.34999999986</x:v>
+        <x:v>995050.34999999974</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1221,7 +1221,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>989457.25</x:v>
+        <x:v>989457.24999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1341,7 +1341,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>899166.83999999985</x:v>
+        <x:v>899166.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1371,7 +1371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>890904.20000000019</x:v>
+        <x:v>890904.2000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1386,7 +1386,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>887637.14999999991</x:v>
+        <x:v>887637.15</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1401,7 +1401,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>878958.91</x:v>
+        <x:v>878958.90999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1476,7 +1476,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>858728.65</x:v>
+        <x:v>858728.65000000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1551,7 +1551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>826359.05999999994</x:v>
+        <x:v>826359.06000000017</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1641,7 +1641,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>796191.69000000006</x:v>
+        <x:v>796191.69</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1656,7 +1656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>792770.72000000009</x:v>
+        <x:v>792770.72</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1806,7 +1806,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>687670.87000000011</x:v>
+        <x:v>687670.86999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1821,7 +1821,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>679876.85</x:v>
+        <x:v>679876.84999999986</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1836,7 +1836,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>679293.32</x:v>
+        <x:v>679293.31999999983</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2046,7 +2046,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>619907.92999999993</x:v>
+        <x:v>619907.93000000017</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2106,7 +2106,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>600592.14000000013</x:v>
+        <x:v>600592.14</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2211,7 +2211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>570170.82</x:v>
+        <x:v>570170.81999999983</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2256,7 +2256,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>566924.4</x:v>
+        <x:v>566924.39999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2421,7 +2421,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>525296.76000000013</x:v>
+        <x:v>525296.76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2496,7 +2496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>499835.67000000004</x:v>
+        <x:v>499835.67</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2556,7 +2556,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>488622.13000000006</x:v>
+        <x:v>488622.13000000018</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2661,7 +2661,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>450094.4</x:v>
+        <x:v>450094.39999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2721,7 +2721,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>435851.36000000004</x:v>
+        <x:v>435851.36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2826,7 +2826,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>423570.6399999999</x:v>
+        <x:v>423570.63999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2871,7 +2871,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>406407.24999999994</x:v>
+        <x:v>406407.25</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2901,7 +2901,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>391051.82999999996</x:v>
+        <x:v>391051.83</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2946,7 +2946,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>375083.92999999993</x:v>
+        <x:v>375083.93</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3051,7 +3051,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>365653.97</x:v>
+        <x:v>365653.9699999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3201,7 +3201,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>346183.80000000005</x:v>
+        <x:v>346183.8</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3291,7 +3291,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>334344.38000000006</x:v>
+        <x:v>334344.38</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3396,7 +3396,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>324377.02</x:v>
+        <x:v>324377.01999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3411,7 +3411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>316984.41999999993</x:v>
+        <x:v>316984.42</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3516,7 +3516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>300899.04999999993</x:v>
+        <x:v>300899.05</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3636,7 +3636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>283685.95999999996</x:v>
+        <x:v>283685.96</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3651,7 +3651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>282159.29</x:v>
+        <x:v>282159.29000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3831,7 +3831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>263624.68000000005</x:v>
+        <x:v>263624.68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3846,7 +3846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>261751.50999999998</x:v>
+        <x:v>261751.50999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4176,7 +4176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>215370.21000000002</x:v>
+        <x:v>215370.21</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4236,7 +4236,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>206843.31000000006</x:v>
+        <x:v>206843.31</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4521,7 +4521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>179103.77</x:v>
+        <x:v>179103.77000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4656,7 +4656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>164229.72</x:v>
+        <x:v>164229.71999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4866,7 +4866,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>153151.34000000003</x:v>
+        <x:v>153151.34</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4926,7 +4926,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>149087.29</x:v>
+        <x:v>149087.29000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4986,7 +4986,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>142600.59</x:v>
+        <x:v>142600.59000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5436,7 +5436,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>115867</x:v>
+        <x:v>115866.99999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5466,7 +5466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>114212.05000000002</x:v>
+        <x:v>114212.04999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5526,7 +5526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>108080.66</x:v>
+        <x:v>108080.65999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5706,7 +5706,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>103409.36</x:v>
+        <x:v>103409.35999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5751,7 +5751,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102124.35999999999</x:v>
+        <x:v>102124.36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5886,7 +5886,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>98426.03</x:v>
+        <x:v>98426.030000000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5946,7 +5946,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>92009.23</x:v>
+        <x:v>92009.229999999981</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6096,7 +6096,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>79118.209999999992</x:v>
+        <x:v>79118.209999999977</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6381,7 +6381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>66166.27</x:v>
+        <x:v>66166.270000000019</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6516,7 +6516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>57834.479999999996</x:v>
+        <x:v>57834.48</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6546,7 +6546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>55733.95</x:v>
+        <x:v>55733.94999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6726,7 +6726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>49608.140000000007</x:v>
+        <x:v>49608.14</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6741,7 +6741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48666.570000000007</x:v>
+        <x:v>48666.570000000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7071,7 +7071,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30937.649999999998</x:v>
+        <x:v>30937.65</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7086,7 +7086,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30674.42</x:v>
+        <x:v>30674.420000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7176,7 +7176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>26799.249999999996</x:v>
+        <x:v>26799.25</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7281,7 +7281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>20622.759999999995</x:v>
+        <x:v>20622.76</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7371,7 +7371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14693.66</x:v>
+        <x:v>14693.660000000002</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R1656c34e544e4aad"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R655e71d30f714267"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -81,7 +81,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>16584316.810000002</x:v>
+        <x:v>16584316.809999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -96,7 +96,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>8162966.580000001</x:v>
+        <x:v>8162966.5799999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -111,7 +111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>7259476.9099999983</x:v>
+        <x:v>7259476.910000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -126,7 +126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6277167.7999999989</x:v>
+        <x:v>6277167.8000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -141,7 +141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>5792089.1899999985</x:v>
+        <x:v>5792089.19</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -156,7 +156,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4501436.1000000015</x:v>
+        <x:v>4501436.1</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -201,7 +201,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>4287314.8599999994</x:v>
+        <x:v>4287314.86</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -246,7 +246,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3831830.66</x:v>
+        <x:v>3831830.6600000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -261,7 +261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3808891.8000000007</x:v>
+        <x:v>3808891.7999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -306,7 +306,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3421470.7899999996</x:v>
+        <x:v>3421470.7899999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -321,7 +321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3355467.0200000009</x:v>
+        <x:v>3355467.02</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -351,7 +351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3014867.4099999992</x:v>
+        <x:v>3014867.41</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -366,7 +366,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2864800.8099999987</x:v>
+        <x:v>2864800.81</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -381,7 +381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2834707.34</x:v>
+        <x:v>2834707.3400000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -441,7 +441,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2415802.34</x:v>
+        <x:v>2415802.3400000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -456,7 +456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2242779.78</x:v>
+        <x:v>2242779.7800000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -471,7 +471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2237568.21</x:v>
+        <x:v>2237568.2100000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -516,7 +516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2002359.3099999998</x:v>
+        <x:v>2002359.31</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -531,7 +531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1989838.1199999999</x:v>
+        <x:v>1989838.1200000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -561,7 +561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1875931.8900000001</x:v>
+        <x:v>1875931.89</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -576,7 +576,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1848493.68</x:v>
+        <x:v>1848493.6800000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -621,7 +621,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1797021.95</x:v>
+        <x:v>1797021.9500000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -636,7 +636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1674010.55</x:v>
+        <x:v>1674010.5499999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -651,7 +651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1647358.94</x:v>
+        <x:v>1647358.9399999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -666,7 +666,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1638236.9700000002</x:v>
+        <x:v>1638236.97</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -681,7 +681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1630026.37</x:v>
+        <x:v>1630026.3699999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -726,7 +726,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1455858.31</x:v>
+        <x:v>1455858.3099999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -741,7 +741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1440414.9300000002</x:v>
+        <x:v>1440414.93</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -756,7 +756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1428496.01</x:v>
+        <x:v>1428496.0100000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -801,7 +801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1356622.76</x:v>
+        <x:v>1356622.7599999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -906,7 +906,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1252664.4600000002</x:v>
+        <x:v>1252664.46</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -921,7 +921,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1239664.8599999999</x:v>
+        <x:v>1239664.86</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -996,7 +996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1156081.4799999997</x:v>
+        <x:v>1156081.48</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1041,7 +1041,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1117963.3500000003</x:v>
+        <x:v>1117963.35</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1056,7 +1056,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1076672.33</x:v>
+        <x:v>1076672.3300000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1086,7 +1086,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1060965.0499999998</x:v>
+        <x:v>1060965.05</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1116,7 +1116,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1056821.56</x:v>
+        <x:v>1056821.5599999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1161,7 +1161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1017356.8100000002</x:v>
+        <x:v>1017356.81</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1191,7 +1191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>992656.22</x:v>
+        <x:v>992656.2200000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1206,7 +1206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>990423.66999999993</x:v>
+        <x:v>990423.67</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1236,7 +1236,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>981629.72000000009</x:v>
+        <x:v>981629.72</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1251,7 +1251,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>979203.04</x:v>
+        <x:v>979203.04000000015</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1281,7 +1281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>970499.9800000001</x:v>
+        <x:v>970499.98</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1296,7 +1296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>957811.8600000001</x:v>
+        <x:v>957811.86000000022</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1356,7 +1356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>896839.68</x:v>
+        <x:v>896839.68000000017</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1371,7 +1371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>890904.2000000003</x:v>
+        <x:v>890904.19999999984</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1386,7 +1386,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>887637.15</x:v>
+        <x:v>887637.14999999979</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1401,7 +1401,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>878958.90999999992</x:v>
+        <x:v>878958.91</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1416,7 +1416,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>877482.85000000009</x:v>
+        <x:v>877482.85</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1476,7 +1476,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>858728.65000000014</x:v>
+        <x:v>858728.65</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1491,7 +1491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>843884.02</x:v>
+        <x:v>843884.0199999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1536,7 +1536,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>828921.34</x:v>
+        <x:v>828921.33999999985</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1551,7 +1551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>826359.06000000017</x:v>
+        <x:v>826359.06</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1581,7 +1581,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>812061.05</x:v>
+        <x:v>812061.05000000016</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1626,7 +1626,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>799642.15</x:v>
+        <x:v>799642.14999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1641,7 +1641,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>796191.69</x:v>
+        <x:v>796191.69000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1716,7 +1716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>764183.26000000013</x:v>
+        <x:v>764183.26</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1761,7 +1761,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>717405.82000000007</x:v>
+        <x:v>717405.82</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1806,7 +1806,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>687670.86999999988</x:v>
+        <x:v>687670.87</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1836,7 +1836,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>679293.31999999983</x:v>
+        <x:v>679293.32000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1881,7 +1881,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>659281.16</x:v>
+        <x:v>659281.15999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2001,7 +2001,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>623937.71</x:v>
+        <x:v>623937.70999999985</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2046,7 +2046,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>619907.93000000017</x:v>
+        <x:v>619907.93</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2061,7 +2061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>619734.14999999979</x:v>
+        <x:v>619734.15</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2076,7 +2076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>608997.85999999987</x:v>
+        <x:v>608997.85999999975</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2151,7 +2151,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>579561.79</x:v>
+        <x:v>579561.7899999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2166,7 +2166,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>579216.09</x:v>
+        <x:v>579216.09000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2181,7 +2181,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>575625.14</x:v>
+        <x:v>575625.14000000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2196,7 +2196,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>573318.21</x:v>
+        <x:v>573318.20999999985</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2211,7 +2211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>570170.81999999983</x:v>
+        <x:v>570170.82</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2226,7 +2226,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>569337.54000000015</x:v>
+        <x:v>569337.54</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2241,7 +2241,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>567672.67</x:v>
+        <x:v>567672.66999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2271,7 +2271,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>558294.85000000009</x:v>
+        <x:v>558294.85</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2331,7 +2331,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>549552.4800000001</x:v>
+        <x:v>549552.48</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2436,7 +2436,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>518141.59</x:v>
+        <x:v>518141.59000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2451,7 +2451,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>508377.00999999989</x:v>
+        <x:v>508377.00999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2496,7 +2496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>499835.67</x:v>
+        <x:v>499835.66999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2586,7 +2586,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>462640.06</x:v>
+        <x:v>462640.05999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2631,7 +2631,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>457593.31</x:v>
+        <x:v>457593.30999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2691,7 +2691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>437852.06999999989</x:v>
+        <x:v>437852.07000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2766,7 +2766,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>427687.19999999995</x:v>
+        <x:v>427687.20000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2796,7 +2796,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>425796.07999999996</x:v>
+        <x:v>425796.08</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2811,7 +2811,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>425558.97999999992</x:v>
+        <x:v>425558.98</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2826,7 +2826,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>423570.63999999996</x:v>
+        <x:v>423570.64</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2841,7 +2841,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>420137.12</x:v>
+        <x:v>420137.11999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2856,7 +2856,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>418648.83</x:v>
+        <x:v>418648.82999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2931,7 +2931,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>386658.18</x:v>
+        <x:v>386658.17999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2991,7 +2991,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>373068.16999999993</x:v>
+        <x:v>373068.17000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3006,7 +3006,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>369947.56000000006</x:v>
+        <x:v>369947.56</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3081,7 +3081,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>363383.93000000005</x:v>
+        <x:v>363383.93</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3096,7 +3096,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>362338.65</x:v>
+        <x:v>362338.64999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3111,7 +3111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>360405.55000000005</x:v>
+        <x:v>360405.55</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3126,7 +3126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>355283.80999999994</x:v>
+        <x:v>355283.81</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3156,7 +3156,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>351829.79999999993</x:v>
+        <x:v>351829.8</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3216,7 +3216,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>344657.0500000001</x:v>
+        <x:v>344657.05</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3306,7 +3306,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>332899.67999999993</x:v>
+        <x:v>332899.68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3336,7 +3336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>326757.02</x:v>
+        <x:v>326757.02000000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3351,7 +3351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>326744.00000000006</x:v>
+        <x:v>326744</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3381,7 +3381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>324439.33999999997</x:v>
+        <x:v>324439.34000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3396,7 +3396,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>324377.01999999996</x:v>
+        <x:v>324377.02</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3411,7 +3411,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>316984.42</x:v>
+        <x:v>316984.41999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3516,7 +3516,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>300899.05</x:v>
+        <x:v>300899.04999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3531,7 +3531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>297222.32999999996</x:v>
+        <x:v>297222.33</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3546,7 +3546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>296872.2900000001</x:v>
+        <x:v>296872.29000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3561,7 +3561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>293902.91</x:v>
+        <x:v>293902.91000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3636,7 +3636,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>283685.96</x:v>
+        <x:v>283685.95999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3651,7 +3651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>282159.29000000004</x:v>
+        <x:v>282159.29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3681,7 +3681,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>277185.38000000006</x:v>
+        <x:v>277185.37999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3816,7 +3816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>264635.47000000003</x:v>
+        <x:v>264635.47</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3936,7 +3936,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>246652.02000000002</x:v>
+        <x:v>246652.02</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3966,7 +3966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>244461.63</x:v>
+        <x:v>244461.62999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3996,7 +3996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>240125.41999999998</x:v>
+        <x:v>240125.42000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4011,7 +4011,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>239809.05000000005</x:v>
+        <x:v>239809.05</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4026,7 +4026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>239662.36</x:v>
+        <x:v>239662.36000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4041,7 +4041,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>238221.43000000002</x:v>
+        <x:v>238221.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4071,7 +4071,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>235687.37000000002</x:v>
+        <x:v>235687.37000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4086,7 +4086,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>229460.00000000003</x:v>
+        <x:v>229460</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4116,7 +4116,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>222467.85000000003</x:v>
+        <x:v>222467.84999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4176,7 +4176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>215370.21</x:v>
+        <x:v>215370.21000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4191,7 +4191,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>209961.88</x:v>
+        <x:v>209961.88000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4206,7 +4206,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>209403.90000000002</x:v>
+        <x:v>209403.89999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4296,7 +4296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>204353.42</x:v>
+        <x:v>204353.41999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4311,7 +4311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>203667.06</x:v>
+        <x:v>203667.06000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4386,7 +4386,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>194580.24000000002</x:v>
+        <x:v>194580.23999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4431,7 +4431,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>193264.14</x:v>
+        <x:v>193264.13999999996</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4476,7 +4476,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>184530.03</x:v>
+        <x:v>184530.03000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4491,7 +4491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>182331.2</x:v>
+        <x:v>182331.19999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4521,7 +4521,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>179103.77000000002</x:v>
+        <x:v>179103.77</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4551,7 +4551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>173136.98999999996</x:v>
+        <x:v>173136.99</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4566,7 +4566,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>171621.18000000002</x:v>
+        <x:v>171621.18</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4626,7 +4626,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>167605.02000000002</x:v>
+        <x:v>167605.02000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4656,7 +4656,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>164229.71999999997</x:v>
+        <x:v>164229.72</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4701,7 +4701,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>161848.59</x:v>
+        <x:v>161848.58999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4716,7 +4716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>161834.25000000006</x:v>
+        <x:v>161834.24999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4731,7 +4731,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>161150.02</x:v>
+        <x:v>161150.02000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4746,7 +4746,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>160450.78</x:v>
+        <x:v>160450.78000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4761,7 +4761,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>159915.21999999997</x:v>
+        <x:v>159915.22</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4806,7 +4806,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158534.13999999996</x:v>
+        <x:v>158534.13999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4881,7 +4881,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>151831.02</x:v>
+        <x:v>151831.02000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4941,7 +4941,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>146574.36000000002</x:v>
+        <x:v>146574.36000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5016,7 +5016,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>141227.58000000005</x:v>
+        <x:v>141227.58000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5046,7 +5046,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>140747.45</x:v>
+        <x:v>140747.44999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5076,7 +5076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>139997.82000000004</x:v>
+        <x:v>139997.82</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5256,7 +5256,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>131558.78</x:v>
+        <x:v>131558.77999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5346,7 +5346,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>124471.67000000001</x:v>
+        <x:v>124471.67</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5406,7 +5406,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>119373.65</x:v>
+        <x:v>119373.65000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5451,7 +5451,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>114282.90000000002</x:v>
+        <x:v>114282.9</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5466,7 +5466,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>114212.04999999999</x:v>
+        <x:v>114212.05</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5496,7 +5496,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>111464.62999999998</x:v>
+        <x:v>111464.63</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5526,7 +5526,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>108080.65999999999</x:v>
+        <x:v>108080.66</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5586,7 +5586,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104988.17</x:v>
+        <x:v>104988.17000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5601,7 +5601,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104546.26999999999</x:v>
+        <x:v>104546.27</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5646,7 +5646,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104033.00000000001</x:v>
+        <x:v>104033</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5661,7 +5661,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104001.51000000001</x:v>
+        <x:v>104001.51000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5691,7 +5691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>103507.50999999995</x:v>
+        <x:v>103507.50999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5706,7 +5706,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>103409.35999999999</x:v>
+        <x:v>103409.36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5736,7 +5736,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102596.61</x:v>
+        <x:v>102596.61000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5751,7 +5751,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>102124.36</x:v>
+        <x:v>102124.35999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5796,7 +5796,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>101541.54</x:v>
+        <x:v>101541.53999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5841,7 +5841,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>100918.03</x:v>
+        <x:v>100918.02999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5856,7 +5856,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>100535.18999999999</x:v>
+        <x:v>100535.18999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5886,7 +5886,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>98426.030000000013</x:v>
+        <x:v>98426.03</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5991,7 +5991,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>88430.62</x:v>
+        <x:v>88430.620000000024</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6111,7 +6111,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>77381.22</x:v>
+        <x:v>77381.220000000016</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6171,7 +6171,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>76343.08</x:v>
+        <x:v>76343.079999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6186,7 +6186,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>74827.010000000009</x:v>
+        <x:v>74827.01</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6201,7 +6201,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>74605.26</x:v>
+        <x:v>74605.260000000009</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6381,7 +6381,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>66166.270000000019</x:v>
+        <x:v>66166.26999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6426,7 +6426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>62563.159999999996</x:v>
+        <x:v>62563.159999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6546,7 +6546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>55733.94999999999</x:v>
+        <x:v>55733.950000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6591,7 +6591,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>53782.45</x:v>
+        <x:v>53782.450000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6606,7 +6606,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>53412.35</x:v>
+        <x:v>53412.349999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6741,7 +6741,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>48666.570000000014</x:v>
+        <x:v>48666.570000000007</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6876,7 +6876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>41795.92</x:v>
+        <x:v>41795.920000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6966,7 +6966,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>35167.22</x:v>
+        <x:v>35167.219999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7371,7 +7371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>14693.660000000002</x:v>
+        <x:v>14693.66</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7596,7 +7596,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>5744.619999999999</x:v>
+        <x:v>5744.62</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7836,7 +7836,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>757.97</x:v>
+        <x:v>757.96999999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7986,7 +7986,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>225.57</x:v>
+        <x:v>225.57000000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -8241,7 +8241,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30.02</x:v>
+        <x:v>30.020000000000003</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R655e71d30f714267"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R3e44e513919141c4"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R940590dee297438a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R1b56b9e6e5f74fe7"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -126,7 +126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6278329.7</x:v>
+        <x:v>6278329.6999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -336,7 +336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3012882.4000000004</x:v>
+        <x:v>3012882.4</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -351,7 +351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2865386.8499999996</x:v>
+        <x:v>2865386.85</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -426,7 +426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2416533.23</x:v>
+        <x:v>2416533.2300000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -456,7 +456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2243655.66</x:v>
+        <x:v>2243655.6599999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -501,7 +501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2128048.0300000003</x:v>
+        <x:v>2128048.03</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -531,7 +531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1990468.1199999999</x:v>
+        <x:v>1990468.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -591,7 +591,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1821193.8400000003</x:v>
+        <x:v>1821193.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -651,7 +651,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1647377.6999999997</x:v>
+        <x:v>1647377.7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -756,7 +756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1429390.37</x:v>
+        <x:v>1429390.3700000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -816,7 +816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1310559.4100000001</x:v>
+        <x:v>1310559.41</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -831,7 +831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1302248.75</x:v>
+        <x:v>1302248.7500000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -981,7 +981,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1179782.8399999999</x:v>
+        <x:v>1179782.84</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1026,7 +1026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1153257.2500000002</x:v>
+        <x:v>1153257.25</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1161,7 +1161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1017319.9600000001</x:v>
+        <x:v>1017319.96</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1176,7 +1176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>995467.22999999975</x:v>
+        <x:v>995467.22999999986</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1281,7 +1281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>970678.66</x:v>
+        <x:v>970678.66000000015</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1296,7 +1296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>958286.89999999991</x:v>
+        <x:v>958286.9</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1311,7 +1311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>945668.44000000018</x:v>
+        <x:v>945668.44000000006</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1356,7 +1356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>899126.66999999981</x:v>
+        <x:v>899126.66999999993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1371,7 +1371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>897405.88</x:v>
+        <x:v>897405.88000000012</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1491,7 +1491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>858339.23999999987</x:v>
+        <x:v>858339.24</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1596,7 +1596,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>816513.54</x:v>
+        <x:v>816513.53999999992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1701,7 +1701,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>777485.6100000001</x:v>
+        <x:v>777485.61</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1716,7 +1716,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>771015.15</x:v>
+        <x:v>771015.14999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2076,7 +2076,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>608208.9</x:v>
+        <x:v>608208.89999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2091,7 +2091,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>606976.32</x:v>
+        <x:v>606976.31999999983</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2211,7 +2211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>569606.23</x:v>
+        <x:v>569606.2300000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2271,7 +2271,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>554357.59</x:v>
+        <x:v>554357.59000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2301,7 +2301,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>549858.62</x:v>
+        <x:v>549858.61999999988</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2406,7 +2406,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>526329.25999999989</x:v>
+        <x:v>526329.26</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2676,7 +2676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>450278.95</x:v>
+        <x:v>450278.94999999995</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2691,7 +2691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>448971.12000000005</x:v>
+        <x:v>448971.12</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2736,7 +2736,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>436062.68000000005</x:v>
+        <x:v>436062.68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2751,7 +2751,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>430318.78</x:v>
+        <x:v>430318.77999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2856,7 +2856,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>420341.24000000005</x:v>
+        <x:v>420341.24</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2916,7 +2916,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>391230.43</x:v>
+        <x:v>391230.43000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3141,7 +3141,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>355456.91999999993</x:v>
+        <x:v>355456.92</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3201,7 +3201,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>347931.54</x:v>
+        <x:v>347931.54000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3261,7 +3261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>342252.75</x:v>
+        <x:v>342252.74999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3306,7 +3306,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>334490.73999999993</x:v>
+        <x:v>334490.74</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3351,7 +3351,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>327048.94</x:v>
+        <x:v>327048.93999999994</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3471,7 +3471,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>313596.54</x:v>
+        <x:v>313596.54000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3546,7 +3546,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>297368.26999999996</x:v>
+        <x:v>297368.27</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3606,7 +3606,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>288656.46</x:v>
+        <x:v>288656.46000000008</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3801,7 +3801,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>265385.14999999997</x:v>
+        <x:v>265385.15</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3861,7 +3861,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>261879.41</x:v>
+        <x:v>261879.40999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3921,7 +3921,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>250200.78</x:v>
+        <x:v>250200.78000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4041,7 +4041,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>239707.68</x:v>
+        <x:v>239707.68000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4086,7 +4086,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>235861.33000000002</x:v>
+        <x:v>235861.33</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4356,7 +4356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>202564.04</x:v>
+        <x:v>202564.03999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4371,7 +4371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>202324.47</x:v>
+        <x:v>202324.46999999997</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4416,7 +4416,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>193871.05000000002</x:v>
+        <x:v>193871.05</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4536,7 +4536,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>179144.87000000002</x:v>
+        <x:v>179144.87</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4551,7 +4551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>177148.68000000002</x:v>
+        <x:v>177148.68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4596,7 +4596,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>170962.27000000002</x:v>
+        <x:v>170962.27</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -4836,7 +4836,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>158456.96</x:v>
+        <x:v>158456.96000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5061,7 +5061,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>140209.39</x:v>
+        <x:v>140209.38999999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5331,7 +5331,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>128830.1</x:v>
+        <x:v>128830.09999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5631,7 +5631,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>104589.01000000002</x:v>
+        <x:v>104589.01000000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5841,7 +5841,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>100968.04999999997</x:v>
+        <x:v>100968.04999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5856,7 +5856,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>100504.31999999998</x:v>
+        <x:v>100504.31999999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5886,7 +5886,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>98501.919999999984</x:v>
+        <x:v>98501.919999999969</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5901,7 +5901,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>96078.78</x:v>
+        <x:v>96078.780000000013</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5931,7 +5931,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>94862.270000000019</x:v>
+        <x:v>94862.27</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -5946,7 +5946,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>92052.52</x:v>
+        <x:v>92052.520000000019</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6171,7 +6171,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>76380.99000000002</x:v>
+        <x:v>76380.99</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6306,7 +6306,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>68644.84</x:v>
+        <x:v>68644.840000000011</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6321,7 +6321,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>68090.459999999992</x:v>
+        <x:v>68090.46</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6456,7 +6456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>58673.549999999996</x:v>
+        <x:v>58673.55</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6561,7 +6561,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>54374.989999999991</x:v>
+        <x:v>54374.99</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6816,7 +6816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>43410.799999999996</x:v>
+        <x:v>43410.8</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6846,7 +6846,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>42843.009999999995</x:v>
+        <x:v>42843.01</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6876,7 +6876,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>41803.709999999992</x:v>
+        <x:v>41803.71</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -6996,7 +6996,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>33949.380000000005</x:v>
+        <x:v>33949.38</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7041,7 +7041,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>32248.12</x:v>
+        <x:v>32248.120000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7116,7 +7116,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>30133.46</x:v>
+        <x:v>30133.460000000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7431,7 +7431,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>11498.51</x:v>
+        <x:v>11498.510000000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -7551,7 +7551,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6850.7099999999991</x:v>
+        <x:v>6850.71</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/PL Total.xlsx
+++ b/PL Total.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R1b56b9e6e5f74fe7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Ree0c1794df2f4e4e"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -126,7 +126,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>6278329.6999999993</x:v>
+        <x:v>6278329.7</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -276,7 +276,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3742748.24</x:v>
+        <x:v>3742748.2399999998</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -336,7 +336,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3012882.4</x:v>
+        <x:v>3012882.4000000004</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -426,7 +426,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2416533.2300000004</x:v>
+        <x:v>2416533.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -456,7 +456,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2243655.6599999997</x:v>
+        <x:v>2243655.66</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -501,7 +501,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>2128048.03</x:v>
+        <x:v>2128048.0300000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -531,7 +531,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1990468.12</x:v>
+        <x:v>1990468.1199999999</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -591,7 +591,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1821193.84</x:v>
+        <x:v>1821193.8400000003</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -756,7 +756,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1429390.3700000003</x:v>
+        <x:v>1429390.37</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -816,7 +816,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1310559.41</x:v>
+        <x:v>1310559.4100000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -831,7 +831,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1302248.7500000002</x:v>
+        <x:v>1302248.75</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1026,7 +1026,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1153257.25</x:v>
+        <x:v>1153257.2500000002</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1161,7 +1161,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>1017319.96</x:v>
+        <x:v>1017319.9600000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1176,7 +1176,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>995467.22999999986</x:v>
+        <x:v>995467.22999999975</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1281,7 +1281,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>970678.66000000015</x:v>
+        <x:v>970678.66</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1296,7 +1296,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>958286.9</x:v>
+        <x:v>958286.89999999991</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1311,7 +1311,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>945668.44000000006</x:v>
+        <x:v>945668.44000000018</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1356,7 +1356,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>899126.66999999993</x:v>
+        <x:v>899126.66999999981</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1371,7 +1371,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>897405.88000000012</x:v>
+        <x:v>897405.88</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1416,7 +1416,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>879326.65</x:v>
+        <x:v>879326.65000000014</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1491,7 +1491,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>858339.24</x:v>
+        <x:v>858339.23999999987</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1596,7 +1596,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>816513.53999999992</x:v>
+        <x:v>816513.54</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1701,7 +1701,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>777485.61</x:v>
+        <x:v>777485.6100000001</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2016,7 +2016,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>623992.3899999999</x:v>
+        <x:v>623992.39</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2091,7 +2091,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>606976.31999999983</x:v>
+        <x:v>606976.32</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2211,7 +2211,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>569606.2300000001</x:v>
+        <x:v>569606.23</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2271,7 +2271,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>554357.59000000008</x:v>
+        <x:v>554357.59</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2406,7 +2406,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>526329.26</x:v>
+        <x:v>526329.25999999989</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2676,7 +2676,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>450278.94999999995</x:v>
+        <x:v>450278.95</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2691,7 +2691,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>448971.12</x:v>
+        <x:v>448971.12000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2736,7 +2736,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>436062.68</x:v>
+        <x:v>436062.68000000005</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2916,7 +2916,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>391230.43000000005</x:v>
+        <x:v>391230.43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3261,7 +3261,7 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>342252.74999999994</x:v>
+        <x:v>342252.75</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -3351,7 +3351,7 @@
         </x:is>
       </x:c>
 